--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -549,7 +549,7 @@
         <v>42826</v>
       </c>
       <c r="C2">
-        <v>-0.5864639532244142</v>
+        <v>-1.748998887289788</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -558,7 +558,7 @@
         <v>42917</v>
       </c>
       <c r="C3">
-        <v>0.2160035196942411</v>
+        <v>0.7212108057628175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -567,7 +567,7 @@
         <v>43009</v>
       </c>
       <c r="C4">
-        <v>0.4358534042445683</v>
+        <v>0.584198375042555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -576,7 +576,7 @@
         <v>43101</v>
       </c>
       <c r="C5">
-        <v>0.7085023562116044</v>
+        <v>0.5372230341923023</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -585,7 +585,7 @@
         <v>43191</v>
       </c>
       <c r="C6">
-        <v>-2.930893290448433</v>
+        <v>-2.741055620995669</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -594,7 +594,7 @@
         <v>43282</v>
       </c>
       <c r="C7">
-        <v>-0.05426208205756566</v>
+        <v>-0.9668594037150258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -603,7 +603,7 @@
         <v>43374</v>
       </c>
       <c r="C8">
-        <v>0.8261476876174845</v>
+        <v>1.398655880100685</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -612,7 +612,7 @@
         <v>43466</v>
       </c>
       <c r="C9">
-        <v>0.3727932905569054</v>
+        <v>0.08019424317220469</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -621,7 +621,7 @@
         <v>43556</v>
       </c>
       <c r="C10">
-        <v>-3.037794860917398</v>
+        <v>-2.945542745796748</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +630,7 @@
         <v>43647</v>
       </c>
       <c r="C11">
-        <v>1.330661299037383</v>
+        <v>1.275308685979337</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -639,7 +639,7 @@
         <v>43739</v>
       </c>
       <c r="C12">
-        <v>-1.509003567376233</v>
+        <v>-0.7580166298843283</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -648,7 +648,7 @@
         <v>43831</v>
       </c>
       <c r="C13">
-        <v>-4.584347616607221</v>
+        <v>-4.498932489343699</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>43922</v>
       </c>
       <c r="C14">
-        <v>-16.37231726662623</v>
+        <v>-15.73335955452969</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -666,7 +666,7 @@
         <v>44013</v>
       </c>
       <c r="C15">
-        <v>7.010943279760173</v>
+        <v>8.095154062709554</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -675,7 +675,7 @@
         <v>44105</v>
       </c>
       <c r="C16">
-        <v>4.496759984042153</v>
+        <v>2.475789292618891</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>44197</v>
       </c>
       <c r="C17">
-        <v>0.5311143646785643</v>
+        <v>0.8799777003799969</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +695,7 @@
         <v>42826</v>
       </c>
       <c r="C18">
-        <v>0.8992331663754571</v>
+        <v>0.6724471696230028</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -704,7 +704,7 @@
         <v>42917</v>
       </c>
       <c r="C19">
-        <v>0.2699788048592389</v>
+        <v>0.2894248850870973</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -713,7 +713,7 @@
         <v>43009</v>
       </c>
       <c r="C20">
-        <v>1.153869023161014</v>
+        <v>1.220592301729329</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -722,7 +722,7 @@
         <v>43101</v>
       </c>
       <c r="C21">
-        <v>0.596441644986534</v>
+        <v>0.4513881422325117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -731,7 +731,7 @@
         <v>43191</v>
       </c>
       <c r="C22">
-        <v>0.8986622597342064</v>
+        <v>0.869535478269956</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -740,7 +740,7 @@
         <v>43282</v>
       </c>
       <c r="C23">
-        <v>0.6853028747251022</v>
+        <v>0.6779474487473403</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43374</v>
       </c>
       <c r="C24">
-        <v>-0.1078838836186091</v>
+        <v>0.2635750819564686</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -758,7 +758,7 @@
         <v>43466</v>
       </c>
       <c r="C25">
-        <v>0.7831422780034902</v>
+        <v>0.6364944730194777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -767,7 +767,7 @@
         <v>43556</v>
       </c>
       <c r="C26">
-        <v>0.8046983801658802</v>
+        <v>0.54207508855868</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -776,7 +776,7 @@
         <v>43647</v>
       </c>
       <c r="C27">
-        <v>0.03884248571439652</v>
+        <v>0.4553286138542223</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -785,7 +785,7 @@
         <v>43739</v>
       </c>
       <c r="C28">
-        <v>0.1415684695035502</v>
+        <v>-0.228197096956162</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -794,7 +794,7 @@
         <v>43831</v>
       </c>
       <c r="C29">
-        <v>-2.767274304707301</v>
+        <v>-2.602842160741425</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -803,7 +803,7 @@
         <v>43922</v>
       </c>
       <c r="C30">
-        <v>-5.594037288655118</v>
+        <v>-5.402854804137336</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -812,7 +812,7 @@
         <v>44013</v>
       </c>
       <c r="C31">
-        <v>4.57217362827147</v>
+        <v>4.991052845192234</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -821,7 +821,7 @@
         <v>44105</v>
       </c>
       <c r="C32">
-        <v>5.426545557333395</v>
+        <v>4.94379623061878</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -830,7 +830,7 @@
         <v>44197</v>
       </c>
       <c r="C33">
-        <v>-0.5740936092668236</v>
+        <v>0.6123102455506402</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -841,7 +841,7 @@
         <v>42826</v>
       </c>
       <c r="C34">
-        <v>-0.3472414507480703</v>
+        <v>-0.005539136849663784</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -850,7 +850,7 @@
         <v>42917</v>
       </c>
       <c r="C35">
-        <v>0.4648219913119922</v>
+        <v>0.8521027498621159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43009</v>
       </c>
       <c r="C36">
-        <v>1.232970148109791</v>
+        <v>0.3461497697015536</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -868,7 +868,7 @@
         <v>43101</v>
       </c>
       <c r="C37">
-        <v>0.3641440249773087</v>
+        <v>0.2666078981104381</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -877,7 +877,7 @@
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>0.8578329565689824</v>
+        <v>0.4671546945143712</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -886,7 +886,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>0.5411101201561408</v>
+        <v>0.5992730867374174</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -895,7 +895,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>-0.3914239089495397</v>
+        <v>0.1464881912718985</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -904,7 +904,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.906013029740716</v>
+        <v>1.315091541371083</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -913,7 +913,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>0.05820863325682879</v>
+        <v>0.6422118359571627</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -922,7 +922,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>-0.3339325255074965</v>
+        <v>0.06427183730459696</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -931,7 +931,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>0.6609027888061059</v>
+        <v>0.8514098475230103</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -940,7 +940,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-4.702983360028334</v>
+        <v>-5.526818713486115</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -949,7 +949,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-9.395051021502077</v>
+        <v>-8.303500194112722</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -958,7 +958,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>8.980928936913646</v>
+        <v>8.44993375574834</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -967,7 +967,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-2.780077351736532</v>
+        <v>-3.01719790276086</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -976,7 +976,7 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>-3.264018753132203</v>
+        <v>-3.927333186939319</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -987,7 +987,7 @@
         <v>42826</v>
       </c>
       <c r="C50">
-        <v>0.5366580812132815</v>
+        <v>0.4442860034684193</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -996,7 +996,7 @@
         <v>42917</v>
       </c>
       <c r="C51">
-        <v>-0.02278433783523548</v>
+        <v>0.6380728822756421</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1005,7 +1005,7 @@
         <v>43009</v>
       </c>
       <c r="C52">
-        <v>0.7156115909718652</v>
+        <v>-0.02443749892884206</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1014,7 +1014,7 @@
         <v>43101</v>
       </c>
       <c r="C53">
-        <v>0.3435792095058954</v>
+        <v>0.2496611499883228</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1023,7 +1023,7 @@
         <v>43191</v>
       </c>
       <c r="C54">
-        <v>0.8398153377291662</v>
+        <v>0.8650228404399662</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>43282</v>
       </c>
       <c r="C55">
-        <v>-0.1444045382215431</v>
+        <v>-0.4486799324923907</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>43374</v>
       </c>
       <c r="C56">
-        <v>0.26780019837358</v>
+        <v>0.8598131409413012</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43466</v>
       </c>
       <c r="C57">
-        <v>0.2290661421418427</v>
+        <v>0.5283174941546731</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43556</v>
       </c>
       <c r="C58">
-        <v>0.7056778306066214</v>
+        <v>-0.1135076825143355</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>43647</v>
       </c>
       <c r="C59">
-        <v>0.1310613977275166</v>
+        <v>0.7298974036786809</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>43739</v>
       </c>
       <c r="C60">
-        <v>0.5831271103229341</v>
+        <v>0.5218742242879104</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>43831</v>
       </c>
       <c r="C61">
-        <v>-5.152196406645237</v>
+        <v>-5.140069465802199</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>43922</v>
       </c>
       <c r="C62">
-        <v>-8.877774590143861</v>
+        <v>-8.719632228052209</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1104,7 +1104,7 @@
         <v>44013</v>
       </c>
       <c r="C63">
-        <v>10.44614912232698</v>
+        <v>10.63769525880886</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1113,7 +1113,7 @@
         <v>44105</v>
       </c>
       <c r="C64">
-        <v>-2.949046909389508</v>
+        <v>-2.070443613476591</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>44197</v>
       </c>
       <c r="C65">
-        <v>-1.984916875118059</v>
+        <v>-2.117867404559248</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>42826</v>
       </c>
       <c r="C66">
-        <v>1.895151858074384</v>
+        <v>0.9036696452444204</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>42917</v>
       </c>
       <c r="C67">
-        <v>-1.404756150183883</v>
+        <v>-1.312146901771483</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>43009</v>
       </c>
       <c r="C68">
-        <v>0.1041034111691319</v>
+        <v>0.5549665404220638</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>43101</v>
       </c>
       <c r="C69">
-        <v>1.358594989704476</v>
+        <v>1.263639792648341</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>43191</v>
       </c>
       <c r="C70">
-        <v>-0.02330888501894668</v>
+        <v>-0.3881519804014966</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>43282</v>
       </c>
       <c r="C71">
-        <v>0.2167919649938899</v>
+        <v>0.5242156928076724</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1187,7 +1187,7 @@
         <v>43374</v>
       </c>
       <c r="C72">
-        <v>0.5788935994118782</v>
+        <v>0.6426850651953586</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>43466</v>
       </c>
       <c r="C73">
-        <v>1.057330172688964</v>
+        <v>1.258606208139645</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>43556</v>
       </c>
       <c r="C74">
-        <v>-0.1511368549767966</v>
+        <v>-0.6270681453998672</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>43647</v>
       </c>
       <c r="C75">
-        <v>1.166304638176063</v>
+        <v>1.217108427992741</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1223,7 +1223,7 @@
         <v>43739</v>
       </c>
       <c r="C76">
-        <v>-0.4975222121820333</v>
+        <v>-0.8085880250811694</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1232,7 +1232,7 @@
         <v>43831</v>
       </c>
       <c r="C77">
-        <v>-1.990961677984615</v>
+        <v>-1.798318281881828</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>43922</v>
       </c>
       <c r="C78">
-        <v>-9.026717153932317</v>
+        <v>-9.196346396588817</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1250,7 @@
         <v>44013</v>
       </c>
       <c r="C79">
-        <v>6.692812164099093</v>
+        <v>6.790099074608325</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>44105</v>
       </c>
       <c r="C80">
-        <v>4.226073429543509</v>
+        <v>4.45335782238927</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>44197</v>
       </c>
       <c r="C81">
-        <v>-3.007225950892278</v>
+        <v>-2.052109319734541</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>42826</v>
       </c>
       <c r="C82">
-        <v>1.65593755390776</v>
+        <v>1.390370760946502</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1288,7 +1288,7 @@
         <v>42917</v>
       </c>
       <c r="C83">
-        <v>0.8462825368449112</v>
+        <v>0.5687880600763418</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1297,7 +1297,7 @@
         <v>43009</v>
       </c>
       <c r="C84">
-        <v>1.017490707703028</v>
+        <v>1.521944367068606</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>43101</v>
       </c>
       <c r="C85">
-        <v>0.150857910259905</v>
+        <v>0.1133914447195128</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>1.1841000979393</v>
+        <v>1.174105672033887</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>0.6803084088245148</v>
+        <v>-0.3825850670367892</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>0.1129491032829444</v>
+        <v>0.7029248100858032</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1342,7 +1342,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>-0.02842441052639533</v>
+        <v>-0.09627022183303913</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>-0.03811039549582729</v>
+        <v>0.6585039432089657</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>3.613944920336309</v>
+        <v>2.282510488842648</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1369,7 +1369,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-0.9946687750273187</v>
+        <v>-0.3202019010693724</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-1.196080241866826</v>
+        <v>-2.353228966523269</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-8.179814853843769</v>
+        <v>-6.698173675442542</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1396,7 +1396,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>6.300430702874871</v>
+        <v>7.486998293374714</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>0.4626164446735137</v>
+        <v>-0.5812990822411157</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>4.427664600398473</v>
+        <v>6.170078170441373</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>42826</v>
       </c>
       <c r="C98">
-        <v>-0.6241801738396058</v>
+        <v>-0.8025182718589541</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>42917</v>
       </c>
       <c r="C99">
-        <v>1.417886286106929</v>
+        <v>1.602984768146909</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>43009</v>
       </c>
       <c r="C100">
-        <v>0.3643125103910183</v>
+        <v>0.5932965243611754</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>43101</v>
       </c>
       <c r="C101">
-        <v>0.8380247482461467</v>
+        <v>0.6007761329467121</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>43191</v>
       </c>
       <c r="C102">
-        <v>1.159016027751125</v>
+        <v>1.095031704853189</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>43282</v>
       </c>
       <c r="C103">
-        <v>0.3301511109053079</v>
+        <v>0.2303754818341774</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>43374</v>
       </c>
       <c r="C104">
-        <v>0.07964986137005692</v>
+        <v>0.1012091651136471</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>43466</v>
       </c>
       <c r="C105">
-        <v>0.7587857257348896</v>
+        <v>0.6701174507989238</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>43556</v>
       </c>
       <c r="C106">
-        <v>0.2299670456449521</v>
+        <v>0.3517785504556725</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>43647</v>
       </c>
       <c r="C107">
-        <v>0.2906189934943848</v>
+        <v>0.8264882125013084</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>43739</v>
       </c>
       <c r="C108">
-        <v>0.3049757305627843</v>
+        <v>-0.1379274691505561</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>43831</v>
       </c>
       <c r="C109">
-        <v>-3.393842263007396</v>
+        <v>-3.349669554592871</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>43922</v>
       </c>
       <c r="C110">
-        <v>-8.821693498714311</v>
+        <v>-8.69191455201943</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>44013</v>
       </c>
       <c r="C111">
-        <v>8.736532454904978</v>
+        <v>8.89171228611354</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1551,7 +1551,7 @@
         <v>44105</v>
       </c>
       <c r="C112">
-        <v>-0.3815690553422679</v>
+        <v>-0.09668735368125736</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>44197</v>
       </c>
       <c r="C113">
-        <v>-1.882129779549735</v>
+        <v>-1.727256329762472</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>42826</v>
       </c>
       <c r="C114">
-        <v>0.9389651531933829</v>
+        <v>0.06743953414003467</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>42917</v>
       </c>
       <c r="C115">
-        <v>1.213336274026178</v>
+        <v>0.7196554927711318</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1589,7 +1589,7 @@
         <v>43009</v>
       </c>
       <c r="C116">
-        <v>-0.8950913452503984</v>
+        <v>-0.2673094959354305</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>43101</v>
       </c>
       <c r="C117">
-        <v>0.9832251761331401</v>
+        <v>1.174609190473186</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>43191</v>
       </c>
       <c r="C118">
-        <v>0.06278632562739528</v>
+        <v>-0.3275181457202292</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1616,7 +1616,7 @@
         <v>43282</v>
       </c>
       <c r="C119">
-        <v>1.355921419931683</v>
+        <v>1.702673314471403</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>43374</v>
       </c>
       <c r="C120">
-        <v>0.2536147430137525</v>
+        <v>0.9250284623554705</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1634,7 +1634,7 @@
         <v>43466</v>
       </c>
       <c r="C121">
-        <v>1.243496891618845</v>
+        <v>0.9620254578891041</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>43556</v>
       </c>
       <c r="C122">
-        <v>1.981811682521895</v>
+        <v>1.569447027907556</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>43647</v>
       </c>
       <c r="C123">
-        <v>-0.09138630141370951</v>
+        <v>0.09931662435620492</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1661,7 +1661,7 @@
         <v>43739</v>
       </c>
       <c r="C124">
-        <v>-1.862476645688693</v>
+        <v>-1.617030697694322</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>43831</v>
       </c>
       <c r="C125">
-        <v>-2.032104955511216</v>
+        <v>-2.662301580537807</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>43922</v>
       </c>
       <c r="C126">
-        <v>-12.52777735587229</v>
+        <v>-11.36274697933926</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>44013</v>
       </c>
       <c r="C127">
-        <v>9.783372518509491</v>
+        <v>8.759135377281812</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>44105</v>
       </c>
       <c r="C128">
-        <v>3.398051521202716</v>
+        <v>2.378632337651654</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>44197</v>
       </c>
       <c r="C129">
-        <v>2.787491220907512</v>
+        <v>2.485675248803343</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>42826</v>
       </c>
       <c r="C130">
-        <v>1.592633486917094</v>
+        <v>1.126342734700736</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1726,7 +1726,7 @@
         <v>42917</v>
       </c>
       <c r="C131">
-        <v>1.490222378950468</v>
+        <v>0.5416517108448593</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>43009</v>
       </c>
       <c r="C132">
-        <v>0.4473247396797664</v>
+        <v>1.128436309020997</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>43101</v>
       </c>
       <c r="C133">
-        <v>2.812278589842832</v>
+        <v>1.909092972615212</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>2.119160231481576</v>
+        <v>2.377502616768834</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>1.367643378607108</v>
+        <v>1.213602753560306</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>0.3715240135671483</v>
+        <v>1.740801791357205</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>3.541677668264298</v>
+        <v>2.208290372308142</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1789,7 +1789,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>0.08232530728311538</v>
+        <v>1.009346990262316</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1798,7 +1798,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>1.273403263876971</v>
+        <v>0.5122973233296246</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>0.8446251612951761</v>
+        <v>1.018775640959602</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>0.006216635970179851</v>
+        <v>0.109968948503214</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1825,7 +1825,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>1.513132585527432</v>
+        <v>2.533581645700433</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>2.323758621998273</v>
+        <v>1.901280774663383</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>1.850105436886285</v>
+        <v>1.682536356701059</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>-10.99718414803206</v>
+        <v>-8.004466321424564</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>42826</v>
       </c>
       <c r="C146">
-        <v>1.713122494894881</v>
+        <v>1.004014434517475</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>42917</v>
       </c>
       <c r="C147">
-        <v>-0.03459734536527259</v>
+        <v>0.6615826658944446</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>43009</v>
       </c>
       <c r="C148">
-        <v>0.2290787514169335</v>
+        <v>0.1835709305569644</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43101</v>
       </c>
       <c r="C149">
-        <v>0.05164366479548654</v>
+        <v>0.4202207634504962</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43191</v>
       </c>
       <c r="C150">
-        <v>0.208284764066291</v>
+        <v>0.1315543358774374</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>43282</v>
       </c>
       <c r="C151">
-        <v>1.030230569336843</v>
+        <v>0.7369333972911951</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>43374</v>
       </c>
       <c r="C152">
-        <v>0.7721058253976842</v>
+        <v>1.11884430459086</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>43466</v>
       </c>
       <c r="C153">
-        <v>0.5903234551185133</v>
+        <v>0.4757692116040158</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>43556</v>
       </c>
       <c r="C154">
-        <v>2.579989799346638</v>
+        <v>2.279264515493451</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>43647</v>
       </c>
       <c r="C155">
-        <v>-0.2933292547855904</v>
+        <v>0.03333545616026612</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1953,7 +1953,7 @@
         <v>43739</v>
       </c>
       <c r="C156">
-        <v>-0.6652678886913344</v>
+        <v>-0.2832272679528236</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>43831</v>
       </c>
       <c r="C157">
-        <v>-3.435832569409436</v>
+        <v>-3.596747663290778</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>43922</v>
       </c>
       <c r="C158">
-        <v>-11.5389339918131</v>
+        <v>-11.17932437405458</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1980,7 +1980,7 @@
         <v>44013</v>
       </c>
       <c r="C159">
-        <v>6.672756788765843</v>
+        <v>6.853320603068935</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>44105</v>
       </c>
       <c r="C160">
-        <v>7.49210004187546</v>
+        <v>6.752999314512342</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1998,7 +1998,7 @@
         <v>44197</v>
       </c>
       <c r="C161">
-        <v>-1.261869163845675</v>
+        <v>-0.1356680911392405</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2009,7 +2009,7 @@
         <v>42826</v>
       </c>
       <c r="C162">
-        <v>0.78935767744297</v>
+        <v>0.2741618052038097</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2018,7 +2018,7 @@
         <v>42917</v>
       </c>
       <c r="C163">
-        <v>0.759363459987239</v>
+        <v>0.7893081650362399</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>43009</v>
       </c>
       <c r="C164">
-        <v>1.299052187223038</v>
+        <v>1.007673166515666</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>43101</v>
       </c>
       <c r="C165">
-        <v>0.8824228555829094</v>
+        <v>1.409034359137507</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2045,7 +2045,7 @@
         <v>43191</v>
       </c>
       <c r="C166">
-        <v>3.276180763117975</v>
+        <v>2.904459036418672</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>43282</v>
       </c>
       <c r="C167">
-        <v>-0.02692150411212069</v>
+        <v>0.3877205014860108</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2063,7 +2063,7 @@
         <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.5373483910403154</v>
+        <v>0.5766409624883062</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>43466</v>
       </c>
       <c r="C169">
-        <v>0.664885857902564</v>
+        <v>-0.7265634530469467</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>43556</v>
       </c>
       <c r="C170">
-        <v>0.487967034859671</v>
+        <v>0.94294488033555</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>43647</v>
       </c>
       <c r="C171">
-        <v>0.03610567596983305</v>
+        <v>0.3104167918452028</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>43739</v>
       </c>
       <c r="C172">
-        <v>0.4551523770907728</v>
+        <v>0.3335229950678809</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2108,7 +2108,7 @@
         <v>43831</v>
       </c>
       <c r="C173">
-        <v>-3.912315576401593</v>
+        <v>-3.922702509254117</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>43922</v>
       </c>
       <c r="C174">
-        <v>-5.68700467458264</v>
+        <v>-4.567056139818093</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>44013</v>
       </c>
       <c r="C175">
-        <v>7.13033813794377</v>
+        <v>6.314969849860974</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2135,7 +2135,7 @@
         <v>44105</v>
       </c>
       <c r="C176">
-        <v>-2.079651028340723</v>
+        <v>-1.913995137966895</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2144,7 +2144,7 @@
         <v>44197</v>
       </c>
       <c r="C177">
-        <v>-2.998596298364165</v>
+        <v>-3.412746954252877</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2155,7 +2155,7 @@
         <v>42826</v>
       </c>
       <c r="C178">
-        <v>1.368296784980561</v>
+        <v>1.33808335663308</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>42917</v>
       </c>
       <c r="C179">
-        <v>1.098747772687236</v>
+        <v>0.5679933638768953</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2173,7 +2173,7 @@
         <v>43009</v>
       </c>
       <c r="C180">
-        <v>0.2092681662124285</v>
+        <v>0.4696473496051956</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>43101</v>
       </c>
       <c r="C181">
-        <v>-0.005994040164669645</v>
+        <v>0.2202686786943797</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>1.459110476198</v>
+        <v>0.636550130718172</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>-1.45520631657986</v>
+        <v>-0.1421902500547412</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>0.7612028467588461</v>
+        <v>0.3980098023699918</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2218,7 +2218,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>1.536747029427743</v>
+        <v>0.7437427141531616</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>0.3358281479905578</v>
+        <v>0.8158959121179254</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>-0.07111043958571983</v>
+        <v>0.4043712709419944</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2245,7 +2245,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>0.9211171844470956</v>
+        <v>0.2248907893605656</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-2.249343558211969</v>
+        <v>-1.674245796222951</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>-6.431656052026735</v>
+        <v>-6.229311569470464</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2272,7 +2272,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>6.571117441486152</v>
+        <v>5.70589994186641</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>-0.6496777464566228</v>
+        <v>1.323182107009946</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>-4.28831170485039</v>
+        <v>-3.230741989821917</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>42826</v>
       </c>
       <c r="C194">
-        <v>0.01974652475673633</v>
+        <v>1.592491601526835</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>42917</v>
       </c>
       <c r="C195">
-        <v>2.602386625621111</v>
+        <v>1.929121544888779</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>43009</v>
       </c>
       <c r="C196">
-        <v>1.568047989734334</v>
+        <v>0.5476902659516281</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2328,7 +2328,7 @@
         <v>43101</v>
       </c>
       <c r="C197">
-        <v>0.6786194089875464</v>
+        <v>1.28493802061207</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2337,7 +2337,7 @@
         <v>43191</v>
       </c>
       <c r="C198">
-        <v>2.644933043131714</v>
+        <v>3.058349923456971</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>43282</v>
       </c>
       <c r="C199">
-        <v>-0.3883348135503839</v>
+        <v>-1.080717206194104</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>43374</v>
       </c>
       <c r="C200">
-        <v>2.259699976684537</v>
+        <v>1.940469214206719</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2364,7 +2364,7 @@
         <v>43466</v>
       </c>
       <c r="C201">
-        <v>0.5583899045870311</v>
+        <v>0.9271964520768838</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>43556</v>
       </c>
       <c r="C202">
-        <v>1.227393428822143</v>
+        <v>0.4333320362610582</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2382,7 +2382,7 @@
         <v>43647</v>
       </c>
       <c r="C203">
-        <v>0.4270542899946106</v>
+        <v>0.8195157176450252</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>43739</v>
       </c>
       <c r="C204">
-        <v>-1.299120273805732</v>
+        <v>1.049032997699229</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>43831</v>
       </c>
       <c r="C205">
-        <v>-1.626168201796463</v>
+        <v>-2.404265459223442</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>43922</v>
       </c>
       <c r="C206">
-        <v>-1.787386215640163</v>
+        <v>-2.309488566565987</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>44013</v>
       </c>
       <c r="C207">
-        <v>2.745392909645727</v>
+        <v>4.594944581658877</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>44105</v>
       </c>
       <c r="C208">
-        <v>3.643602269412538</v>
+        <v>2.265022822173002</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2436,7 +2436,7 @@
         <v>44197</v>
       </c>
       <c r="C209">
-        <v>5.569484662266211</v>
+        <v>0.1205457889736694</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2447,7 +2447,7 @@
         <v>42826</v>
       </c>
       <c r="C210">
-        <v>2.377954599783916</v>
+        <v>2.155835584464283</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>42917</v>
       </c>
       <c r="C211">
-        <v>-0.2979671949378759</v>
+        <v>-0.06294851579663474</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>43009</v>
       </c>
       <c r="C212">
-        <v>0.3033201451355216</v>
+        <v>0.1967877221777936</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2474,7 +2474,7 @@
         <v>43101</v>
       </c>
       <c r="C213">
-        <v>0.7214870875514201</v>
+        <v>0.6213360569097937</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>43191</v>
       </c>
       <c r="C214">
-        <v>0.09152079683627523</v>
+        <v>0.3704773919305682</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2492,7 +2492,7 @@
         <v>43282</v>
       </c>
       <c r="C215">
-        <v>0.8889616578124482</v>
+        <v>0.08340840973153352</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>43374</v>
       </c>
       <c r="C216">
-        <v>0.02200487953862851</v>
+        <v>1.445133241778951</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>43466</v>
       </c>
       <c r="C217">
-        <v>0.1801872759532586</v>
+        <v>0.1899939234805581</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>43556</v>
       </c>
       <c r="C218">
-        <v>0.5094398092628571</v>
+        <v>-0.08887238134187569</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>43647</v>
       </c>
       <c r="C219">
-        <v>0.5982138582117491</v>
+        <v>1.059137996877646</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2537,7 +2537,7 @@
         <v>43739</v>
       </c>
       <c r="C220">
-        <v>-0.8921810032320066</v>
+        <v>-1.429540201545976</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2546,7 +2546,7 @@
         <v>43831</v>
       </c>
       <c r="C221">
-        <v>-0.991513762775631</v>
+        <v>-1.09655202758121</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>43922</v>
       </c>
       <c r="C222">
-        <v>-4.212855537254967</v>
+        <v>-3.677795991468769</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2564,7 +2564,7 @@
         <v>44013</v>
       </c>
       <c r="C223">
-        <v>3.436259091545235</v>
+        <v>3.777057540768514</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2573,7 +2573,7 @@
         <v>44105</v>
       </c>
       <c r="C224">
-        <v>1.06128986154348</v>
+        <v>0.3725379936313056</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>44197</v>
       </c>
       <c r="C225">
-        <v>-2.848728156701852</v>
+        <v>-1.762947192690123</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2593,7 +2593,7 @@
         <v>42826</v>
       </c>
       <c r="C226">
-        <v>-0.5693971490197347</v>
+        <v>-0.114240634614049</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2602,7 +2602,7 @@
         <v>42917</v>
       </c>
       <c r="C227">
-        <v>0.9669419169264337</v>
+        <v>0.7561941855462884</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>43009</v>
       </c>
       <c r="C228">
-        <v>0.3794237747546614</v>
+        <v>0.6189000655214549</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>43101</v>
       </c>
       <c r="C229">
-        <v>0.5877459843597554</v>
+        <v>0.4645999038784598</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>1.043361086705752</v>
+        <v>0.7361687682585272</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.5302299991647441</v>
+        <v>0.5182081498128044</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.3149996927211074</v>
+        <v>0.4397213196025929</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2656,7 +2656,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>-0.03646770563554558</v>
+        <v>0.05810947346067685</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>-0.1250949845374993</v>
+        <v>-0.08009178224556157</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>0.1751468071609086</v>
+        <v>0.2438905499908106</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>0.5320946611871769</v>
+        <v>0.627782554548606</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-6.586882748486255</v>
+        <v>-6.577046011856424</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-11.73027604411984</v>
+        <v>-11.11166956736663</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>16.60593538482309</v>
+        <v>16.04305570925959</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-5.46442665787239</v>
+        <v>-5.034402919900449</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>-4.919189579473715</v>
+        <v>-4.656936706927961</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>42826</v>
       </c>
       <c r="C242">
-        <v>1.276971675824345</v>
+        <v>0.502925827527001</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>42917</v>
       </c>
       <c r="C243">
-        <v>-0.008663456003732417</v>
+        <v>-0.02892838585076829</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>43009</v>
       </c>
       <c r="C244">
-        <v>0.499538151885992</v>
+        <v>0.7003335919509635</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>43101</v>
       </c>
       <c r="C245">
-        <v>0.6452682251455233</v>
+        <v>0.5598222008314391</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>43191</v>
       </c>
       <c r="C246">
-        <v>0.8866471857047031</v>
+        <v>0.9750322850972992</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2784,7 +2784,7 @@
         <v>43282</v>
       </c>
       <c r="C247">
-        <v>0.6387754932840384</v>
+        <v>0.7390258055850474</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>43374</v>
       </c>
       <c r="C248">
-        <v>0.2378392478749491</v>
+        <v>0.2995409369946023</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2802,7 +2802,7 @@
         <v>43466</v>
       </c>
       <c r="C249">
-        <v>0.3880712357560157</v>
+        <v>-0.002011676130930784</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2811,7 +2811,7 @@
         <v>43556</v>
       </c>
       <c r="C250">
-        <v>0.1434699737884015</v>
+        <v>0.236090532851696</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>43647</v>
       </c>
       <c r="C251">
-        <v>-0.5561737177754211</v>
+        <v>-0.4345825176936602</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>43739</v>
       </c>
       <c r="C252">
-        <v>-0.1441545254500909</v>
+        <v>-0.2902215810576814</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>43831</v>
       </c>
       <c r="C253">
-        <v>-3.560201309865429</v>
+        <v>-3.271450053538472</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>43922</v>
       </c>
       <c r="C254">
-        <v>-8.496599883335787</v>
+        <v>-8.259903938219548</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2856,7 +2856,7 @@
         <v>44013</v>
       </c>
       <c r="C255">
-        <v>7.675530633733629</v>
+        <v>7.815939960276186</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>44105</v>
       </c>
       <c r="C256">
-        <v>-3.256107553236354</v>
+        <v>-2.00710757086956</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>44197</v>
       </c>
       <c r="C257">
-        <v>-4.562319617203414</v>
+        <v>-4.134032369352614</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>42826</v>
       </c>
       <c r="C258">
-        <v>-0.28552956064688</v>
+        <v>0.6560356134751588</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>42917</v>
       </c>
       <c r="C259">
-        <v>0.9458582944038341</v>
+        <v>1.02800119064228</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>43009</v>
       </c>
       <c r="C260">
-        <v>0.2345709031649656</v>
+        <v>-0.348459360400577</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2912,7 +2912,7 @@
         <v>43101</v>
       </c>
       <c r="C261">
-        <v>0.09413827941235908</v>
+        <v>0.553941667422797</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2921,7 +2921,7 @@
         <v>43191</v>
       </c>
       <c r="C262">
-        <v>3.009467978338853</v>
+        <v>2.338273011902103</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>43282</v>
       </c>
       <c r="C263">
-        <v>-0.1919154215363594</v>
+        <v>-0.1707418171435493</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>43374</v>
       </c>
       <c r="C264">
-        <v>-0.7784738653770162</v>
+        <v>-0.04876933998096966</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>43466</v>
       </c>
       <c r="C265">
-        <v>0.2120066639350382</v>
+        <v>0.1928932271056061</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>43556</v>
       </c>
       <c r="C266">
-        <v>-1.25542057296909</v>
+        <v>-0.6781597107003212</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>43647</v>
       </c>
       <c r="C267">
-        <v>1.052716322981273</v>
+        <v>-0.01114025780187822</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>43739</v>
       </c>
       <c r="C268">
-        <v>0.8770666358272061</v>
+        <v>0.5322541016309357</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>43831</v>
       </c>
       <c r="C269">
-        <v>-4.337189426403521</v>
+        <v>-3.657881610113556</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2993,7 +2993,7 @@
         <v>43922</v>
       </c>
       <c r="C270">
-        <v>-10.34956429950075</v>
+        <v>-9.117724447392582</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3002,7 +3002,7 @@
         <v>44013</v>
       </c>
       <c r="C271">
-        <v>6.24824554694059</v>
+        <v>4.493720983050276</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3011,7 +3011,7 @@
         <v>44105</v>
       </c>
       <c r="C272">
-        <v>0.1482496280591494</v>
+        <v>2.15983604534753</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>44197</v>
       </c>
       <c r="C273">
-        <v>2.83113740384533</v>
+        <v>2.006169696504312</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>42826</v>
       </c>
       <c r="C274">
-        <v>1.715916225422642</v>
+        <v>1.821541930813919</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>42917</v>
       </c>
       <c r="C275">
-        <v>0.2794709112819094</v>
+        <v>0.5047777854910951</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>43009</v>
       </c>
       <c r="C276">
-        <v>0.9692100898730072</v>
+        <v>1.224711852891547</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>43101</v>
       </c>
       <c r="C277">
-        <v>1.023567476596954</v>
+        <v>0.8653513377516742</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>1.68472346868036</v>
+        <v>2.134760910532885</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>0.9623408036480097</v>
+        <v>0.5724382294577168</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>0.3537223827168257</v>
+        <v>1.073045046925647</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>1.751382024102965</v>
+        <v>1.533195221356976</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3103,7 +3103,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>2.349011270887869</v>
+        <v>1.137801877523681</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>-0.06446401309259109</v>
+        <v>0.5818964351161693</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3121,7 +3121,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>0.8616839049971237</v>
+        <v>1.517587250555263</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-3.030721353061683</v>
+        <v>-3.730483328767975</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3139,7 +3139,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-7.386313656062615</v>
+        <v>-8.302490641556604</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>7.791292011412354</v>
+        <v>8.148508277976617</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>-3.233103716856356</v>
+        <v>-2.005257380125791</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>4.170191812851454</v>
+        <v>2.543171442252068</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>42826</v>
       </c>
       <c r="C290">
-        <v>9.816585579152527</v>
+        <v>8.660520506580971</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>42917</v>
       </c>
       <c r="C291">
-        <v>-3.902895369193604</v>
+        <v>-0.4643346403571447</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3195,7 +3195,7 @@
         <v>43009</v>
       </c>
       <c r="C292">
-        <v>11.03850824080011</v>
+        <v>6.376369870392273</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>43101</v>
       </c>
       <c r="C293">
-        <v>-6.976427702496824</v>
+        <v>-7.554249891642984</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3213,7 +3213,7 @@
         <v>43191</v>
       </c>
       <c r="C294">
-        <v>4.327797739254358</v>
+        <v>7.203707705112294</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3222,7 +3222,7 @@
         <v>43282</v>
       </c>
       <c r="C295">
-        <v>0.446157322600671</v>
+        <v>-0.8344316689718467</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3231,7 +3231,7 @@
         <v>43374</v>
       </c>
       <c r="C296">
-        <v>-1.143004591321262</v>
+        <v>0.6228363628327349</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3240,7 +3240,7 @@
         <v>43466</v>
       </c>
       <c r="C297">
-        <v>2.351523370406849</v>
+        <v>2.971834845923738</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>43556</v>
       </c>
       <c r="C298">
-        <v>-3.357683368121478</v>
+        <v>-2.207936206123018</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>43647</v>
       </c>
       <c r="C299">
-        <v>-0.6557488912620313</v>
+        <v>-1.059320054103918</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>43739</v>
       </c>
       <c r="C300">
-        <v>7.977349443021908</v>
+        <v>5.794048959761633</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>43831</v>
       </c>
       <c r="C301">
-        <v>-7.339239070548298</v>
+        <v>-10.01273855333109</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>43922</v>
       </c>
       <c r="C302">
-        <v>-10.53577922061496</v>
+        <v>-6.120658179729621</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3294,7 +3294,7 @@
         <v>44013</v>
       </c>
       <c r="C303">
-        <v>3.554974729094074</v>
+        <v>2.800981537800551</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>44105</v>
       </c>
       <c r="C304">
-        <v>5.088251026635171</v>
+        <v>5.064069084067691</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3312,7 +3312,7 @@
         <v>44197</v>
       </c>
       <c r="C305">
-        <v>-5.590278106191427</v>
+        <v>-7.469543385821664</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3323,7 +3323,7 @@
         <v>42826</v>
       </c>
       <c r="C306">
-        <v>2.062781696527627</v>
+        <v>2.637003193696219</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>42917</v>
       </c>
       <c r="C307">
-        <v>1.409986550874254</v>
+        <v>1.196106398260977</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3341,7 +3341,7 @@
         <v>43009</v>
       </c>
       <c r="C308">
-        <v>1.883282978139444</v>
+        <v>2.385482594277577</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>43101</v>
       </c>
       <c r="C309">
-        <v>1.004730560488198</v>
+        <v>1.095559984403249</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>43191</v>
       </c>
       <c r="C310">
-        <v>2.194003314314896</v>
+        <v>1.606763645401021</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3368,7 +3368,7 @@
         <v>43282</v>
       </c>
       <c r="C311">
-        <v>0.7209168243146546</v>
+        <v>0.773860557337902</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>43374</v>
       </c>
       <c r="C312">
-        <v>2.236806160543625</v>
+        <v>2.426854547166357</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>43466</v>
       </c>
       <c r="C313">
-        <v>0.7455783993532972</v>
+        <v>0.8086949507452701</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>43556</v>
       </c>
       <c r="C314">
-        <v>1.047327898750328</v>
+        <v>1.298019513122384</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>43647</v>
       </c>
       <c r="C315">
-        <v>0.5136759798087587</v>
+        <v>0.5559995738134038</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>43739</v>
       </c>
       <c r="C316">
-        <v>0.7959075003069804</v>
+        <v>-0.2703944924068558</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3422,7 +3422,7 @@
         <v>43831</v>
       </c>
       <c r="C317">
-        <v>-2.115666462150712</v>
+        <v>-1.470489164666788</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>43922</v>
       </c>
       <c r="C318">
-        <v>-18.50847286613272</v>
+        <v>-16.7800238732549</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3440,7 +3440,7 @@
         <v>44013</v>
       </c>
       <c r="C319">
-        <v>17.49940196712243</v>
+        <v>15.97405293330461</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3449,7 +3449,7 @@
         <v>44105</v>
       </c>
       <c r="C320">
-        <v>8.577247308000956</v>
+        <v>8.16672318462841</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>44197</v>
       </c>
       <c r="C321">
-        <v>0.9462210028158946</v>
+        <v>0.7110903612151054</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>42826</v>
       </c>
       <c r="C322">
-        <v>2.173661222592904</v>
+        <v>2.398790825976471</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3478,7 +3478,7 @@
         <v>42917</v>
       </c>
       <c r="C323">
-        <v>-0.2260084456786604</v>
+        <v>0.03283745001712024</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>43009</v>
       </c>
       <c r="C324">
-        <v>1.603902280729463</v>
+        <v>1.493083432628128</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>43101</v>
       </c>
       <c r="C325">
-        <v>1.962194827117414</v>
+        <v>1.75326917017522</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>2.954715899304983</v>
+        <v>2.71829438433977</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3514,7 +3514,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>0.02420360158064128</v>
+        <v>0.1708905081970746</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>1.751956910128905</v>
+        <v>1.807061969323365</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>0.1949122875675835</v>
+        <v>0.7476459758772203</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3541,7 +3541,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>1.55250983812274</v>
+        <v>1.667154183555364</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3550,7 +3550,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>0.1885706554291877</v>
+        <v>-0.03928994372872641</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3559,7 +3559,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>0.3477803033561599</v>
+        <v>0.2982504266457742</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-0.6712806750391209</v>
+        <v>-0.9749328645288324</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-8.93887159974348</v>
+        <v>-8.821680200484794</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>5.417167156684766</v>
+        <v>5.429638090154243</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>1.736634908867773</v>
+        <v>1.354651186648126</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3604,7 +3604,7 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>2.030793857476465</v>
+        <v>1.928455969348608</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3615,7 +3615,7 @@
         <v>42826</v>
       </c>
       <c r="C338">
-        <v>2.2522271823604</v>
+        <v>2.240018117468168</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -3624,7 +3624,7 @@
         <v>42917</v>
       </c>
       <c r="C339">
-        <v>0.2793463002678243</v>
+        <v>0.2881661870248076</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>43009</v>
       </c>
       <c r="C340">
-        <v>11.87396343320724</v>
+        <v>11.57697555494415</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>43101</v>
       </c>
       <c r="C341">
-        <v>-3.33552875683869</v>
+        <v>-3.462653957167661</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3651,7 +3651,7 @@
         <v>43191</v>
       </c>
       <c r="C342">
-        <v>1.580447249668926</v>
+        <v>0.9881807459477754</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3660,7 +3660,7 @@
         <v>43282</v>
       </c>
       <c r="C343">
-        <v>4.106121442407296</v>
+        <v>3.908330265448279</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3669,7 +3669,7 @@
         <v>43374</v>
       </c>
       <c r="C344">
-        <v>3.343407959472566</v>
+        <v>4.514773151369567</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>43466</v>
       </c>
       <c r="C345">
-        <v>0.3188518959939213</v>
+        <v>0.4900596584520356</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>43556</v>
       </c>
       <c r="C346">
-        <v>2.53309989943602</v>
+        <v>1.919956311002058</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3696,7 +3696,7 @@
         <v>43647</v>
       </c>
       <c r="C347">
-        <v>-0.7891479248914202</v>
+        <v>-0.2683518886854697</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>43739</v>
       </c>
       <c r="C348">
-        <v>2.286913272842073</v>
+        <v>1.912816273433737</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3714,7 +3714,7 @@
         <v>43831</v>
       </c>
       <c r="C349">
-        <v>-4.050974546829201</v>
+        <v>-4.439423658970021</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3723,7 +3723,7 @@
         <v>43922</v>
       </c>
       <c r="C350">
-        <v>-6.993364332839302</v>
+        <v>-4.919819593571029</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>44013</v>
       </c>
       <c r="C351">
-        <v>9.74400919008489</v>
+        <v>8.344469128937494</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>44105</v>
       </c>
       <c r="C352">
-        <v>2.873936502380925</v>
+        <v>3.726960043080818</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3750,7 +3750,7 @@
         <v>44197</v>
       </c>
       <c r="C353">
-        <v>-4.572966426262393</v>
+        <v>-4.365986446040926</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3761,7 +3761,7 @@
         <v>42826</v>
       </c>
       <c r="C354">
-        <v>1.92673560844725</v>
+        <v>1.878251425500532</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -3770,7 +3770,7 @@
         <v>42917</v>
       </c>
       <c r="C355">
-        <v>1.012295216139658</v>
+        <v>0.279781110486188</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -3779,7 +3779,7 @@
         <v>43009</v>
       </c>
       <c r="C356">
-        <v>1.829191565719945</v>
+        <v>2.677343717052261</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>43101</v>
       </c>
       <c r="C357">
-        <v>-0.008990743176662264</v>
+        <v>-1.115855132415366</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>43191</v>
       </c>
       <c r="C358">
-        <v>1.050897085988067</v>
+        <v>0.8649094873726781</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3806,7 +3806,7 @@
         <v>43282</v>
       </c>
       <c r="C359">
-        <v>1.219740252741786</v>
+        <v>1.81639996144507</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3815,7 +3815,7 @@
         <v>43374</v>
       </c>
       <c r="C360">
-        <v>1.03396449820099</v>
+        <v>0.8612088880221913</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3824,7 +3824,7 @@
         <v>43466</v>
       </c>
       <c r="C361">
-        <v>1.164387894428387</v>
+        <v>1.43068362877099</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3833,7 +3833,7 @@
         <v>43556</v>
       </c>
       <c r="C362">
-        <v>-0.7625366761175423</v>
+        <v>-0.2602112211211649</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>43647</v>
       </c>
       <c r="C363">
-        <v>1.510893753844944</v>
+        <v>1.193222779119929</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>43739</v>
       </c>
       <c r="C364">
-        <v>-0.007532146243227622</v>
+        <v>0.5715089784869454</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3860,7 +3860,7 @@
         <v>43831</v>
       </c>
       <c r="C365">
-        <v>-3.235103329519007</v>
+        <v>-4.096736640202437</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3869,7 +3869,7 @@
         <v>43922</v>
       </c>
       <c r="C366">
-        <v>-5.30614067518661</v>
+        <v>-5.089630629713349</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3878,7 +3878,7 @@
         <v>44013</v>
       </c>
       <c r="C367">
-        <v>4.636342643225677</v>
+        <v>4.04618340332783</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3887,7 +3887,7 @@
         <v>44105</v>
       </c>
       <c r="C368">
-        <v>2.889754734408911</v>
+        <v>3.853870413064731</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>44197</v>
       </c>
       <c r="C369">
-        <v>-5.562169310526633</v>
+        <v>-5.149427309606258</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>42826</v>
       </c>
       <c r="C370">
-        <v>0.4055444592903745</v>
+        <v>0.2839833812439352</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -3916,7 +3916,7 @@
         <v>42917</v>
       </c>
       <c r="C371">
-        <v>0.2082312411226139</v>
+        <v>0.5496653272617946</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>43009</v>
       </c>
       <c r="C372">
-        <v>0.03598756051781393</v>
+        <v>0.3316455852092837</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3934,7 +3934,7 @@
         <v>43101</v>
       </c>
       <c r="C373">
-        <v>0.8587735612827663</v>
+        <v>0.1047474175317475</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3943,7 +3943,7 @@
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>0.4035300261302721</v>
+        <v>0.7319763954899194</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.8123795753129714</v>
+        <v>0.5226434197408203</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>0.161814980164765</v>
+        <v>0.2043193013736122</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3970,7 +3970,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>-0.9255214172456006</v>
+        <v>-0.4478744704645488</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3979,7 +3979,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>0.390202223127778</v>
+        <v>-0.2334333668428057</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3988,7 +3988,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>-0.08298110455975394</v>
+        <v>0.1088450557255261</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3997,7 +3997,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.1746105336454917</v>
+        <v>0.1754483390219219</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-9.413842049233899</v>
+        <v>-9.857946787500381</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-9.965906902381894</v>
+        <v>-9.264020574220211</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4024,7 +4024,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>16.27884190293041</v>
+        <v>16.76138565700074</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4033,7 +4033,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>-6.189085285809249</v>
+        <v>-6.136542251464139</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4042,7 +4042,7 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>-6.528469944466497</v>
+        <v>-4.394995233974641</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4053,7 +4053,7 @@
         <v>42826</v>
       </c>
       <c r="C386">
-        <v>-0.2466542685896522</v>
+        <v>-0.5951061433682292</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>42917</v>
       </c>
       <c r="C387">
-        <v>0.6997238728795985</v>
+        <v>0.4475506596721024</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>43009</v>
       </c>
       <c r="C388">
-        <v>-0.02249907543616647</v>
+        <v>0.348350617757176</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4080,7 +4080,7 @@
         <v>43101</v>
       </c>
       <c r="C389">
-        <v>1.161645836937253</v>
+        <v>0.9354843414950409</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4089,7 +4089,7 @@
         <v>43191</v>
       </c>
       <c r="C390">
-        <v>0.07784791034866068</v>
+        <v>0.08656873239090146</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>43282</v>
       </c>
       <c r="C391">
-        <v>0.4823332980899542</v>
+        <v>0.3725063204426782</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4107,7 +4107,7 @@
         <v>43374</v>
       </c>
       <c r="C392">
-        <v>-0.3863833768147806</v>
+        <v>-0.05731977262900534</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>43466</v>
       </c>
       <c r="C393">
-        <v>-0.0003436395087486055</v>
+        <v>-0.2589567457834896</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>43556</v>
       </c>
       <c r="C394">
-        <v>0.164746452057285</v>
+        <v>0.4314472853140794</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>43647</v>
       </c>
       <c r="C395">
-        <v>-0.5386183384758381</v>
+        <v>-0.8003022190281039</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4143,7 +4143,7 @@
         <v>43739</v>
       </c>
       <c r="C396">
-        <v>0.03612179078011923</v>
+        <v>0.2829502875154821</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>43831</v>
       </c>
       <c r="C397">
-        <v>-2.182867338293892</v>
+        <v>-2.002921936117075</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>43922</v>
       </c>
       <c r="C398">
-        <v>-8.234817073797462</v>
+        <v>-8.303104331929523</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>44013</v>
       </c>
       <c r="C399">
-        <v>5.932324596628447</v>
+        <v>5.982444352304506</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4179,7 +4179,7 @@
         <v>44105</v>
       </c>
       <c r="C400">
-        <v>-0.01004310457615176</v>
+        <v>0.8565960341307965</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4188,7 +4188,7 @@
         <v>44197</v>
       </c>
       <c r="C401">
-        <v>-1.491501266562434</v>
+        <v>-2.491819981776688</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4199,7 +4199,7 @@
         <v>42826</v>
       </c>
       <c r="C402">
-        <v>2.159083844814869</v>
+        <v>2.610894851928669</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4208,7 +4208,7 @@
         <v>42917</v>
       </c>
       <c r="C403">
-        <v>1.208445683106207</v>
+        <v>0.4110283944838811</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>43009</v>
       </c>
       <c r="C404">
-        <v>-0.02686272236108733</v>
+        <v>0.1428642701811311</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>43101</v>
       </c>
       <c r="C405">
-        <v>0.9737844812871099</v>
+        <v>1.813988329006277</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4235,7 +4235,7 @@
         <v>43191</v>
       </c>
       <c r="C406">
-        <v>-0.5732748151621392</v>
+        <v>-1.240989165580886</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>43282</v>
       </c>
       <c r="C407">
-        <v>3.17439422057586</v>
+        <v>2.696736136239797</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4253,7 +4253,7 @@
         <v>43374</v>
       </c>
       <c r="C408">
-        <v>-0.7103856539244613</v>
+        <v>-0.8159706634574992</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4262,7 +4262,7 @@
         <v>43466</v>
       </c>
       <c r="C409">
-        <v>-0.0004223631187239008</v>
+        <v>0.3822831659800574</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>43556</v>
       </c>
       <c r="C410">
-        <v>-0.1304815146185967</v>
+        <v>1.084737401292579</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>43647</v>
       </c>
       <c r="C411">
-        <v>0.530262836561346</v>
+        <v>-0.4163127321338833</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4289,7 +4289,7 @@
         <v>43739</v>
       </c>
       <c r="C412">
-        <v>1.322295724422795</v>
+        <v>2.136310769358563</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4298,7 +4298,7 @@
         <v>43831</v>
       </c>
       <c r="C413">
-        <v>-1.026172373106526</v>
+        <v>-1.068710680439267</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4307,7 +4307,7 @@
         <v>43922</v>
       </c>
       <c r="C414">
-        <v>-2.147584501250976</v>
+        <v>-2.829524140537887</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>44013</v>
       </c>
       <c r="C415">
-        <v>2.24567622693892</v>
+        <v>2.539511607094425</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>44105</v>
       </c>
       <c r="C416">
-        <v>0.3634036878042313</v>
+        <v>-0.04097275156873526</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4334,7 +4334,7 @@
         <v>44197</v>
       </c>
       <c r="C417">
-        <v>1.336612115403413</v>
+        <v>-0.2722028781514507</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4345,7 +4345,7 @@
         <v>42826</v>
       </c>
       <c r="C418">
-        <v>0.1800275664712858</v>
+        <v>-1.034844484483255</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4354,7 +4354,7 @@
         <v>42917</v>
       </c>
       <c r="C419">
-        <v>-0.3675655488055818</v>
+        <v>0.03296603730686964</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4363,7 +4363,7 @@
         <v>43009</v>
       </c>
       <c r="C420">
-        <v>1.806753202672073</v>
+        <v>1.682951458422366</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4372,7 +4372,7 @@
         <v>43101</v>
       </c>
       <c r="C421">
-        <v>2.555562136057943</v>
+        <v>1.310289891808192</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>-0.06246952993395061</v>
+        <v>0.5166616745905905</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>1.388942491528367</v>
+        <v>1.974595534453139</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>-0.5016313677936535</v>
+        <v>-0.9115751549358619</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4408,7 +4408,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>-0.1594226782093644</v>
+        <v>-0.2734029568359553</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4417,7 +4417,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>3.281190443510607</v>
+        <v>3.2836118244288</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4426,7 +4426,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>0.5504126207418913</v>
+        <v>1.104951195544435</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>-0.2895628178828047</v>
+        <v>-0.4846235522903086</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4444,7 +4444,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-3.301255648552648</v>
+        <v>-3.780599195735235</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4453,7 +4453,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-7.09509217256471</v>
+        <v>-6.622752885010774</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4462,7 +4462,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>5.333109010086101</v>
+        <v>5.79794396829485</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4471,7 +4471,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>-3.931257346331785</v>
+        <v>-3.076550324058902</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>-3.955697651146683</v>
+        <v>-3.177554829442109</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>42826</v>
       </c>
       <c r="C434">
-        <v>-0.2612416035440268</v>
+        <v>1.017294924806422</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>42917</v>
       </c>
       <c r="C435">
-        <v>2.936589354227825</v>
+        <v>1.363759591859393</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -4509,7 +4509,7 @@
         <v>43009</v>
       </c>
       <c r="C436">
-        <v>1.089853957380882</v>
+        <v>1.66362276968417</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4518,7 +4518,7 @@
         <v>43101</v>
       </c>
       <c r="C437">
-        <v>1.528494399085023</v>
+        <v>2.259103972076226</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4527,7 +4527,7 @@
         <v>43191</v>
       </c>
       <c r="C438">
-        <v>0.8498992458560339</v>
+        <v>-0.04179468024679833</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4536,7 +4536,7 @@
         <v>43282</v>
       </c>
       <c r="C439">
-        <v>0.9686385622091453</v>
+        <v>1.748676180066822</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>43374</v>
       </c>
       <c r="C440">
-        <v>-0.9219536538896622</v>
+        <v>-0.1655478971284929</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4554,7 +4554,7 @@
         <v>43466</v>
       </c>
       <c r="C441">
-        <v>1.286172859233292</v>
+        <v>1.185622716728729</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4563,7 +4563,7 @@
         <v>43556</v>
       </c>
       <c r="C442">
-        <v>1.215590646992615</v>
+        <v>0.2066063265836249</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4572,7 +4572,7 @@
         <v>43647</v>
       </c>
       <c r="C443">
-        <v>0.9765531958676243</v>
+        <v>0.1002557198508169</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4581,7 +4581,7 @@
         <v>43739</v>
       </c>
       <c r="C444">
-        <v>0.3707204602242165</v>
+        <v>0.8109486775006891</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>43831</v>
       </c>
       <c r="C445">
-        <v>-3.304418380860674</v>
+        <v>-1.681811461544669</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>43922</v>
       </c>
       <c r="C446">
-        <v>-2.352475231404527</v>
+        <v>-3.422589938548704</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4608,7 +4608,7 @@
         <v>44013</v>
       </c>
       <c r="C447">
-        <v>5.660566961631264</v>
+        <v>4.928753168187261</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4617,7 +4617,7 @@
         <v>44105</v>
       </c>
       <c r="C448">
-        <v>-0.9223998484439555</v>
+        <v>0.648741956155896</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4626,7 +4626,7 @@
         <v>44197</v>
       </c>
       <c r="C449">
-        <v>3.325475007997758</v>
+        <v>0.5749016441271237</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4637,7 +4637,7 @@
         <v>42826</v>
       </c>
       <c r="C450">
-        <v>1.603156885829349</v>
+        <v>3.878492680206547</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -4646,7 +4646,7 @@
         <v>42917</v>
       </c>
       <c r="C451">
-        <v>2.92171115408526</v>
+        <v>1.155663389738781</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>43009</v>
       </c>
       <c r="C452">
-        <v>1.656316141247838</v>
+        <v>0.7353233521755653</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4664,7 +4664,7 @@
         <v>43101</v>
       </c>
       <c r="C453">
-        <v>-2.276382808451205</v>
+        <v>0.5138118395751956</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>43191</v>
       </c>
       <c r="C454">
-        <v>-0.1994654426656139</v>
+        <v>-2.315067882311239</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4682,7 +4682,7 @@
         <v>43282</v>
       </c>
       <c r="C455">
-        <v>0.0381690363495002</v>
+        <v>0.7089953951275429</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4691,7 +4691,7 @@
         <v>43374</v>
       </c>
       <c r="C456">
-        <v>1.800160685938268</v>
+        <v>0.4767891304836347</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4700,7 +4700,7 @@
         <v>43466</v>
       </c>
       <c r="C457">
-        <v>-0.5130527315848621</v>
+        <v>0.781836282809123</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>43556</v>
       </c>
       <c r="C458">
-        <v>1.549402595034</v>
+        <v>2.475610976538323</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4718,7 +4718,7 @@
         <v>43647</v>
       </c>
       <c r="C459">
-        <v>0.3194849768425767</v>
+        <v>-0.6930198993535641</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4727,7 +4727,7 @@
         <v>43739</v>
       </c>
       <c r="C460">
-        <v>2.283934639598728</v>
+        <v>1.575865427369871</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4736,7 +4736,7 @@
         <v>43831</v>
       </c>
       <c r="C461">
-        <v>-6.700664377665444</v>
+        <v>-7.32328492104386</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4745,7 +4745,7 @@
         <v>43922</v>
       </c>
       <c r="C462">
-        <v>-7.90089715796115</v>
+        <v>-4.352840512100908</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4754,7 +4754,7 @@
         <v>44013</v>
       </c>
       <c r="C463">
-        <v>10.35736866444368</v>
+        <v>7.849796467328685</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4763,7 +4763,7 @@
         <v>44105</v>
       </c>
       <c r="C464">
-        <v>-2.347511090212417</v>
+        <v>-0.7372842924279532</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>44197</v>
       </c>
       <c r="C465">
-        <v>-1.042439411530593</v>
+        <v>-2.00719530434228</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>42826</v>
       </c>
       <c r="C466">
-        <v>1.351840971149243</v>
+        <v>0.9292116838000686</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>42917</v>
       </c>
       <c r="C467">
-        <v>-0.3341037222024168</v>
+        <v>-0.5546045875061689</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -4801,7 +4801,7 @@
         <v>43009</v>
       </c>
       <c r="C468">
-        <v>1.313774083678365</v>
+        <v>1.568452139014176</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>43101</v>
       </c>
       <c r="C469">
-        <v>1.011775583726404</v>
+        <v>1.032388696995912</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>-0.3895465361911321</v>
+        <v>-0.1433538206167539</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4828,7 +4828,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>-0.8928374058674304</v>
+        <v>-0.8098702721049955</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4837,7 +4837,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>1.293541345084059</v>
+        <v>1.133487065186745</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4846,7 +4846,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>0.1580974645114086</v>
+        <v>-0.08597190805345045</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4855,7 +4855,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>1.533639428386002</v>
+        <v>1.241816401078433</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>-0.7006899782863507</v>
+        <v>-0.09089901730088279</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4873,7 +4873,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-1.136755396654787</v>
+        <v>-0.5760191103236556</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4882,7 +4882,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-2.226406687387872</v>
+        <v>-2.338613983389304</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4891,7 +4891,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-14.21082536400892</v>
+        <v>-13.35912965576343</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4900,7 +4900,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>9.237505932151425</v>
+        <v>8.313475581185337</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4909,7 +4909,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>2.743557709929778</v>
+        <v>2.627338670690493</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>-0.7222823751840579</v>
+        <v>-0.5704798444342019</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>42826</v>
       </c>
       <c r="C482">
-        <v>0.473369217878683</v>
+        <v>0.6719818443020831</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -4938,7 +4938,7 @@
         <v>42917</v>
       </c>
       <c r="C483">
-        <v>1.963449990685073</v>
+        <v>1.607765297403296</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -4947,7 +4947,7 @@
         <v>43009</v>
       </c>
       <c r="C484">
-        <v>0.462127945021451</v>
+        <v>0.7396987315996917</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4956,7 +4956,7 @@
         <v>43101</v>
       </c>
       <c r="C485">
-        <v>0.451689069010297</v>
+        <v>0.01647214018398735</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4965,7 +4965,7 @@
         <v>43191</v>
       </c>
       <c r="C486">
-        <v>0.9696332770893434</v>
+        <v>1.113971964462768</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>43282</v>
       </c>
       <c r="C487">
-        <v>-0.5457381057772159</v>
+        <v>0.04976807765577629</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4983,7 +4983,7 @@
         <v>43374</v>
       </c>
       <c r="C488">
-        <v>0.9370117933477529</v>
+        <v>0.8230345042546494</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4992,7 +4992,7 @@
         <v>43466</v>
       </c>
       <c r="C489">
-        <v>0.3497038196042634</v>
+        <v>0.502190341338804</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5001,7 +5001,7 @@
         <v>43556</v>
       </c>
       <c r="C490">
-        <v>0.8458797656437866</v>
+        <v>0.1117838650327885</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5010,7 +5010,7 @@
         <v>43647</v>
       </c>
       <c r="C491">
-        <v>0.5371146094050649</v>
+        <v>0.9594595642996362</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5019,7 +5019,7 @@
         <v>43739</v>
       </c>
       <c r="C492">
-        <v>-0.2072454442893168</v>
+        <v>0.116245860561448</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5028,7 +5028,7 @@
         <v>43831</v>
       </c>
       <c r="C493">
-        <v>-2.91382844418967</v>
+        <v>-2.638776173591217</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5037,7 +5037,7 @@
         <v>43922</v>
       </c>
       <c r="C494">
-        <v>-6.332691418748604</v>
+        <v>-6.367510237066886</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5046,7 +5046,7 @@
         <v>44013</v>
       </c>
       <c r="C495">
-        <v>5.87737026370323</v>
+        <v>5.913789350478171</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5055,7 +5055,7 @@
         <v>44105</v>
       </c>
       <c r="C496">
-        <v>-1.314864717719244</v>
+        <v>-0.4958467418382684</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>44197</v>
       </c>
       <c r="C497">
-        <v>-3.258441877190765</v>
+        <v>-2.637113668694557</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>42826</v>
       </c>
       <c r="C498">
-        <v>1.378658103149122</v>
+        <v>1.079237197503069</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5084,7 +5084,7 @@
         <v>42917</v>
       </c>
       <c r="C499">
-        <v>0.2138148675652873</v>
+        <v>0.4716096803137226</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5093,7 +5093,7 @@
         <v>43009</v>
       </c>
       <c r="C500">
-        <v>1.231160670992026</v>
+        <v>1.288500411202831</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5102,7 +5102,7 @@
         <v>43101</v>
       </c>
       <c r="C501">
-        <v>0.7632973325801595</v>
+        <v>0.9773011596133196</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5111,7 +5111,7 @@
         <v>43191</v>
       </c>
       <c r="C502">
-        <v>0.8329353997693856</v>
+        <v>0.7007089386048548</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5120,7 +5120,7 @@
         <v>43282</v>
       </c>
       <c r="C503">
-        <v>1.054593705102458</v>
+        <v>0.7316276108239705</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>43374</v>
       </c>
       <c r="C504">
-        <v>0.8432615817526301</v>
+        <v>0.5788268531156993</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5138,7 +5138,7 @@
         <v>43466</v>
       </c>
       <c r="C505">
-        <v>0.3507377728620531</v>
+        <v>0.004849316217958588</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5147,7 +5147,7 @@
         <v>43556</v>
       </c>
       <c r="C506">
-        <v>1.014284453754422</v>
+        <v>1.696938421503358</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5156,7 +5156,7 @@
         <v>43647</v>
       </c>
       <c r="C507">
-        <v>0.2117380625776155</v>
+        <v>0.2426783623795448</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5165,7 +5165,7 @@
         <v>43739</v>
       </c>
       <c r="C508">
-        <v>0.5059304816680932</v>
+        <v>1.023304773320088</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>43831</v>
       </c>
       <c r="C509">
-        <v>-3.121683414331922</v>
+        <v>-3.388758144438864</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5183,7 +5183,7 @@
         <v>43922</v>
       </c>
       <c r="C510">
-        <v>-8.71894130593186</v>
+        <v>-6.756560155783687</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5192,7 +5192,7 @@
         <v>44013</v>
       </c>
       <c r="C511">
-        <v>8.061530169978814</v>
+        <v>8.500083606523168</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5201,7 +5201,7 @@
         <v>44105</v>
       </c>
       <c r="C512">
-        <v>4.953805491202434</v>
+        <v>2.206112637976743</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5210,7 +5210,7 @@
         <v>44197</v>
       </c>
       <c r="C513">
-        <v>-0.1041846964427107</v>
+        <v>0.1848748090422792</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5221,7 +5221,7 @@
         <v>42826</v>
       </c>
       <c r="C514">
-        <v>-0.4442788141468479</v>
+        <v>-0.1726813985907683</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -5230,7 +5230,7 @@
         <v>42917</v>
       </c>
       <c r="C515">
-        <v>0.2418631033189067</v>
+        <v>-0.610726796241845</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>43009</v>
       </c>
       <c r="C516">
-        <v>1.845410145382176</v>
+        <v>2.221201017863095</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>43101</v>
       </c>
       <c r="C517">
-        <v>0.4105368262861786</v>
+        <v>0.6913508658295653</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5257,7 +5257,7 @@
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>0.9296657579413559</v>
+        <v>0.0863082548422156</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5266,7 +5266,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.1190843251656304</v>
+        <v>0.435746081398114</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5275,7 +5275,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>-0.7816355429175248</v>
+        <v>-0.7223083086093207</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>1.254795836436218</v>
+        <v>0.4391073256865052</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5293,7 +5293,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>0.02266741021097474</v>
+        <v>1.160571191812565</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5302,7 +5302,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>0.09288318040407972</v>
+        <v>-0.4587141860172061</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5311,7 +5311,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>0.469795310263077</v>
+        <v>1.019574604603779</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5320,7 +5320,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-3.603356869751073</v>
+        <v>-4.035922866473918</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5329,7 +5329,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-4.315849446059373</v>
+        <v>-3.699436175761539</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>4.005131451190347</v>
+        <v>3.430858399037917</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>0.9507545170562404</v>
+        <v>0.5675770226956312</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5356,7 +5356,7 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>-1.569462581559256</v>
+        <v>-0.3765763559355428</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5367,7 +5367,7 @@
         <v>42826</v>
       </c>
       <c r="C530">
-        <v>0.3178497626274313</v>
+        <v>0.5066235309424627</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -5376,7 +5376,7 @@
         <v>42917</v>
       </c>
       <c r="C531">
-        <v>1.089027320001912</v>
+        <v>0.9995060243374931</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -5385,7 +5385,7 @@
         <v>43009</v>
       </c>
       <c r="C532">
-        <v>2.949244224590997</v>
+        <v>2.484375739044697</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>43101</v>
       </c>
       <c r="C533">
-        <v>0.1423710451448512</v>
+        <v>1.015775571866318</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5403,7 +5403,7 @@
         <v>43191</v>
       </c>
       <c r="C534">
-        <v>1.479946788598219</v>
+        <v>1.56232362214157</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5412,7 +5412,7 @@
         <v>43282</v>
       </c>
       <c r="C535">
-        <v>0.6213848482652828</v>
+        <v>0.3441130409676418</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>43374</v>
       </c>
       <c r="C536">
-        <v>1.681933922355849</v>
+        <v>1.5822916896163</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5430,7 +5430,7 @@
         <v>43466</v>
       </c>
       <c r="C537">
-        <v>1.913071426605462</v>
+        <v>1.482474835264957</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5439,7 +5439,7 @@
         <v>43556</v>
       </c>
       <c r="C538">
-        <v>0.5303273707804035</v>
+        <v>0.5984800138538304</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>43647</v>
       </c>
       <c r="C539">
-        <v>1.342138010971849</v>
+        <v>1.339737061298441</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>43739</v>
       </c>
       <c r="C540">
-        <v>0.04024384209579956</v>
+        <v>0.536034169050148</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5466,7 +5466,7 @@
         <v>43831</v>
       </c>
       <c r="C541">
-        <v>-2.613636514882789</v>
+        <v>-3.392495937025553</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5475,7 +5475,7 @@
         <v>43922</v>
       </c>
       <c r="C542">
-        <v>-6.216130231436889</v>
+        <v>-6.236365844857272</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5484,7 +5484,7 @@
         <v>44013</v>
       </c>
       <c r="C543">
-        <v>9.653147561197928</v>
+        <v>10.24315704168435</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>44105</v>
       </c>
       <c r="C544">
-        <v>-3.915387946583038</v>
+        <v>-3.805802872007136</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5502,7 +5502,7 @@
         <v>44197</v>
       </c>
       <c r="C545">
-        <v>0.3285131393159002</v>
+        <v>0.8433217273277283</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5513,7 +5513,7 @@
         <v>42826</v>
       </c>
       <c r="C546">
-        <v>1.693183542146381</v>
+        <v>1.670836295239786</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -5522,7 +5522,7 @@
         <v>42917</v>
       </c>
       <c r="C547">
-        <v>0.9783862777948293</v>
+        <v>1.013727733477343</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -5531,7 +5531,7 @@
         <v>43009</v>
       </c>
       <c r="C548">
-        <v>-0.219047325534194</v>
+        <v>0.03582849258423337</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5540,7 +5540,7 @@
         <v>43101</v>
       </c>
       <c r="C549">
-        <v>2.034368423741983</v>
+        <v>1.043725466731216</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5549,7 +5549,7 @@
         <v>43191</v>
       </c>
       <c r="C550">
-        <v>0.4054430647641771</v>
+        <v>0.5147627248882847</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>43282</v>
       </c>
       <c r="C551">
-        <v>0.1550076993579896</v>
+        <v>0.5399755186560773</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>43374</v>
       </c>
       <c r="C552">
-        <v>1.547869417077918</v>
+        <v>1.444551219945533</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5576,7 +5576,7 @@
         <v>43466</v>
       </c>
       <c r="C553">
-        <v>-0.4111378799167564</v>
+        <v>0.4832669440844484</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5585,7 +5585,7 @@
         <v>43556</v>
       </c>
       <c r="C554">
-        <v>0.9158762426718425</v>
+        <v>0.8799820557155336</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5594,7 +5594,7 @@
         <v>43647</v>
       </c>
       <c r="C555">
-        <v>0.3686310833157735</v>
+        <v>0.2251855824267457</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>43739</v>
       </c>
       <c r="C556">
-        <v>0.07558344064582112</v>
+        <v>-0.007270255986291385</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5612,7 +5612,7 @@
         <v>43831</v>
       </c>
       <c r="C557">
-        <v>-6.000315461572936</v>
+        <v>-5.233743191175289</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5621,7 +5621,7 @@
         <v>43922</v>
       </c>
       <c r="C558">
-        <v>-12.30214539976016</v>
+        <v>-13.00633203363855</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>44013</v>
       </c>
       <c r="C559">
-        <v>13.08047362142217</v>
+        <v>13.83699754910957</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5639,7 +5639,7 @@
         <v>44105</v>
       </c>
       <c r="C560">
-        <v>0.04146741636057438</v>
+        <v>-0.1307909464774326</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5648,7 +5648,7 @@
         <v>44197</v>
       </c>
       <c r="C561">
-        <v>-8.00905198892854</v>
+        <v>-7.697274954631905</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5659,7 +5659,7 @@
         <v>42826</v>
       </c>
       <c r="C562">
-        <v>1.989612785627792</v>
+        <v>1.87855340857872</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>42917</v>
       </c>
       <c r="C563">
-        <v>-0.4293505910913931</v>
+        <v>-0.2958849670339436</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -5677,7 +5677,7 @@
         <v>43009</v>
       </c>
       <c r="C564">
-        <v>1.482595249560448</v>
+        <v>0.4500784613980846</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5686,7 +5686,7 @@
         <v>43101</v>
       </c>
       <c r="C565">
-        <v>1.51343986128043</v>
+        <v>1.854053933351008</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5695,7 +5695,7 @@
         <v>43191</v>
       </c>
       <c r="C566">
-        <v>1.66573483892265</v>
+        <v>2.420496789598747</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5704,7 +5704,7 @@
         <v>43282</v>
       </c>
       <c r="C567">
-        <v>2.322180889625014</v>
+        <v>2.142345937408363</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C568">
-        <v>0.05187370252253132</v>
+        <v>0.5110000514676249</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5722,7 +5722,7 @@
         <v>43466</v>
       </c>
       <c r="C569">
-        <v>0.5657415631181495</v>
+        <v>-0.3829428873069918</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5731,7 +5731,7 @@
         <v>43556</v>
       </c>
       <c r="C570">
-        <v>1.318955084641993</v>
+        <v>2.586440849920901</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>43647</v>
       </c>
       <c r="C571">
-        <v>1.787972572398422</v>
+        <v>0.1932079960746291</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5749,7 +5749,7 @@
         <v>43739</v>
       </c>
       <c r="C572">
-        <v>0.1867981840789179</v>
+        <v>0.8194775857800041</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5758,7 +5758,7 @@
         <v>43831</v>
       </c>
       <c r="C573">
-        <v>-3.681039352735516</v>
+        <v>-3.456315210013661</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>43922</v>
       </c>
       <c r="C574">
-        <v>-9.16307183031776</v>
+        <v>-9.123773247673295</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5776,7 +5776,7 @@
         <v>44013</v>
       </c>
       <c r="C575">
-        <v>8.562974118289702</v>
+        <v>8.907823149203109</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5785,7 +5785,7 @@
         <v>44105</v>
       </c>
       <c r="C576">
-        <v>0.6425517067009334</v>
+        <v>1.278351571315484</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5794,7 +5794,7 @@
         <v>44197</v>
       </c>
       <c r="C577">
-        <v>4.253499165038699</v>
+        <v>0.7771885662091194</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5805,7 +5805,7 @@
         <v>42826</v>
       </c>
       <c r="C578">
-        <v>-0.09151745398537914</v>
+        <v>0.3814790721106798</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -5814,7 +5814,7 @@
         <v>42917</v>
       </c>
       <c r="C579">
-        <v>0.7219875917878538</v>
+        <v>0.6421461030493791</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>43009</v>
       </c>
       <c r="C580">
-        <v>-0.214708456186874</v>
+        <v>0.02205574383196129</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5832,7 +5832,7 @@
         <v>43101</v>
       </c>
       <c r="C581">
-        <v>0.1593856977408104</v>
+        <v>-0.2189628111783692</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5841,7 +5841,7 @@
         <v>43191</v>
       </c>
       <c r="C582">
-        <v>0.02585428154315839</v>
+        <v>0.5106115594839311</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5850,7 +5850,7 @@
         <v>43282</v>
       </c>
       <c r="C583">
-        <v>1.683164113650859</v>
+        <v>0.9986675378204524</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5859,7 +5859,7 @@
         <v>43374</v>
       </c>
       <c r="C584">
-        <v>-0.1099187168083327</v>
+        <v>0.05387756694694712</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5868,7 +5868,7 @@
         <v>43466</v>
       </c>
       <c r="C585">
-        <v>0.9141701762088728</v>
+        <v>0.9928264303936452</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>43556</v>
       </c>
       <c r="C586">
-        <v>1.416403112487008</v>
+        <v>0.9904224892314684</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5886,7 +5886,7 @@
         <v>43647</v>
       </c>
       <c r="C587">
-        <v>0.08029928646677842</v>
+        <v>0.1125114581367548</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5895,7 +5895,7 @@
         <v>43739</v>
       </c>
       <c r="C588">
-        <v>-1.080433645457346</v>
+        <v>-0.9910934075544442</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5904,7 +5904,7 @@
         <v>43831</v>
       </c>
       <c r="C589">
-        <v>-2.24158387807144</v>
+        <v>-2.851321942835106</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>43922</v>
       </c>
       <c r="C590">
-        <v>-6.052616328471727</v>
+        <v>-5.371521080495445</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>44013</v>
       </c>
       <c r="C591">
-        <v>6.025019397685871</v>
+        <v>6.127573298249689</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5931,7 +5931,7 @@
         <v>44105</v>
       </c>
       <c r="C592">
-        <v>-0.08465536927001471</v>
+        <v>-0.2468024802629976</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5940,7 +5940,7 @@
         <v>44197</v>
       </c>
       <c r="C593">
-        <v>2.53086742483184</v>
+        <v>1.831460960530151</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5951,7 +5951,7 @@
         <v>42826</v>
       </c>
       <c r="C594">
-        <v>0.6369116275185993</v>
+        <v>1.263150274947611</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -5960,7 +5960,7 @@
         <v>42917</v>
       </c>
       <c r="C595">
-        <v>0.3912700567496374</v>
+        <v>0.2284162621180696</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -5969,7 +5969,7 @@
         <v>43009</v>
       </c>
       <c r="C596">
-        <v>0.5960302846785392</v>
+        <v>-0.07091402248727841</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5978,7 +5978,7 @@
         <v>43101</v>
       </c>
       <c r="C597">
-        <v>0.8040660004413169</v>
+        <v>0.950297767438113</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>43191</v>
       </c>
       <c r="C598">
-        <v>1.658608957666674</v>
+        <v>1.47974887350526</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5996,7 +5996,7 @@
         <v>43282</v>
       </c>
       <c r="C599">
-        <v>-0.2942565106429429</v>
+        <v>-0.4591280216855398</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6005,7 +6005,7 @@
         <v>43374</v>
       </c>
       <c r="C600">
-        <v>0.3568507305896196</v>
+        <v>1.680501066653739</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6014,7 +6014,7 @@
         <v>43466</v>
       </c>
       <c r="C601">
-        <v>0.5025393605793793</v>
+        <v>0.09959841113527101</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>43556</v>
       </c>
       <c r="C602">
-        <v>2.427972550579205</v>
+        <v>2.387914433816762</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>43647</v>
       </c>
       <c r="C603">
-        <v>0.6826029354068952</v>
+        <v>-0.5537086932444146</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6041,7 +6041,7 @@
         <v>43739</v>
       </c>
       <c r="C604">
-        <v>-0.07485801426798666</v>
+        <v>-0.09771810663437019</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6050,7 +6050,7 @@
         <v>43831</v>
       </c>
       <c r="C605">
-        <v>-4.873683723577315</v>
+        <v>-4.581008744508564</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6059,7 +6059,7 @@
         <v>43922</v>
       </c>
       <c r="C606">
-        <v>-8.030017857300919</v>
+        <v>-8.910347867063296</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6068,7 +6068,7 @@
         <v>44013</v>
       </c>
       <c r="C607">
-        <v>9.550365398456929</v>
+        <v>11.11192542030541</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6077,7 +6077,7 @@
         <v>44105</v>
       </c>
       <c r="C608">
-        <v>-0.5429720961911744</v>
+        <v>-0.2575991648908427</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>44197</v>
       </c>
       <c r="C609">
-        <v>-12.11695330951491</v>
+        <v>-7.804092934161888</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>42826</v>
       </c>
       <c r="C610">
-        <v>2.949007259044234</v>
+        <v>2.785567457950799</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -6106,7 +6106,7 @@
         <v>42917</v>
       </c>
       <c r="C611">
-        <v>0.4673630135066942</v>
+        <v>1.771893332909902</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -6115,7 +6115,7 @@
         <v>43009</v>
       </c>
       <c r="C612">
-        <v>2.526312248044027</v>
+        <v>-0.4983338030254414</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6124,7 +6124,7 @@
         <v>43101</v>
       </c>
       <c r="C613">
-        <v>0.9930109345878568</v>
+        <v>2.647379816003959</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>43191</v>
       </c>
       <c r="C614">
-        <v>0.320132787472116</v>
+        <v>0.7017314457741897</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>43282</v>
       </c>
       <c r="C615">
-        <v>0.268537147569603</v>
+        <v>0.9073748057938813</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6151,7 +6151,7 @@
         <v>43374</v>
       </c>
       <c r="C616">
-        <v>0.7964686817094391</v>
+        <v>1.14336643990689</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6160,7 +6160,7 @@
         <v>43466</v>
       </c>
       <c r="C617">
-        <v>2.205077704785707</v>
+        <v>1.108130182251821</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6169,7 +6169,7 @@
         <v>43556</v>
       </c>
       <c r="C618">
-        <v>1.322431156228787</v>
+        <v>1.212283960097005</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6178,7 +6178,7 @@
         <v>43647</v>
       </c>
       <c r="C619">
-        <v>1.458613733833558</v>
+        <v>0.4088981116580515</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>43739</v>
       </c>
       <c r="C620">
-        <v>1.070400784741854</v>
+        <v>2.589208058761594</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>43831</v>
       </c>
       <c r="C621">
-        <v>-5.937572454143769</v>
+        <v>-5.63007363381044</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6205,7 +6205,7 @@
         <v>43922</v>
       </c>
       <c r="C622">
-        <v>-5.765754180241178</v>
+        <v>-7.578996599837851</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6214,7 +6214,7 @@
         <v>44013</v>
       </c>
       <c r="C623">
-        <v>7.319900444687888</v>
+        <v>11.96296425663461</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6223,7 +6223,7 @@
         <v>44105</v>
       </c>
       <c r="C624">
-        <v>-5.665746083857637</v>
+        <v>-4.933249099486492</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6232,7 +6232,7 @@
         <v>44197</v>
       </c>
       <c r="C625">
-        <v>-3.236972855140308</v>
+        <v>-4.024921762027933</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6243,7 +6243,7 @@
         <v>42826</v>
       </c>
       <c r="C626">
-        <v>1.353706446959335</v>
+        <v>1.050231019516801</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>42917</v>
       </c>
       <c r="C627">
-        <v>0.2854471027207817</v>
+        <v>0.1417824464990503</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -6261,7 +6261,7 @@
         <v>43009</v>
       </c>
       <c r="C628">
-        <v>0.5047264351427438</v>
+        <v>0.7796496918782037</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6270,7 +6270,7 @@
         <v>43101</v>
       </c>
       <c r="C629">
-        <v>-0.9265177222382959</v>
+        <v>-1.010046428109801</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6279,7 +6279,7 @@
         <v>43191</v>
       </c>
       <c r="C630">
-        <v>1.356393703740788</v>
+        <v>1.531888029058215</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6288,7 +6288,7 @@
         <v>43282</v>
       </c>
       <c r="C631">
-        <v>-0.1461143240738871</v>
+        <v>-0.2336793249462787</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>43374</v>
       </c>
       <c r="C632">
-        <v>1.290312500550983</v>
+        <v>1.016905240579402</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>43466</v>
       </c>
       <c r="C633">
-        <v>-1.121396047860668</v>
+        <v>-0.7318368973799005</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6315,7 +6315,7 @@
         <v>43556</v>
       </c>
       <c r="C634">
-        <v>-0.0887237103828542</v>
+        <v>-0.1154364689107124</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6324,7 +6324,7 @@
         <v>43647</v>
       </c>
       <c r="C635">
-        <v>-0.4239298657837232</v>
+        <v>-0.2061350801370154</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6333,7 +6333,7 @@
         <v>43739</v>
       </c>
       <c r="C636">
-        <v>0.8744963358655378</v>
+        <v>0.7907150977788158</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6342,7 +6342,7 @@
         <v>43831</v>
       </c>
       <c r="C637">
-        <v>-4.305298248868605</v>
+        <v>-4.409187967742567</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>43922</v>
       </c>
       <c r="C638">
-        <v>-14.88429287634549</v>
+        <v>-13.75466418222686</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6360,7 +6360,7 @@
         <v>44013</v>
       </c>
       <c r="C639">
-        <v>13.75272937123322</v>
+        <v>11.82789504363249</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6369,7 +6369,7 @@
         <v>44105</v>
       </c>
       <c r="C640">
-        <v>3.79177473854091</v>
+        <v>3.852305355373686</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6378,7 +6378,7 @@
         <v>44197</v>
       </c>
       <c r="C641">
-        <v>-3.566216091850016</v>
+        <v>-3.228282935750526</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6389,7 +6389,7 @@
         <v>42826</v>
       </c>
       <c r="C642">
-        <v>0.9977961274482139</v>
+        <v>1.052122371608855</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -6398,7 +6398,7 @@
         <v>42917</v>
       </c>
       <c r="C643">
-        <v>0.5720602616263504</v>
+        <v>0.3450899906545457</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -6407,7 +6407,7 @@
         <v>43009</v>
       </c>
       <c r="C644">
-        <v>0.08740644138973686</v>
+        <v>0.3564052180628163</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>43101</v>
       </c>
       <c r="C645">
-        <v>1.362698011398278</v>
+        <v>1.053774701919097</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6425,7 +6425,7 @@
         <v>43191</v>
       </c>
       <c r="C646">
-        <v>0.4062026124342921</v>
+        <v>0.809378331639321</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6434,7 +6434,7 @@
         <v>43282</v>
       </c>
       <c r="C647">
-        <v>0.3795688059693436</v>
+        <v>0.3311168064152659</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6443,7 +6443,7 @@
         <v>43374</v>
       </c>
       <c r="C648">
-        <v>0.6183931512812713</v>
+        <v>0.764932304525856</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6452,7 +6452,7 @@
         <v>43466</v>
       </c>
       <c r="C649">
-        <v>0.380891523121063</v>
+        <v>0.1520797739072099</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>43556</v>
       </c>
       <c r="C650">
-        <v>1.039504876152808</v>
+        <v>0.9118007505375836</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6470,7 +6470,7 @@
         <v>43647</v>
       </c>
       <c r="C651">
-        <v>-0.2737428686592769</v>
+        <v>-0.07642700999633822</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6479,7 +6479,7 @@
         <v>43739</v>
       </c>
       <c r="C652">
-        <v>0.7352223756434961</v>
+        <v>0.960073037718745</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6488,7 +6488,7 @@
         <v>43831</v>
       </c>
       <c r="C653">
-        <v>-6.812449240297624</v>
+        <v>-6.766516207251816</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6497,7 +6497,7 @@
         <v>43922</v>
       </c>
       <c r="C654">
-        <v>-15.34792905905522</v>
+        <v>-14.99314877150699</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>44013</v>
       </c>
       <c r="C655">
-        <v>15.67933868664784</v>
+        <v>14.84739496193734</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>44105</v>
       </c>
       <c r="C656">
-        <v>0.7785433327984759</v>
+        <v>0.4883832498505436</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6524,7 +6524,7 @@
         <v>44197</v>
       </c>
       <c r="C657">
-        <v>-2.348671810115199</v>
+        <v>-3.533339904026889</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6535,7 +6535,7 @@
         <v>42826</v>
       </c>
       <c r="C658">
-        <v>-0.1173259302221452</v>
+        <v>0.727475641738673</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -6544,7 +6544,7 @@
         <v>42917</v>
       </c>
       <c r="C659">
-        <v>1.042430105309577</v>
+        <v>0.280452052026714</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -6553,7 +6553,7 @@
         <v>43009</v>
       </c>
       <c r="C660">
-        <v>0.5387554785273529</v>
+        <v>0.9555161754321917</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>43101</v>
       </c>
       <c r="C661">
-        <v>-0.136844344229281</v>
+        <v>-0.06342325347922229</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6571,7 +6571,7 @@
         <v>43191</v>
       </c>
       <c r="C662">
-        <v>1.670464153247297</v>
+        <v>1.583051481233877</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6580,7 +6580,7 @@
         <v>43282</v>
       </c>
       <c r="C663">
-        <v>0.1796436475406171</v>
+        <v>0.09793580923687095</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6589,7 +6589,7 @@
         <v>43374</v>
       </c>
       <c r="C664">
-        <v>0.09700761760600418</v>
+        <v>-0.3635849597781626</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6598,7 +6598,7 @@
         <v>43466</v>
       </c>
       <c r="C665">
-        <v>0.6701447316097342</v>
+        <v>0.7319581312100087</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6607,7 +6607,7 @@
         <v>43556</v>
       </c>
       <c r="C666">
-        <v>0.3922944812025042</v>
+        <v>1.04912600855831</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6616,7 +6616,7 @@
         <v>43647</v>
       </c>
       <c r="C667">
-        <v>-0.5589630629438957</v>
+        <v>-0.4208101736122405</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>43739</v>
       </c>
       <c r="C668">
-        <v>1.233154778200807</v>
+        <v>1.295292270676662</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6634,7 +6634,7 @@
         <v>43831</v>
       </c>
       <c r="C669">
-        <v>-2.503917643454856</v>
+        <v>-2.424321001503194</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6643,7 +6643,7 @@
         <v>43922</v>
       </c>
       <c r="C670">
-        <v>-7.581813512319469</v>
+        <v>-6.986809970825303</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6652,7 +6652,7 @@
         <v>44013</v>
       </c>
       <c r="C671">
-        <v>5.368068795624814</v>
+        <v>5.829237171817425</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>44105</v>
       </c>
       <c r="C672">
-        <v>1.315437658403495</v>
+        <v>0.3848593418103619</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>44197</v>
       </c>
       <c r="C673">
-        <v>0.3927865090230576</v>
+        <v>0.7287609571311471</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6681,7 +6681,7 @@
         <v>42826</v>
       </c>
       <c r="C674">
-        <v>0.2781456067745935</v>
+        <v>-0.1562468029771558</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -6690,7 +6690,7 @@
         <v>42917</v>
       </c>
       <c r="C675">
-        <v>0.1514560973376211</v>
+        <v>0.57751514689377</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -6699,7 +6699,7 @@
         <v>43009</v>
       </c>
       <c r="C676">
-        <v>0.6570746177718245</v>
+        <v>0.8397240282040697</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6708,7 +6708,7 @@
         <v>43101</v>
       </c>
       <c r="C677">
-        <v>0.121390522272069</v>
+        <v>-0.3861452336032856</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6717,7 +6717,7 @@
         <v>43191</v>
       </c>
       <c r="C678">
-        <v>1.137948528759702</v>
+        <v>0.9185139170437173</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6726,7 +6726,7 @@
         <v>43282</v>
       </c>
       <c r="C679">
-        <v>-0.1676482086638176</v>
+        <v>0.2643564790505204</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6735,7 +6735,7 @@
         <v>43374</v>
       </c>
       <c r="C680">
-        <v>1.025105627290013</v>
+        <v>0.9886383759605932</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6744,7 +6744,7 @@
         <v>43466</v>
       </c>
       <c r="C681">
-        <v>0.5906633381767445</v>
+        <v>0.7604232266365196</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6753,7 +6753,7 @@
         <v>43556</v>
       </c>
       <c r="C682">
-        <v>1.13205093950246</v>
+        <v>1.310328687581164</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6762,7 +6762,7 @@
         <v>43647</v>
       </c>
       <c r="C683">
-        <v>-0.6666946178956246</v>
+        <v>-0.7328220811765651</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>43739</v>
       </c>
       <c r="C684">
-        <v>0.7755280099501105</v>
+        <v>0.4685551300098512</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6780,7 +6780,7 @@
         <v>43831</v>
       </c>
       <c r="C685">
-        <v>-4.845722113816153</v>
+        <v>-5.244137327605669</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6789,7 +6789,7 @@
         <v>43922</v>
       </c>
       <c r="C686">
-        <v>-6.048608517845366</v>
+        <v>-5.337713230496266</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6798,7 +6798,7 @@
         <v>44013</v>
       </c>
       <c r="C687">
-        <v>8.059729685101846</v>
+        <v>7.800186309773793</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6807,7 +6807,7 @@
         <v>44105</v>
       </c>
       <c r="C688">
-        <v>-1.614962083324634</v>
+        <v>-1.608369999387882</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6816,7 +6816,7 @@
         <v>44197</v>
       </c>
       <c r="C689">
-        <v>-2.546357509578834</v>
+        <v>-2.165002580107078</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6827,7 +6827,7 @@
         <v>42826</v>
       </c>
       <c r="C690">
-        <v>2.852414593226049</v>
+        <v>3.704347152597576</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -6836,7 +6836,7 @@
         <v>42917</v>
       </c>
       <c r="C691">
-        <v>-0.8192083573330122</v>
+        <v>-1.065799030579284</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -6845,7 +6845,7 @@
         <v>43009</v>
       </c>
       <c r="C692">
-        <v>4.691640306337397</v>
+        <v>4.316662890294309</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6854,7 +6854,7 @@
         <v>43101</v>
       </c>
       <c r="C693">
-        <v>1.000165326630476</v>
+        <v>1.234034940071171</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6863,7 +6863,7 @@
         <v>43191</v>
       </c>
       <c r="C694">
-        <v>1.330268433816362</v>
+        <v>1.293771723873305</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>43282</v>
       </c>
       <c r="C695">
-        <v>-1.085566630485446</v>
+        <v>-0.1509657176537393</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>43374</v>
       </c>
       <c r="C696">
-        <v>-0.6444437316795226</v>
+        <v>-0.8659173458559932</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6890,7 +6890,7 @@
         <v>43466</v>
       </c>
       <c r="C697">
-        <v>2.10119821013186</v>
+        <v>2.134362352400521</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6899,7 +6899,7 @@
         <v>43556</v>
       </c>
       <c r="C698">
-        <v>0.8704007727922125</v>
+        <v>1.222680934733367</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6908,7 +6908,7 @@
         <v>43647</v>
       </c>
       <c r="C699">
-        <v>1.077641083451497</v>
+        <v>0.1786342588781187</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6917,7 +6917,7 @@
         <v>43739</v>
       </c>
       <c r="C700">
-        <v>-1.637271324163148</v>
+        <v>-1.262525280207272</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6926,7 +6926,7 @@
         <v>43831</v>
       </c>
       <c r="C701">
-        <v>-0.5886126327088181</v>
+        <v>-0.7874560654334228</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6935,7 +6935,7 @@
         <v>43922</v>
       </c>
       <c r="C702">
-        <v>-8.224981667204467</v>
+        <v>-8.700159863384972</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6944,7 +6944,7 @@
         <v>44013</v>
       </c>
       <c r="C703">
-        <v>10.50884174636484</v>
+        <v>11.33932869540473</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6953,7 +6953,7 @@
         <v>44105</v>
       </c>
       <c r="C704">
-        <v>0.4675030422965465</v>
+        <v>-0.1175648534632256</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6962,7 +6962,7 @@
         <v>44197</v>
       </c>
       <c r="C705">
-        <v>-2.240811410036492</v>
+        <v>-2.971008113478124</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6973,7 +6973,7 @@
         <v>42826</v>
       </c>
       <c r="C706">
-        <v>0.4907441239852872</v>
+        <v>0.177594388879454</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6982,7 +6982,7 @@
         <v>42917</v>
       </c>
       <c r="C707">
-        <v>0.577992809206429</v>
+        <v>0.6011122534096192</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>43009</v>
       </c>
       <c r="C708">
-        <v>0.426611512036823</v>
+        <v>0.604975083859749</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -7000,7 +7000,7 @@
         <v>43101</v>
       </c>
       <c r="C709">
-        <v>0.7173967698215877</v>
+        <v>0.4494878664487834</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7009,7 +7009,7 @@
         <v>43191</v>
       </c>
       <c r="C710">
-        <v>0.679857054763211</v>
+        <v>0.9380430645023363</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7018,7 +7018,7 @@
         <v>43282</v>
       </c>
       <c r="C711">
-        <v>-0.3295344018135471</v>
+        <v>-0.3913468578016221</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7027,7 +7027,7 @@
         <v>43374</v>
       </c>
       <c r="C712">
-        <v>0.2679191582801721</v>
+        <v>0.5005543973553683</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7036,7 +7036,7 @@
         <v>43466</v>
       </c>
       <c r="C713">
-        <v>-0.1261734508907209</v>
+        <v>-0.2690643559681405</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>43556</v>
       </c>
       <c r="C714">
-        <v>0.5658648583930725</v>
+        <v>0.228749555079677</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7054,7 +7054,7 @@
         <v>43647</v>
       </c>
       <c r="C715">
-        <v>0.07465569042939268</v>
+        <v>0.5903878775882276</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7063,7 +7063,7 @@
         <v>43739</v>
       </c>
       <c r="C716">
-        <v>0.02390623577646078</v>
+        <v>-0.2167448841430719</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7072,7 +7072,7 @@
         <v>43831</v>
       </c>
       <c r="C717">
-        <v>-4.418000937167599</v>
+        <v>-4.097484003565377</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>43922</v>
       </c>
       <c r="C718">
-        <v>-16.38703252590924</v>
+        <v>-15.24817936058515</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>44013</v>
       </c>
       <c r="C719">
-        <v>14.40926883236946</v>
+        <v>13.97244943865232</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7099,7 +7099,7 @@
         <v>44105</v>
       </c>
       <c r="C720">
-        <v>-0.2496453175728108</v>
+        <v>-0.1634534308639801</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7108,7 +7108,7 @@
         <v>44197</v>
       </c>
       <c r="C721">
-        <v>-4.1678539531531</v>
+        <v>-4.395860258307249</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -7119,7 +7119,7 @@
         <v>42826</v>
       </c>
       <c r="C722">
-        <v>0.5754672170374953</v>
+        <v>0.3390016125467188</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -7128,7 +7128,7 @@
         <v>42917</v>
       </c>
       <c r="C723">
-        <v>1.097854934217302</v>
+        <v>0.7625300401127078</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>43009</v>
       </c>
       <c r="C724">
-        <v>0.8560184530723269</v>
+        <v>0.8870777892558523</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -7146,7 +7146,7 @@
         <v>43101</v>
       </c>
       <c r="C725">
-        <v>0.3488795378581377</v>
+        <v>0.4475507811676493</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -7155,7 +7155,7 @@
         <v>43191</v>
       </c>
       <c r="C726">
-        <v>0.3699995340777917</v>
+        <v>0.4031781406404811</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -7164,7 +7164,7 @@
         <v>43282</v>
       </c>
       <c r="C727">
-        <v>-0.06871629599837226</v>
+        <v>0.2075042662018634</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -7173,7 +7173,7 @@
         <v>43374</v>
       </c>
       <c r="C728">
-        <v>0.6395133315311829</v>
+        <v>0.4695034678263266</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -7182,7 +7182,7 @@
         <v>43466</v>
       </c>
       <c r="C729">
-        <v>1.315594528029895</v>
+        <v>1.3375911727594</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>43556</v>
       </c>
       <c r="C730">
-        <v>0.5596657686706363</v>
+        <v>0.4519163866593123</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C731">
-        <v>1.00328555588407</v>
+        <v>1.198193767058497</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -7209,7 +7209,7 @@
         <v>43739</v>
       </c>
       <c r="C732">
-        <v>0.1465498035226886</v>
+        <v>0.1871197893812848</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>43831</v>
       </c>
       <c r="C733">
-        <v>-2.441645983491947</v>
+        <v>-2.654322671649501</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -7227,7 +7227,7 @@
         <v>43922</v>
       </c>
       <c r="C734">
-        <v>-7.383465086978259</v>
+        <v>-7.347022547764404</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -7236,7 +7236,7 @@
         <v>44013</v>
       </c>
       <c r="C735">
-        <v>6.040136192187773</v>
+        <v>6.108571157905396</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -7245,7 +7245,7 @@
         <v>44105</v>
       </c>
       <c r="C736">
-        <v>2.578123769684448</v>
+        <v>2.078053769303501</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>44197</v>
       </c>
       <c r="C737">
-        <v>-0.792521482832198</v>
+        <v>-0.7441117065774439</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Tracker</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C737"/>
+  <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
         <v>42826</v>
       </c>
       <c r="C2">
-        <v>-1.748998887289788</v>
+        <v>-1.678847256332838</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -558,7 +555,7 @@
         <v>42917</v>
       </c>
       <c r="C3">
-        <v>0.7212108057628175</v>
+        <v>0.8115544236198424</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -567,7 +564,7 @@
         <v>43009</v>
       </c>
       <c r="C4">
-        <v>0.584198375042555</v>
+        <v>0.777477552371697</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -576,7 +573,7 @@
         <v>43101</v>
       </c>
       <c r="C5">
-        <v>0.5372230341923023</v>
+        <v>0.8599805506632974</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -585,7 +582,7 @@
         <v>43191</v>
       </c>
       <c r="C6">
-        <v>-2.741055620995669</v>
+        <v>-3.187694956636034</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -594,7 +591,7 @@
         <v>43282</v>
       </c>
       <c r="C7">
-        <v>-0.9668594037150258</v>
+        <v>-0.2473859965784198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -603,7 +600,7 @@
         <v>43374</v>
       </c>
       <c r="C8">
-        <v>1.398655880100685</v>
+        <v>0.4166210319533903</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -612,7 +609,7 @@
         <v>43466</v>
       </c>
       <c r="C9">
-        <v>0.08019424317220469</v>
+        <v>0.9555290303289388</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -621,7 +618,7 @@
         <v>43556</v>
       </c>
       <c r="C10">
-        <v>-2.945542745796748</v>
+        <v>-2.83704103632022</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +627,7 @@
         <v>43647</v>
       </c>
       <c r="C11">
-        <v>1.275308685979337</v>
+        <v>0.9492396742247999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -639,7 +636,7 @@
         <v>43739</v>
       </c>
       <c r="C12">
-        <v>-0.7580166298843283</v>
+        <v>-1.039771891820074</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -648,7 +645,7 @@
         <v>43831</v>
       </c>
       <c r="C13">
-        <v>-4.498932489343699</v>
+        <v>-4.331774385013498</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +654,7 @@
         <v>43922</v>
       </c>
       <c r="C14">
-        <v>-15.73335955452969</v>
+        <v>-16.13382569747797</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -666,7 +663,7 @@
         <v>44013</v>
       </c>
       <c r="C15">
-        <v>8.095154062709554</v>
+        <v>8.821591331124656</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -675,7 +672,7 @@
         <v>44105</v>
       </c>
       <c r="C16">
-        <v>2.475789292618891</v>
+        <v>2.258741245274409</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +681,7 @@
         <v>44197</v>
       </c>
       <c r="C17">
-        <v>0.8799777003799969</v>
+        <v>2.203859131846864</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +692,7 @@
         <v>42826</v>
       </c>
       <c r="C18">
-        <v>0.6724471696230028</v>
+        <v>0.5393802156181904</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -704,7 +701,7 @@
         <v>42917</v>
       </c>
       <c r="C19">
-        <v>0.2894248850870973</v>
+        <v>0.4948256371946957</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -713,7 +710,7 @@
         <v>43009</v>
       </c>
       <c r="C20">
-        <v>1.220592301729329</v>
+        <v>1.132815780571983</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -722,7 +719,7 @@
         <v>43101</v>
       </c>
       <c r="C21">
-        <v>0.4513881422325117</v>
+        <v>0.458444180761286</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -731,7 +728,7 @@
         <v>43191</v>
       </c>
       <c r="C22">
-        <v>0.869535478269956</v>
+        <v>0.7745605695797853</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -740,7 +737,7 @@
         <v>43282</v>
       </c>
       <c r="C23">
-        <v>0.6779474487473403</v>
+        <v>0.4072948635267082</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -749,7 +746,7 @@
         <v>43374</v>
       </c>
       <c r="C24">
-        <v>0.2635750819564686</v>
+        <v>0.183075446220049</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -758,7 +755,7 @@
         <v>43466</v>
       </c>
       <c r="C25">
-        <v>0.6364944730194777</v>
+        <v>0.6460173712095951</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -767,7 +764,7 @@
         <v>43556</v>
       </c>
       <c r="C26">
-        <v>0.54207508855868</v>
+        <v>0.7539234908788828</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -776,7 +773,7 @@
         <v>43647</v>
       </c>
       <c r="C27">
-        <v>0.4553286138542223</v>
+        <v>0.6180353464321886</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -785,7 +782,7 @@
         <v>43739</v>
       </c>
       <c r="C28">
-        <v>-0.228197096956162</v>
+        <v>-0.2501693044201225</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -794,7 +791,7 @@
         <v>43831</v>
       </c>
       <c r="C29">
-        <v>-2.602842160741425</v>
+        <v>-2.691960264751736</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -803,7 +800,7 @@
         <v>43922</v>
       </c>
       <c r="C30">
-        <v>-5.402854804137336</v>
+        <v>-5.313366169098455</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -812,7 +809,7 @@
         <v>44013</v>
       </c>
       <c r="C31">
-        <v>4.991052845192234</v>
+        <v>4.823815359841954</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -821,7 +818,7 @@
         <v>44105</v>
       </c>
       <c r="C32">
-        <v>4.94379623061878</v>
+        <v>4.457713256860174</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -830,7 +827,7 @@
         <v>44197</v>
       </c>
       <c r="C33">
-        <v>0.6123102455506402</v>
+        <v>1.437480700534888</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -841,7 +838,7 @@
         <v>42826</v>
       </c>
       <c r="C34">
-        <v>-0.005539136849663784</v>
+        <v>-0.1427444627295826</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -850,7 +847,7 @@
         <v>42917</v>
       </c>
       <c r="C35">
-        <v>0.8521027498621159</v>
+        <v>0.5114890189180876</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -859,7 +856,7 @@
         <v>43009</v>
       </c>
       <c r="C36">
-        <v>0.3461497697015536</v>
+        <v>1.038642950419444</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -868,7 +865,7 @@
         <v>43101</v>
       </c>
       <c r="C37">
-        <v>0.2666078981104381</v>
+        <v>0.000508136127574943</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -877,7 +874,7 @@
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>0.4671546945143712</v>
+        <v>0.8228080918445624</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -886,7 +883,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>0.5992730867374174</v>
+        <v>0.2676851261868674</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -895,7 +892,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>0.1464881912718985</v>
+        <v>0.07910395073302823</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -904,7 +901,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.315091541371083</v>
+        <v>1.568242906998463</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -913,7 +910,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>0.6422118359571627</v>
+        <v>0.6821188807753398</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -922,7 +919,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>0.06427183730459696</v>
+        <v>-0.4554794195454903</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -931,7 +928,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>0.8514098475230103</v>
+        <v>0.9871229093559419</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -940,7 +937,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-5.526818713486115</v>
+        <v>-4.602041573043747</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -949,7 +946,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-8.303500194112722</v>
+        <v>-9.475323953742576</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -958,7 +955,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>8.44993375574834</v>
+        <v>8.752562765529582</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -967,7 +964,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-3.01719790276086</v>
+        <v>-2.733972319506139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -976,7 +973,7 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>-3.927333186939319</v>
+        <v>-2.905708503003979</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -987,7 +984,7 @@
         <v>42826</v>
       </c>
       <c r="C50">
-        <v>0.4442860034684193</v>
+        <v>0.270129018656351</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -996,7 +993,7 @@
         <v>42917</v>
       </c>
       <c r="C51">
-        <v>0.6380728822756421</v>
+        <v>0.1512373464733097</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1005,7 +1002,7 @@
         <v>43009</v>
       </c>
       <c r="C52">
-        <v>-0.02443749892884206</v>
+        <v>0.5553536880239296</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1014,7 +1011,7 @@
         <v>43101</v>
       </c>
       <c r="C53">
-        <v>0.2496611499883228</v>
+        <v>0.4355757901489454</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1023,7 +1020,7 @@
         <v>43191</v>
       </c>
       <c r="C54">
-        <v>0.8650228404399662</v>
+        <v>0.7010661172552668</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1032,7 +1029,7 @@
         <v>43282</v>
       </c>
       <c r="C55">
-        <v>-0.4486799324923907</v>
+        <v>-0.3738464731188107</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1041,7 +1038,7 @@
         <v>43374</v>
       </c>
       <c r="C56">
-        <v>0.8598131409413012</v>
+        <v>0.5926619815517231</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1050,7 +1047,7 @@
         <v>43466</v>
       </c>
       <c r="C57">
-        <v>0.5283174941546731</v>
+        <v>0.2957884082771089</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1059,7 +1056,7 @@
         <v>43556</v>
       </c>
       <c r="C58">
-        <v>-0.1135076825143355</v>
+        <v>0.1588535635143273</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1068,7 +1065,7 @@
         <v>43647</v>
       </c>
       <c r="C59">
-        <v>0.7298974036786809</v>
+        <v>0.7664475286549344</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1077,7 +1074,7 @@
         <v>43739</v>
       </c>
       <c r="C60">
-        <v>0.5218742242879104</v>
+        <v>0.499105353023177</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1086,7 +1083,7 @@
         <v>43831</v>
       </c>
       <c r="C61">
-        <v>-5.140069465802199</v>
+        <v>-5.250802195771886</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1095,7 +1092,7 @@
         <v>43922</v>
       </c>
       <c r="C62">
-        <v>-8.719632228052209</v>
+        <v>-8.648461045089896</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1104,7 +1101,7 @@
         <v>44013</v>
       </c>
       <c r="C63">
-        <v>10.63769525880886</v>
+        <v>10.67368251404139</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1113,7 +1110,7 @@
         <v>44105</v>
       </c>
       <c r="C64">
-        <v>-2.070443613476591</v>
+        <v>-1.213547932662629</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1122,7 +1119,7 @@
         <v>44197</v>
       </c>
       <c r="C65">
-        <v>-2.117867404559248</v>
+        <v>-1.498082551117619</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1133,7 +1130,7 @@
         <v>42826</v>
       </c>
       <c r="C66">
-        <v>0.9036696452444204</v>
+        <v>0.7878684146690906</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1142,7 +1139,7 @@
         <v>42917</v>
       </c>
       <c r="C67">
-        <v>-1.312146901771483</v>
+        <v>-1.289280629095213</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1151,7 +1148,7 @@
         <v>43009</v>
       </c>
       <c r="C68">
-        <v>0.5549665404220638</v>
+        <v>0.5227540507894313</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1160,7 +1157,7 @@
         <v>43101</v>
       </c>
       <c r="C69">
-        <v>1.263639792648341</v>
+        <v>1.099675185585136</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1169,7 +1166,7 @@
         <v>43191</v>
       </c>
       <c r="C70">
-        <v>-0.3881519804014966</v>
+        <v>-0.3261148615636644</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1178,7 +1175,7 @@
         <v>43282</v>
       </c>
       <c r="C71">
-        <v>0.5242156928076724</v>
+        <v>0.7030043759189919</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1187,7 +1184,7 @@
         <v>43374</v>
       </c>
       <c r="C72">
-        <v>0.6426850651953586</v>
+        <v>0.1208363858977712</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1196,7 +1193,7 @@
         <v>43466</v>
       </c>
       <c r="C73">
-        <v>1.258606208139645</v>
+        <v>1.043100927670793</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1205,7 +1202,7 @@
         <v>43556</v>
       </c>
       <c r="C74">
-        <v>-0.6270681453998672</v>
+        <v>-0.06213215308112918</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1211,7 @@
         <v>43647</v>
       </c>
       <c r="C75">
-        <v>1.217108427992741</v>
+        <v>1.343655517688025</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1223,7 +1220,7 @@
         <v>43739</v>
       </c>
       <c r="C76">
-        <v>-0.8085880250811694</v>
+        <v>-0.8031001047324238</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1232,7 +1229,7 @@
         <v>43831</v>
       </c>
       <c r="C77">
-        <v>-1.798318281881828</v>
+        <v>-1.670270859675127</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1238,7 @@
         <v>43922</v>
       </c>
       <c r="C78">
-        <v>-9.196346396588817</v>
+        <v>-9.755823610497549</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1250,7 +1247,7 @@
         <v>44013</v>
       </c>
       <c r="C79">
-        <v>6.790099074608325</v>
+        <v>7.164156787975684</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1259,7 +1256,7 @@
         <v>44105</v>
       </c>
       <c r="C80">
-        <v>4.45335782238927</v>
+        <v>4.350511133378721</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1265,7 @@
         <v>44197</v>
       </c>
       <c r="C81">
-        <v>-2.052109319734541</v>
+        <v>-0.506772219894025</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1276,7 @@
         <v>42826</v>
       </c>
       <c r="C82">
-        <v>1.390370760946502</v>
+        <v>1.108417942801632</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1288,7 +1285,7 @@
         <v>42917</v>
       </c>
       <c r="C83">
-        <v>0.5687880600763418</v>
+        <v>0.6611011611697526</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1297,7 +1294,7 @@
         <v>43009</v>
       </c>
       <c r="C84">
-        <v>1.521944367068606</v>
+        <v>1.1433560851692</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1306,7 +1303,7 @@
         <v>43101</v>
       </c>
       <c r="C85">
-        <v>0.1133914447195128</v>
+        <v>0.5655309950782561</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1315,7 +1312,7 @@
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>1.174105672033887</v>
+        <v>0.7438829283730852</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1324,7 +1321,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>-0.3825850670367892</v>
+        <v>0.2744962029772369</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1333,7 +1330,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>0.7029248100858032</v>
+        <v>0.5618929460919464</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1342,7 +1339,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>-0.09627022183303913</v>
+        <v>0.1112470630918683</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1351,7 +1348,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>0.6585039432089657</v>
+        <v>-0.4239866367557021</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1360,7 +1357,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>2.282510488842648</v>
+        <v>3.878530832773852</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1369,7 +1366,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-0.3202019010693724</v>
+        <v>-1.572126840583099</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1378,7 +1375,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-2.353228966523269</v>
+        <v>-1.491831997944082</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1387,7 +1384,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-6.698173675442542</v>
+        <v>-7.691489964332865</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1396,7 +1393,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>7.486998293374714</v>
+        <v>7.100289059127718</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1405,7 +1402,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>-0.5812990822411157</v>
+        <v>1.073113966060668</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1414,7 +1411,7 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>6.170078170441373</v>
+        <v>5.289520041243945</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1425,7 +1422,7 @@
         <v>42826</v>
       </c>
       <c r="C98">
-        <v>-0.8025182718589541</v>
+        <v>-0.7707674692414956</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1434,7 +1431,7 @@
         <v>42917</v>
       </c>
       <c r="C99">
-        <v>1.602984768146909</v>
+        <v>1.464928027640022</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1443,7 +1440,7 @@
         <v>43009</v>
       </c>
       <c r="C100">
-        <v>0.5932965243611754</v>
+        <v>0.4641912163257933</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1452,7 +1449,7 @@
         <v>43101</v>
       </c>
       <c r="C101">
-        <v>0.6007761329467121</v>
+        <v>0.6685811240796591</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1461,7 +1458,7 @@
         <v>43191</v>
       </c>
       <c r="C102">
-        <v>1.095031704853189</v>
+        <v>1.226733064956087</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1470,7 +1467,7 @@
         <v>43282</v>
       </c>
       <c r="C103">
-        <v>0.2303754818341774</v>
+        <v>0.2167020688458088</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1479,7 +1476,7 @@
         <v>43374</v>
       </c>
       <c r="C104">
-        <v>0.1012091651136471</v>
+        <v>0.07471620807524282</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1488,7 +1485,7 @@
         <v>43466</v>
       </c>
       <c r="C105">
-        <v>0.6701174507989238</v>
+        <v>0.6879892612855043</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1497,7 +1494,7 @@
         <v>43556</v>
       </c>
       <c r="C106">
-        <v>0.3517785504556725</v>
+        <v>0.3526259260327125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1506,7 +1503,7 @@
         <v>43647</v>
       </c>
       <c r="C107">
-        <v>0.8264882125013084</v>
+        <v>0.7557828520574628</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1515,7 +1512,7 @@
         <v>43739</v>
       </c>
       <c r="C108">
-        <v>-0.1379274691505561</v>
+        <v>0.02431097786848024</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1524,7 +1521,7 @@
         <v>43831</v>
       </c>
       <c r="C109">
-        <v>-3.349669554592871</v>
+        <v>-3.19012924116262</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1533,7 +1530,7 @@
         <v>43922</v>
       </c>
       <c r="C110">
-        <v>-8.69191455201943</v>
+        <v>-8.985621290936251</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1542,7 +1539,7 @@
         <v>44013</v>
       </c>
       <c r="C111">
-        <v>8.89171228611354</v>
+        <v>8.953093297296299</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1551,7 +1548,7 @@
         <v>44105</v>
       </c>
       <c r="C112">
-        <v>-0.09668735368125736</v>
+        <v>0.1508604709099082</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1560,7 +1557,7 @@
         <v>44197</v>
       </c>
       <c r="C113">
-        <v>-1.727256329762472</v>
+        <v>-1.272456954793433</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1571,7 +1568,7 @@
         <v>42826</v>
       </c>
       <c r="C114">
-        <v>0.06743953414003467</v>
+        <v>0.3046842084016399</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1580,7 +1577,7 @@
         <v>42917</v>
       </c>
       <c r="C115">
-        <v>0.7196554927711318</v>
+        <v>0.991281795379706</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1589,7 +1586,7 @@
         <v>43009</v>
       </c>
       <c r="C116">
-        <v>-0.2673094959354305</v>
+        <v>-0.29433258604461</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1598,7 +1595,7 @@
         <v>43101</v>
       </c>
       <c r="C117">
-        <v>1.174609190473186</v>
+        <v>0.1690378489267452</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1607,7 +1604,7 @@
         <v>43191</v>
       </c>
       <c r="C118">
-        <v>-0.3275181457202292</v>
+        <v>0.1693695063262668</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1616,7 +1613,7 @@
         <v>43282</v>
       </c>
       <c r="C119">
-        <v>1.702673314471403</v>
+        <v>1.709399730664152</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1625,7 +1622,7 @@
         <v>43374</v>
       </c>
       <c r="C120">
-        <v>0.9250284623554705</v>
+        <v>0.8621002790867527</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1634,7 +1631,7 @@
         <v>43466</v>
       </c>
       <c r="C121">
-        <v>0.9620254578891041</v>
+        <v>1.070706221276807</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1643,7 +1640,7 @@
         <v>43556</v>
       </c>
       <c r="C122">
-        <v>1.569447027907556</v>
+        <v>1.922184929421977</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1652,7 +1649,7 @@
         <v>43647</v>
       </c>
       <c r="C123">
-        <v>0.09931662435620492</v>
+        <v>0.2586146229793806</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1661,7 +1658,7 @@
         <v>43739</v>
       </c>
       <c r="C124">
-        <v>-1.617030697694322</v>
+        <v>-2.549644327318623</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1670,7 +1667,7 @@
         <v>43831</v>
       </c>
       <c r="C125">
-        <v>-2.662301580537807</v>
+        <v>-2.000795644534592</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1679,7 +1676,7 @@
         <v>43922</v>
       </c>
       <c r="C126">
-        <v>-11.36274697933926</v>
+        <v>-11.3587352931819</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1688,7 +1685,7 @@
         <v>44013</v>
       </c>
       <c r="C127">
-        <v>8.759135377281812</v>
+        <v>9.247559886172452</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1697,7 +1694,7 @@
         <v>44105</v>
       </c>
       <c r="C128">
-        <v>2.378632337651654</v>
+        <v>2.214658052824769</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1706,7 +1703,7 @@
         <v>44197</v>
       </c>
       <c r="C129">
-        <v>2.485675248803343</v>
+        <v>3.085200888758433</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1717,7 +1714,7 @@
         <v>42826</v>
       </c>
       <c r="C130">
-        <v>1.126342734700736</v>
+        <v>1.346934309078418</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1726,7 +1723,7 @@
         <v>42917</v>
       </c>
       <c r="C131">
-        <v>0.5416517108448593</v>
+        <v>0.6612127089323794</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1735,7 +1732,7 @@
         <v>43009</v>
       </c>
       <c r="C132">
-        <v>1.128436309020997</v>
+        <v>0.1142336612925288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1744,7 +1741,7 @@
         <v>43101</v>
       </c>
       <c r="C133">
-        <v>1.909092972615212</v>
+        <v>0.2831478858240866</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1753,7 +1750,7 @@
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>2.377502616768834</v>
+        <v>0.3042522514051127</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1762,7 +1759,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>1.213602753560306</v>
+        <v>0.5207105586516603</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1771,7 +1768,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>1.740801791357205</v>
+        <v>0.9023136093318174</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1780,7 +1777,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>2.208290372308142</v>
+        <v>0.9736057938772857</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1789,7 +1786,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>1.009346990262316</v>
+        <v>2.458426687384541</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1798,7 +1795,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>0.5122973233296246</v>
+        <v>0.01598879448161394</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1807,7 +1804,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>1.018775640959602</v>
+        <v>-0.1265371476035559</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1816,7 +1813,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>0.109968948503214</v>
+        <v>-3.639974232236032</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1825,7 +1822,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>2.533581645700433</v>
+        <v>-11.37886454838052</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1834,7 +1831,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>1.901280774663383</v>
+        <v>7.726837120596919</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1843,7 +1840,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>1.682536356701059</v>
+        <v>6.232588771120628</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1852,7 +1849,7 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>-8.004466321424564</v>
+        <v>1.566232628861863</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1863,7 +1860,7 @@
         <v>42826</v>
       </c>
       <c r="C146">
-        <v>1.004014434517475</v>
+        <v>0.8403727067746614</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1872,7 +1869,7 @@
         <v>42917</v>
       </c>
       <c r="C147">
-        <v>0.6615826658944446</v>
+        <v>1.303444799979503</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1881,7 +1878,7 @@
         <v>43009</v>
       </c>
       <c r="C148">
-        <v>0.1835709305569644</v>
+        <v>0.2971057554671974</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1890,7 +1887,7 @@
         <v>43101</v>
       </c>
       <c r="C149">
-        <v>0.4202207634504962</v>
+        <v>1.396493397166632</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1899,7 +1896,7 @@
         <v>43191</v>
       </c>
       <c r="C150">
-        <v>0.1315543358774374</v>
+        <v>2.980393688332517</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1908,7 +1905,7 @@
         <v>43282</v>
       </c>
       <c r="C151">
-        <v>0.7369333972911951</v>
+        <v>0.05907151859920745</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1917,7 +1914,7 @@
         <v>43374</v>
       </c>
       <c r="C152">
-        <v>1.11884430459086</v>
+        <v>0.6846458819258716</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1926,7 +1923,7 @@
         <v>43466</v>
       </c>
       <c r="C153">
-        <v>0.4757692116040158</v>
+        <v>0.3034341428034271</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1935,7 +1932,7 @@
         <v>43556</v>
       </c>
       <c r="C154">
-        <v>2.279264515493451</v>
+        <v>0.7134262195010344</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1944,7 +1941,7 @@
         <v>43647</v>
       </c>
       <c r="C155">
-        <v>0.03333545616026612</v>
+        <v>-0.263938746047121</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1953,7 +1950,7 @@
         <v>43739</v>
       </c>
       <c r="C156">
-        <v>-0.2832272679528236</v>
+        <v>0.8579694698089391</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1962,7 +1959,7 @@
         <v>43831</v>
       </c>
       <c r="C157">
-        <v>-3.596747663290778</v>
+        <v>-4.269255402541128</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1971,7 +1968,7 @@
         <v>43922</v>
       </c>
       <c r="C158">
-        <v>-11.17932437405458</v>
+        <v>-4.679245062284831</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1980,7 +1977,7 @@
         <v>44013</v>
       </c>
       <c r="C159">
-        <v>6.853320603068935</v>
+        <v>6.045746485750181</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1989,7 +1986,7 @@
         <v>44105</v>
       </c>
       <c r="C160">
-        <v>6.752999314512342</v>
+        <v>-1.849129652294768</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1998,7 +1995,7 @@
         <v>44197</v>
       </c>
       <c r="C161">
-        <v>-0.1356680911392405</v>
+        <v>-0.9175867600330956</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2009,7 +2006,7 @@
         <v>42826</v>
       </c>
       <c r="C162">
-        <v>0.2741618052038097</v>
+        <v>1.453455111780677</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2018,7 +2015,7 @@
         <v>42917</v>
       </c>
       <c r="C163">
-        <v>0.7893081650362399</v>
+        <v>-0.3860497218548531</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2027,7 +2024,7 @@
         <v>43009</v>
       </c>
       <c r="C164">
-        <v>1.007673166515666</v>
+        <v>0.9140413599429076</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2036,7 +2033,7 @@
         <v>43101</v>
       </c>
       <c r="C165">
-        <v>1.409034359137507</v>
+        <v>0.4121322444599507</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2045,7 +2042,7 @@
         <v>43191</v>
       </c>
       <c r="C166">
-        <v>2.904459036418672</v>
+        <v>1.515046109757323</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2054,7 +2051,7 @@
         <v>43282</v>
       </c>
       <c r="C167">
-        <v>0.3877205014860108</v>
+        <v>-1.070087257088914</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2063,7 +2060,7 @@
         <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.5766409624883062</v>
+        <v>0.2678070987651049</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2072,7 +2069,7 @@
         <v>43466</v>
       </c>
       <c r="C169">
-        <v>-0.7265634530469467</v>
+        <v>1.459346775651271</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2081,7 +2078,7 @@
         <v>43556</v>
       </c>
       <c r="C170">
-        <v>0.94294488033555</v>
+        <v>0.4320821322667534</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2090,7 +2087,7 @@
         <v>43647</v>
       </c>
       <c r="C171">
-        <v>0.3104167918452028</v>
+        <v>0.4238307883316361</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2099,7 +2096,7 @@
         <v>43739</v>
       </c>
       <c r="C172">
-        <v>0.3335229950678809</v>
+        <v>0.6822488022186324</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2108,7 +2105,7 @@
         <v>43831</v>
       </c>
       <c r="C173">
-        <v>-3.922702509254117</v>
+        <v>-2.594360912733962</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2117,7 +2114,7 @@
         <v>43922</v>
       </c>
       <c r="C174">
-        <v>-4.567056139818093</v>
+        <v>-5.247524717877273</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2126,7 +2123,7 @@
         <v>44013</v>
       </c>
       <c r="C175">
-        <v>6.314969849860974</v>
+        <v>5.982794305766492</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2135,7 +2132,7 @@
         <v>44105</v>
       </c>
       <c r="C176">
-        <v>-1.913995137966895</v>
+        <v>0.1026048530194945</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2144,7 +2141,7 @@
         <v>44197</v>
       </c>
       <c r="C177">
-        <v>-3.412746954252877</v>
+        <v>-1.260114516482214</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2155,7 +2152,7 @@
         <v>42826</v>
       </c>
       <c r="C178">
-        <v>1.33808335663308</v>
+        <v>2.121910999884657</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2164,7 +2161,7 @@
         <v>42917</v>
       </c>
       <c r="C179">
-        <v>0.5679933638768953</v>
+        <v>-2.208013974690104</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2173,7 +2170,7 @@
         <v>43009</v>
       </c>
       <c r="C180">
-        <v>0.4696473496051956</v>
+        <v>3.528273280854499</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2182,7 +2179,7 @@
         <v>43101</v>
       </c>
       <c r="C181">
-        <v>0.2202686786943797</v>
+        <v>0.2731959562360942</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2191,7 +2188,7 @@
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>0.636550130718172</v>
+        <v>2.006991887366483</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2200,7 +2197,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>-0.1421902500547412</v>
+        <v>1.489188512945661</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2209,7 +2206,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>0.3980098023699918</v>
+        <v>-0.04380372792659459</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2218,7 +2215,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>0.7437427141531616</v>
+        <v>1.467548266110219</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2227,7 +2224,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>0.8158959121179254</v>
+        <v>0.8392959973428704</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2236,7 +2233,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>0.4043712709419944</v>
+        <v>0.4001046695210286</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2245,7 +2242,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>0.2248907893605656</v>
+        <v>1.296255499338583</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2254,7 +2251,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-1.674245796222951</v>
+        <v>-2.278128661344447</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2263,7 +2260,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>-6.229311569470464</v>
+        <v>-3.225733918515339</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2272,7 +2269,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>5.70589994186641</v>
+        <v>3.896669180890089</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2281,7 +2278,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>1.323182107009946</v>
+        <v>2.884643490219596</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2290,7 +2287,7 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>-3.230741989821917</v>
+        <v>-0.7393163954812709</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2301,7 +2298,7 @@
         <v>42826</v>
       </c>
       <c r="C194">
-        <v>1.592491601526835</v>
+        <v>1.70336916038456</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2310,7 +2307,7 @@
         <v>42917</v>
       </c>
       <c r="C195">
-        <v>1.929121544888779</v>
+        <v>-0.5607949535929468</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2319,7 +2316,7 @@
         <v>43009</v>
       </c>
       <c r="C196">
-        <v>0.5476902659516281</v>
+        <v>0.663556099933027</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2328,7 +2325,7 @@
         <v>43101</v>
       </c>
       <c r="C197">
-        <v>1.28493802061207</v>
+        <v>0.7136740193157687</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2337,7 +2334,7 @@
         <v>43191</v>
       </c>
       <c r="C198">
-        <v>3.058349923456971</v>
+        <v>0.345027425258837</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2346,7 +2343,7 @@
         <v>43282</v>
       </c>
       <c r="C199">
-        <v>-1.080717206194104</v>
+        <v>0.6812992747605273</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2355,7 +2352,7 @@
         <v>43374</v>
       </c>
       <c r="C200">
-        <v>1.940469214206719</v>
+        <v>-0.1257139687075193</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2364,7 +2361,7 @@
         <v>43466</v>
       </c>
       <c r="C201">
-        <v>0.9271964520768838</v>
+        <v>0.5526899287842335</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2373,7 +2370,7 @@
         <v>43556</v>
       </c>
       <c r="C202">
-        <v>0.4333320362610582</v>
+        <v>0.1445872786762781</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2382,7 +2379,7 @@
         <v>43647</v>
       </c>
       <c r="C203">
-        <v>0.8195157176450252</v>
+        <v>0.962395612253375</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2391,7 +2388,7 @@
         <v>43739</v>
       </c>
       <c r="C204">
-        <v>1.049032997699229</v>
+        <v>-1.192427049596545</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2400,7 +2397,7 @@
         <v>43831</v>
       </c>
       <c r="C205">
-        <v>-2.404265459223442</v>
+        <v>-1.181092524270222</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2409,7 +2406,7 @@
         <v>43922</v>
       </c>
       <c r="C206">
-        <v>-2.309488566565987</v>
+        <v>-4.111437863962419</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2418,7 +2415,7 @@
         <v>44013</v>
       </c>
       <c r="C207">
-        <v>4.594944581658877</v>
+        <v>3.760343523138743</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2427,7 +2424,7 @@
         <v>44105</v>
       </c>
       <c r="C208">
-        <v>2.265022822173002</v>
+        <v>0.4392579328328816</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2436,7 +2433,7 @@
         <v>44197</v>
       </c>
       <c r="C209">
-        <v>0.1205457889736694</v>
+        <v>-1.066544398058356</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2447,7 +2444,7 @@
         <v>42826</v>
       </c>
       <c r="C210">
-        <v>2.155835584464283</v>
+        <v>-0.3782034717364491</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2456,7 +2453,7 @@
         <v>42917</v>
       </c>
       <c r="C211">
-        <v>-0.06294851579663474</v>
+        <v>0.7425522798255368</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2465,7 +2462,7 @@
         <v>43009</v>
       </c>
       <c r="C212">
-        <v>0.1967877221777936</v>
+        <v>0.7718622388109386</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2474,7 +2471,7 @@
         <v>43101</v>
       </c>
       <c r="C213">
-        <v>0.6213360569097937</v>
+        <v>0.6959866902957357</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2483,7 +2480,7 @@
         <v>43191</v>
       </c>
       <c r="C214">
-        <v>0.3704773919305682</v>
+        <v>0.7604066624109063</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2492,7 +2489,7 @@
         <v>43282</v>
       </c>
       <c r="C215">
-        <v>0.08340840973153352</v>
+        <v>0.2613594613894543</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2501,7 +2498,7 @@
         <v>43374</v>
       </c>
       <c r="C216">
-        <v>1.445133241778951</v>
+        <v>0.451217215734423</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2510,7 +2507,7 @@
         <v>43466</v>
       </c>
       <c r="C217">
-        <v>0.1899939234805581</v>
+        <v>0.0986807668143852</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2519,7 +2516,7 @@
         <v>43556</v>
       </c>
       <c r="C218">
-        <v>-0.08887238134187569</v>
+        <v>-0.06057864447572836</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2528,7 +2525,7 @@
         <v>43647</v>
       </c>
       <c r="C219">
-        <v>1.059137996877646</v>
+        <v>0.3173900037121147</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2537,7 +2534,7 @@
         <v>43739</v>
       </c>
       <c r="C220">
-        <v>-1.429540201545976</v>
+        <v>0.6270967321310161</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2546,7 +2543,7 @@
         <v>43831</v>
       </c>
       <c r="C221">
-        <v>-1.09655202758121</v>
+        <v>-6.352433140047542</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2555,7 +2552,7 @@
         <v>43922</v>
       </c>
       <c r="C222">
-        <v>-3.677795991468769</v>
+        <v>-11.42859202780913</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2564,7 +2561,7 @@
         <v>44013</v>
       </c>
       <c r="C223">
-        <v>3.777057540768514</v>
+        <v>16.69885855311164</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2573,7 +2570,7 @@
         <v>44105</v>
       </c>
       <c r="C224">
-        <v>0.3725379936313056</v>
+        <v>-4.112615690494614</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2582,7 +2579,7 @@
         <v>44197</v>
       </c>
       <c r="C225">
-        <v>-1.762947192690123</v>
+        <v>-3.408808619936243</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2593,7 +2590,7 @@
         <v>42826</v>
       </c>
       <c r="C226">
-        <v>-0.114240634614049</v>
+        <v>0.700014725756315</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2602,7 +2599,7 @@
         <v>42917</v>
       </c>
       <c r="C227">
-        <v>0.7561941855462884</v>
+        <v>0.06760533478129549</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2611,7 +2608,7 @@
         <v>43009</v>
       </c>
       <c r="C228">
-        <v>0.6189000655214549</v>
+        <v>0.573155223057209</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2620,7 +2617,7 @@
         <v>43101</v>
       </c>
       <c r="C229">
-        <v>0.4645999038784598</v>
+        <v>0.6334256467967592</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2629,7 +2626,7 @@
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>0.7361687682585272</v>
+        <v>0.7544955355064609</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2638,7 +2635,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.5182081498128044</v>
+        <v>0.9216021546809561</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2647,7 +2644,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.4397213196025929</v>
+        <v>0.225146502646667</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2656,7 +2653,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>0.05810947346067685</v>
+        <v>0.2521043727370831</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2665,7 +2662,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>-0.08009178224556157</v>
+        <v>0.2312363807518425</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2674,7 +2671,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>0.2438905499908106</v>
+        <v>-0.6104587619333635</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2683,7 +2680,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>0.627782554548606</v>
+        <v>-0.3166417460831017</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2692,7 +2689,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-6.577046011856424</v>
+        <v>-3.196044176987489</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2701,7 +2698,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-11.11166956736663</v>
+        <v>-8.190291976889629</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2710,7 +2707,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>16.04305570925959</v>
+        <v>7.587577730102835</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2719,7 +2716,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-5.034402919900449</v>
+        <v>-1.585352974015919</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2728,7 +2725,7 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>-4.656936706927961</v>
+        <v>-3.187804913139314</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2739,7 +2736,7 @@
         <v>42826</v>
       </c>
       <c r="C242">
-        <v>0.502925827527001</v>
+        <v>0.3531832508933075</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2748,7 +2745,7 @@
         <v>42917</v>
       </c>
       <c r="C243">
-        <v>-0.02892838585076829</v>
+        <v>-0.06169532787092535</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2757,7 +2754,7 @@
         <v>43009</v>
       </c>
       <c r="C244">
-        <v>0.7003335919509635</v>
+        <v>1.012456859983502</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2766,7 +2763,7 @@
         <v>43101</v>
       </c>
       <c r="C245">
-        <v>0.5598222008314391</v>
+        <v>-0.3580611302176684</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2775,7 +2772,7 @@
         <v>43191</v>
       </c>
       <c r="C246">
-        <v>0.9750322850972992</v>
+        <v>2.670084113542193</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2784,7 +2781,7 @@
         <v>43282</v>
       </c>
       <c r="C247">
-        <v>0.7390258055850474</v>
+        <v>-0.2383707107615818</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2793,7 +2790,7 @@
         <v>43374</v>
       </c>
       <c r="C248">
-        <v>0.2995409369946023</v>
+        <v>-0.349819450814548</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2802,7 +2799,7 @@
         <v>43466</v>
       </c>
       <c r="C249">
-        <v>-0.002011676130930784</v>
+        <v>0.6565702929757666</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2811,7 +2808,7 @@
         <v>43556</v>
       </c>
       <c r="C250">
-        <v>0.236090532851696</v>
+        <v>-0.8274429913659676</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2820,7 +2817,7 @@
         <v>43647</v>
       </c>
       <c r="C251">
-        <v>-0.4345825176936602</v>
+        <v>1.008909200923513</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2829,7 +2826,7 @@
         <v>43739</v>
       </c>
       <c r="C252">
-        <v>-0.2902215810576814</v>
+        <v>-0.6882481205127688</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2838,7 +2835,7 @@
         <v>43831</v>
       </c>
       <c r="C253">
-        <v>-3.271450053538472</v>
+        <v>-3.236750964780244</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2847,7 +2844,7 @@
         <v>43922</v>
       </c>
       <c r="C254">
-        <v>-8.259903938219548</v>
+        <v>-9.782167191464875</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2856,7 +2853,7 @@
         <v>44013</v>
       </c>
       <c r="C255">
-        <v>7.815939960276186</v>
+        <v>6.159703075816747</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2865,7 +2862,7 @@
         <v>44105</v>
       </c>
       <c r="C256">
-        <v>-2.00710757086956</v>
+        <v>1.782836503344276</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2874,7 +2871,7 @@
         <v>44197</v>
       </c>
       <c r="C257">
-        <v>-4.134032369352614</v>
+        <v>4.352095965548264</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2885,7 +2882,7 @@
         <v>42826</v>
       </c>
       <c r="C258">
-        <v>0.6560356134751588</v>
+        <v>0.9127722113164927</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2894,7 +2891,7 @@
         <v>42917</v>
       </c>
       <c r="C259">
-        <v>1.02800119064228</v>
+        <v>1.974783897221655</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2903,7 +2900,7 @@
         <v>43009</v>
       </c>
       <c r="C260">
-        <v>-0.348459360400577</v>
+        <v>-0.3624519417265271</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2912,7 +2909,7 @@
         <v>43101</v>
       </c>
       <c r="C261">
-        <v>0.553941667422797</v>
+        <v>0.7452632231729428</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2921,7 +2918,7 @@
         <v>43191</v>
       </c>
       <c r="C262">
-        <v>2.338273011902103</v>
+        <v>2.508662693881636</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2930,7 +2927,7 @@
         <v>43282</v>
       </c>
       <c r="C263">
-        <v>-0.1707418171435493</v>
+        <v>0.3983364033191217</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2939,7 +2936,7 @@
         <v>43374</v>
       </c>
       <c r="C264">
-        <v>-0.04876933998096966</v>
+        <v>0.8888847532446897</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2948,7 +2945,7 @@
         <v>43466</v>
       </c>
       <c r="C265">
-        <v>0.1928932271056061</v>
+        <v>2.298177156053272</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2957,7 +2954,7 @@
         <v>43556</v>
       </c>
       <c r="C266">
-        <v>-0.6781597107003212</v>
+        <v>1.352384183194277</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2966,7 +2963,7 @@
         <v>43647</v>
       </c>
       <c r="C267">
-        <v>-0.01114025780187822</v>
+        <v>0.004160896711602469</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2975,7 +2972,7 @@
         <v>43739</v>
       </c>
       <c r="C268">
-        <v>0.5322541016309357</v>
+        <v>1.500503714251722</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2984,7 +2981,7 @@
         <v>43831</v>
       </c>
       <c r="C269">
-        <v>-3.657881610113556</v>
+        <v>-3.464540519995751</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2993,7 +2990,7 @@
         <v>43922</v>
       </c>
       <c r="C270">
-        <v>-9.117724447392582</v>
+        <v>-7.266019474198126</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3002,7 +2999,7 @@
         <v>44013</v>
       </c>
       <c r="C271">
-        <v>4.493720983050276</v>
+        <v>7.465879004539611</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3011,7 +3008,7 @@
         <v>44105</v>
       </c>
       <c r="C272">
-        <v>2.15983604534753</v>
+        <v>-1.608814439290751</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3020,7 +3017,7 @@
         <v>44197</v>
       </c>
       <c r="C273">
-        <v>2.006169696504312</v>
+        <v>2.188604083549128</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3031,7 +3028,7 @@
         <v>42826</v>
       </c>
       <c r="C274">
-        <v>1.821541930813919</v>
+        <v>5.169964069566357</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3040,7 +3037,7 @@
         <v>42917</v>
       </c>
       <c r="C275">
-        <v>0.5047777854910951</v>
+        <v>1.775303335208145</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3049,7 +3046,7 @@
         <v>43009</v>
       </c>
       <c r="C276">
-        <v>1.224711852891547</v>
+        <v>7.327471847932165</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3058,7 +3055,7 @@
         <v>43101</v>
       </c>
       <c r="C277">
-        <v>0.8653513377516742</v>
+        <v>-5.740371448889448</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3067,7 +3064,7 @@
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>2.134760910532885</v>
+        <v>0.6569993647105532</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3076,7 +3073,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>0.5724382294577168</v>
+        <v>2.721450889986166</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3085,7 +3082,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>1.073045046925647</v>
+        <v>2.758074295963597</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3094,7 +3091,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>1.533195221356976</v>
+        <v>-1.873540637161741</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3103,7 +3100,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>1.137801877523681</v>
+        <v>0.5176034997961487</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3112,7 +3109,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>0.5818964351161693</v>
+        <v>-2.203494637085468</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3121,7 +3118,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>1.517587250555263</v>
+        <v>5.033603038207835</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3130,7 +3127,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-3.730483328767975</v>
+        <v>-7.272275956292362</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3139,7 +3136,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-8.302490641556604</v>
+        <v>-7.961718297963161</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3148,7 +3145,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>8.148508277976617</v>
+        <v>5.912703561997912</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3157,7 +3154,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>-2.005257380125791</v>
+        <v>3.759158904643845</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3166,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>2.543171442252068</v>
+        <v>-3.566642311882473</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3177,7 +3174,7 @@
         <v>42826</v>
       </c>
       <c r="C290">
-        <v>8.660520506580971</v>
+        <v>2.33034124195961</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3186,7 +3183,7 @@
         <v>42917</v>
       </c>
       <c r="C291">
-        <v>-0.4643346403571447</v>
+        <v>1.291205667784645</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3195,7 +3192,7 @@
         <v>43009</v>
       </c>
       <c r="C292">
-        <v>6.376369870392273</v>
+        <v>2.153156426730507</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3204,7 +3201,7 @@
         <v>43101</v>
       </c>
       <c r="C293">
-        <v>-7.554249891642984</v>
+        <v>1.110037085630355</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3213,7 +3210,7 @@
         <v>43191</v>
       </c>
       <c r="C294">
-        <v>7.203707705112294</v>
+        <v>1.732270769284594</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3222,7 +3219,7 @@
         <v>43282</v>
       </c>
       <c r="C295">
-        <v>-0.8344316689718467</v>
+        <v>0.9346060156337543</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3231,7 +3228,7 @@
         <v>43374</v>
       </c>
       <c r="C296">
-        <v>0.6228363628327349</v>
+        <v>2.334165844243175</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3240,7 +3237,7 @@
         <v>43466</v>
       </c>
       <c r="C297">
-        <v>2.971834845923738</v>
+        <v>0.8491317451632119</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3249,7 +3246,7 @@
         <v>43556</v>
       </c>
       <c r="C298">
-        <v>-2.207936206123018</v>
+        <v>1.203089452138073</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3258,7 +3255,7 @@
         <v>43647</v>
       </c>
       <c r="C299">
-        <v>-1.059320054103918</v>
+        <v>0.7883987670143533</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3267,7 +3264,7 @@
         <v>43739</v>
       </c>
       <c r="C300">
-        <v>5.794048959761633</v>
+        <v>-0.09353774399002424</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3276,7 +3273,7 @@
         <v>43831</v>
       </c>
       <c r="C301">
-        <v>-10.01273855333109</v>
+        <v>-2.019893866812505</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3285,7 +3282,7 @@
         <v>43922</v>
       </c>
       <c r="C302">
-        <v>-6.120658179729621</v>
+        <v>-16.79594815235227</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3294,7 +3291,7 @@
         <v>44013</v>
       </c>
       <c r="C303">
-        <v>2.800981537800551</v>
+        <v>16.26766457365183</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3303,7 +3300,7 @@
         <v>44105</v>
       </c>
       <c r="C304">
-        <v>5.064069084067691</v>
+        <v>7.739947778893153</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3312,7 +3309,7 @@
         <v>44197</v>
       </c>
       <c r="C305">
-        <v>-7.469543385821664</v>
+        <v>1.421010078576534</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3323,7 +3320,7 @@
         <v>42826</v>
       </c>
       <c r="C306">
-        <v>2.637003193696219</v>
+        <v>2.26266436483491</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3332,7 +3329,7 @@
         <v>42917</v>
       </c>
       <c r="C307">
-        <v>1.196106398260977</v>
+        <v>-0.4589983053177815</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3341,7 +3338,7 @@
         <v>43009</v>
       </c>
       <c r="C308">
-        <v>2.385482594277577</v>
+        <v>1.515079209048831</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3350,7 +3347,7 @@
         <v>43101</v>
       </c>
       <c r="C309">
-        <v>1.095559984403249</v>
+        <v>2.110500229974566</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3359,7 +3356,7 @@
         <v>43191</v>
       </c>
       <c r="C310">
-        <v>1.606763645401021</v>
+        <v>2.292706955264889</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3368,7 +3365,7 @@
         <v>43282</v>
       </c>
       <c r="C311">
-        <v>0.773860557337902</v>
+        <v>0.3390657916449102</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3377,7 +3374,7 @@
         <v>43374</v>
       </c>
       <c r="C312">
-        <v>2.426854547166357</v>
+        <v>1.809260783839517</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3386,7 +3383,7 @@
         <v>43466</v>
       </c>
       <c r="C313">
-        <v>0.8086949507452701</v>
+        <v>0.7441404545958319</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3395,7 +3392,7 @@
         <v>43556</v>
       </c>
       <c r="C314">
-        <v>1.298019513122384</v>
+        <v>1.808141925664608</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3404,7 +3401,7 @@
         <v>43647</v>
       </c>
       <c r="C315">
-        <v>0.5559995738134038</v>
+        <v>-0.04277033642634542</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3413,7 +3410,7 @@
         <v>43739</v>
       </c>
       <c r="C316">
-        <v>-0.2703944924068558</v>
+        <v>0.248320348086728</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3422,7 +3419,7 @@
         <v>43831</v>
       </c>
       <c r="C317">
-        <v>-1.470489164666788</v>
+        <v>-0.8497931429310546</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3431,7 +3428,7 @@
         <v>43922</v>
       </c>
       <c r="C318">
-        <v>-16.7800238732549</v>
+        <v>-8.496515835950191</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3440,7 +3437,7 @@
         <v>44013</v>
       </c>
       <c r="C319">
-        <v>15.97405293330461</v>
+        <v>5.74449675677009</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3449,7 +3446,7 @@
         <v>44105</v>
       </c>
       <c r="C320">
-        <v>8.16672318462841</v>
+        <v>1.629199050710839</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3458,7 +3455,7 @@
         <v>44197</v>
       </c>
       <c r="C321">
-        <v>0.7110903612151054</v>
+        <v>0.7670253240313674</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3469,7 +3466,7 @@
         <v>42826</v>
       </c>
       <c r="C322">
-        <v>2.398790825976471</v>
+        <v>1.961070555619804</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3478,7 +3475,7 @@
         <v>42917</v>
       </c>
       <c r="C323">
-        <v>0.03283745001712024</v>
+        <v>-0.07626819842910804</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3487,7 +3484,7 @@
         <v>43009</v>
       </c>
       <c r="C324">
-        <v>1.493083432628128</v>
+        <v>11.36047792224844</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3496,7 +3493,7 @@
         <v>43101</v>
       </c>
       <c r="C325">
-        <v>1.75326917017522</v>
+        <v>-2.904656110676096</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3505,7 +3502,7 @@
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>2.71829438433977</v>
+        <v>1.047164643591469</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3514,7 +3511,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>0.1708905081970746</v>
+        <v>4.168662222313912</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3523,7 +3520,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>1.807061969323365</v>
+        <v>3.515585578696667</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3532,7 +3529,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>0.7476459758772203</v>
+        <v>0.6201755093348194</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3541,7 +3538,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>1.667154183555364</v>
+        <v>2.646148760854361</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3550,7 +3547,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>-0.03928994372872641</v>
+        <v>-0.5167047698406257</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3559,7 +3556,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>0.2982504266457742</v>
+        <v>2.015969494867553</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3568,7 +3565,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-0.9749328645288324</v>
+        <v>-4.620373513597786</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3577,7 +3574,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-8.821680200484794</v>
+        <v>-5.141117670029438</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3586,7 +3583,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>5.429638090154243</v>
+        <v>9.027959880419889</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3595,7 +3592,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>1.354651186648126</v>
+        <v>3.173174454956595</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3604,7 +3601,7 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>1.928455969348608</v>
+        <v>-3.397393434748519</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3615,7 +3612,7 @@
         <v>42826</v>
       </c>
       <c r="C338">
-        <v>2.240018117468168</v>
+        <v>2.104369157292152</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -3624,7 +3621,7 @@
         <v>42917</v>
       </c>
       <c r="C339">
-        <v>0.2881661870248076</v>
+        <v>1.032406632778238</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -3633,7 +3630,7 @@
         <v>43009</v>
       </c>
       <c r="C340">
-        <v>11.57697555494415</v>
+        <v>1.169397978518227</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3642,7 +3639,7 @@
         <v>43101</v>
       </c>
       <c r="C341">
-        <v>-3.462653957167661</v>
+        <v>-0.03217915828008788</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3651,7 +3648,7 @@
         <v>43191</v>
       </c>
       <c r="C342">
-        <v>0.9881807459477754</v>
+        <v>0.7416029471678298</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3660,7 +3657,7 @@
         <v>43282</v>
       </c>
       <c r="C343">
-        <v>3.908330265448279</v>
+        <v>1.398435081781191</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3669,7 +3666,7 @@
         <v>43374</v>
       </c>
       <c r="C344">
-        <v>4.514773151369567</v>
+        <v>0.9980261531159496</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3678,7 +3675,7 @@
         <v>43466</v>
       </c>
       <c r="C345">
-        <v>0.4900596584520356</v>
+        <v>1.398211197464927</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3687,7 +3684,7 @@
         <v>43556</v>
       </c>
       <c r="C346">
-        <v>1.919956311002058</v>
+        <v>-0.2169722602433088</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3696,7 +3693,7 @@
         <v>43647</v>
       </c>
       <c r="C347">
-        <v>-0.2683518886854697</v>
+        <v>1.219975537281104</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3705,7 +3702,7 @@
         <v>43739</v>
       </c>
       <c r="C348">
-        <v>1.912816273433737</v>
+        <v>0.5242048063039961</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3714,7 +3711,7 @@
         <v>43831</v>
       </c>
       <c r="C349">
-        <v>-4.439423658970021</v>
+        <v>-4.01002613605026</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3723,7 +3720,7 @@
         <v>43922</v>
       </c>
       <c r="C350">
-        <v>-4.919819593571029</v>
+        <v>-4.402822901477855</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3732,7 +3729,7 @@
         <v>44013</v>
       </c>
       <c r="C351">
-        <v>8.344469128937494</v>
+        <v>3.415603982188142</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3741,7 +3738,7 @@
         <v>44105</v>
       </c>
       <c r="C352">
-        <v>3.726960043080818</v>
+        <v>3.751209483685058</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3750,7 +3747,7 @@
         <v>44197</v>
       </c>
       <c r="C353">
-        <v>-4.365986446040926</v>
+        <v>-2.42805259034129</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3761,7 +3758,7 @@
         <v>42826</v>
       </c>
       <c r="C354">
-        <v>1.878251425500532</v>
+        <v>-0.1139238175880908</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -3770,7 +3767,7 @@
         <v>42917</v>
       </c>
       <c r="C355">
-        <v>0.279781110486188</v>
+        <v>0.6667295596843426</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -3779,7 +3776,7 @@
         <v>43009</v>
       </c>
       <c r="C356">
-        <v>2.677343717052261</v>
+        <v>0.5122960128606469</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3788,7 +3785,7 @@
         <v>43101</v>
       </c>
       <c r="C357">
-        <v>-1.115855132415366</v>
+        <v>-0.1957916574585328</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3797,7 +3794,7 @@
         <v>43191</v>
       </c>
       <c r="C358">
-        <v>0.8649094873726781</v>
+        <v>0.8275219298381931</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3806,7 +3803,7 @@
         <v>43282</v>
       </c>
       <c r="C359">
-        <v>1.81639996144507</v>
+        <v>0.6999826640079254</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3815,7 +3812,7 @@
         <v>43374</v>
       </c>
       <c r="C360">
-        <v>0.8612088880221913</v>
+        <v>0.3561202365962801</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3824,7 +3821,7 @@
         <v>43466</v>
       </c>
       <c r="C361">
-        <v>1.43068362877099</v>
+        <v>-0.3364438306785122</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3833,7 +3830,7 @@
         <v>43556</v>
       </c>
       <c r="C362">
-        <v>-0.2602112211211649</v>
+        <v>-0.4522208524593396</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3842,7 +3839,7 @@
         <v>43647</v>
       </c>
       <c r="C363">
-        <v>1.193222779119929</v>
+        <v>0.09852324758863329</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3851,7 +3848,7 @@
         <v>43739</v>
       </c>
       <c r="C364">
-        <v>0.5715089784869454</v>
+        <v>-0.1673798826755557</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3860,7 +3857,7 @@
         <v>43831</v>
       </c>
       <c r="C365">
-        <v>-4.096736640202437</v>
+        <v>-9.38929534818036</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3869,7 +3866,7 @@
         <v>43922</v>
       </c>
       <c r="C366">
-        <v>-5.089630629713349</v>
+        <v>-9.361904639804841</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3878,7 +3875,7 @@
         <v>44013</v>
       </c>
       <c r="C367">
-        <v>4.04618340332783</v>
+        <v>16.39055085703232</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3887,7 +3884,7 @@
         <v>44105</v>
       </c>
       <c r="C368">
-        <v>3.853870413064731</v>
+        <v>-4.682448049977883</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3896,7 +3893,7 @@
         <v>44197</v>
       </c>
       <c r="C369">
-        <v>-5.149427309606258</v>
+        <v>-1.869890813369957</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3907,7 +3904,7 @@
         <v>42826</v>
       </c>
       <c r="C370">
-        <v>0.2839833812439352</v>
+        <v>-0.3876306016893594</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -3916,7 +3913,7 @@
         <v>42917</v>
       </c>
       <c r="C371">
-        <v>0.5496653272617946</v>
+        <v>0.2832442797979118</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -3925,7 +3922,7 @@
         <v>43009</v>
       </c>
       <c r="C372">
-        <v>0.3316455852092837</v>
+        <v>0.4492258884603029</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3934,7 +3931,7 @@
         <v>43101</v>
       </c>
       <c r="C373">
-        <v>0.1047474175317475</v>
+        <v>0.4403268040952035</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3943,7 +3940,7 @@
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>0.7319763954899194</v>
+        <v>0.3504383481529816</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3952,7 +3949,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.5226434197408203</v>
+        <v>0.3255993926452261</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3961,7 +3958,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>0.2043193013736122</v>
+        <v>-0.07707398615985905</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3970,7 +3967,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>-0.4478744704645488</v>
+        <v>0.01162696825980358</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3979,7 +3976,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>-0.2334333668428057</v>
+        <v>0.4032759973495281</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3988,7 +3985,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>0.1088450557255261</v>
+        <v>-0.7833721860927012</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3997,7 +3994,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.1754483390219219</v>
+        <v>0.3231756879289449</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4006,7 +4003,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-9.857946787500381</v>
+        <v>-2.001609889075384</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4015,7 +4012,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-9.264020574220211</v>
+        <v>-8.345570681011905</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4024,7 +4021,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>16.76138565700074</v>
+        <v>6.229982794234901</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4033,7 +4030,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>-6.136542251464139</v>
+        <v>0.799097738537724</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4042,7 +4039,7 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>-4.394995233974641</v>
+        <v>-1.453627287221282</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4053,7 +4050,7 @@
         <v>42826</v>
       </c>
       <c r="C386">
-        <v>-0.5951061433682292</v>
+        <v>1.912310223742097</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4062,7 +4059,7 @@
         <v>42917</v>
       </c>
       <c r="C387">
-        <v>0.4475506596721024</v>
+        <v>1.214621763791501</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4071,7 +4068,7 @@
         <v>43009</v>
       </c>
       <c r="C388">
-        <v>0.348350617757176</v>
+        <v>0.1550562481527518</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4080,7 +4077,7 @@
         <v>43101</v>
       </c>
       <c r="C389">
-        <v>0.9354843414950409</v>
+        <v>1.201865606233787</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4089,7 +4086,7 @@
         <v>43191</v>
       </c>
       <c r="C390">
-        <v>0.08656873239090146</v>
+        <v>-0.1279003196901995</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4098,7 +4095,7 @@
         <v>43282</v>
       </c>
       <c r="C391">
-        <v>0.3725063204426782</v>
+        <v>1.717992072276875</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4107,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C392">
-        <v>-0.05731977262900534</v>
+        <v>-0.4922460415040075</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4116,7 +4113,7 @@
         <v>43466</v>
       </c>
       <c r="C393">
-        <v>-0.2589567457834896</v>
+        <v>0.2923586160629377</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4125,7 +4122,7 @@
         <v>43556</v>
       </c>
       <c r="C394">
-        <v>0.4314472853140794</v>
+        <v>1.186017250825433</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4134,7 +4131,7 @@
         <v>43647</v>
       </c>
       <c r="C395">
-        <v>-0.8003022190281039</v>
+        <v>-0.208686367155142</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4143,7 +4140,7 @@
         <v>43739</v>
       </c>
       <c r="C396">
-        <v>0.2829502875154821</v>
+        <v>1.805528453554883</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4152,7 +4149,7 @@
         <v>43831</v>
       </c>
       <c r="C397">
-        <v>-2.002921936117075</v>
+        <v>-0.7183068155590999</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4161,7 +4158,7 @@
         <v>43922</v>
       </c>
       <c r="C398">
-        <v>-8.303104331929523</v>
+        <v>-3.175013531922022</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4170,7 +4167,7 @@
         <v>44013</v>
       </c>
       <c r="C399">
-        <v>5.982444352304506</v>
+        <v>2.492058879359083</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4179,7 +4176,7 @@
         <v>44105</v>
       </c>
       <c r="C400">
-        <v>0.8565960341307965</v>
+        <v>0.489782472993161</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4188,7 +4185,7 @@
         <v>44197</v>
       </c>
       <c r="C401">
-        <v>-2.491819981776688</v>
+        <v>1.073213223756042</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4199,7 +4196,7 @@
         <v>42826</v>
       </c>
       <c r="C402">
-        <v>2.610894851928669</v>
+        <v>-0.5700046625283117</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4208,7 +4205,7 @@
         <v>42917</v>
       </c>
       <c r="C403">
-        <v>0.4110283944838811</v>
+        <v>-0.6251002433745989</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4217,7 +4214,7 @@
         <v>43009</v>
       </c>
       <c r="C404">
-        <v>0.1428642701811311</v>
+        <v>1.725786253295292</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4226,7 +4223,7 @@
         <v>43101</v>
       </c>
       <c r="C405">
-        <v>1.813988329006277</v>
+        <v>2.207260730895722</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4235,7 +4232,7 @@
         <v>43191</v>
       </c>
       <c r="C406">
-        <v>-1.240989165580886</v>
+        <v>0.2709711137010462</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4244,7 +4241,7 @@
         <v>43282</v>
       </c>
       <c r="C407">
-        <v>2.696736136239797</v>
+        <v>1.791363712546823</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4253,7 +4250,7 @@
         <v>43374</v>
       </c>
       <c r="C408">
-        <v>-0.8159706634574992</v>
+        <v>-0.2511432558221061</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4262,7 +4259,7 @@
         <v>43466</v>
       </c>
       <c r="C409">
-        <v>0.3822831659800574</v>
+        <v>-1.205902215786248</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4271,7 +4268,7 @@
         <v>43556</v>
       </c>
       <c r="C410">
-        <v>1.084737401292579</v>
+        <v>3.806548101660856</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4280,7 +4277,7 @@
         <v>43647</v>
       </c>
       <c r="C411">
-        <v>-0.4163127321338833</v>
+        <v>1.305922159544726</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4289,7 +4286,7 @@
         <v>43739</v>
       </c>
       <c r="C412">
-        <v>2.136310769358563</v>
+        <v>0.07165850196986234</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4298,7 +4295,7 @@
         <v>43831</v>
       </c>
       <c r="C413">
-        <v>-1.068710680439267</v>
+        <v>-2.813418776367316</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4307,7 +4304,7 @@
         <v>43922</v>
       </c>
       <c r="C414">
-        <v>-2.829524140537887</v>
+        <v>-7.633168279410851</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4316,7 +4313,7 @@
         <v>44013</v>
       </c>
       <c r="C415">
-        <v>2.539511607094425</v>
+        <v>3.419223992726317</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4325,7 +4322,7 @@
         <v>44105</v>
       </c>
       <c r="C416">
-        <v>-0.04097275156873526</v>
+        <v>-0.4781255481392521</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4334,7 +4331,7 @@
         <v>44197</v>
       </c>
       <c r="C417">
-        <v>-0.2722028781514507</v>
+        <v>-2.195437568921765</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4345,7 +4342,7 @@
         <v>42826</v>
       </c>
       <c r="C418">
-        <v>-1.034844484483255</v>
+        <v>-0.2262888798758467</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4354,7 +4351,7 @@
         <v>42917</v>
       </c>
       <c r="C419">
-        <v>0.03296603730686964</v>
+        <v>1.886076695444738</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4363,7 +4360,7 @@
         <v>43009</v>
       </c>
       <c r="C420">
-        <v>1.682951458422366</v>
+        <v>2.786300759363636</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4372,7 +4369,7 @@
         <v>43101</v>
       </c>
       <c r="C421">
-        <v>1.310289891808192</v>
+        <v>0.4455730338618125</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4381,7 +4378,7 @@
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>0.5166616745905905</v>
+        <v>1.540496460802965</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4390,7 +4387,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>1.974595534453139</v>
+        <v>1.344096165628028</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4399,7 +4396,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>-0.9115751549358619</v>
+        <v>-0.701193506105724</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4408,7 +4405,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>-0.2734029568359553</v>
+        <v>1.541729374670764</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4417,7 +4414,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>3.2836118244288</v>
+        <v>0.7436534089888758</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4426,7 +4423,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>1.104951195544435</v>
+        <v>0.1550332755150263</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4435,7 +4432,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>-0.4846235522903086</v>
+        <v>0.8488963834148988</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4444,7 +4441,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-3.780599195735235</v>
+        <v>-2.803663331871886</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4453,7 +4450,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-6.622752885010774</v>
+        <v>-3.560312736487414</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4462,7 +4459,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>5.79794396829485</v>
+        <v>5.189278632965899</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4471,7 +4468,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>-3.076550324058902</v>
+        <v>1.004767259816353</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4480,7 +4477,7 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>-3.177554829442109</v>
+        <v>2.571533158323946</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4491,7 +4488,7 @@
         <v>42826</v>
       </c>
       <c r="C434">
-        <v>1.017294924806422</v>
+        <v>2.892554939746117</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -4500,7 +4497,7 @@
         <v>42917</v>
       </c>
       <c r="C435">
-        <v>1.363759591859393</v>
+        <v>1.199396708215628</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -4509,7 +4506,7 @@
         <v>43009</v>
       </c>
       <c r="C436">
-        <v>1.66362276968417</v>
+        <v>1.24607987651626</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4518,7 +4515,7 @@
         <v>43101</v>
       </c>
       <c r="C437">
-        <v>2.259103972076226</v>
+        <v>-1.138637531083997</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4527,7 +4524,7 @@
         <v>43191</v>
       </c>
       <c r="C438">
-        <v>-0.04179468024679833</v>
+        <v>-0.5922607743335084</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4536,7 +4533,7 @@
         <v>43282</v>
       </c>
       <c r="C439">
-        <v>1.748676180066822</v>
+        <v>0.8110725406214714</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4545,7 +4542,7 @@
         <v>43374</v>
       </c>
       <c r="C440">
-        <v>-0.1655478971284929</v>
+        <v>-0.273699901090052</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4554,7 +4551,7 @@
         <v>43466</v>
       </c>
       <c r="C441">
-        <v>1.185622716728729</v>
+        <v>0.8050942177843856</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4563,7 +4560,7 @@
         <v>43556</v>
       </c>
       <c r="C442">
-        <v>0.2066063265836249</v>
+        <v>1.507764902531084</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4572,7 +4569,7 @@
         <v>43647</v>
       </c>
       <c r="C443">
-        <v>0.1002557198508169</v>
+        <v>-0.1769279605421281</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4581,7 +4578,7 @@
         <v>43739</v>
       </c>
       <c r="C444">
-        <v>0.8109486775006891</v>
+        <v>1.825044532443276</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4590,7 +4587,7 @@
         <v>43831</v>
       </c>
       <c r="C445">
-        <v>-1.681811461544669</v>
+        <v>-6.206662825346731</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4599,7 +4596,7 @@
         <v>43922</v>
       </c>
       <c r="C446">
-        <v>-3.422589938548704</v>
+        <v>-6.705755063011054</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4608,7 +4605,7 @@
         <v>44013</v>
       </c>
       <c r="C447">
-        <v>4.928753168187261</v>
+        <v>9.62723292770924</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4617,7 +4614,7 @@
         <v>44105</v>
       </c>
       <c r="C448">
-        <v>0.648741956155896</v>
+        <v>-1.35470259372884</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4626,7 +4623,7 @@
         <v>44197</v>
       </c>
       <c r="C449">
-        <v>0.5749016441271237</v>
+        <v>-0.3161252073128118</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4637,7 +4634,7 @@
         <v>42826</v>
       </c>
       <c r="C450">
-        <v>3.878492680206547</v>
+        <v>0.9500514145371675</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -4646,7 +4643,7 @@
         <v>42917</v>
       </c>
       <c r="C451">
-        <v>1.155663389738781</v>
+        <v>-0.3733501281825369</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -4655,7 +4652,7 @@
         <v>43009</v>
       </c>
       <c r="C452">
-        <v>0.7353233521755653</v>
+        <v>1.471197425191351</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4664,7 +4661,7 @@
         <v>43101</v>
       </c>
       <c r="C453">
-        <v>0.5138118395751956</v>
+        <v>0.8707272045213932</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4673,7 +4670,7 @@
         <v>43191</v>
       </c>
       <c r="C454">
-        <v>-2.315067882311239</v>
+        <v>-0.431231561439005</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4682,7 +4679,7 @@
         <v>43282</v>
       </c>
       <c r="C455">
-        <v>0.7089953951275429</v>
+        <v>-0.411013852274289</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4691,7 +4688,7 @@
         <v>43374</v>
       </c>
       <c r="C456">
-        <v>0.4767891304836347</v>
+        <v>1.058987406587031</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4700,7 +4697,7 @@
         <v>43466</v>
       </c>
       <c r="C457">
-        <v>0.781836282809123</v>
+        <v>0.3368118842744794</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4709,7 +4706,7 @@
         <v>43556</v>
       </c>
       <c r="C458">
-        <v>2.475610976538323</v>
+        <v>1.126117670668392</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4718,7 +4715,7 @@
         <v>43647</v>
       </c>
       <c r="C459">
-        <v>-0.6930198993535641</v>
+        <v>-0.6469723884415579</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4727,7 +4724,7 @@
         <v>43739</v>
       </c>
       <c r="C460">
-        <v>1.575865427369871</v>
+        <v>-0.8030208386132553</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4736,7 +4733,7 @@
         <v>43831</v>
       </c>
       <c r="C461">
-        <v>-7.32328492104386</v>
+        <v>-2.113840744889317</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4745,7 +4742,7 @@
         <v>43922</v>
       </c>
       <c r="C462">
-        <v>-4.352840512100908</v>
+        <v>-13.29264745165613</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4754,7 +4751,7 @@
         <v>44013</v>
       </c>
       <c r="C463">
-        <v>7.849796467328685</v>
+        <v>8.142099780777357</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4763,7 +4760,7 @@
         <v>44105</v>
       </c>
       <c r="C464">
-        <v>-0.7372842924279532</v>
+        <v>2.936003582665281</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4772,7 +4769,7 @@
         <v>44197</v>
       </c>
       <c r="C465">
-        <v>-2.00719530434228</v>
+        <v>0.3704130029134722</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4783,7 +4780,7 @@
         <v>42826</v>
       </c>
       <c r="C466">
-        <v>0.9292116838000686</v>
+        <v>0.2938497080225977</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -4792,7 +4789,7 @@
         <v>42917</v>
       </c>
       <c r="C467">
-        <v>-0.5546045875061689</v>
+        <v>1.699852855974271</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -4801,7 +4798,7 @@
         <v>43009</v>
       </c>
       <c r="C468">
-        <v>1.568452139014176</v>
+        <v>0.4024479791927771</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4810,7 +4807,7 @@
         <v>43101</v>
       </c>
       <c r="C469">
-        <v>1.032388696995912</v>
+        <v>0.5065597518828069</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4819,7 +4816,7 @@
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>-0.1433538206167539</v>
+        <v>1.162190207850133</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4828,7 +4825,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>-0.8098702721049955</v>
+        <v>-0.5638917027322443</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4837,7 +4834,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>1.133487065186745</v>
+        <v>1.052606329043115</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4846,7 +4843,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>-0.08597190805345045</v>
+        <v>0.5069004143871236</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4855,7 +4852,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>1.241816401078433</v>
+        <v>0.5607692197072245</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4864,7 +4861,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>-0.09089901730088279</v>
+        <v>0.6391736267969295</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4873,7 +4870,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-0.5760191103236556</v>
+        <v>-0.04713460060518093</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4882,7 +4879,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-2.338613983389304</v>
+        <v>-2.769742130103947</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4891,7 +4888,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-13.35912965576343</v>
+        <v>-6.21973313330515</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4900,7 +4897,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>8.313475581185337</v>
+        <v>6.015814142386433</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4909,7 +4906,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>2.627338670690493</v>
+        <v>-0.2976943691647138</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4918,7 +4915,7 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>-0.5704798444342019</v>
+        <v>-1.045912789682857</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4929,7 +4926,7 @@
         <v>42826</v>
       </c>
       <c r="C482">
-        <v>0.6719818443020831</v>
+        <v>1.129287462299566</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -4938,7 +4935,7 @@
         <v>42917</v>
       </c>
       <c r="C483">
-        <v>1.607765297403296</v>
+        <v>0.7860233465629474</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -4947,7 +4944,7 @@
         <v>43009</v>
       </c>
       <c r="C484">
-        <v>0.7396987315996917</v>
+        <v>0.7598091096251203</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4956,7 +4953,7 @@
         <v>43101</v>
       </c>
       <c r="C485">
-        <v>0.01647214018398735</v>
+        <v>0.6436150036294608</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4965,7 +4962,7 @@
         <v>43191</v>
       </c>
       <c r="C486">
-        <v>1.113971964462768</v>
+        <v>1.871946219628207</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4974,7 +4971,7 @@
         <v>43282</v>
       </c>
       <c r="C487">
-        <v>0.04976807765577629</v>
+        <v>0.09043888923259136</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4983,7 +4980,7 @@
         <v>43374</v>
       </c>
       <c r="C488">
-        <v>0.8230345042546494</v>
+        <v>1.435732186030503</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4992,7 +4989,7 @@
         <v>43466</v>
       </c>
       <c r="C489">
-        <v>0.502190341338804</v>
+        <v>-0.1240816079849827</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5001,7 +4998,7 @@
         <v>43556</v>
       </c>
       <c r="C490">
-        <v>0.1117838650327885</v>
+        <v>1.361383747021572</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5010,7 +5007,7 @@
         <v>43647</v>
       </c>
       <c r="C491">
-        <v>0.9594595642996362</v>
+        <v>0.47938586805929</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5019,7 +5016,7 @@
         <v>43739</v>
       </c>
       <c r="C492">
-        <v>0.116245860561448</v>
+        <v>0.295297290552532</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5028,7 +5025,7 @@
         <v>43831</v>
       </c>
       <c r="C493">
-        <v>-2.638776173591217</v>
+        <v>-2.89326686258119</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5037,7 +5034,7 @@
         <v>43922</v>
       </c>
       <c r="C494">
-        <v>-6.367510237066886</v>
+        <v>-7.089725304549532</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5046,7 +5043,7 @@
         <v>44013</v>
       </c>
       <c r="C495">
-        <v>5.913789350478171</v>
+        <v>9.162642543251852</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5055,7 +5052,7 @@
         <v>44105</v>
       </c>
       <c r="C496">
-        <v>-0.4958467418382684</v>
+        <v>2.506834908318734</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5064,7 +5061,7 @@
         <v>44197</v>
       </c>
       <c r="C497">
-        <v>-2.637113668694557</v>
+        <v>-0.7217898670437095</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5075,7 +5072,7 @@
         <v>42826</v>
       </c>
       <c r="C498">
-        <v>1.079237197503069</v>
+        <v>-0.05075640811289528</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5084,7 +5081,7 @@
         <v>42917</v>
       </c>
       <c r="C499">
-        <v>0.4716096803137226</v>
+        <v>-0.4811491715511873</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5093,7 +5090,7 @@
         <v>43009</v>
       </c>
       <c r="C500">
-        <v>1.288500411202831</v>
+        <v>2.246315658658493</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5102,7 +5099,7 @@
         <v>43101</v>
       </c>
       <c r="C501">
-        <v>0.9773011596133196</v>
+        <v>0.4508272733190655</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5111,7 +5108,7 @@
         <v>43191</v>
       </c>
       <c r="C502">
-        <v>0.7007089386048548</v>
+        <v>0.865530281375948</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5120,7 +5117,7 @@
         <v>43282</v>
       </c>
       <c r="C503">
-        <v>0.7316276108239705</v>
+        <v>0.05505017677907009</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5129,7 +5126,7 @@
         <v>43374</v>
       </c>
       <c r="C504">
-        <v>0.5788268531156993</v>
+        <v>-0.3289031413920229</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5138,7 +5135,7 @@
         <v>43466</v>
       </c>
       <c r="C505">
-        <v>0.004849316217958588</v>
+        <v>0.2294206016770772</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5147,7 +5144,7 @@
         <v>43556</v>
       </c>
       <c r="C506">
-        <v>1.696938421503358</v>
+        <v>0.9301540098238581</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5156,7 +5153,7 @@
         <v>43647</v>
       </c>
       <c r="C507">
-        <v>0.2426783623795448</v>
+        <v>0.04885802237417636</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5165,7 +5162,7 @@
         <v>43739</v>
       </c>
       <c r="C508">
-        <v>1.023304773320088</v>
+        <v>0.1329456370601445</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5174,7 +5171,7 @@
         <v>43831</v>
       </c>
       <c r="C509">
-        <v>-3.388758144438864</v>
+        <v>-3.836782725985932</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5183,7 +5180,7 @@
         <v>43922</v>
       </c>
       <c r="C510">
-        <v>-6.756560155783687</v>
+        <v>-3.34091644510307</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5192,7 +5189,7 @@
         <v>44013</v>
       </c>
       <c r="C511">
-        <v>8.500083606523168</v>
+        <v>4.151623210955191</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5201,7 +5198,7 @@
         <v>44105</v>
       </c>
       <c r="C512">
-        <v>2.206112637976743</v>
+        <v>1.041874471590543</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5210,7 +5207,7 @@
         <v>44197</v>
       </c>
       <c r="C513">
-        <v>0.1848748090422792</v>
+        <v>-1.020285232905815</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5221,7 +5218,7 @@
         <v>42826</v>
       </c>
       <c r="C514">
-        <v>-0.1726813985907683</v>
+        <v>0.07381718295880191</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -5230,7 +5227,7 @@
         <v>42917</v>
       </c>
       <c r="C515">
-        <v>-0.610726796241845</v>
+        <v>1.011456571245573</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -5239,7 +5236,7 @@
         <v>43009</v>
       </c>
       <c r="C516">
-        <v>2.221201017863095</v>
+        <v>2.706710022661074</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5248,7 +5245,7 @@
         <v>43101</v>
       </c>
       <c r="C517">
-        <v>0.6913508658295653</v>
+        <v>0.2526359354242613</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5257,7 +5254,7 @@
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>0.0863082548422156</v>
+        <v>2.291108804024766</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5266,7 +5263,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.435746081398114</v>
+        <v>0.1089125590298945</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5275,7 +5272,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>-0.7223083086093207</v>
+        <v>1.30457468853391</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5284,7 +5281,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>0.4391073256865052</v>
+        <v>2.058131327126667</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5293,7 +5290,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>1.160571191812565</v>
+        <v>0.3234615432737176</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5302,7 +5299,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>-0.4587141860172061</v>
+        <v>1.786690648641343</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5311,7 +5308,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>1.019574604603779</v>
+        <v>0.4041959780823223</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5320,7 +5317,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-4.035922866473918</v>
+        <v>-2.907288277085751</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5329,7 +5326,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-3.699436175761539</v>
+        <v>-6.561851100743521</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5338,7 +5335,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>3.430858399037917</v>
+        <v>10.00148244197223</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5347,7 +5344,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>0.5675770226956312</v>
+        <v>-3.617544757536251</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5356,7 +5353,7 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>-0.3765763559355428</v>
+        <v>1.82224572737204</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5367,7 +5364,7 @@
         <v>42826</v>
       </c>
       <c r="C530">
-        <v>0.5066235309424627</v>
+        <v>1.73779860493386</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -5376,7 +5373,7 @@
         <v>42917</v>
       </c>
       <c r="C531">
-        <v>0.9995060243374931</v>
+        <v>1.174156573617169</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -5385,7 +5382,7 @@
         <v>43009</v>
       </c>
       <c r="C532">
-        <v>2.484375739044697</v>
+        <v>-0.2716633252278666</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5394,7 +5391,7 @@
         <v>43101</v>
       </c>
       <c r="C533">
-        <v>1.015775571866318</v>
+        <v>0.7858148394055187</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5403,7 +5400,7 @@
         <v>43191</v>
       </c>
       <c r="C534">
-        <v>1.56232362214157</v>
+        <v>1.19584042276053</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5412,7 +5409,7 @@
         <v>43282</v>
       </c>
       <c r="C535">
-        <v>0.3441130409676418</v>
+        <v>0.04799301925664246</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5421,7 +5418,7 @@
         <v>43374</v>
       </c>
       <c r="C536">
-        <v>1.5822916896163</v>
+        <v>1.314081503075282</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5430,7 +5427,7 @@
         <v>43466</v>
       </c>
       <c r="C537">
-        <v>1.482474835264957</v>
+        <v>0.5775644765824817</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5439,7 +5436,7 @@
         <v>43556</v>
       </c>
       <c r="C538">
-        <v>0.5984800138538304</v>
+        <v>1.251788870100001</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5448,7 +5445,7 @@
         <v>43647</v>
       </c>
       <c r="C539">
-        <v>1.339737061298441</v>
+        <v>-0.05234079831821781</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5457,7 +5454,7 @@
         <v>43739</v>
       </c>
       <c r="C540">
-        <v>0.536034169050148</v>
+        <v>-0.02326230575221411</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5466,7 +5463,7 @@
         <v>43831</v>
       </c>
       <c r="C541">
-        <v>-3.392495937025553</v>
+        <v>-4.77731044422578</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5475,7 +5472,7 @@
         <v>43922</v>
       </c>
       <c r="C542">
-        <v>-6.236365844857272</v>
+        <v>-13.14857816319723</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5484,7 +5481,7 @@
         <v>44013</v>
       </c>
       <c r="C543">
-        <v>10.24315704168435</v>
+        <v>13.8634225573353</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5493,7 +5490,7 @@
         <v>44105</v>
       </c>
       <c r="C544">
-        <v>-3.805802872007136</v>
+        <v>0.108918818806969</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5502,7 +5499,7 @@
         <v>44197</v>
       </c>
       <c r="C545">
-        <v>0.8433217273277283</v>
+        <v>-7.546518917946743</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>42826</v>
       </c>
       <c r="C546">
-        <v>1.670836295239786</v>
+        <v>0.8797273872423572</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -5522,7 +5519,7 @@
         <v>42917</v>
       </c>
       <c r="C547">
-        <v>1.013727733477343</v>
+        <v>-0.5440865858083899</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -5531,7 +5528,7 @@
         <v>43009</v>
       </c>
       <c r="C548">
-        <v>0.03582849258423337</v>
+        <v>1.311953843581359</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5540,7 +5537,7 @@
         <v>43101</v>
       </c>
       <c r="C549">
-        <v>1.043725466731216</v>
+        <v>1.950610519848861</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5549,7 +5546,7 @@
         <v>43191</v>
       </c>
       <c r="C550">
-        <v>0.5147627248882847</v>
+        <v>1.776127182836174</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5558,7 +5555,7 @@
         <v>43282</v>
       </c>
       <c r="C551">
-        <v>0.5399755186560773</v>
+        <v>2.928498235784494</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5567,7 +5564,7 @@
         <v>43374</v>
       </c>
       <c r="C552">
-        <v>1.444551219945533</v>
+        <v>-0.1591133115270704</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5576,7 +5573,7 @@
         <v>43466</v>
       </c>
       <c r="C553">
-        <v>0.4832669440844484</v>
+        <v>-0.002912434497415184</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5585,7 +5582,7 @@
         <v>43556</v>
       </c>
       <c r="C554">
-        <v>0.8799820557155336</v>
+        <v>2.070395580596451</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5594,7 +5591,7 @@
         <v>43647</v>
       </c>
       <c r="C555">
-        <v>0.2251855824267457</v>
+        <v>1.18357315878117</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5603,7 +5600,7 @@
         <v>43739</v>
       </c>
       <c r="C556">
-        <v>-0.007270255986291385</v>
+        <v>0.0004952626126986104</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>43831</v>
       </c>
       <c r="C557">
-        <v>-5.233743191175289</v>
+        <v>-3.532448237580377</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5621,7 +5618,7 @@
         <v>43922</v>
       </c>
       <c r="C558">
-        <v>-13.00633203363855</v>
+        <v>-8.319509213186894</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5630,7 +5627,7 @@
         <v>44013</v>
       </c>
       <c r="C559">
-        <v>13.83699754910957</v>
+        <v>7.756144335292192</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5639,7 +5636,7 @@
         <v>44105</v>
       </c>
       <c r="C560">
-        <v>-0.1307909464774326</v>
+        <v>1.220467506769096</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5648,7 +5645,7 @@
         <v>44197</v>
       </c>
       <c r="C561">
-        <v>-7.697274954631905</v>
+        <v>3.232106294559012</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5659,7 +5656,7 @@
         <v>42826</v>
       </c>
       <c r="C562">
-        <v>1.87855340857872</v>
+        <v>0.02041432255437403</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -5668,7 +5665,7 @@
         <v>42917</v>
       </c>
       <c r="C563">
-        <v>-0.2958849670339436</v>
+        <v>0.7218863146967402</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -5677,7 +5674,7 @@
         <v>43009</v>
       </c>
       <c r="C564">
-        <v>0.4500784613980846</v>
+        <v>0.4175624907387432</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5686,7 +5683,7 @@
         <v>43101</v>
       </c>
       <c r="C565">
-        <v>1.854053933351008</v>
+        <v>-0.3857335566045061</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5695,7 +5692,7 @@
         <v>43191</v>
       </c>
       <c r="C566">
-        <v>2.420496789598747</v>
+        <v>0.6310928927060644</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5704,7 +5701,7 @@
         <v>43282</v>
       </c>
       <c r="C567">
-        <v>2.142345937408363</v>
+        <v>0.6010683820573126</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5713,7 +5710,7 @@
         <v>43374</v>
       </c>
       <c r="C568">
-        <v>0.5110000514676249</v>
+        <v>0.1095119203568418</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5722,7 +5719,7 @@
         <v>43466</v>
       </c>
       <c r="C569">
-        <v>-0.3829428873069918</v>
+        <v>1.090995327511868</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5731,7 +5728,7 @@
         <v>43556</v>
       </c>
       <c r="C570">
-        <v>2.586440849920901</v>
+        <v>0.9560541423111912</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5740,7 +5737,7 @@
         <v>43647</v>
       </c>
       <c r="C571">
-        <v>0.1932079960746291</v>
+        <v>0.2375290386080975</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5749,7 +5746,7 @@
         <v>43739</v>
       </c>
       <c r="C572">
-        <v>0.8194775857800041</v>
+        <v>-0.9541236362784034</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5758,7 +5755,7 @@
         <v>43831</v>
       </c>
       <c r="C573">
-        <v>-3.456315210013661</v>
+        <v>-2.84038889235767</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5767,7 +5764,7 @@
         <v>43922</v>
       </c>
       <c r="C574">
-        <v>-9.123773247673295</v>
+        <v>-5.288944023832465</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5776,7 +5773,7 @@
         <v>44013</v>
       </c>
       <c r="C575">
-        <v>8.907823149203109</v>
+        <v>5.713960548894437</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5785,7 +5782,7 @@
         <v>44105</v>
       </c>
       <c r="C576">
-        <v>1.278351571315484</v>
+        <v>-0.3317683969691454</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5794,7 +5791,7 @@
         <v>44197</v>
       </c>
       <c r="C577">
-        <v>0.7771885662091194</v>
+        <v>3.431757479870079</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5805,7 +5802,7 @@
         <v>42826</v>
       </c>
       <c r="C578">
-        <v>0.3814790721106798</v>
+        <v>-0.01868680252058441</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -5814,7 +5811,7 @@
         <v>42917</v>
       </c>
       <c r="C579">
-        <v>0.6421461030493791</v>
+        <v>0.609951140783771</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -5823,7 +5820,7 @@
         <v>43009</v>
       </c>
       <c r="C580">
-        <v>0.02205574383196129</v>
+        <v>0.0406124794835927</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5832,7 +5829,7 @@
         <v>43101</v>
       </c>
       <c r="C581">
-        <v>-0.2189628111783692</v>
+        <v>0.4677195927805355</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5841,7 +5838,7 @@
         <v>43191</v>
       </c>
       <c r="C582">
-        <v>0.5106115594839311</v>
+        <v>1.896138209985088</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5850,7 +5847,7 @@
         <v>43282</v>
       </c>
       <c r="C583">
-        <v>0.9986675378204524</v>
+        <v>0.5761669292174476</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5859,7 +5856,7 @@
         <v>43374</v>
       </c>
       <c r="C584">
-        <v>0.05387756694694712</v>
+        <v>0.217496496946934</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5868,7 +5865,7 @@
         <v>43466</v>
       </c>
       <c r="C585">
-        <v>0.9928264303936452</v>
+        <v>0.4043842988523005</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5877,7 +5874,7 @@
         <v>43556</v>
       </c>
       <c r="C586">
-        <v>0.9904224892314684</v>
+        <v>2.645741291903581</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5886,7 +5883,7 @@
         <v>43647</v>
       </c>
       <c r="C587">
-        <v>0.1125114581367548</v>
+        <v>-0.3239935147906103</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5895,7 +5892,7 @@
         <v>43739</v>
       </c>
       <c r="C588">
-        <v>-0.9910934075544442</v>
+        <v>0.5066690137815799</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5904,7 +5901,7 @@
         <v>43831</v>
       </c>
       <c r="C589">
-        <v>-2.851321942835106</v>
+        <v>-4.985604259012277</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5913,7 +5910,7 @@
         <v>43922</v>
       </c>
       <c r="C590">
-        <v>-5.371521080495445</v>
+        <v>-8.348126890606123</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5922,7 +5919,7 @@
         <v>44013</v>
       </c>
       <c r="C591">
-        <v>6.127573298249689</v>
+        <v>9.203462259073913</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5931,7 +5928,7 @@
         <v>44105</v>
       </c>
       <c r="C592">
-        <v>-0.2468024802629976</v>
+        <v>0.5748505697430462</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5940,7 +5937,7 @@
         <v>44197</v>
       </c>
       <c r="C593">
-        <v>1.831460960530151</v>
+        <v>-7.460281511409105</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5951,7 +5948,7 @@
         <v>42826</v>
       </c>
       <c r="C594">
-        <v>1.263150274947611</v>
+        <v>2.552987158800257</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -5960,7 +5957,7 @@
         <v>42917</v>
       </c>
       <c r="C595">
-        <v>0.2284162621180696</v>
+        <v>0.1126818321347978</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -5969,7 +5966,7 @@
         <v>43009</v>
       </c>
       <c r="C596">
-        <v>-0.07091402248727841</v>
+        <v>1.703098192643293</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5978,7 +5975,7 @@
         <v>43101</v>
       </c>
       <c r="C597">
-        <v>0.950297767438113</v>
+        <v>0.971139713848479</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5987,7 +5984,7 @@
         <v>43191</v>
       </c>
       <c r="C598">
-        <v>1.47974887350526</v>
+        <v>0.6400530865452669</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5996,7 +5993,7 @@
         <v>43282</v>
       </c>
       <c r="C599">
-        <v>-0.4591280216855398</v>
+        <v>1.574725282017364</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6005,7 +6002,7 @@
         <v>43374</v>
       </c>
       <c r="C600">
-        <v>1.680501066653739</v>
+        <v>1.305759426504838</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6014,7 +6011,7 @@
         <v>43466</v>
       </c>
       <c r="C601">
-        <v>0.09959841113527101</v>
+        <v>1.119314792888226</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6023,7 +6020,7 @@
         <v>43556</v>
       </c>
       <c r="C602">
-        <v>2.387914433816762</v>
+        <v>1.187357730041061</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6032,7 +6029,7 @@
         <v>43647</v>
       </c>
       <c r="C603">
-        <v>-0.5537086932444146</v>
+        <v>0.2329278153907266</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6041,7 +6038,7 @@
         <v>43739</v>
       </c>
       <c r="C604">
-        <v>-0.09771810663437019</v>
+        <v>2.060068982379581</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6050,7 +6047,7 @@
         <v>43831</v>
       </c>
       <c r="C605">
-        <v>-4.581008744508564</v>
+        <v>-5.029840173169409</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6059,7 +6056,7 @@
         <v>43922</v>
       </c>
       <c r="C606">
-        <v>-8.910347867063296</v>
+        <v>-7.736351470699054</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6068,7 +6065,7 @@
         <v>44013</v>
       </c>
       <c r="C607">
-        <v>11.11192542030541</v>
+        <v>10.35034570176496</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6077,7 +6074,7 @@
         <v>44105</v>
       </c>
       <c r="C608">
-        <v>-0.2575991648908427</v>
+        <v>-4.126427095782647</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6086,7 +6083,7 @@
         <v>44197</v>
       </c>
       <c r="C609">
-        <v>-7.804092934161888</v>
+        <v>-2.417404807167378</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6097,7 +6094,7 @@
         <v>42826</v>
       </c>
       <c r="C610">
-        <v>2.785567457950799</v>
+        <v>0.359936772574132</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -6106,7 +6103,7 @@
         <v>42917</v>
       </c>
       <c r="C611">
-        <v>1.771893332909902</v>
+        <v>0.1528527290045822</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -6115,7 +6112,7 @@
         <v>43009</v>
       </c>
       <c r="C612">
-        <v>-0.4983338030254414</v>
+        <v>1.001919464546508</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6124,7 +6121,7 @@
         <v>43101</v>
       </c>
       <c r="C613">
-        <v>2.647379816003959</v>
+        <v>-0.9819568066492201</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6133,7 +6130,7 @@
         <v>43191</v>
       </c>
       <c r="C614">
-        <v>0.7017314457741897</v>
+        <v>1.228390720761152</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6142,7 +6139,7 @@
         <v>43282</v>
       </c>
       <c r="C615">
-        <v>0.9073748057938813</v>
+        <v>-0.1283564967181183</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6151,7 +6148,7 @@
         <v>43374</v>
       </c>
       <c r="C616">
-        <v>1.14336643990689</v>
+        <v>0.9453245404980715</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6160,7 +6157,7 @@
         <v>43466</v>
       </c>
       <c r="C617">
-        <v>1.108130182251821</v>
+        <v>-0.6922502997483204</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6169,7 +6166,7 @@
         <v>43556</v>
       </c>
       <c r="C618">
-        <v>1.212283960097005</v>
+        <v>0.0399948241378123</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6178,7 +6175,7 @@
         <v>43647</v>
       </c>
       <c r="C619">
-        <v>0.4088981116580515</v>
+        <v>-0.2065229574084393</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6187,7 +6184,7 @@
         <v>43739</v>
       </c>
       <c r="C620">
-        <v>2.589208058761594</v>
+        <v>0.790654364354304</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6196,7 +6193,7 @@
         <v>43831</v>
       </c>
       <c r="C621">
-        <v>-5.63007363381044</v>
+        <v>-4.37040249170193</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6205,7 +6202,7 @@
         <v>43922</v>
       </c>
       <c r="C622">
-        <v>-7.578996599837851</v>
+        <v>-13.79595076510999</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6214,7 +6211,7 @@
         <v>44013</v>
       </c>
       <c r="C623">
-        <v>11.96296425663461</v>
+        <v>11.88682232602103</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6223,7 +6220,7 @@
         <v>44105</v>
       </c>
       <c r="C624">
-        <v>-4.933249099486492</v>
+        <v>3.354039903014483</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6232,7 +6229,7 @@
         <v>44197</v>
       </c>
       <c r="C625">
-        <v>-4.024921762027933</v>
+        <v>-0.02560376844557011</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6243,7 +6240,7 @@
         <v>42826</v>
       </c>
       <c r="C626">
-        <v>1.050231019516801</v>
+        <v>0.9448306373718518</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -6252,7 +6249,7 @@
         <v>42917</v>
       </c>
       <c r="C627">
-        <v>0.1417824464990503</v>
+        <v>0.4052893241863531</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>43009</v>
       </c>
       <c r="C628">
-        <v>0.7796496918782037</v>
+        <v>0.09090633973178885</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6270,7 +6267,7 @@
         <v>43101</v>
       </c>
       <c r="C629">
-        <v>-1.010046428109801</v>
+        <v>1.124522838015074</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6279,7 +6276,7 @@
         <v>43191</v>
       </c>
       <c r="C630">
-        <v>1.531888029058215</v>
+        <v>0.399097076817867</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6288,7 +6285,7 @@
         <v>43282</v>
       </c>
       <c r="C631">
-        <v>-0.2336793249462787</v>
+        <v>0.7126094374308112</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6297,7 +6294,7 @@
         <v>43374</v>
       </c>
       <c r="C632">
-        <v>1.016905240579402</v>
+        <v>0.5276787115927162</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6306,7 +6303,7 @@
         <v>43466</v>
       </c>
       <c r="C633">
-        <v>-0.7318368973799005</v>
+        <v>0.1557613125868107</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6315,7 +6312,7 @@
         <v>43556</v>
       </c>
       <c r="C634">
-        <v>-0.1154364689107124</v>
+        <v>1.128503206066722</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6324,7 +6321,7 @@
         <v>43647</v>
       </c>
       <c r="C635">
-        <v>-0.2061350801370154</v>
+        <v>0.1739443794295248</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6333,7 +6330,7 @@
         <v>43739</v>
       </c>
       <c r="C636">
-        <v>0.7907150977788158</v>
+        <v>0.7583611814045543</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>43831</v>
       </c>
       <c r="C637">
-        <v>-4.409187967742567</v>
+        <v>-6.805620282456637</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6351,7 +6348,7 @@
         <v>43922</v>
       </c>
       <c r="C638">
-        <v>-13.75466418222686</v>
+        <v>-15.46788088614536</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6360,7 +6357,7 @@
         <v>44013</v>
       </c>
       <c r="C639">
-        <v>11.82789504363249</v>
+        <v>15.97737323220103</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6369,7 +6366,7 @@
         <v>44105</v>
       </c>
       <c r="C640">
-        <v>3.852305355373686</v>
+        <v>-0.01934177203036791</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6378,7 +6375,7 @@
         <v>44197</v>
       </c>
       <c r="C641">
-        <v>-3.228282935750526</v>
+        <v>-3.281740845624515</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6389,7 +6386,7 @@
         <v>42826</v>
       </c>
       <c r="C642">
-        <v>1.052122371608855</v>
+        <v>-0.2964111553210858</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -6398,7 +6395,7 @@
         <v>42917</v>
       </c>
       <c r="C643">
-        <v>0.3450899906545457</v>
+        <v>1.05391169304434</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -6407,7 +6404,7 @@
         <v>43009</v>
       </c>
       <c r="C644">
-        <v>0.3564052180628163</v>
+        <v>0.547898648456524</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6416,7 +6413,7 @@
         <v>43101</v>
       </c>
       <c r="C645">
-        <v>1.053774701919097</v>
+        <v>0.2815866414737078</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6425,7 +6422,7 @@
         <v>43191</v>
       </c>
       <c r="C646">
-        <v>0.809378331639321</v>
+        <v>1.325814480895171</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6434,7 +6431,7 @@
         <v>43282</v>
       </c>
       <c r="C647">
-        <v>0.3311168064152659</v>
+        <v>-0.4844973928523566</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6443,7 +6440,7 @@
         <v>43374</v>
       </c>
       <c r="C648">
-        <v>0.764932304525856</v>
+        <v>0.5611283666689948</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>43466</v>
       </c>
       <c r="C649">
-        <v>0.1520797739072099</v>
+        <v>0.4722068644165134</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6461,7 +6458,7 @@
         <v>43556</v>
       </c>
       <c r="C650">
-        <v>0.9118007505375836</v>
+        <v>1.540859328896427</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6470,7 +6467,7 @@
         <v>43647</v>
       </c>
       <c r="C651">
-        <v>-0.07642700999633822</v>
+        <v>-0.7421251051765276</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6479,7 +6476,7 @@
         <v>43739</v>
       </c>
       <c r="C652">
-        <v>0.960073037718745</v>
+        <v>0.9591442943032158</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6488,7 +6485,7 @@
         <v>43831</v>
       </c>
       <c r="C653">
-        <v>-6.766516207251816</v>
+        <v>-1.979071748037853</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6497,7 +6494,7 @@
         <v>43922</v>
       </c>
       <c r="C654">
-        <v>-14.99314877150699</v>
+        <v>-7.071968526576667</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6506,7 +6503,7 @@
         <v>44013</v>
       </c>
       <c r="C655">
-        <v>14.84739496193734</v>
+        <v>4.794845805645065</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6515,7 +6512,7 @@
         <v>44105</v>
       </c>
       <c r="C656">
-        <v>0.4883832498505436</v>
+        <v>1.175207382358789</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6524,7 +6521,7 @@
         <v>44197</v>
       </c>
       <c r="C657">
-        <v>-3.533339904026889</v>
+        <v>1.533754116522967</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6535,7 +6532,7 @@
         <v>42826</v>
       </c>
       <c r="C658">
-        <v>0.727475641738673</v>
+        <v>0.6643798617104846</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -6544,7 +6541,7 @@
         <v>42917</v>
       </c>
       <c r="C659">
-        <v>0.280452052026714</v>
+        <v>0.2351712080415735</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -6553,7 +6550,7 @@
         <v>43009</v>
       </c>
       <c r="C660">
-        <v>0.9555161754321917</v>
+        <v>0.8024242303465545</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6562,7 +6559,7 @@
         <v>43101</v>
       </c>
       <c r="C661">
-        <v>-0.06342325347922229</v>
+        <v>-0.1714210942982186</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6571,7 +6568,7 @@
         <v>43191</v>
       </c>
       <c r="C662">
-        <v>1.583051481233877</v>
+        <v>0.5677747982494097</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6580,7 +6577,7 @@
         <v>43282</v>
       </c>
       <c r="C663">
-        <v>0.09793580923687095</v>
+        <v>-0.04539654309382302</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6589,7 +6586,7 @@
         <v>43374</v>
       </c>
       <c r="C664">
-        <v>-0.3635849597781626</v>
+        <v>1.010074764076885</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6598,7 +6595,7 @@
         <v>43466</v>
       </c>
       <c r="C665">
-        <v>0.7319581312100087</v>
+        <v>0.942428380388094</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6607,7 +6604,7 @@
         <v>43556</v>
       </c>
       <c r="C666">
-        <v>1.04912600855831</v>
+        <v>0.9824137636983421</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6616,7 +6613,7 @@
         <v>43647</v>
       </c>
       <c r="C667">
-        <v>-0.4208101736122405</v>
+        <v>-0.1751476876811431</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6625,7 +6622,7 @@
         <v>43739</v>
       </c>
       <c r="C668">
-        <v>1.295292270676662</v>
+        <v>0.2600665737093388</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6634,7 +6631,7 @@
         <v>43831</v>
       </c>
       <c r="C669">
-        <v>-2.424321001503194</v>
+        <v>-5.059930347896902</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6643,7 +6640,7 @@
         <v>43922</v>
       </c>
       <c r="C670">
-        <v>-6.986809970825303</v>
+        <v>-5.6718603744212</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6652,7 +6649,7 @@
         <v>44013</v>
       </c>
       <c r="C671">
-        <v>5.829237171817425</v>
+        <v>8.092335257868367</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6661,7 +6658,7 @@
         <v>44105</v>
       </c>
       <c r="C672">
-        <v>0.3848593418103619</v>
+        <v>-1.008249894661761</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6670,7 +6667,7 @@
         <v>44197</v>
       </c>
       <c r="C673">
-        <v>0.7287609571311471</v>
+        <v>-0.4403985976424107</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6681,7 +6678,7 @@
         <v>42826</v>
       </c>
       <c r="C674">
-        <v>-0.1562468029771558</v>
+        <v>2.778740822367043</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -6690,7 +6687,7 @@
         <v>42917</v>
       </c>
       <c r="C675">
-        <v>0.57751514689377</v>
+        <v>-1.029881448313785</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -6699,7 +6696,7 @@
         <v>43009</v>
       </c>
       <c r="C676">
-        <v>0.8397240282040697</v>
+        <v>4.730516684679054</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6708,7 +6705,7 @@
         <v>43101</v>
       </c>
       <c r="C677">
-        <v>-0.3861452336032856</v>
+        <v>0.8141485255892311</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6717,7 +6714,7 @@
         <v>43191</v>
       </c>
       <c r="C678">
-        <v>0.9185139170437173</v>
+        <v>1.890118581991085</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6726,7 +6723,7 @@
         <v>43282</v>
       </c>
       <c r="C679">
-        <v>0.2643564790505204</v>
+        <v>-1.139338770960907</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6735,7 +6732,7 @@
         <v>43374</v>
       </c>
       <c r="C680">
-        <v>0.9886383759605932</v>
+        <v>-0.2838664744158836</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6744,7 +6741,7 @@
         <v>43466</v>
       </c>
       <c r="C681">
-        <v>0.7604232266365196</v>
+        <v>2.112284333879777</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6753,7 +6750,7 @@
         <v>43556</v>
       </c>
       <c r="C682">
-        <v>1.310328687581164</v>
+        <v>1.263536322007375</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6762,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C683">
-        <v>-0.7328220811765651</v>
+        <v>0.2861278062469941</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6771,7 +6768,7 @@
         <v>43739</v>
       </c>
       <c r="C684">
-        <v>0.4685551300098512</v>
+        <v>-1.06493906222016</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6780,7 +6777,7 @@
         <v>43831</v>
       </c>
       <c r="C685">
-        <v>-5.244137327605669</v>
+        <v>-0.7793874764369546</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6789,7 +6786,7 @@
         <v>43922</v>
       </c>
       <c r="C686">
-        <v>-5.337713230496266</v>
+        <v>-9.736400808143685</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6798,7 +6795,7 @@
         <v>44013</v>
       </c>
       <c r="C687">
-        <v>7.800186309773793</v>
+        <v>12.0340823278029</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6807,7 +6804,7 @@
         <v>44105</v>
       </c>
       <c r="C688">
-        <v>-1.608369999387882</v>
+        <v>-0.2303077552720634</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6816,7 +6813,7 @@
         <v>44197</v>
       </c>
       <c r="C689">
-        <v>-2.165002580107078</v>
+        <v>-2.901614867797997</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6827,7 +6824,7 @@
         <v>42826</v>
       </c>
       <c r="C690">
-        <v>3.704347152597576</v>
+        <v>0.2814784381218738</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -6836,7 +6833,7 @@
         <v>42917</v>
       </c>
       <c r="C691">
-        <v>-1.065799030579284</v>
+        <v>0.5250497423262113</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -6845,7 +6842,7 @@
         <v>43009</v>
       </c>
       <c r="C692">
-        <v>4.316662890294309</v>
+        <v>0.5548391902607586</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6854,7 +6851,7 @@
         <v>43101</v>
       </c>
       <c r="C693">
-        <v>1.234034940071171</v>
+        <v>0.5833372638570866</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6863,7 +6860,7 @@
         <v>43191</v>
       </c>
       <c r="C694">
-        <v>1.293771723873305</v>
+        <v>0.8784891631011149</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6872,7 +6869,7 @@
         <v>43282</v>
       </c>
       <c r="C695">
-        <v>-0.1509657176537393</v>
+        <v>-0.4880003038539638</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6881,7 +6878,7 @@
         <v>43374</v>
       </c>
       <c r="C696">
-        <v>-0.8659173458559932</v>
+        <v>0.2244853063184893</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6890,7 +6887,7 @@
         <v>43466</v>
       </c>
       <c r="C697">
-        <v>2.134362352400521</v>
+        <v>-0.009850045082082648</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6899,7 +6896,7 @@
         <v>43556</v>
       </c>
       <c r="C698">
-        <v>1.222680934733367</v>
+        <v>0.4271987921499631</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6908,7 +6905,7 @@
         <v>43647</v>
       </c>
       <c r="C699">
-        <v>0.1786342588781187</v>
+        <v>0.419666203029001</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6917,7 +6914,7 @@
         <v>43739</v>
       </c>
       <c r="C700">
-        <v>-1.262525280207272</v>
+        <v>-0.2161436567231778</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6926,7 +6923,7 @@
         <v>43831</v>
       </c>
       <c r="C701">
-        <v>-0.7874560654334228</v>
+        <v>-3.877644007408965</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6935,7 +6932,7 @@
         <v>43922</v>
       </c>
       <c r="C702">
-        <v>-8.700159863384972</v>
+        <v>-14.79210412577538</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6944,7 +6941,7 @@
         <v>44013</v>
       </c>
       <c r="C703">
-        <v>11.33932869540473</v>
+        <v>14.21283497671295</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6953,7 +6950,7 @@
         <v>44105</v>
       </c>
       <c r="C704">
-        <v>-0.1175648534632256</v>
+        <v>-0.2562861085712909</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6962,7 +6959,7 @@
         <v>44197</v>
       </c>
       <c r="C705">
-        <v>-2.971008113478124</v>
+        <v>-4.146246237019424</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6973,7 +6970,7 @@
         <v>42826</v>
       </c>
       <c r="C706">
-        <v>0.177594388879454</v>
+        <v>0.3904757220172028</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6982,7 +6979,7 @@
         <v>42917</v>
       </c>
       <c r="C707">
-        <v>0.6011122534096192</v>
+        <v>0.6487798206868955</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -6991,7 +6988,7 @@
         <v>43009</v>
       </c>
       <c r="C708">
-        <v>0.604975083859749</v>
+        <v>0.9131607102983441</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -7000,7 +6997,7 @@
         <v>43101</v>
       </c>
       <c r="C709">
-        <v>0.4494878664487834</v>
+        <v>0.3315218185448332</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7009,7 +7006,7 @@
         <v>43191</v>
       </c>
       <c r="C710">
-        <v>0.9380430645023363</v>
+        <v>0.4373265002810767</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7018,7 +7015,7 @@
         <v>43282</v>
       </c>
       <c r="C711">
-        <v>-0.3913468578016221</v>
+        <v>0.2383446461268202</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7027,7 +7024,7 @@
         <v>43374</v>
       </c>
       <c r="C712">
-        <v>0.5005543973553683</v>
+        <v>0.424662350474736</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7036,7 +7033,7 @@
         <v>43466</v>
       </c>
       <c r="C713">
-        <v>-0.2690643559681405</v>
+        <v>1.349337143627571</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7045,7 +7042,7 @@
         <v>43556</v>
       </c>
       <c r="C714">
-        <v>0.228749555079677</v>
+        <v>0.6712372986776183</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7054,7 +7051,7 @@
         <v>43647</v>
       </c>
       <c r="C715">
-        <v>0.5903878775882276</v>
+        <v>1.069516298676199</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7063,7 +7060,7 @@
         <v>43739</v>
       </c>
       <c r="C716">
-        <v>-0.2167448841430719</v>
+        <v>0.09716043542409292</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7072,7 +7069,7 @@
         <v>43831</v>
       </c>
       <c r="C717">
-        <v>-4.097484003565377</v>
+        <v>-2.467827285785107</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7081,7 +7078,7 @@
         <v>43922</v>
       </c>
       <c r="C718">
-        <v>-15.24817936058515</v>
+        <v>-7.454969268516032</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7090,7 +7087,7 @@
         <v>44013</v>
       </c>
       <c r="C719">
-        <v>13.97244943865232</v>
+        <v>6.087056880072428</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7099,7 +7096,7 @@
         <v>44105</v>
       </c>
       <c r="C720">
-        <v>-0.1634534308639801</v>
+        <v>2.08569613458558</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7108,157 +7105,11 @@
         <v>44197</v>
       </c>
       <c r="C721">
-        <v>-4.395860258307249</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3">
-      <c r="A722" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B722" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C722">
-        <v>0.3390016125467188</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3">
-      <c r="A723" s="1"/>
-      <c r="B723" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C723">
-        <v>0.7625300401127078</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3">
-      <c r="A724" s="1"/>
-      <c r="B724" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C724">
-        <v>0.8870777892558523</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3">
-      <c r="A725" s="1"/>
-      <c r="B725" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C725">
-        <v>0.4475507811676493</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3">
-      <c r="A726" s="1"/>
-      <c r="B726" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C726">
-        <v>0.4031781406404811</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3">
-      <c r="A727" s="1"/>
-      <c r="B727" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C727">
-        <v>0.2075042662018634</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3">
-      <c r="A728" s="1"/>
-      <c r="B728" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C728">
-        <v>0.4695034678263266</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3">
-      <c r="A729" s="1"/>
-      <c r="B729" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C729">
-        <v>1.3375911727594</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3">
-      <c r="A730" s="1"/>
-      <c r="B730" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C730">
-        <v>0.4519163866593123</v>
-      </c>
-    </row>
-    <row r="731" spans="1:3">
-      <c r="A731" s="1"/>
-      <c r="B731" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C731">
-        <v>1.198193767058497</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3">
-      <c r="A732" s="1"/>
-      <c r="B732" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C732">
-        <v>0.1871197893812848</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3">
-      <c r="A733" s="1"/>
-      <c r="B733" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C733">
-        <v>-2.654322671649501</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3">
-      <c r="A734" s="1"/>
-      <c r="B734" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C734">
-        <v>-7.347022547764404</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3">
-      <c r="A735" s="1"/>
-      <c r="B735" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C735">
-        <v>6.108571157905396</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3">
-      <c r="A736" s="1"/>
-      <c r="B736" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C736">
-        <v>2.078053769303501</v>
-      </c>
-    </row>
-    <row r="737" spans="1:3">
-      <c r="A737" s="1"/>
-      <c r="B737" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C737">
-        <v>-0.7441117065774439</v>
+        <v>-0.6202767126079478</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="45">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A49"/>
@@ -7304,7 +7155,6 @@
     <mergeCell ref="A674:A689"/>
     <mergeCell ref="A690:A705"/>
     <mergeCell ref="A706:A721"/>
-    <mergeCell ref="A722:A737"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>42826</v>
       </c>
       <c r="C2">
-        <v>-1.678847256332838</v>
+        <v>-1.208805195083862</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>42917</v>
       </c>
       <c r="C3">
-        <v>0.8115544236198424</v>
+        <v>0.4126930784897453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>43009</v>
       </c>
       <c r="C4">
-        <v>0.777477552371697</v>
+        <v>0.5624673680281411</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43101</v>
       </c>
       <c r="C5">
-        <v>0.8599805506632974</v>
+        <v>0.7737567148312863</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>43191</v>
       </c>
       <c r="C6">
-        <v>-3.187694956636034</v>
+        <v>-2.31850654446073</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>43282</v>
       </c>
       <c r="C7">
-        <v>-0.2473859965784198</v>
+        <v>-0.9042357104590448</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>43374</v>
       </c>
       <c r="C8">
-        <v>0.4166210319533903</v>
+        <v>0.9204544439876283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +609,7 @@
         <v>43466</v>
       </c>
       <c r="C9">
-        <v>0.9555290303289388</v>
+        <v>0.205455867391402</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>43556</v>
       </c>
       <c r="C10">
-        <v>-2.83704103632022</v>
+        <v>-3.439849812425577</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>43647</v>
       </c>
       <c r="C11">
-        <v>0.9492396742247999</v>
+        <v>1.340261585443336</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -636,7 +636,7 @@
         <v>43739</v>
       </c>
       <c r="C12">
-        <v>-1.039771891820074</v>
+        <v>-1.108386148206497</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +645,7 @@
         <v>43831</v>
       </c>
       <c r="C13">
-        <v>-4.331774385013498</v>
+        <v>-4.794797557576958</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>43922</v>
       </c>
       <c r="C14">
-        <v>-16.13382569747797</v>
+        <v>-14.60770747968132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -663,7 +663,7 @@
         <v>44013</v>
       </c>
       <c r="C15">
-        <v>8.821591331124656</v>
+        <v>8.242967593657413</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -672,7 +672,7 @@
         <v>44105</v>
       </c>
       <c r="C16">
-        <v>2.258741245274409</v>
+        <v>3.174833202689831</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>44197</v>
       </c>
       <c r="C17">
-        <v>2.203859131846864</v>
+        <v>2.932925459598601</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>42826</v>
       </c>
       <c r="C18">
-        <v>0.5393802156181904</v>
+        <v>-0.2082086172015662</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -701,7 +701,7 @@
         <v>42917</v>
       </c>
       <c r="C19">
-        <v>0.4948256371946957</v>
+        <v>0.4213679385991265</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -710,7 +710,7 @@
         <v>43009</v>
       </c>
       <c r="C20">
-        <v>1.132815780571983</v>
+        <v>1.092662035983394</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +719,7 @@
         <v>43101</v>
       </c>
       <c r="C21">
-        <v>0.458444180761286</v>
+        <v>0.6151336746860192</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -728,7 +728,7 @@
         <v>43191</v>
       </c>
       <c r="C22">
-        <v>0.7745605695797853</v>
+        <v>0.6163803050553529</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -737,7 +737,7 @@
         <v>43282</v>
       </c>
       <c r="C23">
-        <v>0.4072948635267082</v>
+        <v>0.999529238611796</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +746,7 @@
         <v>43374</v>
       </c>
       <c r="C24">
-        <v>0.183075446220049</v>
+        <v>5.066976609402474E-05</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -755,7 +755,7 @@
         <v>43466</v>
       </c>
       <c r="C25">
-        <v>0.6460173712095951</v>
+        <v>0.6738602773633806</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -764,7 +764,7 @@
         <v>43556</v>
       </c>
       <c r="C26">
-        <v>0.7539234908788828</v>
+        <v>0.6703947966702151</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>43647</v>
       </c>
       <c r="C27">
-        <v>0.6180353464321886</v>
+        <v>0.2216329648027093</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43739</v>
       </c>
       <c r="C28">
-        <v>-0.2501693044201225</v>
+        <v>-0.1903592186974778</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -791,7 +791,7 @@
         <v>43831</v>
       </c>
       <c r="C29">
-        <v>-2.691960264751736</v>
+        <v>-3.122084729961339</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>43922</v>
       </c>
       <c r="C30">
-        <v>-5.313366169098455</v>
+        <v>-4.932684835960577</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>44013</v>
       </c>
       <c r="C31">
-        <v>4.823815359841954</v>
+        <v>4.555447683078784</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -818,7 +818,7 @@
         <v>44105</v>
       </c>
       <c r="C32">
-        <v>4.457713256860174</v>
+        <v>4.341059945201398</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -827,7 +827,7 @@
         <v>44197</v>
       </c>
       <c r="C33">
-        <v>1.437480700534888</v>
+        <v>3.486149793107218</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -838,7 +838,7 @@
         <v>42826</v>
       </c>
       <c r="C34">
-        <v>-0.1427444627295826</v>
+        <v>0.6701121363100748</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -847,7 +847,7 @@
         <v>42917</v>
       </c>
       <c r="C35">
-        <v>0.5114890189180876</v>
+        <v>0.6481056615441183</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -856,7 +856,7 @@
         <v>43009</v>
       </c>
       <c r="C36">
-        <v>1.038642950419444</v>
+        <v>1.043376954331876</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -865,7 +865,7 @@
         <v>43101</v>
       </c>
       <c r="C37">
-        <v>0.000508136127574943</v>
+        <v>0.7044629829145332</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -874,7 +874,7 @@
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>0.8228080918445624</v>
+        <v>0.2955675719457318</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -883,7 +883,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>0.2676851261868674</v>
+        <v>-0.2323213126266488</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>0.07910395073302823</v>
+        <v>0.6130248052999887</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -901,7 +901,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.568242906998463</v>
+        <v>1.723244099934029</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -910,7 +910,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>0.6821188807753398</v>
+        <v>0.01183474780017679</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -919,7 +919,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>-0.4554794195454903</v>
+        <v>-0.6520745445961262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -928,7 +928,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>0.9871229093559419</v>
+        <v>1.076703935356393</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -937,7 +937,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-4.602041573043747</v>
+        <v>-4.507994839300644</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -946,7 +946,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-9.475323953742576</v>
+        <v>-9.230631490594533</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +955,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>8.752562765529582</v>
+        <v>9.692484292655612</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -964,7 +964,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-2.733972319506139</v>
+        <v>-2.571592573501513</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -973,7 +973,7 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>-2.905708503003979</v>
+        <v>-1.462654959891452</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -984,7 +984,7 @@
         <v>42826</v>
       </c>
       <c r="C50">
-        <v>0.270129018656351</v>
+        <v>1.066713538338337</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -993,7 +993,7 @@
         <v>42917</v>
       </c>
       <c r="C51">
-        <v>0.1512373464733097</v>
+        <v>1.43702760721125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43009</v>
       </c>
       <c r="C52">
-        <v>0.5553536880239296</v>
+        <v>0.1713513847674708</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>43101</v>
       </c>
       <c r="C53">
-        <v>0.4355757901489454</v>
+        <v>0.1246609724094183</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>43191</v>
       </c>
       <c r="C54">
-        <v>0.7010661172552668</v>
+        <v>1.027101334576619</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>43282</v>
       </c>
       <c r="C55">
-        <v>-0.3738464731188107</v>
+        <v>-0.9820877276345397</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>43374</v>
       </c>
       <c r="C56">
-        <v>0.5926619815517231</v>
+        <v>0.1907267885793429</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43466</v>
       </c>
       <c r="C57">
-        <v>0.2957884082771089</v>
+        <v>0.6966024547920391</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>43556</v>
       </c>
       <c r="C58">
-        <v>0.1588535635143273</v>
+        <v>0.2179647810492069</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>43647</v>
       </c>
       <c r="C59">
-        <v>0.7664475286549344</v>
+        <v>0.7170646607305597</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>43739</v>
       </c>
       <c r="C60">
-        <v>0.499105353023177</v>
+        <v>0.7479349192638374</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>43831</v>
       </c>
       <c r="C61">
-        <v>-5.250802195771886</v>
+        <v>-5.001030106263959</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>43922</v>
       </c>
       <c r="C62">
-        <v>-8.648461045089896</v>
+        <v>-8.774598786324017</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>44013</v>
       </c>
       <c r="C63">
-        <v>10.67368251404139</v>
+        <v>10.67045631440475</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>44105</v>
       </c>
       <c r="C64">
-        <v>-1.213547932662629</v>
+        <v>-1.818759631261224</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>44197</v>
       </c>
       <c r="C65">
-        <v>-1.498082551117619</v>
+        <v>-0.1632727506298615</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>42826</v>
       </c>
       <c r="C66">
-        <v>0.7878684146690906</v>
+        <v>0.6377343330715268</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42917</v>
       </c>
       <c r="C67">
-        <v>-1.289280629095213</v>
+        <v>-0.8318139826164916</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>43009</v>
       </c>
       <c r="C68">
-        <v>0.5227540507894313</v>
+        <v>0.3330730749433908</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>43101</v>
       </c>
       <c r="C69">
-        <v>1.099675185585136</v>
+        <v>1.118314033147816</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>43191</v>
       </c>
       <c r="C70">
-        <v>-0.3261148615636644</v>
+        <v>0.05853070904098256</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>43282</v>
       </c>
       <c r="C71">
-        <v>0.7030043759189919</v>
+        <v>0.1392357372768771</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>43374</v>
       </c>
       <c r="C72">
-        <v>0.1208363858977712</v>
+        <v>0.884666773448739</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1193,7 +1193,7 @@
         <v>43466</v>
       </c>
       <c r="C73">
-        <v>1.043100927670793</v>
+        <v>0.4190723296815024</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>43556</v>
       </c>
       <c r="C74">
-        <v>-0.06213215308112918</v>
+        <v>-0.07411084683056623</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43647</v>
       </c>
       <c r="C75">
-        <v>1.343655517688025</v>
+        <v>0.9300350650357725</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,7 +1220,7 @@
         <v>43739</v>
       </c>
       <c r="C76">
-        <v>-0.8031001047324238</v>
+        <v>-0.3796407584219286</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>43831</v>
       </c>
       <c r="C77">
-        <v>-1.670270859675127</v>
+        <v>-1.829043851366285</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>43922</v>
       </c>
       <c r="C78">
-        <v>-9.755823610497549</v>
+        <v>-8.767621774461942</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>44013</v>
       </c>
       <c r="C79">
-        <v>7.164156787975684</v>
+        <v>6.936911339032648</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>44105</v>
       </c>
       <c r="C80">
-        <v>4.350511133378721</v>
+        <v>3.463132814352821</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>44197</v>
       </c>
       <c r="C81">
-        <v>-0.506772219894025</v>
+        <v>-1.441327644990598</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>42826</v>
       </c>
       <c r="C82">
-        <v>1.108417942801632</v>
+        <v>3.465072509106859</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>42917</v>
       </c>
       <c r="C83">
-        <v>0.6611011611697526</v>
+        <v>0.7805535393058172</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>43009</v>
       </c>
       <c r="C84">
-        <v>1.1433560851692</v>
+        <v>0.4197560757818408</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>43101</v>
       </c>
       <c r="C85">
-        <v>0.5655309950782561</v>
+        <v>1.595276060882966</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>0.7438829283730852</v>
+        <v>0.1661291150461874</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>0.2744962029772369</v>
+        <v>0.5598520494943582</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>0.5618929460919464</v>
+        <v>0.8674465874330739</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>0.1112470630918683</v>
+        <v>-0.52749747101275</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>-0.4239866367557021</v>
+        <v>-0.3924902024097343</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>3.878530832773852</v>
+        <v>3.557065454651775</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-1.572126840583099</v>
+        <v>-1.155051733293277</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-1.491831997944082</v>
+        <v>-2.02764985836732</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-7.691489964332865</v>
+        <v>-6.922946093007864</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>7.100289059127718</v>
+        <v>5.980709880258228</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>1.073113966060668</v>
+        <v>0.4607709476527999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>5.289520041243945</v>
+        <v>5.795572411501371</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>42826</v>
       </c>
       <c r="C98">
-        <v>-0.7707674692414956</v>
+        <v>-0.4615055479079588</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>42917</v>
       </c>
       <c r="C99">
-        <v>1.464928027640022</v>
+        <v>1.321242920055354</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>43009</v>
       </c>
       <c r="C100">
-        <v>0.4641912163257933</v>
+        <v>0.4300806786804445</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>43101</v>
       </c>
       <c r="C101">
-        <v>0.6685811240796591</v>
+        <v>0.418809683466792</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>43191</v>
       </c>
       <c r="C102">
-        <v>1.226733064956087</v>
+        <v>1.05327686605825</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>43282</v>
       </c>
       <c r="C103">
-        <v>0.2167020688458088</v>
+        <v>0.2568591360621264</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>43374</v>
       </c>
       <c r="C104">
-        <v>0.07471620807524282</v>
+        <v>0.07052790216226512</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>43466</v>
       </c>
       <c r="C105">
-        <v>0.6879892612855043</v>
+        <v>1.039904776235301</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>43556</v>
       </c>
       <c r="C106">
-        <v>0.3526259260327125</v>
+        <v>0.277734106197336</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>43647</v>
       </c>
       <c r="C107">
-        <v>0.7557828520574628</v>
+        <v>0.4500902382672534</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>43739</v>
       </c>
       <c r="C108">
-        <v>0.02431097786848024</v>
+        <v>0.1162814947887059</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>43831</v>
       </c>
       <c r="C109">
-        <v>-3.19012924116262</v>
+        <v>-3.664003992085718</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>43922</v>
       </c>
       <c r="C110">
-        <v>-8.985621290936251</v>
+        <v>-9.065617031650586</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>44013</v>
       </c>
       <c r="C111">
-        <v>8.953093297296299</v>
+        <v>9.14729893123225</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>44105</v>
       </c>
       <c r="C112">
-        <v>0.1508604709099082</v>
+        <v>0.2526041324838912</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>44197</v>
       </c>
       <c r="C113">
-        <v>-1.272456954793433</v>
+        <v>0.4994476293457728</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>42826</v>
       </c>
       <c r="C114">
-        <v>0.3046842084016399</v>
+        <v>-0.5426437625037139</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>42917</v>
       </c>
       <c r="C115">
-        <v>0.991281795379706</v>
+        <v>1.232518037474906</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>43009</v>
       </c>
       <c r="C116">
-        <v>-0.29433258604461</v>
+        <v>-0.7455226719678243</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>43101</v>
       </c>
       <c r="C117">
-        <v>0.1690378489267452</v>
+        <v>0.2813965664186568</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>43191</v>
       </c>
       <c r="C118">
-        <v>0.1693695063262668</v>
+        <v>0.595498202123812</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>43282</v>
       </c>
       <c r="C119">
-        <v>1.709399730664152</v>
+        <v>1.150217697880684</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>43374</v>
       </c>
       <c r="C120">
-        <v>0.8621002790867527</v>
+        <v>1.355848473511179</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>43466</v>
       </c>
       <c r="C121">
-        <v>1.070706221276807</v>
+        <v>0.832727224569596</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>43556</v>
       </c>
       <c r="C122">
-        <v>1.922184929421977</v>
+        <v>1.017837690143986</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1649,7 +1649,7 @@
         <v>43647</v>
       </c>
       <c r="C123">
-        <v>0.2586146229793806</v>
+        <v>0.2132748711528576</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>43739</v>
       </c>
       <c r="C124">
-        <v>-2.549644327318623</v>
+        <v>-2.120055757718819</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>43831</v>
       </c>
       <c r="C125">
-        <v>-2.000795644534592</v>
+        <v>-1.996855096834582</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>43922</v>
       </c>
       <c r="C126">
-        <v>-11.3587352931819</v>
+        <v>-10.85304484198728</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>44013</v>
       </c>
       <c r="C127">
-        <v>9.247559886172452</v>
+        <v>8.012899250563876</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>44105</v>
       </c>
       <c r="C128">
-        <v>2.214658052824769</v>
+        <v>3.569336064579098</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>44197</v>
       </c>
       <c r="C129">
-        <v>3.085200888758433</v>
+        <v>2.107500548161823</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>42826</v>
       </c>
       <c r="C130">
-        <v>1.346934309078418</v>
+        <v>-0.546911919992854</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>42917</v>
       </c>
       <c r="C131">
-        <v>0.6612127089323794</v>
+        <v>0.04687566891292683</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1732,7 +1732,7 @@
         <v>43009</v>
       </c>
       <c r="C132">
-        <v>0.1142336612925288</v>
+        <v>1.253048314117033</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>43101</v>
       </c>
       <c r="C133">
-        <v>0.2831478858240866</v>
+        <v>-0.6010981152990924</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>0.3042522514051127</v>
+        <v>0.4945618049555733</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1759,7 +1759,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>0.5207105586516603</v>
+        <v>0.9287999076637021</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>0.9023136093318174</v>
+        <v>1.03676651211877</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>0.9736057938772857</v>
+        <v>-0.1988569027255305</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>2.458426687384541</v>
+        <v>2.054543243857587</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>0.01598879448161394</v>
+        <v>1.102593013802511</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>-0.1265371476035559</v>
+        <v>-1.584486375865202</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>-3.639974232236032</v>
+        <v>-3.640931089090427</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>-11.37886454838052</v>
+        <v>-10.02616729716916</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1831,7 +1831,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>7.726837120596919</v>
+        <v>6.400344568799432</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>6.232588771120628</v>
+        <v>6.932336380224036</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>1.566232628861863</v>
+        <v>0.6698813862783926</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>42826</v>
       </c>
       <c r="C146">
-        <v>0.8403727067746614</v>
+        <v>0.4341439641178724</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1869,7 +1869,7 @@
         <v>42917</v>
       </c>
       <c r="C147">
-        <v>1.303444799979503</v>
+        <v>1.018679201756312</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>43009</v>
       </c>
       <c r="C148">
-        <v>0.2971057554671974</v>
+        <v>1.105484764136833</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1887,7 +1887,7 @@
         <v>43101</v>
       </c>
       <c r="C149">
-        <v>1.396493397166632</v>
+        <v>0.7495611855583784</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>43191</v>
       </c>
       <c r="C150">
-        <v>2.980393688332517</v>
+        <v>3.310548255095358</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>43282</v>
       </c>
       <c r="C151">
-        <v>0.05907151859920745</v>
+        <v>-0.5593545046007287</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>43374</v>
       </c>
       <c r="C152">
-        <v>0.6846458819258716</v>
+        <v>0.3806215821646974</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>43466</v>
       </c>
       <c r="C153">
-        <v>0.3034341428034271</v>
+        <v>0.2952077056898039</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>43556</v>
       </c>
       <c r="C154">
-        <v>0.7134262195010344</v>
+        <v>0.7427622482030438</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>43647</v>
       </c>
       <c r="C155">
-        <v>-0.263938746047121</v>
+        <v>0.2571809354033672</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>43739</v>
       </c>
       <c r="C156">
-        <v>0.8579694698089391</v>
+        <v>0.4036674587537314</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>43831</v>
       </c>
       <c r="C157">
-        <v>-4.269255402541128</v>
+        <v>-3.451065376786411</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1968,7 +1968,7 @@
         <v>43922</v>
       </c>
       <c r="C158">
-        <v>-4.679245062284831</v>
+        <v>-5.150681451126737</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>44013</v>
       </c>
       <c r="C159">
-        <v>6.045746485750181</v>
+        <v>5.996360878845142</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>44105</v>
       </c>
       <c r="C160">
-        <v>-1.849129652294768</v>
+        <v>-2.979944217359343</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>44197</v>
       </c>
       <c r="C161">
-        <v>-0.9175867600330956</v>
+        <v>0.07443602115708714</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>42826</v>
       </c>
       <c r="C162">
-        <v>1.453455111780677</v>
+        <v>0.1714370722004643</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>42917</v>
       </c>
       <c r="C163">
-        <v>-0.3860497218548531</v>
+        <v>0.2091910554134158</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>43009</v>
       </c>
       <c r="C164">
-        <v>0.9140413599429076</v>
+        <v>1.042079936192475</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>43101</v>
       </c>
       <c r="C165">
-        <v>0.4121322444599507</v>
+        <v>-0.5868299530377485</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>43191</v>
       </c>
       <c r="C166">
-        <v>1.515046109757323</v>
+        <v>1.589395111962055</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>43282</v>
       </c>
       <c r="C167">
-        <v>-1.070087257088914</v>
+        <v>-0.5309699099122933</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.2678070987651049</v>
+        <v>0.2374073819338962</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>43466</v>
       </c>
       <c r="C169">
-        <v>1.459346775651271</v>
+        <v>1.442962778134582</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>43556</v>
       </c>
       <c r="C170">
-        <v>0.4320821322667534</v>
+        <v>0.541616233515585</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>43647</v>
       </c>
       <c r="C171">
-        <v>0.4238307883316361</v>
+        <v>-0.2576813693387026</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2096,7 +2096,7 @@
         <v>43739</v>
       </c>
       <c r="C172">
-        <v>0.6822488022186324</v>
+        <v>0.7635029056193954</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>43831</v>
       </c>
       <c r="C173">
-        <v>-2.594360912733962</v>
+        <v>-2.822282825846001</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43922</v>
       </c>
       <c r="C174">
-        <v>-5.247524717877273</v>
+        <v>-3.93637106961352</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>44013</v>
       </c>
       <c r="C175">
-        <v>5.982794305766492</v>
+        <v>4.835561666278099</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44105</v>
       </c>
       <c r="C176">
-        <v>0.1026048530194945</v>
+        <v>0.124431970388228</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44197</v>
       </c>
       <c r="C177">
-        <v>-1.260114516482214</v>
+        <v>0.1783633696417652</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>42826</v>
       </c>
       <c r="C178">
-        <v>2.121910999884657</v>
+        <v>2.202614984480955</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>42917</v>
       </c>
       <c r="C179">
-        <v>-2.208013974690104</v>
+        <v>1.058063320262193</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43009</v>
       </c>
       <c r="C180">
-        <v>3.528273280854499</v>
+        <v>-1.173609425572697</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43101</v>
       </c>
       <c r="C181">
-        <v>0.2731959562360942</v>
+        <v>3.26091000432418</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>2.006991887366483</v>
+        <v>1.951176429544521</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>1.489188512945661</v>
+        <v>-0.1617180229608439</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>-0.04380372792659459</v>
+        <v>-0.5160800245395003</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>1.467548266110219</v>
+        <v>2.182614718310782</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>0.8392959973428704</v>
+        <v>0.8960133689856598</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>0.4001046695210286</v>
+        <v>1.844281055907504</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>1.296255499338583</v>
+        <v>1.185069719035869</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-2.278128661344447</v>
+        <v>-3.189146816476285</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>-3.225733918515339</v>
+        <v>-3.148482123305596</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>3.896669180890089</v>
+        <v>3.251042380720093</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>2.884643490219596</v>
+        <v>4.061909563378774</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>-0.7393163954812709</v>
+        <v>-0.5608080049891995</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>42826</v>
       </c>
       <c r="C194">
-        <v>1.70336916038456</v>
+        <v>1.274027457852789</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>42917</v>
       </c>
       <c r="C195">
-        <v>-0.5607949535929468</v>
+        <v>-0.3906901969770504</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2316,7 +2316,7 @@
         <v>43009</v>
       </c>
       <c r="C196">
-        <v>0.663556099933027</v>
+        <v>0.780763128812878</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>43101</v>
       </c>
       <c r="C197">
-        <v>0.7136740193157687</v>
+        <v>-0.2093977725448171</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>43191</v>
       </c>
       <c r="C198">
-        <v>0.345027425258837</v>
+        <v>0.8795040933109233</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>43282</v>
       </c>
       <c r="C199">
-        <v>0.6812992747605273</v>
+        <v>0.1165298518476021</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>43374</v>
       </c>
       <c r="C200">
-        <v>-0.1257139687075193</v>
+        <v>0.1518348595639596</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>43466</v>
       </c>
       <c r="C201">
-        <v>0.5526899287842335</v>
+        <v>1.36474214241562</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>43556</v>
       </c>
       <c r="C202">
-        <v>0.1445872786762781</v>
+        <v>-0.2019875905191815</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>43647</v>
       </c>
       <c r="C203">
-        <v>0.962395612253375</v>
+        <v>0.03375599106016924</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>43739</v>
       </c>
       <c r="C204">
-        <v>-1.192427049596545</v>
+        <v>-0.4085856589926551</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>43831</v>
       </c>
       <c r="C205">
-        <v>-1.181092524270222</v>
+        <v>-0.7663895221484807</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>43922</v>
       </c>
       <c r="C206">
-        <v>-4.111437863962419</v>
+        <v>-3.865341929241195</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2415,7 +2415,7 @@
         <v>44013</v>
       </c>
       <c r="C207">
-        <v>3.760343523138743</v>
+        <v>2.750538088093291</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>44105</v>
       </c>
       <c r="C208">
-        <v>0.4392579328328816</v>
+        <v>0.5083987056119454</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>44197</v>
       </c>
       <c r="C209">
-        <v>-1.066544398058356</v>
+        <v>-0.7148552538148722</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>42826</v>
       </c>
       <c r="C210">
-        <v>-0.3782034717364491</v>
+        <v>-0.2365311422330207</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>42917</v>
       </c>
       <c r="C211">
-        <v>0.7425522798255368</v>
+        <v>0.763467766069148</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>43009</v>
       </c>
       <c r="C212">
-        <v>0.7718622388109386</v>
+        <v>0.5066101844434012</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>43101</v>
       </c>
       <c r="C213">
-        <v>0.6959866902957357</v>
+        <v>0.7589427330133791</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>43191</v>
       </c>
       <c r="C214">
-        <v>0.7604066624109063</v>
+        <v>0.8787891568352135</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>43282</v>
       </c>
       <c r="C215">
-        <v>0.2613594613894543</v>
+        <v>0.4551388427327607</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>43374</v>
       </c>
       <c r="C216">
-        <v>0.451217215734423</v>
+        <v>0.3713851432301407</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>43466</v>
       </c>
       <c r="C217">
-        <v>0.0986807668143852</v>
+        <v>-0.100536472486934</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>43556</v>
       </c>
       <c r="C218">
-        <v>-0.06057864447572836</v>
+        <v>0.01360977022641929</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2525,7 +2525,7 @@
         <v>43647</v>
       </c>
       <c r="C219">
-        <v>0.3173900037121147</v>
+        <v>0.1457660472802713</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>43739</v>
       </c>
       <c r="C220">
-        <v>0.6270967321310161</v>
+        <v>0.3217483063869597</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>43831</v>
       </c>
       <c r="C221">
-        <v>-6.352433140047542</v>
+        <v>-6.481783217887626</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>43922</v>
       </c>
       <c r="C222">
-        <v>-11.42859202780913</v>
+        <v>-10.9663090693537</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>44013</v>
       </c>
       <c r="C223">
-        <v>16.69885855311164</v>
+        <v>16.70400809257881</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>44105</v>
       </c>
       <c r="C224">
-        <v>-4.112615690494614</v>
+        <v>-3.811160459385199</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>44197</v>
       </c>
       <c r="C225">
-        <v>-3.408808619936243</v>
+        <v>-1.094985188685016</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>42826</v>
       </c>
       <c r="C226">
-        <v>0.700014725756315</v>
+        <v>0.7526577696769454</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>42917</v>
       </c>
       <c r="C227">
-        <v>0.06760533478129549</v>
+        <v>0.05461319947348553</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>43009</v>
       </c>
       <c r="C228">
-        <v>0.573155223057209</v>
+        <v>0.6798326090194928</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>43101</v>
       </c>
       <c r="C229">
-        <v>0.6334256467967592</v>
+        <v>0.6608713403446043</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>0.7544955355064609</v>
+        <v>0.89565509026579</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.9216021546809561</v>
+        <v>0.4881848532051425</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.225146502646667</v>
+        <v>0.5188141310116912</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>0.2521043727370831</v>
+        <v>0.4296763987871266</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>0.2312363807518425</v>
+        <v>-0.02569934456241318</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>-0.6104587619333635</v>
+        <v>-0.6928698097209196</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>-0.3166417460831017</v>
+        <v>0.03871065178142619</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-3.196044176987489</v>
+        <v>-3.30117971394126</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-8.190291976889629</v>
+        <v>-7.884747669723236</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>7.587577730102835</v>
+        <v>7.300327886638147</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-1.585352974015919</v>
+        <v>-1.445274966264087</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>-3.187804913139314</v>
+        <v>-1.447128858181657</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>42826</v>
       </c>
       <c r="C242">
-        <v>0.3531832508933075</v>
+        <v>1.9412619041975</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2745,7 +2745,7 @@
         <v>42917</v>
       </c>
       <c r="C243">
-        <v>-0.06169532787092535</v>
+        <v>0.5099727120970288</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>43009</v>
       </c>
       <c r="C244">
-        <v>1.012456859983502</v>
+        <v>0.7661860097117223</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>43101</v>
       </c>
       <c r="C245">
-        <v>-0.3580611302176684</v>
+        <v>0.4306607313602884</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>43191</v>
       </c>
       <c r="C246">
-        <v>2.670084113542193</v>
+        <v>2.400885273487474</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>43282</v>
       </c>
       <c r="C247">
-        <v>-0.2383707107615818</v>
+        <v>-0.6007668185545212</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>43374</v>
       </c>
       <c r="C248">
-        <v>-0.349819450814548</v>
+        <v>-0.6208157323126851</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>43466</v>
       </c>
       <c r="C249">
-        <v>0.6565702929757666</v>
+        <v>1.046235475925483</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>43556</v>
       </c>
       <c r="C250">
-        <v>-0.8274429913659676</v>
+        <v>-0.5423828478234638</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>43647</v>
       </c>
       <c r="C251">
-        <v>1.008909200923513</v>
+        <v>-0.4895024681568882</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>43739</v>
       </c>
       <c r="C252">
-        <v>-0.6882481205127688</v>
+        <v>0.7001808364801354</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2835,7 +2835,7 @@
         <v>43831</v>
       </c>
       <c r="C253">
-        <v>-3.236750964780244</v>
+        <v>-3.454967122109909</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>43922</v>
       </c>
       <c r="C254">
-        <v>-9.782167191464875</v>
+        <v>-8.966967498513911</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>44013</v>
       </c>
       <c r="C255">
-        <v>6.159703075816747</v>
+        <v>5.989058185250729</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>44105</v>
       </c>
       <c r="C256">
-        <v>1.782836503344276</v>
+        <v>-0.5518204331105836</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>44197</v>
       </c>
       <c r="C257">
-        <v>4.352095965548264</v>
+        <v>4.491338109614906</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>42826</v>
       </c>
       <c r="C258">
-        <v>0.9127722113164927</v>
+        <v>0.8802440869726924</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>42917</v>
       </c>
       <c r="C259">
-        <v>1.974783897221655</v>
+        <v>0.2764445677294392</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>43009</v>
       </c>
       <c r="C260">
-        <v>-0.3624519417265271</v>
+        <v>-0.1440160838731219</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>43101</v>
       </c>
       <c r="C261">
-        <v>0.7452632231729428</v>
+        <v>1.515950520555376</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>43191</v>
       </c>
       <c r="C262">
-        <v>2.508662693881636</v>
+        <v>2.683304802434927</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>43282</v>
       </c>
       <c r="C263">
-        <v>0.3983364033191217</v>
+        <v>0.5318103590669754</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>43374</v>
       </c>
       <c r="C264">
-        <v>0.8888847532446897</v>
+        <v>0.7111531830239493</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2945,7 +2945,7 @@
         <v>43466</v>
       </c>
       <c r="C265">
-        <v>2.298177156053272</v>
+        <v>1.066271430583199</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43556</v>
       </c>
       <c r="C266">
-        <v>1.352384183194277</v>
+        <v>1.743991469924455</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43647</v>
       </c>
       <c r="C267">
-        <v>0.004160896711602469</v>
+        <v>-0.6689583804394217</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>43739</v>
       </c>
       <c r="C268">
-        <v>1.500503714251722</v>
+        <v>2.146115866942755</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>43831</v>
       </c>
       <c r="C269">
-        <v>-3.464540519995751</v>
+        <v>-1.735443227997824</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>43922</v>
       </c>
       <c r="C270">
-        <v>-7.266019474198126</v>
+        <v>-9.227487754558251</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44013</v>
       </c>
       <c r="C271">
-        <v>7.465879004539611</v>
+        <v>8.455943898929451</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>44105</v>
       </c>
       <c r="C272">
-        <v>-1.608814439290751</v>
+        <v>-2.108343708016136</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>44197</v>
       </c>
       <c r="C273">
-        <v>2.188604083549128</v>
+        <v>3.970514849793116</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>42826</v>
       </c>
       <c r="C274">
-        <v>5.169964069566357</v>
+        <v>11.67594414521032</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>42917</v>
       </c>
       <c r="C275">
-        <v>1.775303335208145</v>
+        <v>3.261598752873573</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>43009</v>
       </c>
       <c r="C276">
-        <v>7.327471847932165</v>
+        <v>3.533373824062647</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>43101</v>
       </c>
       <c r="C277">
-        <v>-5.740371448889448</v>
+        <v>-1.070101186727457</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>0.6569993647105532</v>
+        <v>-1.734178940931119</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>2.721450889986166</v>
+        <v>4.885760831932107</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>2.758074295963597</v>
+        <v>-0.990002207528784</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>-1.873540637161741</v>
+        <v>1.130433638370532</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>0.5176034997961487</v>
+        <v>1.062966766163687</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>-2.203494637085468</v>
+        <v>-2.739647540306478</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>5.033603038207835</v>
+        <v>5.29849826314075</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-7.272275956292362</v>
+        <v>-8.666253192033635</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-7.961718297963161</v>
+        <v>-4.579281084206944</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>5.912703561997912</v>
+        <v>0.7155896260495398</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3154,7 +3154,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>3.759158904643845</v>
+        <v>4.153820415701781</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>-3.566642311882473</v>
+        <v>-1.485798547666051</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>42826</v>
       </c>
       <c r="C290">
-        <v>2.33034124195961</v>
+        <v>1.557413535836161</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>42917</v>
       </c>
       <c r="C291">
-        <v>1.291205667784645</v>
+        <v>1.827808363414252</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>43009</v>
       </c>
       <c r="C292">
-        <v>2.153156426730507</v>
+        <v>2.25950762079663</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>43101</v>
       </c>
       <c r="C293">
-        <v>1.110037085630355</v>
+        <v>0.3429788332307115</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>43191</v>
       </c>
       <c r="C294">
-        <v>1.732270769284594</v>
+        <v>1.836839527813816</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43282</v>
       </c>
       <c r="C295">
-        <v>0.9346060156337543</v>
+        <v>0.7438999121633705</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>43374</v>
       </c>
       <c r="C296">
-        <v>2.334165844243175</v>
+        <v>2.584568670785981</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>43466</v>
       </c>
       <c r="C297">
-        <v>0.8491317451632119</v>
+        <v>1.212673695695154</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>43556</v>
       </c>
       <c r="C298">
-        <v>1.203089452138073</v>
+        <v>1.254472137810336</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>43647</v>
       </c>
       <c r="C299">
-        <v>0.7883987670143533</v>
+        <v>0.2337273554613883</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3264,7 +3264,7 @@
         <v>43739</v>
       </c>
       <c r="C300">
-        <v>-0.09353774399002424</v>
+        <v>0.9236810985390864</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>43831</v>
       </c>
       <c r="C301">
-        <v>-2.019893866812505</v>
+        <v>-2.611158682521997</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>43922</v>
       </c>
       <c r="C302">
-        <v>-16.79594815235227</v>
+        <v>-17.19019062061408</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>44013</v>
       </c>
       <c r="C303">
-        <v>16.26766457365183</v>
+        <v>17.38909634158388</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>44105</v>
       </c>
       <c r="C304">
-        <v>7.739947778893153</v>
+        <v>6.82191100803875</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>44197</v>
       </c>
       <c r="C305">
-        <v>1.421010078576534</v>
+        <v>2.626705513566363</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>42826</v>
       </c>
       <c r="C306">
-        <v>2.26266436483491</v>
+        <v>2.529678170140781</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>42917</v>
       </c>
       <c r="C307">
-        <v>-0.4589983053177815</v>
+        <v>-0.06979156680040344</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>43009</v>
       </c>
       <c r="C308">
-        <v>1.515079209048831</v>
+        <v>1.32301307921332</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>43101</v>
       </c>
       <c r="C309">
-        <v>2.110500229974566</v>
+        <v>1.820336792516786</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>43191</v>
       </c>
       <c r="C310">
-        <v>2.292706955264889</v>
+        <v>1.844424932117406</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>43282</v>
       </c>
       <c r="C311">
-        <v>0.3390657916449102</v>
+        <v>0.1704023680353828</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3374,7 +3374,7 @@
         <v>43374</v>
       </c>
       <c r="C312">
-        <v>1.809260783839517</v>
+        <v>1.923709550609409</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>43466</v>
       </c>
       <c r="C313">
-        <v>0.7441404545958319</v>
+        <v>0.7601883905824947</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>43556</v>
       </c>
       <c r="C314">
-        <v>1.808141925664608</v>
+        <v>1.923282098574908</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>43647</v>
       </c>
       <c r="C315">
-        <v>-0.04277033642634542</v>
+        <v>0.1775743159509569</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>43739</v>
       </c>
       <c r="C316">
-        <v>0.248320348086728</v>
+        <v>0.3415238896705697</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>43831</v>
       </c>
       <c r="C317">
-        <v>-0.8497931429310546</v>
+        <v>-0.3079820302073433</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>43922</v>
       </c>
       <c r="C318">
-        <v>-8.496515835950191</v>
+        <v>-8.109118754960198</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3437,7 +3437,7 @@
         <v>44013</v>
       </c>
       <c r="C319">
-        <v>5.74449675677009</v>
+        <v>5.004362361974612</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>44105</v>
       </c>
       <c r="C320">
-        <v>1.629199050710839</v>
+        <v>1.888115214631947</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>44197</v>
       </c>
       <c r="C321">
-        <v>0.7670253240313674</v>
+        <v>1.830354610343954</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>42826</v>
       </c>
       <c r="C322">
-        <v>1.961070555619804</v>
+        <v>3.07541891902412</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>42917</v>
       </c>
       <c r="C323">
-        <v>-0.07626819842910804</v>
+        <v>-1.36493322871214</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>43009</v>
       </c>
       <c r="C324">
-        <v>11.36047792224844</v>
+        <v>14.87581139318528</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>43101</v>
       </c>
       <c r="C325">
-        <v>-2.904656110676096</v>
+        <v>-6.541332646198983</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>1.047164643591469</v>
+        <v>2.633175246631558</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>4.168662222313912</v>
+        <v>4.957761507068725</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>3.515585578696667</v>
+        <v>4.086346765275728</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>0.6201755093348194</v>
+        <v>-0.8509199258595723</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>2.646148760854361</v>
+        <v>2.792933479031157</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>-0.5167047698406257</v>
+        <v>0.6698303512501669</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>2.015969494867553</v>
+        <v>0.9689221581475005</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-4.620373513597786</v>
+        <v>-5.065249617417855</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3574,7 +3574,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-5.141117670029438</v>
+        <v>-3.939730248671236</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>9.027959880419889</v>
+        <v>8.535715174506819</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>3.173174454956595</v>
+        <v>2.041983714229567</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>-3.397393434748519</v>
+        <v>-3.291822412248602</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>42826</v>
       </c>
       <c r="C338">
-        <v>2.104369157292152</v>
+        <v>-0.2569116041719055</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>42917</v>
       </c>
       <c r="C339">
-        <v>1.032406632778238</v>
+        <v>0.8896088647374789</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>43009</v>
       </c>
       <c r="C340">
-        <v>1.169397978518227</v>
+        <v>1.553061483927465</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>43101</v>
       </c>
       <c r="C341">
-        <v>-0.03217915828008788</v>
+        <v>-0.06148418151202817</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>43191</v>
       </c>
       <c r="C342">
-        <v>0.7416029471678298</v>
+        <v>0.6003009770779277</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>43282</v>
       </c>
       <c r="C343">
-        <v>1.398435081781191</v>
+        <v>1.867011167845467</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>43374</v>
       </c>
       <c r="C344">
-        <v>0.9980261531159496</v>
+        <v>0.4657182121795778</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>43466</v>
       </c>
       <c r="C345">
-        <v>1.398211197464927</v>
+        <v>1.047549691344418</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3684,7 +3684,7 @@
         <v>43556</v>
       </c>
       <c r="C346">
-        <v>-0.2169722602433088</v>
+        <v>-0.1599468970327145</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3693,7 +3693,7 @@
         <v>43647</v>
       </c>
       <c r="C347">
-        <v>1.219975537281104</v>
+        <v>1.970014250444074</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>43739</v>
       </c>
       <c r="C348">
-        <v>0.5242048063039961</v>
+        <v>-0.6079501584149383</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>43831</v>
       </c>
       <c r="C349">
-        <v>-4.01002613605026</v>
+        <v>-3.23732140261862</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>43922</v>
       </c>
       <c r="C350">
-        <v>-4.402822901477855</v>
+        <v>-4.344228358185454</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>44013</v>
       </c>
       <c r="C351">
-        <v>3.415603982188142</v>
+        <v>3.927008440538593</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>44105</v>
       </c>
       <c r="C352">
-        <v>3.751209483685058</v>
+        <v>3.48907405753065</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>44197</v>
       </c>
       <c r="C353">
-        <v>-2.42805259034129</v>
+        <v>0.3983518418631871</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3758,7 +3758,7 @@
         <v>42826</v>
       </c>
       <c r="C354">
-        <v>-0.1139238175880908</v>
+        <v>0.6567036456732289</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -3767,7 +3767,7 @@
         <v>42917</v>
       </c>
       <c r="C355">
-        <v>0.6667295596843426</v>
+        <v>0.2429856115025775</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>43009</v>
       </c>
       <c r="C356">
-        <v>0.5122960128606469</v>
+        <v>0.2244576666251108</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>43101</v>
       </c>
       <c r="C357">
-        <v>-0.1957916574585328</v>
+        <v>0.4765006265391225</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3794,7 +3794,7 @@
         <v>43191</v>
       </c>
       <c r="C358">
-        <v>0.8275219298381931</v>
+        <v>0.08929949869183051</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3803,7 +3803,7 @@
         <v>43282</v>
       </c>
       <c r="C359">
-        <v>0.6999826640079254</v>
+        <v>1.062173349802897</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3812,7 +3812,7 @@
         <v>43374</v>
       </c>
       <c r="C360">
-        <v>0.3561202365962801</v>
+        <v>0.1674365295526004</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>43466</v>
       </c>
       <c r="C361">
-        <v>-0.3364438306785122</v>
+        <v>-1.07149025920833</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>43556</v>
       </c>
       <c r="C362">
-        <v>-0.4522208524593396</v>
+        <v>0.1240651747162591</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>43647</v>
       </c>
       <c r="C363">
-        <v>0.09852324758863329</v>
+        <v>-0.3608510649420693</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>43739</v>
       </c>
       <c r="C364">
-        <v>-0.1673798826755557</v>
+        <v>0.2252654310253677</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3857,7 +3857,7 @@
         <v>43831</v>
       </c>
       <c r="C365">
-        <v>-9.38929534818036</v>
+        <v>-9.062909994570301</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>43922</v>
       </c>
       <c r="C366">
-        <v>-9.361904639804841</v>
+        <v>-9.060276503393483</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>44013</v>
       </c>
       <c r="C367">
-        <v>16.39055085703232</v>
+        <v>15.92312242185647</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>44105</v>
       </c>
       <c r="C368">
-        <v>-4.682448049977883</v>
+        <v>-3.952620029175213</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3893,7 +3893,7 @@
         <v>44197</v>
       </c>
       <c r="C369">
-        <v>-1.869890813369957</v>
+        <v>0.626908579814156</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3904,7 +3904,7 @@
         <v>42826</v>
       </c>
       <c r="C370">
-        <v>-0.3876306016893594</v>
+        <v>-0.05638982811602133</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>42917</v>
       </c>
       <c r="C371">
-        <v>0.2832442797979118</v>
+        <v>0.5184077404391418</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>43009</v>
       </c>
       <c r="C372">
-        <v>0.4492258884603029</v>
+        <v>0.1362077417448981</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>43101</v>
       </c>
       <c r="C373">
-        <v>0.4403268040952035</v>
+        <v>0.9597741724163056</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>0.3504383481529816</v>
+        <v>-0.3550307091811256</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.3255993926452261</v>
+        <v>0.665109538200781</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>-0.07707398615985905</v>
+        <v>-0.1266013091826279</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3967,7 +3967,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>0.01162696825980358</v>
+        <v>0.08782773926749865</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>0.4032759973495281</v>
+        <v>0.2098252734653805</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>-0.7833721860927012</v>
+        <v>-0.9914537991077443</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.3231756879289449</v>
+        <v>0.696254999689816</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-2.001609889075384</v>
+        <v>-2.312356292370621</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-8.345570681011905</v>
+        <v>-8.167091051457708</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>6.229982794234901</v>
+        <v>6.423258484803474</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>0.799097738537724</v>
+        <v>0.6570323331342776</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>-1.453627287221282</v>
+        <v>1.030120340385943</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>42826</v>
       </c>
       <c r="C386">
-        <v>1.912310223742097</v>
+        <v>2.701046492382342</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>42917</v>
       </c>
       <c r="C387">
-        <v>1.214621763791501</v>
+        <v>0.1409805297899691</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>43009</v>
       </c>
       <c r="C388">
-        <v>0.1550562481527518</v>
+        <v>1.038935012514619</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4077,7 +4077,7 @@
         <v>43101</v>
       </c>
       <c r="C389">
-        <v>1.201865606233787</v>
+        <v>0.9399089519149362</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>43191</v>
       </c>
       <c r="C390">
-        <v>-0.1279003196901995</v>
+        <v>0.6992210985128811</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>43282</v>
       </c>
       <c r="C391">
-        <v>1.717992072276875</v>
+        <v>2.784210649699737</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C392">
-        <v>-0.4922460415040075</v>
+        <v>-1.315748676054018</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4113,7 +4113,7 @@
         <v>43466</v>
       </c>
       <c r="C393">
-        <v>0.2923586160629377</v>
+        <v>0.3439704904564023</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4122,7 +4122,7 @@
         <v>43556</v>
       </c>
       <c r="C394">
-        <v>1.186017250825433</v>
+        <v>0.02394813670427709</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>43647</v>
       </c>
       <c r="C395">
-        <v>-0.208686367155142</v>
+        <v>-0.1408767729369487</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>43739</v>
       </c>
       <c r="C396">
-        <v>1.805528453554883</v>
+        <v>2.347376929661338</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>43831</v>
       </c>
       <c r="C397">
-        <v>-0.7183068155590999</v>
+        <v>-1.270937552475515</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>43922</v>
       </c>
       <c r="C398">
-        <v>-3.175013531922022</v>
+        <v>-2.46363625285817</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>44013</v>
       </c>
       <c r="C399">
-        <v>2.492058879359083</v>
+        <v>2.173342053699323</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4176,7 +4176,7 @@
         <v>44105</v>
       </c>
       <c r="C400">
-        <v>0.489782472993161</v>
+        <v>0.6597821382185121</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>44197</v>
       </c>
       <c r="C401">
-        <v>1.073213223756042</v>
+        <v>2.611662151512228</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>42826</v>
       </c>
       <c r="C402">
-        <v>-0.5700046625283117</v>
+        <v>-2.803664955846952</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>42917</v>
       </c>
       <c r="C403">
-        <v>-0.6251002433745989</v>
+        <v>-0.02502002089532773</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>43009</v>
       </c>
       <c r="C404">
-        <v>1.725786253295292</v>
+        <v>1.337157055355576</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4223,7 +4223,7 @@
         <v>43101</v>
       </c>
       <c r="C405">
-        <v>2.207260730895722</v>
+        <v>2.284153581464987</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4232,7 +4232,7 @@
         <v>43191</v>
       </c>
       <c r="C406">
-        <v>0.2709711137010462</v>
+        <v>-0.06717437281297256</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>43282</v>
       </c>
       <c r="C407">
-        <v>1.791363712546823</v>
+        <v>0.9148770288905483</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>43374</v>
       </c>
       <c r="C408">
-        <v>-0.2511432558221061</v>
+        <v>0.5305974719468143</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>43466</v>
       </c>
       <c r="C409">
-        <v>-1.205902215786248</v>
+        <v>0.7882472616490999</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4268,7 +4268,7 @@
         <v>43556</v>
       </c>
       <c r="C410">
-        <v>3.806548101660856</v>
+        <v>1.294514354665099</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>43647</v>
       </c>
       <c r="C411">
-        <v>1.305922159544726</v>
+        <v>1.577649971088801</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4286,7 +4286,7 @@
         <v>43739</v>
       </c>
       <c r="C412">
-        <v>0.07165850196986234</v>
+        <v>0.04399574467919276</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>43831</v>
       </c>
       <c r="C413">
-        <v>-2.813418776367316</v>
+        <v>-5.471436569424992</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>43922</v>
       </c>
       <c r="C414">
-        <v>-7.633168279410851</v>
+        <v>-5.531643036004786</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>44013</v>
       </c>
       <c r="C415">
-        <v>3.419223992726317</v>
+        <v>6.581373903558307</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>44105</v>
       </c>
       <c r="C416">
-        <v>-0.4781255481392521</v>
+        <v>-4.152290488617504</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>44197</v>
       </c>
       <c r="C417">
-        <v>-2.195437568921765</v>
+        <v>1.80700385842032</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4342,7 +4342,7 @@
         <v>42826</v>
       </c>
       <c r="C418">
-        <v>-0.2262888798758467</v>
+        <v>-2.241884257073767</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4351,7 +4351,7 @@
         <v>42917</v>
       </c>
       <c r="C419">
-        <v>1.886076695444738</v>
+        <v>0.8732075453946608</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>43009</v>
       </c>
       <c r="C420">
-        <v>2.786300759363636</v>
+        <v>1.504196578287242</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>43101</v>
       </c>
       <c r="C421">
-        <v>0.4455730338618125</v>
+        <v>1.322423516097238</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>1.540496460802965</v>
+        <v>1.054875856417303</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>1.344096165628028</v>
+        <v>0.7084466631124942</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>-0.701193506105724</v>
+        <v>0.06458044053769818</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>1.541729374670764</v>
+        <v>1.956385846153474</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>0.7436534089888758</v>
+        <v>0.6798737551932499</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>0.1550332755150263</v>
+        <v>0.4284682517460947</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>0.8488963834148988</v>
+        <v>1.629294955367189</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-2.803663331871886</v>
+        <v>-4.097025797099796</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-3.560312736487414</v>
+        <v>-3.557957793002264</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>5.189278632965899</v>
+        <v>5.90123189075209</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>1.004767259816353</v>
+        <v>0.6434065289973478</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>2.571533158323946</v>
+        <v>1.902570848650842</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4488,7 +4488,7 @@
         <v>42826</v>
       </c>
       <c r="C434">
-        <v>2.892554939746117</v>
+        <v>2.867766774906899</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>42917</v>
       </c>
       <c r="C435">
-        <v>1.199396708215628</v>
+        <v>-0.3660856605875118</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>43009</v>
       </c>
       <c r="C436">
-        <v>1.24607987651626</v>
+        <v>2.645919333341262</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>43101</v>
       </c>
       <c r="C437">
-        <v>-1.138637531083997</v>
+        <v>-2.358481210283625</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>43191</v>
       </c>
       <c r="C438">
-        <v>-0.5922607743335084</v>
+        <v>0.4704400571125644</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>43282</v>
       </c>
       <c r="C439">
-        <v>0.8110725406214714</v>
+        <v>-1.284711029190655</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>43374</v>
       </c>
       <c r="C440">
-        <v>-0.273699901090052</v>
+        <v>1.624010861509628</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>43466</v>
       </c>
       <c r="C441">
-        <v>0.8050942177843856</v>
+        <v>0.8931862098203514</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4560,7 +4560,7 @@
         <v>43556</v>
       </c>
       <c r="C442">
-        <v>1.507764902531084</v>
+        <v>-0.236550142413039</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>43647</v>
       </c>
       <c r="C443">
-        <v>-0.1769279605421281</v>
+        <v>0.7561456058902349</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>43739</v>
       </c>
       <c r="C444">
-        <v>1.825044532443276</v>
+        <v>1.247942977023797</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4587,7 +4587,7 @@
         <v>43831</v>
       </c>
       <c r="C445">
-        <v>-6.206662825346731</v>
+        <v>-6.723438534866888</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>43922</v>
       </c>
       <c r="C446">
-        <v>-6.705755063011054</v>
+        <v>-5.878888454573894</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4605,7 +4605,7 @@
         <v>44013</v>
       </c>
       <c r="C447">
-        <v>9.62723292770924</v>
+        <v>9.82670014869791</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>44105</v>
       </c>
       <c r="C448">
-        <v>-1.35470259372884</v>
+        <v>-1.210628681203785</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>44197</v>
       </c>
       <c r="C449">
-        <v>-0.3161252073128118</v>
+        <v>3.650427759622277</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>42826</v>
       </c>
       <c r="C450">
-        <v>0.9500514145371675</v>
+        <v>0.8609820257416079</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>42917</v>
       </c>
       <c r="C451">
-        <v>-0.3733501281825369</v>
+        <v>-0.1600265779403198</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -4652,7 +4652,7 @@
         <v>43009</v>
       </c>
       <c r="C452">
-        <v>1.471197425191351</v>
+        <v>0.9843763744129319</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>43101</v>
       </c>
       <c r="C453">
-        <v>0.8707272045213932</v>
+        <v>0.9403981826594521</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>43191</v>
       </c>
       <c r="C454">
-        <v>-0.431231561439005</v>
+        <v>-0.3370668553608236</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>43282</v>
       </c>
       <c r="C455">
-        <v>-0.411013852274289</v>
+        <v>-0.3333305249865859</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>43374</v>
       </c>
       <c r="C456">
-        <v>1.058987406587031</v>
+        <v>1.078086085395191</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4697,7 +4697,7 @@
         <v>43466</v>
       </c>
       <c r="C457">
-        <v>0.3368118842744794</v>
+        <v>0.08514934442447331</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>43556</v>
       </c>
       <c r="C458">
-        <v>1.126117670668392</v>
+        <v>0.6520758373150359</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>43647</v>
       </c>
       <c r="C459">
-        <v>-0.6469723884415579</v>
+        <v>-0.04153406315655639</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4724,7 +4724,7 @@
         <v>43739</v>
       </c>
       <c r="C460">
-        <v>-0.8030208386132553</v>
+        <v>-1.61465439810583</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>43831</v>
       </c>
       <c r="C461">
-        <v>-2.113840744889317</v>
+        <v>-1.964297098672285</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>43922</v>
       </c>
       <c r="C462">
-        <v>-13.29264745165613</v>
+        <v>-12.91861852348153</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4751,7 +4751,7 @@
         <v>44013</v>
       </c>
       <c r="C463">
-        <v>8.142099780777357</v>
+        <v>9.219740085638417</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4760,7 +4760,7 @@
         <v>44105</v>
       </c>
       <c r="C464">
-        <v>2.936003582665281</v>
+        <v>2.34623793562343</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>44197</v>
       </c>
       <c r="C465">
-        <v>0.3704130029134722</v>
+        <v>0.6329316855661071</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>42826</v>
       </c>
       <c r="C466">
-        <v>0.2938497080225977</v>
+        <v>1.465231282609669</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>42917</v>
       </c>
       <c r="C467">
-        <v>1.699852855974271</v>
+        <v>1.995971568071009</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>43009</v>
       </c>
       <c r="C468">
-        <v>0.4024479791927771</v>
+        <v>0.05325388979524615</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4807,7 +4807,7 @@
         <v>43101</v>
       </c>
       <c r="C469">
-        <v>0.5065597518828069</v>
+        <v>0.4434695699644164</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>1.162190207850133</v>
+        <v>0.9235305087605061</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>-0.5638917027322443</v>
+        <v>0.08826780373223375</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>1.052606329043115</v>
+        <v>0.7973558015973214</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>0.5069004143871236</v>
+        <v>1.076601373728847</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>0.5607692197072245</v>
+        <v>-0.03954425745245072</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4861,7 +4861,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>0.6391736267969295</v>
+        <v>0.6931554189367972</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4870,7 +4870,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-0.04713460060518093</v>
+        <v>-0.1323769901554583</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-2.769742130103947</v>
+        <v>-2.761022586502893</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-6.21973313330515</v>
+        <v>-5.567478984108432</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>6.015814142386433</v>
+        <v>5.157073303235959</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4906,7 +4906,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>-0.2976943691647138</v>
+        <v>-0.3672435136916397</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>-1.045912789682857</v>
+        <v>-0.2208297143805993</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>42826</v>
       </c>
       <c r="C482">
-        <v>1.129287462299566</v>
+        <v>0.5731962153010972</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -4935,7 +4935,7 @@
         <v>42917</v>
       </c>
       <c r="C483">
-        <v>0.7860233465629474</v>
+        <v>1.113513889586559</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>43009</v>
       </c>
       <c r="C484">
-        <v>0.7598091096251203</v>
+        <v>0.08406772764824044</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>43101</v>
       </c>
       <c r="C485">
-        <v>0.6436150036294608</v>
+        <v>1.326233869421145</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>43191</v>
       </c>
       <c r="C486">
-        <v>1.871946219628207</v>
+        <v>0.8333780899186793</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4971,7 +4971,7 @@
         <v>43282</v>
       </c>
       <c r="C487">
-        <v>0.09043888923259136</v>
+        <v>0.5463001214796259</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4980,7 +4980,7 @@
         <v>43374</v>
       </c>
       <c r="C488">
-        <v>1.435732186030503</v>
+        <v>1.996104971243851</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>43466</v>
       </c>
       <c r="C489">
-        <v>-0.1240816079849827</v>
+        <v>-0.8491293657316379</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>43556</v>
       </c>
       <c r="C490">
-        <v>1.361383747021572</v>
+        <v>1.866504640735323</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5007,7 +5007,7 @@
         <v>43647</v>
       </c>
       <c r="C491">
-        <v>0.47938586805929</v>
+        <v>-0.2011197201615578</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>43739</v>
       </c>
       <c r="C492">
-        <v>0.295297290552532</v>
+        <v>1.008750717632956</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>43831</v>
       </c>
       <c r="C493">
-        <v>-2.89326686258119</v>
+        <v>-3.233972679595931</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5034,7 +5034,7 @@
         <v>43922</v>
       </c>
       <c r="C494">
-        <v>-7.089725304549532</v>
+        <v>-6.104108471728598</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>44013</v>
       </c>
       <c r="C495">
-        <v>9.162642543251852</v>
+        <v>8.471994550093065</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>44105</v>
       </c>
       <c r="C496">
-        <v>2.506834908318734</v>
+        <v>1.807235383314265</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>44197</v>
       </c>
       <c r="C497">
-        <v>-0.7217898670437095</v>
+        <v>0.8327713971867601</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>42826</v>
       </c>
       <c r="C498">
-        <v>-0.05075640811289528</v>
+        <v>-1.785375229328967</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5081,7 +5081,7 @@
         <v>42917</v>
       </c>
       <c r="C499">
-        <v>-0.4811491715511873</v>
+        <v>-0.538412480216266</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5090,7 +5090,7 @@
         <v>43009</v>
       </c>
       <c r="C500">
-        <v>2.246315658658493</v>
+        <v>2.549955918627811</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>43101</v>
       </c>
       <c r="C501">
-        <v>0.4508272733190655</v>
+        <v>-0.2103372398683856</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>43191</v>
       </c>
       <c r="C502">
-        <v>0.865530281375948</v>
+        <v>1.439129049988463</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>43282</v>
       </c>
       <c r="C503">
-        <v>0.05505017677907009</v>
+        <v>-0.04581522394904169</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5126,7 +5126,7 @@
         <v>43374</v>
       </c>
       <c r="C504">
-        <v>-0.3289031413920229</v>
+        <v>-0.8560479930097564</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>43466</v>
       </c>
       <c r="C505">
-        <v>0.2294206016770772</v>
+        <v>0.8818725089070778</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5144,7 +5144,7 @@
         <v>43556</v>
       </c>
       <c r="C506">
-        <v>0.9301540098238581</v>
+        <v>0.2037353980907985</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>43647</v>
       </c>
       <c r="C507">
-        <v>0.04885802237417636</v>
+        <v>0.7562353243752984</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>43739</v>
       </c>
       <c r="C508">
-        <v>0.1329456370601445</v>
+        <v>-0.2606921743799395</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>43831</v>
       </c>
       <c r="C509">
-        <v>-3.836782725985932</v>
+        <v>-3.937405988215148</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5180,7 +5180,7 @@
         <v>43922</v>
       </c>
       <c r="C510">
-        <v>-3.34091644510307</v>
+        <v>-2.589873655941877</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>44013</v>
       </c>
       <c r="C511">
-        <v>4.151623210955191</v>
+        <v>3.020682452063284</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>44105</v>
       </c>
       <c r="C512">
-        <v>1.041874471590543</v>
+        <v>1.42131869697828</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>44197</v>
       </c>
       <c r="C513">
-        <v>-1.020285232905815</v>
+        <v>0.2885647262558466</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>42826</v>
       </c>
       <c r="C514">
-        <v>0.07381718295880191</v>
+        <v>-0.06596503010850574</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -5227,7 +5227,7 @@
         <v>42917</v>
       </c>
       <c r="C515">
-        <v>1.011456571245573</v>
+        <v>0.9751782936854525</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>43009</v>
       </c>
       <c r="C516">
-        <v>2.706710022661074</v>
+        <v>2.877296494628001</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>43101</v>
       </c>
       <c r="C517">
-        <v>0.2526359354242613</v>
+        <v>0.4743419162457574</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5254,7 +5254,7 @@
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>2.291108804024766</v>
+        <v>1.491909202807129</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.1089125590298945</v>
+        <v>0.369060863989934</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>1.30457468853391</v>
+        <v>1.516431155066433</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>2.058131327126667</v>
+        <v>1.583561600065431</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5290,7 +5290,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>0.3234615432737176</v>
+        <v>0.9107754335004881</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5299,7 +5299,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>1.786690648641343</v>
+        <v>1.567736844790035</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>0.4041959780823223</v>
+        <v>0.05936484286626076</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-2.907288277085751</v>
+        <v>-2.300643402768165</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-6.561851100743521</v>
+        <v>-6.744066784848046</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5335,7 +5335,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>10.00148244197223</v>
+        <v>9.798761530033584</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>-3.617544757536251</v>
+        <v>-3.477498884258512</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5353,7 +5353,7 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>1.82224572737204</v>
+        <v>3.054133477346288</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5364,7 +5364,7 @@
         <v>42826</v>
       </c>
       <c r="C530">
-        <v>1.73779860493386</v>
+        <v>1.733666289273139</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -5373,7 +5373,7 @@
         <v>42917</v>
       </c>
       <c r="C531">
-        <v>1.174156573617169</v>
+        <v>1.12939643183454</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>43009</v>
       </c>
       <c r="C532">
-        <v>-0.2716633252278666</v>
+        <v>-0.8829217181996252</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>43101</v>
       </c>
       <c r="C533">
-        <v>0.7858148394055187</v>
+        <v>2.360584343502925</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5400,7 +5400,7 @@
         <v>43191</v>
       </c>
       <c r="C534">
-        <v>1.19584042276053</v>
+        <v>0.09266880949911904</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5409,7 +5409,7 @@
         <v>43282</v>
       </c>
       <c r="C535">
-        <v>0.04799301925664246</v>
+        <v>0.8412120093705289</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>43374</v>
       </c>
       <c r="C536">
-        <v>1.314081503075282</v>
+        <v>1.56983712300105</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>43466</v>
       </c>
       <c r="C537">
-        <v>0.5775644765824817</v>
+        <v>-0.9587958878562897</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5436,7 +5436,7 @@
         <v>43556</v>
       </c>
       <c r="C538">
-        <v>1.251788870100001</v>
+        <v>1.618180185534168</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5445,7 +5445,7 @@
         <v>43647</v>
       </c>
       <c r="C539">
-        <v>-0.05234079831821781</v>
+        <v>-0.05834185091929678</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>43739</v>
       </c>
       <c r="C540">
-        <v>-0.02326230575221411</v>
+        <v>0.3065738103859239</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5463,7 +5463,7 @@
         <v>43831</v>
       </c>
       <c r="C541">
-        <v>-4.77731044422578</v>
+        <v>-5.273697904068408</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>43922</v>
       </c>
       <c r="C542">
-        <v>-13.14857816319723</v>
+        <v>-12.21426212635933</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>44013</v>
       </c>
       <c r="C543">
-        <v>13.8634225573353</v>
+        <v>13.47932040132473</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>44105</v>
       </c>
       <c r="C544">
-        <v>0.108918818806969</v>
+        <v>-0.01863996609955398</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5499,7 +5499,7 @@
         <v>44197</v>
       </c>
       <c r="C545">
-        <v>-7.546518917946743</v>
+        <v>-3.289985846197274</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5510,7 +5510,7 @@
         <v>42826</v>
       </c>
       <c r="C546">
-        <v>0.8797273872423572</v>
+        <v>3.565356324947699</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -5519,7 +5519,7 @@
         <v>42917</v>
       </c>
       <c r="C547">
-        <v>-0.5440865858083899</v>
+        <v>-0.8542114776536769</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>43009</v>
       </c>
       <c r="C548">
-        <v>1.311953843581359</v>
+        <v>1.279106625145232</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>43101</v>
       </c>
       <c r="C549">
-        <v>1.950610519848861</v>
+        <v>1.480244257590213</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5546,7 +5546,7 @@
         <v>43191</v>
       </c>
       <c r="C550">
-        <v>1.776127182836174</v>
+        <v>1.600101332243331</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>43282</v>
       </c>
       <c r="C551">
-        <v>2.928498235784494</v>
+        <v>2.416152946864103</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>43374</v>
       </c>
       <c r="C552">
-        <v>-0.1591133115270704</v>
+        <v>0.3504688751866158</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5573,7 +5573,7 @@
         <v>43466</v>
       </c>
       <c r="C553">
-        <v>-0.002912434497415184</v>
+        <v>0.5434741168067303</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>43556</v>
       </c>
       <c r="C554">
-        <v>2.070395580596451</v>
+        <v>1.704548222050017</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>43647</v>
       </c>
       <c r="C555">
-        <v>1.18357315878117</v>
+        <v>1.124148959023041</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>43739</v>
       </c>
       <c r="C556">
-        <v>0.0004952626126986104</v>
+        <v>-0.3902117445839015</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5609,7 +5609,7 @@
         <v>43831</v>
       </c>
       <c r="C557">
-        <v>-3.532448237580377</v>
+        <v>-3.124444726498032</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5618,7 +5618,7 @@
         <v>43922</v>
       </c>
       <c r="C558">
-        <v>-8.319509213186894</v>
+        <v>-7.364889306420219</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>44013</v>
       </c>
       <c r="C559">
-        <v>7.756144335292192</v>
+        <v>7.142984133570152</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>44105</v>
       </c>
       <c r="C560">
-        <v>1.220467506769096</v>
+        <v>1.087323849253696</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>44197</v>
       </c>
       <c r="C561">
-        <v>3.232106294559012</v>
+        <v>3.911249542370809</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5656,7 +5656,7 @@
         <v>42826</v>
       </c>
       <c r="C562">
-        <v>0.02041432255437403</v>
+        <v>-0.3175823726779603</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>42917</v>
       </c>
       <c r="C563">
-        <v>0.7218863146967402</v>
+        <v>0.01356053389609535</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>43009</v>
       </c>
       <c r="C564">
-        <v>0.4175624907387432</v>
+        <v>-0.4533204925423528</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5683,7 +5683,7 @@
         <v>43101</v>
       </c>
       <c r="C565">
-        <v>-0.3857335566045061</v>
+        <v>-0.2061056150618912</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>43191</v>
       </c>
       <c r="C566">
-        <v>0.6310928927060644</v>
+        <v>0.998539072804272</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>43282</v>
       </c>
       <c r="C567">
-        <v>0.6010683820573126</v>
+        <v>1.207644083652437</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>43374</v>
       </c>
       <c r="C568">
-        <v>0.1095119203568418</v>
+        <v>0.2505373801132027</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5719,7 +5719,7 @@
         <v>43466</v>
       </c>
       <c r="C569">
-        <v>1.090995327511868</v>
+        <v>1.300359789725736</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5728,7 +5728,7 @@
         <v>43556</v>
       </c>
       <c r="C570">
-        <v>0.9560541423111912</v>
+        <v>0.564021567541495</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>43647</v>
       </c>
       <c r="C571">
-        <v>0.2375290386080975</v>
+        <v>0.4065863808903947</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>43739</v>
       </c>
       <c r="C572">
-        <v>-0.9541236362784034</v>
+        <v>-1.218878108038346</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>43831</v>
       </c>
       <c r="C573">
-        <v>-2.84038889235767</v>
+        <v>-2.672398443982149</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>43922</v>
       </c>
       <c r="C574">
-        <v>-5.288944023832465</v>
+        <v>-5.127677796802965</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>44013</v>
       </c>
       <c r="C575">
-        <v>5.713960548894437</v>
+        <v>4.573372292550304</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>44105</v>
       </c>
       <c r="C576">
-        <v>-0.3317683969691454</v>
+        <v>0.6863431247397633</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5791,7 +5791,7 @@
         <v>44197</v>
       </c>
       <c r="C577">
-        <v>3.431757479870079</v>
+        <v>3.16160605238236</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5802,7 +5802,7 @@
         <v>42826</v>
       </c>
       <c r="C578">
-        <v>-0.01868680252058441</v>
+        <v>1.841161319868823</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>42917</v>
       </c>
       <c r="C579">
-        <v>0.609951140783771</v>
+        <v>0.4730606894869149</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>43009</v>
       </c>
       <c r="C580">
-        <v>0.0406124794835927</v>
+        <v>-1.333813510791682</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5829,7 +5829,7 @@
         <v>43101</v>
       </c>
       <c r="C581">
-        <v>0.4677195927805355</v>
+        <v>2.085844366805589</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>43191</v>
       </c>
       <c r="C582">
-        <v>1.896138209985088</v>
+        <v>1.279328958378079</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>43282</v>
       </c>
       <c r="C583">
-        <v>0.5761669292174476</v>
+        <v>-0.005825237200529632</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>43374</v>
       </c>
       <c r="C584">
-        <v>0.217496496946934</v>
+        <v>0.9030070736722795</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5865,7 +5865,7 @@
         <v>43466</v>
       </c>
       <c r="C585">
-        <v>0.4043842988523005</v>
+        <v>0.2635347644052599</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>43556</v>
       </c>
       <c r="C586">
-        <v>2.645741291903581</v>
+        <v>2.273725427269135</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>43647</v>
       </c>
       <c r="C587">
-        <v>-0.3239935147906103</v>
+        <v>-0.9478596577077725</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5892,7 +5892,7 @@
         <v>43739</v>
       </c>
       <c r="C588">
-        <v>0.5066690137815799</v>
+        <v>1.499736141409169</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5901,7 +5901,7 @@
         <v>43831</v>
       </c>
       <c r="C589">
-        <v>-4.985604259012277</v>
+        <v>-4.761910167129557</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>43922</v>
       </c>
       <c r="C590">
-        <v>-8.348126890606123</v>
+        <v>-6.961501439560513</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>44013</v>
       </c>
       <c r="C591">
-        <v>9.203462259073913</v>
+        <v>9.355038234633684</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5928,7 +5928,7 @@
         <v>44105</v>
       </c>
       <c r="C592">
-        <v>0.5748505697430462</v>
+        <v>-0.4596907163683994</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>44197</v>
       </c>
       <c r="C593">
-        <v>-7.460281511409105</v>
+        <v>-6.81827097433374</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>42826</v>
       </c>
       <c r="C594">
-        <v>2.552987158800257</v>
+        <v>2.921555675877641</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>42917</v>
       </c>
       <c r="C595">
-        <v>0.1126818321347978</v>
+        <v>0.7278036506666696</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>43009</v>
       </c>
       <c r="C596">
-        <v>1.703098192643293</v>
+        <v>0.1373415925039811</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>43101</v>
       </c>
       <c r="C597">
-        <v>0.971139713848479</v>
+        <v>4.325367154389803</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5984,7 +5984,7 @@
         <v>43191</v>
       </c>
       <c r="C598">
-        <v>0.6400530865452669</v>
+        <v>-2.492250087480485</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>43282</v>
       </c>
       <c r="C599">
-        <v>1.574725282017364</v>
+        <v>3.836930611247436</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6002,7 +6002,7 @@
         <v>43374</v>
       </c>
       <c r="C600">
-        <v>1.305759426504838</v>
+        <v>1.3822836572843</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>43466</v>
       </c>
       <c r="C601">
-        <v>1.119314792888226</v>
+        <v>-1.03874453790459</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>43556</v>
       </c>
       <c r="C602">
-        <v>1.187357730041061</v>
+        <v>2.005960873842461</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>43647</v>
       </c>
       <c r="C603">
-        <v>0.2329278153907266</v>
+        <v>-1.166464934035838</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>43739</v>
       </c>
       <c r="C604">
-        <v>2.060068982379581</v>
+        <v>2.764943813435083</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>43831</v>
       </c>
       <c r="C605">
-        <v>-5.029840173169409</v>
+        <v>-4.202841668955637</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>43922</v>
       </c>
       <c r="C606">
-        <v>-7.736351470699054</v>
+        <v>-6.243096491868371</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>44013</v>
       </c>
       <c r="C607">
-        <v>10.35034570176496</v>
+        <v>9.709077472480331</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6074,7 +6074,7 @@
         <v>44105</v>
       </c>
       <c r="C608">
-        <v>-4.126427095782647</v>
+        <v>-4.513099275315035</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6083,7 +6083,7 @@
         <v>44197</v>
       </c>
       <c r="C609">
-        <v>-2.417404807167378</v>
+        <v>0.1770325138048978</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6094,7 +6094,7 @@
         <v>42826</v>
       </c>
       <c r="C610">
-        <v>0.359936772574132</v>
+        <v>1.209800233512381</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>42917</v>
       </c>
       <c r="C611">
-        <v>0.1528527290045822</v>
+        <v>0.3498363469408572</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -6112,7 +6112,7 @@
         <v>43009</v>
       </c>
       <c r="C612">
-        <v>1.001919464546508</v>
+        <v>0.3475745256407592</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>43101</v>
       </c>
       <c r="C613">
-        <v>-0.9819568066492201</v>
+        <v>-0.4818992369150954</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>43191</v>
       </c>
       <c r="C614">
-        <v>1.228390720761152</v>
+        <v>1.450282486909371</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>43282</v>
       </c>
       <c r="C615">
-        <v>-0.1283564967181183</v>
+        <v>-0.2938546318642321</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6148,7 +6148,7 @@
         <v>43374</v>
       </c>
       <c r="C616">
-        <v>0.9453245404980715</v>
+        <v>1.112272508798906</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6157,7 +6157,7 @@
         <v>43466</v>
       </c>
       <c r="C617">
-        <v>-0.6922502997483204</v>
+        <v>-1.110954778694717</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6166,7 +6166,7 @@
         <v>43556</v>
       </c>
       <c r="C618">
-        <v>0.0399948241378123</v>
+        <v>-0.5584334529473267</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>43647</v>
       </c>
       <c r="C619">
-        <v>-0.2065229574084393</v>
+        <v>0.2361152886084739</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6184,7 +6184,7 @@
         <v>43739</v>
       </c>
       <c r="C620">
-        <v>0.790654364354304</v>
+        <v>0.7000730585960291</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6193,7 +6193,7 @@
         <v>43831</v>
       </c>
       <c r="C621">
-        <v>-4.37040249170193</v>
+        <v>-4.643827027379166</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6202,7 +6202,7 @@
         <v>43922</v>
       </c>
       <c r="C622">
-        <v>-13.79595076510999</v>
+        <v>-13.31275797928132</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6211,7 +6211,7 @@
         <v>44013</v>
       </c>
       <c r="C623">
-        <v>11.88682232602103</v>
+        <v>12.22447676560874</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>44105</v>
       </c>
       <c r="C624">
-        <v>3.354039903014483</v>
+        <v>2.602575549557673</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>44197</v>
       </c>
       <c r="C625">
-        <v>-0.02560376844557011</v>
+        <v>1.035701291209978</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>42826</v>
       </c>
       <c r="C626">
-        <v>0.9448306373718518</v>
+        <v>1.97832904580697</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>42917</v>
       </c>
       <c r="C627">
-        <v>0.4052893241863531</v>
+        <v>0.4638115266601295</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -6258,7 +6258,7 @@
         <v>43009</v>
       </c>
       <c r="C628">
-        <v>0.09090633973178885</v>
+        <v>0.2404861665522784</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6267,7 +6267,7 @@
         <v>43101</v>
       </c>
       <c r="C629">
-        <v>1.124522838015074</v>
+        <v>0.710854501541669</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>43191</v>
       </c>
       <c r="C630">
-        <v>0.399097076817867</v>
+        <v>0.8151279394305488</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>43282</v>
       </c>
       <c r="C631">
-        <v>0.7126094374308112</v>
+        <v>0.4679582826971895</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6294,7 +6294,7 @@
         <v>43374</v>
       </c>
       <c r="C632">
-        <v>0.5276787115927162</v>
+        <v>0.4032256327640926</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6303,7 +6303,7 @@
         <v>43466</v>
       </c>
       <c r="C633">
-        <v>0.1557613125868107</v>
+        <v>0.4197843238748167</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>43556</v>
       </c>
       <c r="C634">
-        <v>1.128503206066722</v>
+        <v>0.8384605638952491</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>43647</v>
       </c>
       <c r="C635">
-        <v>0.1739443794295248</v>
+        <v>-0.2465443674765977</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>43739</v>
       </c>
       <c r="C636">
-        <v>0.7583611814045543</v>
+        <v>0.7948586784030987</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>43831</v>
       </c>
       <c r="C637">
-        <v>-6.805620282456637</v>
+        <v>-6.90900213628659</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>43922</v>
       </c>
       <c r="C638">
-        <v>-15.46788088614536</v>
+        <v>-14.87547441911448</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6357,7 +6357,7 @@
         <v>44013</v>
       </c>
       <c r="C639">
-        <v>15.97737323220103</v>
+        <v>15.86609143818876</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>44105</v>
       </c>
       <c r="C640">
-        <v>-0.01934177203036791</v>
+        <v>0.3940285529662635</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>44197</v>
       </c>
       <c r="C641">
-        <v>-3.281740845624515</v>
+        <v>0.06262888371184605</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>42826</v>
       </c>
       <c r="C642">
-        <v>-0.2964111553210858</v>
+        <v>-0.9311955492843582</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>42917</v>
       </c>
       <c r="C643">
-        <v>1.05391169304434</v>
+        <v>0.8473678623055703</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -6404,7 +6404,7 @@
         <v>43009</v>
       </c>
       <c r="C644">
-        <v>0.547898648456524</v>
+        <v>-0.03687318443794663</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6413,7 +6413,7 @@
         <v>43101</v>
       </c>
       <c r="C645">
-        <v>0.2815866414737078</v>
+        <v>0.4053542059968995</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>43191</v>
       </c>
       <c r="C646">
-        <v>1.325814480895171</v>
+        <v>1.366487505987335</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>43282</v>
       </c>
       <c r="C647">
-        <v>-0.4844973928523566</v>
+        <v>0.8571273906483157</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>43374</v>
       </c>
       <c r="C648">
-        <v>0.5611283666689948</v>
+        <v>-0.09818376676444807</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>43466</v>
       </c>
       <c r="C649">
-        <v>0.4722068644165134</v>
+        <v>0.4440113314668537</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6458,7 +6458,7 @@
         <v>43556</v>
       </c>
       <c r="C650">
-        <v>1.540859328896427</v>
+        <v>0.2344576124632791</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6467,7 +6467,7 @@
         <v>43647</v>
       </c>
       <c r="C651">
-        <v>-0.7421251051765276</v>
+        <v>-0.09026039709587597</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6476,7 +6476,7 @@
         <v>43739</v>
       </c>
       <c r="C652">
-        <v>0.9591442943032158</v>
+        <v>0.5489170494225259</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>43831</v>
       </c>
       <c r="C653">
-        <v>-1.979071748037853</v>
+        <v>-2.361486113193378</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>43922</v>
       </c>
       <c r="C654">
-        <v>-7.071968526576667</v>
+        <v>-6.723533559445283</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6503,7 +6503,7 @@
         <v>44013</v>
       </c>
       <c r="C655">
-        <v>4.794845805645065</v>
+        <v>5.738803739040277</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6512,7 +6512,7 @@
         <v>44105</v>
       </c>
       <c r="C656">
-        <v>1.175207382358789</v>
+        <v>0.7226467381247881</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>44197</v>
       </c>
       <c r="C657">
-        <v>1.533754116522967</v>
+        <v>1.010170586735781</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6532,7 +6532,7 @@
         <v>42826</v>
       </c>
       <c r="C658">
-        <v>0.6643798617104846</v>
+        <v>0.1362289489015955</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>42917</v>
       </c>
       <c r="C659">
-        <v>0.2351712080415735</v>
+        <v>0.718773748085666</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>43009</v>
       </c>
       <c r="C660">
-        <v>0.8024242303465545</v>
+        <v>0.3915238779717001</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>43101</v>
       </c>
       <c r="C661">
-        <v>-0.1714210942982186</v>
+        <v>0.1930984107998412</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6568,7 +6568,7 @@
         <v>43191</v>
       </c>
       <c r="C662">
-        <v>0.5677747982494097</v>
+        <v>-0.394278148959093</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6577,7 +6577,7 @@
         <v>43282</v>
       </c>
       <c r="C663">
-        <v>-0.04539654309382302</v>
+        <v>0.3203280379995954</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6586,7 +6586,7 @@
         <v>43374</v>
       </c>
       <c r="C664">
-        <v>1.010074764076885</v>
+        <v>1.121487147685651</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>43466</v>
       </c>
       <c r="C665">
-        <v>0.942428380388094</v>
+        <v>1.249818286085635</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>43556</v>
       </c>
       <c r="C666">
-        <v>0.9824137636983421</v>
+        <v>1.443673164232395</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>43647</v>
       </c>
       <c r="C667">
-        <v>-0.1751476876811431</v>
+        <v>-0.8977882881772925</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>43739</v>
       </c>
       <c r="C668">
-        <v>0.2600665737093388</v>
+        <v>0.3712911150317799</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>43831</v>
       </c>
       <c r="C669">
-        <v>-5.059930347896902</v>
+        <v>-5.261483424857428</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>43922</v>
       </c>
       <c r="C670">
-        <v>-5.6718603744212</v>
+        <v>-5.359885965637046</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>44013</v>
       </c>
       <c r="C671">
-        <v>8.092335257868367</v>
+        <v>8.658127470836408</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>44105</v>
       </c>
       <c r="C672">
-        <v>-1.008249894661761</v>
+        <v>-0.8544388289567939</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>44197</v>
       </c>
       <c r="C673">
-        <v>-0.4403985976424107</v>
+        <v>1.044556281307885</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6678,7 +6678,7 @@
         <v>42826</v>
       </c>
       <c r="C674">
-        <v>2.778740822367043</v>
+        <v>2.984609016964157</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>42917</v>
       </c>
       <c r="C675">
-        <v>-1.029881448313785</v>
+        <v>-1.019066377214861</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>43009</v>
       </c>
       <c r="C676">
-        <v>4.730516684679054</v>
+        <v>4.56090935925566</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>43101</v>
       </c>
       <c r="C677">
-        <v>0.8141485255892311</v>
+        <v>0.9669775501267353</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>43191</v>
       </c>
       <c r="C678">
-        <v>1.890118581991085</v>
+        <v>1.822871304417428</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6723,7 +6723,7 @@
         <v>43282</v>
       </c>
       <c r="C679">
-        <v>-1.139338770960907</v>
+        <v>-1.045648771065388</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>43374</v>
       </c>
       <c r="C680">
-        <v>-0.2838664744158836</v>
+        <v>-0.9938073708109507</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>43466</v>
       </c>
       <c r="C681">
-        <v>2.112284333879777</v>
+        <v>1.330294113285113</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>43556</v>
       </c>
       <c r="C682">
-        <v>1.263536322007375</v>
+        <v>2.319913548266617</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C683">
-        <v>0.2861278062469941</v>
+        <v>-0.8705895194666469</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>43739</v>
       </c>
       <c r="C684">
-        <v>-1.06493906222016</v>
+        <v>-0.3564607035778433</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6777,7 +6777,7 @@
         <v>43831</v>
       </c>
       <c r="C685">
-        <v>-0.7793874764369546</v>
+        <v>-0.9450649115977927</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>43922</v>
       </c>
       <c r="C686">
-        <v>-9.736400808143685</v>
+        <v>-7.849523782521317</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>44013</v>
       </c>
       <c r="C687">
-        <v>12.0340823278029</v>
+        <v>11.05137771641782</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>44105</v>
       </c>
       <c r="C688">
-        <v>-0.2303077552720634</v>
+        <v>1.73964393463979</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>44197</v>
       </c>
       <c r="C689">
-        <v>-2.901614867797997</v>
+        <v>-2.54400668222704</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>42826</v>
       </c>
       <c r="C690">
-        <v>0.2814784381218738</v>
+        <v>0.2981732735316323</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -6833,7 +6833,7 @@
         <v>42917</v>
       </c>
       <c r="C691">
-        <v>0.5250497423262113</v>
+        <v>0.4546303061078394</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -6842,7 +6842,7 @@
         <v>43009</v>
       </c>
       <c r="C692">
-        <v>0.5548391902607586</v>
+        <v>0.4969475748979768</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>43101</v>
       </c>
       <c r="C693">
-        <v>0.5833372638570866</v>
+        <v>0.5519746519306423</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6860,7 +6860,7 @@
         <v>43191</v>
       </c>
       <c r="C694">
-        <v>0.8784891631011149</v>
+        <v>0.9079347146044858</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>43282</v>
       </c>
       <c r="C695">
-        <v>-0.4880003038539638</v>
+        <v>-0.2866950674944135</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>43374</v>
       </c>
       <c r="C696">
-        <v>0.2244853063184893</v>
+        <v>0.05336663615134185</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6887,7 +6887,7 @@
         <v>43466</v>
       </c>
       <c r="C697">
-        <v>-0.009850045082082648</v>
+        <v>-0.02125795386658247</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>43556</v>
       </c>
       <c r="C698">
-        <v>0.4271987921499631</v>
+        <v>0.3697325557797226</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>43647</v>
       </c>
       <c r="C699">
-        <v>0.419666203029001</v>
+        <v>0.5131752804577117</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>43739</v>
       </c>
       <c r="C700">
-        <v>-0.2161436567231778</v>
+        <v>-0.2666786699248913</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>43831</v>
       </c>
       <c r="C701">
-        <v>-3.877644007408965</v>
+        <v>-3.842126735424556</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6932,7 +6932,7 @@
         <v>43922</v>
       </c>
       <c r="C702">
-        <v>-14.79210412577538</v>
+        <v>-14.6406137224479</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6941,7 +6941,7 @@
         <v>44013</v>
       </c>
       <c r="C703">
-        <v>14.21283497671295</v>
+        <v>13.9739642555561</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>44105</v>
       </c>
       <c r="C704">
-        <v>-0.2562861085712909</v>
+        <v>-0.1610236872273019</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6959,7 +6959,7 @@
         <v>44197</v>
       </c>
       <c r="C705">
-        <v>-4.146246237019424</v>
+        <v>-2.111348444495709</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6970,7 +6970,7 @@
         <v>42826</v>
       </c>
       <c r="C706">
-        <v>0.3904757220172028</v>
+        <v>0.2383155952975446</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>42917</v>
       </c>
       <c r="C707">
-        <v>0.6487798206868955</v>
+        <v>0.90310426420106</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>43009</v>
       </c>
       <c r="C708">
-        <v>0.9131607102983441</v>
+        <v>0.8474123846934356</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>43101</v>
       </c>
       <c r="C709">
-        <v>0.3315218185448332</v>
+        <v>0.5255395679638175</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>43191</v>
       </c>
       <c r="C710">
-        <v>0.4373265002810767</v>
+        <v>0.03415403090576419</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>43282</v>
       </c>
       <c r="C711">
-        <v>0.2383446461268202</v>
+        <v>0.2723955131449518</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>43374</v>
       </c>
       <c r="C712">
-        <v>0.424662350474736</v>
+        <v>0.4513174624502625</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>43466</v>
       </c>
       <c r="C713">
-        <v>1.349337143627571</v>
+        <v>1.243687748592182</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>43556</v>
       </c>
       <c r="C714">
-        <v>0.6712372986776183</v>
+        <v>0.7613836167256194</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7051,7 +7051,7 @@
         <v>43647</v>
       </c>
       <c r="C715">
-        <v>1.069516298676199</v>
+        <v>1.072686352176389</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>43739</v>
       </c>
       <c r="C716">
-        <v>0.09716043542409292</v>
+        <v>0.05569192966170533</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7069,7 +7069,7 @@
         <v>43831</v>
       </c>
       <c r="C717">
-        <v>-2.467827285785107</v>
+        <v>-2.142163143533315</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>43922</v>
       </c>
       <c r="C718">
-        <v>-7.454969268516032</v>
+        <v>-7.535200599501801</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>44013</v>
       </c>
       <c r="C719">
-        <v>6.087056880072428</v>
+        <v>5.977359691972794</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7096,7 +7096,7 @@
         <v>44105</v>
       </c>
       <c r="C720">
-        <v>2.08569613458558</v>
+        <v>2.245834561325166</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>44197</v>
       </c>
       <c r="C721">
-        <v>-0.6202767126079478</v>
+        <v>1.01678507755385</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>42826</v>
       </c>
       <c r="C2">
-        <v>-1.208805195083862</v>
+        <v>-0.5036107928475531</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>42917</v>
       </c>
       <c r="C3">
-        <v>0.4126930784897453</v>
+        <v>0.6821173430198613</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>43009</v>
       </c>
       <c r="C4">
-        <v>0.5624673680281411</v>
+        <v>-0.7005623640262471</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43101</v>
       </c>
       <c r="C5">
-        <v>0.7737567148312863</v>
+        <v>1.524503981498859</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>43191</v>
       </c>
       <c r="C6">
-        <v>-2.31850654446073</v>
+        <v>-2.10198051228393</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>43282</v>
       </c>
       <c r="C7">
-        <v>-0.9042357104590448</v>
+        <v>-1.00736195827017</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>43374</v>
       </c>
       <c r="C8">
-        <v>0.9204544439876283</v>
+        <v>0.2701406720119426</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +609,7 @@
         <v>43466</v>
       </c>
       <c r="C9">
-        <v>0.205455867391402</v>
+        <v>1.031854608957228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>43556</v>
       </c>
       <c r="C10">
-        <v>-3.439849812425577</v>
+        <v>-3.820349230981679</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>43647</v>
       </c>
       <c r="C11">
-        <v>1.340261585443336</v>
+        <v>1.742390931933646</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -636,7 +636,7 @@
         <v>43739</v>
       </c>
       <c r="C12">
-        <v>-1.108386148206497</v>
+        <v>-1.005322271394093</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +645,7 @@
         <v>43831</v>
       </c>
       <c r="C13">
-        <v>-4.794797557576958</v>
+        <v>-3.293442224954468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>43922</v>
       </c>
       <c r="C14">
-        <v>-14.60770747968132</v>
+        <v>-17.09648216946359</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -663,7 +663,7 @@
         <v>44013</v>
       </c>
       <c r="C15">
-        <v>8.242967593657413</v>
+        <v>9.528195076040058</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -672,7 +672,7 @@
         <v>44105</v>
       </c>
       <c r="C16">
-        <v>3.174833202689831</v>
+        <v>4.127210534530801</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>44197</v>
       </c>
       <c r="C17">
-        <v>2.932925459598601</v>
+        <v>2.827837668885347</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>42826</v>
       </c>
       <c r="C18">
-        <v>-0.2082086172015662</v>
+        <v>-0.5863138564310755</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -701,7 +701,7 @@
         <v>42917</v>
       </c>
       <c r="C19">
-        <v>0.4213679385991265</v>
+        <v>0.7775757089777624</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -710,7 +710,7 @@
         <v>43009</v>
       </c>
       <c r="C20">
-        <v>1.092662035983394</v>
+        <v>1.113869395679878</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +719,7 @@
         <v>43101</v>
       </c>
       <c r="C21">
-        <v>0.6151336746860192</v>
+        <v>0.08870282777941885</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -728,7 +728,7 @@
         <v>43191</v>
       </c>
       <c r="C22">
-        <v>0.6163803050553529</v>
+        <v>1.02946832786095</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -737,7 +737,7 @@
         <v>43282</v>
       </c>
       <c r="C23">
-        <v>0.999529238611796</v>
+        <v>0.4265468457115507</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +746,7 @@
         <v>43374</v>
       </c>
       <c r="C24">
-        <v>5.066976609402474E-05</v>
+        <v>0.04051079463502916</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -755,7 +755,7 @@
         <v>43466</v>
       </c>
       <c r="C25">
-        <v>0.6738602773633806</v>
+        <v>0.9213447197015556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -764,7 +764,7 @@
         <v>43556</v>
       </c>
       <c r="C26">
-        <v>0.6703947966702151</v>
+        <v>0.8846095964863965</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>43647</v>
       </c>
       <c r="C27">
-        <v>0.2216329648027093</v>
+        <v>0.2216819046934493</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43739</v>
       </c>
       <c r="C28">
-        <v>-0.1903592186974778</v>
+        <v>0.1600308104551029</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -791,7 +791,7 @@
         <v>43831</v>
       </c>
       <c r="C29">
-        <v>-3.122084729961339</v>
+        <v>-2.249309076394812</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>43922</v>
       </c>
       <c r="C30">
-        <v>-4.932684835960577</v>
+        <v>-7.242017127747902</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>44013</v>
       </c>
       <c r="C31">
-        <v>4.555447683078784</v>
+        <v>5.795061192616635</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -818,7 +818,7 @@
         <v>44105</v>
       </c>
       <c r="C32">
-        <v>4.341059945201398</v>
+        <v>3.779531808196102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -827,7 +827,7 @@
         <v>44197</v>
       </c>
       <c r="C33">
-        <v>3.486149793107218</v>
+        <v>5.264433524119849</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -838,7 +838,7 @@
         <v>42826</v>
       </c>
       <c r="C34">
-        <v>0.6701121363100748</v>
+        <v>-1.948277956591027</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -847,7 +847,7 @@
         <v>42917</v>
       </c>
       <c r="C35">
-        <v>0.6481056615441183</v>
+        <v>1.061945839043665</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -856,7 +856,7 @@
         <v>43009</v>
       </c>
       <c r="C36">
-        <v>1.043376954331876</v>
+        <v>1.622699393626514</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -865,7 +865,7 @@
         <v>43101</v>
       </c>
       <c r="C37">
-        <v>0.7044629829145332</v>
+        <v>-0.3889331342539659</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -874,7 +874,7 @@
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>0.2955675719457318</v>
+        <v>1.347977615678086</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -883,7 +883,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>-0.2323213126266488</v>
+        <v>-0.4803592834691672</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>0.6130248052999887</v>
+        <v>0.5582452168983787</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -901,7 +901,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.723244099934029</v>
+        <v>1.697424504157286</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -910,7 +910,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>0.01183474780017679</v>
+        <v>0.08132380819412255</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -919,7 +919,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>-0.6520745445961262</v>
+        <v>-0.7266686268926459</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -928,7 +928,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>1.076703935356393</v>
+        <v>1.033989726284701</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -937,7 +937,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-4.507994839300644</v>
+        <v>-3.268895917424264</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -946,7 +946,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-9.230631490594533</v>
+        <v>-10.63447726249699</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +955,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>9.692484292655612</v>
+        <v>10.27363253646989</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -964,7 +964,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-2.571592573501513</v>
+        <v>-3.549023494059422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -973,7 +973,7 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>-1.462654959891452</v>
+        <v>1.22024092912012</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -984,7 +984,7 @@
         <v>42826</v>
       </c>
       <c r="C50">
-        <v>1.066713538338337</v>
+        <v>0.3730241833177717</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -993,7 +993,7 @@
         <v>42917</v>
       </c>
       <c r="C51">
-        <v>1.43702760721125</v>
+        <v>0.740537965510546</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43009</v>
       </c>
       <c r="C52">
-        <v>0.1713513847674708</v>
+        <v>0.4936257925437726</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>43101</v>
       </c>
       <c r="C53">
-        <v>0.1246609724094183</v>
+        <v>0.408627948726914</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>43191</v>
       </c>
       <c r="C54">
-        <v>1.027101334576619</v>
+        <v>0.4080277345742234</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>43282</v>
       </c>
       <c r="C55">
-        <v>-0.9820877276345397</v>
+        <v>-0.4993300709269066</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>43374</v>
       </c>
       <c r="C56">
-        <v>0.1907267885793429</v>
+        <v>0.7042329802738667</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43466</v>
       </c>
       <c r="C57">
-        <v>0.6966024547920391</v>
+        <v>0.1071714493169118</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>43556</v>
       </c>
       <c r="C58">
-        <v>0.2179647810492069</v>
+        <v>0.7885536763788892</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>43647</v>
       </c>
       <c r="C59">
-        <v>0.7170646607305597</v>
+        <v>0.3680328865528271</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>43739</v>
       </c>
       <c r="C60">
-        <v>0.7479349192638374</v>
+        <v>0.8550719540409979</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>43831</v>
       </c>
       <c r="C61">
-        <v>-5.001030106263959</v>
+        <v>-3.681574812489552</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>43922</v>
       </c>
       <c r="C62">
-        <v>-8.774598786324017</v>
+        <v>-12.58043777012169</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>44013</v>
       </c>
       <c r="C63">
-        <v>10.67045631440475</v>
+        <v>13.00240715580436</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>44105</v>
       </c>
       <c r="C64">
-        <v>-1.818759631261224</v>
+        <v>-1.165380159017382</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>44197</v>
       </c>
       <c r="C65">
-        <v>-0.1632727506298615</v>
+        <v>0.7467839041550572</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>42826</v>
       </c>
       <c r="C66">
-        <v>0.6377343330715268</v>
+        <v>0.04671935513964609</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42917</v>
       </c>
       <c r="C67">
-        <v>-0.8318139826164916</v>
+        <v>-0.5657301319286101</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>43009</v>
       </c>
       <c r="C68">
-        <v>0.3330730749433908</v>
+        <v>0.1414393624922461</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>43101</v>
       </c>
       <c r="C69">
-        <v>1.118314033147816</v>
+        <v>1.131965450310135</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>43191</v>
       </c>
       <c r="C70">
-        <v>0.05853070904098256</v>
+        <v>0.4868264988274085</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>43282</v>
       </c>
       <c r="C71">
-        <v>0.1392357372768771</v>
+        <v>0.06447019399669074</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>43374</v>
       </c>
       <c r="C72">
-        <v>0.884666773448739</v>
+        <v>0.6542440303358488</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1193,7 +1193,7 @@
         <v>43466</v>
       </c>
       <c r="C73">
-        <v>0.4190723296815024</v>
+        <v>0.5432299766719106</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>43556</v>
       </c>
       <c r="C74">
-        <v>-0.07411084683056623</v>
+        <v>-0.07744616388979386</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43647</v>
       </c>
       <c r="C75">
-        <v>0.9300350650357725</v>
+        <v>1.159641696029445</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,7 +1220,7 @@
         <v>43739</v>
       </c>
       <c r="C76">
-        <v>-0.3796407584219286</v>
+        <v>-0.4340805043942075</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>43831</v>
       </c>
       <c r="C77">
-        <v>-1.829043851366285</v>
+        <v>-1.068734222696399</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>43922</v>
       </c>
       <c r="C78">
-        <v>-8.767621774461942</v>
+        <v>-10.23250764754204</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>44013</v>
       </c>
       <c r="C79">
-        <v>6.936911339032648</v>
+        <v>6.851098697780933</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>44105</v>
       </c>
       <c r="C80">
-        <v>3.463132814352821</v>
+        <v>4.218508355968176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>44197</v>
       </c>
       <c r="C81">
-        <v>-1.441327644990598</v>
+        <v>-0.4442882934808101</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>42826</v>
       </c>
       <c r="C82">
-        <v>3.465072509106859</v>
+        <v>1.863107055616164</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>42917</v>
       </c>
       <c r="C83">
-        <v>0.7805535393058172</v>
+        <v>0.2286599777363341</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>43009</v>
       </c>
       <c r="C84">
-        <v>0.4197560757818408</v>
+        <v>2.43127430408896</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>43101</v>
       </c>
       <c r="C85">
-        <v>1.595276060882966</v>
+        <v>-0.3620640330473268</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>0.1661291150461874</v>
+        <v>0.5650271294623588</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>0.5598520494943582</v>
+        <v>1.010290855889484</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>0.8674465874330739</v>
+        <v>-0.775514734160343</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>-0.52749747101275</v>
+        <v>0.5349982575623358</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>-0.3924902024097343</v>
+        <v>1.012918194298784</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>3.557065454651775</v>
+        <v>2.549880641862368</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-1.155051733293277</v>
+        <v>-1.026175810577534</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-2.02764985836732</v>
+        <v>-0.686033390748042</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-6.922946093007864</v>
+        <v>-10.87491822989725</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>5.980709880258228</v>
+        <v>9.249790590880957</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>0.4607709476527999</v>
+        <v>0.313334210078553</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>5.795572411501371</v>
+        <v>6.644552593284225</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>42826</v>
       </c>
       <c r="C98">
-        <v>-0.4615055479079588</v>
+        <v>-0.8290049678997269</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>42917</v>
       </c>
       <c r="C99">
-        <v>1.321242920055354</v>
+        <v>1.623072067514575</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>43009</v>
       </c>
       <c r="C100">
-        <v>0.4300806786804445</v>
+        <v>0.1199640942388891</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>43101</v>
       </c>
       <c r="C101">
-        <v>0.418809683466792</v>
+        <v>0.918854208008324</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>43191</v>
       </c>
       <c r="C102">
-        <v>1.05327686605825</v>
+        <v>1.11524650074859</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>43282</v>
       </c>
       <c r="C103">
-        <v>0.2568591360621264</v>
+        <v>0.2160094561720838</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>43374</v>
       </c>
       <c r="C104">
-        <v>0.07052790216226512</v>
+        <v>-0.1230529126345026</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>43466</v>
       </c>
       <c r="C105">
-        <v>1.039904776235301</v>
+        <v>0.8101397828522927</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>43556</v>
       </c>
       <c r="C106">
-        <v>0.277734106197336</v>
+        <v>0.4097459678501725</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>43647</v>
       </c>
       <c r="C107">
-        <v>0.4500902382672534</v>
+        <v>0.592992825158678</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>43739</v>
       </c>
       <c r="C108">
-        <v>0.1162814947887059</v>
+        <v>0.06922587318933804</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>43831</v>
       </c>
       <c r="C109">
-        <v>-3.664003992085718</v>
+        <v>-2.407882343503331</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>43922</v>
       </c>
       <c r="C110">
-        <v>-9.065617031650586</v>
+        <v>-11.00266568490466</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>44013</v>
       </c>
       <c r="C111">
-        <v>9.14729893123225</v>
+        <v>9.880059797938801</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>44105</v>
       </c>
       <c r="C112">
-        <v>0.2526041324838912</v>
+        <v>0.5729007052813984</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>44197</v>
       </c>
       <c r="C113">
-        <v>0.4994476293457728</v>
+        <v>1.788300274309385</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>42826</v>
       </c>
       <c r="C114">
-        <v>-0.5426437625037139</v>
+        <v>-0.3984500738074437</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>42917</v>
       </c>
       <c r="C115">
-        <v>1.232518037474906</v>
+        <v>0.6889561474285655</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>43009</v>
       </c>
       <c r="C116">
-        <v>-0.7455226719678243</v>
+        <v>-0.1833142940970367</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>43101</v>
       </c>
       <c r="C117">
-        <v>0.2813965664186568</v>
+        <v>0.07549886529532035</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>43191</v>
       </c>
       <c r="C118">
-        <v>0.595498202123812</v>
+        <v>0.08546344331537004</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>43282</v>
       </c>
       <c r="C119">
-        <v>1.150217697880684</v>
+        <v>1.440507159749194</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>43374</v>
       </c>
       <c r="C120">
-        <v>1.355848473511179</v>
+        <v>1.08942191251975</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>43466</v>
       </c>
       <c r="C121">
-        <v>0.832727224569596</v>
+        <v>1.099651191603579</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>43556</v>
       </c>
       <c r="C122">
-        <v>1.017837690143986</v>
+        <v>1.462009518947882</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1649,7 +1649,7 @@
         <v>43647</v>
       </c>
       <c r="C123">
-        <v>0.2132748711528576</v>
+        <v>0.1738393352433976</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>43739</v>
       </c>
       <c r="C124">
-        <v>-2.120055757718819</v>
+        <v>-1.758303099495218</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>43831</v>
       </c>
       <c r="C125">
-        <v>-1.996855096834582</v>
+        <v>-1.18814714045915</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>43922</v>
       </c>
       <c r="C126">
-        <v>-10.85304484198728</v>
+        <v>-12.80047139712181</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>44013</v>
       </c>
       <c r="C127">
-        <v>8.012899250563876</v>
+        <v>8.611998942791965</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>44105</v>
       </c>
       <c r="C128">
-        <v>3.569336064579098</v>
+        <v>2.950196261192772</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>44197</v>
       </c>
       <c r="C129">
-        <v>2.107500548161823</v>
+        <v>3.627669651577303</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>42826</v>
       </c>
       <c r="C130">
-        <v>-0.546911919992854</v>
+        <v>0.4123944085688835</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>42917</v>
       </c>
       <c r="C131">
-        <v>0.04687566891292683</v>
+        <v>0.5563896425546888</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1732,7 +1732,7 @@
         <v>43009</v>
       </c>
       <c r="C132">
-        <v>1.253048314117033</v>
+        <v>0.7994411736399698</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>43101</v>
       </c>
       <c r="C133">
-        <v>-0.6010981152990924</v>
+        <v>-0.09165129027280949</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>0.4945618049555733</v>
+        <v>-0.0004448168335779989</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1759,7 +1759,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>0.9287999076637021</v>
+        <v>1.137773220698368</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>1.03676651211877</v>
+        <v>0.2379412298919137</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>-0.1988569027255305</v>
+        <v>1.143964400580777</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>2.054543243857587</v>
+        <v>1.732265280251744</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>1.102593013802511</v>
+        <v>0.5798913119924531</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>-1.584486375865202</v>
+        <v>-1.638856803245858</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>-3.640931089090427</v>
+        <v>-1.684408492910505</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>-10.02616729716916</v>
+        <v>-13.05955087270317</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1831,7 +1831,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>6.400344568799432</v>
+        <v>8.238932590041003</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>6.932336380224036</v>
+        <v>7.168921035703901</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>0.6698813862783926</v>
+        <v>1.440956029759644</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>42826</v>
       </c>
       <c r="C146">
-        <v>0.4341439641178724</v>
+        <v>-0.2495924826385387</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1869,7 +1869,7 @@
         <v>42917</v>
       </c>
       <c r="C147">
-        <v>1.018679201756312</v>
+        <v>1.514624056443803</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>43009</v>
       </c>
       <c r="C148">
-        <v>1.105484764136833</v>
+        <v>0.2195002364337117</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1887,7 +1887,7 @@
         <v>43101</v>
       </c>
       <c r="C149">
-        <v>0.7495611855583784</v>
+        <v>1.96044204699628</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>43191</v>
       </c>
       <c r="C150">
-        <v>3.310548255095358</v>
+        <v>2.714739093623053</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>43282</v>
       </c>
       <c r="C151">
-        <v>-0.5593545046007287</v>
+        <v>-0.3913508959642487</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>43374</v>
       </c>
       <c r="C152">
-        <v>0.3806215821646974</v>
+        <v>0.7577731943522625</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>43466</v>
       </c>
       <c r="C153">
-        <v>0.2952077056898039</v>
+        <v>-0.1744052023721743</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>43556</v>
       </c>
       <c r="C154">
-        <v>0.7427622482030438</v>
+        <v>1.734705094929634</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>43647</v>
       </c>
       <c r="C155">
-        <v>0.2571809354033672</v>
+        <v>-0.4367372683258153</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>43739</v>
       </c>
       <c r="C156">
-        <v>0.4036674587537314</v>
+        <v>0.4186696710507309</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>43831</v>
       </c>
       <c r="C157">
-        <v>-3.451065376786411</v>
+        <v>-1.913065832870298</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1968,7 +1968,7 @@
         <v>43922</v>
       </c>
       <c r="C158">
-        <v>-5.150681451126737</v>
+        <v>-8.116435229979091</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>44013</v>
       </c>
       <c r="C159">
-        <v>5.996360878845142</v>
+        <v>7.82963396898535</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>44105</v>
       </c>
       <c r="C160">
-        <v>-2.979944217359343</v>
+        <v>-2.118430540011873</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>44197</v>
       </c>
       <c r="C161">
-        <v>0.07443602115708714</v>
+        <v>-0.3017007008536243</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>42826</v>
       </c>
       <c r="C162">
-        <v>0.1714370722004643</v>
+        <v>0.2048558265957734</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>42917</v>
       </c>
       <c r="C163">
-        <v>0.2091910554134158</v>
+        <v>0.01351717750830428</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>43009</v>
       </c>
       <c r="C164">
-        <v>1.042079936192475</v>
+        <v>0.2031948561595609</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>43101</v>
       </c>
       <c r="C165">
-        <v>-0.5868299530377485</v>
+        <v>0.6519423336530439</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>43191</v>
       </c>
       <c r="C166">
-        <v>1.589395111962055</v>
+        <v>0.900420614617703</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>43282</v>
       </c>
       <c r="C167">
-        <v>-0.5309699099122933</v>
+        <v>-0.2233031711261657</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.2374073819338962</v>
+        <v>0.660316657223281</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>43466</v>
       </c>
       <c r="C169">
-        <v>1.442962778134582</v>
+        <v>0.2342741308761553</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>43556</v>
       </c>
       <c r="C170">
-        <v>0.541616233515585</v>
+        <v>1.645141676400375</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>43647</v>
       </c>
       <c r="C171">
-        <v>-0.2576813693387026</v>
+        <v>-1.007917974532069</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2096,7 +2096,7 @@
         <v>43739</v>
       </c>
       <c r="C172">
-        <v>0.7635029056193954</v>
+        <v>0.8875208680116708</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>43831</v>
       </c>
       <c r="C173">
-        <v>-2.822282825846001</v>
+        <v>-1.216520811106836</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43922</v>
       </c>
       <c r="C174">
-        <v>-3.93637106961352</v>
+        <v>-6.711204902887968</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>44013</v>
       </c>
       <c r="C175">
-        <v>4.835561666278099</v>
+        <v>7.484011391607415</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44105</v>
       </c>
       <c r="C176">
-        <v>0.124431970388228</v>
+        <v>-0.6144065088974249</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44197</v>
       </c>
       <c r="C177">
-        <v>0.1783633696417652</v>
+        <v>-0.2221071518631268</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>42826</v>
       </c>
       <c r="C178">
-        <v>2.202614984480955</v>
+        <v>2.587469164654022</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>42917</v>
       </c>
       <c r="C179">
-        <v>1.058063320262193</v>
+        <v>1.887381591616766</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43009</v>
       </c>
       <c r="C180">
-        <v>-1.173609425572697</v>
+        <v>-0.3387795617888156</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43101</v>
       </c>
       <c r="C181">
-        <v>3.26091000432418</v>
+        <v>1.133893236727479</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>1.951176429544521</v>
+        <v>2.488201324822326</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>-0.1617180229608439</v>
+        <v>1.611523549577742</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>-0.5160800245395003</v>
+        <v>-1.50080581065497</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>2.182614718310782</v>
+        <v>2.42109305547662</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>0.8960133689856598</v>
+        <v>0.04754012474958991</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>1.844281055907504</v>
+        <v>1.397943006691493</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>1.185069719035869</v>
+        <v>0.5705876366378648</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-3.189146816476285</v>
+        <v>-2.330014038886519</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>-3.148482123305596</v>
+        <v>-2.133539820173835</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>3.251042380720093</v>
+        <v>2.456298698603865</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>4.061909563378774</v>
+        <v>4.04593463823939</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>-0.5608080049891995</v>
+        <v>0.03455257443130133</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>42826</v>
       </c>
       <c r="C194">
-        <v>1.274027457852789</v>
+        <v>2.042113571107729</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>42917</v>
       </c>
       <c r="C195">
-        <v>-0.3906901969770504</v>
+        <v>-0.5000088260792901</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2316,7 +2316,7 @@
         <v>43009</v>
       </c>
       <c r="C196">
-        <v>0.780763128812878</v>
+        <v>0.7263504024947798</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>43101</v>
       </c>
       <c r="C197">
-        <v>-0.2093977725448171</v>
+        <v>0.3378095982143448</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>43191</v>
       </c>
       <c r="C198">
-        <v>0.8795040933109233</v>
+        <v>0.03649099091622698</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>43282</v>
       </c>
       <c r="C199">
-        <v>0.1165298518476021</v>
+        <v>0.3625661536901248</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>43374</v>
       </c>
       <c r="C200">
-        <v>0.1518348595639596</v>
+        <v>0.673908070940521</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>43466</v>
       </c>
       <c r="C201">
-        <v>1.36474214241562</v>
+        <v>0.448359365440143</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>43556</v>
       </c>
       <c r="C202">
-        <v>-0.2019875905191815</v>
+        <v>0.2108667214065552</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>43647</v>
       </c>
       <c r="C203">
-        <v>0.03375599106016924</v>
+        <v>0.07862529888444936</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>43739</v>
       </c>
       <c r="C204">
-        <v>-0.4085856589926551</v>
+        <v>-0.1956838069534172</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>43831</v>
       </c>
       <c r="C205">
-        <v>-0.7663895221484807</v>
+        <v>-0.4385017187955698</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>43922</v>
       </c>
       <c r="C206">
-        <v>-3.865341929241195</v>
+        <v>-5.360769410902977</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2415,7 +2415,7 @@
         <v>44013</v>
       </c>
       <c r="C207">
-        <v>2.750538088093291</v>
+        <v>4.901812540989225</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>44105</v>
       </c>
       <c r="C208">
-        <v>0.5083987056119454</v>
+        <v>-1.59477713160241</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>44197</v>
       </c>
       <c r="C209">
-        <v>-0.7148552538148722</v>
+        <v>0.5128611373973024</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>42826</v>
       </c>
       <c r="C210">
-        <v>-0.2365311422330207</v>
+        <v>-0.5002347095463544</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>42917</v>
       </c>
       <c r="C211">
-        <v>0.763467766069148</v>
+        <v>0.5158776483723315</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>43009</v>
       </c>
       <c r="C212">
-        <v>0.5066101844434012</v>
+        <v>0.7935532505729537</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>43101</v>
       </c>
       <c r="C213">
-        <v>0.7589427330133791</v>
+        <v>0.5667167925346606</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>43191</v>
       </c>
       <c r="C214">
-        <v>0.8787891568352135</v>
+        <v>1.022519037715552</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>43282</v>
       </c>
       <c r="C215">
-        <v>0.4551388427327607</v>
+        <v>0.590660746721472</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>43374</v>
       </c>
       <c r="C216">
-        <v>0.3713851432301407</v>
+        <v>0.1987030313366223</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>43466</v>
       </c>
       <c r="C217">
-        <v>-0.100536472486934</v>
+        <v>-0.07395060918249374</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>43556</v>
       </c>
       <c r="C218">
-        <v>0.01360977022641929</v>
+        <v>-0.2863082320927024</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2525,7 +2525,7 @@
         <v>43647</v>
       </c>
       <c r="C219">
-        <v>0.1457660472802713</v>
+        <v>0.2458223506265789</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>43739</v>
       </c>
       <c r="C220">
-        <v>0.3217483063869597</v>
+        <v>0.5031183103763937</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>43831</v>
       </c>
       <c r="C221">
-        <v>-6.481783217887626</v>
+        <v>-4.06225637208486</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>43922</v>
       </c>
       <c r="C222">
-        <v>-10.9663090693537</v>
+        <v>-14.81559638987225</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>44013</v>
       </c>
       <c r="C223">
-        <v>16.70400809257881</v>
+        <v>19.16690161924146</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>44105</v>
       </c>
       <c r="C224">
-        <v>-3.811160459385199</v>
+        <v>-3.884196108845839</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>44197</v>
       </c>
       <c r="C225">
-        <v>-1.094985188685016</v>
+        <v>-0.2840192167653743</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>42826</v>
       </c>
       <c r="C226">
-        <v>0.7526577696769454</v>
+        <v>-0.01438936248504552</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>42917</v>
       </c>
       <c r="C227">
-        <v>0.05461319947348553</v>
+        <v>0.1770628130799423</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>43009</v>
       </c>
       <c r="C228">
-        <v>0.6798326090194928</v>
+        <v>0.7629471086458839</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>43101</v>
       </c>
       <c r="C229">
-        <v>0.6608713403446043</v>
+        <v>0.407936163867717</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>0.89565509026579</v>
+        <v>1.154543773955718</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.4881848532051425</v>
+        <v>0.4855263746997851</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.5188141310116912</v>
+        <v>0.3930234048136194</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>0.4296763987871266</v>
+        <v>0.4945994290063593</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>-0.02569934456241318</v>
+        <v>0.1033209499019083</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>-0.6928698097209196</v>
+        <v>-0.731120717932765</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>0.03871065178142619</v>
+        <v>-0.1842023532366621</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-3.30117971394126</v>
+        <v>-1.956455166458293</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-7.884747669723236</v>
+        <v>-10.35834003999154</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>7.300327886638147</v>
+        <v>9.007803444554185</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-1.445274966264087</v>
+        <v>-1.829659779229742</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>-1.447128858181657</v>
+        <v>-0.09063172833865263</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>42826</v>
       </c>
       <c r="C242">
-        <v>1.9412619041975</v>
+        <v>2.243756100149419</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2745,7 +2745,7 @@
         <v>42917</v>
       </c>
       <c r="C243">
-        <v>0.5099727120970288</v>
+        <v>-0.1705294208339536</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>43009</v>
       </c>
       <c r="C244">
-        <v>0.7661860097117223</v>
+        <v>1.231283782851711</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>43101</v>
       </c>
       <c r="C245">
-        <v>0.4306607313602884</v>
+        <v>0.2500071382349311</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>43191</v>
       </c>
       <c r="C246">
-        <v>2.400885273487474</v>
+        <v>3.245579854917802</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>43282</v>
       </c>
       <c r="C247">
-        <v>-0.6007668185545212</v>
+        <v>-0.4608769703606019</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>43374</v>
       </c>
       <c r="C248">
-        <v>-0.6208157323126851</v>
+        <v>-0.3023874607279042</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>43466</v>
       </c>
       <c r="C249">
-        <v>1.046235475925483</v>
+        <v>-0.6881349695251227</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>43556</v>
       </c>
       <c r="C250">
-        <v>-0.5423828478234638</v>
+        <v>-0.4942754752818135</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>43647</v>
       </c>
       <c r="C251">
-        <v>-0.4895024681568882</v>
+        <v>0.6182735119532268</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>43739</v>
       </c>
       <c r="C252">
-        <v>0.7001808364801354</v>
+        <v>-0.104673029467639</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2835,7 +2835,7 @@
         <v>43831</v>
       </c>
       <c r="C253">
-        <v>-3.454967122109909</v>
+        <v>-2.197065424055689</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>43922</v>
       </c>
       <c r="C254">
-        <v>-8.966967498513911</v>
+        <v>-10.01559833266893</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>44013</v>
       </c>
       <c r="C255">
-        <v>5.989058185250729</v>
+        <v>5.155537427333301</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>44105</v>
       </c>
       <c r="C256">
-        <v>-0.5518204331105836</v>
+        <v>0.8959463566644787</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>44197</v>
       </c>
       <c r="C257">
-        <v>4.491338109614906</v>
+        <v>5.916000133499422</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>42826</v>
       </c>
       <c r="C258">
-        <v>0.8802440869726924</v>
+        <v>0.09045086716370498</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>42917</v>
       </c>
       <c r="C259">
-        <v>0.2764445677294392</v>
+        <v>0.4922853338401589</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>43009</v>
       </c>
       <c r="C260">
-        <v>-0.1440160838731219</v>
+        <v>1.320302455348488</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>43101</v>
       </c>
       <c r="C261">
-        <v>1.515950520555376</v>
+        <v>0.977941517403691</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>43191</v>
       </c>
       <c r="C262">
-        <v>2.683304802434927</v>
+        <v>1.579401502010636</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>43282</v>
       </c>
       <c r="C263">
-        <v>0.5318103590669754</v>
+        <v>0.8598829663073904</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>43374</v>
       </c>
       <c r="C264">
-        <v>0.7111531830239493</v>
+        <v>0.7743989172902754</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2945,7 +2945,7 @@
         <v>43466</v>
       </c>
       <c r="C265">
-        <v>1.066271430583199</v>
+        <v>1.930026206759905</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43556</v>
       </c>
       <c r="C266">
-        <v>1.743991469924455</v>
+        <v>1.04413487692403</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43647</v>
       </c>
       <c r="C267">
-        <v>-0.6689583804394217</v>
+        <v>0.5316998203282131</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>43739</v>
       </c>
       <c r="C268">
-        <v>2.146115866942755</v>
+        <v>0.4259402203114382</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>43831</v>
       </c>
       <c r="C269">
-        <v>-1.735443227997824</v>
+        <v>-1.066456541570848</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>43922</v>
       </c>
       <c r="C270">
-        <v>-9.227487754558251</v>
+        <v>-9.375472976994637</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44013</v>
       </c>
       <c r="C271">
-        <v>8.455943898929451</v>
+        <v>7.540785219049218</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>44105</v>
       </c>
       <c r="C272">
-        <v>-2.108343708016136</v>
+        <v>-0.8679011353577515</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>44197</v>
       </c>
       <c r="C273">
-        <v>3.970514849793116</v>
+        <v>4.628642218535095</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>42826</v>
       </c>
       <c r="C274">
-        <v>11.67594414521032</v>
+        <v>9.234952829736764</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>42917</v>
       </c>
       <c r="C275">
-        <v>3.261598752873573</v>
+        <v>2.430832347059386</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>43009</v>
       </c>
       <c r="C276">
-        <v>3.533373824062647</v>
+        <v>5.766945519606748</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>43101</v>
       </c>
       <c r="C277">
-        <v>-1.070101186727457</v>
+        <v>-8.894216902807983</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>-1.734178940931119</v>
+        <v>4.961509338747572</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>4.885760831932107</v>
+        <v>-1.412354861580711</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>-0.990002207528784</v>
+        <v>1.381472252976224</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>1.130433638370532</v>
+        <v>2.035839116802918</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>1.062966766163687</v>
+        <v>-4.119954567873174</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>-2.739647540306478</v>
+        <v>2.513227175873256</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>5.29849826314075</v>
+        <v>2.86243293248436</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-8.666253192033635</v>
+        <v>-3.873464728213605</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-4.579281084206944</v>
+        <v>-7.172932029030643</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>0.7155896260495398</v>
+        <v>3.558866377319148</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3154,7 +3154,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>4.153820415701781</v>
+        <v>1.440854659085433</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>-1.485798547666051</v>
+        <v>1.587799785098598</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>42826</v>
       </c>
       <c r="C290">
-        <v>1.557413535836161</v>
+        <v>1.666333304723588</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>42917</v>
       </c>
       <c r="C291">
-        <v>1.827808363414252</v>
+        <v>1.910310904244783</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>43009</v>
       </c>
       <c r="C292">
-        <v>2.25950762079663</v>
+        <v>2.111542431042701</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>43101</v>
       </c>
       <c r="C293">
-        <v>0.3429788332307115</v>
+        <v>0.5441946138001308</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>43191</v>
       </c>
       <c r="C294">
-        <v>1.836839527813816</v>
+        <v>1.780325398961558</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43282</v>
       </c>
       <c r="C295">
-        <v>0.7438999121633705</v>
+        <v>0.7298139509009705</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>43374</v>
       </c>
       <c r="C296">
-        <v>2.584568670785981</v>
+        <v>2.541431232257363</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>43466</v>
       </c>
       <c r="C297">
-        <v>1.212673695695154</v>
+        <v>1.332419749380298</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>43556</v>
       </c>
       <c r="C298">
-        <v>1.254472137810336</v>
+        <v>1.356593695299435</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>43647</v>
       </c>
       <c r="C299">
-        <v>0.2337273554613883</v>
+        <v>0.0416664541203815</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3264,7 +3264,7 @@
         <v>43739</v>
       </c>
       <c r="C300">
-        <v>0.9236810985390864</v>
+        <v>1.145607586300468</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>43831</v>
       </c>
       <c r="C301">
-        <v>-2.611158682521997</v>
+        <v>-0.2219798547216212</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>43922</v>
       </c>
       <c r="C302">
-        <v>-17.19019062061408</v>
+        <v>-20.26369494370624</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>44013</v>
       </c>
       <c r="C303">
-        <v>17.38909634158388</v>
+        <v>17.5577507323045</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>44105</v>
       </c>
       <c r="C304">
-        <v>6.82191100803875</v>
+        <v>7.695237645138442</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>44197</v>
       </c>
       <c r="C305">
-        <v>2.626705513566363</v>
+        <v>3.7675015848885</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>42826</v>
       </c>
       <c r="C306">
-        <v>2.529678170140781</v>
+        <v>3.474860917104872</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>42917</v>
       </c>
       <c r="C307">
-        <v>-0.06979156680040344</v>
+        <v>0.03532225115518983</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>43009</v>
       </c>
       <c r="C308">
-        <v>1.32301307921332</v>
+        <v>1.219264098178052</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>43101</v>
       </c>
       <c r="C309">
-        <v>1.820336792516786</v>
+        <v>1.539736440448225</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>43191</v>
       </c>
       <c r="C310">
-        <v>1.844424932117406</v>
+        <v>2.018399765445511</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>43282</v>
       </c>
       <c r="C311">
-        <v>0.1704023680353828</v>
+        <v>0.2727410457028956</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3374,7 +3374,7 @@
         <v>43374</v>
       </c>
       <c r="C312">
-        <v>1.923709550609409</v>
+        <v>1.946682357289453</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>43466</v>
       </c>
       <c r="C313">
-        <v>0.7601883905824947</v>
+        <v>0.6108168913129042</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>43556</v>
       </c>
       <c r="C314">
-        <v>1.923282098574908</v>
+        <v>1.584727485629833</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>43647</v>
       </c>
       <c r="C315">
-        <v>0.1775743159509569</v>
+        <v>0.375824921291712</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>43739</v>
       </c>
       <c r="C316">
-        <v>0.3415238896705697</v>
+        <v>0.559142678497504</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>43831</v>
       </c>
       <c r="C317">
-        <v>-0.3079820302073433</v>
+        <v>0.3169468257980146</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>43922</v>
       </c>
       <c r="C318">
-        <v>-8.109118754960198</v>
+        <v>-8.430835975617612</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3437,7 +3437,7 @@
         <v>44013</v>
       </c>
       <c r="C319">
-        <v>5.004362361974612</v>
+        <v>4.575378847929024</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>44105</v>
       </c>
       <c r="C320">
-        <v>1.888115214631947</v>
+        <v>1.896029599651894</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>44197</v>
       </c>
       <c r="C321">
-        <v>1.830354610343954</v>
+        <v>2.914488788198688</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3466,7 +3466,7 @@
         <v>42826</v>
       </c>
       <c r="C322">
-        <v>3.07541891902412</v>
+        <v>3.167797304535047</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>42917</v>
       </c>
       <c r="C323">
-        <v>-1.36493322871214</v>
+        <v>-0.6112738360724457</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>43009</v>
       </c>
       <c r="C324">
-        <v>14.87581139318528</v>
+        <v>14.2126460779944</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>43101</v>
       </c>
       <c r="C325">
-        <v>-6.541332646198983</v>
+        <v>-5.775869974938197</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>2.633175246631558</v>
+        <v>2.212749167236283</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>4.957761507068725</v>
+        <v>4.009861904810186</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>4.086346765275728</v>
+        <v>4.854128528910473</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>-0.8509199258595723</v>
+        <v>-0.925678726382384</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>2.792933479031157</v>
+        <v>2.688813482677621</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>0.6698303512501669</v>
+        <v>0.5276808692743051</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>0.9689221581475005</v>
+        <v>1.299791095997604</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-5.065249617417855</v>
+        <v>-2.997433573662711</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3574,7 +3574,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-3.939730248671236</v>
+        <v>-8.454554968650696</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>8.535715174506819</v>
+        <v>11.08551558273902</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>2.041983714229567</v>
+        <v>2.390327252144497</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>-3.291822412248602</v>
+        <v>-1.916776381668595</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>42826</v>
       </c>
       <c r="C338">
-        <v>-0.2569116041719055</v>
+        <v>1.753141352423215</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>42917</v>
       </c>
       <c r="C339">
-        <v>0.8896088647374789</v>
+        <v>1.16018085664551</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>43009</v>
       </c>
       <c r="C340">
-        <v>1.553061483927465</v>
+        <v>0.5323427295897964</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>43101</v>
       </c>
       <c r="C341">
-        <v>-0.06148418151202817</v>
+        <v>0.2878794559256326</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>43191</v>
       </c>
       <c r="C342">
-        <v>0.6003009770779277</v>
+        <v>0.8550258381339049</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>43282</v>
       </c>
       <c r="C343">
-        <v>1.867011167845467</v>
+        <v>1.293267956779842</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>43374</v>
       </c>
       <c r="C344">
-        <v>0.4657182121795778</v>
+        <v>0.6855889594834963</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>43466</v>
       </c>
       <c r="C345">
-        <v>1.047549691344418</v>
+        <v>2.00673864495573</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3684,7 +3684,7 @@
         <v>43556</v>
       </c>
       <c r="C346">
-        <v>-0.1599468970327145</v>
+        <v>-0.0524500066049427</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3693,7 +3693,7 @@
         <v>43647</v>
       </c>
       <c r="C347">
-        <v>1.970014250444074</v>
+        <v>0.9525584867755121</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>43739</v>
       </c>
       <c r="C348">
-        <v>-0.6079501584149383</v>
+        <v>-0.2298947957909081</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>43831</v>
       </c>
       <c r="C349">
-        <v>-3.23732140261862</v>
+        <v>-1.594344526361657</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>43922</v>
       </c>
       <c r="C350">
-        <v>-4.344228358185454</v>
+        <v>-7.564501533237811</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>44013</v>
       </c>
       <c r="C351">
-        <v>3.927008440538593</v>
+        <v>5.496926582854744</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>44105</v>
       </c>
       <c r="C352">
-        <v>3.48907405753065</v>
+        <v>3.031958308719562</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>44197</v>
       </c>
       <c r="C353">
-        <v>0.3983518418631871</v>
+        <v>2.387536181886629</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3758,7 +3758,7 @@
         <v>42826</v>
       </c>
       <c r="C354">
-        <v>0.6567036456732289</v>
+        <v>0.1371352577636431</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -3767,7 +3767,7 @@
         <v>42917</v>
       </c>
       <c r="C355">
-        <v>0.2429856115025775</v>
+        <v>0.1991283982928138</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>43009</v>
       </c>
       <c r="C356">
-        <v>0.2244576666251108</v>
+        <v>0.2495147160755939</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>43101</v>
       </c>
       <c r="C357">
-        <v>0.4765006265391225</v>
+        <v>0.3898871867139331</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3794,7 +3794,7 @@
         <v>43191</v>
       </c>
       <c r="C358">
-        <v>0.08929949869183051</v>
+        <v>0.4599230241044916</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3803,7 +3803,7 @@
         <v>43282</v>
       </c>
       <c r="C359">
-        <v>1.062173349802897</v>
+        <v>1.050609881749098</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3812,7 +3812,7 @@
         <v>43374</v>
       </c>
       <c r="C360">
-        <v>0.1674365295526004</v>
+        <v>0.3255956733630994</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>43466</v>
       </c>
       <c r="C361">
-        <v>-1.07149025920833</v>
+        <v>-1.18545764847432</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>43556</v>
       </c>
       <c r="C362">
-        <v>0.1240651747162591</v>
+        <v>-0.1338532144609883</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>43647</v>
       </c>
       <c r="C363">
-        <v>-0.3608510649420693</v>
+        <v>-0.3793279347384493</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>43739</v>
       </c>
       <c r="C364">
-        <v>0.2252654310253677</v>
+        <v>0.2683352174676079</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3857,7 +3857,7 @@
         <v>43831</v>
       </c>
       <c r="C365">
-        <v>-9.062909994570301</v>
+        <v>-6.59830278210134</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>43922</v>
       </c>
       <c r="C366">
-        <v>-9.060276503393483</v>
+        <v>-13.45363952208566</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>44013</v>
       </c>
       <c r="C367">
-        <v>15.92312242185647</v>
+        <v>18.61543742802616</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>44105</v>
       </c>
       <c r="C368">
-        <v>-3.952620029175213</v>
+        <v>-3.878548790499026</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3893,7 +3893,7 @@
         <v>44197</v>
       </c>
       <c r="C369">
-        <v>0.626908579814156</v>
+        <v>2.230303027382075</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3904,7 +3904,7 @@
         <v>42826</v>
       </c>
       <c r="C370">
-        <v>-0.05638982811602133</v>
+        <v>-0.550460817185916</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>42917</v>
       </c>
       <c r="C371">
-        <v>0.5184077404391418</v>
+        <v>0.824117388537049</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>43009</v>
       </c>
       <c r="C372">
-        <v>0.1362077417448981</v>
+        <v>0.08078777666473691</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>43101</v>
       </c>
       <c r="C373">
-        <v>0.9597741724163056</v>
+        <v>0.8697607501876314</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>-0.3550307091811256</v>
+        <v>-0.3335538941296123</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.665109538200781</v>
+        <v>0.6726022596373227</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>-0.1266013091826279</v>
+        <v>-0.09647752992545389</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3967,7 +3967,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>0.08782773926749865</v>
+        <v>0.1161815443902148</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>0.2098252734653805</v>
+        <v>0.01199318376281511</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>-0.9914537991077443</v>
+        <v>-0.6024407372174578</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.696254999689816</v>
+        <v>0.1794757019066395</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-2.312356292370621</v>
+        <v>-0.9397930133194343</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-8.167091051457708</v>
+        <v>-9.29009904020428</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>6.423258484803474</v>
+        <v>6.353683246102393</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>0.6570323331342776</v>
+        <v>1.046870831058544</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>1.030120340385943</v>
+        <v>1.379828535344818</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>42826</v>
       </c>
       <c r="C386">
-        <v>2.701046492382342</v>
+        <v>1.250016980256197</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>42917</v>
       </c>
       <c r="C387">
-        <v>0.1409805297899691</v>
+        <v>1.0238679354589</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>43009</v>
       </c>
       <c r="C388">
-        <v>1.038935012514619</v>
+        <v>0.2867035400108131</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4077,7 +4077,7 @@
         <v>43101</v>
       </c>
       <c r="C389">
-        <v>0.9399089519149362</v>
+        <v>1.388307509671693</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>43191</v>
       </c>
       <c r="C390">
-        <v>0.6992210985128811</v>
+        <v>0.3653257971160562</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>43282</v>
       </c>
       <c r="C391">
-        <v>2.784210649699737</v>
+        <v>2.713152285602094</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C392">
-        <v>-1.315748676054018</v>
+        <v>-0.9410671513886415</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4113,7 +4113,7 @@
         <v>43466</v>
       </c>
       <c r="C393">
-        <v>0.3439704904564023</v>
+        <v>-0.1172663366717286</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4122,7 +4122,7 @@
         <v>43556</v>
       </c>
       <c r="C394">
-        <v>0.02394813670427709</v>
+        <v>0.4163316389015348</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>43647</v>
       </c>
       <c r="C395">
-        <v>-0.1408767729369487</v>
+        <v>-0.2809719257158005</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>43739</v>
       </c>
       <c r="C396">
-        <v>2.347376929661338</v>
+        <v>1.428260147272908</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>43831</v>
       </c>
       <c r="C397">
-        <v>-1.270937552475515</v>
+        <v>-0.01101346292844418</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>43922</v>
       </c>
       <c r="C398">
-        <v>-2.46363625285817</v>
+        <v>-3.134909787669116</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>44013</v>
       </c>
       <c r="C399">
-        <v>2.173342053699323</v>
+        <v>2.309510596641196</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4176,7 +4176,7 @@
         <v>44105</v>
       </c>
       <c r="C400">
-        <v>0.6597821382185121</v>
+        <v>0.9053876489780066</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>44197</v>
       </c>
       <c r="C401">
-        <v>2.611662151512228</v>
+        <v>2.852823663226012</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>42826</v>
       </c>
       <c r="C402">
-        <v>-2.803664955846952</v>
+        <v>-2.565028722089979</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>42917</v>
       </c>
       <c r="C403">
-        <v>-0.02502002089532773</v>
+        <v>-0.9840551451002377</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>43009</v>
       </c>
       <c r="C404">
-        <v>1.337157055355576</v>
+        <v>4.797788099063749</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4223,7 +4223,7 @@
         <v>43101</v>
       </c>
       <c r="C405">
-        <v>2.284153581464987</v>
+        <v>0.3350665920039297</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4232,7 +4232,7 @@
         <v>43191</v>
       </c>
       <c r="C406">
-        <v>-0.06717437281297256</v>
+        <v>-0.4794868670771169</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>43282</v>
       </c>
       <c r="C407">
-        <v>0.9148770288905483</v>
+        <v>3.002779586666282</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>43374</v>
       </c>
       <c r="C408">
-        <v>0.5305974719468143</v>
+        <v>-1.948770744728434</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>43466</v>
       </c>
       <c r="C409">
-        <v>0.7882472616490999</v>
+        <v>0.8587405116340818</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4268,7 +4268,7 @@
         <v>43556</v>
       </c>
       <c r="C410">
-        <v>1.294514354665099</v>
+        <v>3.997018775381678</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>43647</v>
       </c>
       <c r="C411">
-        <v>1.577649971088801</v>
+        <v>-0.1659446504429063</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4286,7 +4286,7 @@
         <v>43739</v>
       </c>
       <c r="C412">
-        <v>0.04399574467919276</v>
+        <v>0.3884593373624234</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>43831</v>
       </c>
       <c r="C413">
-        <v>-5.471436569424992</v>
+        <v>-4.487827947799639</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>43922</v>
       </c>
       <c r="C414">
-        <v>-5.531643036004786</v>
+        <v>-7.457485996963209</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>44013</v>
       </c>
       <c r="C415">
-        <v>6.581373903558307</v>
+        <v>3.481180390958816</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>44105</v>
       </c>
       <c r="C416">
-        <v>-4.152290488617504</v>
+        <v>-0.7373378029628674</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>44197</v>
       </c>
       <c r="C417">
-        <v>1.80700385842032</v>
+        <v>4.896544577015738</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4342,7 +4342,7 @@
         <v>42826</v>
       </c>
       <c r="C418">
-        <v>-2.241884257073767</v>
+        <v>4.460733944220885</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4351,7 +4351,7 @@
         <v>42917</v>
       </c>
       <c r="C419">
-        <v>0.8732075453946608</v>
+        <v>-0.01713097686639742</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>43009</v>
       </c>
       <c r="C420">
-        <v>1.504196578287242</v>
+        <v>1.943092362686505</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>43101</v>
       </c>
       <c r="C421">
-        <v>1.322423516097238</v>
+        <v>1.407490392466482</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>1.054875856417303</v>
+        <v>1.453366591949368</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>0.7084466631124942</v>
+        <v>1.003742326020651</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>0.06458044053769818</v>
+        <v>-1.520785373206335</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>1.956385846153474</v>
+        <v>1.361261129276281</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>0.6798737551932499</v>
+        <v>0.8587841957059528</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>0.4284682517460947</v>
+        <v>0.4606318282109001</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>1.629294955367189</v>
+        <v>0.806942794120391</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-4.097025797099796</v>
+        <v>-1.420952489778404</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-3.557957793002264</v>
+        <v>-4.500227188697714</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>5.90123189075209</v>
+        <v>6.020441843283719</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>0.6434065289973478</v>
+        <v>0.8937320255078207</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>1.902570848650842</v>
+        <v>2.897076781159158</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4488,7 +4488,7 @@
         <v>42826</v>
       </c>
       <c r="C434">
-        <v>2.867766774906899</v>
+        <v>-2.379867034826588</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>42917</v>
       </c>
       <c r="C435">
-        <v>-0.3660856605875118</v>
+        <v>2.688460136698589</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>43009</v>
       </c>
       <c r="C436">
-        <v>2.645919333341262</v>
+        <v>0.3041471326559408</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>43101</v>
       </c>
       <c r="C437">
-        <v>-2.358481210283625</v>
+        <v>-1.716190211324964</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>43191</v>
       </c>
       <c r="C438">
-        <v>0.4704400571125644</v>
+        <v>0.526643716556241</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>43282</v>
       </c>
       <c r="C439">
-        <v>-1.284711029190655</v>
+        <v>-0.6373279692693856</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>43374</v>
       </c>
       <c r="C440">
-        <v>1.624010861509628</v>
+        <v>1.678020819338077</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>43466</v>
       </c>
       <c r="C441">
-        <v>0.8931862098203514</v>
+        <v>2.04320811782428</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4560,7 +4560,7 @@
         <v>43556</v>
       </c>
       <c r="C442">
-        <v>-0.236550142413039</v>
+        <v>-0.8012429783972985</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>43647</v>
       </c>
       <c r="C443">
-        <v>0.7561456058902349</v>
+        <v>0.2257303216135487</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>43739</v>
       </c>
       <c r="C444">
-        <v>1.247942977023797</v>
+        <v>-1.521528447763609</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4587,7 +4587,7 @@
         <v>43831</v>
       </c>
       <c r="C445">
-        <v>-6.723438534866888</v>
+        <v>-2.483171841188359</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>43922</v>
       </c>
       <c r="C446">
-        <v>-5.878888454573894</v>
+        <v>-8.228108929276113</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4605,7 +4605,7 @@
         <v>44013</v>
       </c>
       <c r="C447">
-        <v>9.82670014869791</v>
+        <v>9.090130136464737</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>44105</v>
       </c>
       <c r="C448">
-        <v>-1.210628681203785</v>
+        <v>0.2964973499170798</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>44197</v>
       </c>
       <c r="C449">
-        <v>3.650427759622277</v>
+        <v>3.871279245235404</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>42826</v>
       </c>
       <c r="C450">
-        <v>0.8609820257416079</v>
+        <v>0.7069425679417263</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>42917</v>
       </c>
       <c r="C451">
-        <v>-0.1600265779403198</v>
+        <v>0.01552182298369953</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -4652,7 +4652,7 @@
         <v>43009</v>
       </c>
       <c r="C452">
-        <v>0.9843763744129319</v>
+        <v>1.075750608520787</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>43101</v>
       </c>
       <c r="C453">
-        <v>0.9403981826594521</v>
+        <v>1.098703121949129</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>43191</v>
       </c>
       <c r="C454">
-        <v>-0.3370668553608236</v>
+        <v>-0.03723024613522252</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>43282</v>
       </c>
       <c r="C455">
-        <v>-0.3333305249865859</v>
+        <v>-0.5847232765936905</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>43374</v>
       </c>
       <c r="C456">
-        <v>1.078086085395191</v>
+        <v>1.034377584330159</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4697,7 +4697,7 @@
         <v>43466</v>
       </c>
       <c r="C457">
-        <v>0.08514934442447331</v>
+        <v>-0.4603764503501973</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>43556</v>
       </c>
       <c r="C458">
-        <v>0.6520758373150359</v>
+        <v>1.411913758420713</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>43647</v>
       </c>
       <c r="C459">
-        <v>-0.04153406315655639</v>
+        <v>-0.3612900527563356</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4724,7 +4724,7 @@
         <v>43739</v>
       </c>
       <c r="C460">
-        <v>-1.61465439810583</v>
+        <v>-1.183254088608443</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>43831</v>
       </c>
       <c r="C461">
-        <v>-1.964297098672285</v>
+        <v>-0.7550210960602488</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>43922</v>
       </c>
       <c r="C462">
-        <v>-12.91861852348153</v>
+        <v>-14.5052717900278</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4751,7 +4751,7 @@
         <v>44013</v>
       </c>
       <c r="C463">
-        <v>9.219740085638417</v>
+        <v>9.363274719622661</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4760,7 +4760,7 @@
         <v>44105</v>
       </c>
       <c r="C464">
-        <v>2.34623793562343</v>
+        <v>2.222056042074017</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>44197</v>
       </c>
       <c r="C465">
-        <v>0.6329316855661071</v>
+        <v>1.726803189121262</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4780,7 +4780,7 @@
         <v>42826</v>
       </c>
       <c r="C466">
-        <v>1.465231282609669</v>
+        <v>1.074027792746257</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>42917</v>
       </c>
       <c r="C467">
-        <v>1.995971568071009</v>
+        <v>1.535175511691689</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>43009</v>
       </c>
       <c r="C468">
-        <v>0.05325388979524615</v>
+        <v>-0.005477680812882024</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4807,7 +4807,7 @@
         <v>43101</v>
       </c>
       <c r="C469">
-        <v>0.4434695699644164</v>
+        <v>0.8604764286900046</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>0.9235305087605061</v>
+        <v>1.078699790408466</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>0.08826780373223375</v>
+        <v>-0.6182745190571381</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>0.7973558015973214</v>
+        <v>1.348744949879266</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>1.076601373728847</v>
+        <v>0.4423306502070234</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>-0.03954425745245072</v>
+        <v>0.5672343498756893</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4861,7 +4861,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>0.6931554189367972</v>
+        <v>0.7327284327715011</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4870,7 +4870,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-0.1323769901554583</v>
+        <v>-0.02949369514155809</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-2.761022586502893</v>
+        <v>-1.697896438202806</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-5.567478984108432</v>
+        <v>-7.760969469496426</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>5.157073303235959</v>
+        <v>6.540628504566492</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4906,7 +4906,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>-0.3672435136916397</v>
+        <v>-0.7523172549366741</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>-0.2208297143805993</v>
+        <v>1.162619857328751</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>42826</v>
       </c>
       <c r="C482">
-        <v>0.5731962153010972</v>
+        <v>-0.3661618134342737</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -4935,7 +4935,7 @@
         <v>42917</v>
       </c>
       <c r="C483">
-        <v>1.113513889586559</v>
+        <v>0.9909355058046909</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>43009</v>
       </c>
       <c r="C484">
-        <v>0.08406772764824044</v>
+        <v>0.6830167780369711</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>43101</v>
       </c>
       <c r="C485">
-        <v>1.326233869421145</v>
+        <v>1.069461387712267</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>43191</v>
       </c>
       <c r="C486">
-        <v>0.8333780899186793</v>
+        <v>0.7378602863279848</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4971,7 +4971,7 @@
         <v>43282</v>
       </c>
       <c r="C487">
-        <v>0.5463001214796259</v>
+        <v>1.061053575032656</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4980,7 +4980,7 @@
         <v>43374</v>
       </c>
       <c r="C488">
-        <v>1.996104971243851</v>
+        <v>1.502737989493319</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>43466</v>
       </c>
       <c r="C489">
-        <v>-0.8491293657316379</v>
+        <v>-0.02522278141069423</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>43556</v>
       </c>
       <c r="C490">
-        <v>1.866504640735323</v>
+        <v>1.213914684918449</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5007,7 +5007,7 @@
         <v>43647</v>
       </c>
       <c r="C491">
-        <v>-0.2011197201615578</v>
+        <v>-0.627406297151023</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>43739</v>
       </c>
       <c r="C492">
-        <v>1.008750717632956</v>
+        <v>1.319671873071848</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>43831</v>
       </c>
       <c r="C493">
-        <v>-3.233972679595931</v>
+        <v>-1.513209704383567</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5034,7 +5034,7 @@
         <v>43922</v>
       </c>
       <c r="C494">
-        <v>-6.104108471728598</v>
+        <v>-8.406608033097672</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>44013</v>
       </c>
       <c r="C495">
-        <v>8.471994550093065</v>
+        <v>9.791273899168452</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>44105</v>
       </c>
       <c r="C496">
-        <v>1.807235383314265</v>
+        <v>0.9116368075986703</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>44197</v>
       </c>
       <c r="C497">
-        <v>0.8327713971867601</v>
+        <v>2.680417660182388</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5072,7 +5072,7 @@
         <v>42826</v>
       </c>
       <c r="C498">
-        <v>-1.785375229328967</v>
+        <v>-0.2137632383417909</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5081,7 +5081,7 @@
         <v>42917</v>
       </c>
       <c r="C499">
-        <v>-0.538412480216266</v>
+        <v>-2.185308708162148</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5090,7 +5090,7 @@
         <v>43009</v>
       </c>
       <c r="C500">
-        <v>2.549955918627811</v>
+        <v>2.97125884290792</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>43101</v>
       </c>
       <c r="C501">
-        <v>-0.2103372398683856</v>
+        <v>0.5803641387277736</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>43191</v>
       </c>
       <c r="C502">
-        <v>1.439129049988463</v>
+        <v>0.5308587409320387</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>43282</v>
       </c>
       <c r="C503">
-        <v>-0.04581522394904169</v>
+        <v>0.2715779157311138</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5126,7 +5126,7 @@
         <v>43374</v>
       </c>
       <c r="C504">
-        <v>-0.8560479930097564</v>
+        <v>-0.9559184158532408</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>43466</v>
       </c>
       <c r="C505">
-        <v>0.8818725089070778</v>
+        <v>1.581154483590863</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5144,7 +5144,7 @@
         <v>43556</v>
       </c>
       <c r="C506">
-        <v>0.2037353980907985</v>
+        <v>-0.2125350750783683</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>43647</v>
       </c>
       <c r="C507">
-        <v>0.7562353243752984</v>
+        <v>1.070317410227495</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>43739</v>
       </c>
       <c r="C508">
-        <v>-0.2606921743799395</v>
+        <v>0.01377225866971976</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>43831</v>
       </c>
       <c r="C509">
-        <v>-3.937405988215148</v>
+        <v>-3.130847075295506</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5180,7 +5180,7 @@
         <v>43922</v>
       </c>
       <c r="C510">
-        <v>-2.589873655941877</v>
+        <v>-5.616862333905903</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>44013</v>
       </c>
       <c r="C511">
-        <v>3.020682452063284</v>
+        <v>4.735706009532148</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>44105</v>
       </c>
       <c r="C512">
-        <v>1.42131869697828</v>
+        <v>0.8251103544686833</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>44197</v>
       </c>
       <c r="C513">
-        <v>0.2885647262558466</v>
+        <v>1.114951591691815</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>42826</v>
       </c>
       <c r="C514">
-        <v>-0.06596503010850574</v>
+        <v>-0.4773101976370264</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -5227,7 +5227,7 @@
         <v>42917</v>
       </c>
       <c r="C515">
-        <v>0.9751782936854525</v>
+        <v>0.8916657349616663</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>43009</v>
       </c>
       <c r="C516">
-        <v>2.877296494628001</v>
+        <v>2.972075640172567</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>43101</v>
       </c>
       <c r="C517">
-        <v>0.4743419162457574</v>
+        <v>0.5478967482532404</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5254,7 +5254,7 @@
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>1.491909202807129</v>
+        <v>1.610847359444101</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.369060863989934</v>
+        <v>0.2721445040239967</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>1.516431155066433</v>
+        <v>1.74562738479731</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>1.583561600065431</v>
+        <v>1.721514967445681</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5290,7 +5290,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>0.9107754335004881</v>
+        <v>0.281274845217383</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5299,7 +5299,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>1.567736844790035</v>
+        <v>1.660386306015549</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>0.05936484286626076</v>
+        <v>0.2582371841860942</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-2.300643402768165</v>
+        <v>-1.279831528710429</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-6.744066784848046</v>
+        <v>-9.324027068824392</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5335,7 +5335,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>9.798761530033584</v>
+        <v>11.67718166275009</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>-3.477498884258512</v>
+        <v>-2.8727109104557</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5353,7 +5353,7 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>3.054133477346288</v>
+        <v>3.04549671087313</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5364,7 +5364,7 @@
         <v>42826</v>
       </c>
       <c r="C530">
-        <v>1.733666289273139</v>
+        <v>0.04866207177747217</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -5373,7 +5373,7 @@
         <v>42917</v>
       </c>
       <c r="C531">
-        <v>1.12939643183454</v>
+        <v>2.214608104128013</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>43009</v>
       </c>
       <c r="C532">
-        <v>-0.8829217181996252</v>
+        <v>-0.5527787812859231</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>43101</v>
       </c>
       <c r="C533">
-        <v>2.360584343502925</v>
+        <v>2.428862049591229</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5400,7 +5400,7 @@
         <v>43191</v>
       </c>
       <c r="C534">
-        <v>0.09266880949911904</v>
+        <v>0.2217032644622696</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5409,7 +5409,7 @@
         <v>43282</v>
       </c>
       <c r="C535">
-        <v>0.8412120093705289</v>
+        <v>0.2643628451935998</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>43374</v>
       </c>
       <c r="C536">
-        <v>1.56983712300105</v>
+        <v>1.858385882125613</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>43466</v>
       </c>
       <c r="C537">
-        <v>-0.9587958878562897</v>
+        <v>-0.4552282826404852</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5436,7 +5436,7 @@
         <v>43556</v>
       </c>
       <c r="C538">
-        <v>1.618180185534168</v>
+        <v>1.385195399900385</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5445,7 +5445,7 @@
         <v>43647</v>
       </c>
       <c r="C539">
-        <v>-0.05834185091929678</v>
+        <v>-0.7976562537055032</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>43739</v>
       </c>
       <c r="C540">
-        <v>0.3065738103859239</v>
+        <v>0.6258728829214855</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5463,7 +5463,7 @@
         <v>43831</v>
       </c>
       <c r="C541">
-        <v>-5.273697904068408</v>
+        <v>-2.715644844659004</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>43922</v>
       </c>
       <c r="C542">
-        <v>-12.21426212635933</v>
+        <v>-16.1221828348691</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>44013</v>
       </c>
       <c r="C543">
-        <v>13.47932040132473</v>
+        <v>15.28947630498998</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>44105</v>
       </c>
       <c r="C544">
-        <v>-0.01863996609955398</v>
+        <v>1.071905281669427</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5499,7 +5499,7 @@
         <v>44197</v>
       </c>
       <c r="C545">
-        <v>-3.289985846197274</v>
+        <v>-2.206859303437292</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5510,7 +5510,7 @@
         <v>42826</v>
       </c>
       <c r="C546">
-        <v>3.565356324947699</v>
+        <v>2.517392803570351</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -5519,7 +5519,7 @@
         <v>42917</v>
       </c>
       <c r="C547">
-        <v>-0.8542114776536769</v>
+        <v>-0.2664646762598144</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>43009</v>
       </c>
       <c r="C548">
-        <v>1.279106625145232</v>
+        <v>0.8741770697848317</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>43101</v>
       </c>
       <c r="C549">
-        <v>1.480244257590213</v>
+        <v>1.915280525088781</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5546,7 +5546,7 @@
         <v>43191</v>
       </c>
       <c r="C550">
-        <v>1.600101332243331</v>
+        <v>0.6525487735064006</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>43282</v>
       </c>
       <c r="C551">
-        <v>2.416152946864103</v>
+        <v>3.416202293033699</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>43374</v>
       </c>
       <c r="C552">
-        <v>0.3504688751866158</v>
+        <v>0.04318892766994598</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5573,7 +5573,7 @@
         <v>43466</v>
       </c>
       <c r="C553">
-        <v>0.5434741168067303</v>
+        <v>0.1047853100066387</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>43556</v>
       </c>
       <c r="C554">
-        <v>1.704548222050017</v>
+        <v>2.065957936878027</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>43647</v>
       </c>
       <c r="C555">
-        <v>1.124148959023041</v>
+        <v>1.446855782252876</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>43739</v>
       </c>
       <c r="C556">
-        <v>-0.3902117445839015</v>
+        <v>-0.6247867915333938</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5609,7 +5609,7 @@
         <v>43831</v>
       </c>
       <c r="C557">
-        <v>-3.124444726498032</v>
+        <v>-1.399549816981349</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5618,7 +5618,7 @@
         <v>43922</v>
       </c>
       <c r="C558">
-        <v>-7.364889306420219</v>
+        <v>-11.09174668781676</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>44013</v>
       </c>
       <c r="C559">
-        <v>7.142984133570152</v>
+        <v>9.312539491165461</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>44105</v>
       </c>
       <c r="C560">
-        <v>1.087323849253696</v>
+        <v>1.646587943354727</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>44197</v>
       </c>
       <c r="C561">
-        <v>3.911249542370809</v>
+        <v>5.109797288312024</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5656,7 +5656,7 @@
         <v>42826</v>
       </c>
       <c r="C562">
-        <v>-0.3175823726779603</v>
+        <v>-0.02587892074431553</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -5665,7 +5665,7 @@
         <v>42917</v>
       </c>
       <c r="C563">
-        <v>0.01356053389609535</v>
+        <v>-0.1022623335199535</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>43009</v>
       </c>
       <c r="C564">
-        <v>-0.4533204925423528</v>
+        <v>-0.8533107519702265</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5683,7 +5683,7 @@
         <v>43101</v>
       </c>
       <c r="C565">
-        <v>-0.2061056150618912</v>
+        <v>0.6115585496826892</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>43191</v>
       </c>
       <c r="C566">
-        <v>0.998539072804272</v>
+        <v>0.549413679202515</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>43282</v>
       </c>
       <c r="C567">
-        <v>1.207644083652437</v>
+        <v>1.498667304543022</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>43374</v>
       </c>
       <c r="C568">
-        <v>0.2505373801132027</v>
+        <v>-0.01857760199340808</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5719,7 +5719,7 @@
         <v>43466</v>
       </c>
       <c r="C569">
-        <v>1.300359789725736</v>
+        <v>1.596439977292397</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5728,7 +5728,7 @@
         <v>43556</v>
       </c>
       <c r="C570">
-        <v>0.564021567541495</v>
+        <v>0.07072548814208712</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>43647</v>
       </c>
       <c r="C571">
-        <v>0.4065863808903947</v>
+        <v>0.5735908912699372</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>43739</v>
       </c>
       <c r="C572">
-        <v>-1.218878108038346</v>
+        <v>-1.060557062108136</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>43831</v>
       </c>
       <c r="C573">
-        <v>-2.672398443982149</v>
+        <v>-1.747280956346586</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>43922</v>
       </c>
       <c r="C574">
-        <v>-5.127677796802965</v>
+        <v>-6.808051620190536</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>44013</v>
       </c>
       <c r="C575">
-        <v>4.573372292550304</v>
+        <v>5.90522031158629</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>44105</v>
       </c>
       <c r="C576">
-        <v>0.6863431247397633</v>
+        <v>0.4126647011285733</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5791,7 +5791,7 @@
         <v>44197</v>
       </c>
       <c r="C577">
-        <v>3.16160605238236</v>
+        <v>3.742233031264131</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5802,7 +5802,7 @@
         <v>42826</v>
       </c>
       <c r="C578">
-        <v>1.841161319868823</v>
+        <v>1.964259270249302</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>42917</v>
       </c>
       <c r="C579">
-        <v>0.4730606894869149</v>
+        <v>-0.4361420216881573</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>43009</v>
       </c>
       <c r="C580">
-        <v>-1.333813510791682</v>
+        <v>0.1920737774517622</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5829,7 +5829,7 @@
         <v>43101</v>
       </c>
       <c r="C581">
-        <v>2.085844366805589</v>
+        <v>1.135546403833154</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>43191</v>
       </c>
       <c r="C582">
-        <v>1.279328958378079</v>
+        <v>1.514326555130396</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>43282</v>
       </c>
       <c r="C583">
-        <v>-0.005825237200529632</v>
+        <v>0.2751865120285801</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>43374</v>
       </c>
       <c r="C584">
-        <v>0.9030070736722795</v>
+        <v>-0.002608813554061395</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5865,7 +5865,7 @@
         <v>43466</v>
       </c>
       <c r="C585">
-        <v>0.2635347644052599</v>
+        <v>0.6927231647434473</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>43556</v>
       </c>
       <c r="C586">
-        <v>2.273725427269135</v>
+        <v>2.331078922926233</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>43647</v>
       </c>
       <c r="C587">
-        <v>-0.9478596577077725</v>
+        <v>-0.621555730339185</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5892,7 +5892,7 @@
         <v>43739</v>
       </c>
       <c r="C588">
-        <v>1.499736141409169</v>
+        <v>0.8132973978570934</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5901,7 +5901,7 @@
         <v>43831</v>
       </c>
       <c r="C589">
-        <v>-4.761910167129557</v>
+        <v>-3.477142044595971</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>43922</v>
       </c>
       <c r="C590">
-        <v>-6.961501439560513</v>
+        <v>-10.38555776724264</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>44013</v>
       </c>
       <c r="C591">
-        <v>9.355038234633684</v>
+        <v>11.55291103389291</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5928,7 +5928,7 @@
         <v>44105</v>
       </c>
       <c r="C592">
-        <v>-0.4596907163683994</v>
+        <v>0.1277086127887017</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>44197</v>
       </c>
       <c r="C593">
-        <v>-6.81827097433374</v>
+        <v>-5.830137771531996</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>42826</v>
       </c>
       <c r="C594">
-        <v>2.921555675877641</v>
+        <v>3.244828154253199</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>42917</v>
       </c>
       <c r="C595">
-        <v>0.7278036506666696</v>
+        <v>0.8381683051046807</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>43009</v>
       </c>
       <c r="C596">
-        <v>0.1373415925039811</v>
+        <v>1.279926978984358</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>43101</v>
       </c>
       <c r="C597">
-        <v>4.325367154389803</v>
+        <v>0.9864170536338035</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5984,7 +5984,7 @@
         <v>43191</v>
       </c>
       <c r="C598">
-        <v>-2.492250087480485</v>
+        <v>-0.2478048452044801</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>43282</v>
       </c>
       <c r="C599">
-        <v>3.836930611247436</v>
+        <v>2.133990382322448</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6002,7 +6002,7 @@
         <v>43374</v>
       </c>
       <c r="C600">
-        <v>1.3822836572843</v>
+        <v>1.820273190304889</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>43466</v>
       </c>
       <c r="C601">
-        <v>-1.03874453790459</v>
+        <v>1.32376184622276</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>43556</v>
       </c>
       <c r="C602">
-        <v>2.005960873842461</v>
+        <v>0.8785156018316531</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>43647</v>
       </c>
       <c r="C603">
-        <v>-1.166464934035838</v>
+        <v>-1.338736216585712</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>43739</v>
       </c>
       <c r="C604">
-        <v>2.764943813435083</v>
+        <v>1.819029473270684</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>43831</v>
       </c>
       <c r="C605">
-        <v>-4.202841668955637</v>
+        <v>-2.293772159924234</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>43922</v>
       </c>
       <c r="C606">
-        <v>-6.243096491868371</v>
+        <v>-9.31913490305889</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>44013</v>
       </c>
       <c r="C607">
-        <v>9.709077472480331</v>
+        <v>12.19113072363798</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6074,7 +6074,7 @@
         <v>44105</v>
       </c>
       <c r="C608">
-        <v>-4.513099275315035</v>
+        <v>-3.5110904876825</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6083,7 +6083,7 @@
         <v>44197</v>
       </c>
       <c r="C609">
-        <v>0.1770325138048978</v>
+        <v>-2.630151191205621</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6094,7 +6094,7 @@
         <v>42826</v>
       </c>
       <c r="C610">
-        <v>1.209800233512381</v>
+        <v>-0.32017216282334</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -6103,7 +6103,7 @@
         <v>42917</v>
       </c>
       <c r="C611">
-        <v>0.3498363469408572</v>
+        <v>0.5493502371790138</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -6112,7 +6112,7 @@
         <v>43009</v>
       </c>
       <c r="C612">
-        <v>0.3475745256407592</v>
+        <v>0.9122451393438702</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>43101</v>
       </c>
       <c r="C613">
-        <v>-0.4818992369150954</v>
+        <v>-0.8956223486464299</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>43191</v>
       </c>
       <c r="C614">
-        <v>1.450282486909371</v>
+        <v>1.381207818314278</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>43282</v>
       </c>
       <c r="C615">
-        <v>-0.2938546318642321</v>
+        <v>-0.2263390491678341</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6148,7 +6148,7 @@
         <v>43374</v>
       </c>
       <c r="C616">
-        <v>1.112272508798906</v>
+        <v>0.9020942029828394</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6157,7 +6157,7 @@
         <v>43466</v>
       </c>
       <c r="C617">
-        <v>-1.110954778694717</v>
+        <v>-0.9226300987016267</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6166,7 +6166,7 @@
         <v>43556</v>
       </c>
       <c r="C618">
-        <v>-0.5584334529473267</v>
+        <v>-0.1042625142701037</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>43647</v>
       </c>
       <c r="C619">
-        <v>0.2361152886084739</v>
+        <v>-0.3180505925144517</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6184,7 +6184,7 @@
         <v>43739</v>
       </c>
       <c r="C620">
-        <v>0.7000730585960291</v>
+        <v>0.7396674690818061</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6193,7 +6193,7 @@
         <v>43831</v>
       </c>
       <c r="C621">
-        <v>-4.643827027379166</v>
+        <v>-2.462251479481381</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6202,7 +6202,7 @@
         <v>43922</v>
       </c>
       <c r="C622">
-        <v>-13.31275797928132</v>
+        <v>-15.81225564454871</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6211,7 +6211,7 @@
         <v>44013</v>
       </c>
       <c r="C623">
-        <v>12.22447676560874</v>
+        <v>12.21796078938808</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>44105</v>
       </c>
       <c r="C624">
-        <v>2.602575549557673</v>
+        <v>2.802353193296203</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>44197</v>
       </c>
       <c r="C625">
-        <v>1.035701291209978</v>
+        <v>3.164969149790875</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>42826</v>
       </c>
       <c r="C626">
-        <v>1.97832904580697</v>
+        <v>1.092848651896094</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -6249,7 +6249,7 @@
         <v>42917</v>
       </c>
       <c r="C627">
-        <v>0.4638115266601295</v>
+        <v>0.3727274528491531</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -6258,7 +6258,7 @@
         <v>43009</v>
       </c>
       <c r="C628">
-        <v>0.2404861665522784</v>
+        <v>0.06027152736955976</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6267,7 +6267,7 @@
         <v>43101</v>
       </c>
       <c r="C629">
-        <v>0.710854501541669</v>
+        <v>1.224747995757669</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>43191</v>
       </c>
       <c r="C630">
-        <v>0.8151279394305488</v>
+        <v>0.7325164822436836</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>43282</v>
       </c>
       <c r="C631">
-        <v>0.4679582826971895</v>
+        <v>0.2232688666086169</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6294,7 +6294,7 @@
         <v>43374</v>
       </c>
       <c r="C632">
-        <v>0.4032256327640926</v>
+        <v>0.4801659060954089</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6303,7 +6303,7 @@
         <v>43466</v>
       </c>
       <c r="C633">
-        <v>0.4197843238748167</v>
+        <v>0.2411671870658827</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>43556</v>
       </c>
       <c r="C634">
-        <v>0.8384605638952491</v>
+        <v>0.569795459571365</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>43647</v>
       </c>
       <c r="C635">
-        <v>-0.2465443674765977</v>
+        <v>-0.1196700464229705</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>43739</v>
       </c>
       <c r="C636">
-        <v>0.7948586784030987</v>
+        <v>0.8883301336974236</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>43831</v>
       </c>
       <c r="C637">
-        <v>-6.90900213628659</v>
+        <v>-4.468738515261084</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>43922</v>
       </c>
       <c r="C638">
-        <v>-14.87547441911448</v>
+        <v>-18.90668011229911</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6357,7 +6357,7 @@
         <v>44013</v>
       </c>
       <c r="C639">
-        <v>15.86609143818876</v>
+        <v>18.79379812966086</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>44105</v>
       </c>
       <c r="C640">
-        <v>0.3940285529662635</v>
+        <v>0.5775991828562255</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>44197</v>
       </c>
       <c r="C641">
-        <v>0.06262888371184605</v>
+        <v>1.473767566635442</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6386,7 +6386,7 @@
         <v>42826</v>
       </c>
       <c r="C642">
-        <v>-0.9311955492843582</v>
+        <v>-0.6379982472475509</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>42917</v>
       </c>
       <c r="C643">
-        <v>0.8473678623055703</v>
+        <v>0.2724817236499533</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -6404,7 +6404,7 @@
         <v>43009</v>
       </c>
       <c r="C644">
-        <v>-0.03687318443794663</v>
+        <v>0.7177765757507837</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6413,7 +6413,7 @@
         <v>43101</v>
       </c>
       <c r="C645">
-        <v>0.4053542059968995</v>
+        <v>0.3640045393936253</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>43191</v>
       </c>
       <c r="C646">
-        <v>1.366487505987335</v>
+        <v>1.75513423773801</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>43282</v>
       </c>
       <c r="C647">
-        <v>0.8571273906483157</v>
+        <v>0.08036135101454622</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>43374</v>
       </c>
       <c r="C648">
-        <v>-0.09818376676444807</v>
+        <v>-0.2570124903098159</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>43466</v>
       </c>
       <c r="C649">
-        <v>0.4440113314668537</v>
+        <v>0.797124317473763</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6458,7 +6458,7 @@
         <v>43556</v>
       </c>
       <c r="C650">
-        <v>0.2344576124632791</v>
+        <v>0.7669658332893681</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6467,7 +6467,7 @@
         <v>43647</v>
       </c>
       <c r="C651">
-        <v>-0.09026039709587597</v>
+        <v>-0.4587827376911879</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6476,7 +6476,7 @@
         <v>43739</v>
       </c>
       <c r="C652">
-        <v>0.5489170494225259</v>
+        <v>1.203321551537639</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>43831</v>
       </c>
       <c r="C653">
-        <v>-2.361486113193378</v>
+        <v>-2.230707787691688</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>43922</v>
       </c>
       <c r="C654">
-        <v>-6.723533559445283</v>
+        <v>-8.165015821426437</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6503,7 +6503,7 @@
         <v>44013</v>
       </c>
       <c r="C655">
-        <v>5.738803739040277</v>
+        <v>5.952935921958491</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6512,7 +6512,7 @@
         <v>44105</v>
       </c>
       <c r="C656">
-        <v>0.7226467381247881</v>
+        <v>0.8752376512383808</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>44197</v>
       </c>
       <c r="C657">
-        <v>1.010170586735781</v>
+        <v>1.473313017739697</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6532,7 +6532,7 @@
         <v>42826</v>
       </c>
       <c r="C658">
-        <v>0.1362289489015955</v>
+        <v>0.4536382176626441</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>42917</v>
       </c>
       <c r="C659">
-        <v>0.718773748085666</v>
+        <v>0.6630007645721081</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>43009</v>
       </c>
       <c r="C660">
-        <v>0.3915238779717001</v>
+        <v>0.5173987421948079</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>43101</v>
       </c>
       <c r="C661">
-        <v>0.1930984107998412</v>
+        <v>0.1437993486122835</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6568,7 +6568,7 @@
         <v>43191</v>
       </c>
       <c r="C662">
-        <v>-0.394278148959093</v>
+        <v>0.3270028727025975</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6577,7 +6577,7 @@
         <v>43282</v>
       </c>
       <c r="C663">
-        <v>0.3203280379995954</v>
+        <v>0.4607258868514874</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6586,7 +6586,7 @@
         <v>43374</v>
       </c>
       <c r="C664">
-        <v>1.121487147685651</v>
+        <v>0.9772266805675445</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>43466</v>
       </c>
       <c r="C665">
-        <v>1.249818286085635</v>
+        <v>0.8753725773709808</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>43556</v>
       </c>
       <c r="C666">
-        <v>1.443673164232395</v>
+        <v>1.578644024611386</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>43647</v>
       </c>
       <c r="C667">
-        <v>-0.8977882881772925</v>
+        <v>-1.394390871938267</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>43739</v>
       </c>
       <c r="C668">
-        <v>0.3712911150317799</v>
+        <v>0.323076085701679</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>43831</v>
       </c>
       <c r="C669">
-        <v>-5.261483424857428</v>
+        <v>-3.128247572487197</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>43922</v>
       </c>
       <c r="C670">
-        <v>-5.359885965637046</v>
+        <v>-8.119104521061949</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>44013</v>
       </c>
       <c r="C671">
-        <v>8.658127470836408</v>
+        <v>9.634434055141305</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>44105</v>
       </c>
       <c r="C672">
-        <v>-0.8544388289567939</v>
+        <v>-0.9123985296377368</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>44197</v>
       </c>
       <c r="C673">
-        <v>1.044556281307885</v>
+        <v>2.223260341503219</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6678,7 +6678,7 @@
         <v>42826</v>
       </c>
       <c r="C674">
-        <v>2.984609016964157</v>
+        <v>2.786158386857163</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>42917</v>
       </c>
       <c r="C675">
-        <v>-1.019066377214861</v>
+        <v>-0.7834635877451701</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>43009</v>
       </c>
       <c r="C676">
-        <v>4.56090935925566</v>
+        <v>4.998956221069939</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>43101</v>
       </c>
       <c r="C677">
-        <v>0.9669775501267353</v>
+        <v>0.8375769740684769</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>43191</v>
       </c>
       <c r="C678">
-        <v>1.822871304417428</v>
+        <v>1.262311020468898</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6723,7 +6723,7 @@
         <v>43282</v>
       </c>
       <c r="C679">
-        <v>-1.045648771065388</v>
+        <v>-0.9278206069815331</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>43374</v>
       </c>
       <c r="C680">
-        <v>-0.9938073708109507</v>
+        <v>-0.5191079910888408</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>43466</v>
       </c>
       <c r="C681">
-        <v>1.330294113285113</v>
+        <v>1.051455549568847</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>43556</v>
       </c>
       <c r="C682">
-        <v>2.319913548266617</v>
+        <v>2.253035553525118</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C683">
-        <v>-0.8705895194666469</v>
+        <v>-0.2436733920532563</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>43739</v>
       </c>
       <c r="C684">
-        <v>-0.3564607035778433</v>
+        <v>-1.040658025954877</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6777,7 +6777,7 @@
         <v>43831</v>
       </c>
       <c r="C685">
-        <v>-0.9450649115977927</v>
+        <v>0.2921409030407496</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>43922</v>
       </c>
       <c r="C686">
-        <v>-7.849523782521317</v>
+        <v>-9.113549233612028</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>44013</v>
       </c>
       <c r="C687">
-        <v>11.05137771641782</v>
+        <v>11.0235934363984</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>44105</v>
       </c>
       <c r="C688">
-        <v>1.73964393463979</v>
+        <v>2.680017387769129</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>44197</v>
       </c>
       <c r="C689">
-        <v>-2.54400668222704</v>
+        <v>-2.354190252538513</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>42826</v>
       </c>
       <c r="C690">
-        <v>0.2981732735316323</v>
+        <v>-0.03088497740320051</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -6833,7 +6833,7 @@
         <v>42917</v>
       </c>
       <c r="C691">
-        <v>0.4546303061078394</v>
+        <v>0.5911137870886707</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -6842,7 +6842,7 @@
         <v>43009</v>
       </c>
       <c r="C692">
-        <v>0.4969475748979768</v>
+        <v>0.4174353953785737</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>43101</v>
       </c>
       <c r="C693">
-        <v>0.5519746519306423</v>
+        <v>0.7731548859744253</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6860,7 +6860,7 @@
         <v>43191</v>
       </c>
       <c r="C694">
-        <v>0.9079347146044858</v>
+        <v>0.7180094153740102</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>43282</v>
       </c>
       <c r="C695">
-        <v>-0.2866950674944135</v>
+        <v>-0.4907203219250866</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>43374</v>
       </c>
       <c r="C696">
-        <v>0.05336663615134185</v>
+        <v>0.136525709786639</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6887,7 +6887,7 @@
         <v>43466</v>
       </c>
       <c r="C697">
-        <v>-0.02125795386658247</v>
+        <v>0.01231765667717433</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>43556</v>
       </c>
       <c r="C698">
-        <v>0.3697325557797226</v>
+        <v>0.5488915210346335</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>43647</v>
       </c>
       <c r="C699">
-        <v>0.5131752804577117</v>
+        <v>0.348007494343161</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>43739</v>
       </c>
       <c r="C700">
-        <v>-0.2666786699248913</v>
+        <v>0.1722024401653366</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>43831</v>
       </c>
       <c r="C701">
-        <v>-3.842126735424556</v>
+        <v>-2.733241670729869</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6932,7 +6932,7 @@
         <v>43922</v>
       </c>
       <c r="C702">
-        <v>-14.6406137224479</v>
+        <v>-16.97931287733067</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6941,7 +6941,7 @@
         <v>44013</v>
       </c>
       <c r="C703">
-        <v>13.9739642555561</v>
+        <v>15.22319378174584</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>44105</v>
       </c>
       <c r="C704">
-        <v>-0.1610236872273019</v>
+        <v>-0.2910517300029558</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6959,7 +6959,7 @@
         <v>44197</v>
       </c>
       <c r="C705">
-        <v>-2.111348444495709</v>
+        <v>-0.03264299047197605</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6970,7 +6970,7 @@
         <v>42826</v>
       </c>
       <c r="C706">
-        <v>0.2383155952975446</v>
+        <v>-0.03017390334461023</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>42917</v>
       </c>
       <c r="C707">
-        <v>0.90310426420106</v>
+        <v>0.9006725591181208</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>43009</v>
       </c>
       <c r="C708">
-        <v>0.8474123846934356</v>
+        <v>0.9054379497179577</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>43101</v>
       </c>
       <c r="C709">
-        <v>0.5255395679638175</v>
+        <v>0.3757915935681533</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>43191</v>
       </c>
       <c r="C710">
-        <v>0.03415403090576419</v>
+        <v>0.2384242715419038</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>43282</v>
       </c>
       <c r="C711">
-        <v>0.2723955131449518</v>
+        <v>0.1304400707082154</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>43374</v>
       </c>
       <c r="C712">
-        <v>0.4513174624502625</v>
+        <v>0.3695271980303616</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>43466</v>
       </c>
       <c r="C713">
-        <v>1.243687748592182</v>
+        <v>1.455781820686464</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>43556</v>
       </c>
       <c r="C714">
-        <v>0.7613836167256194</v>
+        <v>0.6698655406887077</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7051,7 +7051,7 @@
         <v>43647</v>
       </c>
       <c r="C715">
-        <v>1.072686352176389</v>
+        <v>1.104277764902029</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>43739</v>
       </c>
       <c r="C716">
-        <v>0.05569192966170533</v>
+        <v>0.03251358612088584</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7069,7 +7069,7 @@
         <v>43831</v>
       </c>
       <c r="C717">
-        <v>-2.142163143533315</v>
+        <v>-1.226647219030497</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>43922</v>
       </c>
       <c r="C718">
-        <v>-7.535200599501801</v>
+        <v>-8.957418862812416</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>44013</v>
       </c>
       <c r="C719">
-        <v>5.977359691972794</v>
+        <v>6.277316817107259</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7096,7 +7096,7 @@
         <v>44105</v>
       </c>
       <c r="C720">
-        <v>2.245834561325166</v>
+        <v>2.631845610329386</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>44197</v>
       </c>
       <c r="C721">
-        <v>1.01678507755385</v>
+        <v>2.397636207734966</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -564,7 +564,7 @@
         <v>43009</v>
       </c>
       <c r="C4">
-        <v>-0.7005623640262471</v>
+        <v>-0.5866465393736697</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43101</v>
       </c>
       <c r="C5">
-        <v>1.524503981498859</v>
+        <v>1.311594357170365</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>43191</v>
       </c>
       <c r="C6">
-        <v>-2.10198051228393</v>
+        <v>-2.008659808750834</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>43282</v>
       </c>
       <c r="C7">
-        <v>-1.00736195827017</v>
+        <v>-1.065291842092586</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>43374</v>
       </c>
       <c r="C8">
-        <v>0.2701406720119426</v>
+        <v>0.430069977395342</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +609,7 @@
         <v>43466</v>
       </c>
       <c r="C9">
-        <v>1.031854608957228</v>
+        <v>0.7020951374913986</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>43556</v>
       </c>
       <c r="C10">
-        <v>-3.820349230981679</v>
+        <v>-3.18714384039025</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>43647</v>
       </c>
       <c r="C11">
-        <v>1.742390931933646</v>
+        <v>1.309701057189794</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -636,7 +636,7 @@
         <v>43739</v>
       </c>
       <c r="C12">
-        <v>-1.005322271394093</v>
+        <v>-0.8950327622771925</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +645,7 @@
         <v>43831</v>
       </c>
       <c r="C13">
-        <v>-3.293442224954468</v>
+        <v>-5.190913685626919</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>43922</v>
       </c>
       <c r="C14">
-        <v>-17.09648216946359</v>
+        <v>-15.0073493379451</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -663,7 +663,7 @@
         <v>44013</v>
       </c>
       <c r="C15">
-        <v>9.528195076040058</v>
+        <v>9.429037519746974</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -672,7 +672,7 @@
         <v>44105</v>
       </c>
       <c r="C16">
-        <v>4.127210534530801</v>
+        <v>3.673872460916705</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>44197</v>
       </c>
       <c r="C17">
-        <v>2.827837668885347</v>
+        <v>2.72967369838073</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -710,7 +710,7 @@
         <v>43009</v>
       </c>
       <c r="C20">
-        <v>1.113869395679878</v>
+        <v>1.087218314050853</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +719,7 @@
         <v>43101</v>
       </c>
       <c r="C21">
-        <v>0.08870282777941885</v>
+        <v>0.1303626450874118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -728,7 +728,7 @@
         <v>43191</v>
       </c>
       <c r="C22">
-        <v>1.02946832786095</v>
+        <v>1.0140592065911</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -737,7 +737,7 @@
         <v>43282</v>
       </c>
       <c r="C23">
-        <v>0.4265468457115507</v>
+        <v>0.4384565085741032</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +746,7 @@
         <v>43374</v>
       </c>
       <c r="C24">
-        <v>0.04051079463502916</v>
+        <v>0.01791875435086521</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -755,7 +755,7 @@
         <v>43466</v>
       </c>
       <c r="C25">
-        <v>0.9213447197015556</v>
+        <v>1.030359390773294</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -764,7 +764,7 @@
         <v>43556</v>
       </c>
       <c r="C26">
-        <v>0.8846095964863965</v>
+        <v>0.6379542402777938</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>43647</v>
       </c>
       <c r="C27">
-        <v>0.2216819046934493</v>
+        <v>0.3378115437738138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43739</v>
       </c>
       <c r="C28">
-        <v>0.1600308104551029</v>
+        <v>0.07053708072208842</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -791,7 +791,7 @@
         <v>43831</v>
       </c>
       <c r="C29">
-        <v>-2.249309076394812</v>
+        <v>-3.236917685756169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>43922</v>
       </c>
       <c r="C30">
-        <v>-7.242017127747902</v>
+        <v>-5.292862713022128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -809,7 +809,7 @@
         <v>44013</v>
       </c>
       <c r="C31">
-        <v>5.795061192616635</v>
+        <v>4.788523808945677</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -818,7 +818,7 @@
         <v>44105</v>
       </c>
       <c r="C32">
-        <v>3.779531808196102</v>
+        <v>4.025118154354335</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -827,7 +827,7 @@
         <v>44197</v>
       </c>
       <c r="C33">
-        <v>5.264433524119849</v>
+        <v>5.029588422015507</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -838,7 +838,7 @@
         <v>42826</v>
       </c>
       <c r="C34">
-        <v>-1.948277956591027</v>
+        <v>-1.948277956591049</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -856,7 +856,7 @@
         <v>43009</v>
       </c>
       <c r="C36">
-        <v>1.622699393626514</v>
+        <v>1.35146544212994</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -865,7 +865,7 @@
         <v>43101</v>
       </c>
       <c r="C37">
-        <v>-0.3889331342539659</v>
+        <v>0.1008798891881879</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -874,7 +874,7 @@
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>1.347977615678086</v>
+        <v>1.1219597639472</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -883,7 +883,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>-0.4803592834691672</v>
+        <v>-0.4395633797965925</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -892,7 +892,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>0.5582452168983787</v>
+        <v>0.5192673123786795</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -901,7 +901,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.697424504157286</v>
+        <v>1.723750298885673</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -910,7 +910,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>0.08132380819412255</v>
+        <v>-0.2015702763257909</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -919,7 +919,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>-0.7266686268926459</v>
+        <v>-0.2638798334820058</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -928,7 +928,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>1.033989726284701</v>
+        <v>0.7316849304763728</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -937,7 +937,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-3.268895917424264</v>
+        <v>-4.925311286613299</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -946,7 +946,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-10.63447726249699</v>
+        <v>-7.654256319869535</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +955,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>10.27363253646989</v>
+        <v>8.50202672250624</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -964,7 +964,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-3.549023494059422</v>
+        <v>-3.407251369031949</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -973,7 +973,7 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>1.22024092912012</v>
+        <v>1.229358738636543</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>43009</v>
       </c>
       <c r="C52">
-        <v>0.4936257925437726</v>
+        <v>0.5366855308143181</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>43101</v>
       </c>
       <c r="C53">
-        <v>0.408627948726914</v>
+        <v>0.2960057331619304</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>43191</v>
       </c>
       <c r="C54">
-        <v>0.4080277345742234</v>
+        <v>0.4777228153289848</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>43282</v>
       </c>
       <c r="C55">
-        <v>-0.4993300709269066</v>
+        <v>-0.4412443494824725</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1038,7 +1038,7 @@
         <v>43374</v>
       </c>
       <c r="C56">
-        <v>0.7042329802738667</v>
+        <v>0.4525042218933351</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>43466</v>
       </c>
       <c r="C57">
-        <v>0.1071714493169118</v>
+        <v>0.5190738286944718</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>43556</v>
       </c>
       <c r="C58">
-        <v>0.7885536763788892</v>
+        <v>0.5024581019898333</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>43647</v>
       </c>
       <c r="C59">
-        <v>0.3680328865528271</v>
+        <v>0.4129400005751016</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>43739</v>
       </c>
       <c r="C60">
-        <v>0.8550719540409979</v>
+        <v>0.8456374970731817</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>43831</v>
       </c>
       <c r="C61">
-        <v>-3.681574812489552</v>
+        <v>-5.594035113429663</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>43922</v>
       </c>
       <c r="C62">
-        <v>-12.58043777012169</v>
+        <v>-9.041692841368821</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>44013</v>
       </c>
       <c r="C63">
-        <v>13.00240715580436</v>
+        <v>10.80871650259965</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1110,7 +1110,7 @@
         <v>44105</v>
       </c>
       <c r="C64">
-        <v>-1.165380159017382</v>
+        <v>-1.375012965460642</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>44197</v>
       </c>
       <c r="C65">
-        <v>0.7467839041550572</v>
+        <v>0.9890754714798167</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>43009</v>
       </c>
       <c r="C68">
-        <v>0.1414393624922461</v>
+        <v>0.2283427613466449</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>43101</v>
       </c>
       <c r="C69">
-        <v>1.131965450310135</v>
+        <v>0.9451616873031199</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>43191</v>
       </c>
       <c r="C70">
-        <v>0.4868264988274085</v>
+        <v>0.585493339228349</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>43282</v>
       </c>
       <c r="C71">
-        <v>0.06447019399669074</v>
+        <v>-0.01032377254487349</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>43374</v>
       </c>
       <c r="C72">
-        <v>0.6542440303358488</v>
+        <v>0.7805726465196505</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1193,7 +1193,7 @@
         <v>43466</v>
       </c>
       <c r="C73">
-        <v>0.5432299766719106</v>
+        <v>0.5387087749820996</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>43556</v>
       </c>
       <c r="C74">
-        <v>-0.07744616388979386</v>
+        <v>-0.1188080175793305</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1211,7 +1211,7 @@
         <v>43647</v>
       </c>
       <c r="C75">
-        <v>1.159641696029445</v>
+        <v>1.233936220709508</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1220,7 +1220,7 @@
         <v>43739</v>
       </c>
       <c r="C76">
-        <v>-0.4340805043942075</v>
+        <v>-0.6713979967805095</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>43831</v>
       </c>
       <c r="C77">
-        <v>-1.068734222696399</v>
+        <v>-1.991286114527069</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>43922</v>
       </c>
       <c r="C78">
-        <v>-10.23250764754204</v>
+        <v>-8.853013090281115</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>44013</v>
       </c>
       <c r="C79">
-        <v>6.851098697780933</v>
+        <v>6.8398824842971</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>44105</v>
       </c>
       <c r="C80">
-        <v>4.218508355968176</v>
+        <v>3.973481502486376</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>44197</v>
       </c>
       <c r="C81">
-        <v>-0.4442882934808101</v>
+        <v>-0.6251281511965745</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>42826</v>
       </c>
       <c r="C82">
-        <v>1.863107055616164</v>
+        <v>1.863107055616142</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1294,7 +1294,7 @@
         <v>43009</v>
       </c>
       <c r="C84">
-        <v>2.43127430408896</v>
+        <v>2.206690988460736</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>43101</v>
       </c>
       <c r="C85">
-        <v>-0.3620640330473268</v>
+        <v>0.01790879188217076</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>0.5650271294623588</v>
+        <v>0.4031122917999008</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>1.010290855889484</v>
+        <v>0.9692468644848962</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>-0.775514734160343</v>
+        <v>-0.5780606099299535</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>0.5349982575623358</v>
+        <v>0.5049926601415011</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>1.012918194298784</v>
+        <v>0.7948107758668499</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>2.549880641862368</v>
+        <v>2.195544397191362</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-1.026175810577534</v>
+        <v>-0.5305778088777968</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-0.686033390748042</v>
+        <v>-2.517366955122702</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-10.87491822989725</v>
+        <v>-7.740728196397706</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>9.249790590880957</v>
+        <v>7.369245755197684</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>0.313334210078553</v>
+        <v>0.3709149994914229</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>6.644552593284225</v>
+        <v>6.664187762605822</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>43009</v>
       </c>
       <c r="C100">
-        <v>0.1199640942388891</v>
+        <v>0.111332989789692</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>43101</v>
       </c>
       <c r="C101">
-        <v>0.918854208008324</v>
+        <v>0.9237160282886681</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>43191</v>
       </c>
       <c r="C102">
-        <v>1.11524650074859</v>
+        <v>1.119092690782719</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>43282</v>
       </c>
       <c r="C103">
-        <v>0.2160094561720838</v>
+        <v>0.1238685970970765</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>43374</v>
       </c>
       <c r="C104">
-        <v>-0.1230529126345026</v>
+        <v>-0.01156442164262916</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>43466</v>
       </c>
       <c r="C105">
-        <v>0.8101397828522927</v>
+        <v>0.8486333851959182</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>43556</v>
       </c>
       <c r="C106">
-        <v>0.4097459678501725</v>
+        <v>0.2299887375306398</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>43647</v>
       </c>
       <c r="C107">
-        <v>0.592992825158678</v>
+        <v>0.7810835217933132</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>43739</v>
       </c>
       <c r="C108">
-        <v>0.06922587318933804</v>
+        <v>-0.0553551208218539</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>43831</v>
       </c>
       <c r="C109">
-        <v>-2.407882343503331</v>
+        <v>-3.576068599310522</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>43922</v>
       </c>
       <c r="C110">
-        <v>-11.00266568490466</v>
+        <v>-9.161285694235799</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>44013</v>
       </c>
       <c r="C111">
-        <v>9.880059797938801</v>
+        <v>9.299825250888416</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>44105</v>
       </c>
       <c r="C112">
-        <v>0.5729007052813984</v>
+        <v>0.2460496984398874</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>44197</v>
       </c>
       <c r="C113">
-        <v>1.788300274309385</v>
+        <v>1.86007462860398</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>43009</v>
       </c>
       <c r="C116">
-        <v>-0.1833142940970367</v>
+        <v>-0.3578610805750504</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>43101</v>
       </c>
       <c r="C117">
-        <v>0.07549886529532035</v>
+        <v>0.5238846161735866</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>43191</v>
       </c>
       <c r="C118">
-        <v>0.08546344331537004</v>
+        <v>-0.18642538825141</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>43282</v>
       </c>
       <c r="C119">
-        <v>1.440507159749194</v>
+        <v>1.356844840405569</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>43374</v>
       </c>
       <c r="C120">
-        <v>1.08942191251975</v>
+        <v>1.421421218103558</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>43466</v>
       </c>
       <c r="C121">
-        <v>1.099651191603579</v>
+        <v>0.7109097370264106</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>43556</v>
       </c>
       <c r="C122">
-        <v>1.462009518947882</v>
+        <v>1.740821638795387</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1649,7 +1649,7 @@
         <v>43647</v>
       </c>
       <c r="C123">
-        <v>0.1738393352433976</v>
+        <v>-0.2785494862438287</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>43739</v>
       </c>
       <c r="C124">
-        <v>-1.758303099495218</v>
+        <v>-1.428294404971642</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>43831</v>
       </c>
       <c r="C125">
-        <v>-1.18814714045915</v>
+        <v>-2.46754513261207</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>43922</v>
       </c>
       <c r="C126">
-        <v>-12.80047139712181</v>
+        <v>-11.24485782231535</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>44013</v>
       </c>
       <c r="C127">
-        <v>8.611998942791965</v>
+        <v>8.69401284885627</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1694,7 +1694,7 @@
         <v>44105</v>
       </c>
       <c r="C128">
-        <v>2.950196261192772</v>
+        <v>2.647725709826232</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>44197</v>
       </c>
       <c r="C129">
-        <v>3.627669651577303</v>
+        <v>3.354951493700153</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1732,7 +1732,7 @@
         <v>43009</v>
       </c>
       <c r="C132">
-        <v>0.7994411736399698</v>
+        <v>0.8765528430188629</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>43101</v>
       </c>
       <c r="C133">
-        <v>-0.09165129027280949</v>
+        <v>-0.2532421967304632</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>-0.0004448168335779989</v>
+        <v>0.08499051038157734</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1759,7 +1759,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>1.137773220698368</v>
+        <v>1.044876561227026</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>0.2379412298919137</v>
+        <v>0.6299093916953158</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>1.143964400580777</v>
+        <v>0.6787925793249272</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>1.732265280251744</v>
+        <v>1.833905194576779</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>0.5798913119924531</v>
+        <v>0.583798801156421</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>-1.638856803245858</v>
+        <v>-1.610017335840019</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>-1.684408492910505</v>
+        <v>-3.420250240158873</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>-13.05955087270317</v>
+        <v>-10.4897903278073</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1831,7 +1831,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>8.238932590041003</v>
+        <v>7.600701589815384</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>7.168921035703901</v>
+        <v>6.685251233197564</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>1.440956029759644</v>
+        <v>1.381818946660829</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>43009</v>
       </c>
       <c r="C148">
-        <v>0.2195002364337117</v>
+        <v>0.1091359013169813</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1887,7 +1887,7 @@
         <v>43101</v>
       </c>
       <c r="C149">
-        <v>1.96044204699628</v>
+        <v>2.22835386427267</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>43191</v>
       </c>
       <c r="C150">
-        <v>2.714739093623053</v>
+        <v>2.558492691991909</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>43282</v>
       </c>
       <c r="C151">
-        <v>-0.3913508959642487</v>
+        <v>-0.3365102935435571</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>43374</v>
       </c>
       <c r="C152">
-        <v>0.7577731943522625</v>
+        <v>0.5542549061051671</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>43466</v>
       </c>
       <c r="C153">
-        <v>-0.1744052023721743</v>
+        <v>0.02307366572995573</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1932,7 +1932,7 @@
         <v>43556</v>
       </c>
       <c r="C154">
-        <v>1.734705094929634</v>
+        <v>1.867515032369438</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>43647</v>
       </c>
       <c r="C155">
-        <v>-0.4367372683258153</v>
+        <v>-0.7203751566566718</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>43739</v>
       </c>
       <c r="C156">
-        <v>0.4186696710507309</v>
+        <v>0.4937910903124454</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>43831</v>
       </c>
       <c r="C157">
-        <v>-1.913065832870298</v>
+        <v>-3.250642741916066</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1968,7 +1968,7 @@
         <v>43922</v>
       </c>
       <c r="C158">
-        <v>-8.116435229979091</v>
+        <v>-5.805200184172554</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>44013</v>
       </c>
       <c r="C159">
-        <v>7.82963396898535</v>
+        <v>6.816828416390441</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>44105</v>
       </c>
       <c r="C160">
-        <v>-2.118430540011873</v>
+        <v>-2.623957223179085</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>44197</v>
       </c>
       <c r="C161">
-        <v>-0.3017007008536243</v>
+        <v>0.07772155528134039</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>43009</v>
       </c>
       <c r="C164">
-        <v>0.2031948561595609</v>
+        <v>0.2362755584671916</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>43101</v>
       </c>
       <c r="C165">
-        <v>0.6519423336530439</v>
+        <v>0.5797653525851487</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2042,7 +2042,7 @@
         <v>43191</v>
       </c>
       <c r="C166">
-        <v>0.900420614617703</v>
+        <v>0.9395039163178742</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>43282</v>
       </c>
       <c r="C167">
-        <v>-0.2233031711261657</v>
+        <v>-0.4539682427068148</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.660316657223281</v>
+        <v>0.7850595688520201</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2069,7 +2069,7 @@
         <v>43466</v>
       </c>
       <c r="C169">
-        <v>0.2342741308761553</v>
+        <v>0.9019793190396364</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>43556</v>
       </c>
       <c r="C170">
-        <v>1.645141676400375</v>
+        <v>0.8653279254662305</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>43647</v>
       </c>
       <c r="C171">
-        <v>-1.007917974532069</v>
+        <v>-0.8682632751731201</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2096,7 +2096,7 @@
         <v>43739</v>
       </c>
       <c r="C172">
-        <v>0.8875208680116708</v>
+        <v>1.033996285768635</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>43831</v>
       </c>
       <c r="C173">
-        <v>-1.216520811106836</v>
+        <v>-2.431448972122119</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43922</v>
       </c>
       <c r="C174">
-        <v>-6.711204902887968</v>
+        <v>-4.641713947349412</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>44013</v>
       </c>
       <c r="C175">
-        <v>7.484011391607415</v>
+        <v>6.184259807582526</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44105</v>
       </c>
       <c r="C176">
-        <v>-0.6144065088974249</v>
+        <v>-0.3892315333671181</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44197</v>
       </c>
       <c r="C177">
-        <v>-0.2221071518631268</v>
+        <v>-0.2605525164865008</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2152,7 +2152,7 @@
         <v>42826</v>
       </c>
       <c r="C178">
-        <v>2.587469164654022</v>
+        <v>2.587469164654044</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>42917</v>
       </c>
       <c r="C179">
-        <v>1.887381591616766</v>
+        <v>1.887381591616744</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43009</v>
       </c>
       <c r="C180">
-        <v>-0.3387795617888156</v>
+        <v>-0.114513733810373</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43101</v>
       </c>
       <c r="C181">
-        <v>1.133893236727479</v>
+        <v>0.5796987481876625</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>2.488201324822326</v>
+        <v>2.821534244632251</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>1.611523549577742</v>
+        <v>1.324032228333016</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>-1.50080581065497</v>
+        <v>-1.298561808000165</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>2.42109305547662</v>
+        <v>2.999286536789447</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>0.04754012474958991</v>
+        <v>-0.5357309948199163</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>1.397943006691493</v>
+        <v>1.316540540549127</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>0.5705876366378648</v>
+        <v>0.8266803626190145</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-2.330014038886519</v>
+        <v>-4.118030264984085</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>-2.133539820173835</v>
+        <v>1.244131597191611</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>2.456298698603865</v>
+        <v>0.7264610323019172</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>4.04593463823939</v>
+        <v>4.125667822445234</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>0.03455257443130133</v>
+        <v>0.04125991669117202</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2316,7 +2316,7 @@
         <v>43009</v>
       </c>
       <c r="C196">
-        <v>0.7263504024947798</v>
+        <v>0.6650930065022598</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>43101</v>
       </c>
       <c r="C197">
-        <v>0.3378095982143448</v>
+        <v>0.4148637757538376</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>43191</v>
       </c>
       <c r="C198">
-        <v>0.03649099091622698</v>
+        <v>0.02055532291578288</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>43282</v>
       </c>
       <c r="C199">
-        <v>0.3625661536901248</v>
+        <v>0.457284824856985</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>43374</v>
       </c>
       <c r="C200">
-        <v>0.673908070940521</v>
+        <v>0.3862561915299656</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>43466</v>
       </c>
       <c r="C201">
-        <v>0.448359365440143</v>
+        <v>1.014952653551315</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>43556</v>
       </c>
       <c r="C202">
-        <v>0.2108667214065552</v>
+        <v>-0.3106966452209425</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>43647</v>
       </c>
       <c r="C203">
-        <v>0.07862529888444936</v>
+        <v>0.03298327991556604</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>43739</v>
       </c>
       <c r="C204">
-        <v>-0.1956838069534172</v>
+        <v>-0.0571952133519793</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>43831</v>
       </c>
       <c r="C205">
-        <v>-0.4385017187955698</v>
+        <v>-1.08892570249991</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>43922</v>
       </c>
       <c r="C206">
-        <v>-5.360769410902977</v>
+        <v>-4.026735018833816</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2415,7 +2415,7 @@
         <v>44013</v>
       </c>
       <c r="C207">
-        <v>4.901812540989225</v>
+        <v>4.052677324171028</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>44105</v>
       </c>
       <c r="C208">
-        <v>-1.59477713160241</v>
+        <v>-1.426580102933395</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>44197</v>
       </c>
       <c r="C209">
-        <v>0.5128611373973024</v>
+        <v>0.4683943440175087</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>43009</v>
       </c>
       <c r="C212">
-        <v>0.7935532505729537</v>
+        <v>0.8288967692315241</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2471,7 +2471,7 @@
         <v>43101</v>
       </c>
       <c r="C213">
-        <v>0.5667167925346606</v>
+        <v>0.4717075575966456</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>43191</v>
       </c>
       <c r="C214">
-        <v>1.022519037715552</v>
+        <v>1.082604262328868</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>43282</v>
       </c>
       <c r="C215">
-        <v>0.590660746721472</v>
+        <v>0.6307391764687864</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>43374</v>
       </c>
       <c r="C216">
-        <v>0.1987030313366223</v>
+        <v>0.1160420553077968</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>43466</v>
       </c>
       <c r="C217">
-        <v>-0.07395060918249374</v>
+        <v>-0.06296973112649429</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>43556</v>
       </c>
       <c r="C218">
-        <v>-0.2863082320927024</v>
+        <v>-0.4526759418032933</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2525,7 +2525,7 @@
         <v>43647</v>
       </c>
       <c r="C219">
-        <v>0.2458223506265789</v>
+        <v>0.5755057662335084</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>43739</v>
       </c>
       <c r="C220">
-        <v>0.5031183103763937</v>
+        <v>0.2790346715753955</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>43831</v>
       </c>
       <c r="C221">
-        <v>-4.06225637208486</v>
+        <v>-6.058749283934639</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>43922</v>
       </c>
       <c r="C222">
-        <v>-14.81559638987225</v>
+        <v>-11.03564488142604</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>44013</v>
       </c>
       <c r="C223">
-        <v>19.16690161924146</v>
+        <v>16.61271357337522</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>44105</v>
       </c>
       <c r="C224">
-        <v>-3.884196108845839</v>
+        <v>-4.006940493315147</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>44197</v>
       </c>
       <c r="C225">
-        <v>-0.2840192167653743</v>
+        <v>-0.1350580295551573</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>43009</v>
       </c>
       <c r="C228">
-        <v>0.7629471086458839</v>
+        <v>0.7196249103506025</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>43101</v>
       </c>
       <c r="C229">
-        <v>0.407936163867717</v>
+        <v>0.4334984573546308</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>1.154543773955718</v>
+        <v>1.172296154848373</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.4855263746997851</v>
+        <v>0.4691301745073817</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.3930234048136194</v>
+        <v>0.3655710973242909</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>0.4945994290063593</v>
+        <v>0.6360543989263556</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>0.1033209499019083</v>
+        <v>-0.1087938820311329</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>-0.731120717932765</v>
+        <v>-0.6649648250945828</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>-0.1842023532366621</v>
+        <v>-0.06613067431147091</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-1.956455166458293</v>
+        <v>-3.363550071254007</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-10.35834003999154</v>
+        <v>-8.202671795166317</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2707,7 +2707,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>9.007803444554185</v>
+        <v>7.974857358494059</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-1.829659779229742</v>
+        <v>-1.986892465436751</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>-0.09063172833865263</v>
+        <v>0.02128453652638918</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2736,7 +2736,7 @@
         <v>42826</v>
       </c>
       <c r="C242">
-        <v>2.243756100149419</v>
+        <v>2.243756100149441</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>43009</v>
       </c>
       <c r="C244">
-        <v>1.231283782851711</v>
+        <v>1.286043333266562</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>43101</v>
       </c>
       <c r="C245">
-        <v>0.2500071382349311</v>
+        <v>0.1721644797286981</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>43191</v>
       </c>
       <c r="C246">
-        <v>3.245579854917802</v>
+        <v>3.269948494196773</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>43282</v>
       </c>
       <c r="C247">
-        <v>-0.4608769703606019</v>
+        <v>-0.3806875331503479</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>43374</v>
       </c>
       <c r="C248">
-        <v>-0.3023874607279042</v>
+        <v>-0.4385162317588343</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>43466</v>
       </c>
       <c r="C249">
-        <v>-0.6881349695251227</v>
+        <v>-0.5974727633856536</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>43556</v>
       </c>
       <c r="C250">
-        <v>-0.4942754752818135</v>
+        <v>-0.9361023157715143</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2817,7 +2817,7 @@
         <v>43647</v>
       </c>
       <c r="C251">
-        <v>0.6182735119532268</v>
+        <v>1.136118801174502</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>43739</v>
       </c>
       <c r="C252">
-        <v>-0.104673029467639</v>
+        <v>-0.1071691723890322</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2835,7 +2835,7 @@
         <v>43831</v>
       </c>
       <c r="C253">
-        <v>-2.197065424055689</v>
+        <v>-3.511588518666087</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>43922</v>
       </c>
       <c r="C254">
-        <v>-10.01559833266893</v>
+        <v>-8.248597376799182</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>44013</v>
       </c>
       <c r="C255">
-        <v>5.155537427333301</v>
+        <v>4.611026474352853</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>44105</v>
       </c>
       <c r="C256">
-        <v>0.8959463566644787</v>
+        <v>0.5538505458647647</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>44197</v>
       </c>
       <c r="C257">
-        <v>5.916000133499422</v>
+        <v>6.092328880057174</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>42826</v>
       </c>
       <c r="C258">
-        <v>0.09045086716370498</v>
+        <v>0.09045086716368278</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>42917</v>
       </c>
       <c r="C259">
-        <v>0.4922853338401589</v>
+        <v>0.4922853338401811</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2900,7 +2900,7 @@
         <v>43009</v>
       </c>
       <c r="C260">
-        <v>1.320302455348488</v>
+        <v>1.25133713224197</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>43101</v>
       </c>
       <c r="C261">
-        <v>0.977941517403691</v>
+        <v>1.087958285308965</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>43191</v>
       </c>
       <c r="C262">
-        <v>1.579401502010636</v>
+        <v>1.537963360684103</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2927,7 +2927,7 @@
         <v>43282</v>
       </c>
       <c r="C263">
-        <v>0.8598829663073904</v>
+        <v>0.7960015695795519</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>43374</v>
       </c>
       <c r="C264">
-        <v>0.7743989172902754</v>
+        <v>0.8781561029086227</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2945,7 +2945,7 @@
         <v>43466</v>
       </c>
       <c r="C265">
-        <v>1.930026206759905</v>
+        <v>1.445472476429654</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43556</v>
       </c>
       <c r="C266">
-        <v>1.04413487692403</v>
+        <v>2.216705962148158</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43647</v>
       </c>
       <c r="C267">
-        <v>0.5316998203282131</v>
+        <v>-0.7131023629727284</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>43739</v>
       </c>
       <c r="C268">
-        <v>0.4259402203114382</v>
+        <v>1.344443550682639</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>43831</v>
       </c>
       <c r="C269">
-        <v>-1.066456541570848</v>
+        <v>-2.864495741598372</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>43922</v>
       </c>
       <c r="C270">
-        <v>-9.375472976994637</v>
+        <v>-7.301132328238557</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44013</v>
       </c>
       <c r="C271">
-        <v>7.540785219049218</v>
+        <v>6.611305039427839</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>44105</v>
       </c>
       <c r="C272">
-        <v>-0.8679011353577515</v>
+        <v>-0.9547670538211039</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>44197</v>
       </c>
       <c r="C273">
-        <v>4.628642218535095</v>
+        <v>4.78090042352457</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>43009</v>
       </c>
       <c r="C276">
-        <v>5.766945519606748</v>
+        <v>5.465042626721273</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>43101</v>
       </c>
       <c r="C277">
-        <v>-8.894216902807983</v>
+        <v>-8.725583434240358</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>4.961509338747572</v>
+        <v>5.067494738041334</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3073,7 +3073,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>-1.412354861580711</v>
+        <v>-0.8279024375066668</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>1.381472252976224</v>
+        <v>-0.0305700980107515</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>2.035839116802918</v>
+        <v>2.434495885542654</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>-4.119954567873174</v>
+        <v>-2.550068528067706</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>2.513227175873256</v>
+        <v>-0.3499728807430436</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>2.86243293248436</v>
+        <v>5.234266208319216</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-3.873464728213605</v>
+        <v>-5.571652487868772</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3136,7 +3136,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-7.172932029030643</v>
+        <v>-5.421146058327119</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>3.558866377319148</v>
+        <v>3.050903963954466</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3154,7 +3154,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>1.440854659085433</v>
+        <v>0.7930700892797793</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>1.587799785098598</v>
+        <v>1.990663822843386</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>42917</v>
       </c>
       <c r="C291">
-        <v>1.910310904244783</v>
+        <v>1.910310904244761</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>43009</v>
       </c>
       <c r="C292">
-        <v>2.111542431042701</v>
+        <v>2.063950393612179</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>43101</v>
       </c>
       <c r="C293">
-        <v>0.5441946138001308</v>
+        <v>0.6244200653960252</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>43191</v>
       </c>
       <c r="C294">
-        <v>1.780325398961558</v>
+        <v>1.74660031720002</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>43282</v>
       </c>
       <c r="C295">
-        <v>0.7298139509009705</v>
+        <v>0.7251298211927049</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>43374</v>
       </c>
       <c r="C296">
-        <v>2.541431232257363</v>
+        <v>2.515603676493217</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>43466</v>
       </c>
       <c r="C297">
-        <v>1.332419749380298</v>
+        <v>1.284650985614699</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3246,7 +3246,7 @@
         <v>43556</v>
       </c>
       <c r="C298">
-        <v>1.356593695299435</v>
+        <v>1.522155269001924</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>43647</v>
       </c>
       <c r="C299">
-        <v>0.0416664541203815</v>
+        <v>-0.0641792553208953</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3264,7 +3264,7 @@
         <v>43739</v>
       </c>
       <c r="C300">
-        <v>1.145607586300468</v>
+        <v>1.13754954029297</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3273,7 +3273,7 @@
         <v>43831</v>
       </c>
       <c r="C301">
-        <v>-0.2219798547216212</v>
+        <v>-2.392971010194578</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>43922</v>
       </c>
       <c r="C302">
-        <v>-20.26369494370624</v>
+        <v>-17.48250255208132</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3291,7 +3291,7 @@
         <v>44013</v>
       </c>
       <c r="C303">
-        <v>17.5577507323045</v>
+        <v>17.3839048459506</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>44105</v>
       </c>
       <c r="C304">
-        <v>7.695237645138442</v>
+        <v>6.570780004386156</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>44197</v>
       </c>
       <c r="C305">
-        <v>3.7675015848885</v>
+        <v>3.763870801732239</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>43009</v>
       </c>
       <c r="C308">
-        <v>1.219264098178052</v>
+        <v>1.196574224167324</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>43101</v>
       </c>
       <c r="C309">
-        <v>1.539736440448225</v>
+        <v>1.612900370300041</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3356,7 +3356,7 @@
         <v>43191</v>
       </c>
       <c r="C310">
-        <v>2.018399765445511</v>
+        <v>1.967801535819524</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>43282</v>
       </c>
       <c r="C311">
-        <v>0.2727410457028956</v>
+        <v>0.2160780628564174</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3374,7 +3374,7 @@
         <v>43374</v>
       </c>
       <c r="C312">
-        <v>1.946682357289453</v>
+        <v>2.02842724353931</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3383,7 +3383,7 @@
         <v>43466</v>
       </c>
       <c r="C313">
-        <v>0.6108168913129042</v>
+        <v>0.5676872385414367</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>43556</v>
       </c>
       <c r="C314">
-        <v>1.584727485629833</v>
+        <v>1.601696844705169</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>43647</v>
       </c>
       <c r="C315">
-        <v>0.375824921291712</v>
+        <v>0.4146444953723849</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>43739</v>
       </c>
       <c r="C316">
-        <v>0.559142678497504</v>
+        <v>0.4640503575303434</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>43831</v>
       </c>
       <c r="C317">
-        <v>0.3169468257980146</v>
+        <v>-0.1742408267889184</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>43922</v>
       </c>
       <c r="C318">
-        <v>-8.430835975617612</v>
+        <v>-8.037574378257073</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3437,7 +3437,7 @@
         <v>44013</v>
       </c>
       <c r="C319">
-        <v>4.575378847929024</v>
+        <v>4.681505710019751</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>44105</v>
       </c>
       <c r="C320">
-        <v>1.896029599651894</v>
+        <v>2.06446931812716</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3455,7 +3455,7 @@
         <v>44197</v>
       </c>
       <c r="C321">
-        <v>2.914488788198688</v>
+        <v>2.764523846167899</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3484,7 +3484,7 @@
         <v>43009</v>
       </c>
       <c r="C324">
-        <v>14.2126460779944</v>
+        <v>14.30839396445118</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3493,7 +3493,7 @@
         <v>43101</v>
       </c>
       <c r="C325">
-        <v>-5.775869974938197</v>
+        <v>-5.906130789688024</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>2.212749167236283</v>
+        <v>2.26851476020169</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>4.009861904810186</v>
+        <v>4.154403470603363</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3520,7 +3520,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>4.854128528910473</v>
+        <v>4.43721430690851</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>-0.925678726382384</v>
+        <v>-0.4847468514986519</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>2.688813482677621</v>
+        <v>2.412669295495684</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>0.5276808692743051</v>
+        <v>0.5496754380684088</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>1.299791095997604</v>
+        <v>1.48542830402405</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-2.997433573662711</v>
+        <v>-4.535216423570343</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3574,7 +3574,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-8.454554968650696</v>
+        <v>-6.128710528639325</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3583,7 +3583,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>11.08551558273902</v>
+        <v>9.924751658534948</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3592,7 +3592,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>2.390327252144497</v>
+        <v>2.402995747556069</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>-1.916776381668595</v>
+        <v>-1.909979356277891</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3630,7 +3630,7 @@
         <v>43009</v>
       </c>
       <c r="C340">
-        <v>0.5323427295897964</v>
+        <v>0.5767790150844831</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>43101</v>
       </c>
       <c r="C341">
-        <v>0.2878794559256326</v>
+        <v>0.2086321266763003</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -3648,7 +3648,7 @@
         <v>43191</v>
       </c>
       <c r="C342">
-        <v>0.8550258381339049</v>
+        <v>0.8901898931785057</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>43282</v>
       </c>
       <c r="C343">
-        <v>1.293267956779842</v>
+        <v>1.328600081550335</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>43374</v>
       </c>
       <c r="C344">
-        <v>0.6855889594834963</v>
+        <v>0.5013527000624629</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>43466</v>
       </c>
       <c r="C345">
-        <v>2.00673864495573</v>
+        <v>2.349979206336794</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -3684,7 +3684,7 @@
         <v>43556</v>
       </c>
       <c r="C346">
-        <v>-0.0524500066049427</v>
+        <v>-0.3558106838847275</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -3693,7 +3693,7 @@
         <v>43647</v>
       </c>
       <c r="C347">
-        <v>0.9525584867755121</v>
+        <v>1.068603894202846</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -3702,7 +3702,7 @@
         <v>43739</v>
       </c>
       <c r="C348">
-        <v>-0.2298947957909081</v>
+        <v>-0.2400559111519818</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -3711,7 +3711,7 @@
         <v>43831</v>
       </c>
       <c r="C349">
-        <v>-1.594344526361657</v>
+        <v>-2.993852804374475</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>43922</v>
       </c>
       <c r="C350">
-        <v>-7.564501533237811</v>
+        <v>-5.524744587783759</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -3729,7 +3729,7 @@
         <v>44013</v>
       </c>
       <c r="C351">
-        <v>5.496926582854744</v>
+        <v>5.057943206523974</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>44105</v>
       </c>
       <c r="C352">
-        <v>3.031958308719562</v>
+        <v>2.777384158382068</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -3747,7 +3747,7 @@
         <v>44197</v>
       </c>
       <c r="C353">
-        <v>2.387536181886629</v>
+        <v>2.311496753381537</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>43009</v>
       </c>
       <c r="C356">
-        <v>0.2495147160755939</v>
+        <v>0.3141909416806588</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>43101</v>
       </c>
       <c r="C357">
-        <v>0.3898871867139331</v>
+        <v>0.2358953408418074</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -3794,7 +3794,7 @@
         <v>43191</v>
       </c>
       <c r="C358">
-        <v>0.4599230241044916</v>
+        <v>0.5493893519767035</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -3803,7 +3803,7 @@
         <v>43282</v>
       </c>
       <c r="C359">
-        <v>1.050609881749098</v>
+        <v>1.094869539292143</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -3812,7 +3812,7 @@
         <v>43374</v>
       </c>
       <c r="C360">
-        <v>0.3255956733630994</v>
+        <v>0.08349963876461697</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -3821,7 +3821,7 @@
         <v>43466</v>
       </c>
       <c r="C361">
-        <v>-1.18545764847432</v>
+        <v>-0.9948043514545923</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>43556</v>
       </c>
       <c r="C362">
-        <v>-0.1338532144609883</v>
+        <v>-0.189390772192588</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>43647</v>
       </c>
       <c r="C363">
-        <v>-0.3793279347384493</v>
+        <v>-0.2256130671048351</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>43739</v>
       </c>
       <c r="C364">
-        <v>0.2683352174676079</v>
+        <v>0.1842930872971493</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -3857,7 +3857,7 @@
         <v>43831</v>
       </c>
       <c r="C365">
-        <v>-6.59830278210134</v>
+        <v>-8.848149596352906</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>43922</v>
       </c>
       <c r="C366">
-        <v>-13.45363952208566</v>
+        <v>-9.272925615037074</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>44013</v>
       </c>
       <c r="C367">
-        <v>18.61543742802616</v>
+        <v>15.96326803066333</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>44105</v>
       </c>
       <c r="C368">
-        <v>-3.878548790499026</v>
+        <v>-4.195968256287541</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -3893,7 +3893,7 @@
         <v>44197</v>
       </c>
       <c r="C369">
-        <v>2.230303027382075</v>
+        <v>2.540692892238927</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -3922,7 +3922,7 @@
         <v>43009</v>
       </c>
       <c r="C372">
-        <v>0.08078777666473691</v>
+        <v>0.08969095782367376</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -3931,7 +3931,7 @@
         <v>43101</v>
       </c>
       <c r="C373">
-        <v>0.8697607501876314</v>
+        <v>0.8612816439961035</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>-0.3335538941296123</v>
+        <v>-0.3340415121562024</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.6726022596373227</v>
+        <v>0.6295109430820789</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>-0.09647752992545389</v>
+        <v>-0.02577666421215152</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3967,7 +3967,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>0.1161815443902148</v>
+        <v>0.06195930418424478</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>0.01199318376281511</v>
+        <v>0.1650949898076348</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>-0.6024407372174578</v>
+        <v>-0.8401163257048871</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.1794757019066395</v>
+        <v>0.2649781466428358</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-0.9397930133194343</v>
+        <v>-1.759934804562668</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4012,7 +4012,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-9.29009904020428</v>
+        <v>-8.043926465707752</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4021,7 +4021,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>6.353683246102393</v>
+        <v>5.937374793091954</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>1.046870831058544</v>
+        <v>1.041369533047454</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>1.379828535344818</v>
+        <v>1.27033258652236</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>43009</v>
       </c>
       <c r="C388">
-        <v>0.2867035400108131</v>
+        <v>0.4139159191133723</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4077,7 +4077,7 @@
         <v>43101</v>
       </c>
       <c r="C389">
-        <v>1.388307509671693</v>
+        <v>1.158423218659332</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>43191</v>
       </c>
       <c r="C390">
-        <v>0.3653257971160562</v>
+        <v>0.4659679866060529</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>43282</v>
       </c>
       <c r="C391">
-        <v>2.713152285602094</v>
+        <v>2.758950011569539</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C392">
-        <v>-0.9410671513886415</v>
+        <v>-1.405069053847496</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4113,7 +4113,7 @@
         <v>43466</v>
       </c>
       <c r="C393">
-        <v>-0.1172663366717286</v>
+        <v>0.4484440673877321</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4122,7 +4122,7 @@
         <v>43556</v>
       </c>
       <c r="C394">
-        <v>0.4163316389015348</v>
+        <v>0.416853833412012</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4131,7 +4131,7 @@
         <v>43647</v>
       </c>
       <c r="C395">
-        <v>-0.2809719257158005</v>
+        <v>-0.6301306091471726</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4140,7 +4140,7 @@
         <v>43739</v>
       </c>
       <c r="C396">
-        <v>1.428260147272908</v>
+        <v>1.811503086625099</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>43831</v>
       </c>
       <c r="C397">
-        <v>-0.01101346292844418</v>
+        <v>-0.5938483044885534</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>43922</v>
       </c>
       <c r="C398">
-        <v>-3.134909787669116</v>
+        <v>-2.514223858363307</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>44013</v>
       </c>
       <c r="C399">
-        <v>2.309510596641196</v>
+        <v>2.046999934452409</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4176,7 +4176,7 @@
         <v>44105</v>
       </c>
       <c r="C400">
-        <v>0.9053876489780066</v>
+        <v>0.9477704370684847</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>44197</v>
       </c>
       <c r="C401">
-        <v>2.852823663226012</v>
+        <v>2.846708550621302</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>43009</v>
       </c>
       <c r="C404">
-        <v>4.797788099063749</v>
+        <v>4.584927253054083</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4223,7 +4223,7 @@
         <v>43101</v>
       </c>
       <c r="C405">
-        <v>0.3350665920039297</v>
+        <v>0.7002252439462842</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4232,7 +4232,7 @@
         <v>43191</v>
       </c>
       <c r="C406">
-        <v>-0.4794868670771169</v>
+        <v>-0.6385488651622251</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4241,7 +4241,7 @@
         <v>43282</v>
       </c>
       <c r="C407">
-        <v>3.002779586666282</v>
+        <v>2.779480965510461</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>43374</v>
       </c>
       <c r="C408">
-        <v>-1.948770744728434</v>
+        <v>-1.603762001157527</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>43466</v>
       </c>
       <c r="C409">
-        <v>0.8587405116340818</v>
+        <v>0.2863836940189213</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4268,7 +4268,7 @@
         <v>43556</v>
       </c>
       <c r="C410">
-        <v>3.997018775381678</v>
+        <v>4.77633267957478</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>43647</v>
       </c>
       <c r="C411">
-        <v>-0.1659446504429063</v>
+        <v>-0.321979130510508</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4286,7 +4286,7 @@
         <v>43739</v>
       </c>
       <c r="C412">
-        <v>0.3884593373624234</v>
+        <v>-0.1768698658195289</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>43831</v>
       </c>
       <c r="C413">
-        <v>-4.487827947799639</v>
+        <v>-4.691270944054415</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>43922</v>
       </c>
       <c r="C414">
-        <v>-7.457485996963209</v>
+        <v>-6.833559972168302</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>44013</v>
       </c>
       <c r="C415">
-        <v>3.481180390958816</v>
+        <v>3.947856984429543</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4322,7 +4322,7 @@
         <v>44105</v>
       </c>
       <c r="C416">
-        <v>-0.7373378029628674</v>
+        <v>-1.650180591189088</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4331,7 +4331,7 @@
         <v>44197</v>
       </c>
       <c r="C417">
-        <v>4.896544577015738</v>
+        <v>5.342944630757818</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4360,7 +4360,7 @@
         <v>43009</v>
       </c>
       <c r="C420">
-        <v>1.943092362686505</v>
+        <v>2.098364291014576</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>43101</v>
       </c>
       <c r="C421">
-        <v>1.407490392466482</v>
+        <v>1.067374507184771</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4378,7 +4378,7 @@
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>1.453366591949368</v>
+        <v>1.639971195576306</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>1.003742326020651</v>
+        <v>0.5128571903127765</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4396,7 +4396,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>-1.520785373206335</v>
+        <v>-0.9166371747851509</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>1.361261129276281</v>
+        <v>1.54943805365011</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>0.8587841957059528</v>
+        <v>0.35994542407769</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>0.4606318282109001</v>
+        <v>0.7821459038425793</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>0.806942794120391</v>
+        <v>0.60483512723708</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4441,7 +4441,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-1.420952489778404</v>
+        <v>-2.375722304419747</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4450,7 +4450,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-4.500227188697714</v>
+        <v>-2.403784552234622</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>6.020441843283719</v>
+        <v>4.46221943689602</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>0.8937320255078207</v>
+        <v>1.267101785058533</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4477,7 +4477,7 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>2.897076781159158</v>
+        <v>2.876628245943347</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4506,7 +4506,7 @@
         <v>43009</v>
       </c>
       <c r="C436">
-        <v>0.3041471326559408</v>
+        <v>0.2162109747609886</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>43101</v>
       </c>
       <c r="C437">
-        <v>-1.716190211324964</v>
+        <v>-1.538266517946585</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>43191</v>
       </c>
       <c r="C438">
-        <v>0.526643716556241</v>
+        <v>0.4330378160482651</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>43282</v>
       </c>
       <c r="C439">
-        <v>-0.6373279692693856</v>
+        <v>-0.6003863744359461</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -4542,7 +4542,7 @@
         <v>43374</v>
       </c>
       <c r="C440">
-        <v>1.678020819338077</v>
+        <v>1.749481019792243</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -4551,7 +4551,7 @@
         <v>43466</v>
       </c>
       <c r="C441">
-        <v>2.04320811782428</v>
+        <v>1.969705494566254</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -4560,7 +4560,7 @@
         <v>43556</v>
       </c>
       <c r="C442">
-        <v>-0.8012429783972985</v>
+        <v>-0.7773316246311834</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>43647</v>
       </c>
       <c r="C443">
-        <v>0.2257303216135487</v>
+        <v>-0.7535907186740021</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>43739</v>
       </c>
       <c r="C444">
-        <v>-1.521528447763609</v>
+        <v>0.2247603089910122</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -4587,7 +4587,7 @@
         <v>43831</v>
       </c>
       <c r="C445">
-        <v>-2.483171841188359</v>
+        <v>-5.269823697652853</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>43922</v>
       </c>
       <c r="C446">
-        <v>-8.228108929276113</v>
+        <v>-4.624145727201611</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -4605,7 +4605,7 @@
         <v>44013</v>
       </c>
       <c r="C447">
-        <v>9.090130136464737</v>
+        <v>7.536760159626343</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>44105</v>
       </c>
       <c r="C448">
-        <v>0.2964973499170798</v>
+        <v>-0.6323728567161346</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>44197</v>
       </c>
       <c r="C449">
-        <v>3.871279245235404</v>
+        <v>4.471953209837154</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -4652,7 +4652,7 @@
         <v>43009</v>
       </c>
       <c r="C452">
-        <v>1.075750608520787</v>
+        <v>1.118868666563499</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -4661,7 +4661,7 @@
         <v>43101</v>
       </c>
       <c r="C453">
-        <v>1.098703121949129</v>
+        <v>1.058220451254077</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -4670,7 +4670,7 @@
         <v>43191</v>
       </c>
       <c r="C454">
-        <v>-0.03723024613522252</v>
+        <v>-0.03982856084323583</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -4679,7 +4679,7 @@
         <v>43282</v>
       </c>
       <c r="C455">
-        <v>-0.5847232765936905</v>
+        <v>-0.6602407480313155</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>43374</v>
       </c>
       <c r="C456">
-        <v>1.034377584330159</v>
+        <v>1.129334730352705</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -4697,7 +4697,7 @@
         <v>43466</v>
       </c>
       <c r="C457">
-        <v>-0.4603764503501973</v>
+        <v>-0.4553583408704487</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>43556</v>
       </c>
       <c r="C458">
-        <v>1.411913758420713</v>
+        <v>1.338057460463604</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -4715,7 +4715,7 @@
         <v>43647</v>
       </c>
       <c r="C459">
-        <v>-0.3612900527563356</v>
+        <v>-0.4253453838509946</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -4724,7 +4724,7 @@
         <v>43739</v>
       </c>
       <c r="C460">
-        <v>-1.183254088608443</v>
+        <v>-1.000923997747027</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>43831</v>
       </c>
       <c r="C461">
-        <v>-0.7550210960602488</v>
+        <v>-2.131500742630221</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>43922</v>
       </c>
       <c r="C462">
-        <v>-14.5052717900278</v>
+        <v>-13.03117511038947</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -4751,7 +4751,7 @@
         <v>44013</v>
       </c>
       <c r="C463">
-        <v>9.363274719622661</v>
+        <v>9.736178154108632</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -4760,7 +4760,7 @@
         <v>44105</v>
       </c>
       <c r="C464">
-        <v>2.222056042074017</v>
+        <v>1.429431779363255</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>44197</v>
       </c>
       <c r="C465">
-        <v>1.726803189121262</v>
+        <v>1.782774987272373</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>43009</v>
       </c>
       <c r="C468">
-        <v>-0.005477680812882024</v>
+        <v>-0.01349267626647999</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -4807,7 +4807,7 @@
         <v>43101</v>
       </c>
       <c r="C469">
-        <v>0.8604764286900046</v>
+        <v>0.9073709789647388</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>1.078699790408466</v>
+        <v>1.03982439967707</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4825,7 +4825,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>-0.6182745190571381</v>
+        <v>-0.5412616228117173</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>1.348744949879266</v>
+        <v>1.199067243291618</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>0.4423306502070234</v>
+        <v>0.5375204667656952</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>0.5672343498756893</v>
+        <v>0.5444900786693241</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4861,7 +4861,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>0.7327284327715011</v>
+        <v>0.7347572705986627</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4870,7 +4870,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-0.02949369514155809</v>
+        <v>-0.006872945327018876</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4879,7 +4879,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-1.697896438202806</v>
+        <v>-2.793718204657203</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-7.760969469496426</v>
+        <v>-5.880085361851362</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>6.540628504566492</v>
+        <v>5.314620143351378</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4906,7 +4906,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>-0.7523172549366741</v>
+        <v>-0.5308072168412115</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>1.162619857328751</v>
+        <v>1.173182870424605</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>43009</v>
       </c>
       <c r="C484">
-        <v>0.6830167780369711</v>
+        <v>0.6957720154011859</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>43101</v>
       </c>
       <c r="C485">
-        <v>1.069461387712267</v>
+        <v>1.041793480202036</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>43191</v>
       </c>
       <c r="C486">
-        <v>0.7378602863279848</v>
+        <v>0.7526809060059536</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -4971,7 +4971,7 @@
         <v>43282</v>
       </c>
       <c r="C487">
-        <v>1.061053575032656</v>
+        <v>1.301023104715227</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -4980,7 +4980,7 @@
         <v>43374</v>
       </c>
       <c r="C488">
-        <v>1.502737989493319</v>
+        <v>1.044243157391311</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -4989,7 +4989,7 @@
         <v>43466</v>
       </c>
       <c r="C489">
-        <v>-0.02522278141069423</v>
+        <v>0.1472897352496005</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -4998,7 +4998,7 @@
         <v>43556</v>
       </c>
       <c r="C490">
-        <v>1.213914684918449</v>
+        <v>1.30801620689649</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5007,7 +5007,7 @@
         <v>43647</v>
       </c>
       <c r="C491">
-        <v>-0.627406297151023</v>
+        <v>-0.8749037023787487</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5016,7 +5016,7 @@
         <v>43739</v>
       </c>
       <c r="C492">
-        <v>1.319671873071848</v>
+        <v>1.576447121870017</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>43831</v>
       </c>
       <c r="C493">
-        <v>-1.513209704383567</v>
+        <v>-3.240403079325993</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5034,7 +5034,7 @@
         <v>43922</v>
       </c>
       <c r="C494">
-        <v>-8.406608033097672</v>
+        <v>-5.178975781199191</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>44013</v>
       </c>
       <c r="C495">
-        <v>9.791273899168452</v>
+        <v>7.886302790606137</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>44105</v>
       </c>
       <c r="C496">
-        <v>0.9116368075986703</v>
+        <v>0.9158652878071383</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5061,7 +5061,7 @@
         <v>44197</v>
       </c>
       <c r="C497">
-        <v>2.680417660182388</v>
+        <v>2.679078816669866</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5090,7 +5090,7 @@
         <v>43009</v>
       </c>
       <c r="C500">
-        <v>2.97125884290792</v>
+        <v>2.859109238981539</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5099,7 +5099,7 @@
         <v>43101</v>
       </c>
       <c r="C501">
-        <v>0.5803641387277736</v>
+        <v>0.8099270928343616</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>43191</v>
       </c>
       <c r="C502">
-        <v>0.5308587409320387</v>
+        <v>0.4112927325568894</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5117,7 +5117,7 @@
         <v>43282</v>
       </c>
       <c r="C503">
-        <v>0.2715779157311138</v>
+        <v>0.1577749415736962</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5126,7 +5126,7 @@
         <v>43374</v>
       </c>
       <c r="C504">
-        <v>-0.9559184158532408</v>
+        <v>-0.747598492191448</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>43466</v>
       </c>
       <c r="C505">
-        <v>1.581154483590863</v>
+        <v>1.639065868874257</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5144,7 +5144,7 @@
         <v>43556</v>
       </c>
       <c r="C506">
-        <v>-0.2125350750783683</v>
+        <v>-0.5431037886435952</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>43647</v>
       </c>
       <c r="C507">
-        <v>1.070317410227495</v>
+        <v>1.544892604894677</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>43739</v>
       </c>
       <c r="C508">
-        <v>0.01377225866971976</v>
+        <v>-0.6194968340999085</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5171,7 +5171,7 @@
         <v>43831</v>
       </c>
       <c r="C509">
-        <v>-3.130847075295506</v>
+        <v>-3.600690268354589</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5180,7 +5180,7 @@
         <v>43922</v>
       </c>
       <c r="C510">
-        <v>-5.616862333905903</v>
+        <v>-4.128279467150476</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>44013</v>
       </c>
       <c r="C511">
-        <v>4.735706009532148</v>
+        <v>3.589063210578014</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>44105</v>
       </c>
       <c r="C512">
-        <v>0.8251103544686833</v>
+        <v>1.424256588350192</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>44197</v>
       </c>
       <c r="C513">
-        <v>1.114951591691815</v>
+        <v>0.8874147319244852</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>43009</v>
       </c>
       <c r="C516">
-        <v>2.972075640172567</v>
+        <v>2.858525777252163</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>43101</v>
       </c>
       <c r="C517">
-        <v>0.5478967482532404</v>
+        <v>0.7537128303327867</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5254,7 +5254,7 @@
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>1.610847359444101</v>
+        <v>1.515223709742619</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.2721445040239967</v>
+        <v>0.2104106026794561</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>1.74562738479731</v>
+        <v>1.931465604196148</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>1.721514967445681</v>
+        <v>1.38255825358673</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5290,7 +5290,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>0.281274845217383</v>
+        <v>0.7238885686437824</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5299,7 +5299,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>1.660386306015549</v>
+        <v>1.345821331523478</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5308,7 +5308,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>0.2582371841860942</v>
+        <v>0.2277252550520359</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-1.279831528710429</v>
+        <v>-2.751964518746841</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5326,7 +5326,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-9.324027068824392</v>
+        <v>-6.474828914769026</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5335,7 +5335,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>11.67718166275009</v>
+        <v>9.991612144886997</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>-2.8727109104557</v>
+        <v>-2.982501558763651</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5353,7 +5353,7 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>3.04549671087313</v>
+        <v>3.205736248653834</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>43009</v>
       </c>
       <c r="C532">
-        <v>-0.5527787812859231</v>
+        <v>-0.4803440142709503</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>43101</v>
       </c>
       <c r="C533">
-        <v>2.428862049591229</v>
+        <v>2.373161384093514</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -5400,7 +5400,7 @@
         <v>43191</v>
       </c>
       <c r="C534">
-        <v>0.2217032644622696</v>
+        <v>0.2032478964447249</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -5409,7 +5409,7 @@
         <v>43282</v>
       </c>
       <c r="C535">
-        <v>0.2643628451935998</v>
+        <v>0.1054576923644301</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -5418,7 +5418,7 @@
         <v>43374</v>
       </c>
       <c r="C536">
-        <v>1.858385882125613</v>
+        <v>2.429859725125239</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>43466</v>
       </c>
       <c r="C537">
-        <v>-0.4552282826404852</v>
+        <v>-1.219606718583666</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -5436,7 +5436,7 @@
         <v>43556</v>
       </c>
       <c r="C538">
-        <v>1.385195399900385</v>
+        <v>1.76688964253362</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -5445,7 +5445,7 @@
         <v>43647</v>
       </c>
       <c r="C539">
-        <v>-0.7976562537055032</v>
+        <v>-0.6213833503514454</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>43739</v>
       </c>
       <c r="C540">
-        <v>0.6258728829214855</v>
+        <v>0.1791691259115158</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -5463,7 +5463,7 @@
         <v>43831</v>
       </c>
       <c r="C541">
-        <v>-2.715644844659004</v>
+        <v>-4.589453145631007</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>43922</v>
       </c>
       <c r="C542">
-        <v>-16.1221828348691</v>
+        <v>-12.74363785491079</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>44013</v>
       </c>
       <c r="C543">
-        <v>15.28947630498998</v>
+        <v>13.93866930741978</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>44105</v>
       </c>
       <c r="C544">
-        <v>1.071905281669427</v>
+        <v>0.2360666356119312</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -5499,7 +5499,7 @@
         <v>44197</v>
       </c>
       <c r="C545">
-        <v>-2.206859303437292</v>
+        <v>-1.945842686510879</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>43009</v>
       </c>
       <c r="C548">
-        <v>0.8741770697848317</v>
+        <v>0.9686805463909653</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>43101</v>
       </c>
       <c r="C549">
-        <v>1.915280525088781</v>
+        <v>1.653183501372757</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -5546,7 +5546,7 @@
         <v>43191</v>
       </c>
       <c r="C550">
-        <v>0.6525487735064006</v>
+        <v>0.8176153282025034</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -5555,7 +5555,7 @@
         <v>43282</v>
       </c>
       <c r="C551">
-        <v>3.416202293033699</v>
+        <v>3.266262876593373</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>43374</v>
       </c>
       <c r="C552">
-        <v>0.04318892766994598</v>
+        <v>0.2455657178457971</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -5573,7 +5573,7 @@
         <v>43466</v>
       </c>
       <c r="C553">
-        <v>0.1047853100066387</v>
+        <v>0.1599443844167325</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>43556</v>
       </c>
       <c r="C554">
-        <v>2.065957936878027</v>
+        <v>1.84615113732145</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>43647</v>
       </c>
       <c r="C555">
-        <v>1.446855782252876</v>
+        <v>1.436655201273229</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -5600,7 +5600,7 @@
         <v>43739</v>
       </c>
       <c r="C556">
-        <v>-0.6247867915333938</v>
+        <v>-0.1770522479868641</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -5609,7 +5609,7 @@
         <v>43831</v>
       </c>
       <c r="C557">
-        <v>-1.399549816981349</v>
+        <v>-3.545935995723315</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -5618,7 +5618,7 @@
         <v>43922</v>
       </c>
       <c r="C558">
-        <v>-11.09174668781676</v>
+        <v>-8.45459236509557</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -5627,7 +5627,7 @@
         <v>44013</v>
       </c>
       <c r="C559">
-        <v>9.312539491165461</v>
+        <v>8.410650141260522</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>44105</v>
       </c>
       <c r="C560">
-        <v>1.646587943354727</v>
+        <v>1.345718295847731</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>44197</v>
       </c>
       <c r="C561">
-        <v>5.109797288312024</v>
+        <v>5.180058559739642</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>43009</v>
       </c>
       <c r="C564">
-        <v>-0.8533107519702265</v>
+        <v>-0.6672305245364551</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -5683,7 +5683,7 @@
         <v>43101</v>
       </c>
       <c r="C565">
-        <v>0.6115585496826892</v>
+        <v>0.2327232483232189</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>43191</v>
       </c>
       <c r="C566">
-        <v>0.549413679202515</v>
+        <v>0.7403746462768535</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>43282</v>
       </c>
       <c r="C567">
-        <v>1.498667304543022</v>
+        <v>1.466775566862966</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -5710,7 +5710,7 @@
         <v>43374</v>
       </c>
       <c r="C568">
-        <v>-0.01857760199340808</v>
+        <v>0.02530703245178234</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -5719,7 +5719,7 @@
         <v>43466</v>
       </c>
       <c r="C569">
-        <v>1.596439977292397</v>
+        <v>1.727605718506098</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -5728,7 +5728,7 @@
         <v>43556</v>
       </c>
       <c r="C570">
-        <v>0.07072548814208712</v>
+        <v>-0.1578079580937031</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -5737,7 +5737,7 @@
         <v>43647</v>
       </c>
       <c r="C571">
-        <v>0.5735908912699372</v>
+        <v>0.5793931483229819</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>43739</v>
       </c>
       <c r="C572">
-        <v>-1.060557062108136</v>
+        <v>-0.9471199357080851</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>43831</v>
       </c>
       <c r="C573">
-        <v>-1.747280956346586</v>
+        <v>-2.865890741188704</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -5764,7 +5764,7 @@
         <v>43922</v>
       </c>
       <c r="C574">
-        <v>-6.808051620190536</v>
+        <v>-5.118459309744471</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>44013</v>
       </c>
       <c r="C575">
-        <v>5.90522031158629</v>
+        <v>5.155107208540266</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -5782,7 +5782,7 @@
         <v>44105</v>
       </c>
       <c r="C576">
-        <v>0.4126647011285733</v>
+        <v>0.6352056159832919</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -5791,7 +5791,7 @@
         <v>44197</v>
       </c>
       <c r="C577">
-        <v>3.742233031264131</v>
+        <v>3.539586929163585</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -5820,7 +5820,7 @@
         <v>43009</v>
       </c>
       <c r="C580">
-        <v>0.1920737774517622</v>
+        <v>0.008051579529633202</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -5829,7 +5829,7 @@
         <v>43101</v>
       </c>
       <c r="C581">
-        <v>1.135546403833154</v>
+        <v>1.562832788876012</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>43191</v>
       </c>
       <c r="C582">
-        <v>1.514326555130396</v>
+        <v>1.273252233418387</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -5847,7 +5847,7 @@
         <v>43282</v>
       </c>
       <c r="C583">
-        <v>0.2751865120285801</v>
+        <v>0.2654438509420487</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>43374</v>
       </c>
       <c r="C584">
-        <v>-0.002608813554061395</v>
+        <v>-0.05348845869352914</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -5865,7 +5865,7 @@
         <v>43466</v>
       </c>
       <c r="C585">
-        <v>0.6927231647434473</v>
+        <v>0.6983118124768151</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -5874,7 +5874,7 @@
         <v>43556</v>
       </c>
       <c r="C586">
-        <v>2.331078922926233</v>
+        <v>2.606251914216084</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -5883,7 +5883,7 @@
         <v>43647</v>
       </c>
       <c r="C587">
-        <v>-0.621555730339185</v>
+        <v>-1.011354788728658</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -5892,7 +5892,7 @@
         <v>43739</v>
       </c>
       <c r="C588">
-        <v>0.8132973978570934</v>
+        <v>1.070669354968534</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -5901,7 +5901,7 @@
         <v>43831</v>
       </c>
       <c r="C589">
-        <v>-3.477142044595971</v>
+        <v>-5.281507244558181</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>43922</v>
       </c>
       <c r="C590">
-        <v>-10.38555776724264</v>
+        <v>-7.425033725333829</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -5919,7 +5919,7 @@
         <v>44013</v>
       </c>
       <c r="C591">
-        <v>11.55291103389291</v>
+        <v>9.755621744830666</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -5928,7 +5928,7 @@
         <v>44105</v>
       </c>
       <c r="C592">
-        <v>0.1277086127887017</v>
+        <v>0.4963503604142439</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>44197</v>
       </c>
       <c r="C593">
-        <v>-5.830137771531996</v>
+        <v>-6.001215418551431</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>43009</v>
       </c>
       <c r="C596">
-        <v>1.279926978984358</v>
+        <v>1.362240483472887</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>43101</v>
       </c>
       <c r="C597">
-        <v>0.9864170536338035</v>
+        <v>0.7467433420391911</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -5984,7 +5984,7 @@
         <v>43191</v>
       </c>
       <c r="C598">
-        <v>-0.2478048452044801</v>
+        <v>-0.09169587799210399</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>43282</v>
       </c>
       <c r="C599">
-        <v>2.133990382322448</v>
+        <v>2.021885751636221</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6002,7 +6002,7 @@
         <v>43374</v>
       </c>
       <c r="C600">
-        <v>1.820273190304889</v>
+        <v>2.013310355135456</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>43466</v>
       </c>
       <c r="C601">
-        <v>1.32376184622276</v>
+        <v>0.9779957705205122</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>43556</v>
       </c>
       <c r="C602">
-        <v>0.8785156018316531</v>
+        <v>1.209123428716374</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -6029,7 +6029,7 @@
         <v>43647</v>
       </c>
       <c r="C603">
-        <v>-1.338736216585712</v>
+        <v>-1.201320084163082</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>43739</v>
       </c>
       <c r="C604">
-        <v>1.819029473270684</v>
+        <v>1.742900203308184</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>43831</v>
       </c>
       <c r="C605">
-        <v>-2.293772159924234</v>
+        <v>-3.95757229996786</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -6056,7 +6056,7 @@
         <v>43922</v>
       </c>
       <c r="C606">
-        <v>-9.31913490305889</v>
+        <v>-6.714632065474158</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>44013</v>
       </c>
       <c r="C607">
-        <v>12.19113072363798</v>
+        <v>10.77577066114932</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -6074,7 +6074,7 @@
         <v>44105</v>
       </c>
       <c r="C608">
-        <v>-3.5110904876825</v>
+        <v>-3.745961050437052</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -6083,7 +6083,7 @@
         <v>44197</v>
       </c>
       <c r="C609">
-        <v>-2.630151191205621</v>
+        <v>-2.367088291979624</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -6112,7 +6112,7 @@
         <v>43009</v>
       </c>
       <c r="C612">
-        <v>0.9122451393438702</v>
+        <v>0.967799479409126</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>43101</v>
       </c>
       <c r="C613">
-        <v>-0.8956223486464299</v>
+        <v>-1.083539309990444</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>43191</v>
       </c>
       <c r="C614">
-        <v>1.381207818314278</v>
+        <v>1.517919416705826</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -6139,7 +6139,7 @@
         <v>43282</v>
       </c>
       <c r="C615">
-        <v>-0.2263390491678341</v>
+        <v>-0.2772626177288795</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -6148,7 +6148,7 @@
         <v>43374</v>
       </c>
       <c r="C616">
-        <v>0.9020942029828394</v>
+        <v>0.92443191586149</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -6157,7 +6157,7 @@
         <v>43466</v>
       </c>
       <c r="C617">
-        <v>-0.9226300987016267</v>
+        <v>-0.8585205072913382</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -6166,7 +6166,7 @@
         <v>43556</v>
       </c>
       <c r="C618">
-        <v>-0.1042625142701037</v>
+        <v>-0.1803661844395288</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>43647</v>
       </c>
       <c r="C619">
-        <v>-0.3180505925144517</v>
+        <v>-0.4075150820575968</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -6184,7 +6184,7 @@
         <v>43739</v>
       </c>
       <c r="C620">
-        <v>0.7396674690818061</v>
+        <v>1.183215976593321</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -6193,7 +6193,7 @@
         <v>43831</v>
       </c>
       <c r="C621">
-        <v>-2.462251479481381</v>
+        <v>-4.5406396228723</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -6202,7 +6202,7 @@
         <v>43922</v>
       </c>
       <c r="C622">
-        <v>-15.81225564454871</v>
+        <v>-13.35569019107135</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -6211,7 +6211,7 @@
         <v>44013</v>
       </c>
       <c r="C623">
-        <v>12.21796078938808</v>
+        <v>11.51081350117851</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>44105</v>
       </c>
       <c r="C624">
-        <v>2.802353193296203</v>
+        <v>2.463107534863318</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>44197</v>
       </c>
       <c r="C625">
-        <v>3.164969149790875</v>
+        <v>3.094106108721784</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -6258,7 +6258,7 @@
         <v>43009</v>
       </c>
       <c r="C628">
-        <v>0.06027152736955976</v>
+        <v>0.08496068201453433</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -6267,7 +6267,7 @@
         <v>43101</v>
       </c>
       <c r="C629">
-        <v>1.224747995757669</v>
+        <v>1.20667400018537</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -6276,7 +6276,7 @@
         <v>43191</v>
       </c>
       <c r="C630">
-        <v>0.7325164822436836</v>
+        <v>0.7256524677659471</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>43282</v>
       </c>
       <c r="C631">
-        <v>0.2232688666086169</v>
+        <v>0.2506507754543419</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -6294,7 +6294,7 @@
         <v>43374</v>
       </c>
       <c r="C632">
-        <v>0.4801659060954089</v>
+        <v>0.4501813082921968</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -6303,7 +6303,7 @@
         <v>43466</v>
       </c>
       <c r="C633">
-        <v>0.2411671870658827</v>
+        <v>0.351141838179525</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -6312,7 +6312,7 @@
         <v>43556</v>
       </c>
       <c r="C634">
-        <v>0.569795459571365</v>
+        <v>0.3178612000696246</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>43647</v>
       </c>
       <c r="C635">
-        <v>-0.1196700464229705</v>
+        <v>-0.07953358676997535</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>43739</v>
       </c>
       <c r="C636">
-        <v>0.8883301336974236</v>
+        <v>1.027435398922094</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>43831</v>
       </c>
       <c r="C637">
-        <v>-4.468738515261084</v>
+        <v>-6.839694477129321</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>43922</v>
       </c>
       <c r="C638">
-        <v>-18.90668011229911</v>
+        <v>-15.15238440001689</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -6357,7 +6357,7 @@
         <v>44013</v>
       </c>
       <c r="C639">
-        <v>18.79379812966086</v>
+        <v>16.63598519026146</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>44105</v>
       </c>
       <c r="C640">
-        <v>0.5775991828562255</v>
+        <v>0.2216134208953058</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -6375,7 +6375,7 @@
         <v>44197</v>
       </c>
       <c r="C641">
-        <v>1.473767566635442</v>
+        <v>1.61694032779145</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -6404,7 +6404,7 @@
         <v>43009</v>
       </c>
       <c r="C644">
-        <v>0.7177765757507837</v>
+        <v>0.6172020636007636</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -6413,7 +6413,7 @@
         <v>43101</v>
       </c>
       <c r="C645">
-        <v>0.3640045393936253</v>
+        <v>0.5686364021282753</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>43191</v>
       </c>
       <c r="C646">
-        <v>1.75513423773801</v>
+        <v>1.649593153820339</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>43282</v>
       </c>
       <c r="C647">
-        <v>0.08036135101454622</v>
+        <v>-0.05327364342562202</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>43374</v>
       </c>
       <c r="C648">
-        <v>-0.2570124903098159</v>
+        <v>0.04281611435208443</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>43466</v>
       </c>
       <c r="C649">
-        <v>0.797124317473763</v>
+        <v>0.5926767614056416</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -6458,7 +6458,7 @@
         <v>43556</v>
       </c>
       <c r="C650">
-        <v>0.7669658332893681</v>
+        <v>0.6908869793206929</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -6467,7 +6467,7 @@
         <v>43647</v>
       </c>
       <c r="C651">
-        <v>-0.4587827376911879</v>
+        <v>-0.2192319578905533</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -6476,7 +6476,7 @@
         <v>43739</v>
       </c>
       <c r="C652">
-        <v>1.203321551537639</v>
+        <v>0.9831821257618722</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -6485,7 +6485,7 @@
         <v>43831</v>
       </c>
       <c r="C653">
-        <v>-2.230707787691688</v>
+        <v>-2.980905239141118</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>43922</v>
       </c>
       <c r="C654">
-        <v>-8.165015821426437</v>
+        <v>-7.065064296832091</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -6503,7 +6503,7 @@
         <v>44013</v>
       </c>
       <c r="C655">
-        <v>5.952935921958491</v>
+        <v>5.896907350556724</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -6512,7 +6512,7 @@
         <v>44105</v>
       </c>
       <c r="C656">
-        <v>0.8752376512383808</v>
+        <v>0.6023187128872509</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>44197</v>
       </c>
       <c r="C657">
-        <v>1.473313017739697</v>
+        <v>1.466086752411311</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>43009</v>
       </c>
       <c r="C660">
-        <v>0.5173987421948079</v>
+        <v>0.4737188180168772</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>43101</v>
       </c>
       <c r="C661">
-        <v>0.1437993486122835</v>
+        <v>0.235106276366337</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -6568,7 +6568,7 @@
         <v>43191</v>
       </c>
       <c r="C662">
-        <v>0.3270028727025975</v>
+        <v>0.2791886435695945</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -6577,7 +6577,7 @@
         <v>43282</v>
       </c>
       <c r="C663">
-        <v>0.4607258868514874</v>
+        <v>0.4607721705064849</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -6586,7 +6586,7 @@
         <v>43374</v>
       </c>
       <c r="C664">
-        <v>0.9772266805675445</v>
+        <v>1.071459769490568</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>43466</v>
       </c>
       <c r="C665">
-        <v>0.8753725773709808</v>
+        <v>0.6902358320958868</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>43556</v>
       </c>
       <c r="C666">
-        <v>1.578644024611386</v>
+        <v>1.46008700639082</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -6613,7 +6613,7 @@
         <v>43647</v>
       </c>
       <c r="C667">
-        <v>-1.394390871938267</v>
+        <v>-1.049375842916256</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -6622,7 +6622,7 @@
         <v>43739</v>
       </c>
       <c r="C668">
-        <v>0.323076085701679</v>
+        <v>0.208551158435788</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>43831</v>
       </c>
       <c r="C669">
-        <v>-3.128247572487197</v>
+        <v>-4.456558248877918</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>43922</v>
       </c>
       <c r="C670">
-        <v>-8.119104521061949</v>
+        <v>-5.90383510478909</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>44013</v>
       </c>
       <c r="C671">
-        <v>9.634434055141305</v>
+        <v>8.516261966118899</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>44105</v>
       </c>
       <c r="C672">
-        <v>-0.9123985296377368</v>
+        <v>-0.9305538155719661</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>44197</v>
       </c>
       <c r="C673">
-        <v>2.223260341503219</v>
+        <v>2.23741202035177</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>43009</v>
       </c>
       <c r="C676">
-        <v>4.998956221069939</v>
+        <v>5.051593625564554</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>43101</v>
       </c>
       <c r="C677">
-        <v>0.8375769740684769</v>
+        <v>0.6835417288929779</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>43191</v>
       </c>
       <c r="C678">
-        <v>1.262311020468898</v>
+        <v>1.366415359512207</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -6723,7 +6723,7 @@
         <v>43282</v>
       </c>
       <c r="C679">
-        <v>-0.9278206069815331</v>
+        <v>-0.8896767820744333</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -6732,7 +6732,7 @@
         <v>43374</v>
       </c>
       <c r="C680">
-        <v>-0.5191079910888408</v>
+        <v>-0.896031983403367</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>43466</v>
       </c>
       <c r="C681">
-        <v>1.051455549568847</v>
+        <v>1.48748275261994</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>43556</v>
       </c>
       <c r="C682">
-        <v>2.253035553525118</v>
+        <v>2.330577249483889</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C683">
-        <v>-0.2436733920532563</v>
+        <v>-0.307570006066471</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>43739</v>
       </c>
       <c r="C684">
-        <v>-1.040658025954877</v>
+        <v>-0.9204767205708952</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -6777,7 +6777,7 @@
         <v>43831</v>
       </c>
       <c r="C685">
-        <v>0.2921409030407496</v>
+        <v>-1.115543071527103</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>43922</v>
       </c>
       <c r="C686">
-        <v>-9.113549233612028</v>
+        <v>-7.441235089622722</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>44013</v>
       </c>
       <c r="C687">
-        <v>11.0235934363984</v>
+        <v>10.94681202592476</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>44105</v>
       </c>
       <c r="C688">
-        <v>2.680017387769129</v>
+        <v>1.871806823406019</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>44197</v>
       </c>
       <c r="C689">
-        <v>-2.354190252538513</v>
+        <v>-2.132174822159916</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -6842,7 +6842,7 @@
         <v>43009</v>
       </c>
       <c r="C692">
-        <v>0.4174353953785737</v>
+        <v>0.4416228192962501</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>43101</v>
       </c>
       <c r="C693">
-        <v>0.7731548859744253</v>
+        <v>0.7437360724092956</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -6860,7 +6860,7 @@
         <v>43191</v>
       </c>
       <c r="C694">
-        <v>0.7180094153740102</v>
+        <v>0.7231596529928996</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>43282</v>
       </c>
       <c r="C695">
-        <v>-0.4907203219250866</v>
+        <v>-0.4800957890638946</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>43374</v>
       </c>
       <c r="C696">
-        <v>0.136525709786639</v>
+        <v>0.1285314193768539</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -6887,7 +6887,7 @@
         <v>43466</v>
       </c>
       <c r="C697">
-        <v>0.01231765667717433</v>
+        <v>0.05436722087723833</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -6896,7 +6896,7 @@
         <v>43556</v>
       </c>
       <c r="C698">
-        <v>0.5488915210346335</v>
+        <v>0.4824794609192828</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>43647</v>
       </c>
       <c r="C699">
-        <v>0.348007494343161</v>
+        <v>0.3081782035709191</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>43739</v>
       </c>
       <c r="C700">
-        <v>0.1722024401653366</v>
+        <v>0.1631182195420244</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>43831</v>
       </c>
       <c r="C701">
-        <v>-2.733241670729869</v>
+        <v>-4.426833920223771</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -6932,7 +6932,7 @@
         <v>43922</v>
       </c>
       <c r="C702">
-        <v>-16.97931287733067</v>
+        <v>-14.34837027099286</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -6941,7 +6941,7 @@
         <v>44013</v>
       </c>
       <c r="C703">
-        <v>15.22319378174584</v>
+        <v>13.98957938865082</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>44105</v>
       </c>
       <c r="C704">
-        <v>-0.2910517300029558</v>
+        <v>-0.5799779934958282</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -6959,7 +6959,7 @@
         <v>44197</v>
       </c>
       <c r="C705">
-        <v>-0.03264299047197605</v>
+        <v>0.04074077554607758</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -6970,7 +6970,7 @@
         <v>42826</v>
       </c>
       <c r="C706">
-        <v>-0.03017390334461023</v>
+        <v>-0.03017390334463244</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>43009</v>
       </c>
       <c r="C708">
-        <v>0.9054379497179577</v>
+        <v>0.8641104803274402</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>43101</v>
       </c>
       <c r="C709">
-        <v>0.3757915935681533</v>
+        <v>0.4491621019913516</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>43191</v>
       </c>
       <c r="C710">
-        <v>0.2384242715419038</v>
+        <v>0.2062487962084747</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -7015,7 +7015,7 @@
         <v>43282</v>
       </c>
       <c r="C711">
-        <v>0.1304400707082154</v>
+        <v>0.04735985094599382</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>43374</v>
       </c>
       <c r="C712">
-        <v>0.3695271980303616</v>
+        <v>0.4986978390324026</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -7033,7 +7033,7 @@
         <v>43466</v>
       </c>
       <c r="C713">
-        <v>1.455781820686464</v>
+        <v>1.473690012154139</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -7042,7 +7042,7 @@
         <v>43556</v>
       </c>
       <c r="C714">
-        <v>0.6698655406887077</v>
+        <v>0.5706326950041696</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -7051,7 +7051,7 @@
         <v>43647</v>
       </c>
       <c r="C715">
-        <v>1.104277764902029</v>
+        <v>1.141808633936825</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>43739</v>
       </c>
       <c r="C716">
-        <v>0.03251358612088584</v>
+        <v>-0.00686983484372572</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -7069,7 +7069,7 @@
         <v>43831</v>
       </c>
       <c r="C717">
-        <v>-1.226647219030497</v>
+        <v>-2.274729816223042</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>43922</v>
       </c>
       <c r="C718">
-        <v>-8.957418862812416</v>
+        <v>-7.369964689483977</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>44013</v>
       </c>
       <c r="C719">
-        <v>6.277316817107259</v>
+        <v>5.950005210560261</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -7096,7 +7096,7 @@
         <v>44105</v>
       </c>
       <c r="C720">
-        <v>2.631845610329386</v>
+        <v>2.278255694783948</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -7105,7 +7105,7 @@
         <v>44197</v>
       </c>
       <c r="C721">
-        <v>2.397636207734966</v>
+        <v>2.427701933374915</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C721"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,338 +543,340 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C2">
-        <v>-0.5036107928475531</v>
+        <v>-4.072608868423522</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C3">
-        <v>0.6821173430198613</v>
+        <v>-1.970643233566338</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C4">
-        <v>-0.5866465393736697</v>
+        <v>0.4946855207095036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C5">
-        <v>1.311594357170365</v>
+        <v>0.9722050741645782</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C6">
-        <v>-2.008659808750834</v>
+        <v>0.8930296401038929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C7">
-        <v>-1.065291842092586</v>
+        <v>1.151415532497246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C8">
-        <v>0.430069977395342</v>
+        <v>1.210528819339429</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C9">
-        <v>0.7020951374913986</v>
+        <v>-3.699530722158428</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C10">
-        <v>-3.18714384039025</v>
+        <v>-15.17259760064244</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C11">
-        <v>1.309701057189794</v>
+        <v>7.263788197375898</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C12">
-        <v>-0.8950327622771925</v>
+        <v>1.806857900141035</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C13">
-        <v>-5.190913685626919</v>
+        <v>2.350996230581415</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C14">
-        <v>-15.0073493379451</v>
+        <v>0.3066157938927727</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C15">
-        <v>9.429037519746974</v>
+        <v>0.408851772358787</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C16">
-        <v>3.673872460916705</v>
+        <v>0.668456666679984</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C17">
-        <v>2.72967369838073</v>
+        <v>0.208778922702324</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C18">
-        <v>-0.5863138564310755</v>
+        <v>0.7147543891339314</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C19">
-        <v>0.7775757089777624</v>
+        <v>0.5741502013311583</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C20">
-        <v>1.087218314050853</v>
+        <v>-0.06671083396116995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C21">
-        <v>0.1303626450874118</v>
+        <v>-1.950916762792587</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C22">
-        <v>1.0140592065911</v>
+        <v>-4.333957920051812</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C23">
-        <v>0.4384565085741032</v>
+        <v>3.852802413140566</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C24">
-        <v>0.01791875435086521</v>
+        <v>2.887440872743707</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C25">
-        <v>1.030359390773294</v>
+        <v>1.645750563675819</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B26" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C26">
-        <v>0.6379542402777938</v>
+        <v>-1.199730343558059</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C27">
-        <v>0.3378115437738138</v>
+        <v>0.3408322475834114</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C28">
-        <v>0.07053708072208842</v>
+        <v>1.060956277132052</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C29">
-        <v>-3.236917685756169</v>
+        <v>0.5698835411705128</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C30">
-        <v>-5.292862713022128</v>
+        <v>0.1403386028094644</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C31">
-        <v>4.788523808945677</v>
+        <v>-0.1261570607932194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C32">
-        <v>4.025118154354335</v>
+        <v>0.114825544127517</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C33">
-        <v>5.029588422015507</v>
+        <v>-3.438687338356039</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C34">
-        <v>-1.948277956591049</v>
+        <v>-5.807713894528266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C35">
-        <v>1.061945839043665</v>
+        <v>6.984018919347168</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C36">
-        <v>1.35146544212994</v>
+        <v>-1.076178895604929</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C37">
-        <v>0.1008798891881879</v>
+        <v>-0.3444174738975847</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B38" s="2">
         <v>43191</v>
       </c>
       <c r="C38">
-        <v>1.1219597639472</v>
+        <v>1.396310607333251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -883,7 +885,7 @@
         <v>43282</v>
       </c>
       <c r="C39">
-        <v>-0.4395633797965925</v>
+        <v>-0.06470239024071178</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -892,7 +894,7 @@
         <v>43374</v>
       </c>
       <c r="C40">
-        <v>0.5192673123786795</v>
+        <v>0.2595276241365241</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -901,7 +903,7 @@
         <v>43466</v>
       </c>
       <c r="C41">
-        <v>1.723750298885673</v>
+        <v>0.1559755823735465</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -910,7 +912,7 @@
         <v>43556</v>
       </c>
       <c r="C42">
-        <v>-0.2015702763257909</v>
+        <v>0.766135410913904</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -919,7 +921,7 @@
         <v>43647</v>
       </c>
       <c r="C43">
-        <v>-0.2638798334820058</v>
+        <v>-0.2225448596599566</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -928,7 +930,7 @@
         <v>43739</v>
       </c>
       <c r="C44">
-        <v>0.7316849304763728</v>
+        <v>0.3105630077267163</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -937,7 +939,7 @@
         <v>43831</v>
       </c>
       <c r="C45">
-        <v>-4.925311286613299</v>
+        <v>-3.786521458912451</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -946,7 +948,7 @@
         <v>43922</v>
       </c>
       <c r="C46">
-        <v>-7.654256319869535</v>
+        <v>-8.025198324759353</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +957,7 @@
         <v>44013</v>
       </c>
       <c r="C47">
-        <v>8.50202672250624</v>
+        <v>8.266237228009876</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -964,7 +966,7 @@
         <v>44105</v>
       </c>
       <c r="C48">
-        <v>-3.407251369031949</v>
+        <v>-0.7172322222869232</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -973,346 +975,348 @@
         <v>44197</v>
       </c>
       <c r="C49">
-        <v>1.229358738636543</v>
+        <v>0.3417376651660753</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C50">
-        <v>0.3730241833177717</v>
+        <v>0.8014068358026982</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C51">
-        <v>0.740537965510546</v>
+        <v>-0.3515621840181726</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C52">
-        <v>0.5366855308143181</v>
+        <v>-0.08193721384179842</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C53">
-        <v>0.2960057331619304</v>
+        <v>0.2864247859070579</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C54">
-        <v>0.4777228153289848</v>
+        <v>0.8751571194396845</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C55">
-        <v>-0.4412443494824725</v>
+        <v>-0.01535453674366138</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C56">
-        <v>0.4525042218933351</v>
+        <v>0.2020537770610398</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C57">
-        <v>0.5190738286944718</v>
+        <v>-1.219116771245088</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C58">
-        <v>0.5024581019898333</v>
+        <v>-7.734537877152247</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C59">
-        <v>0.4129400005751016</v>
+        <v>7.138802718642601</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C60">
-        <v>0.8456374970731817</v>
+        <v>2.53425776098164</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C61">
-        <v>-5.594035113429663</v>
+        <v>-0.3964765640424139</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B62" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C62">
-        <v>-9.041692841368821</v>
+        <v>0.02381669035249612</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C63">
-        <v>10.80871650259965</v>
+        <v>0.5525392173106436</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C64">
-        <v>-1.375012965460642</v>
+        <v>1.130260975197039</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C65">
-        <v>0.9890754714798167</v>
+        <v>0.4513309252949016</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C66">
-        <v>0.04671935513964609</v>
+        <v>0.708910312739941</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C67">
-        <v>-0.5657301319286101</v>
+        <v>1.171526691929281</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C68">
-        <v>0.2283427613466449</v>
+        <v>-1.488417451049706</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C69">
-        <v>0.9451616873031199</v>
+        <v>-3.465676272659457</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C70">
-        <v>0.585493339228349</v>
+        <v>-6.838383217627387</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C71">
-        <v>-0.01032377254487349</v>
+        <v>10.12575898905901</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C72">
-        <v>0.7805726465196505</v>
+        <v>-0.1065748416776757</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C73">
-        <v>0.5387087749820996</v>
+        <v>4.848562904774112</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B74" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C74">
-        <v>-0.1188080175793305</v>
+        <v>-0.3928319908559796</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C75">
-        <v>1.233936220709508</v>
+        <v>1.269263864166659</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C76">
-        <v>-0.6713979967805095</v>
+        <v>-0.23533112762254</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C77">
-        <v>-1.991286114527069</v>
+        <v>1.213851547183409</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C78">
-        <v>-8.853013090281115</v>
+        <v>0.850122362465755</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C79">
-        <v>6.8398824842971</v>
+        <v>0.0006313100439303554</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C80">
-        <v>3.973481502486376</v>
+        <v>-0.1234694482436405</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C81">
-        <v>-0.6251281511965745</v>
+        <v>-2.013684289071627</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C82">
-        <v>1.863107055616142</v>
+        <v>-7.889925211013948</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C83">
-        <v>0.2286599777363341</v>
+        <v>7.27235720581314</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C84">
-        <v>2.206690988460736</v>
+        <v>0.2127507335865308</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C85">
-        <v>0.01790879188217076</v>
+        <v>-0.2495562436958143</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B86" s="2">
         <v>43191</v>
       </c>
       <c r="C86">
-        <v>0.4031122917999008</v>
+        <v>-0.6571252617611822</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1321,7 +1325,7 @@
         <v>43282</v>
       </c>
       <c r="C87">
-        <v>0.9692468644848962</v>
+        <v>0.6925492835283986</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1330,7 +1334,7 @@
         <v>43374</v>
       </c>
       <c r="C88">
-        <v>-0.5780606099299535</v>
+        <v>0.6995317714570293</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1339,7 +1343,7 @@
         <v>43466</v>
       </c>
       <c r="C89">
-        <v>0.5049926601415011</v>
+        <v>-0.5623804238518937</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1348,7 +1352,7 @@
         <v>43556</v>
       </c>
       <c r="C90">
-        <v>0.7948107758668499</v>
+        <v>0.642072999414145</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1357,7 +1361,7 @@
         <v>43647</v>
       </c>
       <c r="C91">
-        <v>2.195544397191362</v>
+        <v>1.979867779046685</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,7 +1370,7 @@
         <v>43739</v>
       </c>
       <c r="C92">
-        <v>-0.5305778088777968</v>
+        <v>-1.184700291404828</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1375,7 +1379,7 @@
         <v>43831</v>
       </c>
       <c r="C93">
-        <v>-2.517366955122702</v>
+        <v>-0.7905713339033893</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1384,7 +1388,7 @@
         <v>43922</v>
       </c>
       <c r="C94">
-        <v>-7.740728196397706</v>
+        <v>-8.64501693976425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1393,7 +1397,7 @@
         <v>44013</v>
       </c>
       <c r="C95">
-        <v>7.369245755197684</v>
+        <v>6.385403082896102</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1402,7 +1406,7 @@
         <v>44105</v>
       </c>
       <c r="C96">
-        <v>0.3709149994914229</v>
+        <v>4.897492077604459</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1411,346 +1415,348 @@
         <v>44197</v>
       </c>
       <c r="C97">
-        <v>6.664187762605822</v>
+        <v>-0.9770458762892398</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C98">
-        <v>-0.8290049678997269</v>
+        <v>-0.2401184358075015</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C99">
-        <v>1.623072067514575</v>
+        <v>1.3155796201195</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C100">
-        <v>0.111332989789692</v>
+        <v>0.8143390779103088</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C101">
-        <v>0.9237160282886681</v>
+        <v>-0.5423481341066516</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C102">
-        <v>1.119092690782719</v>
+        <v>1.433829755603222</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C103">
-        <v>0.1238685970970765</v>
+        <v>0.6556282126730206</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C104">
-        <v>-0.01156442164262916</v>
+        <v>-1.331706836428026</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C105">
-        <v>0.8486333851959182</v>
+        <v>-2.754395409572807</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C106">
-        <v>0.2299887375306398</v>
+        <v>-8.107666435017979</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C107">
-        <v>0.7810835217933132</v>
+        <v>7.728119781649578</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C108">
-        <v>-0.0553551208218539</v>
+        <v>3.662018286685242</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C109">
-        <v>-3.576068599310522</v>
+        <v>0.3905303005656835</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B110" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C110">
-        <v>-9.161285694235799</v>
+        <v>0.2174870037505494</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C111">
-        <v>9.299825250888416</v>
+        <v>0.4085756992918688</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C112">
-        <v>0.2460496984398874</v>
+        <v>0.4534088068068876</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C113">
-        <v>1.86007462860398</v>
+        <v>0.823067347716977</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C114">
-        <v>-0.3984500738074437</v>
+        <v>3.527074374487649</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C115">
-        <v>0.6889561474285655</v>
+        <v>-0.4464210135155966</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C116">
-        <v>-0.3578610805750504</v>
+        <v>0.0405726854373345</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C117">
-        <v>0.5238846161735866</v>
+        <v>-3.089548638621498</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C118">
-        <v>-0.18642538825141</v>
+        <v>-4.051643586630005</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C119">
-        <v>1.356844840405569</v>
+        <v>5.163406684653138</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C120">
-        <v>1.421421218103558</v>
+        <v>-1.747904921341992</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C121">
-        <v>0.7109097370264106</v>
+        <v>0.2711775650600545</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B122" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C122">
-        <v>1.740821638795387</v>
+        <v>0.5048940625600018</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C123">
-        <v>-0.2785494862438287</v>
+        <v>1.313042374354878</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C124">
-        <v>-1.428294404971642</v>
+        <v>0.02845681806669109</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C125">
-        <v>-2.46754513261207</v>
+        <v>-0.08608816971329425</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C126">
-        <v>-11.24485782231535</v>
+        <v>0.9775024382303155</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C127">
-        <v>8.69401284885627</v>
+        <v>-1.138350717928671</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C128">
-        <v>2.647725709826232</v>
+        <v>0.8810728731166284</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C129">
-        <v>3.354951493700153</v>
+        <v>-1.461638900028317</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C130">
-        <v>0.4123944085688835</v>
+        <v>-4.54073874943226</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C131">
-        <v>0.5563896425546888</v>
+        <v>4.647892857681479</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C132">
-        <v>0.8765528430188629</v>
+        <v>0.2759621878672958</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C133">
-        <v>-0.2532421967304632</v>
+        <v>-0.9955538952107212</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B134" s="2">
         <v>43191</v>
       </c>
       <c r="C134">
-        <v>0.08499051038157734</v>
+        <v>1.426052638526243</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1759,7 +1765,7 @@
         <v>43282</v>
       </c>
       <c r="C135">
-        <v>1.044876561227026</v>
+        <v>0.3972870085332092</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1768,7 +1774,7 @@
         <v>43374</v>
       </c>
       <c r="C136">
-        <v>0.6299093916953158</v>
+        <v>-0.8045791588218831</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1777,7 +1783,7 @@
         <v>43466</v>
       </c>
       <c r="C137">
-        <v>0.6787925793249272</v>
+        <v>2.981695863257494</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1786,7 +1792,7 @@
         <v>43556</v>
       </c>
       <c r="C138">
-        <v>1.833905194576779</v>
+        <v>0.2954645341125994</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1795,7 +1801,7 @@
         <v>43647</v>
       </c>
       <c r="C139">
-        <v>0.583798801156421</v>
+        <v>1.400776147594684</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1804,7 +1810,7 @@
         <v>43739</v>
       </c>
       <c r="C140">
-        <v>-1.610017335840019</v>
+        <v>1.395241762101707</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1813,7 +1819,7 @@
         <v>43831</v>
       </c>
       <c r="C141">
-        <v>-3.420250240158873</v>
+        <v>-4.344096751126603</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1822,7 +1828,7 @@
         <v>43922</v>
       </c>
       <c r="C142">
-        <v>-10.4897903278073</v>
+        <v>-0.2843254317141941</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1831,7 +1837,7 @@
         <v>44013</v>
       </c>
       <c r="C143">
-        <v>7.600701589815384</v>
+        <v>2.241911368331739</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1840,7 +1846,7 @@
         <v>44105</v>
       </c>
       <c r="C144">
-        <v>6.685251233197564</v>
+        <v>5.441868189217525</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1849,346 +1855,348 @@
         <v>44197</v>
       </c>
       <c r="C145">
-        <v>1.381818946660829</v>
+        <v>-0.3034005374361604</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B146" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C146">
-        <v>-0.2495924826385387</v>
+        <v>0.2136791862529019</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C147">
-        <v>1.514624056443803</v>
+        <v>0.4613717565010056</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C148">
-        <v>0.1091359013169813</v>
+        <v>0.0616495293398911</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C149">
-        <v>2.22835386427267</v>
+        <v>0.596916249467383</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C150">
-        <v>2.558492691991909</v>
+        <v>1.194822256754957</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C151">
-        <v>-0.3365102935435571</v>
+        <v>0.1119975200492673</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C152">
-        <v>0.5542549061051671</v>
+        <v>0.7097423632003386</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C153">
-        <v>0.02307366572995573</v>
+        <v>-0.8641636978027445</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C154">
-        <v>1.867515032369438</v>
+        <v>-3.903801766929704</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C155">
-        <v>-0.7203751566566718</v>
+        <v>3.140047302682669</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C156">
-        <v>0.4937910903124454</v>
+        <v>-1.073410043682288</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C157">
-        <v>-3.250642741916066</v>
+        <v>0.2341791634693946</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B158" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C158">
-        <v>-5.805200184172554</v>
+        <v>-0.3427926252712155</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C159">
-        <v>6.816828416390441</v>
+        <v>0.3625584978939722</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C160">
-        <v>-2.623957223179085</v>
+        <v>0.4182462862480252</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C161">
-        <v>0.07772155528134039</v>
+        <v>0.1474040215152295</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C162">
-        <v>0.2048558265957734</v>
+        <v>0.2643772860083216</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C163">
-        <v>0.01351717750830428</v>
+        <v>0.7089825943630057</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C164">
-        <v>0.2362755584671916</v>
+        <v>0.4258897191738109</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C165">
-        <v>0.5797653525851487</v>
+        <v>-5.236169322261919</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C166">
-        <v>0.9395039163178742</v>
+        <v>-10.17702258825042</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C167">
-        <v>-0.4539682427068148</v>
+        <v>13.44846979369205</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C168">
-        <v>0.7850595688520201</v>
+        <v>-2.379333372023085</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C169">
-        <v>0.9019793190396364</v>
+        <v>0.965692823464992</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B170" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C170">
-        <v>0.8653279254662305</v>
+        <v>1.000549797394412</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C171">
-        <v>-0.8682632751731201</v>
+        <v>0.03017027544438555</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C172">
-        <v>1.033996285768635</v>
+        <v>0.6120746491457441</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C173">
-        <v>-2.431448972122119</v>
+        <v>1.248405810532782</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C174">
-        <v>-4.641713947349412</v>
+        <v>0.1246125951430477</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C175">
-        <v>6.184259807582526</v>
+        <v>0.7073967178168106</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C176">
-        <v>-0.3892315333671181</v>
+        <v>0.06464058514157323</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C177">
-        <v>-0.2605525164865008</v>
+        <v>-3.105951432906073</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C178">
-        <v>2.587469164654044</v>
+        <v>-6.880435064129298</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C179">
-        <v>1.887381591616744</v>
+        <v>5.901768451614897</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C180">
-        <v>-0.114513733810373</v>
+        <v>-1.22900631116204</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C181">
-        <v>0.5796987481876625</v>
+        <v>-0.8573005069902107</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B182" s="2">
         <v>43191</v>
       </c>
       <c r="C182">
-        <v>2.821534244632251</v>
+        <v>0.764711288333908</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2197,7 +2205,7 @@
         <v>43282</v>
       </c>
       <c r="C183">
-        <v>1.324032228333016</v>
+        <v>-0.8537324292492543</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2206,7 +2214,7 @@
         <v>43374</v>
       </c>
       <c r="C184">
-        <v>-1.298561808000165</v>
+        <v>0.6424769249997464</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2215,7 +2223,7 @@
         <v>43466</v>
       </c>
       <c r="C185">
-        <v>2.999286536789447</v>
+        <v>-0.7600424016162566</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2224,7 +2232,7 @@
         <v>43556</v>
       </c>
       <c r="C186">
-        <v>-0.5357309948199163</v>
+        <v>1.234087460036482</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2233,7 +2241,7 @@
         <v>43647</v>
       </c>
       <c r="C187">
-        <v>1.316540540549127</v>
+        <v>1.119117183455276</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2242,7 +2250,7 @@
         <v>43739</v>
       </c>
       <c r="C188">
-        <v>0.8266803626190145</v>
+        <v>-1.044119010083577</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2251,7 +2259,7 @@
         <v>43831</v>
       </c>
       <c r="C189">
-        <v>-4.118030264984085</v>
+        <v>-4.415303972205697</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2260,7 +2268,7 @@
         <v>43922</v>
       </c>
       <c r="C190">
-        <v>1.244131597191611</v>
+        <v>-7.410030686175151</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2269,7 +2277,7 @@
         <v>44013</v>
       </c>
       <c r="C191">
-        <v>0.7264610323019172</v>
+        <v>5.485016738975612</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2278,7 +2286,7 @@
         <v>44105</v>
       </c>
       <c r="C192">
-        <v>4.125667822445234</v>
+        <v>0.1810295505312309</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2287,346 +2295,348 @@
         <v>44197</v>
       </c>
       <c r="C193">
-        <v>0.04125991669117202</v>
+        <v>2.726725850464318</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B194" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C194">
-        <v>2.042113571107729</v>
+        <v>1.231813816842431</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C195">
-        <v>-0.5000088260792901</v>
+        <v>0.1824493008403039</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C196">
-        <v>0.6650930065022598</v>
+        <v>0.6024418988590963</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C197">
-        <v>0.4148637757538376</v>
+        <v>0.6515850142614577</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C198">
-        <v>0.02055532291578288</v>
+        <v>1.585059320052995</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C199">
-        <v>0.457284824856985</v>
+        <v>-0.2800279667730776</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C200">
-        <v>0.3862561915299656</v>
+        <v>1.764265996596803</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C201">
-        <v>1.014952653551315</v>
+        <v>-2.096190195000336</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C202">
-        <v>-0.3106966452209425</v>
+        <v>-5.89025635986884</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C203">
-        <v>0.03298327991556604</v>
+        <v>5.750904650501609</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C204">
-        <v>-0.0571952133519793</v>
+        <v>-0.008120682389722855</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C205">
-        <v>-1.08892570249991</v>
+        <v>2.278983825220626</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B206" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C206">
-        <v>-4.026735018833816</v>
+        <v>6.390862067168546</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C207">
-        <v>4.052677324171028</v>
+        <v>1.361080947609894</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C208">
-        <v>-1.426580102933395</v>
+        <v>1.496020109874463</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C209">
-        <v>0.4683943440175087</v>
+        <v>-6.050823569599261</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C210">
-        <v>-0.5002347095463544</v>
+        <v>2.050861098695367</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C211">
-        <v>0.5158776483723315</v>
+        <v>-0.5903232528379654</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C212">
-        <v>0.8288967692315241</v>
+        <v>2.295824296168947</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C213">
-        <v>0.4717075575966456</v>
+        <v>-2.066030215198444</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C214">
-        <v>1.082604262328868</v>
+        <v>-8.15362993589911</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C215">
-        <v>0.6307391764687864</v>
+        <v>3.933974339778223</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C216">
-        <v>0.1160420553077968</v>
+        <v>2.509181448758824</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C217">
-        <v>-0.06296973112649429</v>
+        <v>4.886443275799235</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B218" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C218">
-        <v>-0.4526759418032933</v>
+        <v>1.753127438601187</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C219">
-        <v>0.5755057662335084</v>
+        <v>1.247021150859773</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C220">
-        <v>0.2790346715753955</v>
+        <v>2.420190981818604</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C221">
-        <v>-6.058749283934639</v>
+        <v>-0.7566656579379605</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C222">
-        <v>-11.03564488142604</v>
+        <v>2.363744160295855</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C223">
-        <v>16.61271357337522</v>
+        <v>-0.07465872655053607</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C224">
-        <v>-4.006940493315147</v>
+        <v>1.669436677654978</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C225">
-        <v>-0.1350580295551573</v>
+        <v>-0.2235009009812661</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C226">
-        <v>-0.01438936248504552</v>
+        <v>-13.61306784026276</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C227">
-        <v>0.1770628130799423</v>
+        <v>11.51604203587942</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C228">
-        <v>0.7196249103506025</v>
+        <v>5.747433832996807</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C229">
-        <v>0.4334984573546308</v>
+        <v>3.255370408716884</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B230" s="2">
         <v>43191</v>
       </c>
       <c r="C230">
-        <v>1.172296154848373</v>
+        <v>1.95789938429074</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2635,7 +2645,7 @@
         <v>43282</v>
       </c>
       <c r="C231">
-        <v>0.4691301745073817</v>
+        <v>0.2442770964580232</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2644,7 +2654,7 @@
         <v>43374</v>
       </c>
       <c r="C232">
-        <v>0.3655710973242909</v>
+        <v>1.536803452173463</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2653,7 +2663,7 @@
         <v>43466</v>
       </c>
       <c r="C233">
-        <v>0.6360543989263556</v>
+        <v>0.81445384525205</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2662,7 +2672,7 @@
         <v>43556</v>
       </c>
       <c r="C234">
-        <v>-0.1087938820311329</v>
+        <v>1.737994391651076</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2671,7 +2681,7 @@
         <v>43647</v>
       </c>
       <c r="C235">
-        <v>-0.6649648250945828</v>
+        <v>0.641733434470404</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2680,7 +2690,7 @@
         <v>43739</v>
       </c>
       <c r="C236">
-        <v>-0.06613067431147091</v>
+        <v>1.230058432370784</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2689,7 +2699,7 @@
         <v>43831</v>
       </c>
       <c r="C237">
-        <v>-3.363550071254007</v>
+        <v>0.5435870917318564</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2698,7 +2708,7 @@
         <v>43922</v>
       </c>
       <c r="C238">
-        <v>-8.202671795166317</v>
+        <v>-7.57003487268717</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2707,7 +2717,7 @@
         <v>44013</v>
       </c>
       <c r="C239">
-        <v>7.974857358494059</v>
+        <v>3.647026905310913</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2716,7 +2726,7 @@
         <v>44105</v>
       </c>
       <c r="C240">
-        <v>-1.986892465436751</v>
+        <v>2.646546988224174</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2725,346 +2735,348 @@
         <v>44197</v>
       </c>
       <c r="C241">
-        <v>0.02128453652638918</v>
+        <v>1.956952234660192</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B242" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C242">
-        <v>2.243756100149441</v>
+        <v>3.535554775473204</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C243">
-        <v>-0.1705294208339536</v>
+        <v>-1.126453485105561</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C244">
-        <v>1.286043333266562</v>
+        <v>13.30059020194656</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C245">
-        <v>0.1721644797286981</v>
+        <v>-5.629350454579674</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C246">
-        <v>3.269948494196773</v>
+        <v>1.614562964822253</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C247">
-        <v>-0.3806875331503479</v>
+        <v>4.822993543262011</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C248">
-        <v>-0.4385162317588343</v>
+        <v>4.248533669195931</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C249">
-        <v>-0.5974727633856536</v>
+        <v>-4.176321234473345</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C250">
-        <v>-0.9361023157715143</v>
+        <v>-6.006768507506155</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C251">
-        <v>1.136118801174502</v>
+        <v>8.813872713233796</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C252">
-        <v>-0.1071691723890322</v>
+        <v>0.4207587259696721</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C253">
-        <v>-3.511588518666087</v>
+        <v>-1.878577314453533</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B254" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C254">
-        <v>-8.248597376799182</v>
+        <v>1.149104015669367</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C255">
-        <v>4.611026474352853</v>
+        <v>1.521902508274287</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C256">
-        <v>0.5538505458647647</v>
+        <v>0.3669556947448971</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C257">
-        <v>6.092328880057174</v>
+        <v>0.8348499211283222</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C258">
-        <v>0.09045086716368278</v>
+        <v>-0.1624942911015892</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C259">
-        <v>0.4922853338401811</v>
+        <v>1.48882367446459</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C260">
-        <v>1.25133713224197</v>
+        <v>0.7714505709103037</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C261">
-        <v>1.087958285308965</v>
+        <v>-2.292780864695765</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C262">
-        <v>1.537963360684103</v>
+        <v>-4.967514968931031</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C263">
-        <v>0.7960015695795519</v>
+        <v>3.781161910412956</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C264">
-        <v>0.8781561029086227</v>
+        <v>2.42795945642551</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C265">
-        <v>1.445472476429654</v>
+        <v>1.618669846855303</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B266" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C266">
-        <v>2.216705962148158</v>
+        <v>0.6419397290099882</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C267">
-        <v>-0.7131023629727284</v>
+        <v>0.9426785411951188</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C268">
-        <v>1.344443550682639</v>
+        <v>-0.07863764623075031</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C269">
-        <v>-2.864495741598372</v>
+        <v>-0.5938882724994765</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C270">
-        <v>-7.301132328238557</v>
+        <v>0.3814382665959126</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C271">
-        <v>6.611305039427839</v>
+        <v>0.4705240863295268</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C272">
-        <v>-0.9547670538211039</v>
+        <v>0.3939414633531424</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C273">
-        <v>4.78090042352457</v>
+        <v>-7.878463219948639</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A274" s="1"/>
       <c r="B274" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C274">
-        <v>9.234952829736764</v>
+        <v>-8.777445150735808</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C275">
-        <v>2.430832347059386</v>
+        <v>12.84133878416476</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C276">
-        <v>5.465042626721273</v>
+        <v>-3.03877686010402</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C277">
-        <v>-8.725583434240358</v>
+        <v>0.2454138063430866</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B278" s="2">
         <v>43191</v>
       </c>
       <c r="C278">
-        <v>5.067494738041334</v>
+        <v>-0.9616023154131459</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3073,7 +3085,7 @@
         <v>43282</v>
       </c>
       <c r="C279">
-        <v>-0.8279024375066668</v>
+        <v>-0.01479019359982292</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3082,7 +3094,7 @@
         <v>43374</v>
       </c>
       <c r="C280">
-        <v>-0.0305700980107515</v>
+        <v>-0.02727716409687275</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3091,7 +3103,7 @@
         <v>43466</v>
       </c>
       <c r="C281">
-        <v>2.434495885542654</v>
+        <v>0.1505956081817583</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3100,7 +3112,7 @@
         <v>43556</v>
       </c>
       <c r="C282">
-        <v>-2.550068528067706</v>
+        <v>0.09487880724001752</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3109,7 +3121,7 @@
         <v>43647</v>
       </c>
       <c r="C283">
-        <v>-0.3499728807430436</v>
+        <v>0.3047850663119744</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3118,7 +3130,7 @@
         <v>43739</v>
       </c>
       <c r="C284">
-        <v>5.234266208319216</v>
+        <v>0.6761924853283308</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3127,7 +3139,7 @@
         <v>43831</v>
       </c>
       <c r="C285">
-        <v>-5.571652487868772</v>
+        <v>-1.885172980093563</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3136,7 +3148,7 @@
         <v>43922</v>
       </c>
       <c r="C286">
-        <v>-5.421146058327119</v>
+        <v>-6.785895477341186</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3145,7 +3157,7 @@
         <v>44013</v>
       </c>
       <c r="C287">
-        <v>3.050903963954466</v>
+        <v>4.000643122398184</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3154,7 +3166,7 @@
         <v>44105</v>
       </c>
       <c r="C288">
-        <v>0.7930700892797793</v>
+        <v>2.554287207490891</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3163,346 +3175,348 @@
         <v>44197</v>
       </c>
       <c r="C289">
-        <v>1.990663822843386</v>
+        <v>-0.1709200162665403</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B290" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C290">
-        <v>1.666333304723588</v>
+        <v>0.8459778890796743</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C291">
-        <v>1.910310904244761</v>
+        <v>1.683976182435432</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C292">
-        <v>2.063950393612179</v>
+        <v>-0.09016370427561426</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C293">
-        <v>0.6244200653960252</v>
+        <v>0.9608779852339211</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C294">
-        <v>1.74660031720002</v>
+        <v>0.8296113683797346</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C295">
-        <v>0.7251298211927049</v>
+        <v>0.3262501557580011</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C296">
-        <v>2.515603676493217</v>
+        <v>0.3548121108612579</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C297">
-        <v>1.284650985614699</v>
+        <v>0.1073862460049035</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C298">
-        <v>1.522155269001924</v>
+        <v>-1.991392127976899</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C299">
-        <v>-0.0641792553208953</v>
+        <v>0.8164482887937474</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C300">
-        <v>1.13754954029297</v>
+        <v>1.746457735589368</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C301">
-        <v>-2.392971010194578</v>
+        <v>1.076897354689521</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B302" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C302">
-        <v>-17.48250255208132</v>
+        <v>-0.5527470413829949</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C303">
-        <v>17.3839048459506</v>
+        <v>1.05543043551124</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C304">
-        <v>6.570780004386156</v>
+        <v>2.016981486424063</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C305">
-        <v>3.763870801732239</v>
+        <v>-0.02491791036468571</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A306" s="1"/>
       <c r="B306" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C306">
-        <v>3.474860917104872</v>
+        <v>2.335876913351398</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C307">
-        <v>0.03532225115518983</v>
+        <v>0.2819123430754855</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C308">
-        <v>1.196574224167324</v>
+        <v>-0.5411424543605881</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C309">
-        <v>1.612900370300041</v>
+        <v>-2.890839480452467</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1"/>
       <c r="B310" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C310">
-        <v>1.967801535819524</v>
+        <v>-2.885321650873174</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C311">
-        <v>0.2160780628564174</v>
+        <v>2.441798977423248</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C312">
-        <v>2.02842724353931</v>
+        <v>-0.2628486995484236</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C313">
-        <v>0.5676872385414367</v>
+        <v>2.295586250791604</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B314" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C314">
-        <v>1.601696844705169</v>
+        <v>1.988374535396198</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C315">
-        <v>0.4146444953723849</v>
+        <v>0.4513657739954491</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C316">
-        <v>0.4640503575303434</v>
+        <v>0.2325451949538149</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C317">
-        <v>-0.1742408267889184</v>
+        <v>1.897363326310653</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C318">
-        <v>-8.037574378257073</v>
+        <v>0.5662856668658511</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C319">
-        <v>4.681505710019751</v>
+        <v>0.08644768588277341</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C320">
-        <v>2.06446931812716</v>
+        <v>-0.08223068860104821</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1"/>
       <c r="B321" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C321">
-        <v>2.764523846167899</v>
+        <v>-2.862312495280772</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C322">
-        <v>3.167797304535047</v>
+        <v>-1.460396491203086</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C323">
-        <v>-0.6112738360724457</v>
+        <v>3.065077822300366</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C324">
-        <v>14.30839396445118</v>
+        <v>2.333807474424021</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C325">
-        <v>-5.906130789688024</v>
+        <v>0.6004685535862198</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B326" s="2">
         <v>43191</v>
       </c>
       <c r="C326">
-        <v>2.26851476020169</v>
+        <v>1.24488101071909</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3511,7 +3525,7 @@
         <v>43282</v>
       </c>
       <c r="C327">
-        <v>4.154403470603363</v>
+        <v>0.9271055960703656</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3520,7 +3534,7 @@
         <v>43374</v>
       </c>
       <c r="C328">
-        <v>4.43721430690851</v>
+        <v>1.252295810688975</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3529,7 +3543,7 @@
         <v>43466</v>
       </c>
       <c r="C329">
-        <v>-0.4847468514986519</v>
+        <v>-1.208720706264987</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3538,7 +3552,7 @@
         <v>43556</v>
       </c>
       <c r="C330">
-        <v>2.412669295495684</v>
+        <v>0.9024243112737196</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -3547,7 +3561,7 @@
         <v>43647</v>
       </c>
       <c r="C331">
-        <v>0.5496754380684088</v>
+        <v>-0.8888268139693678</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -3556,7 +3570,7 @@
         <v>43739</v>
       </c>
       <c r="C332">
-        <v>1.48542830402405</v>
+        <v>0.7921968643669119</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -3565,7 +3579,7 @@
         <v>43831</v>
       </c>
       <c r="C333">
-        <v>-4.535216423570343</v>
+        <v>-2.493468497800899</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -3574,7 +3588,7 @@
         <v>43922</v>
       </c>
       <c r="C334">
-        <v>-6.128710528639325</v>
+        <v>-7.006974855909887</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -3583,7 +3597,7 @@
         <v>44013</v>
       </c>
       <c r="C335">
-        <v>9.924751658534948</v>
+        <v>6.275982401161895</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -3592,7 +3606,7 @@
         <v>44105</v>
       </c>
       <c r="C336">
-        <v>2.402995747556069</v>
+        <v>-0.389886044089649</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -3601,346 +3615,348 @@
         <v>44197</v>
       </c>
       <c r="C337">
-        <v>-1.909979356277891</v>
+        <v>0.611493081001524</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B338" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C338">
-        <v>1.753141352423215</v>
+        <v>-0.4357899708007706</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C339">
-        <v>1.16018085664551</v>
+        <v>0.5195608798534535</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C340">
-        <v>0.5767790150844831</v>
+        <v>1.379005106434894</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C341">
-        <v>0.2086321266763003</v>
+        <v>-0.5251984933690501</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C342">
-        <v>0.8901898931785057</v>
+        <v>0.6509809458476568</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1"/>
       <c r="B343" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C343">
-        <v>1.328600081550335</v>
+        <v>-0.7388549559057767</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C344">
-        <v>0.5013527000624629</v>
+        <v>0.7199479712517443</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C345">
-        <v>2.349979206336794</v>
+        <v>-2.262762844506894</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C346">
-        <v>-0.3558106838847275</v>
+        <v>-10.54245367445056</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C347">
-        <v>1.068603894202846</v>
+        <v>9.434201115157803</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C348">
-        <v>-0.2400559111519818</v>
+        <v>1.247778612282313</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C349">
-        <v>-2.993852804374475</v>
+        <v>0.4234131594991641</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B350" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C350">
-        <v>-5.524744587783759</v>
+        <v>0.3289135708123725</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C351">
-        <v>5.057943206523974</v>
+        <v>0.5425442148821347</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C352">
-        <v>2.777384158382068</v>
+        <v>0.7924180686973425</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C353">
-        <v>2.311496753381537</v>
+        <v>0.5733582916418456</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C354">
-        <v>0.1371352577636431</v>
+        <v>0.73495539306212</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C355">
-        <v>0.1991283982928138</v>
+        <v>0.8098046163454775</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C356">
-        <v>0.3141909416806588</v>
+        <v>0.6060828597768131</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C357">
-        <v>0.2358953408418074</v>
+        <v>-2.33045486871013</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C358">
-        <v>0.5493893519767035</v>
+        <v>-5.503726100743044</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C359">
-        <v>1.094869539292143</v>
+        <v>5.158168475757718</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C360">
-        <v>0.08349963876461697</v>
+        <v>-1.194256786947701</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C361">
-        <v>-0.9948043514545923</v>
+        <v>0.4435160770412949</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B362" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C362">
-        <v>-0.189390772192588</v>
+        <v>0.2098307611451133</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C363">
-        <v>-0.2256130671048351</v>
+        <v>1.173519894612474</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C364">
-        <v>0.1842930872971493</v>
+        <v>0.7236393606500302</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1"/>
       <c r="B365" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C365">
-        <v>-8.848149596352906</v>
+        <v>0.7534505079650256</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C366">
-        <v>-9.272925615037074</v>
+        <v>0.9902950680584555</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C367">
-        <v>15.96326803066333</v>
+        <v>-0.1537808190115397</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C368">
-        <v>-4.195968256287541</v>
+        <v>1.138637551710353</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C369">
-        <v>2.540692892238927</v>
+        <v>-2.647739286420503</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A370" s="1"/>
       <c r="B370" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C370">
-        <v>-0.550460817185916</v>
+        <v>-3.669824561186985</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C371">
-        <v>0.824117388537049</v>
+        <v>6.285163227128288</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C372">
-        <v>0.08969095782367376</v>
+        <v>1.460445167391478</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C373">
-        <v>0.8612816439961035</v>
+        <v>1.003599804571031</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B374" s="2">
         <v>43191</v>
       </c>
       <c r="C374">
-        <v>-0.3340415121562024</v>
+        <v>-2.00164383869581</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -3949,7 +3965,7 @@
         <v>43282</v>
       </c>
       <c r="C375">
-        <v>0.6295109430820789</v>
+        <v>-1.489344051551433</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -3958,7 +3974,7 @@
         <v>43374</v>
       </c>
       <c r="C376">
-        <v>-0.02577666421215152</v>
+        <v>1.744419451832235</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -3967,7 +3983,7 @@
         <v>43466</v>
       </c>
       <c r="C377">
-        <v>0.06195930418424478</v>
+        <v>1.462701675557776</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -3976,7 +3992,7 @@
         <v>43556</v>
       </c>
       <c r="C378">
-        <v>0.1650949898076348</v>
+        <v>0.4335020774140608</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -3985,7 +4001,7 @@
         <v>43647</v>
       </c>
       <c r="C379">
-        <v>-0.8401163257048871</v>
+        <v>1.678088064440919</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -3994,7 +4010,7 @@
         <v>43739</v>
       </c>
       <c r="C380">
-        <v>0.2649781466428358</v>
+        <v>-1.579955745305461</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4003,7 +4019,7 @@
         <v>43831</v>
       </c>
       <c r="C381">
-        <v>-1.759934804562668</v>
+        <v>-2.231581553437889</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4012,7 +4028,7 @@
         <v>43922</v>
       </c>
       <c r="C382">
-        <v>-8.043926465707752</v>
+        <v>-3.827026977447812</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4021,7 +4037,7 @@
         <v>44013</v>
       </c>
       <c r="C383">
-        <v>5.937374793091954</v>
+        <v>4.52905060265234</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4030,7 +4046,7 @@
         <v>44105</v>
       </c>
       <c r="C384">
-        <v>1.041369533047454</v>
+        <v>-0.092792527331087</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4039,346 +4055,348 @@
         <v>44197</v>
       </c>
       <c r="C385">
-        <v>1.27033258652236</v>
+        <v>-1.039095239626375</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B386" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C386">
-        <v>1.250016980256197</v>
+        <v>1.693549073508782</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1"/>
       <c r="B387" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C387">
-        <v>1.0238679354589</v>
+        <v>0.0696707912698713</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C388">
-        <v>0.4139159191133723</v>
+        <v>2.767898903212562</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C389">
-        <v>1.158423218659332</v>
+        <v>0.6141557303732226</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C390">
-        <v>0.4659679866060529</v>
+        <v>0.8724569125045267</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C391">
-        <v>2.758950011569539</v>
+        <v>0.5329547931315126</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C392">
-        <v>-1.405069053847496</v>
+        <v>1.530608649469389</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C393">
-        <v>0.4484440673877321</v>
+        <v>-2.109685167819364</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C394">
-        <v>0.416853833412012</v>
+        <v>-5.558157694245047</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C395">
-        <v>-0.6301306091471726</v>
+        <v>9.325128942064964</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C396">
-        <v>1.811503086625099</v>
+        <v>-2.803203834459378</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C397">
-        <v>-0.5938483044885534</v>
+        <v>1.533980458174744</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B398" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C398">
-        <v>-2.514223858363307</v>
+        <v>0.6183157509432657</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1"/>
       <c r="B399" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C399">
-        <v>2.046999934452409</v>
+        <v>1.52144027321377</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1"/>
       <c r="B400" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C400">
-        <v>0.9477704370684847</v>
+        <v>1.239446874691663</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1"/>
       <c r="B401" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C401">
-        <v>2.846708550621302</v>
+        <v>0.2372516948766501</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A402" s="1"/>
       <c r="B402" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C402">
-        <v>-2.565028722089979</v>
+        <v>1.285574098259201</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1"/>
       <c r="B403" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C403">
-        <v>-0.9840551451002377</v>
+        <v>-0.3326339853720328</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1"/>
       <c r="B404" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C404">
-        <v>4.584927253054083</v>
+        <v>0.9913270749825509</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1"/>
       <c r="B405" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C405">
-        <v>0.7002252439462842</v>
+        <v>-4.680791909553028</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1"/>
       <c r="B406" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C406">
-        <v>-0.6385488651622251</v>
+        <v>-9.657516816149524</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1"/>
       <c r="B407" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C407">
-        <v>2.779480965510461</v>
+        <v>10.31541470362347</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1"/>
       <c r="B408" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C408">
-        <v>-1.603762001157527</v>
+        <v>-0.516183470110998</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1"/>
       <c r="B409" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C409">
-        <v>0.2863836940189213</v>
+        <v>-1.757482379382125</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" s="1"/>
+      <c r="A410" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B410" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C410">
-        <v>4.77633267957478</v>
+        <v>2.439124670345105</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C411">
-        <v>-0.321979130510508</v>
+        <v>0.2243230096881321</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C412">
-        <v>-0.1768698658195289</v>
+        <v>0.8484621103592049</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C413">
-        <v>-4.691270944054415</v>
+        <v>1.44740089779587</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C414">
-        <v>-6.833559972168302</v>
+        <v>1.355207022045923</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C415">
-        <v>3.947856984429543</v>
+        <v>2.722814963562437</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C416">
-        <v>-1.650180591189088</v>
+        <v>0.0375661444370623</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C417">
-        <v>5.342944630757818</v>
+        <v>-3.57215694652786</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A418" s="1"/>
       <c r="B418" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C418">
-        <v>4.460733944220885</v>
+        <v>-5.304724330998845</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C419">
-        <v>-0.01713097686639742</v>
+        <v>7.962576837159396</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1"/>
       <c r="B420" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C420">
-        <v>2.098364291014576</v>
+        <v>0.01128734732251946</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C421">
-        <v>1.067374507184771</v>
+        <v>2.369311494884663</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B422" s="2">
         <v>43191</v>
       </c>
       <c r="C422">
-        <v>1.639971195576306</v>
+        <v>0.0614129632738436</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -4387,7 +4405,7 @@
         <v>43282</v>
       </c>
       <c r="C423">
-        <v>0.5128571903127765</v>
+        <v>0.2277513410951393</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -4396,7 +4414,7 @@
         <v>43374</v>
       </c>
       <c r="C424">
-        <v>-0.9166371747851509</v>
+        <v>0.4382298768148774</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -4405,7 +4423,7 @@
         <v>43466</v>
       </c>
       <c r="C425">
-        <v>1.54943805365011</v>
+        <v>0.4119298812796046</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -4414,7 +4432,7 @@
         <v>43556</v>
       </c>
       <c r="C426">
-        <v>0.35994542407769</v>
+        <v>-0.6644991016769297</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -4423,7 +4441,7 @@
         <v>43647</v>
       </c>
       <c r="C427">
-        <v>0.7821459038425793</v>
+        <v>1.179163209981526</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -4432,7 +4450,7 @@
         <v>43739</v>
       </c>
       <c r="C428">
-        <v>0.60483512723708</v>
+        <v>-0.6568615829561919</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -4441,7 +4459,7 @@
         <v>43831</v>
       </c>
       <c r="C429">
-        <v>-2.375722304419747</v>
+        <v>-1.085401283926124</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -4450,7 +4468,7 @@
         <v>43922</v>
       </c>
       <c r="C430">
-        <v>-2.403784552234622</v>
+        <v>-7.149990240662751</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -4459,7 +4477,7 @@
         <v>44013</v>
       </c>
       <c r="C431">
-        <v>4.46221943689602</v>
+        <v>6.698107725233826</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -4468,7 +4486,7 @@
         <v>44105</v>
       </c>
       <c r="C432">
-        <v>1.267101785058533</v>
+        <v>0.7142261717163256</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -4477,346 +4495,348 @@
         <v>44197</v>
       </c>
       <c r="C433">
-        <v>2.876628245943347</v>
+        <v>1.602082581619602</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B434" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C434">
-        <v>-2.379867034826588</v>
+        <v>1.21126877334492</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C435">
-        <v>2.688460136698589</v>
+        <v>-0.6898881495303932</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C436">
-        <v>0.2162109747609886</v>
+        <v>-0.6237640158751168</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C437">
-        <v>-1.538266517946585</v>
+        <v>0.4220222511868821</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C438">
-        <v>0.4330378160482651</v>
+        <v>3.027917170833483</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C439">
-        <v>-0.6003863744359461</v>
+        <v>-1.29782550671047</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C440">
-        <v>1.749481019792243</v>
+        <v>1.706229868874587</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C441">
-        <v>1.969705494566254</v>
+        <v>-4.096701972271832</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1"/>
       <c r="B442" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C442">
-        <v>-0.7773316246311834</v>
+        <v>-4.65673705365025</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C443">
-        <v>-0.7535907186740021</v>
+        <v>7.270288716481055</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C444">
-        <v>0.2247603089910122</v>
+        <v>0.1837278731832814</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C445">
-        <v>-5.269823697652853</v>
+        <v>-2.681259324872232</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B446" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C446">
-        <v>-4.624145727201611</v>
+        <v>1.087397641855725</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C447">
-        <v>7.536760159626343</v>
+        <v>2.499721680157241</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C448">
-        <v>-0.6323728567161346</v>
+        <v>1.141455083196585</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C449">
-        <v>4.471953209837154</v>
+        <v>1.480099243314337</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A450" s="1"/>
       <c r="B450" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C450">
-        <v>0.7069425679417263</v>
+        <v>-0.2640576508797454</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C451">
-        <v>0.01552182298369953</v>
+        <v>0.119697145785258</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C452">
-        <v>1.118868666563499</v>
+        <v>1.764244677118554</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1"/>
       <c r="B453" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C453">
-        <v>1.058220451254077</v>
+        <v>-3.431565443980455</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C454">
-        <v>-0.03982856084323583</v>
+        <v>-2.231128471683952</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C455">
-        <v>-0.6602407480313155</v>
+        <v>6.895591125713185</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C456">
-        <v>1.129334730352705</v>
+        <v>-3.182926460774849</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C457">
-        <v>-0.4553583408704487</v>
+        <v>0.5458564935043153</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B458" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C458">
-        <v>1.338057460463604</v>
+        <v>1.686952010660248</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C459">
-        <v>-0.4253453838509946</v>
+        <v>-0.5093444531123259</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C460">
-        <v>-1.000923997747027</v>
+        <v>0.4709308045043326</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C461">
-        <v>-2.131500742630221</v>
+        <v>-0.7031675138569726</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C462">
-        <v>-13.03117511038947</v>
+        <v>1.270291540961166</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C463">
-        <v>9.736178154108632</v>
+        <v>-0.5036987660260395</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1"/>
       <c r="B464" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C464">
-        <v>1.429431779363255</v>
+        <v>1.118224826642988</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C465">
-        <v>1.782774987272373</v>
+        <v>-2.996267515419271</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A466" s="1"/>
       <c r="B466" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C466">
-        <v>1.074027792746257</v>
+        <v>-12.02679150930097</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C467">
-        <v>1.535175511691689</v>
+        <v>8.174278763717723</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C468">
-        <v>-0.01349267626647999</v>
+        <v>4.114784473707678</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C469">
-        <v>0.9073709789647388</v>
+        <v>-1.949861214840154</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B470" s="2">
         <v>43191</v>
       </c>
       <c r="C470">
-        <v>1.03982439967707</v>
+        <v>0.008852681230497872</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -4825,7 +4845,7 @@
         <v>43282</v>
       </c>
       <c r="C471">
-        <v>-0.5412616228117173</v>
+        <v>0.7468909255787581</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -4834,7 +4854,7 @@
         <v>43374</v>
       </c>
       <c r="C472">
-        <v>1.199067243291618</v>
+        <v>0.1317141167715308</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -4843,7 +4863,7 @@
         <v>43466</v>
       </c>
       <c r="C473">
-        <v>0.5375204667656952</v>
+        <v>0.425601717665347</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -4852,7 +4872,7 @@
         <v>43556</v>
       </c>
       <c r="C474">
-        <v>0.5444900786693241</v>
+        <v>0.8646894304642272</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -4861,7 +4881,7 @@
         <v>43647</v>
       </c>
       <c r="C475">
-        <v>0.7347572705986627</v>
+        <v>-0.001180192160943339</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -4870,7 +4890,7 @@
         <v>43739</v>
       </c>
       <c r="C476">
-        <v>-0.006872945327018876</v>
+        <v>0.7400314623866366</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -4879,7 +4899,7 @@
         <v>43831</v>
       </c>
       <c r="C477">
-        <v>-2.793718204657203</v>
+        <v>-5.383054553871092</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -4888,7 +4908,7 @@
         <v>43922</v>
       </c>
       <c r="C478">
-        <v>-5.880085361851362</v>
+        <v>-12.7182531313641</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -4897,7 +4917,7 @@
         <v>44013</v>
       </c>
       <c r="C479">
-        <v>5.314620143351378</v>
+        <v>12.66305219666453</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -4906,7 +4926,7 @@
         <v>44105</v>
       </c>
       <c r="C480">
-        <v>-0.5308072168412115</v>
+        <v>0.1362397257686609</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -4915,346 +4935,348 @@
         <v>44197</v>
       </c>
       <c r="C481">
-        <v>1.173182870424605</v>
+        <v>0.5187174063813638</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B482" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C482">
-        <v>-0.3661618134342737</v>
+        <v>0.4525785205953925</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1"/>
       <c r="B483" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C483">
-        <v>0.9909355058046909</v>
+        <v>-0.4033097862615742</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1"/>
       <c r="B484" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C484">
-        <v>0.6957720154011859</v>
+        <v>0.9113140261820307</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1"/>
       <c r="B485" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C485">
-        <v>1.041793480202036</v>
+        <v>0.6567281557877225</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1"/>
       <c r="B486" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C486">
-        <v>0.7526809060059536</v>
+        <v>1.245274372795424</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1"/>
       <c r="B487" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C487">
-        <v>1.301023104715227</v>
+        <v>0.4682734647279752</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1"/>
       <c r="B488" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C488">
-        <v>1.044243157391311</v>
+        <v>-0.08078844552992237</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1"/>
       <c r="B489" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C489">
-        <v>0.1472897352496005</v>
+        <v>-2.666189917308714</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1"/>
       <c r="B490" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C490">
-        <v>1.30801620689649</v>
+        <v>-5.912063603365436</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1"/>
       <c r="B491" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C491">
-        <v>-0.8749037023787487</v>
+        <v>4.529280323935669</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1"/>
       <c r="B492" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C492">
-        <v>1.576447121870017</v>
+        <v>2.668402185814478</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1"/>
       <c r="B493" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C493">
-        <v>-3.240403079325993</v>
+        <v>-0.6677835382095432</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B494" s="2">
-        <v>43922</v>
+        <v>43191</v>
       </c>
       <c r="C494">
-        <v>-5.178975781199191</v>
+        <v>0.7474315183822577</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1"/>
       <c r="B495" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C495">
-        <v>7.886302790606137</v>
+        <v>0.800899605830141</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1"/>
       <c r="B496" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C496">
-        <v>0.9158652878071383</v>
+        <v>0.6225170369328348</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1"/>
       <c r="B497" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C497">
-        <v>2.679078816669866</v>
+        <v>-0.4350013979276701</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="A498" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A498" s="1"/>
       <c r="B498" s="2">
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="C498">
-        <v>-0.2137632383417909</v>
+        <v>0.7436138142438375</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1"/>
       <c r="B499" s="2">
-        <v>42917</v>
+        <v>43647</v>
       </c>
       <c r="C499">
-        <v>-2.185308708162148</v>
+        <v>-0.07833594696184942</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1"/>
       <c r="B500" s="2">
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="C500">
-        <v>2.859109238981539</v>
+        <v>1.029542264336114</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1"/>
       <c r="B501" s="2">
-        <v>43101</v>
+        <v>43831</v>
       </c>
       <c r="C501">
-        <v>0.8099270928343616</v>
+        <v>-3.024388803360223</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1"/>
       <c r="B502" s="2">
-        <v>43191</v>
+        <v>43922</v>
       </c>
       <c r="C502">
-        <v>0.4112927325568894</v>
+        <v>-4.784365179959648</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1"/>
       <c r="B503" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C503">
-        <v>0.1577749415736962</v>
+        <v>6.538602086003653</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1"/>
       <c r="B504" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C504">
-        <v>-0.747598492191448</v>
+        <v>-1.239485277115471</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1"/>
       <c r="B505" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C505">
-        <v>1.639065868874257</v>
+        <v>-0.1876222174369002</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" s="1"/>
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B506" s="2">
-        <v>43556</v>
+        <v>43191</v>
       </c>
       <c r="C506">
-        <v>-0.5431037886435952</v>
+        <v>0.03803363695462636</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1"/>
       <c r="B507" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C507">
-        <v>1.544892604894677</v>
+        <v>-3.561056623410408</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1"/>
       <c r="B508" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C508">
-        <v>-0.6194968340999085</v>
+        <v>2.754506831533621</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1"/>
       <c r="B509" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C509">
-        <v>-3.600690268354589</v>
+        <v>0.9278312448073089</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1"/>
       <c r="B510" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C510">
-        <v>-4.128279467150476</v>
+        <v>3.054523281870281</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1"/>
       <c r="B511" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C511">
-        <v>3.589063210578014</v>
+        <v>1.32562070982265</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1"/>
       <c r="B512" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C512">
-        <v>1.424256588350192</v>
+        <v>2.784959414970101</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1"/>
       <c r="B513" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C513">
-        <v>0.8874147319244852</v>
+        <v>-0.6480885261731517</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="A514" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A514" s="1"/>
       <c r="B514" s="2">
-        <v>42826</v>
+        <v>43922</v>
       </c>
       <c r="C514">
-        <v>-0.4773101976370264</v>
+        <v>-6.936458325918126</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1"/>
       <c r="B515" s="2">
-        <v>42917</v>
+        <v>44013</v>
       </c>
       <c r="C515">
-        <v>0.8916657349616663</v>
+        <v>6.896818764134482</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1"/>
       <c r="B516" s="2">
-        <v>43009</v>
+        <v>44105</v>
       </c>
       <c r="C516">
-        <v>2.858525777252163</v>
+        <v>-1.221042565564079</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1"/>
       <c r="B517" s="2">
-        <v>43101</v>
+        <v>44197</v>
       </c>
       <c r="C517">
-        <v>0.7537128303327867</v>
+        <v>0.2672775507832403</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B518" s="2">
         <v>43191</v>
       </c>
       <c r="C518">
-        <v>1.515223709742619</v>
+        <v>0.04795726500126385</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -5263,7 +5285,7 @@
         <v>43282</v>
       </c>
       <c r="C519">
-        <v>0.2104106026794561</v>
+        <v>0.05902656020249086</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -5272,7 +5294,7 @@
         <v>43374</v>
       </c>
       <c r="C520">
-        <v>1.931465604196148</v>
+        <v>0.08614904818680102</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -5281,7 +5303,7 @@
         <v>43466</v>
       </c>
       <c r="C521">
-        <v>1.38255825358673</v>
+        <v>0.6449739538641142</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -5290,7 +5312,7 @@
         <v>43556</v>
       </c>
       <c r="C522">
-        <v>0.7238885686437824</v>
+        <v>0.485769933136404</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -5299,7 +5321,7 @@
         <v>43647</v>
       </c>
       <c r="C523">
-        <v>1.345821331523478</v>
+        <v>-0.2172052531642099</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -5308,7 +5330,7 @@
         <v>43739</v>
       </c>
       <c r="C524">
-        <v>0.2277252550520359</v>
+        <v>-0.01092826807009839</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -5317,7 +5339,7 @@
         <v>43831</v>
       </c>
       <c r="C525">
-        <v>-2.751964518746841</v>
+        <v>-3.884423097820966</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -5326,7 +5348,7 @@
         <v>43922</v>
       </c>
       <c r="C526">
-        <v>-6.474828914769026</v>
+        <v>-11.52184464178494</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -5335,7 +5357,7 @@
         <v>44013</v>
       </c>
       <c r="C527">
-        <v>9.991612144886997</v>
+        <v>11.08288772450285</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -5344,7 +5366,7 @@
         <v>44105</v>
       </c>
       <c r="C528">
-        <v>-2.982501558763651</v>
+        <v>-0.3984794045958417</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -5353,1808 +5375,166 @@
         <v>44197</v>
       </c>
       <c r="C529">
-        <v>3.205736248653834</v>
+        <v>-1.357970717504642</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B530" s="2">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C530">
-        <v>0.04866207177747217</v>
+        <v>0.1391578740988386</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1"/>
       <c r="B531" s="2">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C531">
-        <v>2.214608104128013</v>
+        <v>0.3293868322760352</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1"/>
       <c r="B532" s="2">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C532">
-        <v>-0.4803440142709503</v>
+        <v>0.5356586884965875</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1"/>
       <c r="B533" s="2">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C533">
-        <v>2.373161384093514</v>
+        <v>0.789444358384217</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1"/>
       <c r="B534" s="2">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C534">
-        <v>0.2032478964447249</v>
+        <v>0.3276836632571722</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1"/>
       <c r="B535" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C535">
-        <v>0.1054576923644301</v>
+        <v>0.6633777754420755</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1"/>
       <c r="B536" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C536">
-        <v>2.429859725125239</v>
+        <v>0.3523634208065562</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1"/>
       <c r="B537" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C537">
-        <v>-1.219606718583666</v>
+        <v>-1.385053451652984</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1"/>
       <c r="B538" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C538">
-        <v>1.76688964253362</v>
+        <v>-5.964938208622373</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1"/>
       <c r="B539" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C539">
-        <v>-0.6213833503514454</v>
+        <v>4.84988076291093</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1"/>
       <c r="B540" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C540">
-        <v>0.1791691259115158</v>
+        <v>1.99788939811758</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1"/>
       <c r="B541" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C541">
-        <v>-4.589453145631007</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="1"/>
-      <c r="B542" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C542">
-        <v>-12.74363785491079</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
-      <c r="A543" s="1"/>
-      <c r="B543" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C543">
-        <v>13.93866930741978</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" s="1"/>
-      <c r="B544" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C544">
-        <v>0.2360666356119312</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
-      <c r="A545" s="1"/>
-      <c r="B545" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C545">
-        <v>-1.945842686510879</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
-      <c r="A546" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B546" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C546">
-        <v>2.517392803570351</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
-      <c r="A547" s="1"/>
-      <c r="B547" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C547">
-        <v>-0.2664646762598144</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C548">
-        <v>0.9686805463909653</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3">
-      <c r="A549" s="1"/>
-      <c r="B549" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C549">
-        <v>1.653183501372757</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3">
-      <c r="A550" s="1"/>
-      <c r="B550" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C550">
-        <v>0.8176153282025034</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
-      <c r="A551" s="1"/>
-      <c r="B551" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C551">
-        <v>3.266262876593373</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
-      <c r="A552" s="1"/>
-      <c r="B552" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C552">
-        <v>0.2455657178457971</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3">
-      <c r="A553" s="1"/>
-      <c r="B553" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C553">
-        <v>0.1599443844167325</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3">
-      <c r="A554" s="1"/>
-      <c r="B554" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C554">
-        <v>1.84615113732145</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3">
-      <c r="A555" s="1"/>
-      <c r="B555" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C555">
-        <v>1.436655201273229</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3">
-      <c r="A556" s="1"/>
-      <c r="B556" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C556">
-        <v>-0.1770522479868641</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="A557" s="1"/>
-      <c r="B557" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C557">
-        <v>-3.545935995723315</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
-      <c r="A558" s="1"/>
-      <c r="B558" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C558">
-        <v>-8.45459236509557</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="A559" s="1"/>
-      <c r="B559" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C559">
-        <v>8.410650141260522</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3">
-      <c r="A560" s="1"/>
-      <c r="B560" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C560">
-        <v>1.345718295847731</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C561">
-        <v>5.180058559739642</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="A562" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B562" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C562">
-        <v>-0.02587892074431553</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
-      <c r="A563" s="1"/>
-      <c r="B563" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C563">
-        <v>-0.1022623335199535</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="A564" s="1"/>
-      <c r="B564" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C564">
-        <v>-0.6672305245364551</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="1"/>
-      <c r="B565" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C565">
-        <v>0.2327232483232189</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="1"/>
-      <c r="B566" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C566">
-        <v>0.7403746462768535</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="1"/>
-      <c r="B567" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C567">
-        <v>1.466775566862966</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" s="1"/>
-      <c r="B568" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C568">
-        <v>0.02530703245178234</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
-      <c r="A569" s="1"/>
-      <c r="B569" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C569">
-        <v>1.727605718506098</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="1"/>
-      <c r="B570" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C570">
-        <v>-0.1578079580937031</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
-      <c r="A571" s="1"/>
-      <c r="B571" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C571">
-        <v>0.5793931483229819</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="A572" s="1"/>
-      <c r="B572" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C572">
-        <v>-0.9471199357080851</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
-      <c r="A573" s="1"/>
-      <c r="B573" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C573">
-        <v>-2.865890741188704</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="A574" s="1"/>
-      <c r="B574" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C574">
-        <v>-5.118459309744471</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="1"/>
-      <c r="B575" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C575">
-        <v>5.155107208540266</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3">
-      <c r="A576" s="1"/>
-      <c r="B576" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C576">
-        <v>0.6352056159832919</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3">
-      <c r="A577" s="1"/>
-      <c r="B577" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C577">
-        <v>3.539586929163585</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3">
-      <c r="A578" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B578" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C578">
-        <v>1.964259270249302</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
-      <c r="A579" s="1"/>
-      <c r="B579" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C579">
-        <v>-0.4361420216881573</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3">
-      <c r="A580" s="1"/>
-      <c r="B580" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C580">
-        <v>0.008051579529633202</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3">
-      <c r="A581" s="1"/>
-      <c r="B581" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C581">
-        <v>1.562832788876012</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3">
-      <c r="A582" s="1"/>
-      <c r="B582" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C582">
-        <v>1.273252233418387</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="1"/>
-      <c r="B583" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C583">
-        <v>0.2654438509420487</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="1"/>
-      <c r="B584" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C584">
-        <v>-0.05348845869352914</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
-      <c r="A585" s="1"/>
-      <c r="B585" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C585">
-        <v>0.6983118124768151</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3">
-      <c r="A586" s="1"/>
-      <c r="B586" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C586">
-        <v>2.606251914216084</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3">
-      <c r="A587" s="1"/>
-      <c r="B587" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C587">
-        <v>-1.011354788728658</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3">
-      <c r="A588" s="1"/>
-      <c r="B588" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C588">
-        <v>1.070669354968534</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3">
-      <c r="A589" s="1"/>
-      <c r="B589" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C589">
-        <v>-5.281507244558181</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3">
-      <c r="A590" s="1"/>
-      <c r="B590" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C590">
-        <v>-7.425033725333829</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3">
-      <c r="A591" s="1"/>
-      <c r="B591" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C591">
-        <v>9.755621744830666</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3">
-      <c r="A592" s="1"/>
-      <c r="B592" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C592">
-        <v>0.4963503604142439</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3">
-      <c r="A593" s="1"/>
-      <c r="B593" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C593">
-        <v>-6.001215418551431</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3">
-      <c r="A594" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B594" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C594">
-        <v>3.244828154253199</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
-      <c r="A595" s="1"/>
-      <c r="B595" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C595">
-        <v>0.8381683051046807</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
-      <c r="A596" s="1"/>
-      <c r="B596" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C596">
-        <v>1.362240483472887</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="A597" s="1"/>
-      <c r="B597" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C597">
-        <v>0.7467433420391911</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="A598" s="1"/>
-      <c r="B598" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C598">
-        <v>-0.09169587799210399</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="A599" s="1"/>
-      <c r="B599" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C599">
-        <v>2.021885751636221</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3">
-      <c r="A600" s="1"/>
-      <c r="B600" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C600">
-        <v>2.013310355135456</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="A601" s="1"/>
-      <c r="B601" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C601">
-        <v>0.9779957705205122</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="A602" s="1"/>
-      <c r="B602" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C602">
-        <v>1.209123428716374</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3">
-      <c r="A603" s="1"/>
-      <c r="B603" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C603">
-        <v>-1.201320084163082</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3">
-      <c r="A604" s="1"/>
-      <c r="B604" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C604">
-        <v>1.742900203308184</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3">
-      <c r="A605" s="1"/>
-      <c r="B605" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C605">
-        <v>-3.95757229996786</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3">
-      <c r="A606" s="1"/>
-      <c r="B606" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C606">
-        <v>-6.714632065474158</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3">
-      <c r="A607" s="1"/>
-      <c r="B607" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C607">
-        <v>10.77577066114932</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3">
-      <c r="A608" s="1"/>
-      <c r="B608" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C608">
-        <v>-3.745961050437052</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3">
-      <c r="A609" s="1"/>
-      <c r="B609" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C609">
-        <v>-2.367088291979624</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3">
-      <c r="A610" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B610" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C610">
-        <v>-0.32017216282334</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" s="1"/>
-      <c r="B611" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C611">
-        <v>0.5493502371790138</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="A612" s="1"/>
-      <c r="B612" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C612">
-        <v>0.967799479409126</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3">
-      <c r="A613" s="1"/>
-      <c r="B613" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C613">
-        <v>-1.083539309990444</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
-      <c r="A614" s="1"/>
-      <c r="B614" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C614">
-        <v>1.517919416705826</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3">
-      <c r="A615" s="1"/>
-      <c r="B615" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C615">
-        <v>-0.2772626177288795</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3">
-      <c r="A616" s="1"/>
-      <c r="B616" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C616">
-        <v>0.92443191586149</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3">
-      <c r="A617" s="1"/>
-      <c r="B617" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C617">
-        <v>-0.8585205072913382</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3">
-      <c r="A618" s="1"/>
-      <c r="B618" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C618">
-        <v>-0.1803661844395288</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
-      <c r="A619" s="1"/>
-      <c r="B619" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C619">
-        <v>-0.4075150820575968</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
-      <c r="A620" s="1"/>
-      <c r="B620" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C620">
-        <v>1.183215976593321</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
-      <c r="A621" s="1"/>
-      <c r="B621" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C621">
-        <v>-4.5406396228723</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
-      <c r="A622" s="1"/>
-      <c r="B622" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C622">
-        <v>-13.35569019107135</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
-      <c r="A623" s="1"/>
-      <c r="B623" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C623">
-        <v>11.51081350117851</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
-      <c r="A624" s="1"/>
-      <c r="B624" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C624">
-        <v>2.463107534863318</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
-      <c r="A625" s="1"/>
-      <c r="B625" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C625">
-        <v>3.094106108721784</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3">
-      <c r="A626" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B626" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C626">
-        <v>1.092848651896094</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3">
-      <c r="A627" s="1"/>
-      <c r="B627" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C627">
-        <v>0.3727274528491531</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3">
-      <c r="A628" s="1"/>
-      <c r="B628" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C628">
-        <v>0.08496068201453433</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3">
-      <c r="A629" s="1"/>
-      <c r="B629" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C629">
-        <v>1.20667400018537</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3">
-      <c r="A630" s="1"/>
-      <c r="B630" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C630">
-        <v>0.7256524677659471</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3">
-      <c r="A631" s="1"/>
-      <c r="B631" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C631">
-        <v>0.2506507754543419</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3">
-      <c r="A632" s="1"/>
-      <c r="B632" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C632">
-        <v>0.4501813082921968</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3">
-      <c r="A633" s="1"/>
-      <c r="B633" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C633">
-        <v>0.351141838179525</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3">
-      <c r="A634" s="1"/>
-      <c r="B634" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C634">
-        <v>0.3178612000696246</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3">
-      <c r="A635" s="1"/>
-      <c r="B635" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C635">
-        <v>-0.07953358676997535</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3">
-      <c r="A636" s="1"/>
-      <c r="B636" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C636">
-        <v>1.027435398922094</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3">
-      <c r="A637" s="1"/>
-      <c r="B637" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C637">
-        <v>-6.839694477129321</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3">
-      <c r="A638" s="1"/>
-      <c r="B638" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C638">
-        <v>-15.15238440001689</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3">
-      <c r="A639" s="1"/>
-      <c r="B639" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C639">
-        <v>16.63598519026146</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3">
-      <c r="A640" s="1"/>
-      <c r="B640" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C640">
-        <v>0.2216134208953058</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3">
-      <c r="A641" s="1"/>
-      <c r="B641" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C641">
-        <v>1.61694032779145</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3">
-      <c r="A642" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B642" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C642">
-        <v>-0.6379982472475509</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3">
-      <c r="A643" s="1"/>
-      <c r="B643" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C643">
-        <v>0.2724817236499533</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3">
-      <c r="A644" s="1"/>
-      <c r="B644" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C644">
-        <v>0.6172020636007636</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3">
-      <c r="A645" s="1"/>
-      <c r="B645" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C645">
-        <v>0.5686364021282753</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3">
-      <c r="A646" s="1"/>
-      <c r="B646" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C646">
-        <v>1.649593153820339</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3">
-      <c r="A647" s="1"/>
-      <c r="B647" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C647">
-        <v>-0.05327364342562202</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3">
-      <c r="A648" s="1"/>
-      <c r="B648" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C648">
-        <v>0.04281611435208443</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3">
-      <c r="A649" s="1"/>
-      <c r="B649" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C649">
-        <v>0.5926767614056416</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3">
-      <c r="A650" s="1"/>
-      <c r="B650" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C650">
-        <v>0.6908869793206929</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3">
-      <c r="A651" s="1"/>
-      <c r="B651" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C651">
-        <v>-0.2192319578905533</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3">
-      <c r="A652" s="1"/>
-      <c r="B652" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C652">
-        <v>0.9831821257618722</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3">
-      <c r="A653" s="1"/>
-      <c r="B653" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C653">
-        <v>-2.980905239141118</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3">
-      <c r="A654" s="1"/>
-      <c r="B654" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C654">
-        <v>-7.065064296832091</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3">
-      <c r="A655" s="1"/>
-      <c r="B655" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C655">
-        <v>5.896907350556724</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3">
-      <c r="A656" s="1"/>
-      <c r="B656" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C656">
-        <v>0.6023187128872509</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3">
-      <c r="A657" s="1"/>
-      <c r="B657" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C657">
-        <v>1.466086752411311</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3">
-      <c r="A658" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B658" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C658">
-        <v>0.4536382176626441</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3">
-      <c r="A659" s="1"/>
-      <c r="B659" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C659">
-        <v>0.6630007645721081</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3">
-      <c r="A660" s="1"/>
-      <c r="B660" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C660">
-        <v>0.4737188180168772</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3">
-      <c r="A661" s="1"/>
-      <c r="B661" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C661">
-        <v>0.235106276366337</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3">
-      <c r="A662" s="1"/>
-      <c r="B662" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C662">
-        <v>0.2791886435695945</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3">
-      <c r="A663" s="1"/>
-      <c r="B663" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C663">
-        <v>0.4607721705064849</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3">
-      <c r="A664" s="1"/>
-      <c r="B664" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C664">
-        <v>1.071459769490568</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3">
-      <c r="A665" s="1"/>
-      <c r="B665" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C665">
-        <v>0.6902358320958868</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666" s="1"/>
-      <c r="B666" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C666">
-        <v>1.46008700639082</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="A667" s="1"/>
-      <c r="B667" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C667">
-        <v>-1.049375842916256</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668" s="1"/>
-      <c r="B668" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C668">
-        <v>0.208551158435788</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3">
-      <c r="A669" s="1"/>
-      <c r="B669" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C669">
-        <v>-4.456558248877918</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3">
-      <c r="A670" s="1"/>
-      <c r="B670" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C670">
-        <v>-5.90383510478909</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3">
-      <c r="A671" s="1"/>
-      <c r="B671" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C671">
-        <v>8.516261966118899</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3">
-      <c r="A672" s="1"/>
-      <c r="B672" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C672">
-        <v>-0.9305538155719661</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3">
-      <c r="A673" s="1"/>
-      <c r="B673" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C673">
-        <v>2.23741202035177</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3">
-      <c r="A674" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B674" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C674">
-        <v>2.786158386857163</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3">
-      <c r="A675" s="1"/>
-      <c r="B675" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C675">
-        <v>-0.7834635877451701</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3">
-      <c r="A676" s="1"/>
-      <c r="B676" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C676">
-        <v>5.051593625564554</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3">
-      <c r="A677" s="1"/>
-      <c r="B677" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C677">
-        <v>0.6835417288929779</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3">
-      <c r="A678" s="1"/>
-      <c r="B678" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C678">
-        <v>1.366415359512207</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3">
-      <c r="A679" s="1"/>
-      <c r="B679" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C679">
-        <v>-0.8896767820744333</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3">
-      <c r="A680" s="1"/>
-      <c r="B680" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C680">
-        <v>-0.896031983403367</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="A681" s="1"/>
-      <c r="B681" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C681">
-        <v>1.48748275261994</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3">
-      <c r="A682" s="1"/>
-      <c r="B682" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C682">
-        <v>2.330577249483889</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3">
-      <c r="A683" s="1"/>
-      <c r="B683" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C683">
-        <v>-0.307570006066471</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3">
-      <c r="A684" s="1"/>
-      <c r="B684" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C684">
-        <v>-0.9204767205708952</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3">
-      <c r="A685" s="1"/>
-      <c r="B685" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C685">
-        <v>-1.115543071527103</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3">
-      <c r="A686" s="1"/>
-      <c r="B686" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C686">
-        <v>-7.441235089622722</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3">
-      <c r="A687" s="1"/>
-      <c r="B687" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C687">
-        <v>10.94681202592476</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3">
-      <c r="A688" s="1"/>
-      <c r="B688" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C688">
-        <v>1.871806823406019</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3">
-      <c r="A689" s="1"/>
-      <c r="B689" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C689">
-        <v>-2.132174822159916</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3">
-      <c r="A690" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B690" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C690">
-        <v>-0.03088497740320051</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3">
-      <c r="A691" s="1"/>
-      <c r="B691" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C691">
-        <v>0.5911137870886707</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3">
-      <c r="A692" s="1"/>
-      <c r="B692" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C692">
-        <v>0.4416228192962501</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3">
-      <c r="A693" s="1"/>
-      <c r="B693" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C693">
-        <v>0.7437360724092956</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3">
-      <c r="A694" s="1"/>
-      <c r="B694" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C694">
-        <v>0.7231596529928996</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3">
-      <c r="A695" s="1"/>
-      <c r="B695" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C695">
-        <v>-0.4800957890638946</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3">
-      <c r="A696" s="1"/>
-      <c r="B696" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C696">
-        <v>0.1285314193768539</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3">
-      <c r="A697" s="1"/>
-      <c r="B697" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C697">
-        <v>0.05436722087723833</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3">
-      <c r="A698" s="1"/>
-      <c r="B698" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C698">
-        <v>0.4824794609192828</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3">
-      <c r="A699" s="1"/>
-      <c r="B699" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C699">
-        <v>0.3081782035709191</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="1"/>
-      <c r="B700" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C700">
-        <v>0.1631182195420244</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="A701" s="1"/>
-      <c r="B701" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C701">
-        <v>-4.426833920223771</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="1"/>
-      <c r="B702" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C702">
-        <v>-14.34837027099286</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="1"/>
-      <c r="B703" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C703">
-        <v>13.98957938865082</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3">
-      <c r="A704" s="1"/>
-      <c r="B704" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C704">
-        <v>-0.5799779934958282</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3">
-      <c r="A705" s="1"/>
-      <c r="B705" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C705">
-        <v>0.04074077554607758</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3">
-      <c r="A706" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B706" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C706">
-        <v>-0.03017390334463244</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3">
-      <c r="A707" s="1"/>
-      <c r="B707" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C707">
-        <v>0.9006725591181208</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3">
-      <c r="A708" s="1"/>
-      <c r="B708" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C708">
-        <v>0.8641104803274402</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3">
-      <c r="A709" s="1"/>
-      <c r="B709" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C709">
-        <v>0.4491621019913516</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3">
-      <c r="A710" s="1"/>
-      <c r="B710" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C710">
-        <v>0.2062487962084747</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3">
-      <c r="A711" s="1"/>
-      <c r="B711" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C711">
-        <v>0.04735985094599382</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3">
-      <c r="A712" s="1"/>
-      <c r="B712" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C712">
-        <v>0.4986978390324026</v>
-      </c>
-    </row>
-    <row r="713" spans="1:3">
-      <c r="A713" s="1"/>
-      <c r="B713" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C713">
-        <v>1.473690012154139</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3">
-      <c r="A714" s="1"/>
-      <c r="B714" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C714">
-        <v>0.5706326950041696</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3">
-      <c r="A715" s="1"/>
-      <c r="B715" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C715">
-        <v>1.141808633936825</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3">
-      <c r="A716" s="1"/>
-      <c r="B716" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C716">
-        <v>-0.00686983484372572</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="A717" s="1"/>
-      <c r="B717" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C717">
-        <v>-2.274729816223042</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="A718" s="1"/>
-      <c r="B718" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C718">
-        <v>-7.369964689483977</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="1"/>
-      <c r="B719" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C719">
-        <v>5.950005210560261</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3">
-      <c r="A720" s="1"/>
-      <c r="B720" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C720">
-        <v>2.278255694783948</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3">
-      <c r="A721" s="1"/>
-      <c r="B721" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C721">
-        <v>2.427701933374915</v>
+        <v>0.9636955544887194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A162:A177"/>
-    <mergeCell ref="A178:A193"/>
-    <mergeCell ref="A194:A209"/>
-    <mergeCell ref="A210:A225"/>
-    <mergeCell ref="A226:A241"/>
-    <mergeCell ref="A242:A257"/>
-    <mergeCell ref="A258:A273"/>
-    <mergeCell ref="A274:A289"/>
-    <mergeCell ref="A290:A305"/>
-    <mergeCell ref="A306:A321"/>
-    <mergeCell ref="A322:A337"/>
-    <mergeCell ref="A338:A353"/>
-    <mergeCell ref="A354:A369"/>
-    <mergeCell ref="A370:A385"/>
-    <mergeCell ref="A386:A401"/>
-    <mergeCell ref="A402:A417"/>
-    <mergeCell ref="A418:A433"/>
-    <mergeCell ref="A434:A449"/>
-    <mergeCell ref="A450:A465"/>
-    <mergeCell ref="A466:A481"/>
-    <mergeCell ref="A482:A497"/>
-    <mergeCell ref="A498:A513"/>
-    <mergeCell ref="A514:A529"/>
-    <mergeCell ref="A530:A545"/>
-    <mergeCell ref="A546:A561"/>
-    <mergeCell ref="A562:A577"/>
-    <mergeCell ref="A578:A593"/>
-    <mergeCell ref="A594:A609"/>
-    <mergeCell ref="A610:A625"/>
-    <mergeCell ref="A626:A641"/>
-    <mergeCell ref="A642:A657"/>
-    <mergeCell ref="A658:A673"/>
-    <mergeCell ref="A674:A689"/>
-    <mergeCell ref="A690:A705"/>
-    <mergeCell ref="A706:A721"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A266:A277"/>
+    <mergeCell ref="A278:A289"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A302:A313"/>
+    <mergeCell ref="A314:A325"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="A338:A349"/>
+    <mergeCell ref="A350:A361"/>
+    <mergeCell ref="A362:A373"/>
+    <mergeCell ref="A374:A385"/>
+    <mergeCell ref="A386:A397"/>
+    <mergeCell ref="A398:A409"/>
+    <mergeCell ref="A410:A421"/>
+    <mergeCell ref="A422:A433"/>
+    <mergeCell ref="A434:A445"/>
+    <mergeCell ref="A446:A457"/>
+    <mergeCell ref="A458:A469"/>
+    <mergeCell ref="A470:A481"/>
+    <mergeCell ref="A482:A493"/>
+    <mergeCell ref="A494:A505"/>
+    <mergeCell ref="A506:A517"/>
+    <mergeCell ref="A518:A529"/>
+    <mergeCell ref="A530:A541"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>Tracker</t>
+    <t>Tracker (yo2y)</t>
   </si>
   <si>
     <t>region</t>
@@ -543,109 +543,109 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C2">
-        <v>-4.072608868423522</v>
+        <v>-1.516981522955163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C3">
-        <v>-1.970643233566338</v>
+        <v>0.4207532693102367</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C4">
-        <v>0.4946855207095036</v>
+        <v>1.622238674574339</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C5">
-        <v>0.9722050741645782</v>
+        <v>-0.6974611146227327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C6">
-        <v>0.8930296401038929</v>
+        <v>1.850146308186784</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C7">
-        <v>1.151415532497246</v>
+        <v>0.8230751319646457</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C8">
-        <v>1.210528819339429</v>
+        <v>-2.384643436188172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C9">
-        <v>-3.699530722158428</v>
+        <v>-19.22058619086028</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C10">
-        <v>-15.17259760064244</v>
+        <v>9.27111489384005</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11">
-        <v>7.263788197375898</v>
+        <v>3.046804677390025</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C12">
-        <v>1.806857900141035</v>
+        <v>2.1671702757454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13">
-        <v>2.350996230581415</v>
+        <v>0.9786442346137791</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -653,109 +653,109 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C14">
-        <v>0.3066157938927727</v>
+        <v>0.3416770290869398</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C15">
-        <v>0.408851772358787</v>
+        <v>0.7642493811873985</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C16">
-        <v>0.668456666679984</v>
+        <v>0.6461612568382957</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C17">
-        <v>0.208778922702324</v>
+        <v>0.1538401102753717</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C18">
-        <v>0.7147543891339314</v>
+        <v>0.496445473918361</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C19">
-        <v>0.5741502013311583</v>
+        <v>0.1363215300821841</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C20">
-        <v>-0.06671083396116995</v>
+        <v>-1.790136432927802</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C21">
-        <v>-1.950916762792587</v>
+        <v>-6.948624172176676</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C22">
-        <v>-4.333957920051812</v>
+        <v>5.814246102128373</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C23">
-        <v>3.852802413140566</v>
+        <v>3.032990424317838</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C24">
-        <v>2.887440872743707</v>
+        <v>1.625197664505373</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25">
-        <v>1.645750563675819</v>
+        <v>3.083193432824882</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -763,109 +763,109 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C26">
-        <v>-1.199730343558059</v>
+        <v>1.339245094028252</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C27">
-        <v>0.3408322475834114</v>
+        <v>0.6371759604437699</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C28">
-        <v>1.060956277132052</v>
+        <v>0.4547076017454632</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C29">
-        <v>0.5698835411705128</v>
+        <v>0.7107660697390106</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C30">
-        <v>0.1403386028094644</v>
+        <v>0.7369148266964443</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C31">
-        <v>-0.1261570607932194</v>
+        <v>-0.7880539467105763</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C32">
-        <v>0.114825544127517</v>
+        <v>-2.373051664443715</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C33">
-        <v>-3.438687338356039</v>
+        <v>-9.958285719044003</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C34">
-        <v>-5.807713894528266</v>
+        <v>9.036829807958435</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C35">
-        <v>6.984018919347168</v>
+        <v>-0.7745145426713007</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C36">
-        <v>-1.076178895604929</v>
+        <v>-0.04665549321352103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37">
-        <v>-0.3444174738975847</v>
+        <v>4.0544586632834</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -873,109 +873,109 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C38">
-        <v>1.396310607333251</v>
+        <v>-0.07229173484527562</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C39">
-        <v>-0.06470239024071178</v>
+        <v>-0.282003259388075</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C40">
-        <v>0.2595276241365241</v>
+        <v>0.8740051690597328</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C41">
-        <v>0.1559755823735465</v>
+        <v>0.8163412187732533</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C42">
-        <v>0.766135410913904</v>
+        <v>-0.5218609054460588</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C43">
-        <v>-0.2225448596599566</v>
+        <v>-0.0344186042853134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C44">
-        <v>0.3105630077267163</v>
+        <v>-1.963005397179118</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C45">
-        <v>-3.786521458912451</v>
+        <v>-13.03519753737786</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C46">
-        <v>-8.025198324759353</v>
+        <v>11.28605796532067</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C47">
-        <v>8.266237228009876</v>
+        <v>-0.1140604473244822</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C48">
-        <v>-0.7172322222869232</v>
+        <v>0.1490943462685079</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C49">
-        <v>0.3417376651660753</v>
+        <v>2.167731532562844</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -983,109 +983,109 @@
         <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C50">
-        <v>0.8014068358026982</v>
+        <v>-0.03204210887423065</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C51">
-        <v>-0.3515621840181726</v>
+        <v>-0.1615271252636274</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C52">
-        <v>-0.08193721384179842</v>
+        <v>0.4697125805236846</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C53">
-        <v>0.2864247859070579</v>
+        <v>0.581124676836553</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C54">
-        <v>0.8751571194396845</v>
+        <v>-0.4041526914269067</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C55">
-        <v>-0.01535453674366138</v>
+        <v>0.4092892964337791</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C56">
-        <v>0.2020537770610398</v>
+        <v>-0.8084485577491418</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C57">
-        <v>-1.219116771245088</v>
+        <v>-10.6322399349449</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C58">
-        <v>-7.734537877152247</v>
+        <v>8.652932296872763</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C59">
-        <v>7.138802718642601</v>
+        <v>2.993866128354084</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C60">
-        <v>2.53425776098164</v>
+        <v>-0.2360112650876101</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C61">
-        <v>-0.3964765640424139</v>
+        <v>-2.487365080575599</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1093,109 +1093,109 @@
         <v>8</v>
       </c>
       <c r="B62" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C62">
-        <v>0.02381669035249612</v>
+        <v>-1.20259606423746</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C63">
-        <v>0.5525392173106436</v>
+        <v>1.08175955963532</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C64">
-        <v>1.130260975197039</v>
+        <v>0.7765789651232202</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C65">
-        <v>0.4513309252949016</v>
+        <v>0.6844813517620452</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C66">
-        <v>0.708910312739941</v>
+        <v>1.405239608152353</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C67">
-        <v>1.171526691929281</v>
+        <v>-2.039464872882346</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1"/>
       <c r="B68" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C68">
-        <v>-1.488417451049706</v>
+        <v>-3.011283827594835</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C69">
-        <v>-3.465676272659457</v>
+        <v>-9.172153156847596</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C70">
-        <v>-6.838383217627387</v>
+        <v>12.37444624977917</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C71">
-        <v>10.12575898905901</v>
+        <v>-1.078336667014257</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C72">
-        <v>-0.1065748416776757</v>
+        <v>4.862057946978737</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C73">
-        <v>4.848562904774112</v>
+        <v>-1.331027045476352</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1203,109 +1203,109 @@
         <v>9</v>
       </c>
       <c r="B74" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C74">
-        <v>-0.3928319908559796</v>
+        <v>0.9667920911680339</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C75">
-        <v>1.269263864166659</v>
+        <v>0.09286545209570285</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C76">
-        <v>-0.23533112762254</v>
+        <v>1.098647320089818</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C77">
-        <v>1.213851547183409</v>
+        <v>0.3784114597700228</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C78">
-        <v>0.850122362465755</v>
+        <v>0.1437595256641222</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C79">
-        <v>0.0006313100439303554</v>
+        <v>-0.1376696814114564</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C80">
-        <v>-0.1234694482436405</v>
+        <v>-1.250202615437224</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C81">
-        <v>-2.013684289071627</v>
+        <v>-11.11710430497322</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C82">
-        <v>-7.889925211013948</v>
+        <v>9.030066553001959</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C83">
-        <v>7.27235720581314</v>
+        <v>0.6785394322665894</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.2127507335865308</v>
+        <v>-0.3011407545739919</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C85">
-        <v>-0.2495562436958143</v>
+        <v>1.823913299863245</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1313,109 +1313,109 @@
         <v>10</v>
       </c>
       <c r="B86" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C86">
-        <v>-0.6571252617611822</v>
+        <v>0.3959916704929789</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C87">
-        <v>0.6925492835283986</v>
+        <v>0.3177186581146074</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C88">
-        <v>0.6995317714570293</v>
+        <v>-0.02352838471748608</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C89">
-        <v>-0.5623804238518937</v>
+        <v>0.2223802780193962</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C90">
-        <v>0.642072999414145</v>
+        <v>2.305298506862052</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C91">
-        <v>1.979867779046685</v>
+        <v>-1.844905095627725</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C92">
-        <v>-1.184700291404828</v>
+        <v>0.3202823538112298</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C93">
-        <v>-0.7905713339033893</v>
+        <v>-12.38946199580678</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C94">
-        <v>-8.64501693976425</v>
+        <v>7.351726232464872</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C95">
-        <v>6.385403082896102</v>
+        <v>6.445686781297089</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C96">
-        <v>4.897492077604459</v>
+        <v>-1.283924175659568</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C97">
-        <v>-0.9770458762892398</v>
+        <v>-5.41966129826974</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1423,109 +1423,109 @@
         <v>11</v>
       </c>
       <c r="B98" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C98">
-        <v>-0.2401184358075015</v>
+        <v>1.517212308856819</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C99">
-        <v>1.3155796201195</v>
+        <v>1.368379045562729</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C100">
-        <v>0.8143390779103088</v>
+        <v>-0.8756530594897671</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C101">
-        <v>-0.5423481341066516</v>
+        <v>0.6059524811922401</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C102">
-        <v>1.433829755603222</v>
+        <v>1.195013193803551</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C103">
-        <v>0.6556282126730206</v>
+        <v>-0.9618675690720169</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C104">
-        <v>-1.331706836428026</v>
+        <v>-1.595942128836825</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C105">
-        <v>-2.754395409572807</v>
+        <v>-11.86031326232494</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C106">
-        <v>-8.107666435017979</v>
+        <v>8.914964133517355</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C107">
-        <v>7.728119781649578</v>
+        <v>5.082531796894352</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C108">
-        <v>3.662018286685242</v>
+        <v>0.4564075105730314</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C109">
-        <v>0.3905303005656835</v>
+        <v>1.687525457808281</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1533,109 +1533,109 @@
         <v>12</v>
       </c>
       <c r="B110" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C110">
-        <v>0.2174870037505494</v>
+        <v>0.7428661709700135</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C111">
-        <v>0.4085756992918688</v>
+        <v>0.2367748973616912</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C112">
-        <v>0.4534088068068876</v>
+        <v>0.8547933576813938</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C113">
-        <v>0.823067347716977</v>
+        <v>3.054052515224726</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C114">
-        <v>3.527074374487649</v>
+        <v>-1.199092558829695</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C115">
-        <v>-0.4464210135155966</v>
+        <v>0.7541909195729168</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C116">
-        <v>0.0405726854373345</v>
+        <v>-1.60408850615994</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C117">
-        <v>-3.089548638621498</v>
+        <v>-7.998574681512116</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C118">
-        <v>-4.051643586630005</v>
+        <v>7.831691588444811</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C119">
-        <v>5.163406684653138</v>
+        <v>-2.426261558562404</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C120">
-        <v>-1.747904921341992</v>
+        <v>0.5763420354802262</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C121">
-        <v>0.2711775650600545</v>
+        <v>-1.683460276086646</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1643,109 +1643,109 @@
         <v>13</v>
       </c>
       <c r="B122" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C122">
-        <v>0.5048940625600018</v>
+        <v>1.181271241407322</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C123">
-        <v>1.313042374354878</v>
+        <v>0.00173116027559761</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C124">
-        <v>0.02845681806669109</v>
+        <v>-0.3378751203036323</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C125">
-        <v>-0.08608816971329425</v>
+        <v>1.316115794027573</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C126">
-        <v>0.9775024382303155</v>
+        <v>-1.038537317105881</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C127">
-        <v>-1.138350717928671</v>
+        <v>1.125167352516776</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C128">
-        <v>0.8810728731166284</v>
+        <v>-0.8102112063856581</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C129">
-        <v>-1.461638900028317</v>
+        <v>-6.479966327510134</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C130">
-        <v>-4.54073874943226</v>
+        <v>5.062018510563737</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C131">
-        <v>4.647892857681479</v>
+        <v>-0.2597466164422135</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C132">
-        <v>0.2759621878672958</v>
+        <v>0.8353765658615231</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C133">
-        <v>-0.9955538952107212</v>
+        <v>3.490089693905762</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1753,109 +1753,109 @@
         <v>14</v>
       </c>
       <c r="B134" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C134">
-        <v>1.426052638526243</v>
+        <v>-0.6030583237148002</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C135">
-        <v>0.3972870085332092</v>
+        <v>0.06209765277027657</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C136">
-        <v>-0.8045791588218831</v>
+        <v>3.976585770451857</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C137">
-        <v>2.981695863257494</v>
+        <v>0.2681900587467645</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C138">
-        <v>0.2954645341125994</v>
+        <v>0.8812975498915465</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C139">
-        <v>1.400776147594684</v>
+        <v>0.6047502046980346</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1"/>
       <c r="B140" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C140">
-        <v>1.395241762101707</v>
+        <v>-3.510489965980634</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1"/>
       <c r="B141" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C141">
-        <v>-4.344096751126603</v>
+        <v>-4.631688691250224</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1"/>
       <c r="B142" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C142">
-        <v>-0.2843254317141941</v>
+        <v>4.116307297892119</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1"/>
       <c r="B143" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C143">
-        <v>2.241911368331739</v>
+        <v>4.971045262076657</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1"/>
       <c r="B144" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C144">
-        <v>5.441868189217525</v>
+        <v>-1.601956101715696</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1"/>
       <c r="B145" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C145">
-        <v>-0.3034005374361604</v>
+        <v>2.17455148531227</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1863,109 +1863,109 @@
         <v>15</v>
       </c>
       <c r="B146" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C146">
-        <v>0.2136791862529019</v>
+        <v>-0.7083406273628357</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C147">
-        <v>0.4613717565010056</v>
+        <v>0.931714212638779</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C148">
-        <v>0.0616495293398911</v>
+        <v>-0.2915564881480814</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C149">
-        <v>0.596916249467383</v>
+        <v>0.7433984535595517</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C150">
-        <v>1.194822256754957</v>
+        <v>1.739419478005311</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C151">
-        <v>0.1119975200492673</v>
+        <v>-0.9124086764113581</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C152">
-        <v>0.7097423632003386</v>
+        <v>-0.4703452360732885</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C153">
-        <v>-0.8641636978027445</v>
+        <v>-6.862639775940361</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C154">
-        <v>-3.903801766929704</v>
+        <v>5.347640972194667</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C155">
-        <v>3.140047302682669</v>
+        <v>-0.2085874161835366</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1"/>
       <c r="B156" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C156">
-        <v>-1.073410043682288</v>
+        <v>-0.3700157448619623</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C157">
-        <v>0.2341791634693946</v>
+        <v>0.02358995081117587</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1973,109 +1973,109 @@
         <v>16</v>
       </c>
       <c r="B158" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C158">
-        <v>-0.3427926252712155</v>
+        <v>0.2163099117096889</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C159">
-        <v>0.3625584978939722</v>
+        <v>-0.1034961103159482</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C160">
-        <v>0.4182462862480252</v>
+        <v>0.6171669448669759</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C161">
-        <v>0.1474040215152295</v>
+        <v>0.2628024570963561</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C162">
-        <v>0.2643772860083216</v>
+        <v>0.4897264634974086</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C163">
-        <v>0.7089825943630057</v>
+        <v>0.1104486578132446</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C164">
-        <v>0.4258897191738109</v>
+        <v>-4.074090508042961</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C165">
-        <v>-5.236169322261919</v>
+        <v>-14.90601540362711</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C166">
-        <v>-10.17702258825042</v>
+        <v>17.21339990330621</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1"/>
       <c r="B167" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C167">
-        <v>13.44846979369205</v>
+        <v>-2.229331997289397</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C168">
-        <v>-2.379333372023085</v>
+        <v>0.8244682743481446</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C169">
-        <v>0.965692823464992</v>
+        <v>0.1878218329977699</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2083,109 +2083,109 @@
         <v>17</v>
       </c>
       <c r="B170" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C170">
-        <v>1.000549797394412</v>
+        <v>0.3285417887125108</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C171">
-        <v>0.03017027544438555</v>
+        <v>0.5259624810697083</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C172">
-        <v>0.6120746491457441</v>
+        <v>1.11128074761242</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C173">
-        <v>1.248405810532782</v>
+        <v>0.2221029469761993</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C174">
-        <v>0.1246125951430477</v>
+        <v>0.6068197211583914</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C175">
-        <v>0.7073967178168106</v>
+        <v>-0.009154331897920365</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C176">
-        <v>0.06464058514157323</v>
+        <v>-2.297520154099308</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C177">
-        <v>-3.105951432906073</v>
+        <v>-9.611548069978415</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1"/>
       <c r="B178" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C178">
-        <v>-6.880435064129298</v>
+        <v>7.44935698854241</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C179">
-        <v>5.901768451614897</v>
+        <v>-1.017178031245702</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C180">
-        <v>-1.22900631116204</v>
+        <v>-1.5015975485413</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C181">
-        <v>-0.8573005069902107</v>
+        <v>-0.2855424066804502</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2193,109 +2193,109 @@
         <v>18</v>
       </c>
       <c r="B182" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C182">
-        <v>0.764711288333908</v>
+        <v>-1.130665859604341</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C183">
-        <v>-0.8537324292492543</v>
+        <v>0.8084554417203238</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C184">
-        <v>0.6424769249997464</v>
+        <v>-0.1908235152715321</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C185">
-        <v>-0.7600424016162566</v>
+        <v>1.001431080940551</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C186">
-        <v>1.234087460036482</v>
+        <v>0.173581730977368</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C187">
-        <v>1.119117183455276</v>
+        <v>-1.080801130786746</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C188">
-        <v>-1.044119010083577</v>
+        <v>-3.042065644644421</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1"/>
       <c r="B189" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C189">
-        <v>-4.415303972205697</v>
+        <v>-11.37145478038917</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C190">
-        <v>-7.410030686175151</v>
+        <v>8.063641085923546</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C191">
-        <v>5.485016738975612</v>
+        <v>1.549305400803225</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C192">
-        <v>0.1810295505312309</v>
+        <v>0.1951306792394414</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C193">
-        <v>2.726725850464318</v>
+        <v>4.212587408192925</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2303,109 +2303,109 @@
         <v>19</v>
       </c>
       <c r="B194" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C194">
-        <v>1.231813816842431</v>
+        <v>0.6788486322912624</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C195">
-        <v>0.1824493008403039</v>
+        <v>-0.04667245768057438</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C196">
-        <v>0.6024418988590963</v>
+        <v>1.166505745410085</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C197">
-        <v>0.6515850142614577</v>
+        <v>1.395866693423842</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C198">
-        <v>1.585059320052995</v>
+        <v>-0.05879160840150943</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C199">
-        <v>-0.2800279667730776</v>
+        <v>0.9793156301703521</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1"/>
       <c r="B200" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C200">
-        <v>1.764265996596803</v>
+        <v>-1.016419558039572</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C201">
-        <v>-2.096190195000336</v>
+        <v>-9.232134969559723</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C202">
-        <v>-5.89025635986884</v>
+        <v>7.977564815408833</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C203">
-        <v>5.750904650501609</v>
+        <v>-0.1490428015418765</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.008120682389722855</v>
+        <v>2.364375452557654</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C205">
-        <v>2.278983825220626</v>
+        <v>-2.909524953267906</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2413,109 +2413,109 @@
         <v>20</v>
       </c>
       <c r="B206" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C206">
-        <v>6.390862067168546</v>
+        <v>3.204103480403786</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C207">
-        <v>1.361080947609894</v>
+        <v>3.442440519083068</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C208">
-        <v>1.496020109874463</v>
+        <v>-4.596574372389306</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C209">
-        <v>-6.050823569599261</v>
+        <v>-0.9474965407650915</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C210">
-        <v>2.050861098695367</v>
+        <v>2.320012225076451</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C211">
-        <v>-0.5903232528379654</v>
+        <v>0.4347271871532499</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C212">
-        <v>2.295824296168947</v>
+        <v>-4.186010476772006</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C213">
-        <v>-2.066030215198444</v>
+        <v>-7.781320706360906</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C214">
-        <v>-8.15362993589911</v>
+        <v>-1.698983461039771</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C215">
-        <v>3.933974339778223</v>
+        <v>8.793160917264832</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.509181448758824</v>
+        <v>-0.2934629493195784</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C217">
-        <v>4.886443275799235</v>
+        <v>1.179199465471337</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2523,109 +2523,109 @@
         <v>21</v>
       </c>
       <c r="B218" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C218">
-        <v>1.753127438601187</v>
+        <v>1.256329997797501</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C219">
-        <v>1.247021150859773</v>
+        <v>2.466217113198788</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C220">
-        <v>2.420190981818604</v>
+        <v>-1.021323425298415</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C221">
-        <v>-0.7566656579379605</v>
+        <v>2.465670841669243</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C222">
-        <v>2.363744160295855</v>
+        <v>-0.1473252782233647</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C223">
-        <v>-0.07465872655053607</v>
+        <v>1.190045765111258</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C224">
-        <v>1.669436677654978</v>
+        <v>1.371031507235276</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C225">
-        <v>-0.2235009009812661</v>
+        <v>-19.4464421995492</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C226">
-        <v>-13.61306784026276</v>
+        <v>14.81800306847365</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C227">
-        <v>11.51604203587942</v>
+        <v>7.191635919019013</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C228">
-        <v>5.747433832996807</v>
+        <v>3.422064961259808</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C229">
-        <v>3.255370408716884</v>
+        <v>0.3251827003520225</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2633,109 +2633,109 @@
         <v>22</v>
       </c>
       <c r="B230" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C230">
-        <v>1.95789938429074</v>
+        <v>0.05254099860774186</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C231">
-        <v>0.2442770964580232</v>
+        <v>1.54506936767691</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C232">
-        <v>1.536803452173463</v>
+        <v>1.093408242711269</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C233">
-        <v>0.81445384525205</v>
+        <v>1.910273074756219</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C234">
-        <v>1.737994391651076</v>
+        <v>0.7162379257207752</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C235">
-        <v>0.641733434470404</v>
+        <v>0.9628902704611253</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C236">
-        <v>1.230058432370784</v>
+        <v>0.5111376987072536</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C237">
-        <v>0.5435870917318564</v>
+        <v>-8.927836020051105</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C238">
-        <v>-7.57003487268717</v>
+        <v>3.177579043524359</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C239">
-        <v>3.647026905310913</v>
+        <v>2.906481224144564</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C240">
-        <v>2.646546988224174</v>
+        <v>1.791544115629073</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C241">
-        <v>1.956952234660192</v>
+        <v>1.450695965853144</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2743,109 +2743,109 @@
         <v>23</v>
       </c>
       <c r="B242" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C242">
-        <v>3.535554775473204</v>
+        <v>-0.5805633227614848</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C243">
-        <v>-1.126453485105561</v>
+        <v>13.87559727892287</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C244">
-        <v>13.30059020194656</v>
+        <v>-7.057490661238197</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C245">
-        <v>-5.629350454579674</v>
+        <v>1.958536784082732</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C246">
-        <v>1.614562964822253</v>
+        <v>5.336636437454945</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C247">
-        <v>4.822993543262011</v>
+        <v>4.519883524330948</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C248">
-        <v>4.248533669195931</v>
+        <v>-3.499395427084862</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C249">
-        <v>-4.176321234473345</v>
+        <v>-9.489186377740888</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C250">
-        <v>-6.006768507506155</v>
+        <v>11.30911494562898</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C251">
-        <v>8.813872713233796</v>
+        <v>0.4251957938292028</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.4207587259696721</v>
+        <v>-1.742411575285152</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C253">
-        <v>-1.878577314453533</v>
+        <v>5.344304981093106</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2853,109 +2853,109 @@
         <v>24</v>
       </c>
       <c r="B254" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C254">
-        <v>1.149104015669367</v>
+        <v>3.229696240498359</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C255">
-        <v>1.521902508274287</v>
+        <v>-0.07880778678882594</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C256">
-        <v>0.3669556947448971</v>
+        <v>-0.7043766785831518</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C257">
-        <v>0.8348499211283222</v>
+        <v>0.2233287176629739</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C258">
-        <v>-0.1624942911015892</v>
+        <v>1.79027990688041</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C259">
-        <v>1.48882367446459</v>
+        <v>0.8134647136690321</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C260">
-        <v>0.7714505709103037</v>
+        <v>-2.115477434650126</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C261">
-        <v>-2.292780864695765</v>
+        <v>-7.670676771051566</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C262">
-        <v>-4.967514968931031</v>
+        <v>4.575765788645758</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C263">
-        <v>3.781161910412956</v>
+        <v>2.014805506140038</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C264">
-        <v>2.42795945642551</v>
+        <v>2.59763936697488</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C265">
-        <v>1.618669846855303</v>
+        <v>5.402650625897309</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -2963,109 +2963,109 @@
         <v>25</v>
       </c>
       <c r="B266" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C266">
-        <v>0.6419397290099882</v>
+        <v>1.056885414081554</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C267">
-        <v>0.9426785411951188</v>
+        <v>-0.4734124514165661</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C268">
-        <v>-0.07863764623075031</v>
+        <v>-0.4073219664720851</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C269">
-        <v>-0.5938882724994765</v>
+        <v>0.4131946320114377</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C270">
-        <v>0.3814382665959126</v>
+        <v>0.03905815478568719</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C271">
-        <v>0.4705240863295268</v>
+        <v>0.8987535598907304</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C272">
-        <v>0.3939414633531424</v>
+        <v>-7.134388566422967</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C273">
-        <v>-7.878463219948639</v>
+        <v>-13.71833462211472</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C274">
-        <v>-8.777445150735808</v>
+        <v>17.15435768828801</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C275">
-        <v>12.84133878416476</v>
+        <v>-2.94114642567066</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C276">
-        <v>-3.03877686010402</v>
+        <v>-0.1133723112212714</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C277">
-        <v>0.2454138063430866</v>
+        <v>-5.493291257641497</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3073,109 +3073,109 @@
         <v>26</v>
       </c>
       <c r="B278" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C278">
-        <v>-0.9616023154131459</v>
+        <v>-0.2662619900730467</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C279">
-        <v>-0.01479019359982292</v>
+        <v>-0.3318966373708654</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C280">
-        <v>-0.02727716409687275</v>
+        <v>0.06460385433406657</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C281">
-        <v>0.1505956081817583</v>
+        <v>0.009179199808539984</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C282">
-        <v>0.09487880724001752</v>
+        <v>0.3744151409263985</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C283">
-        <v>0.3047850663119744</v>
+        <v>0.6390560348110474</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C284">
-        <v>0.6761924853283308</v>
+        <v>-1.281837097839489</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C285">
-        <v>-1.885172980093563</v>
+        <v>-8.985447843581905</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C286">
-        <v>-6.785895477341186</v>
+        <v>4.839296112776204</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C287">
-        <v>4.000643122398184</v>
+        <v>2.910397528126474</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1"/>
       <c r="B288" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C288">
-        <v>2.554287207490891</v>
+        <v>-0.02995751157296445</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C289">
-        <v>-0.1709200162665403</v>
+        <v>0.9394895241088497</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3183,109 +3183,109 @@
         <v>27</v>
       </c>
       <c r="B290" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C290">
-        <v>0.8459778890796743</v>
+        <v>1.115779727944188</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C291">
-        <v>1.683976182435432</v>
+        <v>0.4235349810458144</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C292">
-        <v>-0.09016370427561426</v>
+        <v>0.5583864899831648</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C293">
-        <v>0.9608779852339211</v>
+        <v>-0.2697570302272356</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C294">
-        <v>0.8296113683797346</v>
+        <v>2.014003016646604</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C295">
-        <v>0.3262501557580011</v>
+        <v>0.2799778752128557</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C296">
-        <v>0.3548121108612579</v>
+        <v>-0.09725950110791581</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C297">
-        <v>0.1073862460049035</v>
+        <v>-2.965135377619832</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C298">
-        <v>-1.991392127976899</v>
+        <v>1.585352799863737</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1"/>
       <c r="B299" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C299">
-        <v>0.8164482887937474</v>
+        <v>1.32620402670407</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C300">
-        <v>1.746457735589368</v>
+        <v>1.197486676214532</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C301">
-        <v>1.076897354689521</v>
+        <v>1.335368352364874</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3293,109 +3293,109 @@
         <v>28</v>
       </c>
       <c r="B302" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C302">
-        <v>-0.5527470413829949</v>
+        <v>0.1491635392226298</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C303">
-        <v>1.05543043551124</v>
+        <v>0.7735946599460863</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C304">
-        <v>2.016981486424063</v>
+        <v>-0.946713191433346</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C305">
-        <v>-0.02491791036468571</v>
+        <v>4.350668303467065</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C306">
-        <v>2.335876913351398</v>
+        <v>-0.2310676743889406</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C307">
-        <v>0.2819123430754855</v>
+        <v>-1.034781491062386</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C308">
-        <v>-0.5411424543605881</v>
+        <v>-1.979810010418692</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C309">
-        <v>-2.890839480452467</v>
+        <v>-5.289991026628726</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1"/>
       <c r="B310" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C310">
-        <v>-2.885321650873174</v>
+        <v>4.096372409562155</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C311">
-        <v>2.441798977423248</v>
+        <v>-0.3535178436316344</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C312">
-        <v>-0.2628486995484236</v>
+        <v>-0.4573004971708761</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C313">
-        <v>2.295586250791604</v>
+        <v>10.94263442160712</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3403,109 +3403,109 @@
         <v>29</v>
       </c>
       <c r="B314" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C314">
-        <v>1.988374535396198</v>
+        <v>0.6550983075022554</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C315">
-        <v>0.4513657739954491</v>
+        <v>-0.217827165355311</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C316">
-        <v>0.2325451949538149</v>
+        <v>2.192511874896685</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C317">
-        <v>1.897363326310653</v>
+        <v>0.4402352672963072</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C318">
-        <v>0.5662856668658511</v>
+        <v>1.041250265253479</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C319">
-        <v>0.08644768588277341</v>
+        <v>-0.9420086540060879</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C320">
-        <v>-0.08223068860104821</v>
+        <v>-1.592159878108002</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1"/>
       <c r="B321" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C321">
-        <v>-2.862312495280772</v>
+        <v>-4.81299085879675</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C322">
-        <v>-1.460396491203086</v>
+        <v>5.908732024191865</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C323">
-        <v>3.065077822300366</v>
+        <v>1.012473154163795</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C324">
-        <v>2.333807474424021</v>
+        <v>0.5640702240716777</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C325">
-        <v>0.6004685535862198</v>
+        <v>1.787192227997014</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3513,109 +3513,109 @@
         <v>30</v>
       </c>
       <c r="B326" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C326">
-        <v>1.24488101071909</v>
+        <v>1.007844623832987</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C327">
-        <v>0.9271055960703656</v>
+        <v>0.2149281734241004</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C328">
-        <v>1.252295810688975</v>
+        <v>-3.425501183629087</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C329">
-        <v>-1.208720706264987</v>
+        <v>0.9095214505701499</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C330">
-        <v>0.9024243112737196</v>
+        <v>2.68908006325761</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C331">
-        <v>-0.8888268139693678</v>
+        <v>-0.02820769898750353</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1"/>
       <c r="B332" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C332">
-        <v>0.7921968643669119</v>
+        <v>-3.144864587107521</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C333">
-        <v>-2.493468497800899</v>
+        <v>-10.58046859538747</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C334">
-        <v>-7.006974855909887</v>
+        <v>11.80653148496922</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C335">
-        <v>6.275982401161895</v>
+        <v>-1.240970167810918</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C336">
-        <v>-0.389886044089649</v>
+        <v>2.22365692229558</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C337">
-        <v>0.611493081001524</v>
+        <v>4.245227395018492</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -3623,109 +3623,109 @@
         <v>31</v>
       </c>
       <c r="B338" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C338">
-        <v>-0.4357899708007706</v>
+        <v>0.3809775695006623</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C339">
-        <v>0.5195608798534535</v>
+        <v>1.522637270879645</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C340">
-        <v>1.379005106434894</v>
+        <v>-0.3976084982924233</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C341">
-        <v>-0.5251984933690501</v>
+        <v>-0.09813306606401007</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C342">
-        <v>0.6509809458476568</v>
+        <v>-0.1490778845015917</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1"/>
       <c r="B343" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C343">
-        <v>-0.7388549559057767</v>
+        <v>-0.04679587976934574</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C344">
-        <v>0.7199479712517443</v>
+        <v>-0.8544438464425652</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C345">
-        <v>-2.262762844506894</v>
+        <v>-13.6431134714591</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C346">
-        <v>-10.54245367445056</v>
+        <v>10.0840583708103</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C347">
-        <v>9.434201115157803</v>
+        <v>2.634812875320613</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C348">
-        <v>1.247778612282313</v>
+        <v>0.1594599366311789</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C349">
-        <v>0.4234131594991641</v>
+        <v>4.211919060539837</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -3733,109 +3733,109 @@
         <v>32</v>
       </c>
       <c r="B350" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C350">
-        <v>0.3289135708123725</v>
+        <v>0.9087449265868131</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C351">
-        <v>0.5425442148821347</v>
+        <v>0.7313681950261941</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C352">
-        <v>0.7924180686973425</v>
+        <v>0.1862284225914168</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C353">
-        <v>0.5733582916418456</v>
+        <v>0.9766401860031859</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1"/>
       <c r="B354" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C354">
-        <v>0.73495539306212</v>
+        <v>0.3814135702757904</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C355">
-        <v>0.8098046163454775</v>
+        <v>0.4330288284311035</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C356">
-        <v>0.6060828597768131</v>
+        <v>-1.120574968619437</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C357">
-        <v>-2.33045486871013</v>
+        <v>-7.410635269480014</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C358">
-        <v>-5.503726100743044</v>
+        <v>6.368190469053525</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C359">
-        <v>5.158168475757718</v>
+        <v>-1.160178267811229</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C360">
-        <v>-1.194256786947701</v>
+        <v>-0.02964236059586067</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C361">
-        <v>0.4435160770412949</v>
+        <v>2.769115281393875</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -3843,109 +3843,109 @@
         <v>33</v>
       </c>
       <c r="B362" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C362">
-        <v>0.2098307611451133</v>
+        <v>0.3722419249028164</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C363">
-        <v>1.173519894612474</v>
+        <v>1.948600805950251</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C364">
-        <v>0.7236393606500302</v>
+        <v>0.20314007264437</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1"/>
       <c r="B365" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C365">
-        <v>0.7534505079650256</v>
+        <v>0.6063845370407828</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C366">
-        <v>0.9902950680584555</v>
+        <v>0.2521850228246025</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C367">
-        <v>-0.1537808190115397</v>
+        <v>1.213976983657994</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C368">
-        <v>1.138637551710353</v>
+        <v>-2.019936392864552</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C369">
-        <v>-2.647739286420503</v>
+        <v>-7.847948019729712</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1"/>
       <c r="B370" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C370">
-        <v>-3.669824561186985</v>
+        <v>9.737125521258738</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C371">
-        <v>6.285163227128288</v>
+        <v>1.574804971470178</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C372">
-        <v>1.460445167391478</v>
+        <v>0.896220119308988</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C373">
-        <v>1.003599804571031</v>
+        <v>3.035255998375219</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -3953,109 +3953,109 @@
         <v>34</v>
       </c>
       <c r="B374" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C374">
-        <v>-2.00164383869581</v>
+        <v>-0.1861074321246603</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1"/>
       <c r="B375" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C375">
-        <v>-1.489344051551433</v>
+        <v>1.395579041179973</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1"/>
       <c r="B376" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C376">
-        <v>1.744419451832235</v>
+        <v>1.148089222972315</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1"/>
       <c r="B377" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C377">
-        <v>1.462701675557776</v>
+        <v>0.5178479809909931</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1"/>
       <c r="B378" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C378">
-        <v>0.4335020774140608</v>
+        <v>0.9324964901071597</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1"/>
       <c r="B379" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C379">
-        <v>1.678088064440919</v>
+        <v>-0.499903182230288</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1"/>
       <c r="B380" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C380">
-        <v>-1.579955745305461</v>
+        <v>-2.240820166846846</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1"/>
       <c r="B381" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C381">
-        <v>-2.231581553437889</v>
+        <v>-4.50901681270075</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1"/>
       <c r="B382" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C382">
-        <v>-3.827026977447812</v>
+        <v>4.434072873347539</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1"/>
       <c r="B383" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C383">
-        <v>4.52905060265234</v>
+        <v>0.257667713081422</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1"/>
       <c r="B384" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C384">
-        <v>-0.092792527331087</v>
+        <v>-1.657897841328837</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1"/>
       <c r="B385" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C385">
-        <v>-1.039095239626375</v>
+        <v>2.273459242952169</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4063,109 +4063,109 @@
         <v>35</v>
       </c>
       <c r="B386" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C386">
-        <v>1.693549073508782</v>
+        <v>0.02948321100129103</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1"/>
       <c r="B387" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C387">
-        <v>0.0696707912698713</v>
+        <v>2.549496209173996</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C388">
-        <v>2.767898903212562</v>
+        <v>0.6710222831813439</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C389">
-        <v>0.6141557303732226</v>
+        <v>0.7676124408704244</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C390">
-        <v>0.8724569125045267</v>
+        <v>0.7026035319628976</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C391">
-        <v>0.5329547931315126</v>
+        <v>1.358777913455045</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C392">
-        <v>1.530608649469389</v>
+        <v>-1.514203296919325</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C393">
-        <v>-2.109685167819364</v>
+        <v>-8.962991565097955</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C394">
-        <v>-5.558157694245047</v>
+        <v>11.25787291665643</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C395">
-        <v>9.325128942064964</v>
+        <v>-2.161684076616355</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C396">
-        <v>-2.803203834459378</v>
+        <v>0.9911369210335863</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C397">
-        <v>1.533980458174744</v>
+        <v>-1.342092266443118</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4173,109 +4173,109 @@
         <v>36</v>
       </c>
       <c r="B398" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C398">
-        <v>0.6183157509432657</v>
+        <v>1.961357631933414</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1"/>
       <c r="B399" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C399">
-        <v>1.52144027321377</v>
+        <v>0.8067518588817046</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1"/>
       <c r="B400" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C400">
-        <v>1.239446874691663</v>
+        <v>0.7486033930613534</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1"/>
       <c r="B401" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C401">
-        <v>0.2372516948766501</v>
+        <v>0.1668134617637262</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1"/>
       <c r="B402" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C402">
-        <v>1.285574098259201</v>
+        <v>0.4553145866545316</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1"/>
       <c r="B403" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C403">
-        <v>-0.3326339853720328</v>
+        <v>0.437688884992582</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1"/>
       <c r="B404" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C404">
-        <v>0.9913270749825509</v>
+        <v>-3.763507177880865</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1"/>
       <c r="B405" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C405">
-        <v>-4.680791909553028</v>
+        <v>-13.23042223575256</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1"/>
       <c r="B406" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C406">
-        <v>-9.657516816149524</v>
+        <v>13.01127155550543</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1"/>
       <c r="B407" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C407">
-        <v>10.31541470362347</v>
+        <v>-0.5308891826148243</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1"/>
       <c r="B408" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C408">
-        <v>-0.516183470110998</v>
+        <v>-2.770446762758028</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1"/>
       <c r="B409" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C409">
-        <v>-1.757482379382125</v>
+        <v>1.135379017938698</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4283,109 +4283,109 @@
         <v>37</v>
       </c>
       <c r="B410" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C410">
-        <v>2.439124670345105</v>
+        <v>-0.3628382638616423</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C411">
-        <v>0.2243230096881321</v>
+        <v>0.3063328236023066</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C412">
-        <v>0.8484621103592049</v>
+        <v>1.748896991133631</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C413">
-        <v>1.44740089779587</v>
+        <v>1.546656379193756</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C414">
-        <v>1.355207022045923</v>
+        <v>1.829731624654896</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C415">
-        <v>2.722814963562437</v>
+        <v>0.2230490722765266</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C416">
-        <v>0.0375661444370623</v>
+        <v>-2.403292877982377</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C417">
-        <v>-3.57215694652786</v>
+        <v>-7.736229504304227</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1"/>
       <c r="B418" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C418">
-        <v>-5.304724330998845</v>
+        <v>7.460162070372256</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C419">
-        <v>7.962576837159396</v>
+        <v>1.555230374673733</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1"/>
       <c r="B420" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C420">
-        <v>0.01128734732251946</v>
+        <v>1.714710154674082</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C421">
-        <v>2.369311494884663</v>
+        <v>0.7790138908718491</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -4393,109 +4393,109 @@
         <v>38</v>
       </c>
       <c r="B422" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C422">
-        <v>0.0614129632738436</v>
+        <v>0.1074038640944464</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1"/>
       <c r="B423" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C423">
-        <v>0.2277513410951393</v>
+        <v>0.1071428634981109</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1"/>
       <c r="B424" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C424">
-        <v>0.4382298768148774</v>
+        <v>0.475874398763243</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1"/>
       <c r="B425" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C425">
-        <v>0.4119298812796046</v>
+        <v>-0.08379056298278842</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1"/>
       <c r="B426" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C426">
-        <v>-0.6644991016769297</v>
+        <v>0.4371565901948093</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1"/>
       <c r="B427" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C427">
-        <v>1.179163209981526</v>
+        <v>-0.7197303102463026</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1"/>
       <c r="B428" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C428">
-        <v>-0.6568615829561919</v>
+        <v>0.1437250286104419</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1"/>
       <c r="B429" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C429">
-        <v>-1.085401283926124</v>
+        <v>-9.683354217053243</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1"/>
       <c r="B430" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C430">
-        <v>-7.149990240662751</v>
+        <v>7.767458299912211</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1"/>
       <c r="B431" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C431">
-        <v>6.698107725233826</v>
+        <v>1.247211941322024</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1"/>
       <c r="B432" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C432">
-        <v>0.7142261717163256</v>
+        <v>2.062051974474799</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1"/>
       <c r="B433" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C433">
-        <v>1.602082581619602</v>
+        <v>2.039633546617092</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -4503,109 +4503,109 @@
         <v>39</v>
       </c>
       <c r="B434" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C434">
-        <v>1.21126877334492</v>
+        <v>-0.4535491688048565</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C435">
-        <v>-0.6898881495303932</v>
+        <v>0.8624476166646078</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C436">
-        <v>-0.6237640158751168</v>
+        <v>0.1220737896739932</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C437">
-        <v>0.4220222511868821</v>
+        <v>1.76502903844229</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C438">
-        <v>3.027917170833483</v>
+        <v>-0.7223201916780275</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C439">
-        <v>-1.29782550671047</v>
+        <v>2.240573110325528</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C440">
-        <v>1.706229868874587</v>
+        <v>-3.858336649396932</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C441">
-        <v>-4.096701972271832</v>
+        <v>-8.432810863555762</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1"/>
       <c r="B442" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C442">
-        <v>-4.65673705365025</v>
+        <v>9.852739238410525</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C443">
-        <v>7.270288716481055</v>
+        <v>0.03089829010338718</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C444">
-        <v>0.1837278731832814</v>
+        <v>-1.887053965937668</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C445">
-        <v>-2.681259324872232</v>
+        <v>-1.188974516435892</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -4613,109 +4613,109 @@
         <v>40</v>
       </c>
       <c r="B446" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C446">
-        <v>1.087397641855725</v>
+        <v>2.628523837327457</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C447">
-        <v>2.499721680157241</v>
+        <v>0.5855792293629758</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C448">
-        <v>1.141455083196585</v>
+        <v>1.686354322723638</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C449">
-        <v>1.480099243314337</v>
+        <v>0.4228542550808845</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1"/>
       <c r="B450" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C450">
-        <v>-0.2640576508797454</v>
+        <v>0.3013823884706168</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C451">
-        <v>0.119697145785258</v>
+        <v>1.306835764202829</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C452">
-        <v>1.764244677118554</v>
+        <v>-1.662030559981398</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1"/>
       <c r="B453" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C453">
-        <v>-3.431565443980455</v>
+        <v>-6.787798179574223</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C454">
-        <v>-2.231128471683952</v>
+        <v>9.238883155663746</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C455">
-        <v>6.895591125713185</v>
+        <v>-4.94894218755414</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C456">
-        <v>-3.182926460774849</v>
+        <v>2.317876910701666</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C457">
-        <v>0.5458564935043153</v>
+        <v>-2.819732341362358</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -4723,109 +4723,109 @@
         <v>41</v>
       </c>
       <c r="B458" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C458">
-        <v>1.686952010660248</v>
+        <v>-0.87285398833159</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C459">
-        <v>-0.5093444531123259</v>
+        <v>0.01662188918696295</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C460">
-        <v>0.4709308045043326</v>
+        <v>-0.09879750115630026</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C461">
-        <v>-0.7031675138569726</v>
+        <v>0.9468126035637958</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C462">
-        <v>1.270291540961166</v>
+        <v>-0.5812584359389583</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C463">
-        <v>-0.5036987660260395</v>
+        <v>1.486025221382459</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1"/>
       <c r="B464" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C464">
-        <v>1.118224826642988</v>
+        <v>-2.4950959694506</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C465">
-        <v>-2.996267515419271</v>
+        <v>-16.56696977366725</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1"/>
       <c r="B466" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C466">
-        <v>-12.02679150930097</v>
+        <v>11.27527446602656</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C467">
-        <v>8.174278763717723</v>
+        <v>3.971387958804984</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C468">
-        <v>4.114784473707678</v>
+        <v>-1.83948186189371</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C469">
-        <v>-1.949861214840154</v>
+        <v>2.272145041375628</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -4833,109 +4833,109 @@
         <v>42</v>
       </c>
       <c r="B470" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C470">
-        <v>0.008852681230497872</v>
+        <v>0.994226145103827</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1"/>
       <c r="B471" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C471">
-        <v>0.7468909255787581</v>
+        <v>0.2278274121814583</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1"/>
       <c r="B472" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C472">
-        <v>0.1317141167715308</v>
+        <v>0.3638105834207206</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1"/>
       <c r="B473" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C473">
-        <v>0.425601717665347</v>
+        <v>0.9842854196329576</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1"/>
       <c r="B474" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C474">
-        <v>0.8646894304642272</v>
+        <v>0.2161777851201974</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1"/>
       <c r="B475" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C475">
-        <v>-0.001180192160943339</v>
+        <v>0.4643590636292494</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1"/>
       <c r="B476" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C476">
-        <v>0.7400314623866366</v>
+        <v>-4.577577449353088</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1"/>
       <c r="B477" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C477">
-        <v>-5.383054553871092</v>
+        <v>-17.04939757801539</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1"/>
       <c r="B478" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C478">
-        <v>-12.7182531313641</v>
+        <v>16.24728760723249</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1"/>
       <c r="B479" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C479">
-        <v>12.66305219666453</v>
+        <v>0.5117019268365164</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1"/>
       <c r="B480" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C480">
-        <v>0.1362397257686609</v>
+        <v>0.5022402988429819</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1"/>
       <c r="B481" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C481">
-        <v>0.5187174063813638</v>
+        <v>2.947348464236277</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -4943,109 +4943,109 @@
         <v>43</v>
       </c>
       <c r="B482" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C482">
-        <v>0.4525785205953925</v>
+        <v>-0.2618854113959346</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1"/>
       <c r="B483" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C483">
-        <v>-0.4033097862615742</v>
+        <v>0.6069595522540272</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1"/>
       <c r="B484" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C484">
-        <v>0.9113140261820307</v>
+        <v>0.4388997756200386</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1"/>
       <c r="B485" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C485">
-        <v>0.6567281557877225</v>
+        <v>1.088877238025732</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1"/>
       <c r="B486" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C486">
-        <v>1.245274372795424</v>
+        <v>1.229895221172761</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1"/>
       <c r="B487" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C487">
-        <v>0.4682734647279752</v>
+        <v>-0.1348076906218743</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1"/>
       <c r="B488" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C488">
-        <v>-0.08078844552992237</v>
+        <v>-1.801069244191245</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1"/>
       <c r="B489" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C489">
-        <v>-2.666189917308714</v>
+        <v>-7.482069805602576</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1"/>
       <c r="B490" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C490">
-        <v>-5.912063603365436</v>
+        <v>5.006216593469137</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1"/>
       <c r="B491" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C491">
-        <v>4.529280323935669</v>
+        <v>2.845265389359919</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1"/>
       <c r="B492" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C492">
-        <v>2.668402185814478</v>
+        <v>0.2122299888698054</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1"/>
       <c r="B493" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C493">
-        <v>-0.6677835382095432</v>
+        <v>2.626310183112768</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5053,109 +5053,109 @@
         <v>44</v>
       </c>
       <c r="B494" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C494">
-        <v>0.7474315183822577</v>
+        <v>0.4645158442237562</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1"/>
       <c r="B495" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C495">
-        <v>0.800899605830141</v>
+        <v>0.04132686750604186</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1"/>
       <c r="B496" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C496">
-        <v>0.6225170369328348</v>
+        <v>-0.3940284608640265</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1"/>
       <c r="B497" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C497">
-        <v>-0.4350013979276701</v>
+        <v>0.6957526509588696</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1"/>
       <c r="B498" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C498">
-        <v>0.7436138142438375</v>
+        <v>0.1480398119499737</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1"/>
       <c r="B499" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C499">
-        <v>-0.07833594696184942</v>
+        <v>1.025851623150831</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1"/>
       <c r="B500" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C500">
-        <v>1.029542264336114</v>
+        <v>-2.008517140693233</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1"/>
       <c r="B501" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C501">
-        <v>-3.024388803360223</v>
+        <v>-7.956862533315501</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1"/>
       <c r="B502" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C502">
-        <v>-4.784365179959648</v>
+        <v>8.579170214184595</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1"/>
       <c r="B503" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C503">
-        <v>6.538602086003653</v>
+        <v>-0.5085182085950768</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1"/>
       <c r="B504" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C504">
-        <v>-1.239485277115471</v>
+        <v>-0.6245013999253812</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1"/>
       <c r="B505" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C505">
-        <v>-0.1876222174369002</v>
+        <v>0.4541942458912374</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5163,109 +5163,109 @@
         <v>45</v>
       </c>
       <c r="B506" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C506">
-        <v>0.03803363695462636</v>
+        <v>-3.251094083402839</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1"/>
       <c r="B507" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C507">
-        <v>-3.561056623410408</v>
+        <v>2.282034733788585</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1"/>
       <c r="B508" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C508">
-        <v>2.754506831533621</v>
+        <v>1.069492469393674</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1"/>
       <c r="B509" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C509">
-        <v>0.9278312448073089</v>
+        <v>2.714808240680777</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1"/>
       <c r="B510" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C510">
-        <v>3.054523281870281</v>
+        <v>1.062689421665075</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1"/>
       <c r="B511" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C511">
-        <v>1.32562070982265</v>
+        <v>2.585874763846063</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1"/>
       <c r="B512" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C512">
-        <v>2.784959414970101</v>
+        <v>0.5171059561738689</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1"/>
       <c r="B513" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C513">
-        <v>-0.6480885261731517</v>
+        <v>-9.485439069841616</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1"/>
       <c r="B514" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C514">
-        <v>-6.936458325918126</v>
+        <v>8.483587577330876</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1"/>
       <c r="B515" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C515">
-        <v>6.896818764134482</v>
+        <v>-1.40635531828035</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1"/>
       <c r="B516" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C516">
-        <v>-1.221042565564079</v>
+        <v>0.8265600023269259</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1"/>
       <c r="B517" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C517">
-        <v>0.2672775507832403</v>
+        <v>1.151683144853988</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -5273,109 +5273,109 @@
         <v>46</v>
       </c>
       <c r="B518" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C518">
-        <v>0.04795726500126385</v>
+        <v>0.2185603696728711</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1"/>
       <c r="B519" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C519">
-        <v>0.05902656020249086</v>
+        <v>0.2975692701086219</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1"/>
       <c r="B520" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C520">
-        <v>0.08614904818680102</v>
+        <v>0.3789500757664266</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1"/>
       <c r="B521" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C521">
-        <v>0.6449739538641142</v>
+        <v>0.130088393929273</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1"/>
       <c r="B522" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C522">
-        <v>0.485769933136404</v>
+        <v>-0.2940223767154748</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1"/>
       <c r="B523" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C523">
-        <v>-0.2172052531642099</v>
+        <v>0.05679741550936868</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1"/>
       <c r="B524" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C524">
-        <v>-0.01092826807009839</v>
+        <v>-2.821902077827743</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1"/>
       <c r="B525" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C525">
-        <v>-3.884423097820966</v>
+        <v>-16.11179252906026</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1"/>
       <c r="B526" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C526">
-        <v>-11.52184464178494</v>
+        <v>14.23282144660063</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1"/>
       <c r="B527" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C527">
-        <v>11.08288772450285</v>
+        <v>0.1763469007630469</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1"/>
       <c r="B528" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C528">
-        <v>-0.3984794045958417</v>
+        <v>-1.948701503546146</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1"/>
       <c r="B529" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C529">
-        <v>-1.357970717504642</v>
+        <v>4.397765876162429</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -5383,109 +5383,109 @@
         <v>47</v>
       </c>
       <c r="B530" s="2">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="C530">
-        <v>0.1391578740988386</v>
+        <v>0.6530464020055637</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1"/>
       <c r="B531" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C531">
-        <v>0.3293868322760352</v>
+        <v>0.4779791012702983</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1"/>
       <c r="B532" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C532">
-        <v>0.5356586884965875</v>
+        <v>0.7934706777334544</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1"/>
       <c r="B533" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C533">
-        <v>0.789444358384217</v>
+        <v>0.3470801765482312</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1"/>
       <c r="B534" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C534">
-        <v>0.3276836632571722</v>
+        <v>0.6646355242213797</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1"/>
       <c r="B535" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C535">
-        <v>0.6633777754420755</v>
+        <v>-0.03468687581997809</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1"/>
       <c r="B536" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C536">
-        <v>0.3523634208065562</v>
+        <v>-0.6052151927622762</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1"/>
       <c r="B537" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C537">
-        <v>-1.385053451652984</v>
+        <v>-8.723479523677169</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1"/>
       <c r="B538" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C538">
-        <v>-5.964938208622373</v>
+        <v>6.31826160845399</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1"/>
       <c r="B539" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C539">
-        <v>4.84988076291093</v>
+        <v>2.686553660051816</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1"/>
       <c r="B540" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C540">
-        <v>1.99788939811758</v>
+        <v>1.007856342295899</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1"/>
       <c r="B541" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C541">
-        <v>0.9636955544887194</v>
+        <v>2.047490643144467</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,1123 +640,1125 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="2">
-        <v>44287</v>
+        <v>43282</v>
       </c>
       <c r="C13">
-        <v>0.9786442346137791</v>
+        <v>0.3416770290869398</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C14">
-        <v>0.3416770290869398</v>
+        <v>0.7642493811873985</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C15">
-        <v>0.7642493811873985</v>
+        <v>0.6461612568382957</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C16">
-        <v>0.6461612568382957</v>
+        <v>0.1538401102753717</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C17">
-        <v>0.1538401102753717</v>
+        <v>0.496445473918361</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C18">
-        <v>0.496445473918361</v>
+        <v>0.1363215300821841</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C19">
-        <v>0.1363215300821841</v>
+        <v>-1.790136432927802</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C20">
-        <v>-1.790136432927802</v>
+        <v>-6.948624172176676</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C21">
-        <v>-6.948624172176676</v>
+        <v>5.814246102128373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C22">
-        <v>5.814246102128373</v>
+        <v>3.032990424317838</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C23">
-        <v>3.032990424317838</v>
+        <v>1.625197664505373</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B24" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C24">
-        <v>1.625197664505373</v>
+        <v>1.339245094028252</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>44287</v>
+        <v>43374</v>
       </c>
       <c r="C25">
-        <v>3.083193432824882</v>
+        <v>0.6371759604437699</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C26">
-        <v>1.339245094028252</v>
+        <v>0.4547076017454632</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C27">
-        <v>0.6371759604437699</v>
+        <v>0.7107660697390106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C28">
-        <v>0.4547076017454632</v>
+        <v>0.7369148266964443</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C29">
-        <v>0.7107660697390106</v>
+        <v>-0.7880539467105763</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C30">
-        <v>0.7369148266964443</v>
+        <v>-2.373051664443715</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C31">
-        <v>-0.7880539467105763</v>
+        <v>-9.958285719044003</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C32">
-        <v>-2.373051664443715</v>
+        <v>9.036829807958435</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C33">
-        <v>-9.958285719044003</v>
+        <v>-0.7745145426713007</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C34">
-        <v>9.036829807958435</v>
+        <v>-0.04665549321352103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B35" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C35">
-        <v>-0.7745145426713007</v>
+        <v>-0.07229173484527562</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C36">
-        <v>-0.04665549321352103</v>
+        <v>-0.282003259388075</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
-        <v>44287</v>
+        <v>43466</v>
       </c>
       <c r="C37">
-        <v>4.0544586632834</v>
+        <v>0.8740051690597328</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C38">
-        <v>-0.07229173484527562</v>
+        <v>0.8163412187732533</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C39">
-        <v>-0.282003259388075</v>
+        <v>-0.5218609054460588</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C40">
-        <v>0.8740051690597328</v>
+        <v>-0.0344186042853134</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C41">
-        <v>0.8163412187732533</v>
+        <v>-1.963005397179118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C42">
-        <v>-0.5218609054460588</v>
+        <v>-13.03519753737786</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C43">
-        <v>-0.0344186042853134</v>
+        <v>11.28605796532067</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C44">
-        <v>-1.963005397179118</v>
+        <v>-0.1140604473244822</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C45">
-        <v>-13.03519753737786</v>
+        <v>0.1490943462685079</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B46" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C46">
-        <v>11.28605796532067</v>
+        <v>-0.03204210887423065</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C47">
-        <v>-0.1140604473244822</v>
+        <v>-0.1615271252636274</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C48">
-        <v>0.1490943462685079</v>
+        <v>0.4697125805236846</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
-        <v>44287</v>
+        <v>43556</v>
       </c>
       <c r="C49">
-        <v>2.167731532562844</v>
+        <v>0.581124676836553</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C50">
-        <v>-0.03204210887423065</v>
+        <v>-0.4041526914269067</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C51">
-        <v>-0.1615271252636274</v>
+        <v>0.4092892964337791</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C52">
-        <v>0.4697125805236846</v>
+        <v>-0.8084485577491418</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C53">
-        <v>0.581124676836553</v>
+        <v>-10.6322399349449</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C54">
-        <v>-0.4041526914269067</v>
+        <v>8.652932296872763</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C55">
-        <v>0.4092892964337791</v>
+        <v>2.993866128354084</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C56">
-        <v>-0.8084485577491418</v>
+        <v>-0.2360112650876101</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B57" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C57">
-        <v>-10.6322399349449</v>
+        <v>-1.20259606423746</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C58">
-        <v>8.652932296872763</v>
+        <v>1.08175955963532</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C59">
-        <v>2.993866128354084</v>
+        <v>0.7765789651232202</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C60">
-        <v>-0.2360112650876101</v>
+        <v>0.6844813517620452</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
-        <v>44287</v>
+        <v>43647</v>
       </c>
       <c r="C61">
-        <v>-2.487365080575599</v>
+        <v>1.405239608152353</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C62">
-        <v>-1.20259606423746</v>
+        <v>-2.039464872882346</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C63">
-        <v>1.08175955963532</v>
+        <v>-3.011283827594835</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C64">
-        <v>0.7765789651232202</v>
+        <v>-9.172153156847596</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C65">
-        <v>0.6844813517620452</v>
+        <v>12.37444624977917</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C66">
-        <v>1.405239608152353</v>
+        <v>-1.078336667014257</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C67">
-        <v>-2.039464872882346</v>
+        <v>4.862057946978737</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B68" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C68">
-        <v>-3.011283827594835</v>
+        <v>0.9667920911680339</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C69">
-        <v>-9.172153156847596</v>
+        <v>0.09286545209570285</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C70">
-        <v>12.37444624977917</v>
+        <v>1.098647320089818</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C71">
-        <v>-1.078336667014257</v>
+        <v>0.3784114597700228</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C72">
-        <v>4.862057946978737</v>
+        <v>0.1437595256641222</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C73">
-        <v>-1.331027045476352</v>
+        <v>-0.1376696814114564</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C74">
-        <v>0.9667920911680339</v>
+        <v>-1.250202615437224</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C75">
-        <v>0.09286545209570285</v>
+        <v>-11.11710430497322</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C76">
-        <v>1.098647320089818</v>
+        <v>9.030066553001959</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.3784114597700228</v>
+        <v>0.6785394322665894</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.1437595256641222</v>
+        <v>-0.3011407545739919</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B79" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C79">
-        <v>-0.1376696814114564</v>
+        <v>0.3959916704929789</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C80">
-        <v>-1.250202615437224</v>
+        <v>0.3177186581146074</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C81">
-        <v>-11.11710430497322</v>
+        <v>-0.02352838471748608</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C82">
-        <v>9.030066553001959</v>
+        <v>0.2223802780193962</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C83">
-        <v>0.6785394322665894</v>
+        <v>2.305298506862052</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C84">
-        <v>-0.3011407545739919</v>
+        <v>-1.844905095627725</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="C85">
-        <v>1.823913299863245</v>
+        <v>0.3202823538112298</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C86">
-        <v>0.3959916704929789</v>
+        <v>-12.38946199580678</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C87">
-        <v>0.3177186581146074</v>
+        <v>7.351726232464872</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C88">
-        <v>-0.02352838471748608</v>
+        <v>6.445686781297089</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C89">
-        <v>0.2223802780193962</v>
+        <v>-1.283924175659568</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B90" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C90">
-        <v>2.305298506862052</v>
+        <v>1.517212308856819</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C91">
-        <v>-1.844905095627725</v>
+        <v>1.368379045562729</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C92">
-        <v>0.3202823538112298</v>
+        <v>-0.8756530594897671</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C93">
-        <v>-12.38946199580678</v>
+        <v>0.6059524811922401</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C94">
-        <v>7.351726232464872</v>
+        <v>1.195013193803551</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C95">
-        <v>6.445686781297089</v>
+        <v>-0.9618675690720169</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C96">
-        <v>-1.283924175659568</v>
+        <v>-1.595942128836825</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="2">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="C97">
-        <v>-5.41966129826974</v>
+        <v>-11.86031326232494</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C98">
-        <v>1.517212308856819</v>
+        <v>8.914964133517355</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C99">
-        <v>1.368379045562729</v>
+        <v>5.082531796894352</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C100">
-        <v>-0.8756530594897671</v>
+        <v>0.4564075105730314</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B101" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C101">
-        <v>0.6059524811922401</v>
+        <v>0.7428661709700135</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C102">
-        <v>1.195013193803551</v>
+        <v>0.2367748973616912</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C103">
-        <v>-0.9618675690720169</v>
+        <v>0.8547933576813938</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C104">
-        <v>-1.595942128836825</v>
+        <v>3.054052515224726</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C105">
-        <v>-11.86031326232494</v>
+        <v>-1.199092558829695</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C106">
-        <v>8.914964133517355</v>
+        <v>0.7541909195729168</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C107">
-        <v>5.082531796894352</v>
+        <v>-1.60408850615994</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C108">
-        <v>0.4564075105730314</v>
+        <v>-7.998574681512116</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="2">
-        <v>44287</v>
+        <v>44013</v>
       </c>
       <c r="C109">
-        <v>1.687525457808281</v>
+        <v>7.831691588444811</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C110">
-        <v>0.7428661709700135</v>
+        <v>-2.426261558562404</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C111">
-        <v>0.2367748973616912</v>
+        <v>0.5763420354802262</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B112" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C112">
-        <v>0.8547933576813938</v>
+        <v>1.181271241407322</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C113">
-        <v>3.054052515224726</v>
+        <v>0.00173116027559761</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C114">
-        <v>-1.199092558829695</v>
+        <v>-0.3378751203036323</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C115">
-        <v>0.7541909195729168</v>
+        <v>1.316115794027573</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C116">
-        <v>-1.60408850615994</v>
+        <v>-1.038537317105881</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C117">
-        <v>-7.998574681512116</v>
+        <v>1.125167352516776</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C118">
-        <v>7.831691588444811</v>
+        <v>-0.8102112063856581</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C119">
-        <v>-2.426261558562404</v>
+        <v>-6.479966327510134</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C120">
-        <v>0.5763420354802262</v>
+        <v>5.062018510563737</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="2">
-        <v>44287</v>
+        <v>44105</v>
       </c>
       <c r="C121">
-        <v>-1.683460276086646</v>
+        <v>-0.2597466164422135</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C122">
+        <v>0.8353765658615231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="2">
         <v>43282</v>
       </c>
-      <c r="C122">
-        <v>1.181271241407322</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2">
-        <v>43374</v>
-      </c>
       <c r="C123">
-        <v>0.00173116027559761</v>
+        <v>-0.6030583237148002</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C124">
-        <v>-0.3378751203036323</v>
+        <v>0.06209765277027657</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C125">
-        <v>1.316115794027573</v>
+        <v>3.976585770451857</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C126">
-        <v>-1.038537317105881</v>
+        <v>0.2681900587467645</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C127">
-        <v>1.125167352516776</v>
+        <v>0.8812975498915465</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C128">
-        <v>-0.8102112063856581</v>
+        <v>0.6047502046980346</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C129">
-        <v>-6.479966327510134</v>
+        <v>-3.510489965980634</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C130">
-        <v>5.062018510563737</v>
+        <v>-4.631688691250224</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C131">
-        <v>-0.2597466164422135</v>
+        <v>4.116307297892119</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="2">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="C132">
-        <v>0.8353765658615231</v>
+        <v>4.971045262076657</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="2">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="C133">
-        <v>3.490089693905762</v>
+        <v>-1.601956101715696</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" s="2">
         <v>43282</v>
       </c>
       <c r="C134">
-        <v>-0.6030583237148002</v>
+        <v>-0.7083406273628357</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1765,7 +1767,7 @@
         <v>43374</v>
       </c>
       <c r="C135">
-        <v>0.06209765277027657</v>
+        <v>0.931714212638779</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1774,7 +1776,7 @@
         <v>43466</v>
       </c>
       <c r="C136">
-        <v>3.976585770451857</v>
+        <v>-0.2915564881480814</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1783,7 +1785,7 @@
         <v>43556</v>
       </c>
       <c r="C137">
-        <v>0.2681900587467645</v>
+        <v>0.7433984535595517</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1792,7 +1794,7 @@
         <v>43647</v>
       </c>
       <c r="C138">
-        <v>0.8812975498915465</v>
+        <v>1.739419478005311</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1801,7 +1803,7 @@
         <v>43739</v>
       </c>
       <c r="C139">
-        <v>0.6047502046980346</v>
+        <v>-0.9124086764113581</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1810,7 +1812,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.510489965980634</v>
+        <v>-0.4703452360732885</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1819,7 +1821,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-4.631688691250224</v>
+        <v>-6.862639775940361</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1828,7 +1830,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>4.116307297892119</v>
+        <v>5.347640972194667</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1837,7 +1839,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>4.971045262076657</v>
+        <v>-0.2085874161835366</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1846,1127 +1848,1129 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>-1.601956101715696</v>
+        <v>-0.3700157448619623</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B145" s="2">
-        <v>44287</v>
+        <v>43282</v>
       </c>
       <c r="C145">
-        <v>2.17455148531227</v>
+        <v>0.2163099117096889</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C146">
-        <v>-0.7083406273628357</v>
+        <v>-0.1034961103159482</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C147">
-        <v>0.931714212638779</v>
+        <v>0.6171669448669759</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C148">
-        <v>-0.2915564881480814</v>
+        <v>0.2628024570963561</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C149">
-        <v>0.7433984535595517</v>
+        <v>0.4897264634974086</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C150">
-        <v>1.739419478005311</v>
+        <v>0.1104486578132446</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C151">
-        <v>-0.9124086764113581</v>
+        <v>-4.074090508042961</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C152">
-        <v>-0.4703452360732885</v>
+        <v>-14.90601540362711</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C153">
-        <v>-6.862639775940361</v>
+        <v>17.21339990330621</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C154">
-        <v>5.347640972194667</v>
+        <v>-2.229331997289397</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C155">
-        <v>-0.2085874161835366</v>
+        <v>0.8244682743481446</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B156" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C156">
-        <v>-0.3700157448619623</v>
+        <v>0.3285417887125108</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="2">
-        <v>44287</v>
+        <v>43374</v>
       </c>
       <c r="C157">
-        <v>0.02358995081117587</v>
+        <v>0.5259624810697083</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C158">
-        <v>0.2163099117096889</v>
+        <v>1.11128074761242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C159">
-        <v>-0.1034961103159482</v>
+        <v>0.2221029469761993</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C160">
-        <v>0.6171669448669759</v>
+        <v>0.6068197211583914</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C161">
-        <v>0.2628024570963561</v>
+        <v>-0.009154331897920365</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C162">
-        <v>0.4897264634974086</v>
+        <v>-2.297520154099308</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C163">
-        <v>0.1104486578132446</v>
+        <v>-9.611548069978415</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C164">
-        <v>-4.074090508042961</v>
+        <v>7.44935698854241</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C165">
-        <v>-14.90601540362711</v>
+        <v>-1.017178031245702</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C166">
-        <v>17.21339990330621</v>
+        <v>-1.5015975485413</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B167" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C167">
-        <v>-2.229331997289397</v>
+        <v>-1.130665859604341</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C168">
-        <v>0.8244682743481446</v>
+        <v>0.8084554417203238</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="2">
-        <v>44287</v>
+        <v>43466</v>
       </c>
       <c r="C169">
-        <v>0.1878218329977699</v>
+        <v>-0.1908235152715321</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C170">
-        <v>0.3285417887125108</v>
+        <v>1.001431080940551</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C171">
-        <v>0.5259624810697083</v>
+        <v>0.173581730977368</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C172">
-        <v>1.11128074761242</v>
+        <v>-1.080801130786746</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C173">
-        <v>0.2221029469761993</v>
+        <v>-3.042065644644421</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C174">
-        <v>0.6068197211583914</v>
+        <v>-11.37145478038917</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C175">
-        <v>-0.009154331897920365</v>
+        <v>8.063641085923546</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C176">
-        <v>-2.297520154099308</v>
+        <v>1.549305400803225</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C177">
-        <v>-9.611548069978415</v>
+        <v>0.1951306792394414</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B178" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C178">
-        <v>7.44935698854241</v>
+        <v>0.6788486322912624</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C179">
-        <v>-1.017178031245702</v>
+        <v>-0.04667245768057438</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C180">
-        <v>-1.5015975485413</v>
+        <v>1.166505745410085</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="2">
-        <v>44287</v>
+        <v>43556</v>
       </c>
       <c r="C181">
-        <v>-0.2855424066804502</v>
+        <v>1.395866693423842</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C182">
-        <v>-1.130665859604341</v>
+        <v>-0.05879160840150943</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C183">
-        <v>0.8084554417203238</v>
+        <v>0.9793156301703521</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C184">
-        <v>-0.1908235152715321</v>
+        <v>-1.016419558039572</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C185">
-        <v>1.001431080940551</v>
+        <v>-9.232134969559723</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C186">
-        <v>0.173581730977368</v>
+        <v>7.977564815408833</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C187">
-        <v>-1.080801130786746</v>
+        <v>-0.1490428015418765</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C188">
-        <v>-3.042065644644421</v>
+        <v>2.364375452557654</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B189" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C189">
-        <v>-11.37145478038917</v>
+        <v>3.204103480403786</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C190">
-        <v>8.063641085923546</v>
+        <v>3.442440519083068</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C191">
-        <v>1.549305400803225</v>
+        <v>-4.596574372389306</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C192">
-        <v>0.1951306792394414</v>
+        <v>-0.9474965407650915</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2">
-        <v>44287</v>
+        <v>43647</v>
       </c>
       <c r="C193">
-        <v>4.212587408192925</v>
+        <v>2.320012225076451</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C194">
-        <v>0.6788486322912624</v>
+        <v>0.4347271871532499</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C195">
-        <v>-0.04667245768057438</v>
+        <v>-4.186010476772006</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C196">
-        <v>1.166505745410085</v>
+        <v>-7.781320706360906</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C197">
-        <v>1.395866693423842</v>
+        <v>-1.698983461039771</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C198">
-        <v>-0.05879160840150943</v>
+        <v>8.793160917264832</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C199">
-        <v>0.9793156301703521</v>
+        <v>-0.2934629493195784</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B200" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C200">
-        <v>-1.016419558039572</v>
+        <v>1.256329997797501</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C201">
-        <v>-9.232134969559723</v>
+        <v>2.466217113198788</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C202">
-        <v>7.977564815408833</v>
+        <v>-1.021323425298415</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C203">
-        <v>-0.1490428015418765</v>
+        <v>2.465670841669243</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C204">
-        <v>2.364375452557654</v>
+        <v>-0.1473252782233647</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C205">
-        <v>-2.909524953267906</v>
+        <v>1.190045765111258</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C206">
-        <v>3.204103480403786</v>
+        <v>1.371031507235276</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C207">
-        <v>3.442440519083068</v>
+        <v>-19.4464421995492</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C208">
-        <v>-4.596574372389306</v>
+        <v>14.81800306847365</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C209">
-        <v>-0.9474965407650915</v>
+        <v>7.191635919019013</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C210">
-        <v>2.320012225076451</v>
+        <v>3.422064961259808</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B211" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C211">
-        <v>0.4347271871532499</v>
+        <v>0.05254099860774186</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C212">
-        <v>-4.186010476772006</v>
+        <v>1.54506936767691</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C213">
-        <v>-7.781320706360906</v>
+        <v>1.093408242711269</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C214">
-        <v>-1.698983461039771</v>
+        <v>1.910273074756219</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C215">
-        <v>8.793160917264832</v>
+        <v>0.7162379257207752</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C216">
-        <v>-0.2934629493195784</v>
+        <v>0.9628902704611253</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="C217">
-        <v>1.179199465471337</v>
+        <v>0.5111376987072536</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C218">
-        <v>1.256329997797501</v>
+        <v>-8.927836020051105</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C219">
-        <v>2.466217113198788</v>
+        <v>3.177579043524359</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C220">
-        <v>-1.021323425298415</v>
+        <v>2.906481224144564</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C221">
-        <v>2.465670841669243</v>
+        <v>1.791544115629073</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B222" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C222">
-        <v>-0.1473252782233647</v>
+        <v>-0.5805633227614848</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C223">
-        <v>1.190045765111258</v>
+        <v>13.87559727892287</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C224">
-        <v>1.371031507235276</v>
+        <v>-7.057490661238197</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C225">
-        <v>-19.4464421995492</v>
+        <v>1.958536784082732</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C226">
-        <v>14.81800306847365</v>
+        <v>5.336636437454945</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C227">
-        <v>7.191635919019013</v>
+        <v>4.519883524330948</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C228">
-        <v>3.422064961259808</v>
+        <v>-3.499395427084862</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="2">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="C229">
-        <v>0.3251827003520225</v>
+        <v>-9.489186377740888</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A230" s="1"/>
       <c r="B230" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C230">
-        <v>0.05254099860774186</v>
+        <v>11.30911494562898</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C231">
-        <v>1.54506936767691</v>
+        <v>0.4251957938292028</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C232">
-        <v>1.093408242711269</v>
+        <v>-1.742411575285152</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B233" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C233">
-        <v>1.910273074756219</v>
+        <v>3.229696240498359</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C234">
-        <v>0.7162379257207752</v>
+        <v>-0.07880778678882594</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C235">
-        <v>0.9628902704611253</v>
+        <v>-0.7043766785831518</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C236">
-        <v>0.5111376987072536</v>
+        <v>0.2233287176629739</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C237">
-        <v>-8.927836020051105</v>
+        <v>1.79027990688041</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C238">
-        <v>3.177579043524359</v>
+        <v>0.8134647136690321</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C239">
-        <v>2.906481224144564</v>
+        <v>-2.115477434650126</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C240">
-        <v>1.791544115629073</v>
+        <v>-7.670676771051566</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="2">
-        <v>44287</v>
+        <v>44013</v>
       </c>
       <c r="C241">
-        <v>1.450695965853144</v>
+        <v>4.575765788645758</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A242" s="1"/>
       <c r="B242" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C242">
-        <v>-0.5805633227614848</v>
+        <v>2.014805506140038</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C243">
-        <v>13.87559727892287</v>
+        <v>2.59763936697488</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B244" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C244">
-        <v>-7.057490661238197</v>
+        <v>1.056885414081554</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C245">
-        <v>1.958536784082732</v>
+        <v>-0.4734124514165661</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C246">
-        <v>5.336636437454945</v>
+        <v>-0.4073219664720851</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C247">
-        <v>4.519883524330948</v>
+        <v>0.4131946320114377</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C248">
-        <v>-3.499395427084862</v>
+        <v>0.03905815478568719</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C249">
-        <v>-9.489186377740888</v>
+        <v>0.8987535598907304</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C250">
-        <v>11.30911494562898</v>
+        <v>-7.134388566422967</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C251">
-        <v>0.4251957938292028</v>
+        <v>-13.71833462211472</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C252">
-        <v>-1.742411575285152</v>
+        <v>17.15435768828801</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="2">
-        <v>44287</v>
+        <v>44105</v>
       </c>
       <c r="C253">
-        <v>5.344304981093106</v>
+        <v>-2.94114642567066</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A254" s="1"/>
       <c r="B254" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C254">
+        <v>-0.1133723112212714</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" s="2">
         <v>43282</v>
       </c>
-      <c r="C254">
-        <v>3.229696240498359</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="1"/>
-      <c r="B255" s="2">
-        <v>43374</v>
-      </c>
       <c r="C255">
-        <v>-0.07880778678882594</v>
+        <v>-0.2662619900730467</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C256">
-        <v>-0.7043766785831518</v>
+        <v>-0.3318966373708654</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C257">
-        <v>0.2233287176629739</v>
+        <v>0.06460385433406657</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C258">
-        <v>1.79027990688041</v>
+        <v>0.009179199808539984</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C259">
-        <v>0.8134647136690321</v>
+        <v>0.3744151409263985</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C260">
-        <v>-2.115477434650126</v>
+        <v>0.6390560348110474</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C261">
-        <v>-7.670676771051566</v>
+        <v>-1.281837097839489</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C262">
-        <v>4.575765788645758</v>
+        <v>-8.985447843581905</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C263">
-        <v>2.014805506140038</v>
+        <v>4.839296112776204</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="2">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="C264">
-        <v>2.59763936697488</v>
+        <v>2.910397528126474</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="2">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="C265">
-        <v>5.402650625897309</v>
+        <v>-0.02995751157296445</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B266" s="2">
         <v>43282</v>
       </c>
       <c r="C266">
-        <v>1.056885414081554</v>
+        <v>1.115779727944188</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2975,7 +2979,7 @@
         <v>43374</v>
       </c>
       <c r="C267">
-        <v>-0.4734124514165661</v>
+        <v>0.4235349810458144</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2984,7 +2988,7 @@
         <v>43466</v>
       </c>
       <c r="C268">
-        <v>-0.4073219664720851</v>
+        <v>0.5583864899831648</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2993,7 +2997,7 @@
         <v>43556</v>
       </c>
       <c r="C269">
-        <v>0.4131946320114377</v>
+        <v>-0.2697570302272356</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3002,7 +3006,7 @@
         <v>43647</v>
       </c>
       <c r="C270">
-        <v>0.03905815478568719</v>
+        <v>2.014003016646604</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3011,7 +3015,7 @@
         <v>43739</v>
       </c>
       <c r="C271">
-        <v>0.8987535598907304</v>
+        <v>0.2799778752128557</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3020,7 +3024,7 @@
         <v>43831</v>
       </c>
       <c r="C272">
-        <v>-7.134388566422967</v>
+        <v>-0.09725950110791581</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3029,7 +3033,7 @@
         <v>43922</v>
       </c>
       <c r="C273">
-        <v>-13.71833462211472</v>
+        <v>-2.965135377619832</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3038,7 +3042,7 @@
         <v>44013</v>
       </c>
       <c r="C274">
-        <v>17.15435768828801</v>
+        <v>1.585352799863737</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3047,7 +3051,7 @@
         <v>44105</v>
       </c>
       <c r="C275">
-        <v>-2.94114642567066</v>
+        <v>1.32620402670407</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3056,1127 +3060,1129 @@
         <v>44197</v>
       </c>
       <c r="C276">
-        <v>-0.1133723112212714</v>
+        <v>1.197486676214532</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B277" s="2">
-        <v>44287</v>
+        <v>43282</v>
       </c>
       <c r="C277">
-        <v>-5.493291257641497</v>
+        <v>0.1491635392226298</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A278" s="1"/>
       <c r="B278" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C278">
-        <v>-0.2662619900730467</v>
+        <v>0.7735946599460863</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C279">
-        <v>-0.3318966373708654</v>
+        <v>-0.946713191433346</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C280">
-        <v>0.06460385433406657</v>
+        <v>4.350668303467065</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C281">
-        <v>0.009179199808539984</v>
+        <v>-0.2310676743889406</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C282">
-        <v>0.3744151409263985</v>
+        <v>-1.034781491062386</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C283">
-        <v>0.6390560348110474</v>
+        <v>-1.979810010418692</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C284">
-        <v>-1.281837097839489</v>
+        <v>-5.289991026628726</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C285">
-        <v>-8.985447843581905</v>
+        <v>4.096372409562155</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C286">
-        <v>4.839296112776204</v>
+        <v>-0.3535178436316344</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C287">
-        <v>2.910397528126474</v>
+        <v>-0.4573004971708761</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B288" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C288">
-        <v>-0.02995751157296445</v>
+        <v>0.6550983075022554</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="2">
-        <v>44287</v>
+        <v>43374</v>
       </c>
       <c r="C289">
-        <v>0.9394895241088497</v>
+        <v>-0.217827165355311</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C290">
-        <v>1.115779727944188</v>
+        <v>2.192511874896685</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C291">
-        <v>0.4235349810458144</v>
+        <v>0.4402352672963072</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C292">
-        <v>0.5583864899831648</v>
+        <v>1.041250265253479</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C293">
-        <v>-0.2697570302272356</v>
+        <v>-0.9420086540060879</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C294">
-        <v>2.014003016646604</v>
+        <v>-1.592159878108002</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C295">
-        <v>0.2799778752128557</v>
+        <v>-4.81299085879675</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C296">
-        <v>-0.09725950110791581</v>
+        <v>5.908732024191865</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C297">
-        <v>-2.965135377619832</v>
+        <v>1.012473154163795</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C298">
-        <v>1.585352799863737</v>
+        <v>0.5640702240716777</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B299" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C299">
-        <v>1.32620402670407</v>
+        <v>1.007844623832987</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C300">
-        <v>1.197486676214532</v>
+        <v>0.2149281734241004</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="2">
-        <v>44287</v>
+        <v>43466</v>
       </c>
       <c r="C301">
-        <v>1.335368352364874</v>
+        <v>-3.425501183629087</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C302">
-        <v>0.1491635392226298</v>
+        <v>0.9095214505701499</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C303">
-        <v>0.7735946599460863</v>
+        <v>2.68908006325761</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C304">
-        <v>-0.946713191433346</v>
+        <v>-0.02820769898750353</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C305">
-        <v>4.350668303467065</v>
+        <v>-3.144864587107521</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C306">
-        <v>-0.2310676743889406</v>
+        <v>-10.58046859538747</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C307">
-        <v>-1.034781491062386</v>
+        <v>11.80653148496922</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C308">
-        <v>-1.979810010418692</v>
+        <v>-1.240970167810918</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C309">
-        <v>-5.289991026628726</v>
+        <v>2.22365692229558</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="1"/>
+      <c r="A310" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B310" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C310">
-        <v>4.096372409562155</v>
+        <v>0.3809775695006623</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C311">
-        <v>-0.3535178436316344</v>
+        <v>1.522637270879645</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C312">
-        <v>-0.4573004971708761</v>
+        <v>-0.3976084982924233</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="2">
-        <v>44287</v>
+        <v>43556</v>
       </c>
       <c r="C313">
-        <v>10.94263442160712</v>
+        <v>-0.09813306606401007</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A314" s="1"/>
       <c r="B314" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C314">
-        <v>0.6550983075022554</v>
+        <v>-0.1490778845015917</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C315">
-        <v>-0.217827165355311</v>
+        <v>-0.04679587976934574</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C316">
-        <v>2.192511874896685</v>
+        <v>-0.8544438464425652</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C317">
-        <v>0.4402352672963072</v>
+        <v>-13.6431134714591</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C318">
-        <v>1.041250265253479</v>
+        <v>10.0840583708103</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C319">
-        <v>-0.9420086540060879</v>
+        <v>2.634812875320613</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C320">
-        <v>-1.592159878108002</v>
+        <v>0.1594599366311789</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B321" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C321">
-        <v>-4.81299085879675</v>
+        <v>0.9087449265868131</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C322">
-        <v>5.908732024191865</v>
+        <v>0.7313681950261941</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C323">
-        <v>1.012473154163795</v>
+        <v>0.1862284225914168</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C324">
-        <v>0.5640702240716777</v>
+        <v>0.9766401860031859</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="2">
-        <v>44287</v>
+        <v>43647</v>
       </c>
       <c r="C325">
-        <v>1.787192227997014</v>
+        <v>0.3814135702757904</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A326" s="1"/>
       <c r="B326" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C326">
-        <v>1.007844623832987</v>
+        <v>0.4330288284311035</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C327">
-        <v>0.2149281734241004</v>
+        <v>-1.120574968619437</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C328">
-        <v>-3.425501183629087</v>
+        <v>-7.410635269480014</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C329">
-        <v>0.9095214505701499</v>
+        <v>6.368190469053525</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C330">
-        <v>2.68908006325761</v>
+        <v>-1.160178267811229</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C331">
-        <v>-0.02820769898750353</v>
+        <v>-0.02964236059586067</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B332" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C332">
-        <v>-3.144864587107521</v>
+        <v>0.3722419249028164</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C333">
-        <v>-10.58046859538747</v>
+        <v>1.948600805950251</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C334">
-        <v>11.80653148496922</v>
+        <v>0.20314007264437</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C335">
-        <v>-1.240970167810918</v>
+        <v>0.6063845370407828</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C336">
-        <v>2.22365692229558</v>
+        <v>0.2521850228246025</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C337">
-        <v>4.245227395018492</v>
+        <v>1.213976983657994</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C338">
-        <v>0.3809775695006623</v>
+        <v>-2.019936392864552</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C339">
-        <v>1.522637270879645</v>
+        <v>-7.847948019729712</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C340">
-        <v>-0.3976084982924233</v>
+        <v>9.737125521258738</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C341">
-        <v>-0.09813306606401007</v>
+        <v>1.574804971470178</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C342">
-        <v>-0.1490778845015917</v>
+        <v>0.896220119308988</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B343" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C343">
-        <v>-0.04679587976934574</v>
+        <v>-0.1861074321246603</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C344">
-        <v>-0.8544438464425652</v>
+        <v>1.395579041179973</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C345">
-        <v>-13.6431134714591</v>
+        <v>1.148089222972315</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C346">
-        <v>10.0840583708103</v>
+        <v>0.5178479809909931</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C347">
-        <v>2.634812875320613</v>
+        <v>0.9324964901071597</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C348">
-        <v>0.1594599366311789</v>
+        <v>-0.499903182230288</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="C349">
-        <v>4.211919060539837</v>
+        <v>-2.240820166846846</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A350" s="1"/>
       <c r="B350" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C350">
-        <v>0.9087449265868131</v>
+        <v>-4.50901681270075</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C351">
-        <v>0.7313681950261941</v>
+        <v>4.434072873347539</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C352">
-        <v>0.1862284225914168</v>
+        <v>0.257667713081422</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C353">
-        <v>0.9766401860031859</v>
+        <v>-1.657897841328837</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="1"/>
+      <c r="A354" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B354" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C354">
-        <v>0.3814135702757904</v>
+        <v>0.02948321100129103</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C355">
-        <v>0.4330288284311035</v>
+        <v>2.549496209173996</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C356">
-        <v>-1.120574968619437</v>
+        <v>0.6710222831813439</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C357">
-        <v>-7.410635269480014</v>
+        <v>0.7676124408704244</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C358">
-        <v>6.368190469053525</v>
+        <v>0.7026035319628976</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C359">
-        <v>-1.160178267811229</v>
+        <v>1.358777913455045</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C360">
-        <v>-0.02964236059586067</v>
+        <v>-1.514203296919325</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="2">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="C361">
-        <v>2.769115281393875</v>
+        <v>-8.962991565097955</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A362" s="1"/>
       <c r="B362" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C362">
-        <v>0.3722419249028164</v>
+        <v>11.25787291665643</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C363">
-        <v>1.948600805950251</v>
+        <v>-2.161684076616355</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C364">
-        <v>0.20314007264437</v>
+        <v>0.9911369210335863</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="1"/>
+      <c r="A365" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B365" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C365">
-        <v>0.6063845370407828</v>
+        <v>1.961357631933414</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C366">
-        <v>0.2521850228246025</v>
+        <v>0.8067518588817046</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C367">
-        <v>1.213976983657994</v>
+        <v>0.7486033930613534</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C368">
-        <v>-2.019936392864552</v>
+        <v>0.1668134617637262</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C369">
-        <v>-7.847948019729712</v>
+        <v>0.4553145866545316</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1"/>
       <c r="B370" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C370">
-        <v>9.737125521258738</v>
+        <v>0.437688884992582</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C371">
-        <v>1.574804971470178</v>
+        <v>-3.763507177880865</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C372">
-        <v>0.896220119308988</v>
+        <v>-13.23042223575256</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="2">
-        <v>44287</v>
+        <v>44013</v>
       </c>
       <c r="C373">
-        <v>3.035255998375219</v>
+        <v>13.01127155550543</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A374" s="1"/>
       <c r="B374" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C374">
-        <v>-0.1861074321246603</v>
+        <v>-0.5308891826148243</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1"/>
       <c r="B375" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C375">
-        <v>1.395579041179973</v>
+        <v>-2.770446762758028</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="1"/>
+      <c r="A376" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B376" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C376">
-        <v>1.148089222972315</v>
+        <v>-0.3628382638616423</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1"/>
       <c r="B377" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C377">
-        <v>0.5178479809909931</v>
+        <v>0.3063328236023066</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1"/>
       <c r="B378" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C378">
-        <v>0.9324964901071597</v>
+        <v>1.748896991133631</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1"/>
       <c r="B379" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C379">
-        <v>-0.499903182230288</v>
+        <v>1.546656379193756</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1"/>
       <c r="B380" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C380">
-        <v>-2.240820166846846</v>
+        <v>1.829731624654896</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1"/>
       <c r="B381" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C381">
-        <v>-4.50901681270075</v>
+        <v>0.2230490722765266</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1"/>
       <c r="B382" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C382">
-        <v>4.434072873347539</v>
+        <v>-2.403292877982377</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1"/>
       <c r="B383" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C383">
-        <v>0.257667713081422</v>
+        <v>-7.736229504304227</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1"/>
       <c r="B384" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C384">
-        <v>-1.657897841328837</v>
+        <v>7.460162070372256</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1"/>
       <c r="B385" s="2">
-        <v>44287</v>
+        <v>44105</v>
       </c>
       <c r="C385">
-        <v>2.273459242952169</v>
+        <v>1.555230374673733</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A386" s="1"/>
       <c r="B386" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C386">
+        <v>1.714710154674082</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B387" s="2">
         <v>43282</v>
       </c>
-      <c r="C386">
-        <v>0.02948321100129103</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1"/>
-      <c r="B387" s="2">
-        <v>43374</v>
-      </c>
       <c r="C387">
-        <v>2.549496209173996</v>
+        <v>0.1074038640944464</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C388">
-        <v>0.6710222831813439</v>
+        <v>0.1071428634981109</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C389">
-        <v>0.7676124408704244</v>
+        <v>0.475874398763243</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C390">
-        <v>0.7026035319628976</v>
+        <v>-0.08379056298278842</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C391">
-        <v>1.358777913455045</v>
+        <v>0.4371565901948093</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C392">
-        <v>-1.514203296919325</v>
+        <v>-0.7197303102463026</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C393">
-        <v>-8.962991565097955</v>
+        <v>0.1437250286104419</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C394">
-        <v>11.25787291665643</v>
+        <v>-9.683354217053243</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C395">
-        <v>-2.161684076616355</v>
+        <v>7.767458299912211</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="2">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="C396">
-        <v>0.9911369210335863</v>
+        <v>1.247211941322024</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="2">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="C397">
-        <v>-1.342092266443118</v>
+        <v>2.062051974474799</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B398" s="2">
         <v>43282</v>
       </c>
       <c r="C398">
-        <v>1.961357631933414</v>
+        <v>-0.4535491688048565</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4185,7 +4191,7 @@
         <v>43374</v>
       </c>
       <c r="C399">
-        <v>0.8067518588817046</v>
+        <v>0.8624476166646078</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4194,7 +4200,7 @@
         <v>43466</v>
       </c>
       <c r="C400">
-        <v>0.7486033930613534</v>
+        <v>0.1220737896739932</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4203,7 +4209,7 @@
         <v>43556</v>
       </c>
       <c r="C401">
-        <v>0.1668134617637262</v>
+        <v>1.76502903844229</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4212,7 +4218,7 @@
         <v>43647</v>
       </c>
       <c r="C402">
-        <v>0.4553145866545316</v>
+        <v>-0.7223201916780275</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4221,7 +4227,7 @@
         <v>43739</v>
       </c>
       <c r="C403">
-        <v>0.437688884992582</v>
+        <v>2.240573110325528</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4230,7 +4236,7 @@
         <v>43831</v>
       </c>
       <c r="C404">
-        <v>-3.763507177880865</v>
+        <v>-3.858336649396932</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4239,7 +4245,7 @@
         <v>43922</v>
       </c>
       <c r="C405">
-        <v>-13.23042223575256</v>
+        <v>-8.432810863555762</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4248,7 +4254,7 @@
         <v>44013</v>
       </c>
       <c r="C406">
-        <v>13.01127155550543</v>
+        <v>9.852739238410525</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4257,7 +4263,7 @@
         <v>44105</v>
       </c>
       <c r="C407">
-        <v>-0.5308891826148243</v>
+        <v>0.03089829010338718</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4266,1275 +4272,864 @@
         <v>44197</v>
       </c>
       <c r="C408">
-        <v>-2.770446762758028</v>
+        <v>-1.887053965937668</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="1"/>
+      <c r="A409" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B409" s="2">
-        <v>44287</v>
+        <v>43282</v>
       </c>
       <c r="C409">
-        <v>1.135379017938698</v>
+        <v>2.628523837327457</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A410" s="1"/>
       <c r="B410" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C410">
-        <v>-0.3628382638616423</v>
+        <v>0.5855792293629758</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C411">
-        <v>0.3063328236023066</v>
+        <v>1.686354322723638</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C412">
-        <v>1.748896991133631</v>
+        <v>0.4228542550808845</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C413">
-        <v>1.546656379193756</v>
+        <v>0.3013823884706168</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C414">
-        <v>1.829731624654896</v>
+        <v>1.306835764202829</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C415">
-        <v>0.2230490722765266</v>
+        <v>-1.662030559981398</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C416">
-        <v>-2.403292877982377</v>
+        <v>-6.787798179574223</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C417">
-        <v>-7.736229504304227</v>
+        <v>9.238883155663746</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1"/>
       <c r="B418" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C418">
-        <v>7.460162070372256</v>
+        <v>-4.94894218755414</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C419">
-        <v>1.555230374673733</v>
+        <v>2.317876910701666</v>
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B420" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C420">
-        <v>1.714710154674082</v>
+        <v>-0.87285398833159</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="2">
-        <v>44287</v>
+        <v>43374</v>
       </c>
       <c r="C421">
-        <v>0.7790138908718491</v>
+        <v>0.01662188918696295</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A422" s="1"/>
       <c r="B422" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C422">
-        <v>0.1074038640944464</v>
+        <v>-0.09879750115630026</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1"/>
       <c r="B423" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C423">
-        <v>0.1071428634981109</v>
+        <v>0.9468126035637958</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1"/>
       <c r="B424" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C424">
-        <v>0.475874398763243</v>
+        <v>-0.5812584359389583</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1"/>
       <c r="B425" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C425">
-        <v>-0.08379056298278842</v>
+        <v>1.486025221382459</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1"/>
       <c r="B426" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C426">
-        <v>0.4371565901948093</v>
+        <v>-2.4950959694506</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1"/>
       <c r="B427" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C427">
-        <v>-0.7197303102463026</v>
+        <v>-16.56696977366725</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1"/>
       <c r="B428" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C428">
-        <v>0.1437250286104419</v>
+        <v>11.27527446602656</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1"/>
       <c r="B429" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C429">
-        <v>-9.683354217053243</v>
+        <v>3.971387958804984</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1"/>
       <c r="B430" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C430">
-        <v>7.767458299912211</v>
+        <v>-1.83948186189371</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B431" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C431">
-        <v>1.247211941322024</v>
+        <v>0.994226145103827</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1"/>
       <c r="B432" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C432">
-        <v>2.062051974474799</v>
+        <v>0.2278274121814583</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1"/>
       <c r="B433" s="2">
-        <v>44287</v>
+        <v>43466</v>
       </c>
       <c r="C433">
-        <v>2.039633546617092</v>
+        <v>0.3638105834207206</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A434" s="1"/>
       <c r="B434" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C434">
-        <v>-0.4535491688048565</v>
+        <v>0.9842854196329576</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C435">
-        <v>0.8624476166646078</v>
+        <v>0.2161777851201974</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C436">
-        <v>0.1220737896739932</v>
+        <v>0.4643590636292494</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C437">
-        <v>1.76502903844229</v>
+        <v>-4.577577449353088</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C438">
-        <v>-0.7223201916780275</v>
+        <v>-17.04939757801539</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C439">
-        <v>2.240573110325528</v>
+        <v>16.24728760723249</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C440">
-        <v>-3.858336649396932</v>
+        <v>0.5117019268365164</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C441">
-        <v>-8.432810863555762</v>
+        <v>0.5022402988429819</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B442" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C442">
-        <v>9.852739238410525</v>
+        <v>-0.2618854113959346</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C443">
-        <v>0.03089829010338718</v>
+        <v>0.6069595522540272</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C444">
-        <v>-1.887053965937668</v>
+        <v>0.4388997756200386</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="2">
-        <v>44287</v>
+        <v>43556</v>
       </c>
       <c r="C445">
-        <v>-1.188974516435892</v>
+        <v>1.088877238025732</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A446" s="1"/>
       <c r="B446" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C446">
-        <v>2.628523837327457</v>
+        <v>1.229895221172761</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C447">
-        <v>0.5855792293629758</v>
+        <v>-0.1348076906218743</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C448">
-        <v>1.686354322723638</v>
+        <v>-1.801069244191245</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C449">
-        <v>0.4228542550808845</v>
+        <v>-7.482069805602576</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1"/>
       <c r="B450" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C450">
-        <v>0.3013823884706168</v>
+        <v>5.006216593469137</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C451">
-        <v>1.306835764202829</v>
+        <v>2.845265389359919</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C452">
-        <v>-1.662030559981398</v>
+        <v>0.2122299888698054</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" s="1"/>
+      <c r="A453" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B453" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C453">
-        <v>-6.787798179574223</v>
+        <v>0.4645158442237562</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C454">
-        <v>9.238883155663746</v>
+        <v>0.04132686750604186</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C455">
-        <v>-4.94894218755414</v>
+        <v>-0.3940284608640265</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C456">
-        <v>2.317876910701666</v>
+        <v>0.6957526509588696</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="2">
-        <v>44287</v>
+        <v>43647</v>
       </c>
       <c r="C457">
-        <v>-2.819732341362358</v>
+        <v>0.1480398119499737</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A458" s="1"/>
       <c r="B458" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C458">
-        <v>-0.87285398833159</v>
+        <v>1.025851623150831</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C459">
-        <v>0.01662188918696295</v>
+        <v>-2.008517140693233</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C460">
-        <v>-0.09879750115630026</v>
+        <v>-7.956862533315501</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C461">
-        <v>0.9468126035637958</v>
+        <v>8.579170214184595</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C462">
-        <v>-0.5812584359389583</v>
+        <v>-0.5085182085950768</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C463">
-        <v>1.486025221382459</v>
+        <v>-0.6245013999253812</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B464" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C464">
-        <v>-2.4950959694506</v>
+        <v>-3.251094083402839</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C465">
-        <v>-16.56696977366725</v>
+        <v>2.282034733788585</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1"/>
       <c r="B466" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C466">
-        <v>11.27527446602656</v>
+        <v>1.069492469393674</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C467">
-        <v>3.971387958804984</v>
+        <v>2.714808240680777</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C468">
-        <v>-1.83948186189371</v>
+        <v>1.062689421665075</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C469">
-        <v>2.272145041375628</v>
+        <v>2.585874763846063</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A470" s="1"/>
       <c r="B470" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C470">
-        <v>0.994226145103827</v>
+        <v>0.5171059561738689</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1"/>
       <c r="B471" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C471">
-        <v>0.2278274121814583</v>
+        <v>-9.485439069841616</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1"/>
       <c r="B472" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C472">
-        <v>0.3638105834207206</v>
+        <v>8.483587577330876</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1"/>
       <c r="B473" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C473">
-        <v>0.9842854196329576</v>
+        <v>-1.40635531828035</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1"/>
       <c r="B474" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C474">
-        <v>0.2161777851201974</v>
+        <v>0.8265600023269259</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B475" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C475">
-        <v>0.4643590636292494</v>
+        <v>0.2185603696728711</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1"/>
       <c r="B476" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C476">
-        <v>-4.577577449353088</v>
+        <v>0.2975692701086219</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1"/>
       <c r="B477" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C477">
-        <v>-17.04939757801539</v>
+        <v>0.3789500757664266</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1"/>
       <c r="B478" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C478">
-        <v>16.24728760723249</v>
+        <v>0.130088393929273</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1"/>
       <c r="B479" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C479">
-        <v>0.5117019268365164</v>
+        <v>-0.2940223767154748</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1"/>
       <c r="B480" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C480">
-        <v>0.5022402988429819</v>
+        <v>0.05679741550936868</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1"/>
       <c r="B481" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="C481">
-        <v>2.947348464236277</v>
+        <v>-2.821902077827743</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A482" s="1"/>
       <c r="B482" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C482">
-        <v>-0.2618854113959346</v>
+        <v>-16.11179252906026</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1"/>
       <c r="B483" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C483">
-        <v>0.6069595522540272</v>
+        <v>14.23282144660063</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1"/>
       <c r="B484" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C484">
-        <v>0.4388997756200386</v>
+        <v>0.1763469007630469</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1"/>
       <c r="B485" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C485">
-        <v>1.088877238025732</v>
+        <v>-1.948701503546146</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B486" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C486">
-        <v>1.229895221172761</v>
+        <v>0.6530464020055637</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1"/>
       <c r="B487" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C487">
-        <v>-0.1348076906218743</v>
+        <v>0.4779791012702983</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1"/>
       <c r="B488" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C488">
-        <v>-1.801069244191245</v>
+        <v>0.7934706777334544</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1"/>
       <c r="B489" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C489">
-        <v>-7.482069805602576</v>
+        <v>0.3470801765482312</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1"/>
       <c r="B490" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C490">
-        <v>5.006216593469137</v>
+        <v>0.6646355242213797</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1"/>
       <c r="B491" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C491">
-        <v>2.845265389359919</v>
+        <v>-0.03468687581997809</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1"/>
       <c r="B492" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C492">
-        <v>0.2122299888698054</v>
+        <v>-0.6052151927622762</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1"/>
       <c r="B493" s="2">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="C493">
-        <v>2.626310183112768</v>
+        <v>-8.723479523677169</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A494" s="1"/>
       <c r="B494" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C494">
-        <v>0.4645158442237562</v>
+        <v>6.31826160845399</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1"/>
       <c r="B495" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C495">
-        <v>0.04132686750604186</v>
+        <v>2.686553660051816</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1"/>
       <c r="B496" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C496">
-        <v>-0.3940284608640265</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="A497" s="1"/>
-      <c r="B497" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C497">
-        <v>0.6957526509588696</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="A498" s="1"/>
-      <c r="B498" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C498">
-        <v>0.1480398119499737</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="A499" s="1"/>
-      <c r="B499" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C499">
-        <v>1.025851623150831</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="1"/>
-      <c r="B500" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C500">
-        <v>-2.008517140693233</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
-      <c r="A501" s="1"/>
-      <c r="B501" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C501">
-        <v>-7.956862533315501</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1"/>
-      <c r="B502" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C502">
-        <v>8.579170214184595</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" s="1"/>
-      <c r="B503" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C503">
-        <v>-0.5085182085950768</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="1"/>
-      <c r="B504" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C504">
-        <v>-0.6245013999253812</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="1"/>
-      <c r="B505" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C505">
-        <v>0.4541942458912374</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B506" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C506">
-        <v>-3.251094083402839</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" s="1"/>
-      <c r="B507" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C507">
-        <v>2.282034733788585</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="A508" s="1"/>
-      <c r="B508" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C508">
-        <v>1.069492469393674</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="A509" s="1"/>
-      <c r="B509" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C509">
-        <v>2.714808240680777</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="A510" s="1"/>
-      <c r="B510" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C510">
-        <v>1.062689421665075</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
-      <c r="A511" s="1"/>
-      <c r="B511" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C511">
-        <v>2.585874763846063</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="A512" s="1"/>
-      <c r="B512" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C512">
-        <v>0.5171059561738689</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="1"/>
-      <c r="B513" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C513">
-        <v>-9.485439069841616</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="1"/>
-      <c r="B514" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C514">
-        <v>8.483587577330876</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1"/>
-      <c r="B515" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C515">
-        <v>-1.40635531828035</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="A516" s="1"/>
-      <c r="B516" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C516">
-        <v>0.8265600023269259</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
-      <c r="A517" s="1"/>
-      <c r="B517" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C517">
-        <v>1.151683144853988</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="A518" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B518" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C518">
-        <v>0.2185603696728711</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="A519" s="1"/>
-      <c r="B519" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C519">
-        <v>0.2975692701086219</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="1"/>
-      <c r="B520" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C520">
-        <v>0.3789500757664266</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="A521" s="1"/>
-      <c r="B521" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C521">
-        <v>0.130088393929273</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
-      <c r="A522" s="1"/>
-      <c r="B522" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C522">
-        <v>-0.2940223767154748</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
-      <c r="A523" s="1"/>
-      <c r="B523" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C523">
-        <v>0.05679741550936868</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1"/>
-      <c r="B524" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C524">
-        <v>-2.821902077827743</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1"/>
-      <c r="B525" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C525">
-        <v>-16.11179252906026</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1"/>
-      <c r="B526" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C526">
-        <v>14.23282144660063</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1"/>
-      <c r="B527" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C527">
-        <v>0.1763469007630469</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1"/>
-      <c r="B528" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C528">
-        <v>-1.948701503546146</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="1"/>
-      <c r="B529" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C529">
-        <v>4.397765876162429</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B530" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C530">
-        <v>0.6530464020055637</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="1"/>
-      <c r="B531" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C531">
-        <v>0.4779791012702983</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="1"/>
-      <c r="B532" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C532">
-        <v>0.7934706777334544</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1"/>
-      <c r="B533" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C533">
-        <v>0.3470801765482312</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
-      <c r="A534" s="1"/>
-      <c r="B534" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C534">
-        <v>0.6646355242213797</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="1"/>
-      <c r="B535" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C535">
-        <v>-0.03468687581997809</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
-      <c r="A536" s="1"/>
-      <c r="B536" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C536">
-        <v>-0.6052151927622762</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3">
-      <c r="A537" s="1"/>
-      <c r="B537" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C537">
-        <v>-8.723479523677169</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" s="1"/>
-      <c r="B538" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C538">
-        <v>6.31826160845399</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3">
-      <c r="A539" s="1"/>
-      <c r="B539" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C539">
-        <v>2.686553660051816</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
-      <c r="A540" s="1"/>
-      <c r="B540" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C540">
         <v>1.007856342295899</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
-      <c r="A541" s="1"/>
-      <c r="B541" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C541">
-        <v>2.047490643144467</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A74:A85"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="A98:A109"/>
-    <mergeCell ref="A110:A121"/>
-    <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A242:A253"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A266:A277"/>
-    <mergeCell ref="A278:A289"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A302:A313"/>
-    <mergeCell ref="A314:A325"/>
-    <mergeCell ref="A326:A337"/>
-    <mergeCell ref="A338:A349"/>
-    <mergeCell ref="A350:A361"/>
-    <mergeCell ref="A362:A373"/>
-    <mergeCell ref="A374:A385"/>
-    <mergeCell ref="A386:A397"/>
-    <mergeCell ref="A398:A409"/>
-    <mergeCell ref="A410:A421"/>
-    <mergeCell ref="A422:A433"/>
-    <mergeCell ref="A434:A445"/>
-    <mergeCell ref="A446:A457"/>
-    <mergeCell ref="A458:A469"/>
-    <mergeCell ref="A470:A481"/>
-    <mergeCell ref="A482:A493"/>
-    <mergeCell ref="A494:A505"/>
-    <mergeCell ref="A506:A517"/>
-    <mergeCell ref="A518:A529"/>
-    <mergeCell ref="A530:A541"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="A200:A210"/>
+    <mergeCell ref="A211:A221"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="A244:A254"/>
+    <mergeCell ref="A255:A265"/>
+    <mergeCell ref="A266:A276"/>
+    <mergeCell ref="A277:A287"/>
+    <mergeCell ref="A288:A298"/>
+    <mergeCell ref="A299:A309"/>
+    <mergeCell ref="A310:A320"/>
+    <mergeCell ref="A321:A331"/>
+    <mergeCell ref="A332:A342"/>
+    <mergeCell ref="A343:A353"/>
+    <mergeCell ref="A354:A364"/>
+    <mergeCell ref="A365:A375"/>
+    <mergeCell ref="A376:A386"/>
+    <mergeCell ref="A387:A397"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A409:A419"/>
+    <mergeCell ref="A420:A430"/>
+    <mergeCell ref="A431:A441"/>
+    <mergeCell ref="A442:A452"/>
+    <mergeCell ref="A453:A463"/>
+    <mergeCell ref="A464:A474"/>
+    <mergeCell ref="A475:A485"/>
+    <mergeCell ref="A486:A496"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +546,7 @@
         <v>43282</v>
       </c>
       <c r="C2">
-        <v>-1.516981522955163</v>
+        <v>-0.8830533524831985</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43374</v>
       </c>
       <c r="C3">
-        <v>0.4207532693102367</v>
+        <v>-0.3744178644400575</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>43466</v>
       </c>
       <c r="C4">
-        <v>1.622238674574339</v>
+        <v>1.150826539837202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>43556</v>
       </c>
       <c r="C5">
-        <v>-0.6974611146227327</v>
+        <v>1.194333689501481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>43647</v>
       </c>
       <c r="C6">
-        <v>1.850146308186784</v>
+        <v>0.3971290752735834</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>43739</v>
       </c>
       <c r="C7">
-        <v>0.8230751319646457</v>
+        <v>1.225933655502343</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,7 +600,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-2.384643436188172</v>
+        <v>-4.804829721126991</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +609,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-19.22058619086028</v>
+        <v>-18.09671774551828</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>9.27111489384005</v>
+        <v>9.540902149195718</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +627,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>3.046804677390025</v>
+        <v>3.157672967862468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -636,1129 +636,1127 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.1671702757454</v>
+        <v>3.4875412212938</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C13">
+        <v>-0.644291949002973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>43282</v>
       </c>
-      <c r="C13">
-        <v>0.3416770290869398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <v>43374</v>
-      </c>
       <c r="C14">
-        <v>0.7642493811873985</v>
+        <v>0.07147025370328741</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C15">
-        <v>0.6461612568382957</v>
+        <v>1.250195029902446</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C16">
-        <v>0.1538401102753717</v>
+        <v>-0.2127744324151082</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C17">
-        <v>0.496445473918361</v>
+        <v>0.5050799417517737</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C18">
-        <v>0.1363215300821841</v>
+        <v>0.5186536125347585</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C19">
-        <v>-1.790136432927802</v>
+        <v>0.1120830237334003</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.948624172176676</v>
+        <v>-2.471832318640033</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C21">
-        <v>5.814246102128373</v>
+        <v>-5.002253055499928</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C22">
-        <v>3.032990424317838</v>
+        <v>4.465068003712913</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C23">
+        <v>3.233249636508573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
         <v>44197</v>
       </c>
-      <c r="C23">
-        <v>1.625197664505373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43282</v>
-      </c>
       <c r="C24">
-        <v>1.339245094028252</v>
+        <v>2.650943688167895</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>43374</v>
+        <v>44287</v>
       </c>
       <c r="C25">
-        <v>0.6371759604437699</v>
+        <v>3.400514781502362</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B26" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C26">
-        <v>0.4547076017454632</v>
+        <v>0.8538563939057164</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C27">
-        <v>0.7107660697390106</v>
+        <v>0.25047650365837</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C28">
-        <v>0.7369148266964443</v>
+        <v>0.8675241765343511</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C29">
-        <v>-0.7880539467105763</v>
+        <v>0.05931156113008207</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C30">
-        <v>-2.373051664443715</v>
+        <v>-0.4607235493314876</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C31">
-        <v>-9.958285719044003</v>
+        <v>0.9786578079887809</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C32">
-        <v>9.036829807958435</v>
+        <v>-4.597442086302306</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C33">
-        <v>-0.7745145426713007</v>
+        <v>-7.150451287560156</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C34">
-        <v>-0.04665549321352103</v>
+        <v>7.803675718248915</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C35">
-        <v>-0.07229173484527562</v>
+        <v>-1.611347324217371</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C36">
-        <v>-0.282003259388075</v>
+        <v>0.02459203582712011</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
-        <v>43466</v>
+        <v>44287</v>
       </c>
       <c r="C37">
-        <v>0.8740051690597328</v>
+        <v>1.402992609462173</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B38" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C38">
-        <v>0.8163412187732533</v>
+        <v>0.5139438218061843</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C39">
-        <v>-0.5218609054460588</v>
+        <v>0.07996980271589571</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C40">
-        <v>-0.0344186042853134</v>
+        <v>-0.1266210385990285</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C41">
-        <v>-1.963005397179118</v>
+        <v>0.6646387572858625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C42">
-        <v>-13.03519753737786</v>
+        <v>-0.4027861759389184</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C43">
-        <v>11.28605796532067</v>
+        <v>0.6450657504072144</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C44">
-        <v>-0.1140604473244822</v>
+        <v>-4.252579954695279</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C45">
-        <v>0.1490943462685079</v>
+        <v>-10.25255384451637</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C46">
-        <v>-0.03204210887423065</v>
+        <v>10.68813741696004</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C47">
-        <v>-0.1615271252636274</v>
+        <v>-1.406719712185445</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C48">
-        <v>0.4697125805236846</v>
+        <v>0.6157508186148908</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
-        <v>43556</v>
+        <v>44287</v>
       </c>
       <c r="C49">
-        <v>0.581124676836553</v>
+        <v>0.05550264824192297</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B50" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C50">
-        <v>-0.4041526914269067</v>
+        <v>-0.2555967685190397</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C51">
-        <v>0.4092892964337791</v>
+        <v>0.2918611390409387</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C52">
-        <v>-0.8084485577491418</v>
+        <v>0.8565745877693987</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C53">
-        <v>-10.6322399349449</v>
+        <v>-0.1440949808567349</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C54">
-        <v>8.652932296872763</v>
+        <v>-0.4914988459499781</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C55">
-        <v>2.993866128354084</v>
+        <v>0.7787490139560482</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C56">
-        <v>-0.2360112650876101</v>
+        <v>-2.119967837205827</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C57">
-        <v>-1.20259606423746</v>
+        <v>-9.958891175671846</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C58">
-        <v>1.08175955963532</v>
+        <v>8.729377837617047</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C59">
-        <v>0.7765789651232202</v>
+        <v>3.540271487085045</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.6844813517620452</v>
+        <v>-0.7068263605403913</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
-        <v>43647</v>
+        <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.405239608152353</v>
+        <v>-3.552391615305128</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B62" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C62">
-        <v>-2.039464872882346</v>
+        <v>0.09115475637293535</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C63">
-        <v>-3.011283827594835</v>
+        <v>0.5374958961001486</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C64">
-        <v>-9.172153156847596</v>
+        <v>1.504415377084634</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C65">
-        <v>12.37444624977917</v>
+        <v>-0.6632137846190767</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C66">
-        <v>-1.078336667014257</v>
+        <v>1.872651699035544</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C67">
-        <v>4.862057946978737</v>
+        <v>-2.209815825956507</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C68">
-        <v>0.9667920911680339</v>
+        <v>-3.901594789637253</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1"/>
       <c r="B69" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C69">
-        <v>0.09286545209570285</v>
+        <v>-8.369912300298221</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C70">
-        <v>1.098647320089818</v>
+        <v>10.49279772977942</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C71">
-        <v>0.3784114597700228</v>
+        <v>-0.5827056258437824</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C72">
-        <v>0.1437595256641222</v>
+        <v>4.992969857022422</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="2">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C73">
-        <v>-0.1376696814114564</v>
+        <v>1.164019031213681</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B74" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C74">
-        <v>-1.250202615437224</v>
+        <v>1.257697997899565</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C75">
-        <v>-11.11710430497322</v>
+        <v>-0.06509585910247084</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C76">
-        <v>9.030066553001959</v>
+        <v>0.9104660876407822</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C77">
-        <v>0.6785394322665894</v>
+        <v>0.7482623809393241</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C78">
-        <v>-0.3011407545739919</v>
+        <v>-0.007439576061318842</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C79">
-        <v>0.3959916704929789</v>
+        <v>0.07022815024961826</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1"/>
       <c r="B80" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C80">
-        <v>0.3177186581146074</v>
+        <v>-2.607998641344322</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1"/>
       <c r="B81" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C81">
-        <v>-0.02352838471748608</v>
+        <v>-9.610280766494839</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1"/>
       <c r="B82" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C82">
-        <v>0.2223802780193962</v>
+        <v>8.082628795935044</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C83">
-        <v>2.305298506862052</v>
+        <v>1.078595960448947</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C84">
-        <v>-1.844905095627725</v>
+        <v>0.02470967057386364</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1"/>
       <c r="B85" s="2">
-        <v>43831</v>
+        <v>44287</v>
       </c>
       <c r="C85">
-        <v>0.3202823538112298</v>
+        <v>1.796240356037004</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B86" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C86">
-        <v>-12.38946199580678</v>
+        <v>0.2449482390181057</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C87">
-        <v>7.351726232464872</v>
+        <v>0.4147517078594065</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C88">
-        <v>6.445686781297089</v>
+        <v>0.9269560539637567</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C89">
-        <v>-1.283924175659568</v>
+        <v>0.312743893822609</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C90">
-        <v>1.517212308856819</v>
+        <v>1.590787093060086</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C91">
-        <v>1.368379045562729</v>
+        <v>-1.554804745389859</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1"/>
       <c r="B92" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C92">
-        <v>-0.8756530594897671</v>
+        <v>-0.7877536905433691</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1"/>
       <c r="B93" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C93">
-        <v>0.6059524811922401</v>
+        <v>-12.02530159742155</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1"/>
       <c r="B94" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C94">
-        <v>1.195013193803551</v>
+        <v>7.985299124254186</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1"/>
       <c r="B95" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C95">
-        <v>-0.9618675690720169</v>
+        <v>6.788428758178267</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1"/>
       <c r="B96" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C96">
-        <v>-1.595942128836825</v>
+        <v>-2.003749902842278</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1"/>
       <c r="B97" s="2">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C97">
-        <v>-11.86031326232494</v>
+        <v>-5.217586278698827</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B98" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C98">
-        <v>8.914964133517355</v>
+        <v>1.625035580052514</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C99">
-        <v>5.082531796894352</v>
+        <v>1.255506908623749</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C100">
-        <v>0.4564075105730314</v>
+        <v>-1.145011449557687</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C101">
-        <v>0.7428661709700135</v>
+        <v>1.983452794133056</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C102">
-        <v>0.2367748973616912</v>
+        <v>0.3087166986779355</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C103">
-        <v>0.8547933576813938</v>
+        <v>0.3200041487138039</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1"/>
       <c r="B104" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C104">
-        <v>3.054052515224726</v>
+        <v>-4.08543508933763</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
       <c r="B105" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C105">
-        <v>-1.199092558829695</v>
+        <v>-10.96114371008287</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C106">
-        <v>0.7541909195729168</v>
+        <v>8.180865392539838</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1"/>
       <c r="B107" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C107">
-        <v>-1.60408850615994</v>
+        <v>5.687823145430837</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
       <c r="B108" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C108">
-        <v>-7.998574681512116</v>
+        <v>-0.28858885970382</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="2">
-        <v>44013</v>
+        <v>44287</v>
       </c>
       <c r="C109">
-        <v>7.831691588444811</v>
+        <v>1.158460861036525</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B110" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C110">
-        <v>-2.426261558562404</v>
+        <v>0.1753616354903453</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C111">
-        <v>0.5763420354802262</v>
+        <v>1.061717856173194</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C112">
-        <v>1.181271241407322</v>
+        <v>0.5133281775217879</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C113">
-        <v>0.00173116027559761</v>
+        <v>3.332594124235966</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C114">
-        <v>-0.3378751203036323</v>
+        <v>-1.19018314294731</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C115">
-        <v>1.316115794027573</v>
+        <v>0.3452127564542717</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1"/>
       <c r="B116" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C116">
-        <v>-1.038537317105881</v>
+        <v>-3.803366954731724</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1"/>
       <c r="B117" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C117">
-        <v>1.125167352516776</v>
+        <v>-5.80739753889814</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1"/>
       <c r="B118" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.8102112063856581</v>
+        <v>7.673974490271473</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1"/>
       <c r="B119" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C119">
-        <v>-6.479966327510134</v>
+        <v>-3.05559378875776</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1"/>
       <c r="B120" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C120">
-        <v>5.062018510563737</v>
+        <v>-0.7135308184723743</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1"/>
       <c r="B121" s="2">
-        <v>44105</v>
+        <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.2597466164422135</v>
+        <v>1.7130722129576</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B122" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C122">
-        <v>0.8353765658615231</v>
+        <v>1.413814604142249</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C123">
-        <v>-0.6030583237148002</v>
+        <v>0.4436335140041825</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C124">
-        <v>0.06209765277027657</v>
+        <v>-0.6135614508065323</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C125">
-        <v>3.976585770451857</v>
+        <v>1.237584523634205</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C126">
-        <v>0.2681900587467645</v>
+        <v>-0.9146449955196756</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C127">
-        <v>0.8812975498915465</v>
+        <v>0.3431105737945472</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C128">
-        <v>0.6047502046980346</v>
+        <v>-1.867403850630245</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1"/>
       <c r="B129" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C129">
-        <v>-3.510489965980634</v>
+        <v>-4.191625887715212</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1"/>
       <c r="B130" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C130">
-        <v>-4.631688691250224</v>
+        <v>3.775948074833768</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1"/>
       <c r="B131" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C131">
-        <v>4.116307297892119</v>
+        <v>0.4102944495795846</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1"/>
       <c r="B132" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C132">
-        <v>4.971045262076657</v>
+        <v>1.02392067392465</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1"/>
       <c r="B133" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C133">
-        <v>-1.601956101715696</v>
+        <v>1.211072205937147</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" s="2">
         <v>43282</v>
       </c>
       <c r="C134">
-        <v>-0.7083406273628357</v>
+        <v>-1.612873464489328</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1767,7 +1765,7 @@
         <v>43374</v>
       </c>
       <c r="C135">
-        <v>0.931714212638779</v>
+        <v>-0.1718430666989956</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1776,7 +1774,7 @@
         <v>43466</v>
       </c>
       <c r="C136">
-        <v>-0.2915564881480814</v>
+        <v>3.281319434227425</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1785,7 +1783,7 @@
         <v>43556</v>
       </c>
       <c r="C137">
-        <v>0.7433984535595517</v>
+        <v>0.3972161489029347</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1794,7 +1792,7 @@
         <v>43647</v>
       </c>
       <c r="C138">
-        <v>1.739419478005311</v>
+        <v>1.751225508046272</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1803,7 +1801,7 @@
         <v>43739</v>
       </c>
       <c r="C139">
-        <v>-0.9124086764113581</v>
+        <v>-0.0810556357861425</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1812,7 +1810,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-0.4703452360732885</v>
+        <v>-3.140060036395054</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1821,7 +1819,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-6.862639775940361</v>
+        <v>-3.801294533894295</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1830,7 +1828,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>5.347640972194667</v>
+        <v>3.833322439781051</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1839,7 +1837,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>-0.2085874161835366</v>
+        <v>2.594584348650253</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1848,1129 +1846,1127 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>-0.3700157448619623</v>
+        <v>1.701290420850099</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C145">
+        <v>3.70015785862563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="2">
         <v>43282</v>
       </c>
-      <c r="C145">
-        <v>0.2163099117096889</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2">
-        <v>43374</v>
-      </c>
       <c r="C146">
-        <v>-0.1034961103159482</v>
+        <v>0.7383765617928084</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C147">
-        <v>0.6171669448669759</v>
+        <v>-1.282298263798187</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C148">
-        <v>0.2628024570963561</v>
+        <v>0.2663264965849566</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C149">
-        <v>0.4897264634974086</v>
+        <v>0.9064374742999259</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C150">
-        <v>0.1104486578132446</v>
+        <v>1.61117977301839</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C151">
-        <v>-4.074090508042961</v>
+        <v>-0.8160973236374658</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1"/>
       <c r="B152" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C152">
-        <v>-14.90601540362711</v>
+        <v>-0.7909439872946011</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1"/>
       <c r="B153" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C153">
-        <v>17.21339990330621</v>
+        <v>-4.602976086534949</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1"/>
       <c r="B154" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C154">
-        <v>-2.229331997289397</v>
+        <v>2.652961631410222</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1"/>
       <c r="B155" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C155">
+        <v>1.119142107746862</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2">
         <v>44197</v>
       </c>
-      <c r="C155">
-        <v>0.8244682743481446</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156" s="2">
-        <v>43282</v>
-      </c>
       <c r="C156">
-        <v>0.3285417887125108</v>
+        <v>0.08339145197036046</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1"/>
       <c r="B157" s="2">
-        <v>43374</v>
+        <v>44287</v>
       </c>
       <c r="C157">
-        <v>0.5259624810697083</v>
+        <v>-1.210903794732499</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B158" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C158">
-        <v>1.11128074761242</v>
+        <v>0.02233835934364325</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C159">
-        <v>0.2221029469761993</v>
+        <v>0.6580065458612339</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C160">
-        <v>0.6068197211583914</v>
+        <v>0.1823949497478106</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C161">
-        <v>-0.009154331897920365</v>
+        <v>-0.0761250329288754</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C162">
-        <v>-2.297520154099308</v>
+        <v>0.5927906824302775</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C163">
-        <v>-9.611548069978415</v>
+        <v>0.3799457673908435</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1"/>
       <c r="B164" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C164">
-        <v>7.44935698854241</v>
+        <v>-6.220212897270372</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1"/>
       <c r="B165" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C165">
-        <v>-1.017178031245702</v>
+        <v>-12.20066353800671</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1"/>
       <c r="B166" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C166">
-        <v>-1.5015975485413</v>
+        <v>15.67805434260623</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C167">
-        <v>-1.130665859604341</v>
+        <v>-2.119403394506159</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1"/>
       <c r="B168" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C168">
-        <v>0.8084554417203238</v>
+        <v>0.5236533163672119</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1"/>
       <c r="B169" s="2">
-        <v>43466</v>
+        <v>44287</v>
       </c>
       <c r="C169">
-        <v>-0.1908235152715321</v>
+        <v>-4.630258865807235</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B170" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C170">
-        <v>1.001431080940551</v>
+        <v>0.01969903440941501</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C171">
-        <v>0.173581730977368</v>
+        <v>0.7337428361221754</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C172">
-        <v>-1.080801130786746</v>
+        <v>0.6195051057214629</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C173">
-        <v>-3.042065644644421</v>
+        <v>0.4077531379271582</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C174">
-        <v>-11.37145478038917</v>
+        <v>0.632951108678359</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C175">
-        <v>8.063641085923546</v>
+        <v>0.3331159298108455</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1"/>
       <c r="B176" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C176">
-        <v>1.549305400803225</v>
+        <v>-4.231504282487997</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1"/>
       <c r="B177" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C177">
-        <v>0.1951306792394414</v>
+        <v>-7.835910316094674</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C178">
-        <v>0.6788486322912624</v>
+        <v>6.97338383573034</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1"/>
       <c r="B179" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C179">
-        <v>-0.04667245768057438</v>
+        <v>-1.092370713070745</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1"/>
       <c r="B180" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C180">
-        <v>1.166505745410085</v>
+        <v>-1.393378281211477</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1"/>
       <c r="B181" s="2">
-        <v>43556</v>
+        <v>44287</v>
       </c>
       <c r="C181">
-        <v>1.395866693423842</v>
+        <v>0.8208721029989707</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B182" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C182">
-        <v>-0.05879160840150943</v>
+        <v>-0.08706043582975553</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C183">
-        <v>0.9793156301703521</v>
+        <v>0.3791901025522293</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C184">
-        <v>-1.016419558039572</v>
+        <v>-0.02187429647575456</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C185">
-        <v>-9.232134969559723</v>
+        <v>0.7864065146458765</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C186">
-        <v>7.977564815408833</v>
+        <v>0.3719566751869241</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C187">
-        <v>-0.1490428015418765</v>
+        <v>-1.247455032217348</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1"/>
       <c r="B188" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C188">
-        <v>2.364375452557654</v>
+        <v>-4.198816967650087</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C189">
-        <v>3.204103480403786</v>
+        <v>-10.22931675600896</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1"/>
       <c r="B190" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C190">
-        <v>3.442440519083068</v>
+        <v>7.583326767529264</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1"/>
       <c r="B191" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C191">
-        <v>-4.596574372389306</v>
+        <v>0.8213834122139385</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1"/>
       <c r="B192" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.9474965407650915</v>
+        <v>0.4376343062808319</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1"/>
       <c r="B193" s="2">
-        <v>43647</v>
+        <v>44287</v>
       </c>
       <c r="C193">
-        <v>2.320012225076451</v>
+        <v>3.427727953771442</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B194" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C194">
-        <v>0.4347271871532499</v>
+        <v>1.046315268584497</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C195">
-        <v>-4.186010476772006</v>
+        <v>-0.1952648707654769</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C196">
-        <v>-7.781320706360906</v>
+        <v>0.493344002819085</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C197">
-        <v>-1.698983461039771</v>
+        <v>1.062837770353831</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C198">
-        <v>8.793160917264832</v>
+        <v>0.2581355842798061</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C199">
-        <v>-0.2934629493195784</v>
+        <v>1.640934106520819</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C200">
-        <v>1.256329997797501</v>
+        <v>-2.500916574794032</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1"/>
       <c r="B201" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C201">
-        <v>2.466217113198788</v>
+        <v>-8.288367964094256</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1"/>
       <c r="B202" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C202">
-        <v>-1.021323425298415</v>
+        <v>7.998425343161553</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1"/>
       <c r="B203" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C203">
-        <v>2.465670841669243</v>
+        <v>-1.729194834204506</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1"/>
       <c r="B204" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.1473252782233647</v>
+        <v>2.375856715924862</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1"/>
       <c r="B205" s="2">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C205">
-        <v>1.190045765111258</v>
+        <v>0.5563672809012488</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B206" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C206">
-        <v>1.371031507235276</v>
+        <v>4.11499176125576</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C207">
-        <v>-19.4464421995492</v>
+        <v>2.002380577593676</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C208">
-        <v>14.81800306847365</v>
+        <v>-4.984725300752791</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C209">
-        <v>7.191635919019013</v>
+        <v>0.7054657648538853</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C210">
-        <v>3.422064961259808</v>
+        <v>2.642667488760919</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A211" s="1"/>
       <c r="B211" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C211">
-        <v>0.05254099860774186</v>
+        <v>-1.286027563160874</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1"/>
       <c r="B212" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C212">
-        <v>1.54506936767691</v>
+        <v>-2.052212768060957</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1"/>
       <c r="B213" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C213">
-        <v>1.093408242711269</v>
+        <v>-5.089866992862313</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1"/>
       <c r="B214" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C214">
-        <v>1.910273074756219</v>
+        <v>2.756210954635541</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1"/>
       <c r="B215" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C215">
-        <v>0.7162379257207752</v>
+        <v>0.3457410589847498</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1"/>
       <c r="B216" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C216">
-        <v>0.9628902704611253</v>
+        <v>2.311618696074813</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1"/>
       <c r="B217" s="2">
-        <v>43831</v>
+        <v>44287</v>
       </c>
       <c r="C217">
-        <v>0.5111376987072536</v>
+        <v>3.217622006004883</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B218" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C218">
-        <v>-8.927836020051105</v>
+        <v>1.184752455031357</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C219">
-        <v>3.177579043524359</v>
+        <v>2.302072557847712</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C220">
-        <v>2.906481224144564</v>
+        <v>-0.7020294151429574</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C221">
-        <v>1.791544115629073</v>
+        <v>2.133386653602809</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C222">
-        <v>-0.5805633227614848</v>
+        <v>-0.6810819912710486</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C223">
-        <v>13.87559727892287</v>
+        <v>1.670420923790172</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1"/>
       <c r="B224" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C224">
-        <v>-7.057490661238197</v>
+        <v>-0.8579222928684183</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1"/>
       <c r="B225" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C225">
-        <v>1.958536784082732</v>
+        <v>-17.57276091813985</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1"/>
       <c r="B226" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C226">
-        <v>5.336636437454945</v>
+        <v>13.87055916228892</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1"/>
       <c r="B227" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C227">
-        <v>4.519883524330948</v>
+        <v>7.576888019101191</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1"/>
       <c r="B228" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C228">
-        <v>-3.499395427084862</v>
+        <v>4.132188280572735</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1"/>
       <c r="B229" s="2">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C229">
-        <v>-9.489186377740888</v>
+        <v>-1.568174038714065</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B230" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C230">
-        <v>11.30911494562898</v>
+        <v>0.1646092449178349</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C231">
-        <v>0.4251957938292028</v>
+        <v>1.800619690415317</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C232">
-        <v>-1.742411575285152</v>
+        <v>0.772045717161074</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="B233" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C233">
-        <v>3.229696240498359</v>
+        <v>1.806497506259808</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C234">
-        <v>-0.07880778678882594</v>
+        <v>0.1376418427332826</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C235">
-        <v>-0.7043766785831518</v>
+        <v>0.9625774832550782</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1"/>
       <c r="B236" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C236">
-        <v>0.2233287176629739</v>
+        <v>0.278468511460872</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1"/>
       <c r="B237" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C237">
-        <v>1.79027990688041</v>
+        <v>-10.06301225541242</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1"/>
       <c r="B238" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C238">
-        <v>0.8134647136690321</v>
+        <v>4.393478437581044</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1"/>
       <c r="B239" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C239">
-        <v>-2.115477434650126</v>
+        <v>2.957021086567213</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1"/>
       <c r="B240" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C240">
-        <v>-7.670676771051566</v>
+        <v>2.565314150723585</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="2">
-        <v>44013</v>
+        <v>44287</v>
       </c>
       <c r="C241">
-        <v>4.575765788645758</v>
+        <v>0.5456332264924812</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B242" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C242">
-        <v>2.014805506140038</v>
+        <v>-1.275107581144119</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C243">
-        <v>2.59763936697488</v>
+        <v>13.25132355502627</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A244" s="1"/>
       <c r="B244" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C244">
-        <v>1.056885414081554</v>
+        <v>-6.747636773302745</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C245">
-        <v>-0.4734124514165661</v>
+        <v>3.150104566127587</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C246">
-        <v>-0.4073219664720851</v>
+        <v>4.336498189142968</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C247">
-        <v>0.4131946320114377</v>
+        <v>4.736953255966836</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C248">
-        <v>0.03905815478568719</v>
+        <v>-5.130879776170105</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C249">
-        <v>0.8987535598907304</v>
+        <v>-6.619967131633042</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C250">
-        <v>-7.134388566422967</v>
+        <v>9.454840868679138</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C251">
-        <v>-13.71833462211472</v>
+        <v>0.1097073515049063</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C252">
-        <v>17.15435768828801</v>
+        <v>-1.939804459840233</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="2">
-        <v>44105</v>
+        <v>44287</v>
       </c>
       <c r="C253">
-        <v>-2.94114642567066</v>
+        <v>5.364239771804868</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B254" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C254">
-        <v>-0.1133723112212714</v>
+        <v>2.339568871394904</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A255" s="1"/>
       <c r="B255" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C255">
-        <v>-0.2662619900730467</v>
+        <v>0.426243154984185</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C256">
-        <v>-0.3318966373708654</v>
+        <v>-1.25563766355562</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C257">
-        <v>0.06460385433406657</v>
+        <v>0.8973108542130737</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C258">
-        <v>0.009179199808539984</v>
+        <v>1.038011857798127</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C259">
-        <v>0.3744151409263985</v>
+        <v>2.079886406907372</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C260">
-        <v>0.6390560348110474</v>
+        <v>-3.990171736190462</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C261">
-        <v>-1.281837097839489</v>
+        <v>-5.864778229769629</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C262">
-        <v>-8.985447843581905</v>
+        <v>3.662867824519433</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C263">
-        <v>4.839296112776204</v>
+        <v>2.510061027110511</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C264">
-        <v>2.910397528126474</v>
+        <v>2.694525259382097</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C265">
-        <v>-0.02995751157296445</v>
+        <v>1.498243365467067</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B266" s="2">
         <v>43282</v>
       </c>
       <c r="C266">
-        <v>1.115779727944188</v>
+        <v>1.05344210349454</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -2979,7 +2975,7 @@
         <v>43374</v>
       </c>
       <c r="C267">
-        <v>0.4235349810458144</v>
+        <v>-0.642295385402758</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -2988,7 +2984,7 @@
         <v>43466</v>
       </c>
       <c r="C268">
-        <v>0.5583864899831648</v>
+        <v>-0.3588484788590418</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -2997,7 +2993,7 @@
         <v>43556</v>
       </c>
       <c r="C269">
-        <v>-0.2697570302272356</v>
+        <v>0.2629814657239882</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3006,7 +3002,7 @@
         <v>43647</v>
       </c>
       <c r="C270">
-        <v>2.014003016646604</v>
+        <v>0.6109105021097738</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3015,7 +3011,7 @@
         <v>43739</v>
       </c>
       <c r="C271">
-        <v>0.2799778752128557</v>
+        <v>0.6334982220098651</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3024,7 +3020,7 @@
         <v>43831</v>
       </c>
       <c r="C272">
-        <v>-0.09725950110791581</v>
+        <v>-8.952753428588068</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3033,7 +3029,7 @@
         <v>43922</v>
       </c>
       <c r="C273">
-        <v>-2.965135377619832</v>
+        <v>-10.44780888577059</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3042,7 +3038,7 @@
         <v>44013</v>
       </c>
       <c r="C274">
-        <v>1.585352799863737</v>
+        <v>14.96273482963695</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3051,7 +3047,7 @@
         <v>44105</v>
       </c>
       <c r="C275">
-        <v>1.32620402670407</v>
+        <v>-3.349943634811092</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3060,1129 +3056,1127 @@
         <v>44197</v>
       </c>
       <c r="C276">
-        <v>1.197486676214532</v>
+        <v>0.353157960824535</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A277" s="1"/>
       <c r="B277" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C277">
+        <v>-3.117695320588976</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278" s="2">
         <v>43282</v>
       </c>
-      <c r="C277">
-        <v>0.1491635392226298</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1"/>
-      <c r="B278" s="2">
-        <v>43374</v>
-      </c>
       <c r="C278">
-        <v>0.7735946599460863</v>
+        <v>-0.7395237953208067</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C279">
-        <v>-0.946713191433346</v>
+        <v>0.5064199232310829</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C280">
-        <v>4.350668303467065</v>
+        <v>-0.2241791135769722</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C281">
-        <v>-0.2310676743889406</v>
+        <v>0.7371856043001612</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C282">
-        <v>-1.034781491062386</v>
+        <v>0.2897535281910946</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C283">
-        <v>-1.979810010418692</v>
+        <v>0.7960974179058944</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1"/>
       <c r="B284" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C284">
-        <v>-5.289991026628726</v>
+        <v>-2.435862675612155</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1"/>
       <c r="B285" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C285">
-        <v>4.096372409562155</v>
+        <v>-7.722152681406236</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1"/>
       <c r="B286" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C286">
-        <v>-0.3535178436316344</v>
+        <v>4.702744968717409</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1"/>
       <c r="B287" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C287">
+        <v>2.731412619597084</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="2">
         <v>44197</v>
       </c>
-      <c r="C287">
-        <v>-0.4573004971708761</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B288" s="2">
-        <v>43282</v>
-      </c>
       <c r="C288">
-        <v>0.6550983075022554</v>
+        <v>-0.6996086634524779</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1"/>
       <c r="B289" s="2">
-        <v>43374</v>
+        <v>44287</v>
       </c>
       <c r="C289">
-        <v>-0.217827165355311</v>
+        <v>-1.138965961864069</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B290" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C290">
-        <v>2.192511874896685</v>
+        <v>1.785922561172781</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1"/>
       <c r="B291" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C291">
-        <v>0.4402352672963072</v>
+        <v>0.1871726481017966</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1"/>
       <c r="B292" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C292">
-        <v>1.041250265253479</v>
+        <v>0.640648909749908</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1"/>
       <c r="B293" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C293">
-        <v>-0.9420086540060879</v>
+        <v>-0.0126119927797097</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1"/>
       <c r="B294" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C294">
-        <v>-1.592159878108002</v>
+        <v>0.6625400734929787</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1"/>
       <c r="B295" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C295">
-        <v>-4.81299085879675</v>
+        <v>0.8955679903940306</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1"/>
       <c r="B296" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C296">
-        <v>5.908732024191865</v>
+        <v>0.2030352231121357</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1"/>
       <c r="B297" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C297">
-        <v>1.012473154163795</v>
+        <v>-2.277910229703717</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1"/>
       <c r="B298" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C298">
-        <v>0.5640702240716777</v>
+        <v>0.3011112359209811</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C299">
-        <v>1.007844623832987</v>
+        <v>1.451810560694522</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1"/>
       <c r="B300" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C300">
-        <v>0.2149281734241004</v>
+        <v>1.171515630939712</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1"/>
       <c r="B301" s="2">
-        <v>43466</v>
+        <v>44287</v>
       </c>
       <c r="C301">
-        <v>-3.425501183629087</v>
+        <v>3.298736271451963</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B302" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C302">
-        <v>0.9095214505701499</v>
+        <v>1.388275423471863</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1"/>
       <c r="B303" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C303">
-        <v>2.68908006325761</v>
+        <v>-0.1426081482817421</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1"/>
       <c r="B304" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C304">
-        <v>-0.02820769898750353</v>
+        <v>0.07699714242297429</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1"/>
       <c r="B305" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C305">
-        <v>-3.144864587107521</v>
+        <v>2.424654010868599</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1"/>
       <c r="B306" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C306">
-        <v>-10.58046859538747</v>
+        <v>-0.09041423786532166</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1"/>
       <c r="B307" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C307">
-        <v>11.80653148496922</v>
+        <v>-1.825271099427772</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1"/>
       <c r="B308" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C308">
-        <v>-1.240970167810918</v>
+        <v>-2.456665449953765</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1"/>
       <c r="B309" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C309">
-        <v>2.22365692229558</v>
+        <v>-3.967021148646976</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A310" s="1"/>
       <c r="B310" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C310">
-        <v>0.3809775695006623</v>
+        <v>4.817600844468983</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1"/>
       <c r="B311" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C311">
-        <v>1.522637270879645</v>
+        <v>-0.4643468766993841</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1"/>
       <c r="B312" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C312">
-        <v>-0.3976084982924233</v>
+        <v>0.7300892801959113</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1"/>
       <c r="B313" s="2">
-        <v>43556</v>
+        <v>44287</v>
       </c>
       <c r="C313">
-        <v>-0.09813306606401007</v>
+        <v>-0.8891053450511222</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B314" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C314">
-        <v>-0.1490778845015917</v>
+        <v>1.314439103547982</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1"/>
       <c r="B315" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C315">
-        <v>-0.04679587976934574</v>
+        <v>0.1454316295731672</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1"/>
       <c r="B316" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C316">
-        <v>-0.8544438464425652</v>
+        <v>2.040293422686967</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1"/>
       <c r="B317" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C317">
-        <v>-13.6431134714591</v>
+        <v>0.6944461802969704</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1"/>
       <c r="B318" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C318">
-        <v>10.0840583708103</v>
+        <v>1.075657268706354</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1"/>
       <c r="B319" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C319">
-        <v>2.634812875320613</v>
+        <v>-1.095073612958775</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1"/>
       <c r="B320" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C320">
-        <v>0.1594599366311789</v>
+        <v>-2.479929543415027</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C321">
-        <v>0.9087449265868131</v>
+        <v>-3.978815699006155</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1"/>
       <c r="B322" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C322">
-        <v>0.7313681950261941</v>
+        <v>6.385529712655225</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="B323" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C323">
-        <v>0.1862284225914168</v>
+        <v>-0.5999365312503335</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1"/>
       <c r="B324" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C324">
-        <v>0.9766401860031859</v>
+        <v>1.507100356252189</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1"/>
       <c r="B325" s="2">
-        <v>43647</v>
+        <v>44287</v>
       </c>
       <c r="C325">
-        <v>0.3814135702757904</v>
+        <v>2.286099288394339</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B326" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C326">
-        <v>0.4330288284311035</v>
+        <v>2.108237134754676</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1"/>
       <c r="B327" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C327">
-        <v>-1.120574968619437</v>
+        <v>1.967556255734548</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1"/>
       <c r="B328" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C328">
-        <v>-7.410635269480014</v>
+        <v>-4.142477783786558</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1"/>
       <c r="B329" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C329">
-        <v>6.368190469053525</v>
+        <v>1.068460098005675</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1"/>
       <c r="B330" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C330">
-        <v>-1.160178267811229</v>
+        <v>0.5246339636370223</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1"/>
       <c r="B331" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C331">
-        <v>-0.02964236059586067</v>
+        <v>1.486358563444812</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C332">
-        <v>0.3722419249028164</v>
+        <v>-5.465185817216778</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1"/>
       <c r="B333" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C333">
-        <v>1.948600805950251</v>
+        <v>-7.178425878933115</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1"/>
       <c r="B334" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C334">
-        <v>0.20314007264437</v>
+        <v>9.746312988639216</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1"/>
       <c r="B335" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C335">
-        <v>0.6063845370407828</v>
+        <v>-3.96989616019745</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1"/>
       <c r="B336" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C336">
-        <v>0.2521850228246025</v>
+        <v>1.602961389154522</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1"/>
       <c r="B337" s="2">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C337">
-        <v>1.213976983657994</v>
+        <v>-0.8212923143082307</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B338" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C338">
-        <v>-2.019936392864552</v>
+        <v>0.619416563187869</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1"/>
       <c r="B339" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C339">
-        <v>-7.847948019729712</v>
+        <v>1.475288602725389</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1"/>
       <c r="B340" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C340">
-        <v>9.737125521258738</v>
+        <v>-0.587021354149353</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1"/>
       <c r="B341" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C341">
-        <v>1.574804971470178</v>
+        <v>0.6561302288379478</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1"/>
       <c r="B342" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C342">
-        <v>0.896220119308988</v>
+        <v>-0.3845432562872508</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A343" s="1"/>
       <c r="B343" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C343">
-        <v>-0.1861074321246603</v>
+        <v>0.03130230031029857</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1"/>
       <c r="B344" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C344">
-        <v>1.395579041179973</v>
+        <v>-2.682608411773968</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1"/>
       <c r="B345" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C345">
-        <v>1.148089222972315</v>
+        <v>-13.22923829250313</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1"/>
       <c r="B346" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C346">
-        <v>0.5178479809909931</v>
+        <v>10.77450618429472</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1"/>
       <c r="B347" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C347">
-        <v>0.9324964901071597</v>
+        <v>1.806092166642803</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1"/>
       <c r="B348" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C348">
-        <v>-0.499903182230288</v>
+        <v>1.414735600758443</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1"/>
       <c r="B349" s="2">
-        <v>43831</v>
+        <v>44287</v>
       </c>
       <c r="C349">
-        <v>-2.240820166846846</v>
+        <v>2.373978426705836</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B350" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C350">
-        <v>-4.50901681270075</v>
+        <v>1.204194117919188</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1"/>
       <c r="B351" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C351">
-        <v>4.434072873347539</v>
+        <v>0.5170926076113469</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1"/>
       <c r="B352" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C352">
-        <v>0.257667713081422</v>
+        <v>0.2006757194207953</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1"/>
       <c r="B353" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C353">
-        <v>-1.657897841328837</v>
+        <v>1.10151599789623</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A354" s="1"/>
       <c r="B354" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C354">
-        <v>0.02948321100129103</v>
+        <v>0.4712067810974663</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1"/>
       <c r="B355" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C355">
-        <v>2.549496209173996</v>
+        <v>0.2498777473614711</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1"/>
       <c r="B356" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C356">
-        <v>0.6710222831813439</v>
+        <v>-2.694824675714169</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1"/>
       <c r="B357" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C357">
-        <v>0.7676124408704244</v>
+        <v>-6.375024007883656</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1"/>
       <c r="B358" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C358">
-        <v>0.7026035319628976</v>
+        <v>6.354518970325662</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1"/>
       <c r="B359" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C359">
-        <v>1.358777913455045</v>
+        <v>-0.952708143012948</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1"/>
       <c r="B360" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C360">
-        <v>-1.514203296919325</v>
+        <v>0.2200253414871511</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1"/>
       <c r="B361" s="2">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C361">
-        <v>-8.962991565097955</v>
+        <v>-0.1222105436428644</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B362" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C362">
-        <v>11.25787291665643</v>
+        <v>1.19872346108818</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1"/>
       <c r="B363" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C363">
-        <v>-2.161684076616355</v>
+        <v>1.174787257135601</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1"/>
       <c r="B364" s="2">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="C364">
-        <v>0.9911369210335863</v>
+        <v>0.03332178968646904</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A365" s="1"/>
       <c r="B365" s="2">
-        <v>43282</v>
+        <v>43556</v>
       </c>
       <c r="C365">
-        <v>1.961357631933414</v>
+        <v>0.7146815502188542</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1"/>
       <c r="B366" s="2">
-        <v>43374</v>
+        <v>43647</v>
       </c>
       <c r="C366">
-        <v>0.8067518588817046</v>
+        <v>1.574090545085616</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1"/>
       <c r="B367" s="2">
-        <v>43466</v>
+        <v>43739</v>
       </c>
       <c r="C367">
-        <v>0.7486033930613534</v>
+        <v>0.477371724664688</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1"/>
       <c r="B368" s="2">
-        <v>43556</v>
+        <v>43831</v>
       </c>
       <c r="C368">
-        <v>0.1668134617637262</v>
+        <v>-3.639137517318491</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1"/>
       <c r="B369" s="2">
-        <v>43647</v>
+        <v>43922</v>
       </c>
       <c r="C369">
-        <v>0.4553145866545316</v>
+        <v>-5.232284445138768</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1"/>
       <c r="B370" s="2">
-        <v>43739</v>
+        <v>44013</v>
       </c>
       <c r="C370">
-        <v>0.437688884992582</v>
+        <v>7.741887603714681</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1"/>
       <c r="B371" s="2">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C371">
-        <v>-3.763507177880865</v>
+        <v>2.55691815214254</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1"/>
       <c r="B372" s="2">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C372">
-        <v>-13.23042223575256</v>
+        <v>1.448112597112328</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1"/>
       <c r="B373" s="2">
-        <v>44013</v>
+        <v>44287</v>
       </c>
       <c r="C373">
-        <v>13.01127155550543</v>
+        <v>2.846848285416992</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B374" s="2">
-        <v>44105</v>
+        <v>43282</v>
       </c>
       <c r="C374">
-        <v>-0.5308891826148243</v>
+        <v>-1.122103530117591</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1"/>
       <c r="B375" s="2">
-        <v>44197</v>
+        <v>43374</v>
       </c>
       <c r="C375">
-        <v>-2.770446762758028</v>
+        <v>2.089551720770788</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A376" s="1"/>
       <c r="B376" s="2">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="C376">
-        <v>-0.3628382638616423</v>
+        <v>1.369922496271325</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1"/>
       <c r="B377" s="2">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="C377">
-        <v>0.3063328236023066</v>
+        <v>-0.3652272646999632</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1"/>
       <c r="B378" s="2">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="C378">
-        <v>1.748896991133631</v>
+        <v>0.2672816288462165</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1"/>
       <c r="B379" s="2">
-        <v>43556</v>
+        <v>43739</v>
       </c>
       <c r="C379">
-        <v>1.546656379193756</v>
+        <v>0.0246315196301472</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1"/>
       <c r="B380" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="C380">
-        <v>1.829731624654896</v>
+        <v>-3.141494943579659</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1"/>
       <c r="B381" s="2">
-        <v>43739</v>
+        <v>43922</v>
       </c>
       <c r="C381">
-        <v>0.2230490722765266</v>
+        <v>-3.270252297530107</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1"/>
       <c r="B382" s="2">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C382">
-        <v>-2.403292877982377</v>
+        <v>4.223161855086843</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1"/>
       <c r="B383" s="2">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C383">
-        <v>-7.736229504304227</v>
+        <v>-0.0007763762729484647</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1"/>
       <c r="B384" s="2">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C384">
-        <v>7.460162070372256</v>
+        <v>-0.9747564697741296</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1"/>
       <c r="B385" s="2">
-        <v>44105</v>
+        <v>44287</v>
       </c>
       <c r="C385">
-        <v>1.555230374673733</v>
+        <v>1.71497423180198</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="1"/>
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B386" s="2">
-        <v>44197</v>
+        <v>43282</v>
       </c>
       <c r="C386">
-        <v>1.714710154674082</v>
+        <v>0.3100385000614603</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A387" s="1"/>
       <c r="B387" s="2">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="C387">
-        <v>0.1074038640944464</v>
+        <v>2.100234430194581</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1"/>
       <c r="B388" s="2">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="C388">
-        <v>0.1071428634981109</v>
+        <v>0.9002709597877301</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1"/>
       <c r="B389" s="2">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="C389">
-        <v>0.475874398763243</v>
+        <v>1.270537200826927</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1"/>
       <c r="B390" s="2">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="C390">
-        <v>-0.08379056298278842</v>
+        <v>0.3886606822610439</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1"/>
       <c r="B391" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="C391">
-        <v>0.4371565901948093</v>
+        <v>1.22121845230021</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1"/>
       <c r="B392" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C392">
-        <v>-0.7197303102463026</v>
+        <v>-2.637626169808693</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1"/>
       <c r="B393" s="2">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C393">
-        <v>0.1437250286104419</v>
+        <v>-6.895228373016127</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1"/>
       <c r="B394" s="2">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C394">
-        <v>-9.683354217053243</v>
+        <v>10.85797838849851</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1"/>
       <c r="B395" s="2">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C395">
-        <v>7.767458299912211</v>
+        <v>-3.586890740942172</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1"/>
       <c r="B396" s="2">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C396">
-        <v>1.247211941322024</v>
+        <v>2.080118480591686</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1"/>
       <c r="B397" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C397">
-        <v>2.062051974474799</v>
+        <v>2.794275860325102</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B398" s="2">
         <v>43282</v>
       </c>
       <c r="C398">
-        <v>-0.4535491688048565</v>
+        <v>2.684538165266659</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4191,7 +4185,7 @@
         <v>43374</v>
       </c>
       <c r="C399">
-        <v>0.8624476166646078</v>
+        <v>0.2463525011258572</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4200,7 +4194,7 @@
         <v>43466</v>
       </c>
       <c r="C400">
-        <v>0.1220737896739932</v>
+        <v>1.184645131355744</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4209,7 +4203,7 @@
         <v>43556</v>
       </c>
       <c r="C401">
-        <v>1.76502903844229</v>
+        <v>-0.3715497785636068</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4218,7 +4212,7 @@
         <v>43647</v>
       </c>
       <c r="C402">
-        <v>-0.7223201916780275</v>
+        <v>0.3412719582839951</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4227,7 +4221,7 @@
         <v>43739</v>
       </c>
       <c r="C403">
-        <v>2.240573110325528</v>
+        <v>1.16933925836129</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4236,7 +4230,7 @@
         <v>43831</v>
       </c>
       <c r="C404">
-        <v>-3.858336649396932</v>
+        <v>-5.653941370859272</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4245,7 +4239,7 @@
         <v>43922</v>
       </c>
       <c r="C405">
-        <v>-8.432810863555762</v>
+        <v>-11.09658934892077</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4254,7 +4248,7 @@
         <v>44013</v>
       </c>
       <c r="C406">
-        <v>9.852739238410525</v>
+        <v>12.38394341219282</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4263,7 +4257,7 @@
         <v>44105</v>
       </c>
       <c r="C407">
-        <v>0.03089829010338718</v>
+        <v>-0.9828662061425297</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4272,864 +4266,1275 @@
         <v>44197</v>
       </c>
       <c r="C408">
-        <v>-1.887053965937668</v>
+        <v>-1.850745070803272</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A409" s="1"/>
       <c r="B409" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C409">
+        <v>-1.801202670247293</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B410" s="2">
         <v>43282</v>
       </c>
-      <c r="C409">
-        <v>2.628523837327457</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
-      <c r="A410" s="1"/>
-      <c r="B410" s="2">
-        <v>43374</v>
-      </c>
       <c r="C410">
-        <v>0.5855792293629758</v>
+        <v>-1.007859331774552</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1"/>
       <c r="B411" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C411">
-        <v>1.686354322723638</v>
+        <v>0.849530011443167</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1"/>
       <c r="B412" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C412">
-        <v>0.4228542550808845</v>
+        <v>1.193157911723963</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1"/>
       <c r="B413" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C413">
-        <v>0.3013823884706168</v>
+        <v>1.773693266995213</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1"/>
       <c r="B414" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C414">
-        <v>1.306835764202829</v>
+        <v>1.911854186349982</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1"/>
       <c r="B415" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C415">
-        <v>-1.662030559981398</v>
+        <v>0.4013662856926947</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1"/>
       <c r="B416" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C416">
-        <v>-6.787798179574223</v>
+        <v>-4.561284478938354</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1"/>
       <c r="B417" s="2">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C417">
-        <v>9.238883155663746</v>
+        <v>-6.7062495484553</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1"/>
       <c r="B418" s="2">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C418">
-        <v>-4.94894218755414</v>
+        <v>8.185588912681618</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1"/>
       <c r="B419" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C419">
+        <v>-0.5961381979683988</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1"/>
+      <c r="B420" s="2">
         <v>44197</v>
       </c>
-      <c r="C419">
-        <v>2.317876910701666</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B420" s="2">
-        <v>43282</v>
-      </c>
       <c r="C420">
-        <v>-0.87285398833159</v>
+        <v>3.004267259425619</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1"/>
       <c r="B421" s="2">
-        <v>43374</v>
+        <v>44287</v>
       </c>
       <c r="C421">
-        <v>0.01662188918696295</v>
+        <v>1.545310418244128</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B422" s="2">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="C422">
-        <v>-0.09879750115630026</v>
+        <v>0.4326252633342076</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1"/>
       <c r="B423" s="2">
-        <v>43556</v>
+        <v>43374</v>
       </c>
       <c r="C423">
-        <v>0.9468126035637958</v>
+        <v>0.0297246865804901</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1"/>
       <c r="B424" s="2">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="C424">
-        <v>-0.5812584359389583</v>
+        <v>-0.2857727891405593</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1"/>
       <c r="B425" s="2">
-        <v>43739</v>
+        <v>43556</v>
       </c>
       <c r="C425">
-        <v>1.486025221382459</v>
+        <v>1.070949780613173</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1"/>
       <c r="B426" s="2">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="C426">
-        <v>-2.4950959694506</v>
+        <v>0.356097845720682</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1"/>
       <c r="B427" s="2">
-        <v>43922</v>
+        <v>43739</v>
       </c>
       <c r="C427">
-        <v>-16.56696977366725</v>
+        <v>-0.5670446289543385</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1"/>
       <c r="B428" s="2">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C428">
-        <v>11.27527446602656</v>
+        <v>-2.040900305478732</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1"/>
       <c r="B429" s="2">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C429">
-        <v>3.971387958804984</v>
+        <v>-7.844356639768357</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1"/>
       <c r="B430" s="2">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C430">
-        <v>-1.83948186189371</v>
+        <v>7.21216555042592</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A431" s="1"/>
       <c r="B431" s="2">
-        <v>43282</v>
+        <v>44105</v>
       </c>
       <c r="C431">
-        <v>0.994226145103827</v>
+        <v>-0.04010145559922851</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1"/>
       <c r="B432" s="2">
-        <v>43374</v>
+        <v>44197</v>
       </c>
       <c r="C432">
-        <v>0.2278274121814583</v>
+        <v>3.218469440645011</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1"/>
       <c r="B433" s="2">
-        <v>43466</v>
+        <v>44287</v>
       </c>
       <c r="C433">
-        <v>0.3638105834207206</v>
+        <v>1.506572483269464</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B434" s="2">
-        <v>43556</v>
+        <v>43282</v>
       </c>
       <c r="C434">
-        <v>0.9842854196329576</v>
+        <v>-0.3082597098655326</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1"/>
       <c r="B435" s="2">
-        <v>43647</v>
+        <v>43374</v>
       </c>
       <c r="C435">
-        <v>0.2161777851201974</v>
+        <v>0.4193463334525971</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1"/>
       <c r="B436" s="2">
-        <v>43739</v>
+        <v>43466</v>
       </c>
       <c r="C436">
-        <v>0.4643590636292494</v>
+        <v>0.1964603029542378</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1"/>
       <c r="B437" s="2">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="C437">
-        <v>-4.577577449353088</v>
+        <v>1.643426020777183</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1"/>
       <c r="B438" s="2">
-        <v>43922</v>
+        <v>43647</v>
       </c>
       <c r="C438">
-        <v>-17.04939757801539</v>
+        <v>-0.009371838742322502</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1"/>
       <c r="B439" s="2">
-        <v>44013</v>
+        <v>43739</v>
       </c>
       <c r="C439">
-        <v>16.24728760723249</v>
+        <v>0.9292714301531779</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1"/>
       <c r="B440" s="2">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C440">
-        <v>0.5117019268365164</v>
+        <v>-5.223243361105756</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1"/>
       <c r="B441" s="2">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C441">
-        <v>0.5022402988429819</v>
+        <v>-6.646279714042369</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A442" s="1"/>
       <c r="B442" s="2">
-        <v>43282</v>
+        <v>44013</v>
       </c>
       <c r="C442">
-        <v>-0.2618854113959346</v>
+        <v>10.52458172935005</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1"/>
       <c r="B443" s="2">
-        <v>43374</v>
+        <v>44105</v>
       </c>
       <c r="C443">
-        <v>0.6069595522540272</v>
+        <v>-0.6720065710112966</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1"/>
       <c r="B444" s="2">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="C444">
-        <v>0.4388997756200386</v>
+        <v>-3.778863960978829</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1"/>
       <c r="B445" s="2">
-        <v>43556</v>
+        <v>44287</v>
       </c>
       <c r="C445">
-        <v>1.088877238025732</v>
+        <v>2.446066051761631</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B446" s="2">
-        <v>43647</v>
+        <v>43282</v>
       </c>
       <c r="C446">
-        <v>1.229895221172761</v>
+        <v>-0.1567303347667526</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1"/>
       <c r="B447" s="2">
-        <v>43739</v>
+        <v>43374</v>
       </c>
       <c r="C447">
-        <v>-0.1348076906218743</v>
+        <v>2.190503492902818</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1"/>
       <c r="B448" s="2">
-        <v>43831</v>
+        <v>43466</v>
       </c>
       <c r="C448">
-        <v>-1.801069244191245</v>
+        <v>2.211545494393929</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1"/>
       <c r="B449" s="2">
-        <v>43922</v>
+        <v>43556</v>
       </c>
       <c r="C449">
-        <v>-7.482069805602576</v>
+        <v>0.01611066772972958</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1"/>
       <c r="B450" s="2">
-        <v>44013</v>
+        <v>43647</v>
       </c>
       <c r="C450">
-        <v>5.006216593469137</v>
+        <v>1.112699481189372</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1"/>
       <c r="B451" s="2">
-        <v>44105</v>
+        <v>43739</v>
       </c>
       <c r="C451">
-        <v>2.845265389359919</v>
+        <v>2.310961102512787</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1"/>
       <c r="B452" s="2">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C452">
-        <v>0.2122299888698054</v>
+        <v>-7.258254934049068</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A453" s="1"/>
       <c r="B453" s="2">
-        <v>43282</v>
+        <v>43922</v>
       </c>
       <c r="C453">
-        <v>0.4645158442237562</v>
+        <v>-1.916462501677785</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1"/>
       <c r="B454" s="2">
-        <v>43374</v>
+        <v>44013</v>
       </c>
       <c r="C454">
-        <v>0.04132686750604186</v>
+        <v>7.239351656856097</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1"/>
       <c r="B455" s="2">
-        <v>43466</v>
+        <v>44105</v>
       </c>
       <c r="C455">
-        <v>-0.3940284608640265</v>
+        <v>-5.184719863215792</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1"/>
       <c r="B456" s="2">
-        <v>43556</v>
+        <v>44197</v>
       </c>
       <c r="C456">
-        <v>0.6957526509588696</v>
+        <v>1.514329140180681</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1"/>
       <c r="B457" s="2">
-        <v>43647</v>
+        <v>44287</v>
       </c>
       <c r="C457">
-        <v>0.1480398119499737</v>
+        <v>-1.653301732823553</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B458" s="2">
-        <v>43739</v>
+        <v>43282</v>
       </c>
       <c r="C458">
-        <v>1.025851623150831</v>
+        <v>-0.7680682383201631</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1"/>
       <c r="B459" s="2">
-        <v>43831</v>
+        <v>43374</v>
       </c>
       <c r="C459">
-        <v>-2.008517140693233</v>
+        <v>-0.3510369457869755</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1"/>
       <c r="B460" s="2">
-        <v>43922</v>
+        <v>43466</v>
       </c>
       <c r="C460">
-        <v>-7.956862533315501</v>
+        <v>-0.3388023134439755</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1"/>
       <c r="B461" s="2">
-        <v>44013</v>
+        <v>43556</v>
       </c>
       <c r="C461">
-        <v>8.579170214184595</v>
+        <v>1.257957506283103</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1"/>
       <c r="B462" s="2">
-        <v>44105</v>
+        <v>43647</v>
       </c>
       <c r="C462">
-        <v>-0.5085182085950768</v>
+        <v>-0.8985100729439033</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1"/>
       <c r="B463" s="2">
-        <v>44197</v>
+        <v>43739</v>
       </c>
       <c r="C463">
-        <v>-0.6245013999253812</v>
+        <v>0.7071287816155847</v>
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A464" s="1"/>
       <c r="B464" s="2">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C464">
-        <v>-3.251094083402839</v>
+        <v>-3.442904614059339</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1"/>
       <c r="B465" s="2">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C465">
-        <v>2.282034733788585</v>
+        <v>-14.42118695415727</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1"/>
       <c r="B466" s="2">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C466">
-        <v>1.069492469393674</v>
+        <v>10.63746941996531</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1"/>
       <c r="B467" s="2">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C467">
-        <v>2.714808240680777</v>
+        <v>4.965969961497452</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1"/>
       <c r="B468" s="2">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C468">
-        <v>1.062689421665075</v>
+        <v>-2.489226735803318</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1"/>
       <c r="B469" s="2">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C469">
-        <v>2.585874763846063</v>
+        <v>5.235838573209661</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B470" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C470">
-        <v>0.5171059561738689</v>
+        <v>0.9909870702864199</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1"/>
       <c r="B471" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C471">
-        <v>-9.485439069841616</v>
+        <v>0.2912829918037207</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1"/>
       <c r="B472" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C472">
-        <v>8.483587577330876</v>
+        <v>0.4361315682468003</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1"/>
       <c r="B473" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C473">
-        <v>-1.40635531828035</v>
+        <v>0.9025826299958295</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1"/>
       <c r="B474" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C474">
-        <v>0.8265600023269259</v>
+        <v>0.2383136460083479</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="A475" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A475" s="1"/>
       <c r="B475" s="2">
-        <v>43282</v>
+        <v>43739</v>
       </c>
       <c r="C475">
-        <v>0.2185603696728711</v>
+        <v>0.5584798137913793</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1"/>
       <c r="B476" s="2">
-        <v>43374</v>
+        <v>43831</v>
       </c>
       <c r="C476">
-        <v>0.2975692701086219</v>
+        <v>-6.226649693420983</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1"/>
       <c r="B477" s="2">
-        <v>43466</v>
+        <v>43922</v>
       </c>
       <c r="C477">
-        <v>0.3789500757664266</v>
+        <v>-14.59388540606453</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1"/>
       <c r="B478" s="2">
-        <v>43556</v>
+        <v>44013</v>
       </c>
       <c r="C478">
-        <v>0.130088393929273</v>
+        <v>14.46752071484161</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1"/>
       <c r="B479" s="2">
-        <v>43647</v>
+        <v>44105</v>
       </c>
       <c r="C479">
-        <v>-0.2940223767154748</v>
+        <v>0.6482341740490449</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1"/>
       <c r="B480" s="2">
-        <v>43739</v>
+        <v>44197</v>
       </c>
       <c r="C480">
-        <v>0.05679741550936868</v>
+        <v>0.7757704840517077</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1"/>
       <c r="B481" s="2">
-        <v>43831</v>
+        <v>44287</v>
       </c>
       <c r="C481">
-        <v>-2.821902077827743</v>
+        <v>-0.06284626144980043</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B482" s="2">
-        <v>43922</v>
+        <v>43282</v>
       </c>
       <c r="C482">
-        <v>-16.11179252906026</v>
+        <v>0.5583957537245832</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1"/>
       <c r="B483" s="2">
-        <v>44013</v>
+        <v>43374</v>
       </c>
       <c r="C483">
-        <v>14.23282144660063</v>
+        <v>0.4566123309426073</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1"/>
       <c r="B484" s="2">
-        <v>44105</v>
+        <v>43466</v>
       </c>
       <c r="C484">
-        <v>0.1763469007630469</v>
+        <v>0.264096559784166</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1"/>
       <c r="B485" s="2">
-        <v>44197</v>
+        <v>43556</v>
       </c>
       <c r="C485">
-        <v>-1.948701503546146</v>
+        <v>0.9741126414548607</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A486" s="1"/>
       <c r="B486" s="2">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C486">
-        <v>0.6530464020055637</v>
+        <v>0.6767273423418096</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1"/>
       <c r="B487" s="2">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C487">
-        <v>0.4779791012702983</v>
+        <v>-0.175854436468037</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1"/>
       <c r="B488" s="2">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C488">
-        <v>0.7934706777334544</v>
+        <v>-2.458942234862238</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1"/>
       <c r="B489" s="2">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C489">
-        <v>0.3470801765482312</v>
+        <v>-6.414271348281964</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1"/>
       <c r="B490" s="2">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C490">
-        <v>0.6646355242213797</v>
+        <v>5.355270538952706</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1"/>
       <c r="B491" s="2">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C491">
-        <v>-0.03468687581997809</v>
+        <v>1.679386758457801</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1"/>
       <c r="B492" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C492">
-        <v>-0.6052151927622762</v>
+        <v>0.6722696706463971</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1"/>
       <c r="B493" s="2">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C493">
-        <v>-8.723479523677169</v>
+        <v>1.121494551081903</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B494" s="2">
-        <v>44013</v>
+        <v>43282</v>
       </c>
       <c r="C494">
-        <v>6.31826160845399</v>
+        <v>1.07236553987784</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1"/>
       <c r="B495" s="2">
-        <v>44105</v>
+        <v>43374</v>
       </c>
       <c r="C495">
-        <v>2.686553660051816</v>
+        <v>0.08603783561067502</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1"/>
       <c r="B496" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C496">
+        <v>-0.3888716914242973</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1"/>
+      <c r="B497" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C497">
+        <v>-0.3851551931638109</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C498">
+        <v>1.185385800195382</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1"/>
+      <c r="B499" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C499">
+        <v>1.410127028348462</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1"/>
+      <c r="B500" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C500">
+        <v>-4.385217628023774</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C501">
+        <v>-5.949488841294537</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C502">
+        <v>8.341505853722175</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1"/>
+      <c r="B503" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C503">
+        <v>-1.104939704238583</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2">
         <v>44197</v>
       </c>
-      <c r="C496">
-        <v>1.007856342295899</v>
+      <c r="C504">
+        <v>-0.1569159323475566</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C505">
+        <v>2.187050359488318</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C506">
+        <v>-3.217121682026014</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1"/>
+      <c r="B507" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C507">
+        <v>2.373225801602397</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1"/>
+      <c r="B508" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C508">
+        <v>0.4742783027492203</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1"/>
+      <c r="B509" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C509">
+        <v>3.054750832124986</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1"/>
+      <c r="B510" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C510">
+        <v>1.171294864031136</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1"/>
+      <c r="B511" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C511">
+        <v>2.322177490725652</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C512">
+        <v>0.1556494500816852</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1"/>
+      <c r="B513" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C513">
+        <v>-8.554047310355251</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1"/>
+      <c r="B514" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C514">
+        <v>7.70925503384603</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C515">
+        <v>-0.9077519392577837</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C516">
+        <v>0.6959208425978192</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1"/>
+      <c r="B517" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C517">
+        <v>0.4460370193529517</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B518" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C518">
+        <v>-0.05615691733349415</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1"/>
+      <c r="B519" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C519">
+        <v>0.6542527141450538</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1"/>
+      <c r="B520" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C520">
+        <v>0.1478462013481563</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C521">
+        <v>0.245421043956684</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1"/>
+      <c r="B522" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C522">
+        <v>0.05577380130665777</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1"/>
+      <c r="B523" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C523">
+        <v>-0.2228545527986903</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1"/>
+      <c r="B524" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C524">
+        <v>-4.783371516458034</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1"/>
+      <c r="B525" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C525">
+        <v>-14.118650512716</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1"/>
+      <c r="B526" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C526">
+        <v>13.68009123636458</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1"/>
+      <c r="B527" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C527">
+        <v>-0.1019277816846964</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C528">
+        <v>-1.352248009645352</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1"/>
+      <c r="B529" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C529">
+        <v>4.887817412076578</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B530" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C530">
+        <v>0.4005390948194298</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C531">
+        <v>0.5610082074541278</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C532">
+        <v>0.4211814565232785</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1"/>
+      <c r="B533" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C533">
+        <v>0.5522325492753888</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1"/>
+      <c r="B534" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C534">
+        <v>0.482978167927306</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1"/>
+      <c r="B535" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C535">
+        <v>0.7036314580137315</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1"/>
+      <c r="B536" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C536">
+        <v>-2.346736452595766</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1"/>
+      <c r="B537" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C537">
+        <v>-7.112114628717025</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1"/>
+      <c r="B538" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C538">
+        <v>5.516800179489123</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1"/>
+      <c r="B539" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C539">
+        <v>2.498184954741633</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1"/>
+      <c r="B540" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C540">
+        <v>1.363725294608198</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1"/>
+      <c r="B541" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C541">
+        <v>2.738654948153973</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="A112:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="A189:A199"/>
-    <mergeCell ref="A200:A210"/>
-    <mergeCell ref="A211:A221"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="A244:A254"/>
-    <mergeCell ref="A255:A265"/>
-    <mergeCell ref="A266:A276"/>
-    <mergeCell ref="A277:A287"/>
-    <mergeCell ref="A288:A298"/>
-    <mergeCell ref="A299:A309"/>
-    <mergeCell ref="A310:A320"/>
-    <mergeCell ref="A321:A331"/>
-    <mergeCell ref="A332:A342"/>
-    <mergeCell ref="A343:A353"/>
-    <mergeCell ref="A354:A364"/>
-    <mergeCell ref="A365:A375"/>
-    <mergeCell ref="A376:A386"/>
-    <mergeCell ref="A387:A397"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A409:A419"/>
-    <mergeCell ref="A420:A430"/>
-    <mergeCell ref="A431:A441"/>
-    <mergeCell ref="A442:A452"/>
-    <mergeCell ref="A453:A463"/>
-    <mergeCell ref="A464:A474"/>
-    <mergeCell ref="A475:A485"/>
-    <mergeCell ref="A486:A496"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A266:A277"/>
+    <mergeCell ref="A278:A289"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A302:A313"/>
+    <mergeCell ref="A314:A325"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="A338:A349"/>
+    <mergeCell ref="A350:A361"/>
+    <mergeCell ref="A362:A373"/>
+    <mergeCell ref="A374:A385"/>
+    <mergeCell ref="A386:A397"/>
+    <mergeCell ref="A398:A409"/>
+    <mergeCell ref="A410:A421"/>
+    <mergeCell ref="A422:A433"/>
+    <mergeCell ref="A434:A445"/>
+    <mergeCell ref="A446:A457"/>
+    <mergeCell ref="A458:A469"/>
+    <mergeCell ref="A470:A481"/>
+    <mergeCell ref="A482:A493"/>
+    <mergeCell ref="A494:A505"/>
+    <mergeCell ref="A506:A517"/>
+    <mergeCell ref="A518:A529"/>
+    <mergeCell ref="A530:A541"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.007914723209592</v>
+        <v>-1.829876362177374</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.8018800798915</v>
+        <v>-16.68529215043825</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.599424488172591</v>
+        <v>8.635574486814956</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.316804081392875</v>
+        <v>1.336871433799347</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.997431822067821</v>
+        <v>3.908484121746114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>0.3282699650040577</v>
+        <v>0.4618310582839902</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.631028647463187</v>
+        <v>-4.588845032660016</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.287573418998394</v>
+        <v>-7.423263809605074</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.905417394417053</v>
+        <v>1.615748335112266</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>4.643241192193148</v>
+        <v>4.318802975804514</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>3.507738076960831</v>
+        <v>3.49541675623648</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>4.5551510907895</v>
+        <v>4.709324397683057</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.643830053388866</v>
+        <v>-6.632455002887571</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-9.385156821823292</v>
+        <v>-9.531631900144355</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>5.965744227589509</v>
+        <v>5.567012643317315</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-2.441805697539234</v>
+        <v>-2.319883437501169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.6219318845783861</v>
+        <v>-0.6650800034704307</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>3.354420182595441</v>
+        <v>3.138843361390165</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.687235220380916</v>
+        <v>-6.606852196174295</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-11.15692051416166</v>
+        <v>-11.12548703411246</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>8.497342201137759</v>
+        <v>8.461763240405418</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.7582214182853875</v>
+        <v>-0.7754680777328327</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.35041188314875</v>
+        <v>1.330627249506589</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-0.4796380510947995</v>
+        <v>-0.4975089193275939</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.665226113645803</v>
+        <v>-3.702977216247483</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-10.88767327882177</v>
+        <v>-10.93463173160637</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.724697593737571</v>
+        <v>5.702569852767914</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>3.230735185123557</v>
+        <v>3.292124660585505</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.5494206840561455</v>
+        <v>0.4832060770467272</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-2.233663707692957</v>
+        <v>-2.367757394725989</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-7.240154062878645</v>
+        <v>-7.150739234044701</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-10.82537457243042</v>
+        <v>-10.74963313631182</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>4.902144792195018</v>
+        <v>4.652480802520542</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>1.04940458567726</v>
+        <v>1.290988729118503</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>5.154642321020941</v>
+        <v>5.146606750763016</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>-0.931211786263153</v>
+        <v>-0.93622269523852</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-4.881297310805643</v>
+        <v>-4.819832327133211</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.0573311382745</v>
+        <v>-12.07286492230397</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.917983255427695</v>
+        <v>6.861725055727841</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.7272226922448999</v>
+        <v>0.6996285076753317</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.5513447351755074</v>
+        <v>0.4513562915988478</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>1.460748369435594</v>
+        <v>1.487944767474003</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.174789626246433</v>
+        <v>-4.246477746419719</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-15.01867536777013</v>
+        <v>-15.08830922108597</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>6.694308502096802</v>
+        <v>6.212753174146823</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>5.807538795687806</v>
+        <v>5.934636367053447</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-2.422392786878991</v>
+        <v>-2.32777235919408</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-4.946343500348882</v>
+        <v>-4.738927914327462</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-8.411884428437656</v>
+        <v>-8.38513665816798</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-14.01506566674591</v>
+        <v>-13.95839721263138</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>3.215441283391152</v>
+        <v>3.320318759010621</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.069435069087369</v>
+        <v>5.243318814338593</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.8459790876528261</v>
+        <v>0.7521627654595964</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>1.124223473017838</v>
+        <v>1.183632299141513</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-6.544073167187303</v>
+        <v>-6.54355759542975</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-8.614276836923619</v>
+        <v>-8.658808103455184</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>5.264779789302931</v>
+        <v>5.282843081709987</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-2.840558856612285</v>
+        <v>-2.654869683947114</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.1157408238356528</v>
+        <v>0.1511478595825677</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>2.751759870427128</v>
+        <v>2.718708700907868</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.102748877566842</v>
+        <v>-4.131157151683629</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.880608277622358</v>
+        <v>-7.994696590852445</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.856436071316514</v>
+        <v>1.745690558901858</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-0.4853867290738223</v>
+        <v>-0.5721302897545799</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>3.540058817858083</v>
+        <v>3.72052741445954</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-0.6396772328506328</v>
+        <v>-0.975798646303172</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-9.115261250594653</v>
+        <v>-9.220066309919117</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-7.906952975976223</v>
+        <v>-7.838460967158046</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-3.796005341525777</v>
+        <v>-3.653386699005801</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>3.851496253320819</v>
+        <v>3.901625119804208</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>3.548719203771689</v>
+        <v>3.367373865054368</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>9.459719112746567</v>
+        <v>10.07308520947285</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-2.957068718048228</v>
+        <v>-3.013467037292317</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.766123445844109</v>
+        <v>-7.91510186163068</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-1.082917651814153</v>
+        <v>-1.249287517980469</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.8139479373984626</v>
+        <v>0.774752528601419</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>1.677649134169701</v>
+        <v>1.739557972391292</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>-1.776409992453509</v>
+        <v>-1.520481546547159</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-7.880395648353289</v>
+        <v>-7.856885104704824</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-12.40875605339188</v>
+        <v>-12.4609596438104</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.98883350118287</v>
+        <v>13.97524116119435</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.362323809701105</v>
+        <v>-1.338240506465072</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.728128150653462</v>
+        <v>0.7581997545267338</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-2.76825116966124</v>
+        <v>-2.951222064524517</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.858705463221581</v>
+        <v>-5.891344378721486</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.657002132591296</v>
+        <v>-8.727191330093776</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>6.295993414998491</v>
+        <v>6.2158266485981</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-2.121083998219242</v>
+        <v>-2.074631133939642</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.284171144984669</v>
+        <v>-1.225273275842542</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>0.08437921971200524</v>
+        <v>0.04083061160400359</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-8.386908398928094</v>
+        <v>-8.353376421159165</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-12.10063385003654</v>
+        <v>-11.93340882931816</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.454719638057857</v>
+        <v>3.688289070784556</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>1.602282425477886</v>
+        <v>1.49606596666656</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>0.6465608374731646</v>
+        <v>0.8106545284343625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>6.614464409541476</v>
+        <v>6.755308376332869</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-5.968398109000161</v>
+        <v>-5.950226091443634</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-12.85594281857849</v>
+        <v>-12.66231712723149</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.804405825963729</v>
+        <v>2.934410381633823</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-0.9320943192874576</v>
+        <v>-0.9266617884660322</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>4.028908876135762</v>
+        <v>4.070580032246474</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>3.725879886130756</v>
+        <v>3.708321813418114</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-7.169489205724632</v>
+        <v>-7.060531624673272</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-12.23843766357172</v>
+        <v>-12.1518029438397</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-1.023472089229482</v>
+        <v>-1.020619100146702</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>4.213385406313996</v>
+        <v>4.557597945004654</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>-0.8853013920439023</v>
+        <v>-0.9287405017025852</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>0.3027361412866414</v>
+        <v>1.166247784397134</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-6.680766464418819</v>
+        <v>-6.734032551774993</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-21.94588942193605</v>
+        <v>-22.12124527432114</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>12.07056288531405</v>
+        <v>10.84942846093011</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>8.587698083218553</v>
+        <v>8.163642129808268</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>3.043700757466139</v>
+        <v>3.17535922764336</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-1.848158817172885</v>
+        <v>-1.672821031437832</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.591385151700601</v>
+        <v>-5.46500773097558</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.58801558837349</v>
+        <v>-13.5282713563696</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.01461946256656743</v>
+        <v>0.2305400586746664</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.731177543191654</v>
+        <v>2.585557147887707</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.792946972473097</v>
+        <v>1.869953013893944</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>3.191487528928216</v>
+        <v>3.280948371497994</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-10.64278678339931</v>
+        <v>-10.5131432627956</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-10.69180223503421</v>
+        <v>-10.72906035094251</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>1.164007099368058</v>
+        <v>0.8446158058049047</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.2652187267232153</v>
+        <v>-0.1174793915468264</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.330779030561458</v>
+        <v>-1.238838665448649</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>7.299764408608289</v>
+        <v>7.252477192285633</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.310517354841028</v>
+        <v>-7.34262138754882</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.765919580475</v>
+        <v>-10.75850318490574</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>-0.5231538720812834</v>
+        <v>-0.6099854941457594</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>0.4731483144532422</v>
+        <v>0.3955710852182381</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>4.293095544127379</v>
+        <v>4.284261430106895</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>0.9092285781981291</v>
+        <v>1.113303152134493</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.01597964203064</v>
+        <v>-9.96406389184955</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.3662978353404</v>
+        <v>-10.33470477361814</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>14.72528140030183</v>
+        <v>14.68689361760767</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-2.438600546920555</v>
+        <v>-2.537990519854261</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.5271650709245401</v>
+        <v>0.5727068569187921</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-1.389076120625576</v>
+        <v>-1.027078562253769</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.934894304954228</v>
+        <v>-3.939716525071657</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.828764153445245</v>
+        <v>-8.91895324544052</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.912786326846884</v>
+        <v>3.792312564742728</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.222972877537987</v>
+        <v>1.130053906484041</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.207794540244223</v>
+        <v>1.201953809778766</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.169836556652282</v>
+        <v>-1.225576721780564</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-2.058355697693748</v>
+        <v>-1.91273411249967</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-5.013680531462816</v>
+        <v>-4.984912508864126</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.2514726874558115</v>
+        <v>-0.3218249048315802</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>0.8147269494476195</v>
+        <v>0.8811043520130735</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>0.6875775215922753</v>
+        <v>0.6383754963540156</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>3.166928397657864</v>
+        <v>3.076692695402583</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-6.836897225826388</v>
+        <v>-6.70501314644929</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.905308941758484</v>
+        <v>-9.817629093830471</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.116688531316301</v>
+        <v>1.224608342830491</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-0.8613015976557503</v>
+        <v>-0.9488898978236571</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>2.053657220440286</v>
+        <v>1.951858808432361</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>-3.917615470454805</v>
+        <v>-3.939573814494446</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-5.631241557665156</v>
+        <v>-5.537327770616185</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-7.021061338411217</v>
+        <v>-6.992755689245711</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>-1.428549549013314</v>
+        <v>-1.487462251068283</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>-0.2453611520451315</v>
+        <v>-0.03588295143387432</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>1.385049210071831</v>
+        <v>1.248793241594615</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>3.868946026152775</v>
+        <v>3.600965245893906</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-9.604870785878427</v>
+        <v>-9.48655070007357</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.46645858685691</v>
+        <v>-11.31619523810843</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>5.352200720551292</v>
+        <v>5.485901883142374</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-4.672911775872802</v>
+        <v>-4.705026513246901</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>2.267413823955633</v>
+        <v>2.421799836104399</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>-1.964949706426444</v>
+        <v>-2.87620305988715</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.636121770428268</v>
+        <v>-2.622667362067599</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.65735855297995</v>
+        <v>-12.62320298919571</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>8.993602068435159</v>
+        <v>9.015751045777742</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.796533613322948</v>
+        <v>1.75103646722865</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>2.181221137737266</v>
+        <v>2.203646978374874</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.715908242076769</v>
+        <v>1.623656872240908</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.4944313368121</v>
+        <v>-5.477708030272743</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.680009517788489</v>
+        <v>-7.68626726595053</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>5.180868887312062</v>
+        <v>5.16734069394984</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-0.8684452285388611</v>
+        <v>-0.9307938980453567</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.5340766838090261</v>
+        <v>0.5625542606421119</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>-2.508293514306381</v>
+        <v>-2.398956346940206</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-7.210648279099474</v>
+        <v>-7.172906218990461</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.38933379049508</v>
+        <v>-8.427499787927406</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.536907757985452</v>
+        <v>3.282426549816431</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.739962747171142</v>
+        <v>1.450829523585795</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>2.561469987863085</v>
+        <v>2.622314133899972</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>3.865305568609023</v>
+        <v>3.717080077204771</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.452795512908059</v>
+        <v>-5.444992559506378</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.227719633117024</v>
+        <v>-6.299300924104301</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>2.390462641009106</v>
+        <v>2.343170338199085</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-0.1846809178413178</v>
+        <v>-0.2108214686445842</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.8434777660186188</v>
+        <v>-0.8983973932658262</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>1.108601246161411</v>
+        <v>1.241761208587011</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.017903765622446</v>
+        <v>-7.030619370021829</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.828571689426745</v>
+        <v>-9.846736197167793</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.491908778337383</v>
+        <v>4.580785442299096</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-3.772478331840068</v>
+        <v>-3.663469084979432</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.742529675130223</v>
+        <v>2.683217327287823</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>2.806090282376439</v>
+        <v>2.775369096501445</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.550353787654419</v>
+        <v>-8.648098674928729</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.52913622454148</v>
+        <v>-14.55450347028205</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>7.292762755057502</v>
+        <v>7.256602191922901</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-0.4027838610896173</v>
+        <v>-0.4214825383379028</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.9456210172690382</v>
+        <v>-0.9197264138861128</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-1.923319434885518</v>
+        <v>-1.945686094626276</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-8.636196255372742</v>
+        <v>-8.541561767049188</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-11.70672472820911</v>
+        <v>-11.56799793217906</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>3.994364435854436</v>
+        <v>4.2224431698898</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>0.3328648569975501</v>
+        <v>0.4673720518086899</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>3.175229136339963</v>
+        <v>3.080121847381534</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>3.177764477525313</v>
+        <v>3.037779284845388</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-4.211436427683202</v>
+        <v>-4.160944751239293</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-10.04356694233551</v>
+        <v>-9.929124262159162</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>3.005118306669408</v>
+        <v>3.149885376545014</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-1.060440555884867</v>
+        <v>-1.046421537640707</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.280434039863155</v>
+        <v>2.399339051146687</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>1.207655394899154</v>
+        <v>1.219458818620356</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.475569421334272</v>
+        <v>-7.456880333255889</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-11.1151305060469</v>
+        <v>-11.02149621178249</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>5.510730371290085</v>
+        <v>5.414417714520403</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-0.4824726539180313</v>
+        <v>-0.3662870180684785</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.537696405876434</v>
+        <v>-3.518171596842812</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>3.226688045244641</v>
+        <v>3.070853302509224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.3114817327585</v>
+        <v>-10.16360507938094</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-8.146477168201438</v>
+        <v>-8.192245914816498</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>-1.031583673118164</v>
+        <v>-1.284969258124669</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-4.316778966750279</v>
+        <v>-4.242081368916828</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>1.864974102403472</v>
+        <v>1.84502446919721</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-3.316889684094659</v>
+        <v>-3.220752895401846</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.615643337434561</v>
+        <v>-4.579830501950832</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.32761571282322</v>
+        <v>-15.37805387745631</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>12.27483592617449</v>
+        <v>11.77706564769163</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>4.146383378001128</v>
+        <v>3.965213282449143</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-2.600824064847018</v>
+        <v>-2.548304383052435</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>6.36319001904857</v>
+        <v>6.512238951963467</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.168755921219484</v>
+        <v>-8.196934654762789</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.89002426028092</v>
+        <v>-16.93748417813312</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.21389850002503</v>
+        <v>12.13759328059854</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.7657646112027239</v>
+        <v>0.7407537872566428</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.739708944864859</v>
+        <v>1.752340255336993</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-0.3968696343361833</v>
+        <v>-0.2142985100084482</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.445348753081446</v>
+        <v>-4.33824627387941</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-9.455156172151092</v>
+        <v>-9.501262182932601</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>1.563346331100135</v>
+        <v>1.507140882750946</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>1.14599094891501</v>
+        <v>1.13559366508007</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>1.109473804490002</v>
+        <v>1.17706963413271</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.4213208584409212</v>
+        <v>-0.4016111209227513</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-7.239265015737406</v>
+        <v>-7.180110295638508</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.693419352358455</v>
+        <v>-7.713877202332009</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>5.54119420761674</v>
+        <v>5.432228075197454</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-1.290016480270395</v>
+        <v>-1.363872781888664</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>-0.1696800102653051</v>
+        <v>-0.1449025118784197</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>-0.1304310299111489</v>
+        <v>-0.2530238868688639</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-0.9901771850261309</v>
+        <v>-0.9015055448853282</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-10.7233064801039</v>
+        <v>-10.55433653704584</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>5.517469361161753</v>
+        <v>5.456125156943425</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-1.509004142719206</v>
+        <v>-2.07501285148094</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>-0.05158516532106638</v>
+        <v>0.1817787655996383</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>0.6738876427549778</v>
+        <v>0.9025865565077229</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-4.348992492344161</v>
+        <v>-4.380524600011448</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-14.43421867440776</v>
+        <v>-14.5319178076262</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>13.76426815891345</v>
+        <v>13.68354758812895</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.2649436033559827</v>
+        <v>-0.2116173226888174</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-0.7357271084382444</v>
+        <v>-0.6433658289542676</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>5.499558398023874</v>
+        <v>5.279617166058204</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.417610972677755</v>
+        <v>-4.404553774505937</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.259659702249756</v>
+        <v>-9.346598865448708</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>4.237001318131761</v>
+        <v>4.108866244551979</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.653927209814122</v>
+        <v>2.611535882016902</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.429893097472057</v>
+        <v>1.484425335458783</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>3.568936600677475</v>
+        <v>3.392946943539443</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>6.212753174146823</v>
+        <v>6.212753174146801</v>
       </c>
     </row>
     <row r="47" spans="1:3">

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>Tracker (yoy)</t>
+    <t>Projections</t>
   </si>
   <si>
     <t>region</t>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-1.829876362177374</v>
+        <v>-2.231806789378199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.68529215043825</v>
+        <v>-17.28347368975621</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.635574486814956</v>
+        <v>7.953379981205755</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.336871433799347</v>
+        <v>1.914238718130612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.908484121746114</v>
+        <v>3.59756841973311</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>0.4618310582839902</v>
+        <v>-0.4054078027876828</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.588845032660016</v>
+        <v>-4.396847063523879</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.423263809605074</v>
+        <v>-7.545788756211258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.615748335112266</v>
+        <v>1.794019652602086</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>4.318802975804514</v>
+        <v>4.576898610392588</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>3.49541675623648</v>
+        <v>2.842969439621812</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>4.709324397683057</v>
+        <v>2.932766854688551</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.632455002887571</v>
+        <v>-6.191824192185025</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-9.531631900144355</v>
+        <v>-9.264605866450836</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>5.567012643317315</v>
+        <v>6.845801725265099</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-2.319883437501169</v>
+        <v>-1.644028891722571</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.6650800034704307</v>
+        <v>-0.1994846410191431</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>3.138843361390165</v>
+        <v>-0.02496879911295657</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.606852196174295</v>
+        <v>-6.566714902521575</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-11.12548703411246</v>
+        <v>-10.48495294848936</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>8.461763240405418</v>
+        <v>8.577304407947262</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.7754680777328327</v>
+        <v>-1.015092507049276</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.330627249506589</v>
+        <v>1.764349285409805</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-0.4975089193275939</v>
+        <v>-1.097058341232637</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.702977216247483</v>
+        <v>-3.749813957873294</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-10.93463173160637</v>
+        <v>-11.03128607428403</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.702569852767914</v>
+        <v>5.357699334416433</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>3.292124660585505</v>
+        <v>2.731831709729171</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.4832060770467272</v>
+        <v>0.4205054311525958</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-2.367757394725989</v>
+        <v>-1.50767836916601</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-7.150739234044701</v>
+        <v>-6.886680147880819</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-10.74963313631182</v>
+        <v>-9.750349575794026</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>4.652480802520542</v>
+        <v>3.071638789539977</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>1.290988729118503</v>
+        <v>0.517118727292476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>5.146606750763016</v>
+        <v>5.180666451439131</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>-0.93622269523852</v>
+        <v>-0.6490597681213406</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-4.819832327133211</v>
+        <v>-4.893927586705626</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.07286492230397</v>
+        <v>-12.05214697456998</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.861725055727841</v>
+        <v>6.431842777663266</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.6996285076753317</v>
+        <v>0.4174654251767107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.4513562915988478</v>
+        <v>0.1993323939813996</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>1.487944767474003</v>
+        <v>0.4008627674551679</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.246477746419719</v>
+        <v>-4.304424497368508</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-15.08830922108597</v>
+        <v>-14.45210655816964</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>6.212753174146801</v>
+        <v>6.299815117457719</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>5.934636367053447</v>
+        <v>6.670582141744719</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-2.32777235919408</v>
+        <v>-2.800473294888617</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-4.738927914327462</v>
+        <v>-4.696800905828502</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-8.38513665816798</v>
+        <v>-7.979983343237795</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-13.95839721263138</v>
+        <v>-14.10997824042104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>3.320318759010621</v>
+        <v>3.580694397157225</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.243318814338593</v>
+        <v>5.214249845592467</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.7521627654595964</v>
+        <v>0.9216306742013236</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>1.183632299141513</v>
+        <v>0.09468675418784489</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-6.54355759542975</v>
+        <v>-6.774514031596512</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-8.658808103455184</v>
+        <v>-8.480099447934153</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>5.282843081709987</v>
+        <v>4.6783793042255</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-2.654869683947114</v>
+        <v>-2.094410112415557</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.1511478595825677</v>
+        <v>0.6325153637128933</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>2.718708700907868</v>
+        <v>1.980943124825152</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.131157151683629</v>
+        <v>-4.797653103990818</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.994696590852445</v>
+        <v>-7.493165785389744</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.745690558901858</v>
+        <v>2.307713142912626</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-0.5721302897545799</v>
+        <v>0.1635553877114004</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>3.72052741445954</v>
+        <v>3.915684692636723</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-0.975798646303172</v>
+        <v>-1.095730133198125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-9.220066309919117</v>
+        <v>-8.173793411399455</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-7.838460967158046</v>
+        <v>-7.56932111273122</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-3.653386699005801</v>
+        <v>-2.093886842545789</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>3.901625119804208</v>
+        <v>3.694562076960373</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>3.367373865054368</v>
+        <v>0.1799175721276525</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>10.07308520947285</v>
+        <v>1.202962563023968</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-3.013467037292317</v>
+        <v>-3.562642918527914</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.91510186163068</v>
+        <v>-8.078447807160616</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-1.249287517980469</v>
+        <v>-0.907324313434732</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.774752528601419</v>
+        <v>0.203854701585926</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>1.739557972391292</v>
+        <v>0.735510405326778</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>-1.520481546547159</v>
+        <v>3.463030280225898</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-7.856885104704824</v>
+        <v>-7.902403762445475</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-12.4609596438104</v>
+        <v>-12.69364382855097</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.97524116119435</v>
+        <v>14.06920524444568</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.338240506465072</v>
+        <v>-1.305431370828691</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.7581997545267338</v>
+        <v>0.4845381216017408</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-2.951222064524517</v>
+        <v>-2.178451010873728</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.891344378721486</v>
+        <v>-5.738488029830647</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.727191330093776</v>
+        <v>-8.623724303062907</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>6.2158266485981</v>
+        <v>6.41426695258549</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-2.074631133939642</v>
+        <v>-1.954730133795513</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.225273275842542</v>
+        <v>-1.049892688798781</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>0.04083061160400359</v>
+        <v>-0.7283993626153507</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-8.353376421159165</v>
+        <v>-9.299959442629746</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.93340882931816</v>
+        <v>-11.74170361632644</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.688289070784556</v>
+        <v>3.494765035560921</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>1.49606596666656</v>
+        <v>0.07739216396709381</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>0.8106545284343625</v>
+        <v>2.14445921753661</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>6.755308376332869</v>
+        <v>4.116258195457956</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-5.950226091443634</v>
+        <v>-6.37027610687716</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-12.66231712723149</v>
+        <v>-12.04243180762754</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.934410381633823</v>
+        <v>3.725859911774432</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-0.9266617884660322</v>
+        <v>-0.1893778985264327</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>4.070580032246474</v>
+        <v>3.912924407538676</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>3.708321813418114</v>
+        <v>-0.008648620051543432</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-7.060531624673272</v>
+        <v>-8.398143400906399</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-12.1518029438397</v>
+        <v>-8.322949085117804</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-1.020619100146702</v>
+        <v>4.649059584984494</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>4.557597945004654</v>
+        <v>6.298815387237178</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>-0.9287405017025852</v>
+        <v>7.212744145431405</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>1.166247784397134</v>
+        <v>8.331353231170645</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-6.734032551774993</v>
+        <v>-6.408087708323573</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-22.12124527432114</v>
+        <v>-22.20324257429991</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.84942846093011</v>
+        <v>10.84938750703013</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>8.163642129808268</v>
+        <v>8.31040217968062</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>3.17535922764336</v>
+        <v>2.944823401913066</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-1.672821031437832</v>
+        <v>-2.033141503067859</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.46500773097558</v>
+        <v>-5.252491357746402</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.5282713563696</v>
+        <v>-13.62326783200183</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>0.2305400586746664</v>
+        <v>0.1694916457233742</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.585557147887707</v>
+        <v>2.839201841066386</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.869953013893944</v>
+        <v>1.71740583765343</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>3.280948371497994</v>
+        <v>0.5041519501371994</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-10.5131432627956</v>
+        <v>-9.888438140772415</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-10.72906035094251</v>
+        <v>-11.22290821081726</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>0.8446158058049047</v>
+        <v>2.735942522290968</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.1174793915468264</v>
+        <v>-0.9935602767714102</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.238838665448649</v>
+        <v>-1.466495081977748</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>7.252477192285633</v>
+        <v>5.193974021029457</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.34262138754882</v>
+        <v>-7.038957799013257</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.75850318490574</v>
+        <v>-11.05243273051404</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>-0.6099854941457594</v>
+        <v>-0.1455462513356931</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>0.3955710852182381</v>
+        <v>0.2609534454657281</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>4.284261430106895</v>
+        <v>2.873211248376095</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>1.113303152134493</v>
+        <v>3.801735583095867</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-9.96406389184955</v>
+        <v>-9.741102649974053</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.33470477361814</v>
+        <v>-10.1845324598778</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>14.68689361760767</v>
+        <v>15.07288055846439</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-2.537990519854261</v>
+        <v>-2.962625244886652</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.5727068569187921</v>
+        <v>-0.08616555865018638</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-1.027078562253769</v>
+        <v>-0.7720585519468526</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.939716525071657</v>
+        <v>-3.917410287172784</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.91895324544052</v>
+        <v>-8.893472230956789</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.792312564742728</v>
+        <v>3.823822333298543</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.130053906484041</v>
+        <v>1.401272721179847</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.201953809778766</v>
+        <v>1.425915108394116</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.225576721780564</v>
+        <v>-0.5612996181671326</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-1.91273411249967</v>
+        <v>-1.543527576183967</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-4.984912508864126</v>
+        <v>-4.696561749292649</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.3218249048315802</v>
+        <v>-0.3780427950458409</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>0.8811043520130735</v>
+        <v>1.062293572491324</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>0.6383754963540156</v>
+        <v>0.8721628030120554</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>3.076692695402583</v>
+        <v>3.891860336379782</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-6.70501314644929</v>
+        <v>-5.097438615202132</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.817629093830471</v>
+        <v>-10.54077426945733</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.224608342830491</v>
+        <v>0.07079773580058735</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-0.9488898978236571</v>
+        <v>-0.5745602250643467</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>1.951858808432361</v>
+        <v>0.2375466586470809</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>-3.939573814494446</v>
+        <v>-2.596940260104408</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-5.537327770616185</v>
+        <v>-5.997426940994021</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-6.992755689245711</v>
+        <v>-7.149375917061596</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>-1.487462251068283</v>
+        <v>2.00196615120376</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>-0.03588295143387432</v>
+        <v>2.451381889093951</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>1.248793241594615</v>
+        <v>0.4145307257660047</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>3.600965245893906</v>
+        <v>1.297387906326519</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-9.48655070007357</v>
+        <v>-10.00895854522748</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.31619523810843</v>
+        <v>-11.51621164267765</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>5.485901883142374</v>
+        <v>5.444254607053556</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-4.705026513246901</v>
+        <v>3.699639621907269</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>2.421799836104399</v>
+        <v>-3.238522802700061</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>-2.87620305988715</v>
+        <v>-1.462440813339938</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.622667362067599</v>
+        <v>-2.07584236153503</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.62320298919571</v>
+        <v>-12.7377659777146</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>9.015751045777742</v>
+        <v>9.261835273051</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.75103646722865</v>
+        <v>1.754368938144624</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>2.203646978374874</v>
+        <v>2.504937324849044</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.623656872240908</v>
+        <v>0.5118601318382154</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.477708030272743</v>
+        <v>-5.472656723962766</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.68626726595053</v>
+        <v>-7.526600479876732</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>5.16734069394984</v>
+        <v>4.733891886255437</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-0.9307938980453567</v>
+        <v>-1.09838008988481</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.5625542606421119</v>
+        <v>0.1036664011654587</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>-2.398956346940206</v>
+        <v>0.2637217209213727</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-7.172906218990461</v>
+        <v>-7.121945253505146</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.427499787927406</v>
+        <v>-8.469560636557238</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.282426549816431</v>
+        <v>2.898997445229257</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.450829523585795</v>
+        <v>1.910075203276107</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>2.622314133899972</v>
+        <v>1.137531134793601</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>3.717080077204771</v>
+        <v>1.864620905209646</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.444992559506378</v>
+        <v>-4.943119717031685</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.299300924104301</v>
+        <v>-6.537463082714301</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>2.343170338199085</v>
+        <v>1.526704443626592</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-0.2108214686445842</v>
+        <v>1.09684407463897</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.8983973932658262</v>
+        <v>0.05006666903699664</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>1.241761208587011</v>
+        <v>2.633470068074817</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.030619370021829</v>
+        <v>-7.256128898700764</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.846736197167793</v>
+        <v>-9.863427464922259</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.580785442299096</v>
+        <v>5.137041745610316</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-3.663469084979432</v>
+        <v>-2.699491573944213</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.683217327287823</v>
+        <v>2.031572812200033</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>2.775369096501445</v>
+        <v>1.336973366948579</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.648098674928729</v>
+        <v>-8.302631309022079</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.55450347028205</v>
+        <v>-14.93077683487062</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>7.256602191922901</v>
+        <v>8.041468261999075</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-0.4214825383379028</v>
+        <v>-0.4378086998091835</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.9197264138861128</v>
+        <v>-0.4525704517992502</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-1.945686094626276</v>
+        <v>-1.158970557426775</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-8.541561767049188</v>
+        <v>-8.11037156230916</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-11.56799793217906</v>
+        <v>-11.76286466110744</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>4.2224431698898</v>
+        <v>3.662330546059978</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>0.4673720518086899</v>
+        <v>1.988254604734085</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>3.080121847381534</v>
+        <v>2.642825399079607</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>3.037779284845388</v>
+        <v>0.3085946263860828</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-4.160944751239293</v>
+        <v>-3.801789620155605</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.929124262159162</v>
+        <v>-9.988417309181985</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>3.149885376545014</v>
+        <v>2.720385858991103</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-1.046421537640707</v>
+        <v>-0.7165340058549741</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.399339051146687</v>
+        <v>2.370886155113894</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>1.219458818620356</v>
+        <v>-0.2207729754531207</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.456880333255889</v>
+        <v>-7.254503755996378</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-11.02149621178249</v>
+        <v>-10.13029147344411</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>5.414417714520403</v>
+        <v>4.88366894980321</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-0.3662870180684785</v>
+        <v>-0.6671471745154367</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.518171596842812</v>
+        <v>-3.424219796499872</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>3.070853302509224</v>
+        <v>0.8131559869682281</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.16360507938094</v>
+        <v>-10.69388459647592</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-8.192245914816498</v>
+        <v>-7.897601845480229</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>-1.284969258124669</v>
+        <v>-1.552531640550847</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-4.242081368916828</v>
+        <v>-3.393753720836834</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>1.84502446919721</v>
+        <v>3.134916412968636</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-3.220752895401846</v>
+        <v>-2.793225186537418</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.579830501950832</v>
+        <v>-5.834794977302648</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.37805387745631</v>
+        <v>-15.59417426582879</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.77706564769163</v>
+        <v>11.85021021010238</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.965213282449143</v>
+        <v>3.763860188333856</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-2.548304383052435</v>
+        <v>-1.949364534000075</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>6.512238951963467</v>
+        <v>3.932056269528839</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.196934654762789</v>
+        <v>-8.155291013047139</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.93748417813312</v>
+        <v>-16.62081674566538</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.13759328059854</v>
+        <v>12.2104523661277</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.7407537872566428</v>
+        <v>0.7317274451941413</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.752340255336993</v>
+        <v>0.9509433064657902</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-0.2142985100084482</v>
+        <v>0.2733513109442143</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.33824627387941</v>
+        <v>-4.967620966411424</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-9.501262182932601</v>
+        <v>-8.994680925649345</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>1.507140882750946</v>
+        <v>2.105968259262148</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>1.13559366508007</v>
+        <v>2.02455011793663</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>1.17706963413271</v>
+        <v>0.979538120939738</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.4016111209227513</v>
+        <v>-0.6070866189643698</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-7.180110295638508</v>
+        <v>-6.732919674982208</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.713877202332009</v>
+        <v>-7.064420525980342</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>5.432228075197454</v>
+        <v>5.899464395087284</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-1.363872781888664</v>
+        <v>-0.4255123358819279</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>-0.1449025118784197</v>
+        <v>-0.6258440758916683</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>-0.2530238868688639</v>
+        <v>0.8037031715269372</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-0.9015055448853282</v>
+        <v>-0.8399508319105631</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-10.55433653704584</v>
+        <v>-10.51416977341488</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>5.456125156943425</v>
+        <v>5.702481262450054</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-2.07501285148094</v>
+        <v>-2.473919688912862</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>0.1817787655996383</v>
+        <v>0.5682002204307812</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>0.9025865565077229</v>
+        <v>-1.161134530845165</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-4.380524600011448</v>
+        <v>-4.39629933201362</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-14.5319178076262</v>
+        <v>-14.48950175791513</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>13.68354758812895</v>
+        <v>13.70183258695523</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.2116173226888174</v>
+        <v>0.3254441766119553</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-0.6433658289542676</v>
+        <v>-0.7960982344107803</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>5.279617166058204</v>
+        <v>3.999610902504314</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.404553774505937</v>
+        <v>-4.45752285367611</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.346598865448708</v>
+        <v>-9.325197109638506</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>4.108866244551979</v>
+        <v>4.319543873505571</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.611535882016902</v>
+        <v>2.531303964779741</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.484425335458783</v>
+        <v>1.447675045120378</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>3.392946943539443</v>
+        <v>2.388051947263392</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.231806789378199</v>
+        <v>-1.787821166146775</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-17.28347368975621</v>
+        <v>-16.41166095341013</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>7.953379981205755</v>
+        <v>8.19340950686238</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.914238718130612</v>
+        <v>1.327824715677761</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.59756841973311</v>
+        <v>3.746364417497761</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-0.4054078027876828</v>
+        <v>-0.6076140241684125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.396847063523879</v>
+        <v>-4.348286813779911</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.545788756211258</v>
+        <v>-7.374402611282582</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.794019652602086</v>
+        <v>1.746627058134376</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>4.576898610392588</v>
+        <v>3.969036274625171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.842969439621812</v>
+        <v>3.565721376876452</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>2.932766854688551</v>
+        <v>2.41188101269143</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.191824192185025</v>
+        <v>-6.061764322861773</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-9.264605866450836</v>
+        <v>-9.062209215151162</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>6.845801725265099</v>
+        <v>6.261655587693138</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-1.644028891722571</v>
+        <v>-1.359473382894005</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.1994846410191431</v>
+        <v>-0.1936089497284854</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>-0.02496879911295657</v>
+        <v>0.04288649894998997</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.566714902521575</v>
+        <v>-6.805236997039243</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.48495294848936</v>
+        <v>-10.73863555132516</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>8.577304407947262</v>
+        <v>7.842224415607046</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-1.015092507049276</v>
+        <v>-0.674575319705184</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.764349285409805</v>
+        <v>1.402816061780032</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-1.097058341232637</v>
+        <v>-0.1670584470190972</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.749813957873294</v>
+        <v>-3.714494234948851</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-11.03128607428403</v>
+        <v>-10.95565736675734</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.357699334416433</v>
+        <v>5.877172954258247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>2.731831709729171</v>
+        <v>2.935794410690207</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.4205054311525958</v>
+        <v>0.3265588871494529</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-1.50767836916601</v>
+        <v>-1.168656789671585</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-6.886680147880819</v>
+        <v>-5.82398960133631</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.750349575794026</v>
+        <v>-10.17828656784316</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>3.071638789539977</v>
+        <v>4.137686406537378</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>0.517118727292476</v>
+        <v>0.06562904112528134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>5.180666451439131</v>
+        <v>4.690608819195097</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>-0.6490597681213406</v>
+        <v>1.245345978909684</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-4.893927586705626</v>
+        <v>-5.041631061635909</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.05214697456998</v>
+        <v>-11.80354365979286</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.431842777663266</v>
+        <v>6.280804606328538</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.4174654251767107</v>
+        <v>0.7194934005533282</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.1993323939813996</v>
+        <v>0.1786697299241968</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>0.4008627674551679</v>
+        <v>-1.159933323030415</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.304424497368508</v>
+        <v>-4.236792240444187</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-14.45210655816964</v>
+        <v>-13.64401041890803</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>6.299815117457719</v>
+        <v>6.065757667581972</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>6.670582141744719</v>
+        <v>5.865388033159213</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-2.800473294888617</v>
+        <v>-1.972952214456003</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-4.696800905828502</v>
+        <v>-3.24122980593049</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-7.979983343237795</v>
+        <v>-7.638608302872174</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-14.10997824042104</v>
+        <v>-14.45627230182127</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>3.580694397157225</v>
+        <v>4.5432702866534</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.214249845592467</v>
+        <v>5.376655462488622</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.9216306742013236</v>
+        <v>0.1484098796311839</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>0.09468675418784489</v>
+        <v>-1.545835929309469</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-6.774514031596512</v>
+        <v>-7.019166670430343</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-8.480099447934153</v>
+        <v>-8.215284713406824</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>4.6783793042255</v>
+        <v>4.938851630244745</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-2.094410112415557</v>
+        <v>-1.954857064016779</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.6325153637128933</v>
+        <v>0.8541889649277934</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.980943124825152</v>
+        <v>1.37114347538525</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.797653103990818</v>
+        <v>-4.57758526016897</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.493165785389744</v>
+        <v>-7.483588682846475</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>2.307713142912626</v>
+        <v>1.628806064506172</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>0.1635553877114004</v>
+        <v>-0.8476493427243659</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>3.915684692636723</v>
+        <v>3.58852667923697</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-1.095730133198125</v>
+        <v>-2.027037522003328</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-8.173793411399455</v>
+        <v>-7.283582287446255</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-7.56932111273122</v>
+        <v>-6.82178417652003</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-2.093886842545789</v>
+        <v>-2.036931507727935</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>3.694562076960373</v>
+        <v>1.091552043960142</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>0.1799175721276525</v>
+        <v>4.456852960165447</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>1.202962563023968</v>
+        <v>-0.3961922166209275</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-3.562642918527914</v>
+        <v>-2.962208970541091</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-8.078447807160616</v>
+        <v>-8.192908331362126</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-0.907324313434732</v>
+        <v>-0.1849424631420016</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.203854701585926</v>
+        <v>0.7970652663009448</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.735510405326778</v>
+        <v>0.4834160404694643</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>3.463030280225898</v>
+        <v>2.940730886904097</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-7.902403762445475</v>
+        <v>-8.211242772653582</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-12.69364382855097</v>
+        <v>-12.91882778969933</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>14.06920524444568</v>
+        <v>13.98354399624648</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.305431370828691</v>
+        <v>-1.404080103547856</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.4845381216017408</v>
+        <v>0.5614593234454457</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-2.178451010873728</v>
+        <v>-2.813018620359142</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.738488029830647</v>
+        <v>-5.984907739607548</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.623724303062907</v>
+        <v>-8.80935208622663</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>6.41426695258549</v>
+        <v>6.233024873446125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-1.954730133795513</v>
+        <v>-1.97148069651234</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.049892688798781</v>
+        <v>-1.280469846240873</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-0.7283993626153507</v>
+        <v>-1.057525875812682</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-9.299959442629746</v>
+        <v>-8.137922891387317</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.74170361632644</v>
+        <v>-11.32123154715946</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.494765035560921</v>
+        <v>2.646747513153769</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>0.07739216396709381</v>
+        <v>0.5513421212459235</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>2.14445921753661</v>
+        <v>2.032870568802458</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>4.116258195457956</v>
+        <v>3.930102276375402</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-6.37027610687716</v>
+        <v>-7.358291100858505</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-12.04243180762754</v>
+        <v>-11.85371753210601</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>3.725859911774432</v>
+        <v>3.359312114236568</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-0.1893778985264327</v>
+        <v>0.02848529812551348</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>3.912924407538676</v>
+        <v>2.311483675272963</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>-0.008648620051543432</v>
+        <v>3.170092442345029</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-8.398143400906399</v>
+        <v>-7.052229679745736</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-8.322949085117804</v>
+        <v>-14.88946201954214</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>4.649059584984494</v>
+        <v>-0.001709869990129675</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>6.298815387237178</v>
+        <v>9.69379934840051</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>7.212744145431405</v>
+        <v>0.4028261221621587</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>8.331353231170645</v>
+        <v>-1.580226575147348</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-6.408087708323573</v>
+        <v>-6.263467455794613</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-22.20324257429991</v>
+        <v>-21.93551293838731</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.84938750703013</v>
+        <v>10.8748577625968</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>8.31040217968062</v>
+        <v>7.839853944371478</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>2.944823401913066</v>
+        <v>3.453458844093049</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-2.033141503067859</v>
+        <v>-2.559057053170155</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.252491357746402</v>
+        <v>-5.394516561046869</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.62326783200183</v>
+        <v>-13.45144583492576</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>0.1694916457233742</v>
+        <v>-0.35068607493286</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.839201841066386</v>
+        <v>2.572670345362393</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.71740583765343</v>
+        <v>1.851758223059918</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>0.5041519501371994</v>
+        <v>0.4786390436880561</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-9.888438140772415</v>
+        <v>-10.39239693525214</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-11.22290821081726</v>
+        <v>-11.76642598899266</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.735942522290968</v>
+        <v>1.810358572087334</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.9935602767714102</v>
+        <v>-0.4309767094811678</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.466495081977748</v>
+        <v>-1.332391656355436</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>5.193974021029457</v>
+        <v>5.344625101897926</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.038957799013257</v>
+        <v>-7.305334009488251</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-11.05243273051404</v>
+        <v>-9.981309384891224</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>-0.1455462513356931</v>
+        <v>-0.8453096726936726</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>0.2609534454657281</v>
+        <v>1.684235404421774</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.873211248376095</v>
+        <v>3.469181602872728</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>3.801735583095867</v>
+        <v>2.695948311890772</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-9.741102649974053</v>
+        <v>-10.4086101889913</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.1845324598778</v>
+        <v>-10.12731856463212</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>15.07288055846439</v>
+        <v>15.41348635803383</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-2.962625244886652</v>
+        <v>-3.436876325207971</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>-0.08616555865018638</v>
+        <v>0.766988549701253</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-0.7720585519468526</v>
+        <v>-1.028781075550056</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.917410287172784</v>
+        <v>-3.694425348486396</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.893472230956789</v>
+        <v>-9.193124496977312</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.823822333298543</v>
+        <v>3.386031846554638</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.401272721179847</v>
+        <v>1.914200015833467</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.425915108394116</v>
+        <v>0.9991205407346992</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-0.5612996181671326</v>
+        <v>-0.4864950315971672</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-1.543527576183967</v>
+        <v>-1.972566333302328</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-4.696561749292649</v>
+        <v>-4.631628220000317</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.3780427950458409</v>
+        <v>-0.3885051217817459</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>1.062293572491324</v>
+        <v>0.9923464055060505</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>0.8721628030120554</v>
+        <v>1.141710559323417</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>3.891860336379782</v>
+        <v>3.369421256049643</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-5.097438615202132</v>
+        <v>-5.576788117255338</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-10.54077426945733</v>
+        <v>-8.618400820464544</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>0.07079773580058735</v>
+        <v>-0.2468902336520751</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-0.5745602250643467</v>
+        <v>-2.335930536685571</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>0.2375466586470809</v>
+        <v>0.8167877265267798</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>-2.596940260104408</v>
+        <v>-0.8253972632938145</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-5.997426940994021</v>
+        <v>-6.626695604736222</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-7.149375917061596</v>
+        <v>-8.234022816089691</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>2.00196615120376</v>
+        <v>0.1171033102199237</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>2.451381889093951</v>
+        <v>0.6917520939097699</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>0.4145307257660047</v>
+        <v>0.4948838413782131</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>1.297387906326519</v>
+        <v>2.463790511939257</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-10.00895854522748</v>
+        <v>-8.027525252087585</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.51621164267765</v>
+        <v>-11.0378650884001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>5.444254607053556</v>
+        <v>5.523415635022744</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>3.699639621907269</v>
+        <v>-1.002437678536472</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>-3.238522802700061</v>
+        <v>0.6930447880256319</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>-1.462440813339938</v>
+        <v>-0.3333678374745408</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.07584236153503</v>
+        <v>-2.719552140242876</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.7377659777146</v>
+        <v>-12.33381055291918</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>9.261835273051</v>
+        <v>8.441847708069306</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.754368938144624</v>
+        <v>2.357156407953265</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>2.504937324849044</v>
+        <v>1.120226166780935</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>0.5118601318382154</v>
+        <v>1.297448581494409</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.472656723962766</v>
+        <v>-5.667496063474553</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.526600479876732</v>
+        <v>-7.37486963583679</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>4.733891886255437</v>
+        <v>4.977007483278073</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-1.09838008988481</v>
+        <v>-0.9611569102143891</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.1036664011654587</v>
+        <v>0.5108788286640964</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>0.2637217209213727</v>
+        <v>-0.04457197142782032</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-7.121945253505146</v>
+        <v>-6.340950712886439</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.469560636557238</v>
+        <v>-8.4400917671698</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>2.898997445229257</v>
+        <v>3.658207489337162</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.910075203276107</v>
+        <v>1.153435565129723</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.137531134793601</v>
+        <v>1.13013081641764</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>1.864620905209646</v>
+        <v>1.699932067555721</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-4.943119717031685</v>
+        <v>-5.874671324171521</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.537463082714301</v>
+        <v>-5.217182431549661</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>1.526704443626592</v>
+        <v>1.759348611806599</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>1.09684407463897</v>
+        <v>-0.4492994131993444</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>0.05006666903699664</v>
+        <v>-0.3178034533947161</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>2.633470068074817</v>
+        <v>1.581962453902008</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.256128898700764</v>
+        <v>-7.686178874077775</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.863427464922259</v>
+        <v>-9.311347548259608</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>5.137041745610316</v>
+        <v>4.748169675237479</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-2.699491573944213</v>
+        <v>-3.059750563116703</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.031572812200033</v>
+        <v>2.165558550519964</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>1.336973366948579</v>
+        <v>1.324329567581284</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.302631309022079</v>
+        <v>-7.959876089170304</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.93077683487062</v>
+        <v>-14.93600571720026</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>8.041468261999075</v>
+        <v>8.190885880066689</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-0.4378086998091835</v>
+        <v>-0.8224607137193307</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.4525704517992502</v>
+        <v>-0.9539004502789439</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-1.158970557426775</v>
+        <v>-0.8681781414628165</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-8.11037156230916</v>
+        <v>-9.020079057429209</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-11.76286466110744</v>
+        <v>-11.12963425304757</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>3.662330546059978</v>
+        <v>4.859962839590115</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>1.988254604734085</v>
+        <v>0.6247046756540753</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>2.642825399079607</v>
+        <v>3.705091284022766</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>0.3085946263860828</v>
+        <v>1.233854923344491</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.801789620155605</v>
+        <v>-4.067150970963274</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.988417309181985</v>
+        <v>-9.140575511861982</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>2.720385858991103</v>
+        <v>2.710010287905518</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-0.7165340058549741</v>
+        <v>-0.1199551790085795</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.370886155113894</v>
+        <v>2.191131890242493</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>-0.2207729754531207</v>
+        <v>0.2846616535123525</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.254503755996378</v>
+        <v>-7.609880335279218</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-10.13029147344411</v>
+        <v>-10.04320265099665</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>4.88366894980321</v>
+        <v>5.912622929974254</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-0.6671471745154367</v>
+        <v>0.02554585977874169</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.424219796499872</v>
+        <v>-4.298239304165586</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>0.8131559869682281</v>
+        <v>2.194498041484194</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.69388459647592</v>
+        <v>-10.10534165318165</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-7.897601845480229</v>
+        <v>-7.818584032696463</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>-1.552531640550847</v>
+        <v>0.6945127636466042</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-3.393753720836834</v>
+        <v>-2.817907303848888</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>3.134916412968636</v>
+        <v>0.7960762210775352</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-2.793225186537418</v>
+        <v>-0.04374074661156468</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-5.834794977302648</v>
+        <v>-4.988112669609867</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.59417426582879</v>
+        <v>-15.1296340049499</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.85021021010238</v>
+        <v>11.30821283172709</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.763860188333856</v>
+        <v>3.495248960839925</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-1.949364534000075</v>
+        <v>-2.019825519275054</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>3.932056269528839</v>
+        <v>4.879041911626425</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.155291013047139</v>
+        <v>-8.441984423570737</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.62081674566538</v>
+        <v>-17.25074742493827</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.2104523661277</v>
+        <v>12.65071160438611</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.7317274451941413</v>
+        <v>0.7226127155078643</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>0.9509433064657902</v>
+        <v>1.521688106514052</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>0.2733513109442143</v>
+        <v>-0.3690127603746207</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.967620966411424</v>
+        <v>-4.568990757090885</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-8.994680925649345</v>
+        <v>-9.477325359015587</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>2.105968259262148</v>
+        <v>2.316312859338332</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>2.02455011793663</v>
+        <v>1.664097336220927</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>0.979538120939738</v>
+        <v>1.83343066109547</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.6070866189643698</v>
+        <v>-1.712342390154653</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-6.732919674982208</v>
+        <v>-6.670749699430223</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.064420525980342</v>
+        <v>-7.549809837508725</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>5.899464395087284</v>
+        <v>5.513222153046926</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-0.4255123358819279</v>
+        <v>-1.101421752121845</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>-0.6258440758916683</v>
+        <v>-0.3631054042049442</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>0.8037031715269372</v>
+        <v>0.07700196568523054</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-0.8399508319105631</v>
+        <v>-1.31246727994534</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-10.51416977341488</v>
+        <v>-9.841469057625741</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>5.702481262450054</v>
+        <v>5.396530230863417</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-2.473919688912862</v>
+        <v>-2.499284380255229</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>0.5682002204307812</v>
+        <v>-0.1024445553941655</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-1.161134530845165</v>
+        <v>-0.8241369004695853</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-4.39629933201362</v>
+        <v>-5.706067363341816</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-14.48950175791513</v>
+        <v>-15.8022951144134</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>13.70183258695523</v>
+        <v>12.52817012990881</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>0.3254441766119553</v>
+        <v>-0.1606537105482531</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-0.7960982344107803</v>
+        <v>-0.8113948902172874</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>3.999610902504314</v>
+        <v>3.349251750375037</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.45752285367611</v>
+        <v>-4.618856980049357</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.325197109638506</v>
+        <v>-9.394147395301589</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>4.319543873505571</v>
+        <v>4.090523769561583</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.531303964779741</v>
+        <v>2.089182445784976</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.447675045120378</v>
+        <v>1.718103988832587</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>2.388051947263392</v>
+        <v>2.165881275445281</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-1.787821166146775</v>
+        <v>-2.047642702851571</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.41166095341013</v>
+        <v>-16.05177514794577</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.19340950686238</v>
+        <v>7.578868543302941</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.327824715677761</v>
+        <v>2.00970866584258</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.746364417497761</v>
+        <v>3.563786212321607</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-0.6076140241684125</v>
+        <v>-1.586667214169435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.348286813779911</v>
+        <v>-5.114635783776944</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.374402611282582</v>
+        <v>-7.928794971576281</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.746627058134376</v>
+        <v>1.561765002444493</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>3.969036274625171</v>
+        <v>4.037135878587539</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>3.565721376876452</v>
+        <v>2.902664493236928</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>2.41188101269143</v>
+        <v>0.3221967351708876</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.061764322861773</v>
+        <v>-6.447262595110248</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-9.062209215151162</v>
+        <v>-10.86594191940029</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>6.261655587693138</v>
+        <v>6.72215505602165</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-1.359473382894005</v>
+        <v>-1.219525817873135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.1936089497284854</v>
+        <v>-0.81557956580387</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>0.04288649894998997</v>
+        <v>-0.9264419399732327</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.805236997039243</v>
+        <v>-6.790141886484758</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.73863555132516</v>
+        <v>-10.86764597577706</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.842224415607046</v>
+        <v>7.61769177095637</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.674575319705184</v>
+        <v>-0.8955652461118846</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.402816061780032</v>
+        <v>1.058113728441623</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-0.1670584470190972</v>
+        <v>-0.5893000919962588</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.714494234948851</v>
+        <v>-3.418720994932367</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-10.95565736675734</v>
+        <v>-11.04057837725808</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.877172954258247</v>
+        <v>6.202959620675785</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>2.935794410690207</v>
+        <v>3.23665411174956</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.3265588871494529</v>
+        <v>0.2899250175247836</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-1.168656789671585</v>
+        <v>-1.874995538119817</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-5.82398960133631</v>
+        <v>-6.937848941589664</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-10.17828656784316</v>
+        <v>-9.324853406737354</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>4.137686406537378</v>
+        <v>2.897945068583363</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>0.06562904112528134</v>
+        <v>0.5351642059537864</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>4.690608819195097</v>
+        <v>5.216727712459779</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>1.245345978909684</v>
+        <v>0.5146622807735923</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-5.041631061635909</v>
+        <v>-4.806130139948306</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-11.80354365979286</v>
+        <v>-12.00808506511684</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.280804606328538</v>
+        <v>6.353712614857399</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.7194934005533282</v>
+        <v>0.687347314436737</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.1786697299241968</v>
+        <v>0.4536254537706785</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>-1.159933323030415</v>
+        <v>-2.419427477965497</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.236792240444187</v>
+        <v>-4.89839386989993</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-13.64401041890803</v>
+        <v>-14.04102711994497</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>6.065757667581972</v>
+        <v>5.804623825396193</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>5.865388033159213</v>
+        <v>5.77929481841295</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-1.972952214456003</v>
+        <v>-2.541812653996478</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-3.24122980593049</v>
+        <v>-4.178537559447282</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-7.638608302872174</v>
+        <v>-6.867352993399278</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-14.45627230182127</v>
+        <v>-13.84723678554512</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>4.5432702866534</v>
+        <v>3.453769749697977</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.376655462488622</v>
+        <v>5.300909460030145</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.1484098796311839</v>
+        <v>0.488919654750597</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-1.545835929309469</v>
+        <v>-1.712142546338791</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-7.019166670430343</v>
+        <v>-6.675463911197776</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-8.215284713406824</v>
+        <v>-8.005340683023221</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>4.938851630244745</v>
+        <v>3.476120408963768</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-1.954857064016779</v>
+        <v>-0.8521277806261995</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.8541889649277934</v>
+        <v>0.02665202970213443</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.37114347538525</v>
+        <v>1.645240392963632</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.57758526016897</v>
+        <v>-4.86697576228432</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.483588682846475</v>
+        <v>-8.144152529922543</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.628806064506172</v>
+        <v>1.696194201241519</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-0.8476493427243659</v>
+        <v>-0.4892376524215925</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>3.58852667923697</v>
+        <v>3.313207827526754</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-2.027037522003328</v>
+        <v>-1.923112552443618</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-7.283582287446255</v>
+        <v>-8.263676364861293</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-6.82178417652003</v>
+        <v>-4.862759829494657</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-2.036931507727935</v>
+        <v>-3.833386960717089</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>1.091552043960142</v>
+        <v>0.6895664146614466</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>4.456852960165447</v>
+        <v>4.467398983211845</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>-0.3961922166209275</v>
+        <v>1.389584706269242</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-2.962208970541091</v>
+        <v>-2.673666565973332</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-8.192908331362126</v>
+        <v>-7.475016444273908</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-0.1849424631420016</v>
+        <v>-0.3251509198623936</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.7970652663009448</v>
+        <v>1.121128356260015</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.4834160404694643</v>
+        <v>0.5893156957256229</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>2.940730886904097</v>
+        <v>2.759399437135679</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-8.211242772653582</v>
+        <v>-7.85930568602129</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-12.91882778969933</v>
+        <v>-12.55604098368914</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.98354399624648</v>
+        <v>13.5648380805838</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.404080103547856</v>
+        <v>-0.7133907538603323</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.5614593234454457</v>
+        <v>0.2880445738302484</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-2.813018620359142</v>
+        <v>-2.62124271691343</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.984907739607548</v>
+        <v>-5.619538770239362</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.80935208622663</v>
+        <v>-8.926132782235808</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>6.233024873446125</v>
+        <v>5.682586051183636</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-1.97148069651234</v>
+        <v>-1.701437921558213</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.280469846240873</v>
+        <v>-1.128699379045772</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-1.057525875812682</v>
+        <v>-2.246865290574007</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-8.137922891387317</v>
+        <v>-6.479640551061394</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.32123154715946</v>
+        <v>-12.15078952122182</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>2.646747513153769</v>
+        <v>3.127974119400467</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>0.5513421212459235</v>
+        <v>1.045484205586034</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>2.032870568802458</v>
+        <v>2.014572365300693</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>3.930102276375402</v>
+        <v>1.574061389613846</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-7.358291100858505</v>
+        <v>-6.49348339826309</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-11.85371753210601</v>
+        <v>-11.2353757071428</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>3.359312114236568</v>
+        <v>2.013711256002781</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>0.02848529812551348</v>
+        <v>-0.2036569822324807</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>2.311483675272963</v>
+        <v>3.743616241169367</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>3.170092442345029</v>
+        <v>-0.1603413648070262</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-7.052229679745736</v>
+        <v>-9.70215242984407</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-14.88946201954214</v>
+        <v>-12.2227879824914</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-0.001709869990129675</v>
+        <v>3.051023913307294</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>9.69379934840051</v>
+        <v>-0.1001611437033034</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>0.4028261221621587</v>
+        <v>5.658575836626478</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>-1.580226575147348</v>
+        <v>-4.546267445778829</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-6.263467455794613</v>
+        <v>-5.5907198935639</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-21.93551293838731</v>
+        <v>-20.92688787895132</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.8748577625968</v>
+        <v>10.53446255692185</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>7.839853944371478</v>
+        <v>7.604151732661202</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>3.453458844093049</v>
+        <v>3.221499756571777</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-2.559057053170155</v>
+        <v>-2.011066206379986</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.394516561046869</v>
+        <v>-5.502882274101529</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.45144583492576</v>
+        <v>-13.89079074102322</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.35068607493286</v>
+        <v>-0.7657614386344047</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.572670345362393</v>
+        <v>2.404021640331044</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.851758223059918</v>
+        <v>1.910703613536957</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>0.4786390436880561</v>
+        <v>-0.6344955609697611</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-10.39239693525214</v>
+        <v>-9.355729390250611</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-11.76642598899266</v>
+        <v>-13.34994725719594</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>1.810358572087334</v>
+        <v>2.560548038503563</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.4309767094811678</v>
+        <v>-0.9094241505186784</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.332391656355436</v>
+        <v>-1.47234207056367</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>5.344625101897926</v>
+        <v>6.420389047094566</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.305334009488251</v>
+        <v>-6.840625237716791</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-9.981309384891224</v>
+        <v>-10.53431064272813</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>-0.8453096726936726</v>
+        <v>0.1762726478412358</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>1.684235404421774</v>
+        <v>1.86046206965349</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>3.469181602872728</v>
+        <v>3.119142832856281</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>2.695948311890772</v>
+        <v>5.151178024880365</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.4086101889913</v>
+        <v>-10.37637386812975</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.12731856463212</v>
+        <v>-10.76198774346859</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>15.41348635803383</v>
+        <v>15.23114756485791</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-3.436876325207971</v>
+        <v>-2.595786121221011</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.766988549701253</v>
+        <v>0.2110586451096186</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-1.028781075550056</v>
+        <v>-0.3504499530291194</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.694425348486396</v>
+        <v>-3.957389154380719</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-9.193124496977312</v>
+        <v>-9.215386806123082</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.386031846554638</v>
+        <v>3.358602687697676</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.914200015833467</v>
+        <v>1.3861507087358</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>0.9991205407346992</v>
+        <v>1.115253454757958</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-0.4864950315971672</v>
+        <v>-1.079159081509584</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-1.972566333302328</v>
+        <v>-1.725093574245129</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-4.631628220000317</v>
+        <v>-4.691454613259937</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.3885051217817459</v>
+        <v>-1.152514775532909</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>0.9923464055060505</v>
+        <v>1.241643625771149</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>1.141710559323417</v>
+        <v>1.538574558979233</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>3.369421256049643</v>
+        <v>2.426113506132688</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-5.576788117255338</v>
+        <v>-5.550068271208897</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-8.618400820464544</v>
+        <v>-9.258370728028819</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>-0.2468902336520751</v>
+        <v>1.475894306911996</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-2.335930536685571</v>
+        <v>-2.113959128103848</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>0.8167877265267798</v>
+        <v>0.02304990923325256</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>-0.8253972632938145</v>
+        <v>0.7302808009640893</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-6.626695604736222</v>
+        <v>-6.593596341002018</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-8.234022816089691</v>
+        <v>-8.974785730886325</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>0.1171033102199237</v>
+        <v>-0.7594957460160701</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>0.6917520939097699</v>
+        <v>2.926506044182209</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>0.4948838413782131</v>
+        <v>1.875101870962026</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>2.463790511939257</v>
+        <v>-0.8442776744517766</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-8.027525252087585</v>
+        <v>-8.767708177166289</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.0378650884001</v>
+        <v>-11.06656186752399</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>5.523415635022744</v>
+        <v>8.402877125677733</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-1.002437678536472</v>
+        <v>2.310184826634587</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>0.6930447880256319</v>
+        <v>-1.462481735084165</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>-0.3333678374745408</v>
+        <v>0.02342827902486189</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.719552140242876</v>
+        <v>-2.064482739462481</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.33381055291918</v>
+        <v>-12.28992769411168</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>8.441847708069306</v>
+        <v>8.846780711354253</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>2.357156407953265</v>
+        <v>2.379411602154824</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.120226166780935</v>
+        <v>1.292823660841114</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.297448581494409</v>
+        <v>0.8329301863103211</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.667496063474553</v>
+        <v>-5.725291611172789</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.37486963583679</v>
+        <v>-7.827251130315183</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>4.977007483278073</v>
+        <v>4.811575890517328</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-0.9611569102143891</v>
+        <v>-1.090124727961883</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.5108788286640964</v>
+        <v>0.08884260663306609</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>-0.04457197142782032</v>
+        <v>0.2855388589189101</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-6.340950712886439</v>
+        <v>-6.101544530326763</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.4400917671698</v>
+        <v>-9.919070015193231</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.658207489337162</v>
+        <v>3.5793811921909</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.153435565129723</v>
+        <v>0.6909193302633732</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.13013081641764</v>
+        <v>2.667909392957135</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>1.699932067555721</v>
+        <v>-1.043087467494763</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.874671324171521</v>
+        <v>-5.715351554282644</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-5.217182431549661</v>
+        <v>-7.062292888662702</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>1.759348611806599</v>
+        <v>0.8823138400932073</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-0.4492994131993444</v>
+        <v>0.5153486684142061</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.3178034533947161</v>
+        <v>-0.7616078027153694</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>1.581962453902008</v>
+        <v>0.1648183643577106</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.686178874077775</v>
+        <v>-7.354235832523049</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.311347548259608</v>
+        <v>-9.525905847224969</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.748169675237479</v>
+        <v>4.449090730166239</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-3.059750563116703</v>
+        <v>-3.180367508597071</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.165558550519964</v>
+        <v>2.167594437220455</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>1.324329567581284</v>
+        <v>1.257973117877786</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-7.959876089170304</v>
+        <v>-7.275476232438338</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.93600571720026</v>
+        <v>-14.86629203018222</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>8.190885880066689</v>
+        <v>8.725734854639766</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-0.8224607137193307</v>
+        <v>0.0943751745063226</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-0.9539004502789439</v>
+        <v>-1.580082915764003</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-0.8681781414628165</v>
+        <v>-1.609618735672147</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-9.020079057429209</v>
+        <v>-7.927393856629639</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-11.12963425304757</v>
+        <v>-11.02475167306958</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>4.859962839590115</v>
+        <v>4.571853618740795</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>0.6247046756540753</v>
+        <v>0.1384664639451083</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>3.705091284022766</v>
+        <v>2.587927089111797</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>1.233854923344491</v>
+        <v>2.054502540176317</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-4.067150970963274</v>
+        <v>-4.315715530225583</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.140575511861982</v>
+        <v>-10.31313138634527</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>2.710010287905518</v>
+        <v>1.827041147173514</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-0.1199551790085795</v>
+        <v>-0.4280469191151881</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.191131890242493</v>
+        <v>2.509972550520057</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>0.2846616535123525</v>
+        <v>0.2625374539365621</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.609880335279218</v>
+        <v>-6.780344988558995</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-10.04320265099665</v>
+        <v>-9.898557885044957</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>5.912622929974254</v>
+        <v>4.387754877196182</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>0.02554585977874169</v>
+        <v>-0.2236160597563042</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-4.298239304165586</v>
+        <v>-2.869212662929466</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>2.194498041484194</v>
+        <v>0.6582433395972309</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.10534165318165</v>
+        <v>-8.416070126527886</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-7.818584032696463</v>
+        <v>-8.538815042212654</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>0.6945127636466042</v>
+        <v>0.9965572048649118</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-2.817907303848888</v>
+        <v>-4.388418898024826</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>0.7960762210775352</v>
+        <v>1.066303935563928</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-0.04374074661156468</v>
+        <v>2.439393605384166</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.988112669609867</v>
+        <v>-4.876848606941387</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.1296340049499</v>
+        <v>-15.18332953519729</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.30821283172709</v>
+        <v>11.58972795143696</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.495248960839925</v>
+        <v>3.124933387310747</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-2.019825519275054</v>
+        <v>-2.083338485392661</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>4.879041911626425</v>
+        <v>2.286075743250748</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.441984423570737</v>
+        <v>-8.533808941311916</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-17.25074742493827</v>
+        <v>-16.70698742398458</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.65071160438611</v>
+        <v>12.92762581006763</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.7226127155078643</v>
+        <v>0.2306411527950969</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.521688106514052</v>
+        <v>0.7161386618918408</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-0.3690127603746207</v>
+        <v>-0.7938503637481942</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.568990757090885</v>
+        <v>-5.507524574773226</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-9.477325359015587</v>
+        <v>-8.652035208165664</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>2.316312859338332</v>
+        <v>1.892128902419765</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>1.664097336220927</v>
+        <v>1.047289464643786</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>1.83343066109547</v>
+        <v>1.614232641265834</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-1.712342390154653</v>
+        <v>-0.7211718269178435</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-6.670749699430223</v>
+        <v>-7.569857406302727</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.549809837508725</v>
+        <v>-7.769305690696148</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>5.513222153046926</v>
+        <v>4.860676271224684</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-1.101421752121845</v>
+        <v>-0.3542413128741706</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>-0.3631054042049442</v>
+        <v>-0.5069384277532785</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>0.07700196568523054</v>
+        <v>-1.041642791942865</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-1.31246727994534</v>
+        <v>-1.416711312910635</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-9.841469057625741</v>
+        <v>-10.28882995849482</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>5.396530230863417</v>
+        <v>4.964282468551251</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-2.499284380255229</v>
+        <v>-1.885251820170097</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>-0.1024445553941655</v>
+        <v>-0.1081576340774659</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-0.8241369004695853</v>
+        <v>-1.683172831528179</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-5.706067363341816</v>
+        <v>-5.618215378743752</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.8022951144134</v>
+        <v>-15.4715786639112</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.52817012990881</v>
+        <v>12.41976718462672</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.1606537105482531</v>
+        <v>0.1150542131065801</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-0.8113948902172874</v>
+        <v>-0.7320746266878952</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>3.349251750375037</v>
+        <v>2.74946076766649</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.618856980049357</v>
+        <v>-4.505666907640138</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.394147395301589</v>
+        <v>-9.505019542955939</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>4.090523769561583</v>
+        <v>3.643430617847554</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.089182445784976</v>
+        <v>2.128845595186446</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.718103988832587</v>
+        <v>1.60097007278166</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>2.165881275445281</v>
+        <v>1.919949871285365</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.047642702851571</v>
+        <v>-2.816281191433456</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.05177514794577</v>
+        <v>-16.25043168287525</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>7.578868543302941</v>
+        <v>8.280029694548707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>2.00970866584258</v>
+        <v>1.696498694298443</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.563786212321607</v>
+        <v>5.042387820798222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-1.586667214169435</v>
+        <v>-3.744989525426412</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-5.114635783776944</v>
+        <v>-5.350170808628163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.928794971576281</v>
+        <v>-7.520752219565196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.561765002444493</v>
+        <v>1.385915726560683</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>4.037135878587539</v>
+        <v>4.108311915932172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.902664493236928</v>
+        <v>2.708625985000368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>0.3221967351708876</v>
+        <v>0.147647757737146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.447262595110248</v>
+        <v>-6.99629790579499</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-10.86594191940029</v>
+        <v>-10.5692108791397</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>6.72215505602165</v>
+        <v>6.255442950993695</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-1.219525817873135</v>
+        <v>-1.950975285667222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.81557956580387</v>
+        <v>-0.4105725620739853</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>-0.9264419399732327</v>
+        <v>-0.9449266293347747</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.790141886484758</v>
+        <v>-6.926477335040304</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.86764597577706</v>
+        <v>-10.96960432803432</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.61769177095637</v>
+        <v>7.0617646971042</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.8955652461118846</v>
+        <v>-0.7912719973699023</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.058113728441623</v>
+        <v>0.9106103210998029</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-0.5893000919962588</v>
+        <v>-0.4409574381030956</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.418720994932367</v>
+        <v>-3.130403108869795</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-11.04057837725808</v>
+        <v>-11.32167067400245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>6.202959620675785</v>
+        <v>5.18994626440159</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>3.23665411174956</v>
+        <v>2.782142160612211</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.2899250175247836</v>
+        <v>0.6074963498806429</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-1.874995538119817</v>
+        <v>-3.23727459496963</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-6.937848941589664</v>
+        <v>-7.529534135077776</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.324853406737354</v>
+        <v>-10.25652297197632</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>2.897945068583363</v>
+        <v>3.633008657715719</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>0.5351642059537864</v>
+        <v>-0.1051678116794741</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>5.216727712459779</v>
+        <v>6.149845904031981</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>0.5146622807735923</v>
+        <v>-0.9947853906167814</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-4.806130139948306</v>
+        <v>-5.048711910451697</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.00808506511684</v>
+        <v>-12.1750131710782</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.353712614857399</v>
+        <v>7.130802983189954</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.687347314436737</v>
+        <v>0.6867684463288448</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.4536254537706785</v>
+        <v>0.6565787048978589</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>-2.419427477965497</v>
+        <v>-2.391377000991357</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.89839386989993</v>
+        <v>-4.425890828448232</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-14.04102711994497</v>
+        <v>-14.18852507169001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.804623825396193</v>
+        <v>5.122598584821225</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>5.77929481841295</v>
+        <v>6.900958745786667</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-2.541812653996478</v>
+        <v>-0.8848006354566063</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-4.178537559447282</v>
+        <v>-4.96591069930894</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-6.867352993399278</v>
+        <v>-6.531697587661189</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-13.84723678554512</v>
+        <v>-13.08831121141695</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>3.453769749697977</v>
+        <v>5.015558990599556</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.300909460030145</v>
+        <v>5.759356345225175</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.488919654750597</v>
+        <v>0.1213055553802578</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-1.712142546338791</v>
+        <v>-2.870028756722109</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-6.675463911197776</v>
+        <v>-7.054681040629296</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-8.005340683023221</v>
+        <v>-7.75149198606856</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>3.476120408963768</v>
+        <v>3.760389896583294</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-0.8521277806261995</v>
+        <v>-1.96744788606511</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.02665202970213443</v>
+        <v>0.4000275217845628</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.645240392963632</v>
+        <v>1.261061488526805</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.86697576228432</v>
+        <v>-5.837775999985196</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-8.144152529922543</v>
+        <v>-7.852164360852276</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.696194201241519</v>
+        <v>1.32875567225077</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-0.4892376524215925</v>
+        <v>-1.098299670382641</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>3.313207827526754</v>
+        <v>1.880812398952703</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-1.923112552443618</v>
+        <v>-1.067881168573614</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-8.263676364861293</v>
+        <v>-8.194479843237323</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-4.862759829494657</v>
+        <v>-5.5936524658187</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-3.833386960717089</v>
+        <v>-3.062030014685346</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>0.6895664146614466</v>
+        <v>-0.5506363975297468</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>4.467398983211845</v>
+        <v>4.501173730631702</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>1.389584706269242</v>
+        <v>-1.580092288522317</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-2.673666565973332</v>
+        <v>-3.358853872414003</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.475016444273908</v>
+        <v>-7.371467902288376</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-0.3251509198623936</v>
+        <v>0.6030157163010808</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>1.121128356260015</v>
+        <v>0.04051666469069293</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.5893156957256229</v>
+        <v>0.715026501335525</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>2.759399437135679</v>
+        <v>2.145881978636544</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-7.85930568602129</v>
+        <v>-8.280075217966054</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-12.55604098368914</v>
+        <v>-13.07485161462865</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.5648380805838</v>
+        <v>13.09073048937777</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-0.7133907538603323</v>
+        <v>-1.579928850087009</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.2880445738302484</v>
+        <v>0.4355485460540098</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-2.62124271691343</v>
+        <v>-3.20225241548644</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.619538770239362</v>
+        <v>-5.864937782239399</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.926132782235808</v>
+        <v>-8.9763707175184</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>5.682586051183636</v>
+        <v>5.548448757658808</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-1.701437921558213</v>
+        <v>-1.809406356541043</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.128699379045772</v>
+        <v>-0.7958690322852902</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-2.246865290574007</v>
+        <v>-2.79039058209406</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-6.479640551061394</v>
+        <v>-6.851409152812449</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-12.15078952122182</v>
+        <v>-11.6583039168099</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.127974119400467</v>
+        <v>4.596382498101459</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>1.045484205586034</v>
+        <v>2.480504452920451</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>2.014572365300693</v>
+        <v>0.9292703646197609</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>1.574061389613846</v>
+        <v>2.172063203347063</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-6.49348339826309</v>
+        <v>-7.758123886914825</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-11.2353757071428</v>
+        <v>-11.64240592312321</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.013711256002781</v>
+        <v>1.554319069656995</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-0.2036569822324807</v>
+        <v>-0.4289371886969318</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>3.743616241169367</v>
+        <v>2.65381227431869</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>-0.1603413648070262</v>
+        <v>0.02356510277139456</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-9.70215242984407</v>
+        <v>-11.6105497725958</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-12.2227879824914</v>
+        <v>-12.48082806115018</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>3.051023913307294</v>
+        <v>0.6363815788115179</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>-0.1001611437033034</v>
+        <v>4.099829713177372</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>5.658575836626478</v>
+        <v>2.161192804124412</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>-4.546267445778829</v>
+        <v>0.17027230043134</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-5.5907198935639</v>
+        <v>-5.330287268459644</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-20.92688787895132</v>
+        <v>-20.87052281350926</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.53446255692185</v>
+        <v>10.17746445726904</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>7.604151732661202</v>
+        <v>7.460198773672788</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>3.221499756571777</v>
+        <v>2.61940914244807</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-2.011066206379986</v>
+        <v>-2.873111296917152</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.502882274101529</v>
+        <v>-6.281562468757029</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.89079074102322</v>
+        <v>-13.95249961538468</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.7657614386344047</v>
+        <v>-0.6507218334572351</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.404021640331044</v>
+        <v>2.508944687494807</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.910703613536957</v>
+        <v>1.344239467460606</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.6344955609697611</v>
+        <v>-1.361367976043659</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-9.355729390250611</v>
+        <v>-9.853525180868383</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-13.34994725719594</v>
+        <v>-13.24591839628053</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.560548038503563</v>
+        <v>2.812153497308589</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.9094241505186784</v>
+        <v>-0.6837217637709947</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.47234207056367</v>
+        <v>-1.792573861142821</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>6.420389047094566</v>
+        <v>4.459452215035098</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-6.840625237716791</v>
+        <v>-6.366917965227414</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.53431064272813</v>
+        <v>-10.23997642590564</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>0.1762726478412358</v>
+        <v>0.6228430088694781</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>1.86046206965349</v>
+        <v>2.771235588162235</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>3.119142832856281</v>
+        <v>2.686778586673721</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>5.151178024880365</v>
+        <v>3.554114687494758</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.37637386812975</v>
+        <v>-10.60446538440581</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.76198774346859</v>
+        <v>-11.26511905660978</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>15.23114756485791</v>
+        <v>13.69121523957719</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-2.595786121221011</v>
+        <v>-3.029474596368598</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.2110586451096186</v>
+        <v>0.1408564709665772</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-0.3504499530291194</v>
+        <v>-0.7703146102014946</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.957389154380719</v>
+        <v>-3.537339972640463</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-9.215386806123082</v>
+        <v>-8.735750048329205</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.358602687697676</v>
+        <v>3.649593063170808</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.3861507087358</v>
+        <v>1.502891795308914</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.115253454757958</v>
+        <v>1.087791372068891</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.079159081509584</v>
+        <v>-1.218829118062936</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-1.725093574245129</v>
+        <v>-2.076675807958572</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-4.691454613259937</v>
+        <v>-4.999349552171795</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-1.152514775532909</v>
+        <v>-1.079227377858027</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>1.241643625771149</v>
+        <v>1.906682961497808</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>1.538574558979233</v>
+        <v>2.052701721077255</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>2.426113506132688</v>
+        <v>1.688938280552676</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-5.550068271208897</v>
+        <v>-6.636782473018899</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.258370728028819</v>
+        <v>-8.533019076124749</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.475894306911996</v>
+        <v>1.891578409671402</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-2.113959128103848</v>
+        <v>-2.386694291987368</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>0.02304990923325256</v>
+        <v>-0.3748201252485761</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>0.7302808009640893</v>
+        <v>-1.83895950171582</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-6.593596341002018</v>
+        <v>-6.19131199762738</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-8.974785730886325</v>
+        <v>-8.312624163477667</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>-0.7594957460160701</v>
+        <v>0.008710993530747224</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>2.926506044182209</v>
+        <v>1.050985930920278</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>1.875101870962026</v>
+        <v>0.5009871835589097</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>-0.8442776744517766</v>
+        <v>0.1287291342478181</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-8.767708177166289</v>
+        <v>-8.543226741120524</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.06656186752399</v>
+        <v>-11.99329741526369</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>8.402877125677733</v>
+        <v>5.577013029645617</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>2.310184826634587</v>
+        <v>1.915232752885188</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>-1.462481735084165</v>
+        <v>-1.092771236068713</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>0.02342827902486189</v>
+        <v>1.930086390810271</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.064482739462481</v>
+        <v>-2.91833339989257</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.28992769411168</v>
+        <v>-12.35948489992734</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>8.846780711354253</v>
+        <v>8.399329164703783</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>2.379411602154824</v>
+        <v>1.629371883682662</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.292823660841114</v>
+        <v>1.76589922521555</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>0.8329301863103211</v>
+        <v>1.153974039281813</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.725291611172789</v>
+        <v>-5.400102065047163</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.827251130315183</v>
+        <v>-7.53675286218991</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>4.811575890517328</v>
+        <v>3.960954158558438</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-1.090124727961883</v>
+        <v>-1.41860961467396</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.08884260663306609</v>
+        <v>0.1577068610722376</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>0.2855388589189101</v>
+        <v>0.773087312168097</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-6.101544530326763</v>
+        <v>-6.43405797374318</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-9.919070015193231</v>
+        <v>-9.638939015886638</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.5793811921909</v>
+        <v>2.865816402895494</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>0.6909193302633732</v>
+        <v>1.402748234419859</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>2.667909392957135</v>
+        <v>1.423701910164099</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>-1.043087467494763</v>
+        <v>-0.1515303378949562</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.715351554282644</v>
+        <v>-5.582201194178249</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-7.062292888662702</v>
+        <v>-6.328178631010783</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>0.8823138400932073</v>
+        <v>0.8511983434264403</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>0.5153486684142061</v>
+        <v>0.5922902468282532</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.7616078027153694</v>
+        <v>-0.7252957726725962</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>0.1648183643577106</v>
+        <v>-1.152685009328347</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.354235832523049</v>
+        <v>-7.795470495706002</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.525905847224969</v>
+        <v>-9.933848224633612</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.449090730166239</v>
+        <v>4.370368997255691</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-3.180367508597071</v>
+        <v>-3.089452474477039</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.167594437220455</v>
+        <v>2.194912532883242</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>1.257973117877786</v>
+        <v>0.186375279182549</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-7.275476232438338</v>
+        <v>-8.5866015836496</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.86629203018222</v>
+        <v>-15.29389349796041</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>8.725734854639766</v>
+        <v>9.327681310001923</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>0.0943751745063226</v>
+        <v>-1.024420339626686</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.580082915764003</v>
+        <v>-1.769952756576754</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-1.609618735672147</v>
+        <v>-1.572981537129092</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-7.927393856629639</v>
+        <v>-8.215777146321734</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-11.02475167306958</v>
+        <v>-10.54771353611516</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>4.571853618740795</v>
+        <v>4.717792118664188</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>0.1384664639451083</v>
+        <v>-0.8164886756167777</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>2.587927089111797</v>
+        <v>1.593826668365295</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>2.054502540176317</v>
+        <v>1.569527855547492</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-4.315715530225583</v>
+        <v>-3.071326868658253</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-10.31313138634527</v>
+        <v>-9.33230996362866</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>1.827041147173514</v>
+        <v>3.344085995348767</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-0.4280469191151881</v>
+        <v>0.5057392276229589</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.509972550520057</v>
+        <v>2.196083392475656</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>0.2625374539365621</v>
+        <v>0.5686840816387928</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-6.780344988558995</v>
+        <v>-7.617691814651806</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-9.898557885044957</v>
+        <v>-9.32354380568502</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>4.387754877196182</v>
+        <v>3.767304787927928</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-0.2236160597563042</v>
+        <v>0.6943574666706809</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-2.869212662929466</v>
+        <v>-3.446668847971335</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>0.6582433395972309</v>
+        <v>-0.6208432723387891</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-8.416070126527886</v>
+        <v>-10.14308725778986</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-8.538815042212654</v>
+        <v>-8.850619367666601</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>0.9965572048649118</v>
+        <v>0.9667732405784335</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-4.388418898024826</v>
+        <v>-6.257426566420987</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>1.066303935563928</v>
+        <v>3.231462052026557</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>2.439393605384166</v>
+        <v>-1.622203053512428</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.876848606941387</v>
+        <v>-5.027940289829069</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.18332953519729</v>
+        <v>-15.43491182682024</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.58972795143696</v>
+        <v>12.21858830272851</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.124933387310747</v>
+        <v>3.099370265629631</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-2.083338485392661</v>
+        <v>-1.237436735485042</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>2.286075743250748</v>
+        <v>2.063384963023829</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.533808941311916</v>
+        <v>-9.28111955366221</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.70698742398458</v>
+        <v>-16.36283743050705</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.92762581006763</v>
+        <v>13.26705014166427</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.2306411527950969</v>
+        <v>0.1599385411436671</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>0.7161386618918408</v>
+        <v>1.903910968888289</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-0.7938503637481942</v>
+        <v>-1.141968747957856</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-5.507524574773226</v>
+        <v>-5.353344613736644</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-8.652035208165664</v>
+        <v>-8.582819779173157</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>1.892128902419765</v>
+        <v>2.731702374049716</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>1.047289464643786</v>
+        <v>0.9893244224431719</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>1.614232641265834</v>
+        <v>0.7520960554933565</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.7211718269178435</v>
+        <v>-0.9921610503441647</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-7.569857406302727</v>
+        <v>-7.353466957966804</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.769305690696148</v>
+        <v>-7.211396730501707</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.860676271224684</v>
+        <v>4.76050690633083</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-0.3542413128741706</v>
+        <v>-0.9774098425499922</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>-0.5069384277532785</v>
+        <v>0.5850054927830861</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>-1.041642791942865</v>
+        <v>-1.581817127216878</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-1.416711312910635</v>
+        <v>-2.146190026919281</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-10.28882995849482</v>
+        <v>-10.09325559986731</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>4.964282468551251</v>
+        <v>6.674852769069251</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-1.885251820170097</v>
+        <v>-3.060991240468969</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>-0.1081576340774659</v>
+        <v>0.4967580632736945</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-1.683172831528179</v>
+        <v>-1.526178199664607</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-5.618215378743752</v>
+        <v>-6.002133415850441</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.4715786639112</v>
+        <v>-15.93533448844174</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.41976718462672</v>
+        <v>12.61567383479718</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>0.1150542131065801</v>
+        <v>-0.1248547095908825</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-0.7320746266878952</v>
+        <v>-1.098721381398238</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>2.74946076766649</v>
+        <v>3.410852539808551</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.505666907640138</v>
+        <v>-5.03757648981521</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.505019542955939</v>
+        <v>-9.548095171595804</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>3.643430617847554</v>
+        <v>3.908861911814432</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.128845595186446</v>
+        <v>2.059763349634558</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.60097007278166</v>
+        <v>1.732322847568146</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>1.919949871285365</v>
+        <v>1.498077272472442</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.816281191433456</v>
+        <v>-2.601513236339548</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.25043168287525</v>
+        <v>-17.11709708333804</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.280029694548707</v>
+        <v>8.573308639280519</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.696498694298443</v>
+        <v>1.756477875314899</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>5.042387820798222</v>
+        <v>3.953121998155296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-3.744989525426412</v>
+        <v>-3.586052402597162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-5.350170808628163</v>
+        <v>-5.017817865572038</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.520752219565196</v>
+        <v>-7.652422291127436</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.385915726560683</v>
+        <v>0.9833620073886218</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>4.108311915932172</v>
+        <v>3.785722695310278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.708625985000368</v>
+        <v>2.619822993790466</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>0.147647757737146</v>
+        <v>1.70678373597164</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.99629790579499</v>
+        <v>-6.979420277751891</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-10.5692108791397</v>
+        <v>-10.27559250395474</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>6.255442950993695</v>
+        <v>5.784322336754522</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-1.950975285667222</v>
+        <v>-3.407909946881427</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.4105725620739853</v>
+        <v>0.45690061070498</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>-0.9449266293347747</v>
+        <v>0.1543946187070544</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.926477335040304</v>
+        <v>-6.800386203961994</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.96960432803432</v>
+        <v>-10.96291995718285</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.0617646971042</v>
+        <v>7.681540030395673</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.7912719973699023</v>
+        <v>-0.5394647096037541</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>0.9106103210998029</v>
+        <v>1.82381468442594</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>-0.4409574381030956</v>
+        <v>1.439168168578675</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.130403108869795</v>
+        <v>-3.368335483334761</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-11.32167067400245</v>
+        <v>-11.34929430753187</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.18994626440159</v>
+        <v>5.045126272121947</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>2.782142160612211</v>
+        <v>2.694270986831393</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.6074963498806429</v>
+        <v>0.7461219200819214</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-3.23727459496963</v>
+        <v>-2.25701853731145</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-7.529534135077776</v>
+        <v>-6.011647884842864</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-10.25652297197632</v>
+        <v>-9.747066247661174</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>3.633008657715719</v>
+        <v>4.48336680981003</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>-0.1051678116794741</v>
+        <v>-0.8500608155550871</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>6.149845904031981</v>
+        <v>6.569424051069639</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>-0.9947853906167814</v>
+        <v>0.3264946069883035</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-5.048711910451697</v>
+        <v>-5.011056370114686</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.1750131710782</v>
+        <v>-12.21890049358842</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>7.130802983189954</v>
+        <v>6.869196146088941</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.6867684463288448</v>
+        <v>0.6756385811292454</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.6565787048978589</v>
+        <v>0.5214022094099935</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>-2.391377000991357</v>
+        <v>-2.13085912841704</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.425890828448232</v>
+        <v>-3.802206182565238</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-14.18852507169001</v>
+        <v>-13.66814522514889</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.122598584821225</v>
+        <v>5.152125763591853</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>6.900958745786667</v>
+        <v>6.750184035740259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-0.8848006354566063</v>
+        <v>-1.321348886459806</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-4.96591069930894</v>
+        <v>-1.68958592939662</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-6.531697587661189</v>
+        <v>-6.849062975984721</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-13.08831121141695</v>
+        <v>-13.47293665892777</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>5.015558990599556</v>
+        <v>4.866341825352594</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.759356345225175</v>
+        <v>5.797967168727491</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.1213055553802578</v>
+        <v>0.8529712037314896</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-2.870028756722109</v>
+        <v>-2.967157765676409</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-7.054681040629296</v>
+        <v>-7.461627181532149</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-7.75149198606856</v>
+        <v>-7.313612479807885</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>3.760389896583294</v>
+        <v>3.513266651285907</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-1.96744788606511</v>
+        <v>-1.344775581256075</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.4000275217845628</v>
+        <v>0.7899650767144717</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.261061488526805</v>
+        <v>1.856442623496912</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-5.837775999985196</v>
+        <v>-5.853576350340672</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.852164360852276</v>
+        <v>-7.100075985386678</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.32875567225077</v>
+        <v>1.940380347886506</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-1.098299670382641</v>
+        <v>-1.070838969761223</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>1.880812398952703</v>
+        <v>0.7118592494909315</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>-1.067881168573614</v>
+        <v>1.461119617397078</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-8.194479843237323</v>
+        <v>-9.36532501290599</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-5.5936524658187</v>
+        <v>-6.714394979656757</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-3.062030014685346</v>
+        <v>-1.713713570866227</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>-0.5506363975297468</v>
+        <v>1.447742865332047</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>4.501173730631702</v>
+        <v>3.300557860407993</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>-1.580092288522317</v>
+        <v>1.977451948468278</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-3.358853872414003</v>
+        <v>-4.038462668961751</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.371467902288376</v>
+        <v>-7.101097374136101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>0.6030157163010808</v>
+        <v>-0.05934113728006674</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>0.04051666469069293</v>
+        <v>-0.3495546080692913</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.715026501335525</v>
+        <v>1.141934938551814</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>2.145881978636544</v>
+        <v>0.4681753911043085</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-8.280075217966054</v>
+        <v>-8.265546440429217</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-13.07485161462865</v>
+        <v>-13.03773956809731</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.09073048937777</v>
+        <v>12.89961683842167</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.579928850087009</v>
+        <v>-2.392439829157245</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.4355485460540098</v>
+        <v>0.8062760878301267</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-3.20225241548644</v>
+        <v>-1.326180500208929</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.864937782239399</v>
+        <v>-6.140810028033961</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.9763707175184</v>
+        <v>-8.537042494432058</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>5.548448757658808</v>
+        <v>5.590181323136179</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-1.809406356541043</v>
+        <v>-2.060424743875489</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-0.7958690322852902</v>
+        <v>-0.7748626283809124</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-2.79039058209406</v>
+        <v>-1.52988794998179</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-6.851409152812449</v>
+        <v>-7.375461370086189</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.6583039168099</v>
+        <v>-12.03636760349911</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>4.596382498101459</v>
+        <v>3.270651766485622</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>2.480504452920451</v>
+        <v>1.55815608462011</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>0.9292703646197609</v>
+        <v>2.7702133313388</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>2.172063203347063</v>
+        <v>0.5545510039536738</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-7.758123886914825</v>
+        <v>-8.370998794854522</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-11.64240592312321</v>
+        <v>-11.30003696424827</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>1.554319069656995</v>
+        <v>2.004604705646829</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-0.4289371886969318</v>
+        <v>-1.806662569202266</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>2.65381227431869</v>
+        <v>2.432686031978171</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>0.02356510277139456</v>
+        <v>1.330081556993123</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-11.6105497725958</v>
+        <v>-10.10839394669811</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-12.48082806115018</v>
+        <v>-14.32684359625334</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>0.6363815788115179</v>
+        <v>-6.214439407623429</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>4.099829713177372</v>
+        <v>9.215734149674493</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>2.161192804124412</v>
+        <v>-1.829499036551174</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>0.17027230043134</v>
+        <v>-2.847813735952376</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-5.330287268459644</v>
+        <v>-5.280551709364389</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-20.87052281350926</v>
+        <v>-20.69943083619136</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.17746445726904</v>
+        <v>10.40814612653873</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>7.460198773672788</v>
+        <v>7.707707608777636</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>2.61940914244807</v>
+        <v>2.314564158272914</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-2.873111296917152</v>
+        <v>-3.607415402601288</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-6.281562468757029</v>
+        <v>-5.752163674117583</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.95249961538468</v>
+        <v>-14.0067726284148</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.6507218334572351</v>
+        <v>-1.40301229534755</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.508944687494807</v>
+        <v>2.272120301362968</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.344239467460606</v>
+        <v>1.231358471896193</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-1.361367976043659</v>
+        <v>-0.0615985155145049</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-9.853525180868383</v>
+        <v>-11.42895179264775</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-13.24591839628053</v>
+        <v>-12.61702150408079</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.812153497308589</v>
+        <v>2.811286384030853</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-0.6837217637709947</v>
+        <v>0.6530464338158515</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.792573861142821</v>
+        <v>-1.894663632256022</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>4.459452215035098</v>
+        <v>5.365645307940592</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-6.366917965227414</v>
+        <v>-6.201821431587029</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.23997642590564</v>
+        <v>-10.00215658799421</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>0.6228430088694781</v>
+        <v>0.1078017660172126</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>2.771235588162235</v>
+        <v>1.781147543940387</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.686778586673721</v>
+        <v>2.609595242051643</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>3.554114687494758</v>
+        <v>4.292286063397732</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.60446538440581</v>
+        <v>-10.85112876102198</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-11.26511905660978</v>
+        <v>-11.24290444859552</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>13.69121523957719</v>
+        <v>13.61747851057242</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-3.029474596368598</v>
+        <v>-3.429887731798154</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.1408564709665772</v>
+        <v>-0.07217699891872709</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>-0.7703146102014946</v>
+        <v>0.04916912275310104</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.537339972640463</v>
+        <v>-3.301437526728523</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.735750048329205</v>
+        <v>-8.497672907117215</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.649593063170808</v>
+        <v>4.029290617649761</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.502891795308914</v>
+        <v>1.373946946439886</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>1.087791372068891</v>
+        <v>0.2615716832868875</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.218829118062936</v>
+        <v>-1.668302070855421</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-2.076675807958572</v>
+        <v>-2.364699732985409</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-4.999349552171795</v>
+        <v>-5.194843860508702</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-1.079227377858027</v>
+        <v>-0.6598494229676066</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>1.906682961497808</v>
+        <v>1.327840847660333</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>2.052701721077255</v>
+        <v>2.36369206410858</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>1.688938280552676</v>
+        <v>1.699634338102318</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-6.636782473018899</v>
+        <v>-5.927293524917998</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-8.533019076124749</v>
+        <v>-9.120867602626037</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.891578409671402</v>
+        <v>2.164001709082553</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-2.386694291987368</v>
+        <v>-3.397095101510417</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>-0.3748201252485761</v>
+        <v>0.9809073581735328</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>-1.83895950171582</v>
+        <v>1.799330470664273</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-6.19131199762738</v>
+        <v>-5.408378138595149</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-8.312624163477667</v>
+        <v>-7.773241860957225</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>0.008710993530747224</v>
+        <v>0.6851156225562871</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>1.050985930920278</v>
+        <v>-0.3608270694836935</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>0.5009871835589097</v>
+        <v>1.373796893504986</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>0.1287291342478181</v>
+        <v>1.897527912259878</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-8.543226741120524</v>
+        <v>-8.581958260166523</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-11.99329741526369</v>
+        <v>-10.52178790689061</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>5.577013029645617</v>
+        <v>6.984401960591557</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>1.915232752885188</v>
+        <v>-0.008028859523656617</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>-1.092771236068713</v>
+        <v>0.8076474609431061</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>1.930086390810271</v>
+        <v>1.924760976370465</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.91833339989257</v>
+        <v>-2.759538181329635</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.35948489992734</v>
+        <v>-12.63035410869644</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>8.399329164703783</v>
+        <v>9.077137689866955</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.629371883682662</v>
+        <v>1.527649629550276</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.76589922521555</v>
+        <v>1.502907556155408</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.153974039281813</v>
+        <v>0.9257958852260773</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.400102065047163</v>
+        <v>-4.96573439783552</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.53675286218991</v>
+        <v>-8.085399680942796</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>3.960954158558438</v>
+        <v>4.018887055635867</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-1.41860961467396</v>
+        <v>-1.489002896460323</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.1577068610722376</v>
+        <v>0.1775240027348746</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>0.773087312168097</v>
+        <v>2.197813840153739</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-6.43405797374318</v>
+        <v>-5.969837846595505</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-9.638939015886638</v>
+        <v>-8.658116063821941</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>2.865816402895494</v>
+        <v>3.184992556557842</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.402748234419859</v>
+        <v>1.677427587409275</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.423701910164099</v>
+        <v>1.332496568894848</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>-0.1515303378949562</v>
+        <v>0.9748928602905105</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.582201194178249</v>
+        <v>-5.122312870510671</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.328178631010783</v>
+        <v>-6.379186512818236</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>0.8511983434264403</v>
+        <v>0.6293166830480201</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>0.5922902468282532</v>
+        <v>0.1267593333431627</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.7252957726725962</v>
+        <v>0.7094690058994324</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>-1.152685009328347</v>
+        <v>-1.462815157381547</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.795470495706002</v>
+        <v>-7.692303789134636</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-9.933848224633612</v>
+        <v>-10.03369528024639</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.370368997255691</v>
+        <v>3.953046924875459</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-3.089452474477039</v>
+        <v>-2.921274326536893</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.194912532883242</v>
+        <v>2.364645069825166</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>0.186375279182549</v>
+        <v>0.3127971285987519</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.5866015836496</v>
+        <v>-8.465396742525233</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-15.29389349796041</v>
+        <v>-15.10848144848592</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>9.327681310001923</v>
+        <v>9.188812865751528</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-1.024420339626686</v>
+        <v>-1.549499381695396</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.769952756576754</v>
+        <v>-1.525062369879759</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>-1.572981537129092</v>
+        <v>1.169201770556794</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-8.215777146321734</v>
+        <v>-8.3178304743181</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-10.54771353611516</v>
+        <v>-12.28165306063604</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>4.717792118664188</v>
+        <v>5.052168913413513</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>-0.8164886756167777</v>
+        <v>0.08106126651397094</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>1.593826668365295</v>
+        <v>2.887477531114668</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>1.569527855547492</v>
+        <v>2.088122227585187</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.071326868658253</v>
+        <v>-3.147858387637459</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.33230996362866</v>
+        <v>-9.238810916101448</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>3.344085995348767</v>
+        <v>3.945802318217861</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>0.5057392276229589</v>
+        <v>0.5764575802877037</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.196083392475656</v>
+        <v>2.593298716719672</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>0.5686840816387928</v>
+        <v>1.716162044178926</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.617691814651806</v>
+        <v>-7.490848753891699</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-9.32354380568502</v>
+        <v>-9.463666502480361</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>3.767304787927928</v>
+        <v>4.805796520187777</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>0.6943574666706809</v>
+        <v>0.2949639645760893</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.446668847971335</v>
+        <v>-3.698098066500932</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>-0.6208432723387891</v>
+        <v>0.01264049575984139</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.14308725778986</v>
+        <v>-9.801693050891981</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-8.850619367666601</v>
+        <v>-9.561199496296647</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>0.9667732405784335</v>
+        <v>1.345826301180364</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-6.257426566420987</v>
+        <v>-4.231514377012524</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>3.231462052026557</v>
+        <v>2.425666074886568</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-1.622203053512428</v>
+        <v>-2.560176094659194</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-5.027940289829069</v>
+        <v>-4.663380939729111</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.43491182682024</v>
+        <v>-15.93073549404701</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>12.21858830272851</v>
+        <v>11.54330711427487</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.099370265629631</v>
+        <v>3.354320729437443</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-1.237436735485042</v>
+        <v>-1.410281843291006</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>2.063384963023829</v>
+        <v>2.282304705034477</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-9.28111955366221</v>
+        <v>-9.239316280168309</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.36283743050705</v>
+        <v>-16.5074589029871</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>13.26705014166427</v>
+        <v>13.4350536106467</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>0.1599385411436671</v>
+        <v>-0.2899790232446686</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.903910968888289</v>
+        <v>2.156350035067645</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-1.141968747957856</v>
+        <v>-0.3338199191985747</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-5.353344613736644</v>
+        <v>-4.939283865755339</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-8.582819779173157</v>
+        <v>-8.488955907546369</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>2.731702374049716</v>
+        <v>2.457672199327399</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>0.9893244224431719</v>
+        <v>1.161048345969817</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>0.7520960554933565</v>
+        <v>0.3588779143979259</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.9921610503441647</v>
+        <v>0.1447800403463706</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-7.353466957966804</v>
+        <v>-6.659569059453441</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.211396730501707</v>
+        <v>-7.32601135970925</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.76050690633083</v>
+        <v>4.522958979619229</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-0.9774098425499922</v>
+        <v>-1.274925872121058</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.5850054927830861</v>
+        <v>0.5114228310396429</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>-1.581817127216878</v>
+        <v>-0.9467207456890891</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-2.146190026919281</v>
+        <v>-2.250984411792856</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-10.09325559986731</v>
+        <v>-9.79884399397486</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>6.674852769069251</v>
+        <v>6.441564667867294</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-3.060991240468969</v>
+        <v>-2.913688809291015</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>0.4967580632736945</v>
+        <v>0.01274577414167588</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-1.526178199664607</v>
+        <v>-1.146122454675758</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-6.002133415850441</v>
+        <v>-5.896247244766551</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.93533448844174</v>
+        <v>-15.75589285268605</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.61567383479718</v>
+        <v>12.54660319303826</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.1248547095908825</v>
+        <v>-0.2144594303485126</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-1.098721381398238</v>
+        <v>-1.019457838493099</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>3.410852539808551</v>
+        <v>4.174830564720544</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-5.03757648981521</v>
+        <v>-4.923214315583135</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.548095171595804</v>
+        <v>-9.612793704121692</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>3.908861911814432</v>
+        <v>3.982543494963697</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.059763349634558</v>
+        <v>2.021921227219403</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.732322847568146</v>
+        <v>1.659891612414111</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>1.498077272472442</v>
+        <v>1.785541769447896</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.601513236339548</v>
+        <v>-3.158741738768001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-17.11709708333804</v>
+        <v>-16.18582112066174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.573308639280519</v>
+        <v>8.198495145419503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.756477875314899</v>
+        <v>2.338979034971667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>3.953121998155296</v>
+        <v>4.539672900996927</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-3.586052402597162</v>
+        <v>-3.230380871936855</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-5.017817865572038</v>
+        <v>-4.672681100180842</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.652422291127436</v>
+        <v>-7.408046646221633</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>0.9833620073886218</v>
+        <v>1.226264746505823</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>3.785722695310278</v>
+        <v>0.1603634822428202</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.619822993790466</v>
+        <v>2.972595178868476</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>1.70678373597164</v>
+        <v>0.8714458349360799</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.979420277751891</v>
+        <v>-7.224929254847257</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-10.27559250395474</v>
+        <v>-9.495617716915373</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>5.784322336754522</v>
+        <v>5.157155976626449</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-3.407909946881427</v>
+        <v>-3.583672217891487</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>0.45690061070498</v>
+        <v>-0.2898389955339642</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>0.1543946187070544</v>
+        <v>0.7622341113790343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.800386203961994</v>
+        <v>-6.610199337602884</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.96291995718285</v>
+        <v>-10.48094432291787</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.681540030395673</v>
+        <v>8.180323115023235</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-0.5394647096037541</v>
+        <v>-2.501513747066486</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.82381468442594</v>
+        <v>0.767578183714801</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>1.439168168578675</v>
+        <v>1.840772160060777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.368335483334761</v>
+        <v>-3.318398071360851</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-11.34929430753187</v>
+        <v>-11.25022341374484</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.045126272121947</v>
+        <v>5.117422084437395</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>2.694270986831393</v>
+        <v>-0.150008173726035</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.7461219200819214</v>
+        <v>0.648520157171828</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-2.25701853731145</v>
+        <v>-1.381134537046613</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-6.011647884842864</v>
+        <v>-6.699680634569805</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.747066247661174</v>
+        <v>-9.547831934466211</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>4.48336680981003</v>
+        <v>3.356311195599293</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>-0.8500608155550871</v>
+        <v>-3.213898561150286</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>6.569424051069639</v>
+        <v>5.659764946993207</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>0.3264946069883035</v>
+        <v>1.014882729385858</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-5.011056370114686</v>
+        <v>-5.073935594540002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.21890049358842</v>
+        <v>-12.13407856534054</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.869196146088941</v>
+        <v>7.011430829326515</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>0.6756385811292454</v>
+        <v>-1.537015074131165</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.5214022094099935</v>
+        <v>0.7042660713006077</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>-2.13085912841704</v>
+        <v>-1.587645170858643</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-3.802206182565238</v>
+        <v>-4.333800315737601</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-13.66814522514889</v>
+        <v>-13.58851383562553</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.152125763591853</v>
+        <v>5.729287447607478</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>6.750184035740259</v>
+        <v>6.854720749325538</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-1.321348886459806</v>
+        <v>-1.147435490643522</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-1.68958592939662</v>
+        <v>-1.724998974154757</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-6.849062975984721</v>
+        <v>-6.640287121273625</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-13.47293665892777</v>
+        <v>-13.39331874892459</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>4.866341825352594</v>
+        <v>4.805777723423543</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>5.797967168727491</v>
+        <v>2.732770369698301</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>0.8529712037314896</v>
+        <v>1.195246907201186</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-2.967157765676409</v>
+        <v>-2.668563435061688</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-7.461627181532149</v>
+        <v>-7.231719469709741</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-7.313612479807885</v>
+        <v>-7.671180459068905</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>3.513266651285907</v>
+        <v>4.19087102741782</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-1.344775581256075</v>
+        <v>-4.552818558721583</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.7899650767144717</v>
+        <v>0.02318282123892068</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>1.856442623496912</v>
+        <v>3.083511775615566</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-5.853576350340672</v>
+        <v>-6.123728796067674</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-7.100075985386678</v>
+        <v>-8.235275066581938</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>1.940380347886506</v>
+        <v>2.252708097586331</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-1.070838969761223</v>
+        <v>-3.967368151545647</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>0.7118592494909315</v>
+        <v>1.886070745656299</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>1.461119617397078</v>
+        <v>1.127862550426584</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-9.36532501290599</v>
+        <v>-8.884629060542382</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-6.714394979656757</v>
+        <v>-7.543980743025813</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-1.713713570866227</v>
+        <v>-2.949188246704548</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>1.447742865332047</v>
+        <v>-3.611969505208001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>3.300557860407993</v>
+        <v>3.52533707827718</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>1.977451948468278</v>
+        <v>2.727193052942112</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-4.038462668961751</v>
+        <v>-2.937994634050234</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.101097374136101</v>
+        <v>-8.025761971574962</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>-0.05934113728006674</v>
+        <v>0.6149770507606345</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>-0.3495546080692913</v>
+        <v>-1.885414476196334</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>1.141934938551814</v>
+        <v>0.395997818671967</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>0.4681753911043085</v>
+        <v>1.409904535320594</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-8.265546440429217</v>
+        <v>-8.059839787872402</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-13.03773956809731</v>
+        <v>-13.05429891740689</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>12.89961683842167</v>
+        <v>13.0389978908769</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-2.392439829157245</v>
+        <v>-2.721051045822143</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.8062760878301267</v>
+        <v>0.5066965032305637</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-1.326180500208929</v>
+        <v>-0.690404904304287</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-6.140810028033961</v>
+        <v>-6.105113237406313</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.537042494432058</v>
+        <v>-8.557269614408259</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>5.590181323136179</v>
+        <v>5.562205504187334</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-2.060424743875489</v>
+        <v>-2.471236378176089</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-0.7748626283809124</v>
+        <v>-0.6640234244301602</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-1.52988794998179</v>
+        <v>-1.300878615690892</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-7.375461370086189</v>
+        <v>-7.640143189820147</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-12.03636760349911</v>
+        <v>-11.60992058023809</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.270651766485622</v>
+        <v>3.971150523237887</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>1.55815608462011</v>
+        <v>-0.6255196345754888</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>2.7702133313388</v>
+        <v>1.238893869632629</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>0.5545510039536738</v>
+        <v>2.186237893115961</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-8.370998794854522</v>
+        <v>-7.351193491093355</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-11.30003696424827</v>
+        <v>-11.52411594121653</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.004604705646829</v>
+        <v>2.88385483491278</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-1.806662569202266</v>
+        <v>-3.825133837606731</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>2.432686031978171</v>
+        <v>2.16646121674382</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>1.330081556993123</v>
+        <v>1.91801953403099</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-10.10839394669811</v>
+        <v>-12.34811021005116</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-14.32684359625334</v>
+        <v>-13.2591016810378</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-6.214439407623429</v>
+        <v>-2.441329873336706</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>9.215734149674493</v>
+        <v>-7.337104624119705</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>-1.829499036551174</v>
+        <v>-2.478622745562231</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>-2.847813735952376</v>
+        <v>4.157658383703655</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-5.280551709364389</v>
+        <v>-5.115745223093937</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-20.69943083619136</v>
+        <v>-20.561891510594</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.40814612653873</v>
+        <v>10.41288392297686</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>7.707707608777636</v>
+        <v>4.566540860530965</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>2.314564158272914</v>
+        <v>2.488962245037007</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-3.607415402601288</v>
+        <v>-3.510235019126062</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.752163674117583</v>
+        <v>-6.054626444240895</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-14.0067726284148</v>
+        <v>-13.86575638456973</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-1.40301229534755</v>
+        <v>-1.22992375272708</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>2.272120301362968</v>
+        <v>-2.630744123608997</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.231358471896193</v>
+        <v>1.596262740107091</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.0615985155145049</v>
+        <v>-0.08717948075858128</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-11.42895179264775</v>
+        <v>-10.91211698800373</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-12.61702150408079</v>
+        <v>-12.98862833157818</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.811286384030853</v>
+        <v>2.460767030024069</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>0.6530464338158515</v>
+        <v>-7.306541591295734</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.894663632256022</v>
+        <v>-1.516347281656716</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>5.365645307940592</v>
+        <v>4.400587658464183</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-6.201821431587029</v>
+        <v>-6.607530356574165</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.00215658799421</v>
+        <v>-10.07663903788939</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>0.1078017660172126</v>
+        <v>0.5084875996097971</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>1.781147543940387</v>
+        <v>-2.313676743670934</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.609595242051643</v>
+        <v>2.730306709899333</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>4.292286063397732</v>
+        <v>3.140443288141137</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.85112876102198</v>
+        <v>-10.82339738142288</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-11.24290444859552</v>
+        <v>-10.76011294838662</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>13.61747851057242</v>
+        <v>13.6609931412303</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-3.429887731798154</v>
+        <v>-4.270388831076122</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>-0.07217699891872709</v>
+        <v>0.06733293476095525</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>0.04916912275310104</v>
+        <v>0.9291139647938262</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.301437526728523</v>
+        <v>-3.329474531167087</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.497672907117215</v>
+        <v>-8.318737551005817</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>4.029290617649761</v>
+        <v>3.997555244159212</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.373946946439886</v>
+        <v>1.537106590058057</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>0.2615716832868875</v>
+        <v>0.4920364203978345</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.668302070855421</v>
+        <v>-1.587411990378129</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-2.364699732985409</v>
+        <v>-2.142736918271326</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-5.194843860508702</v>
+        <v>-5.454614701246663</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.6598494229676066</v>
+        <v>-0.7413348253170193</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>1.327840847660333</v>
+        <v>-1.160818689035115</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>2.36369206410858</v>
+        <v>1.980994073290687</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>1.699634338102318</v>
+        <v>2.743224551207946</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-5.927293524917998</v>
+        <v>-6.750773702774005</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.120867602626037</v>
+        <v>-9.017871648761588</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>2.164001709082553</v>
+        <v>1.168796752773638</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-3.397095101510417</v>
+        <v>-6.377917057005622</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>0.9809073581735328</v>
+        <v>-0.02123965769541547</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>1.799330470664273</v>
+        <v>1.096988527374276</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-5.408378138595149</v>
+        <v>-7.181672250895232</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-7.773241860957225</v>
+        <v>-5.723645135424382</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>0.6851156225562871</v>
+        <v>-0.4527946874917532</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>-0.3608270694836935</v>
+        <v>-3.053799304537741</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>1.373796893504986</v>
+        <v>1.756646825785513</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>1.897527912259878</v>
+        <v>1.851382293847847</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-8.581958260166523</v>
+        <v>-10.21575840037371</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-10.52178790689061</v>
+        <v>-10.53539004447023</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>6.984401960591557</v>
+        <v>2.333315105285805</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-0.008028859523656617</v>
+        <v>-4.541722182218011</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>0.8076474609431061</v>
+        <v>-0.8120026955777737</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>1.924760976370465</v>
+        <v>3.675822214138913</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.759538181329635</v>
+        <v>-3.649871161412377</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.63035410869644</v>
+        <v>-12.0583311054669</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>9.077137689866955</v>
+        <v>9.396603371653423</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.527649629550276</v>
+        <v>1.61877361763676</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.502907556155408</v>
+        <v>1.08165399446305</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>0.9257958852260773</v>
+        <v>1.731500336909919</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-4.96573439783552</v>
+        <v>-5.013600683794161</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-8.085399680942796</v>
+        <v>-7.630657983819821</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>4.018887055635867</v>
+        <v>3.982716956360166</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-1.489002896460323</v>
+        <v>-2.978244939422325</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.1775240027348746</v>
+        <v>0.6046631557811155</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>2.197813840153739</v>
+        <v>2.073492197839277</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-5.969837846595505</v>
+        <v>-6.445349980208048</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.658116063821941</v>
+        <v>-8.340633664768449</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.184992556557842</v>
+        <v>2.334095130808778</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>1.677427587409275</v>
+        <v>-1.151229311883262</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.332496568894848</v>
+        <v>1.210246916527558</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>0.9748928602905105</v>
+        <v>1.111427653631103</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.122312870510671</v>
+        <v>-5.368261542749231</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.379186512818236</v>
+        <v>-6.301825988510224</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>0.6293166830480201</v>
+        <v>1.493908133005717</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>0.1267593333431627</v>
+        <v>-2.798727300240922</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>0.7094690058994324</v>
+        <v>-0.540995575268588</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>-1.462815157381547</v>
+        <v>0.278423017843954</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.692303789134636</v>
+        <v>-7.801448431204605</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-10.03369528024639</v>
+        <v>-10.00135629731673</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>3.953046924875459</v>
+        <v>4.227672219669709</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-2.921274326536893</v>
+        <v>-6.554212773002188</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>2.364645069825166</v>
+        <v>1.765333890431675</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>0.3127971285987519</v>
+        <v>1.561118885326684</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.465396742525233</v>
+        <v>-8.261871354076344</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-15.10848144848592</v>
+        <v>-14.73662437206961</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>9.188812865751528</v>
+        <v>8.324514405086948</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-1.549499381695396</v>
+        <v>-2.435225989839218</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.525062369879759</v>
+        <v>-1.628784055776267</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>1.169201770556794</v>
+        <v>1.284041395082447</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-8.3178304743181</v>
+        <v>-9.805485970868922</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-12.28165306063604</v>
+        <v>-10.63065204345034</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>5.052168913413513</v>
+        <v>3.968469171242606</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>0.08106126651397094</v>
+        <v>-2.87568442353513</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>2.887477531114668</v>
+        <v>1.284962803415302</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>2.088122227585187</v>
+        <v>2.289839027272711</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.147858387637459</v>
+        <v>-3.399417577088137</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.238810916101448</v>
+        <v>-9.375215860917018</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>3.945802318217861</v>
+        <v>3.78125098046469</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>0.5764575802877037</v>
+        <v>-1.073934213925554</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.593298716719672</v>
+        <v>3.091367707467541</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>1.716162044178926</v>
+        <v>1.143853122253558</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.490848753891699</v>
+        <v>-8.104976381348362</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-9.463666502480361</v>
+        <v>-10.36468821004479</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>4.805796520187777</v>
+        <v>4.745420925700294</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>0.2949639645760893</v>
+        <v>-3.470416220560057</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.698098066500932</v>
+        <v>-3.386846613961436</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>0.01264049575984139</v>
+        <v>2.929127962695532</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-9.801693050891981</v>
+        <v>-9.51055499784459</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-9.561199496296647</v>
+        <v>-8.285261397036091</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>1.345826301180364</v>
+        <v>-1.072311121575487</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-4.231514377012524</v>
+        <v>-7.671933054454483</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>2.425666074886568</v>
+        <v>2.886336582139903</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>-2.560176094659194</v>
+        <v>0.7272232762060904</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.663380939729111</v>
+        <v>-4.548116826716619</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.93073549404701</v>
+        <v>-15.27686186111202</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.54330711427487</v>
+        <v>10.97863564649611</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>3.354320729437443</v>
+        <v>2.033835309305743</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-1.410281843291006</v>
+        <v>-0.5223540529477377</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>2.282304705034477</v>
+        <v>1.193558023150154</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-9.239316280168309</v>
+        <v>-9.411260027509517</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.5074589029871</v>
+        <v>-16.99011643436059</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>13.4350536106467</v>
+        <v>13.40423324874149</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>-0.2899790232446686</v>
+        <v>-0.8988417694618334</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>2.156350035067645</v>
+        <v>1.661469103479574</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>-0.3338199191985747</v>
+        <v>0.283795590695668</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.939283865755339</v>
+        <v>-5.104836575761674</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-8.488955907546369</v>
+        <v>-8.096895399960014</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>2.457672199327399</v>
+        <v>2.346581672843273</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>1.161048345969817</v>
+        <v>-2.137872759908543</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>0.3588779143979259</v>
+        <v>0.6918486627276899</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>0.1447800403463706</v>
+        <v>-0.1830282807917194</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-6.659569059453441</v>
+        <v>-7.455331811242239</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.32601135970925</v>
+        <v>-6.634215127990439</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.522958979619229</v>
+        <v>4.950983670929165</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-1.274925872121058</v>
+        <v>-3.137004508658248</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.5114228310396429</v>
+        <v>0.1178449071926435</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>-0.9467207456890891</v>
+        <v>1.694539906371983</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-2.250984411792856</v>
+        <v>-2.429672809361905</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-9.79884399397486</v>
+        <v>-9.848573302252106</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>6.441564667867294</v>
+        <v>7.078274507016968</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-2.913688809291015</v>
+        <v>-6.551395147661698</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>0.01274577414167588</v>
+        <v>1.030831314169234</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-1.146122454675758</v>
+        <v>-1.25241477387279</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-5.896247244766551</v>
+        <v>-5.832509413581954</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.75589285268605</v>
+        <v>-15.59903630594676</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.54660319303826</v>
+        <v>12.85876100974084</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.2144594303485126</v>
+        <v>-1.539932449085035</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-1.019457838493099</v>
+        <v>-1.036707344429788</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>4.174830564720544</v>
+        <v>4.284068656999551</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.923214315583135</v>
+        <v>-4.953207440474793</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.612793704121692</v>
+        <v>-9.566330651464272</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>3.982543494963697</v>
+        <v>3.740385420243042</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>2.021921227219403</v>
+        <v>-0.2789973130462364</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.659891612414111</v>
+        <v>1.722870746947036</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>1.785541769447896</v>
+        <v>1.755988347434889</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-3.158741738768001</v>
+        <v>-2.625106686234913</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-16.18582112066174</v>
+        <v>-17.09608306408594</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>8.198495145419503</v>
+        <v>10.05612412353349</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>2.338979034971667</v>
+        <v>1.370374221124182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>4.539672900996927</v>
+        <v>4.582322191065558</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-3.230380871936855</v>
+        <v>-2.989926525329945</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.672681100180842</v>
+        <v>-4.842174822147904</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.408046646221633</v>
+        <v>-7.303201735612996</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.226264746505823</v>
+        <v>2.019171168756984</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>0.1603634822428202</v>
+        <v>0.5468824489045954</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.972595178868476</v>
+        <v>2.089219070200143</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>0.8714458349360799</v>
+        <v>1.486277575915795</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-7.224929254847257</v>
+        <v>-6.087261126073806</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-9.495617716915373</v>
+        <v>-10.16425802345092</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>5.157155976626449</v>
+        <v>5.921814379088586</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-3.583672217891487</v>
+        <v>-2.447666354054567</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.2898389955339642</v>
+        <v>-0.01603085560970552</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>0.7622341113790343</v>
+        <v>1.987798854519629</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.610199337602884</v>
+        <v>-6.605106448670939</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-10.48094432291787</v>
+        <v>-11.00270416898794</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>8.180323115023235</v>
+        <v>7.740979097630962</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-2.501513747066486</v>
+        <v>-2.40307855171531</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>0.767578183714801</v>
+        <v>1.374316350014881</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>1.840772160060777</v>
+        <v>3.135023296539541</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.318398071360851</v>
+        <v>-3.509120884084993</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-11.25022341374484</v>
+        <v>-12.01292963974755</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.117422084437395</v>
+        <v>5.52481187536169</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>-0.150008173726035</v>
+        <v>0.2636015152994942</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>0.648520157171828</v>
+        <v>-0.4154267993932925</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-1.381134537046613</v>
+        <v>-0.9263913896774389</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-6.699680634569805</v>
+        <v>-5.09809430652518</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.547831934466211</v>
+        <v>-9.48116646532563</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>3.356311195599293</v>
+        <v>3.507684151049073</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>-3.213898561150286</v>
+        <v>-2.503540422452755</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>5.659764946993207</v>
+        <v>4.961550636458334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>1.014882729385858</v>
+        <v>3.397424623912881</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-5.073935594540002</v>
+        <v>-4.725746887077364</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-12.13407856534054</v>
+        <v>-11.930862545175</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>7.011430829326515</v>
+        <v>6.724946794856246</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>-1.537015074131165</v>
+        <v>-1.499894977938809</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>0.7042660713006077</v>
+        <v>1.510713343055814</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>-1.587645170858643</v>
+        <v>0.438241785231086</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-4.333800315737601</v>
+        <v>-5.332607898923348</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-13.58851383562553</v>
+        <v>-13.77396836132827</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.729287447607478</v>
+        <v>5.977505201742606</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>6.854720749325538</v>
+        <v>6.234874844293259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-1.147435490643522</v>
+        <v>-0.5072713764124992</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>-1.724998974154757</v>
+        <v>2.347551989663077</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-6.640287121273625</v>
+        <v>-7.890880529707966</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-13.39331874892459</v>
+        <v>-14.2455238915679</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>4.805777723423543</v>
+        <v>4.847623452047545</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>2.732770369698301</v>
+        <v>2.07508623892021</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>1.195246907201186</v>
+        <v>1.693590988425431</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-2.668563435061688</v>
+        <v>-0.7283986826497224</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-7.231719469709741</v>
+        <v>-7.228004981462044</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-7.671180459068905</v>
+        <v>-7.922056088890694</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>4.19087102741782</v>
+        <v>3.642110703630563</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-4.552818558721583</v>
+        <v>-4.199485452011597</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.02318282123892068</v>
+        <v>-0.6396612088639952</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>3.083511775615566</v>
+        <v>4.349152175458815</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-6.123728796067674</v>
+        <v>-4.438397552964868</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-8.235275066581938</v>
+        <v>-8.052865536154252</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>2.252708097586331</v>
+        <v>0.8876936463912077</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-3.967368151545647</v>
+        <v>-2.994145231657719</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>1.886070745656299</v>
+        <v>1.645964067500927</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>1.127862550426584</v>
+        <v>2.730465973526197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-8.884629060542382</v>
+        <v>-10.12043910896853</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-7.543980743025813</v>
+        <v>-7.876156186709416</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-2.949188246704548</v>
+        <v>-0.5332612223861499</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>-3.611969505208001</v>
+        <v>-2.968363247050276</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>3.52533707827718</v>
+        <v>0.08125410349746343</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>2.727193052942112</v>
+        <v>4.412753813882619</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-2.937994634050234</v>
+        <v>-3.203391331679983</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-8.025761971574962</v>
+        <v>-7.572564460181141</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>0.6149770507606345</v>
+        <v>1.045869415555645</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>-1.885414476196334</v>
+        <v>-1.831476950076483</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.395997818671967</v>
+        <v>0.1438909239413144</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>1.409904535320594</v>
+        <v>2.220829877350461</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-8.059839787872402</v>
+        <v>-7.8796023690065</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-13.05429891740689</v>
+        <v>-13.0248486308746</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.0389978908769</v>
+        <v>14.12248489151235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-2.721051045822143</v>
+        <v>-1.943433733805611</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.5066965032305637</v>
+        <v>0.8672245618129626</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>-0.690404904304287</v>
+        <v>1.809602544414046</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-6.105113237406313</v>
+        <v>-5.401566799675273</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.557269614408259</v>
+        <v>-8.598206066902526</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>5.562205504187334</v>
+        <v>5.799263186894299</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-2.471236378176089</v>
+        <v>-2.562598399640303</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-0.6640234244301602</v>
+        <v>-1.043674428100372</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>-1.300878615690892</v>
+        <v>2.94501999879655</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-7.640143189820147</v>
+        <v>-7.833215512952652</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.60992058023809</v>
+        <v>-11.73326997157711</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>3.971150523237887</v>
+        <v>4.336987884801591</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>-0.6255196345754888</v>
+        <v>-0.832746998225975</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>1.238893869632629</v>
+        <v>2.129655368241123</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>2.186237893115961</v>
+        <v>1.806202875256235</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-7.351193491093355</v>
+        <v>-5.609821369186951</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-11.52411594121653</v>
+        <v>-10.68524077774919</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.88385483491278</v>
+        <v>2.954557920776368</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-3.825133837606731</v>
+        <v>-3.217688659865325</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>2.16646121674382</v>
+        <v>4.23354576882764</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>1.91801953403099</v>
+        <v>-0.8595543410469864</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-12.34811021005116</v>
+        <v>-11.1871527479855</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-13.2591016810378</v>
+        <v>-14.18429311242192</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-2.441329873336706</v>
+        <v>-1.241188705016316</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>-7.337104624119705</v>
+        <v>-2.826396741176651</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>-2.478622745562231</v>
+        <v>5.394115522710696</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>4.157658383703655</v>
+        <v>-3.549617623570933</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-5.115745223093937</v>
+        <v>-6.933448573412903</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-20.561891510594</v>
+        <v>-22.09548075438444</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>10.41288392297686</v>
+        <v>11.20914572519554</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>4.566540860530965</v>
+        <v>3.723747515126585</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>2.488962245037007</v>
+        <v>2.306707431364075</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-3.510235019126062</v>
+        <v>-1.778452824574228</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-6.054626444240895</v>
+        <v>-5.118186039811778</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-13.86575638456973</v>
+        <v>-12.67460519828443</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-1.22992375272708</v>
+        <v>-0.03981704208212422</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>-2.630744123608997</v>
+        <v>-2.662424177624589</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.596262740107091</v>
+        <v>1.776566356912723</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.08717948075858128</v>
+        <v>-0.4148700252332493</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-10.91211698800373</v>
+        <v>-10.84203045249068</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-12.98862833157818</v>
+        <v>-12.64989318554819</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>2.460767030024069</v>
+        <v>0.3360698025909548</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-7.306541591295734</v>
+        <v>-5.69748479626826</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-1.516347281656716</v>
+        <v>-0.1372280550651972</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>4.400587658464183</v>
+        <v>2.693817722934599</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-6.607530356574165</v>
+        <v>-7.482274965020075</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.07663903788939</v>
+        <v>-9.964721401725797</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>0.5084875996097971</v>
+        <v>0.6234905500427601</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>-2.313676743670934</v>
+        <v>-1.659177186646488</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.730306709899333</v>
+        <v>2.515441966371346</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>3.140443288141137</v>
+        <v>5.165092752071843</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-10.82339738142288</v>
+        <v>-9.79253615036939</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.76011294838662</v>
+        <v>-10.7230302126614</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>13.6609931412303</v>
+        <v>14.88073115307142</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-4.270388831076122</v>
+        <v>-3.423316644399033</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.06733293476095525</v>
+        <v>0.1975641268312511</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>0.9291139647938262</v>
+        <v>3.952105596517419</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.329474531167087</v>
+        <v>-3.039183008333979</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.318737551005817</v>
+        <v>-8.483602818919566</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.997555244159212</v>
+        <v>3.288347892882193</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.537106590058057</v>
+        <v>1.655556339315756</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>0.4920364203978345</v>
+        <v>0.6752887154686915</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.587411990378129</v>
+        <v>-1.224125093642503</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-2.142736918271326</v>
+        <v>-2.937079273618959</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-5.454614701246663</v>
+        <v>-5.877887780929703</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-0.7413348253170193</v>
+        <v>-1.71529310507974</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>-1.160818689035115</v>
+        <v>-1.650062160966925</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>1.980994073290687</v>
+        <v>2.203258722518542</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>2.743224551207946</v>
+        <v>3.364949834633113</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-6.750773702774005</v>
+        <v>-6.740396034872564</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.017871648761588</v>
+        <v>-9.220211581450465</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.168796752773638</v>
+        <v>1.71549848095407</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-6.377917057005622</v>
+        <v>-3.399390620678433</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>-0.02123965769541547</v>
+        <v>0.9217416214790886</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>1.096988527374276</v>
+        <v>1.767679412837109</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-7.181672250895232</v>
+        <v>-6.898767746022438</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-5.723645135424382</v>
+        <v>-6.482133649624577</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>-0.4527946874917532</v>
+        <v>-0.5739782325092424</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>-3.053799304537741</v>
+        <v>-3.540657156338267</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>1.756646825785513</v>
+        <v>-0.678200109565974</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>1.851382293847847</v>
+        <v>3.345660998165356</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-10.21575840037371</v>
+        <v>-9.681407815173781</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-10.53539004447023</v>
+        <v>-10.1771199767371</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>2.333315105285805</v>
+        <v>4.890732824418609</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-4.541722182218011</v>
+        <v>-5.554575331999212</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>-0.8120026955777737</v>
+        <v>0.1843162534397313</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>3.675822214138913</v>
+        <v>2.098092712294353</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-3.649871161412377</v>
+        <v>-2.981772832322827</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-12.0583311054669</v>
+        <v>-13.13540702672897</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>9.396603371653423</v>
+        <v>9.928409204031951</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.61877361763676</v>
+        <v>1.754571956914708</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.08165399446305</v>
+        <v>1.670927976134395</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.731500336909919</v>
+        <v>1.38835397609911</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.013600683794161</v>
+        <v>-5.199133930159217</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-7.630657983819821</v>
+        <v>-8.010908963774209</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>3.982716956360166</v>
+        <v>3.410937933493985</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-2.978244939422325</v>
+        <v>-2.895926706065366</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.6046631557811155</v>
+        <v>0.3339151862840284</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>2.073492197839277</v>
+        <v>4.59869262495578</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-6.445349980208048</v>
+        <v>-5.939253151147961</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.340633664768449</v>
+        <v>-8.571649529975723</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>2.334095130808778</v>
+        <v>3.323978670372796</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>-1.151229311883262</v>
+        <v>-1.895494161733102</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.210246916527558</v>
+        <v>1.980374527227924</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>1.111427653631103</v>
+        <v>-0.03767613502390077</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.368261542749231</v>
+        <v>-6.223932398111742</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-6.301825988510224</v>
+        <v>-5.868318449977428</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>1.493908133005717</v>
+        <v>1.646161862296491</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-2.798727300240922</v>
+        <v>-2.933522038034742</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>-0.540995575268588</v>
+        <v>0.839964596311038</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>0.278423017843954</v>
+        <v>1.133095459894307</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.801448431204605</v>
+        <v>-7.355016058814245</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-10.00135629731673</v>
+        <v>-10.71091549800433</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>4.227672219669709</v>
+        <v>2.827849591466736</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-6.554212773002188</v>
+        <v>-6.449963502812839</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>1.765333890431675</v>
+        <v>1.301594294347219</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>1.561118885326684</v>
+        <v>3.326085785252708</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-8.261871354076344</v>
+        <v>-7.532566086751702</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-14.73662437206961</v>
+        <v>-13.50062716047301</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>8.324514405086948</v>
+        <v>9.805550980771693</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-2.435225989839218</v>
+        <v>-3.116795091597269</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.628784055776267</v>
+        <v>-1.108034726717488</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>1.284041395082447</v>
+        <v>4.136509924504117</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-9.805485970868922</v>
+        <v>-9.023760559755322</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-10.63065204345034</v>
+        <v>-10.18580917452482</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>3.968469171242606</v>
+        <v>5.787221417812316</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>-2.87568442353513</v>
+        <v>-2.611248847531022</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>1.284962803415302</v>
+        <v>2.27946310878564</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>2.289839027272711</v>
+        <v>2.019579975688512</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.399417577088137</v>
+        <v>-3.512359802431375</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-9.375215860917018</v>
+        <v>-8.946627261555218</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>3.78125098046469</v>
+        <v>2.827406259495602</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-1.073934213925554</v>
+        <v>-0.694643627050151</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>3.091367707467541</v>
+        <v>2.060150244495929</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>1.143853122253558</v>
+        <v>1.966124311316109</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-8.104976381348362</v>
+        <v>-7.155384316975599</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-10.36468821004479</v>
+        <v>-8.270706442116914</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>4.745420925700294</v>
+        <v>5.522732479507986</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-3.470416220560057</v>
+        <v>-2.763583424585059</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.386846613961436</v>
+        <v>-3.691730829096329</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>2.929127962695532</v>
+        <v>5.879669737176885</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-9.51055499784459</v>
+        <v>-10.13042071993801</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-8.285261397036091</v>
+        <v>-10.09517961207668</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>-1.072311121575487</v>
+        <v>2.348241363996784</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-7.671933054454483</v>
+        <v>-5.377702023000053</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>2.886336582139903</v>
+        <v>-1.249360973974667</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>0.7272232762060904</v>
+        <v>2.965518726754413</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-4.548116826716619</v>
+        <v>-5.67015148739366</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.27686186111202</v>
+        <v>-15.39924970155328</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>10.97863564649611</v>
+        <v>11.29394085882875</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>2.033835309305743</v>
+        <v>1.010373550652233</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-0.5223540529477377</v>
+        <v>-2.530273093701507</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>1.193558023150154</v>
+        <v>2.753191238145991</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-9.411260027509517</v>
+        <v>-8.541103535230999</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-16.99011643436059</v>
+        <v>-17.18530460826396</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>13.40423324874149</v>
+        <v>13.19164239455692</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>-0.8988417694618334</v>
+        <v>-0.8675322059182311</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.661469103479574</v>
+        <v>1.424296569727579</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>0.283795590695668</v>
+        <v>3.191232514538456</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-5.104836575761674</v>
+        <v>-4.57931756325296</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-8.096895399960014</v>
+        <v>-7.406220386538376</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>2.346581672843273</v>
+        <v>3.09571995043425</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>-2.137872759908543</v>
+        <v>-0.2879108708826128</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>0.6918486627276899</v>
+        <v>0.9069014417727672</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>-0.1830282807917194</v>
+        <v>0.8738519682143009</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-7.455331811242239</v>
+        <v>-6.519244569045835</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-6.634215127990439</v>
+        <v>-7.627058325402636</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.950983670929165</v>
+        <v>4.532017629623386</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-3.137004508658248</v>
+        <v>-3.704271846383445</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.1178449071926435</v>
+        <v>0.1670435076743138</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>1.694539906371983</v>
+        <v>2.203442393755783</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-2.429672809361905</v>
+        <v>-1.606467622201779</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-9.848573302252106</v>
+        <v>-8.784599406073657</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>7.078274507016968</v>
+        <v>5.680524894877159</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-6.551395147661698</v>
+        <v>-5.411328466482468</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>1.030831314169234</v>
+        <v>0.754769900056762</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-1.25241477387279</v>
+        <v>-0.7444136177884531</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-5.832509413581954</v>
+        <v>-5.081920135784246</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.59903630594676</v>
+        <v>-15.39649755843611</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.85876100974084</v>
+        <v>12.04956917588502</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-1.539932449085035</v>
+        <v>-0.9990876702295703</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>-1.036707344429788</v>
+        <v>0.03127803191453893</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>4.284068656999551</v>
+        <v>4.913370286331076</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.953207440474793</v>
+        <v>-4.154526105086342</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-9.566330651464272</v>
+        <v>-10.33639407025615</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>3.740385420243042</v>
+        <v>4.075793222719981</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>-0.2789973130462364</v>
+        <v>-0.1199294545409457</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.722870746947036</v>
+        <v>1.44245840307986</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>1.755988347434889</v>
+        <v>1.665317755248585</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -546,7 +546,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>-2.625106686234913</v>
+        <v>-2.035460099246844</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -555,7 +555,7 @@
         <v>43922</v>
       </c>
       <c r="C3">
-        <v>-17.09608306408594</v>
+        <v>-17.62203620004408</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -564,7 +564,7 @@
         <v>44013</v>
       </c>
       <c r="C4">
-        <v>10.05612412353349</v>
+        <v>9.828342856889162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -573,7 +573,7 @@
         <v>44105</v>
       </c>
       <c r="C5">
-        <v>1.370374221124182</v>
+        <v>1.821239225437687</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -582,7 +582,7 @@
         <v>44197</v>
       </c>
       <c r="C6">
-        <v>4.582322191065558</v>
+        <v>5.057229196252111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>44287</v>
       </c>
       <c r="C7">
-        <v>-2.989926525329945</v>
+        <v>-3.467510427891352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -602,7 +602,7 @@
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.842174822147904</v>
+        <v>-4.67384517933036</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +611,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.303201735612996</v>
+        <v>-7.2376824732862</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +620,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>2.019171168756984</v>
+        <v>1.571202932707783</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +629,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>0.5468824489045954</v>
+        <v>-0.005560087184486306</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +638,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>2.089219070200143</v>
+        <v>1.804033840598129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,7 +647,7 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>1.486277575915795</v>
+        <v>1.429878610267421</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -658,7 +658,7 @@
         <v>43831</v>
       </c>
       <c r="C14">
-        <v>-6.087261126073806</v>
+        <v>-6.087546632532614</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +667,7 @@
         <v>43922</v>
       </c>
       <c r="C15">
-        <v>-10.16425802345092</v>
+        <v>-9.993103987075024</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>44013</v>
       </c>
       <c r="C16">
-        <v>5.921814379088586</v>
+        <v>6.306855343022977</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -685,7 +685,7 @@
         <v>44105</v>
       </c>
       <c r="C17">
-        <v>-2.447666354054567</v>
+        <v>-1.661051272223379</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -694,7 +694,7 @@
         <v>44197</v>
       </c>
       <c r="C18">
-        <v>-0.01603085560970552</v>
+        <v>0.5214661877009474</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +703,7 @@
         <v>44287</v>
       </c>
       <c r="C19">
-        <v>1.987798854519629</v>
+        <v>1.950775042968877</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -714,7 +714,7 @@
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.605106448670939</v>
+        <v>-6.437440200660727</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +723,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-11.00270416898794</v>
+        <v>-11.24066198867261</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +732,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.740979097630962</v>
+        <v>7.611621819759717</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +741,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-2.40307855171531</v>
+        <v>-2.369474547106654</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +750,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>1.374316350014881</v>
+        <v>0.6544615843363744</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,7 +759,7 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>3.135023296539541</v>
+        <v>4.35471049572409</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -770,7 +770,7 @@
         <v>43831</v>
       </c>
       <c r="C26">
-        <v>-3.509120884084993</v>
+        <v>-4.091590614060269</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>43922</v>
       </c>
       <c r="C27">
-        <v>-12.01292963974755</v>
+        <v>-12.56720904298925</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -788,7 +788,7 @@
         <v>44013</v>
       </c>
       <c r="C28">
-        <v>5.52481187536169</v>
+        <v>4.620936069012771</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -797,7 +797,7 @@
         <v>44105</v>
       </c>
       <c r="C29">
-        <v>0.2636015152994942</v>
+        <v>-0.4328295117768777</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>44197</v>
       </c>
       <c r="C30">
-        <v>-0.4154267993932925</v>
+        <v>-0.2681597865626273</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>44287</v>
       </c>
       <c r="C31">
-        <v>-0.9263913896774389</v>
+        <v>-0.727999820687375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-5.09809430652518</v>
+        <v>-4.058325181347355</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +835,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.48116646532563</v>
+        <v>-9.836249057405366</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +844,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>3.507684151049073</v>
+        <v>3.583235445069732</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +853,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>-2.503540422452755</v>
+        <v>-2.625178040510601</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +862,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>4.961550636458334</v>
+        <v>4.398539538353896</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,7 +871,7 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>3.397424623912881</v>
+        <v>4.444797196993</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -882,7 +882,7 @@
         <v>43831</v>
       </c>
       <c r="C38">
-        <v>-4.725746887077364</v>
+        <v>-4.827045002471375</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -891,7 +891,7 @@
         <v>43922</v>
       </c>
       <c r="C39">
-        <v>-11.930862545175</v>
+        <v>-12.06203944789264</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -900,7 +900,7 @@
         <v>44013</v>
       </c>
       <c r="C40">
-        <v>6.724946794856246</v>
+        <v>6.649937874130041</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -909,7 +909,7 @@
         <v>44105</v>
       </c>
       <c r="C41">
-        <v>-1.499894977938809</v>
+        <v>-1.538969552912495</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -918,7 +918,7 @@
         <v>44197</v>
       </c>
       <c r="C42">
-        <v>1.510713343055814</v>
+        <v>1.571533602938957</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -927,7 +927,7 @@
         <v>44287</v>
       </c>
       <c r="C43">
-        <v>0.438241785231086</v>
+        <v>0.535247395574312</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -938,7 +938,7 @@
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-5.332607898923348</v>
+        <v>-5.687653391115899</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +947,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-13.77396836132827</v>
+        <v>-14.05009425241859</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +956,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.977505201742606</v>
+        <v>5.209865830411564</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +965,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>6.234874844293259</v>
+        <v>5.020691075903194</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +974,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-0.5072713764124992</v>
+        <v>-0.2856153068832579</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>2.347551989663077</v>
+        <v>2.095491253470216</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -994,7 +994,7 @@
         <v>43831</v>
       </c>
       <c r="C50">
-        <v>-7.890880529707966</v>
+        <v>-8.344408969515783</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="C51">
-        <v>-14.2455238915679</v>
+        <v>-14.66206598358861</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>44013</v>
       </c>
       <c r="C52">
-        <v>4.847623452047545</v>
+        <v>4.140859003204778</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>44105</v>
       </c>
       <c r="C53">
-        <v>2.07508623892021</v>
+        <v>1.148412744062322</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>44197</v>
       </c>
       <c r="C54">
-        <v>1.693590988425431</v>
+        <v>0.6066699097436512</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>44287</v>
       </c>
       <c r="C55">
-        <v>-0.7283986826497224</v>
+        <v>-0.8226992124445442</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-7.228004981462044</v>
+        <v>-6.905289486770371</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-7.922056088890694</v>
+        <v>-7.459946127430417</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>3.642110703630563</v>
+        <v>3.862726198966815</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-4.199485452011597</v>
+        <v>-4.053929069756935</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>-0.6396612088639952</v>
+        <v>0.2275110373131994</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>4.349152175458815</v>
+        <v>3.654962205364098</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>43831</v>
       </c>
       <c r="C62">
-        <v>-4.438397552964868</v>
+        <v>-5.788979307821052</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1115,7 +1115,7 @@
         <v>43922</v>
       </c>
       <c r="C63">
-        <v>-8.052865536154252</v>
+        <v>-8.823909079023363</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>44013</v>
       </c>
       <c r="C64">
-        <v>0.8876936463912077</v>
+        <v>0.5275764938637906</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>44105</v>
       </c>
       <c r="C65">
-        <v>-2.994145231657719</v>
+        <v>-3.195910505463895</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>44197</v>
       </c>
       <c r="C66">
-        <v>1.645964067500927</v>
+        <v>0.7148223399484177</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1151,7 +1151,7 @@
         <v>44287</v>
       </c>
       <c r="C67">
-        <v>2.730465973526197</v>
+        <v>3.232658808274458</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1162,7 +1162,7 @@
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-10.12043910896853</v>
+        <v>-8.57861516792947</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-7.876156186709416</v>
+        <v>-6.128238393705976</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-0.5332612223861499</v>
+        <v>-1.181410917399306</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>-2.968363247050276</v>
+        <v>-2.935606284086434</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1198,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>0.08125410349746343</v>
+        <v>-0.2367276268174567</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>4.412753813882619</v>
+        <v>4.157805920903446</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>43831</v>
       </c>
       <c r="C74">
-        <v>-3.203391331679983</v>
+        <v>-2.481911701073314</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>43922</v>
       </c>
       <c r="C75">
-        <v>-7.572564460181141</v>
+        <v>-7.74214844716794</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>44013</v>
       </c>
       <c r="C76">
-        <v>1.045869415555645</v>
+        <v>2.13824844210373</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>44105</v>
       </c>
       <c r="C77">
-        <v>-1.831476950076483</v>
+        <v>-1.899428919723778</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>44197</v>
       </c>
       <c r="C78">
-        <v>0.1438909239413144</v>
+        <v>0.5256805211127924</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>44287</v>
       </c>
       <c r="C79">
-        <v>2.220829877350461</v>
+        <v>2.215759904011527</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-7.8796023690065</v>
+        <v>-8.220175921777638</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1283,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-13.0248486308746</v>
+        <v>-13.04100265948391</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>14.12248489151235</v>
+        <v>13.61394283899688</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-1.943433733805611</v>
+        <v>-2.462350383560274</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1310,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.8672245618129626</v>
+        <v>0.6761003565644019</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>1.809602544414046</v>
+        <v>1.718688210847952</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>43831</v>
       </c>
       <c r="C86">
-        <v>-5.401566799675273</v>
+        <v>-5.757709956649215</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>43922</v>
       </c>
       <c r="C87">
-        <v>-8.598206066902526</v>
+        <v>-9.097118855607034</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>44013</v>
       </c>
       <c r="C88">
-        <v>5.799263186894299</v>
+        <v>5.608956880992721</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>44105</v>
       </c>
       <c r="C89">
-        <v>-2.562598399640303</v>
+        <v>-2.813481064887791</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>44197</v>
       </c>
       <c r="C90">
-        <v>-1.043674428100372</v>
+        <v>-1.016757801210222</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>44287</v>
       </c>
       <c r="C91">
-        <v>2.94501999879655</v>
+        <v>2.887967335098529</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-7.833215512952652</v>
+        <v>-7.736235292706684</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-11.73326997157711</v>
+        <v>-12.15051088656294</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>4.336987884801591</v>
+        <v>4.763625725163734</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>-0.832746998225975</v>
+        <v>-0.3302692671527052</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>2.129655368241123</v>
+        <v>1.608116853574049</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>1.806202875256235</v>
+        <v>2.964390795576599</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>43831</v>
       </c>
       <c r="C98">
-        <v>-5.609821369186951</v>
+        <v>-6.118257174976327</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>43922</v>
       </c>
       <c r="C99">
-        <v>-10.68524077774919</v>
+        <v>-10.32506254744184</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>44013</v>
       </c>
       <c r="C100">
-        <v>2.954557920776368</v>
+        <v>2.940193729215324</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>44105</v>
       </c>
       <c r="C101">
-        <v>-3.217688659865325</v>
+        <v>-3.936467013695233</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>44197</v>
       </c>
       <c r="C102">
-        <v>4.23354576882764</v>
+        <v>3.461505628303452</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>44287</v>
       </c>
       <c r="C103">
-        <v>-0.8595543410469864</v>
+        <v>-1.160312942947028</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-11.1871527479855</v>
+        <v>-8.230435119857059</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-14.18429311242192</v>
+        <v>-14.69603689359019</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-1.241188705016316</v>
+        <v>-1.490072335774251</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>-2.826396741176651</v>
+        <v>1.104551990133884</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>5.394115522710696</v>
+        <v>-0.6923075208210783</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>-3.549617623570933</v>
+        <v>3.650594582461508</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>43831</v>
       </c>
       <c r="C110">
-        <v>-6.933448573412903</v>
+        <v>-6.478926589163637</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>43922</v>
       </c>
       <c r="C111">
-        <v>-22.09548075438444</v>
+        <v>-21.87275187806761</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>44013</v>
       </c>
       <c r="C112">
-        <v>11.20914572519554</v>
+        <v>10.99409433491614</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44105</v>
       </c>
       <c r="C113">
-        <v>3.723747515126585</v>
+        <v>3.745148762060846</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>44197</v>
       </c>
       <c r="C114">
-        <v>2.306707431364075</v>
+        <v>1.939866017661496</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>44287</v>
       </c>
       <c r="C115">
-        <v>-1.778452824574228</v>
+        <v>-1.608004972198784</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.118186039811778</v>
+        <v>-5.456611080287588</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-12.67460519828443</v>
+        <v>-12.76177223806438</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>-0.03981704208212422</v>
+        <v>0.4164647282089318</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>-2.662424177624589</v>
+        <v>-2.231325143978879</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.776566356912723</v>
+        <v>1.821993165105718</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.4148700252332493</v>
+        <v>-0.9829734951108837</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1666,7 +1666,7 @@
         <v>43831</v>
       </c>
       <c r="C122">
-        <v>-10.84203045249068</v>
+        <v>-10.74083168783588</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>43922</v>
       </c>
       <c r="C123">
-        <v>-12.64989318554819</v>
+        <v>-12.3274716157805</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>44013</v>
       </c>
       <c r="C124">
-        <v>0.3360698025909548</v>
+        <v>0.1799968742264291</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1693,7 +1693,7 @@
         <v>44105</v>
       </c>
       <c r="C125">
-        <v>-5.69748479626826</v>
+        <v>-6.516398290272529</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>44197</v>
       </c>
       <c r="C126">
-        <v>-0.1372280550651972</v>
+        <v>-0.6219840896617201</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>44287</v>
       </c>
       <c r="C127">
-        <v>2.693817722934599</v>
+        <v>3.22566529724424</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.482274965020075</v>
+        <v>-7.453428899521509</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-9.964721401725797</v>
+        <v>-10.10551362700316</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>0.6234905500427601</v>
+        <v>1.030056232386833</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1749,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>-1.659177186646488</v>
+        <v>-1.851869995970568</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.515441966371346</v>
+        <v>2.532209653188744</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,7 +1767,7 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>5.165092752071843</v>
+        <v>4.677111579958204</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1778,7 +1778,7 @@
         <v>43831</v>
       </c>
       <c r="C134">
-        <v>-9.79253615036939</v>
+        <v>-10.11327125789648</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1787,7 +1787,7 @@
         <v>43922</v>
       </c>
       <c r="C135">
-        <v>-10.7230302126614</v>
+        <v>-11.73574322328617</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>44013</v>
       </c>
       <c r="C136">
-        <v>14.88073115307142</v>
+        <v>13.54670638506468</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>44105</v>
       </c>
       <c r="C137">
-        <v>-3.423316644399033</v>
+        <v>-3.886359569072495</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>44197</v>
       </c>
       <c r="C138">
-        <v>0.1975641268312511</v>
+        <v>0.4953673244173729</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>44287</v>
       </c>
       <c r="C139">
-        <v>3.952105596517419</v>
+        <v>4.108027557963845</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.039183008333979</v>
+        <v>-3.201696072674276</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.483602818919566</v>
+        <v>-8.260609011578113</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.288347892882193</v>
+        <v>3.073241083735656</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.655556339315756</v>
+        <v>1.282763362344586</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1870,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>0.6752887154686915</v>
+        <v>0.7021449457897067</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-1.224125093642503</v>
+        <v>-0.8835163668911572</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>43831</v>
       </c>
       <c r="C146">
-        <v>-2.937079273618959</v>
+        <v>-2.332072185224443</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1899,7 +1899,7 @@
         <v>43922</v>
       </c>
       <c r="C147">
-        <v>-5.877887780929703</v>
+        <v>-5.250776422647996</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>44013</v>
       </c>
       <c r="C148">
-        <v>-1.71529310507974</v>
+        <v>-0.810346949946783</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>44105</v>
       </c>
       <c r="C149">
-        <v>-1.650062160966925</v>
+        <v>-0.6307718977074495</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>44197</v>
       </c>
       <c r="C150">
-        <v>2.203258722518542</v>
+        <v>2.696694391635868</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -1935,7 +1935,7 @@
         <v>44287</v>
       </c>
       <c r="C151">
-        <v>3.364949834633113</v>
+        <v>2.318141515246763</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-6.740396034872564</v>
+        <v>-7.729584955604962</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.220211581450465</v>
+        <v>-9.720662187469131</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>1.71549848095407</v>
+        <v>-1.366113111436185</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-3.399390620678433</v>
+        <v>-4.750086679498333</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>0.9217416214790886</v>
+        <v>-0.680613906895311</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>1.767679412837109</v>
+        <v>1.824341130668738</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="C158">
-        <v>-6.898767746022438</v>
+        <v>-7.217328523064315</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>43922</v>
       </c>
       <c r="C159">
-        <v>-6.482133649624577</v>
+        <v>-6.928132318504387</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2020,7 +2020,7 @@
         <v>44013</v>
       </c>
       <c r="C160">
-        <v>-0.5739782325092424</v>
+        <v>-0.5916528575132363</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>44105</v>
       </c>
       <c r="C161">
-        <v>-3.540657156338267</v>
+        <v>-2.546039627433516</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>44197</v>
       </c>
       <c r="C162">
-        <v>-0.678200109565974</v>
+        <v>0.4050152369354798</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>44287</v>
       </c>
       <c r="C163">
-        <v>3.345660998165356</v>
+        <v>1.794719297885328</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-9.681407815173781</v>
+        <v>-10.41964881762699</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-10.1771199767371</v>
+        <v>-10.88244479930132</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>4.890732824418609</v>
+        <v>4.676385740800915</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-5.554575331999212</v>
+        <v>-6.500421038823601</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>0.1843162534397313</v>
+        <v>-1.814898375965157</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>2.098092712294353</v>
+        <v>3.082799512627443</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>43831</v>
       </c>
       <c r="C170">
-        <v>-2.981772832322827</v>
+        <v>-3.777495086594029</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>43922</v>
       </c>
       <c r="C171">
-        <v>-13.13540702672897</v>
+        <v>-13.67108402299859</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>44013</v>
       </c>
       <c r="C172">
-        <v>9.928409204031951</v>
+        <v>9.001024325603568</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>44105</v>
       </c>
       <c r="C173">
-        <v>1.754571956914708</v>
+        <v>1.224008318351766</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>44197</v>
       </c>
       <c r="C174">
-        <v>1.670927976134395</v>
+        <v>1.728153673705202</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>44287</v>
       </c>
       <c r="C175">
-        <v>1.38835397609911</v>
+        <v>1.105980006283791</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.199133930159217</v>
+        <v>-5.764045592547006</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2179,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-8.010908963774209</v>
+        <v>-8.091881212044417</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>3.410937933493985</v>
+        <v>3.420109171490671</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-2.895926706065366</v>
+        <v>-3.232347979192318</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2206,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.3339151862840284</v>
+        <v>0.5012428908491406</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>4.59869262495578</v>
+        <v>4.964582196888423</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>43831</v>
       </c>
       <c r="C182">
-        <v>-5.939253151147961</v>
+        <v>-6.621876038605667</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>43922</v>
       </c>
       <c r="C183">
-        <v>-8.571649529975723</v>
+        <v>-8.096272099517797</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>44013</v>
       </c>
       <c r="C184">
-        <v>3.323978670372796</v>
+        <v>3.265361859875493</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>44105</v>
       </c>
       <c r="C185">
-        <v>-1.895494161733102</v>
+        <v>-2.093186356222654</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2262,7 +2262,7 @@
         <v>44197</v>
       </c>
       <c r="C186">
-        <v>1.980374527227924</v>
+        <v>1.987598890946063</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>44287</v>
       </c>
       <c r="C187">
-        <v>-0.03767613502390077</v>
+        <v>0.2433941391938976</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-6.223932398111742</v>
+        <v>-5.555380532471899</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-5.868318449977428</v>
+        <v>-5.75678673437624</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>1.646161862296491</v>
+        <v>1.062801788820233</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-2.933522038034742</v>
+        <v>-3.089218239081271</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>0.839964596311038</v>
+        <v>0.3796301922301737</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,7 +2327,7 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>1.133095459894307</v>
+        <v>1.471543841127931</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2338,7 +2338,7 @@
         <v>43831</v>
       </c>
       <c r="C194">
-        <v>-7.355016058814245</v>
+        <v>-7.692444839294666</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>43922</v>
       </c>
       <c r="C195">
-        <v>-10.71091549800433</v>
+        <v>-10.56587539391836</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>44013</v>
       </c>
       <c r="C196">
-        <v>2.827849591466736</v>
+        <v>2.443373006977367</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>44105</v>
       </c>
       <c r="C197">
-        <v>-6.449963502812839</v>
+        <v>-6.284613665604544</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>44197</v>
       </c>
       <c r="C198">
-        <v>1.301594294347219</v>
+        <v>1.321410443246918</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2383,7 +2383,7 @@
         <v>44287</v>
       </c>
       <c r="C199">
-        <v>3.326085785252708</v>
+        <v>3.364756042034722</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2394,7 +2394,7 @@
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-7.532566086751702</v>
+        <v>-7.448610929309096</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-13.50062716047301</v>
+        <v>-13.95134213168487</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>9.805550980771693</v>
+        <v>9.029764023423015</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-3.116795091597269</v>
+        <v>-3.900599980519637</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.108034726717488</v>
+        <v>-1.180608133621841</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>4.136509924504117</v>
+        <v>3.501859762962178</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>43831</v>
       </c>
       <c r="C206">
-        <v>-9.023760559755322</v>
+        <v>-8.837048324974095</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2459,7 +2459,7 @@
         <v>43922</v>
       </c>
       <c r="C207">
-        <v>-10.18580917452482</v>
+        <v>-10.08546370913099</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>44013</v>
       </c>
       <c r="C208">
-        <v>5.787221417812316</v>
+        <v>4.809184743373396</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>44105</v>
       </c>
       <c r="C209">
-        <v>-2.611248847531022</v>
+        <v>-2.414133363407456</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>44197</v>
       </c>
       <c r="C210">
-        <v>2.27946310878564</v>
+        <v>1.380951243901518</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>44287</v>
       </c>
       <c r="C211">
-        <v>2.019579975688512</v>
+        <v>3.381111199643616</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.512359802431375</v>
+        <v>-3.206138427804794</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2515,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-8.946627261555218</v>
+        <v>-8.765340074823147</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>2.827406259495602</v>
+        <v>2.099066446659892</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-0.694643627050151</v>
+        <v>-1.035590078485626</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>2.060150244495929</v>
+        <v>1.215336673785683</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>1.966124311316109</v>
+        <v>2.595021435109612</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>43831</v>
       </c>
       <c r="C218">
-        <v>-7.155384316975599</v>
+        <v>-6.593358915531478</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>43922</v>
       </c>
       <c r="C219">
-        <v>-8.270706442116914</v>
+        <v>-9.257291433046511</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2580,7 +2580,7 @@
         <v>44013</v>
       </c>
       <c r="C220">
-        <v>5.522732479507986</v>
+        <v>6.015172463080054</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>44105</v>
       </c>
       <c r="C221">
-        <v>-2.763583424585059</v>
+        <v>-1.207372410485252</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>44197</v>
       </c>
       <c r="C222">
-        <v>-3.691730829096329</v>
+        <v>-5.730473261560975</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>44287</v>
       </c>
       <c r="C223">
-        <v>5.879669737176885</v>
+        <v>5.839388253469324</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-10.13042071993801</v>
+        <v>-9.675064477631789</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-10.09517961207668</v>
+        <v>-10.91216309924589</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>2.348241363996784</v>
+        <v>1.792079499881738</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-5.377702023000053</v>
+        <v>-5.735939356938347</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>-1.249360973974667</v>
+        <v>-0.2276186689428972</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,7 +2663,7 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>2.965518726754413</v>
+        <v>2.765808344848097</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2674,7 +2674,7 @@
         <v>43831</v>
       </c>
       <c r="C230">
-        <v>-5.67015148739366</v>
+        <v>-5.9273416267837</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>43922</v>
       </c>
       <c r="C231">
-        <v>-15.39924970155328</v>
+        <v>-16.83623606642011</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2692,7 +2692,7 @@
         <v>44013</v>
       </c>
       <c r="C232">
-        <v>11.29394085882875</v>
+        <v>9.552589990806526</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2701,7 +2701,7 @@
         <v>44105</v>
       </c>
       <c r="C233">
-        <v>1.010373550652233</v>
+        <v>0.759871733590578</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>44197</v>
       </c>
       <c r="C234">
-        <v>-2.530273093701507</v>
+        <v>-2.605712883422762</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>44287</v>
       </c>
       <c r="C235">
-        <v>2.753191238145991</v>
+        <v>3.104795662682713</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.541103535230999</v>
+        <v>-8.963719940427328</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-17.18530460826396</v>
+        <v>-17.0195094537445</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>13.19164239455692</v>
+        <v>12.92552063159751</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>-0.8675322059182311</v>
+        <v>-1.216461876313324</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.424296569727579</v>
+        <v>1.156201094104814</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>3.191232514538456</v>
+        <v>3.762079195084622</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>43831</v>
       </c>
       <c r="C242">
-        <v>-4.57931756325296</v>
+        <v>-5.739884311897436</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>43922</v>
       </c>
       <c r="C243">
-        <v>-7.406220386538376</v>
+        <v>-8.499747239825961</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>44013</v>
       </c>
       <c r="C244">
-        <v>3.09571995043425</v>
+        <v>2.30552788531464</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>44105</v>
       </c>
       <c r="C245">
-        <v>-0.2879108708826128</v>
+        <v>-1.479719718579442</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>44197</v>
       </c>
       <c r="C246">
-        <v>0.9069014417727672</v>
+        <v>0.948141085166343</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>44287</v>
       </c>
       <c r="C247">
-        <v>0.8738519682143009</v>
+        <v>0.6947022662798785</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-6.519244569045835</v>
+        <v>-6.093007607884449</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.627058325402636</v>
+        <v>-7.002462021792521</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.532017629623386</v>
+        <v>4.048630247056195</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-3.704271846383445</v>
+        <v>-3.397382998329057</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2878,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.1670435076743138</v>
+        <v>0.02180980579487013</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>2.203442393755783</v>
+        <v>2.44953277624036</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>43831</v>
       </c>
       <c r="C254">
-        <v>-1.606467622201779</v>
+        <v>-2.098608182723316</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>43922</v>
       </c>
       <c r="C255">
-        <v>-8.784599406073657</v>
+        <v>-8.990874574641028</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -2916,7 +2916,7 @@
         <v>44013</v>
       </c>
       <c r="C256">
-        <v>5.680524894877159</v>
+        <v>5.643297000181602</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>44105</v>
       </c>
       <c r="C257">
-        <v>-5.411328466482468</v>
+        <v>-5.605232397339766</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>44197</v>
       </c>
       <c r="C258">
-        <v>0.754769900056762</v>
+        <v>1.383043108646387</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -2943,7 +2943,7 @@
         <v>44287</v>
       </c>
       <c r="C259">
-        <v>-0.7444136177884531</v>
+        <v>-0.789665227619174</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-5.081920135784246</v>
+        <v>-4.964416933434935</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2963,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.39649755843611</v>
+        <v>-15.30511798813236</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.04956917588502</v>
+        <v>12.28966638984788</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.9990876702295703</v>
+        <v>-0.8595798433508439</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>0.03127803191453893</v>
+        <v>0.1224044571207061</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>4.913370286331076</v>
+        <v>4.780352611665695</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>43831</v>
       </c>
       <c r="C266">
-        <v>-4.154526105086342</v>
+        <v>-4.184583027734801</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3019,7 +3019,7 @@
         <v>43922</v>
       </c>
       <c r="C267">
-        <v>-10.33639407025615</v>
+        <v>-10.26671835671921</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>44013</v>
       </c>
       <c r="C268">
-        <v>4.075793222719981</v>
+        <v>3.659247220020623</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>44105</v>
       </c>
       <c r="C269">
-        <v>-0.1199294545409457</v>
+        <v>-0.3287284514889133</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>44197</v>
       </c>
       <c r="C270">
-        <v>1.44245840307986</v>
+        <v>1.416186977867495</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3055,7 +3055,7 @@
         <v>44287</v>
       </c>
       <c r="C271">
-        <v>1.665317755248585</v>
+        <v>1.70590079224946</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarter_on_quarter.xlsx
+++ b/Data/quarter_on_quarter.xlsx
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,66 +543,64 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C2">
-        <v>-2.035460099246844</v>
+        <v>0.6031863966323492</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C3">
-        <v>-17.62203620004408</v>
+        <v>2.332791086990227</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C4">
-        <v>9.828342856889162</v>
+        <v>2.885792354986316</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C5">
-        <v>1.821239225437687</v>
+        <v>4.0882069694955</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C6">
-        <v>5.057229196252111</v>
+        <v>5.489560890174672</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C7">
-        <v>-3.467510427891352</v>
+        <v>3.5330573507109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>43831</v>
       </c>
       <c r="C8">
-        <v>-4.67384517933036</v>
+        <v>1.852951783827472</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,7 +609,7 @@
         <v>43922</v>
       </c>
       <c r="C9">
-        <v>-7.2376824732862</v>
+        <v>-13.04204374006591</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +618,7 @@
         <v>44013</v>
       </c>
       <c r="C10">
-        <v>1.571202932707783</v>
+        <v>14.85134301111981</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +627,7 @@
         <v>44105</v>
       </c>
       <c r="C11">
-        <v>-0.005560087184486306</v>
+        <v>2.451397740741013</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +636,7 @@
         <v>44197</v>
       </c>
       <c r="C12">
-        <v>1.804033840598129</v>
+        <v>3.070025614832916</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -647,74 +645,72 @@
         <v>44287</v>
       </c>
       <c r="C13">
-        <v>1.429878610267421</v>
+        <v>-3.06678390377747</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C14">
-        <v>-6.087546632532614</v>
+        <v>0.6385561037244303</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C15">
-        <v>-9.993103987075024</v>
+        <v>1.478871773861412</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C16">
-        <v>6.306855343022977</v>
+        <v>0.9805596285209051</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C17">
-        <v>-1.661051272223379</v>
+        <v>1.010013896684492</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C18">
-        <v>0.5214661877009474</v>
+        <v>0.899756316353284</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C19">
-        <v>1.950775042968877</v>
+        <v>0.001083042503724485</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>43831</v>
       </c>
       <c r="C20">
-        <v>-6.437440200660727</v>
+        <v>-2.207855273190129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -723,7 +719,7 @@
         <v>43922</v>
       </c>
       <c r="C21">
-        <v>-11.24066198867261</v>
+        <v>-6.953730362052002</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -732,7 +728,7 @@
         <v>44013</v>
       </c>
       <c r="C22">
-        <v>7.611621819759717</v>
+        <v>4.888869808140384</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -741,7 +737,7 @@
         <v>44105</v>
       </c>
       <c r="C23">
-        <v>-2.369474547106654</v>
+        <v>4.420058517409831</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -750,7 +746,7 @@
         <v>44197</v>
       </c>
       <c r="C24">
-        <v>0.6544615843363744</v>
+        <v>3.001597903400488</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -759,74 +755,72 @@
         <v>44287</v>
       </c>
       <c r="C25">
-        <v>4.35471049572409</v>
+        <v>2.640474372123358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C26">
-        <v>-4.091590614060269</v>
+        <v>0.5296198463099255</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C27">
-        <v>-12.56720904298925</v>
+        <v>1.045877532072992</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C28">
-        <v>4.620936069012771</v>
+        <v>1.042639866647765</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C29">
-        <v>-0.4328295117768777</v>
+        <v>0.7742018741086154</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C30">
-        <v>-0.2681597865626273</v>
+        <v>0.09723824121137259</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C31">
-        <v>-0.727999820687375</v>
+        <v>0.4979737451495048</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>43831</v>
       </c>
       <c r="C32">
-        <v>-4.058325181347355</v>
+        <v>-3.152978230376857</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -835,7 +829,7 @@
         <v>43922</v>
       </c>
       <c r="C33">
-        <v>-9.836249057405366</v>
+        <v>-8.604811285390712</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -844,7 +838,7 @@
         <v>44013</v>
       </c>
       <c r="C34">
-        <v>3.583235445069732</v>
+        <v>10.65658289107145</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -853,7 +847,7 @@
         <v>44105</v>
       </c>
       <c r="C35">
-        <v>-2.625178040510601</v>
+        <v>-1.365612002695715</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -862,7 +856,7 @@
         <v>44197</v>
       </c>
       <c r="C36">
-        <v>4.398539538353896</v>
+        <v>2.36701731190414</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -871,74 +865,72 @@
         <v>44287</v>
       </c>
       <c r="C37">
-        <v>4.444797196993</v>
+        <v>5.521909357126042</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C38">
-        <v>-4.827045002471375</v>
+        <v>0.6278184256827801</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C39">
-        <v>-12.06203944789264</v>
+        <v>1.393798161426818</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C40">
-        <v>6.649937874130041</v>
+        <v>1.067117719710908</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C41">
-        <v>-1.538969552912495</v>
+        <v>2.18743026855015</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C42">
-        <v>1.571533602938957</v>
+        <v>0.6625142727773259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C43">
-        <v>0.535247395574312</v>
+        <v>0.2912063949052079</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>43831</v>
       </c>
       <c r="C44">
-        <v>-5.687653391115899</v>
+        <v>-3.282567356578969</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -947,7 +939,7 @@
         <v>43922</v>
       </c>
       <c r="C45">
-        <v>-14.05009425241859</v>
+        <v>-9.52430432713729</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -956,7 +948,7 @@
         <v>44013</v>
       </c>
       <c r="C46">
-        <v>5.209865830411564</v>
+        <v>13.01681586381169</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -965,7 +957,7 @@
         <v>44105</v>
       </c>
       <c r="C47">
-        <v>5.020691075903194</v>
+        <v>0.7374917862764008</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -974,7 +966,7 @@
         <v>44197</v>
       </c>
       <c r="C48">
-        <v>-0.2856153068832579</v>
+        <v>1.464380418871825</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -983,74 +975,72 @@
         <v>44287</v>
       </c>
       <c r="C49">
-        <v>2.095491253470216</v>
+        <v>4.795874239949671</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C50">
-        <v>-8.344408969515783</v>
+        <v>0.6833725893220066</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C51">
-        <v>-14.66206598358861</v>
+        <v>1.280958180230085</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C52">
-        <v>4.140859003204778</v>
+        <v>1.708549410158056</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C53">
-        <v>1.148412744062322</v>
+        <v>1.210793894214834</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C54">
-        <v>0.6066699097436512</v>
+        <v>1.181894387170268</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C55">
-        <v>-0.8226992124445442</v>
+        <v>1.577448780527213</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="2">
         <v>43831</v>
       </c>
       <c r="C56">
-        <v>-6.905289486770371</v>
+        <v>-0.4547619533280312</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1059,7 +1049,7 @@
         <v>43922</v>
       </c>
       <c r="C57">
-        <v>-7.459946127430417</v>
+        <v>-7.719215626227893</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1068,7 +1058,7 @@
         <v>44013</v>
       </c>
       <c r="C58">
-        <v>3.862726198966815</v>
+        <v>10.09822138484926</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1077,7 +1067,7 @@
         <v>44105</v>
       </c>
       <c r="C59">
-        <v>-4.053929069756935</v>
+        <v>5.430829503745871</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1086,7 +1076,7 @@
         <v>44197</v>
       </c>
       <c r="C60">
-        <v>0.2275110373131994</v>
+        <v>1.863656286419091</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1095,74 +1085,72 @@
         <v>44287</v>
       </c>
       <c r="C61">
-        <v>3.654962205364098</v>
+        <v>-0.07924196093915814</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C62">
-        <v>-5.788979307821052</v>
+        <v>0.9063149907809542</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C63">
-        <v>-8.823909079023363</v>
+        <v>-0.323965205284571</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C64">
-        <v>0.5275764938637906</v>
+        <v>0.969533443228876</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C65">
-        <v>-3.195910505463895</v>
+        <v>-1.315035600323289</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C66">
-        <v>0.7148223399484177</v>
+        <v>1.147308890111542</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1"/>
       <c r="B67" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C67">
-        <v>3.232658808274458</v>
+        <v>-1.929981358959254</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="2">
         <v>43831</v>
       </c>
       <c r="C68">
-        <v>-8.57861516792947</v>
+        <v>-4.480521087768885</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1171,7 +1159,7 @@
         <v>43922</v>
       </c>
       <c r="C69">
-        <v>-6.128238393705976</v>
+        <v>-12.36400612359556</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1180,7 +1168,7 @@
         <v>44013</v>
       </c>
       <c r="C70">
-        <v>-1.181410917399306</v>
+        <v>5.245937117982136</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1189,7 +1177,7 @@
         <v>44105</v>
       </c>
       <c r="C71">
-        <v>-2.935606284086434</v>
+        <v>0.6104735147196783</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1198,7 +1186,7 @@
         <v>44197</v>
       </c>
       <c r="C72">
-        <v>-0.2367276268174567</v>
+        <v>2.81927680005476</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1207,74 +1195,72 @@
         <v>44287</v>
       </c>
       <c r="C73">
-        <v>4.157805920903446</v>
+        <v>4.75627948172217</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C74">
-        <v>-2.481911701073314</v>
+        <v>0.7611393288314616</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C75">
-        <v>-7.74214844716794</v>
+        <v>0.3671789541258352</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1"/>
       <c r="B76" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C76">
-        <v>2.13824844210373</v>
+        <v>0.6993724920847599</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1"/>
       <c r="B77" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C77">
-        <v>-1.899428919723778</v>
+        <v>1.630835797554675</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1"/>
       <c r="B78" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C78">
-        <v>0.5256805211127924</v>
+        <v>0.6779552993041005</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1"/>
       <c r="B79" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C79">
-        <v>2.215759904011527</v>
+        <v>0.1125167727280996</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="2">
         <v>43831</v>
       </c>
       <c r="C80">
-        <v>-8.220175921777638</v>
+        <v>-1.904500075717752</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1283,7 +1269,7 @@
         <v>43922</v>
       </c>
       <c r="C81">
-        <v>-13.04100265948391</v>
+        <v>-9.640434157473333</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1292,7 +1278,7 @@
         <v>44013</v>
       </c>
       <c r="C82">
-        <v>13.61394283899688</v>
+        <v>10.90649198702856</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1301,7 +1287,7 @@
         <v>44105</v>
       </c>
       <c r="C83">
-        <v>-2.462350383560274</v>
+        <v>2.346427536113804</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1310,7 +1296,7 @@
         <v>44197</v>
       </c>
       <c r="C84">
-        <v>0.6761003565644019</v>
+        <v>1.678180191288892</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1319,74 +1305,72 @@
         <v>44287</v>
       </c>
       <c r="C85">
-        <v>1.718688210847952</v>
+        <v>0.8283990758263027</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B86" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C86">
-        <v>-5.757709956649215</v>
+        <v>0.04112661558108854</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1"/>
       <c r="B87" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C87">
-        <v>-9.097118855607034</v>
+        <v>0.5408518719608457</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1"/>
       <c r="B88" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C88">
-        <v>5.608956880992721</v>
+        <v>0.6628503539250152</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1"/>
       <c r="B89" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C89">
-        <v>-2.813481064887791</v>
+        <v>1.465214402171622</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1"/>
       <c r="B90" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C90">
-        <v>-1.016757801210222</v>
+        <v>1.631283300054798</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1"/>
       <c r="B91" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C91">
-        <v>2.887967335098529</v>
+        <v>-0.04790786067192521</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="2">
         <v>43831</v>
       </c>
       <c r="C92">
-        <v>-7.736235292706684</v>
+        <v>1.384838002551492</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1395,7 +1379,7 @@
         <v>43922</v>
       </c>
       <c r="C93">
-        <v>-12.15051088656294</v>
+        <v>-11.9127767130518</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1404,7 +1388,7 @@
         <v>44013</v>
       </c>
       <c r="C94">
-        <v>4.763625725163734</v>
+        <v>9.477218672756749</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,7 +1397,7 @@
         <v>44105</v>
       </c>
       <c r="C95">
-        <v>-0.3302692671527052</v>
+        <v>9.069671884300078</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1422,7 +1406,7 @@
         <v>44197</v>
       </c>
       <c r="C96">
-        <v>1.608116853574049</v>
+        <v>2.243966132704345</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1431,74 +1415,72 @@
         <v>44287</v>
       </c>
       <c r="C97">
-        <v>2.964390795576599</v>
+        <v>1.159801066263322</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C98">
-        <v>-6.118257174976327</v>
+        <v>2.476609225172299</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1"/>
       <c r="B99" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C99">
-        <v>-10.32506254744184</v>
+        <v>3.160751987609789</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1"/>
       <c r="B100" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C100">
-        <v>2.940193729215324</v>
+        <v>2.532800920324996</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1"/>
       <c r="B101" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C101">
-        <v>-3.936467013695233</v>
+        <v>3.25129763950911</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1"/>
       <c r="B102" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C102">
-        <v>3.461505628303452</v>
+        <v>3.793886957253778</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1"/>
       <c r="B103" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C103">
-        <v>-1.160312942947028</v>
+        <v>1.865166736075441</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104" s="2">
         <v>43831</v>
       </c>
       <c r="C104">
-        <v>-8.230435119857059</v>
+        <v>-3.837343344041588</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1507,7 +1489,7 @@
         <v>43922</v>
       </c>
       <c r="C105">
-        <v>-14.69603689359019</v>
+        <v>-12.5898594338752</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1516,7 +1498,7 @@
         <v>44013</v>
       </c>
       <c r="C106">
-        <v>-1.490072335774251</v>
+        <v>11.08075775612905</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1525,7 +1507,7 @@
         <v>44105</v>
       </c>
       <c r="C107">
-        <v>1.104551990133884</v>
+        <v>7.081905336164085</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1534,7 +1516,7 @@
         <v>44197</v>
       </c>
       <c r="C108">
-        <v>-0.6923075208210783</v>
+        <v>1.541310404901419</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1543,74 +1525,72 @@
         <v>44287</v>
       </c>
       <c r="C109">
-        <v>3.650594582461508</v>
+        <v>-2.092434701601742</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B110" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C110">
-        <v>-6.478926589163637</v>
+        <v>0.3178462441931318</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1"/>
       <c r="B111" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C111">
-        <v>-21.87275187806761</v>
+        <v>0.388062301739156</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1"/>
       <c r="B112" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C112">
-        <v>10.99409433491614</v>
+        <v>0.540349937788398</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1"/>
       <c r="B113" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C113">
-        <v>3.745148762060846</v>
+        <v>2.437096345768541</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1"/>
       <c r="B114" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C114">
-        <v>1.939866017661496</v>
+        <v>1.030237908250942</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C115">
-        <v>-1.608004972198784</v>
+        <v>1.943407992868318</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="2">
         <v>43831</v>
       </c>
       <c r="C116">
-        <v>-5.456611080287588</v>
+        <v>-3.141722259719204</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1619,7 +1599,7 @@
         <v>43922</v>
       </c>
       <c r="C117">
-        <v>-12.76177223806438</v>
+        <v>-5.489867792051406</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1628,7 +1608,7 @@
         <v>44013</v>
       </c>
       <c r="C118">
-        <v>0.4164647282089318</v>
+        <v>10.61645138913994</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1637,7 +1617,7 @@
         <v>44105</v>
       </c>
       <c r="C119">
-        <v>-2.231325143978879</v>
+        <v>2.170213689684397</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1646,7 +1626,7 @@
         <v>44197</v>
       </c>
       <c r="C120">
-        <v>1.821993165105718</v>
+        <v>1.763017026520308</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1655,74 +1635,72 @@
         <v>44287</v>
       </c>
       <c r="C121">
-        <v>-0.9829734951108837</v>
+        <v>5.759067234285031</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B122" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C122">
-        <v>-10.74083168783588</v>
+        <v>2.775949122251387</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1"/>
       <c r="B123" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C123">
-        <v>-12.3274716157805</v>
+        <v>2.492302567768379</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C124">
-        <v>0.1799968742264291</v>
+        <v>2.469772846602458</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1"/>
       <c r="B125" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C125">
-        <v>-6.516398290272529</v>
+        <v>1.359462642850251</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1"/>
       <c r="B126" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C126">
-        <v>-0.6219840896617201</v>
+        <v>0.0564526551248612</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1"/>
       <c r="B127" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C127">
-        <v>3.22566529724424</v>
+        <v>0.9463272483592799</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="2">
         <v>43831</v>
       </c>
       <c r="C128">
-        <v>-7.453428899521509</v>
+        <v>-1.083748004263552</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1731,7 +1709,7 @@
         <v>43922</v>
       </c>
       <c r="C129">
-        <v>-10.10551362700316</v>
+        <v>-4.65860014094851</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1740,7 +1718,7 @@
         <v>44013</v>
       </c>
       <c r="C130">
-        <v>1.030056232386833</v>
+        <v>7.037162847861933</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1749,7 +1727,7 @@
         <v>44105</v>
       </c>
       <c r="C131">
-        <v>-1.851869995970568</v>
+        <v>1.293290171010919</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1758,7 +1736,7 @@
         <v>44197</v>
       </c>
       <c r="C132">
-        <v>2.532209653188744</v>
+        <v>1.170815748701259</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1767,74 +1745,72 @@
         <v>44287</v>
       </c>
       <c r="C133">
-        <v>4.677111579958204</v>
+        <v>5.816585508150296</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B134" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C134">
-        <v>-10.11327125789648</v>
+        <v>3.731615772157104</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1"/>
       <c r="B135" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C135">
-        <v>-11.73574322328617</v>
+        <v>3.441598393204259</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1"/>
       <c r="B136" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C136">
-        <v>13.54670638506468</v>
+        <v>4.888464990507213</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1"/>
       <c r="B137" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C137">
-        <v>-3.886359569072495</v>
+        <v>2.12605894946325</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1"/>
       <c r="B138" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C138">
-        <v>0.4953673244173729</v>
+        <v>2.81310835309283</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1"/>
       <c r="B139" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C139">
-        <v>4.108027557963845</v>
+        <v>0.7330990664885517</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140" s="2">
         <v>43831</v>
       </c>
       <c r="C140">
-        <v>-3.201696072674276</v>
+        <v>-3.450390831971395</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1843,7 +1819,7 @@
         <v>43922</v>
       </c>
       <c r="C141">
-        <v>-8.260609011578113</v>
+        <v>-2.501820520544396</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1852,7 +1828,7 @@
         <v>44013</v>
       </c>
       <c r="C142">
-        <v>3.073241083735656</v>
+        <v>8.388665151936237</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1861,7 +1837,7 @@
         <v>44105</v>
       </c>
       <c r="C143">
-        <v>1.282763362344586</v>
+        <v>9.695214568330069</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1870,7 +1846,7 @@
         <v>44197</v>
       </c>
       <c r="C144">
-        <v>0.7021449457897067</v>
+        <v>6.441174154033757</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1879,74 +1855,72 @@
         <v>44287</v>
       </c>
       <c r="C145">
-        <v>-0.8835163668911572</v>
+        <v>5.832832279650946</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B146" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C146">
-        <v>-2.332072185224443</v>
+        <v>0.2155277397051458</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1"/>
       <c r="B147" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C147">
-        <v>-5.250776422647996</v>
+        <v>0.3988565991581927</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1"/>
       <c r="B148" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C148">
-        <v>-0.810346949946783</v>
+        <v>0.3518383998291075</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1"/>
       <c r="B149" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C149">
-        <v>-0.6307718977074495</v>
+        <v>0.988189594400013</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1"/>
       <c r="B150" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C150">
-        <v>2.696694391635868</v>
+        <v>0.9280993168902629</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1"/>
       <c r="B151" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C151">
-        <v>2.318141515246763</v>
+        <v>0.825937862765791</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" s="2">
         <v>43831</v>
       </c>
       <c r="C152">
-        <v>-7.729584955604962</v>
+        <v>1.677095110721827</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -1955,7 +1929,7 @@
         <v>43922</v>
       </c>
       <c r="C153">
-        <v>-9.720662187469131</v>
+        <v>-4.403811932588431</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -1964,7 +1938,7 @@
         <v>44013</v>
       </c>
       <c r="C154">
-        <v>-1.366113111436185</v>
+        <v>4.387607133187199</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1973,7 +1947,7 @@
         <v>44105</v>
       </c>
       <c r="C155">
-        <v>-4.750086679498333</v>
+        <v>1.013843186112129</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -1982,7 +1956,7 @@
         <v>44197</v>
       </c>
       <c r="C156">
-        <v>-0.680613906895311</v>
+        <v>1.15899965295907</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -1991,74 +1965,72 @@
         <v>44287</v>
       </c>
       <c r="C157">
-        <v>1.824341130668738</v>
+        <v>3.508414920963232</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B158" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C158">
-        <v>-7.217328523064315</v>
+        <v>0.5025428073033966</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1"/>
       <c r="B159" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C159">
-        <v>-6.928132318504387</v>
+        <v>0.5430201116325639</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1"/>
       <c r="B160" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C160">
-        <v>-0.5916528575132363</v>
+        <v>0.4264348206282964</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1"/>
       <c r="B161" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C161">
-        <v>-2.546039627433516</v>
+        <v>0.2301159144928899</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1"/>
       <c r="B162" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C162">
-        <v>0.4050152369354798</v>
+        <v>-0.03413380364611918</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1"/>
       <c r="B163" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C163">
-        <v>1.794719297885328</v>
+        <v>0.4221732554626989</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="2">
         <v>43831</v>
       </c>
       <c r="C164">
-        <v>-10.41964881762699</v>
+        <v>-5.349654161859007</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2067,7 +2039,7 @@
         <v>43922</v>
       </c>
       <c r="C165">
-        <v>-10.88244479930132</v>
+        <v>-10.92461756528511</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2076,7 +2048,7 @@
         <v>44013</v>
       </c>
       <c r="C166">
-        <v>4.676385740800915</v>
+        <v>18.12554715117103</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2085,7 +2057,7 @@
         <v>44105</v>
       </c>
       <c r="C167">
-        <v>-6.500421038823601</v>
+        <v>-1.246331321335581</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2094,7 +2066,7 @@
         <v>44197</v>
       </c>
       <c r="C168">
-        <v>-1.814898375965157</v>
+        <v>0.9566590703252276</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2103,74 +2075,72 @@
         <v>44287</v>
       </c>
       <c r="C169">
-        <v>3.082799512627443</v>
+        <v>2.806541396613493</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B170" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C170">
-        <v>-3.777495086594029</v>
+        <v>0.1692995761733318</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1"/>
       <c r="B171" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C171">
-        <v>-13.67108402299859</v>
+        <v>1.105429899862598</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1"/>
       <c r="B172" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C172">
-        <v>9.001024325603568</v>
+        <v>1.852480214476815</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1"/>
       <c r="B173" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C173">
-        <v>1.224008318351766</v>
+        <v>0.8274755087814833</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1"/>
       <c r="B174" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C174">
-        <v>1.728153673705202</v>
+        <v>2.31338185530503</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1"/>
       <c r="B175" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C175">
-        <v>1.105980006283791</v>
+        <v>1.982616763506906</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176" s="2">
         <v>43831</v>
       </c>
       <c r="C176">
-        <v>-5.764045592547006</v>
+        <v>-1.545333176702157</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2179,7 +2149,7 @@
         <v>43922</v>
       </c>
       <c r="C177">
-        <v>-8.091881212044417</v>
+        <v>-7.800359677402269</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2188,7 +2158,7 @@
         <v>44013</v>
       </c>
       <c r="C178">
-        <v>3.420109171490671</v>
+        <v>9.913151384327602</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2197,7 +2167,7 @@
         <v>44105</v>
       </c>
       <c r="C179">
-        <v>-3.232347979192318</v>
+        <v>-0.5879116657818706</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2206,7 +2176,7 @@
         <v>44197</v>
       </c>
       <c r="C180">
-        <v>0.5012428908491406</v>
+        <v>-2.121651947437775</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2215,74 +2185,72 @@
         <v>44287</v>
       </c>
       <c r="C181">
-        <v>4.964582196888423</v>
+        <v>2.558179170341157</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B182" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C182">
-        <v>-6.621876038605667</v>
+        <v>2.050831109500795</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1"/>
       <c r="B183" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C183">
-        <v>-8.096272099517797</v>
+        <v>3.921888453190547</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1"/>
       <c r="B184" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C184">
-        <v>3.265361859875493</v>
+        <v>2.292549200533789</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1"/>
       <c r="B185" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C185">
-        <v>-2.093186356222654</v>
+        <v>2.399326126263523</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1"/>
       <c r="B186" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C186">
-        <v>1.987598890946063</v>
+        <v>1.766204799295235</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1"/>
       <c r="B187" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C187">
-        <v>0.2433941391938976</v>
+        <v>2.502832392253462</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A188" s="1"/>
       <c r="B188" s="2">
         <v>43831</v>
       </c>
       <c r="C188">
-        <v>-5.555380532471899</v>
+        <v>-1.92166358238024</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2291,7 +2259,7 @@
         <v>43922</v>
       </c>
       <c r="C189">
-        <v>-5.75678673437624</v>
+        <v>-12.03158250572823</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2300,7 +2268,7 @@
         <v>44013</v>
       </c>
       <c r="C190">
-        <v>1.062801788820233</v>
+        <v>7.458152616759151</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2309,7 +2277,7 @@
         <v>44105</v>
       </c>
       <c r="C191">
-        <v>-3.089218239081271</v>
+        <v>4.518921787454411</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2318,7 +2286,7 @@
         <v>44197</v>
       </c>
       <c r="C192">
-        <v>0.3796301922301737</v>
+        <v>2.662463647409452</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2327,74 +2295,72 @@
         <v>44287</v>
       </c>
       <c r="C193">
-        <v>1.471543841127931</v>
+        <v>1.228155675461373</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B194" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C194">
-        <v>-7.692444839294666</v>
+        <v>-0.04721143120102189</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1"/>
       <c r="B195" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C195">
-        <v>-10.56587539391836</v>
+        <v>0.4756851500045345</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1"/>
       <c r="B196" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C196">
-        <v>2.443373006977367</v>
+        <v>-1.094412806640632</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1"/>
       <c r="B197" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C197">
-        <v>-6.284613665604544</v>
+        <v>-0.6401788548021203</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1"/>
       <c r="B198" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C198">
-        <v>1.321410443246918</v>
+        <v>-1.827561825541801</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1"/>
       <c r="B199" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C199">
-        <v>3.364756042034722</v>
+        <v>-0.8612173222032449</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="2">
         <v>43831</v>
       </c>
       <c r="C200">
-        <v>-7.448610929309096</v>
+        <v>-5.040817907416373</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2403,7 +2369,7 @@
         <v>43922</v>
       </c>
       <c r="C201">
-        <v>-13.95134213168487</v>
+        <v>-12.1952929354052</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2412,7 +2378,7 @@
         <v>44013</v>
       </c>
       <c r="C202">
-        <v>9.029764023423015</v>
+        <v>10.25573807651623</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2421,7 +2387,7 @@
         <v>44105</v>
       </c>
       <c r="C203">
-        <v>-3.900599980519637</v>
+        <v>0.9327314122872465</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2430,7 +2396,7 @@
         <v>44197</v>
       </c>
       <c r="C204">
-        <v>-1.180608133621841</v>
+        <v>1.557922779540744</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2439,74 +2405,72 @@
         <v>44287</v>
       </c>
       <c r="C205">
-        <v>3.501859762962178</v>
+        <v>-1.597918468410897</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B206" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C206">
-        <v>-8.837048324974095</v>
+        <v>10.45125451304003</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1"/>
       <c r="B207" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C207">
-        <v>-10.08546370913099</v>
+        <v>11.24232886551553</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1"/>
       <c r="B208" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C208">
-        <v>4.809184743373396</v>
+        <v>5.680464305571831</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1"/>
       <c r="B209" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C209">
-        <v>-2.414133363407456</v>
+        <v>0.5031701766744945</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1"/>
       <c r="B210" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C210">
-        <v>1.380951243901518</v>
+        <v>7.34774035720529</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1"/>
       <c r="B211" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C211">
-        <v>3.381111199643616</v>
+        <v>6.893463846006953</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A212" s="1"/>
       <c r="B212" s="2">
         <v>43831</v>
       </c>
       <c r="C212">
-        <v>-3.206138427804794</v>
+        <v>1.650332769903473</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2515,7 +2479,7 @@
         <v>43922</v>
       </c>
       <c r="C213">
-        <v>-8.765340074823147</v>
+        <v>-0.7008916730946835</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2524,7 +2488,7 @@
         <v>44013</v>
       </c>
       <c r="C214">
-        <v>2.099066446659892</v>
+        <v>7.014681372096443</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2533,7 +2497,7 @@
         <v>44105</v>
       </c>
       <c r="C215">
-        <v>-1.035590078485626</v>
+        <v>11.92301877472335</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2542,7 +2506,7 @@
         <v>44197</v>
       </c>
       <c r="C216">
-        <v>1.215336673785683</v>
+        <v>6.056305209606716</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2551,74 +2515,72 @@
         <v>44287</v>
       </c>
       <c r="C217">
-        <v>2.595021435109612</v>
+        <v>15.94523025977386</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B218" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C218">
-        <v>-6.593358915531478</v>
+        <v>1.316086159986551</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1"/>
       <c r="B219" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C219">
-        <v>-9.257291433046511</v>
+        <v>2.410326296839482</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1"/>
       <c r="B220" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C220">
-        <v>6.015172463080054</v>
+        <v>0.838055925752812</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1"/>
       <c r="B221" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C221">
-        <v>-1.207372410485252</v>
+        <v>1.044324368601623</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1"/>
       <c r="B222" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C222">
-        <v>-5.730473261560975</v>
+        <v>0.273179918959543</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1"/>
       <c r="B223" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C223">
-        <v>5.839388253469324</v>
+        <v>0.324056118976479</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A224" s="1"/>
       <c r="B224" s="2">
         <v>43831</v>
       </c>
       <c r="C224">
-        <v>-9.675064477631789</v>
+        <v>-0.60652040310889</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2627,7 +2589,7 @@
         <v>43922</v>
       </c>
       <c r="C225">
-        <v>-10.91216309924589</v>
+        <v>-18.89926697494509</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2636,7 +2598,7 @@
         <v>44013</v>
       </c>
       <c r="C226">
-        <v>1.792079499881738</v>
+        <v>25.8824871672789</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2645,7 +2607,7 @@
         <v>44105</v>
       </c>
       <c r="C227">
-        <v>-5.735939356938347</v>
+        <v>10.06245027549966</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2654,7 +2616,7 @@
         <v>44197</v>
       </c>
       <c r="C228">
-        <v>-0.2276186689428972</v>
+        <v>2.620546973219917</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2663,74 +2625,72 @@
         <v>44287</v>
       </c>
       <c r="C229">
-        <v>2.765808344848097</v>
+        <v>-1.118206608684313</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B230" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C230">
-        <v>-5.9273416267837</v>
+        <v>0.04497186409972986</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1"/>
       <c r="B231" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C231">
-        <v>-16.83623606642011</v>
+        <v>1.903730629569256</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1"/>
       <c r="B232" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C232">
-        <v>9.552589990806526</v>
+        <v>1.854623873016159</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1"/>
       <c r="B233" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C233">
-        <v>0.759871733590578</v>
+        <v>2.907326198715898</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1"/>
       <c r="B234" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C234">
-        <v>-2.605712883422762</v>
+        <v>1.367891189045478</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1"/>
       <c r="B235" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C235">
-        <v>3.104795662682713</v>
+        <v>0.900229432090538</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A236" s="1"/>
       <c r="B236" s="2">
         <v>43831</v>
       </c>
       <c r="C236">
-        <v>-8.963719940427328</v>
+        <v>0.1798485462707333</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2739,7 +2699,7 @@
         <v>43922</v>
       </c>
       <c r="C237">
-        <v>-17.0195094537445</v>
+        <v>-8.811263873684483</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2748,7 +2708,7 @@
         <v>44013</v>
       </c>
       <c r="C238">
-        <v>12.92552063159751</v>
+        <v>3.217000992547292</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2757,7 +2717,7 @@
         <v>44105</v>
       </c>
       <c r="C239">
-        <v>-1.216461876313324</v>
+        <v>2.427642392753704</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2766,7 +2726,7 @@
         <v>44197</v>
       </c>
       <c r="C240">
-        <v>1.156201094104814</v>
+        <v>1.985932447290772</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -2775,74 +2735,72 @@
         <v>44287</v>
       </c>
       <c r="C241">
-        <v>3.762079195084622</v>
+        <v>-0.588852466137102</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B242" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C242">
-        <v>-5.739884311897436</v>
+        <v>-7.668488168733145</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C243">
-        <v>-8.499747239825961</v>
+        <v>5.621813788070829</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C244">
-        <v>2.30552788531464</v>
+        <v>-2.948345080514647</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C245">
-        <v>-1.479719718579442</v>
+        <v>0.5534283022721631</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C246">
-        <v>0.948141085166343</v>
+        <v>-0.8159004746812193</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C247">
-        <v>0.6947022662798785</v>
+        <v>3.58192216973785</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A248" s="1"/>
       <c r="B248" s="2">
         <v>43831</v>
       </c>
       <c r="C248">
-        <v>-6.093007607884449</v>
+        <v>-5.120030854922176</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -2851,7 +2809,7 @@
         <v>43922</v>
       </c>
       <c r="C249">
-        <v>-7.002462021792521</v>
+        <v>-5.218568055811346</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -2860,7 +2818,7 @@
         <v>44013</v>
       </c>
       <c r="C250">
-        <v>4.048630247056195</v>
+        <v>5.21074058946982</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -2869,7 +2827,7 @@
         <v>44105</v>
       </c>
       <c r="C251">
-        <v>-3.397382998329057</v>
+        <v>-3.326067950571154</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -2878,7 +2836,7 @@
         <v>44197</v>
       </c>
       <c r="C252">
-        <v>0.02180980579487013</v>
+        <v>0.5363886670015638</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -2887,74 +2845,72 @@
         <v>44287</v>
       </c>
       <c r="C253">
-        <v>2.44953277624036</v>
+        <v>-3.74135707411658</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B254" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C254">
-        <v>-2.098608182723316</v>
+        <v>2.242504706657567</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C255">
-        <v>-8.990874574641028</v>
+        <v>2.300925661121234</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C256">
-        <v>5.643297000181602</v>
+        <v>1.174419520495551</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C257">
-        <v>-5.605232397339766</v>
+        <v>0.5550676681469691</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C258">
-        <v>1.383043108646387</v>
+        <v>2.008931146862181</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="2">
-        <v>44287</v>
+        <v>43739</v>
       </c>
       <c r="C259">
-        <v>-0.789665227619174</v>
+        <v>1.867330974546189</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="2">
         <v>43831</v>
       </c>
       <c r="C260">
-        <v>-4.964416933434935</v>
+        <v>-1.030528184495727</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -2963,7 +2919,7 @@
         <v>43922</v>
       </c>
       <c r="C261">
-        <v>-15.30511798813236</v>
+        <v>-7.150130846167214</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -2972,7 +2928,7 @@
         <v>44013</v>
       </c>
       <c r="C262">
-        <v>12.28966638984788</v>
+        <v>7.071791387726178</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -2981,7 +2937,7 @@
         <v>44105</v>
       </c>
       <c r="C263">
-        <v>-0.8595798433508439</v>
+        <v>-0.9504893391648728</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -2990,7 +2946,7 @@
         <v>44197</v>
       </c>
       <c r="C264">
-        <v>0.1224044571207061</v>
+        <v>0.009491165349273523</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -2999,112 +2955,2586 @@
         <v>44287</v>
       </c>
       <c r="C265">
-        <v>4.780352611665695</v>
+        <v>6.379497515305022</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B266" s="2">
-        <v>43831</v>
+        <v>43282</v>
       </c>
       <c r="C266">
-        <v>-4.184583027734801</v>
+        <v>2.055836412010192</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="2">
-        <v>43922</v>
+        <v>43374</v>
       </c>
       <c r="C267">
-        <v>-10.26671835671921</v>
+        <v>2.637339910685621</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="2">
-        <v>44013</v>
+        <v>43466</v>
       </c>
       <c r="C268">
-        <v>3.659247220020623</v>
+        <v>1.308998667682593</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="2">
-        <v>44105</v>
+        <v>43556</v>
       </c>
       <c r="C269">
-        <v>-0.3287284514889133</v>
+        <v>1.384752072455875</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="2">
-        <v>44197</v>
+        <v>43647</v>
       </c>
       <c r="C270">
-        <v>1.416186977867495</v>
+        <v>1.488703150693382</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C271">
+        <v>2.140716932540432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C272">
+        <v>-5.587299765414455</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C273">
+        <v>-10.5481621450115</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C274">
+        <v>18.05406775997875</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C275">
+        <v>-1.479869905895925</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C276">
+        <v>0.7794996502504148</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="2">
         <v>44287</v>
       </c>
-      <c r="C271">
-        <v>1.70590079224946</v>
+      <c r="C277">
+        <v>4.775728208848951</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C278">
+        <v>-0.1341357221188666</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C279">
+        <v>1.486278119729567</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C280">
+        <v>0.9262998334299999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C281">
+        <v>0.3426675687939973</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C282">
+        <v>0.09399546542725457</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C283">
+        <v>0.86624582691055</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C284">
+        <v>0.2183009260816382</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C285">
+        <v>-6.775124145221334</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C286">
+        <v>6.845033247917076</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C287">
+        <v>2.805116111145467</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C288">
+        <v>0.6946723272800215</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C289">
+        <v>0.8144954209127864</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C290">
+        <v>3.092040996187917</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C291">
+        <v>1.494550529172534</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C292">
+        <v>1.310416339557396</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C293">
+        <v>0.751582611054058</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C294">
+        <v>1.142880414384351</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C295">
+        <v>0.4707256029057749</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C296">
+        <v>-0.5990621900064386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C297">
+        <v>-1.668231628438732</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C298">
+        <v>2.156831170894113</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C299">
+        <v>0.9253721545769755</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C300">
+        <v>2.476573720491726</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C301">
+        <v>3.058520226303352</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C302">
+        <v>1.999853861945033</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C303">
+        <v>-0.3127762181371452</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C304">
+        <v>0.5383162157541532</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C305">
+        <v>3.388563885571316</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C306">
+        <v>2.208958589486021</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C307">
+        <v>2.986058079295528</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C308">
+        <v>-1.107179442485307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C309">
+        <v>-1.086964739730112</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C310">
+        <v>9.981383148140011</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C311">
+        <v>1.816520593840454</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C312">
+        <v>0.05079776258467561</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C313">
+        <v>3.611645638683747</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C314">
+        <v>2.762783549720127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C315">
+        <v>2.529438543884788</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1"/>
+      <c r="B316" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C316">
+        <v>3.658844472072786</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C317">
+        <v>2.954275628794689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C318">
+        <v>1.681571264395187</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C319">
+        <v>-0.2898724356556248</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1"/>
+      <c r="B320" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C320">
+        <v>-3.091719156830708</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C321">
+        <v>-4.965815538648233</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1"/>
+      <c r="B322" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C322">
+        <v>5.174848401434429</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1"/>
+      <c r="B323" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C323">
+        <v>-0.01094618740574704</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1"/>
+      <c r="B324" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C324">
+        <v>0.6801479411010947</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1"/>
+      <c r="B325" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C325">
+        <v>0.4865798673248989</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C326">
+        <v>5.420927283549881</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1"/>
+      <c r="B327" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C327">
+        <v>7.354733187833262</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1"/>
+      <c r="B328" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C328">
+        <v>6.629972050016186</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C329">
+        <v>6.240582836316433</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C330">
+        <v>3.692253133954249</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1"/>
+      <c r="B331" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C331">
+        <v>4.96050358562663</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C332">
+        <v>-2.96127333183589</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C333">
+        <v>-7.649091969997224</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C334">
+        <v>9.409610148513558</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1"/>
+      <c r="B335" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C335">
+        <v>1.2928269715619</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1"/>
+      <c r="B336" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C336">
+        <v>-2.412067595135758</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1"/>
+      <c r="B337" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C337">
+        <v>-0.8306866487258202</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B338" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C338">
+        <v>-0.2995011578204587</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1"/>
+      <c r="B339" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C339">
+        <v>1.218838801934674</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1"/>
+      <c r="B340" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C340">
+        <v>0.8023030077057181</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1"/>
+      <c r="B341" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C341">
+        <v>2.362775748868495</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1"/>
+      <c r="B342" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C342">
+        <v>2.231864022127716</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C343">
+        <v>1.392566344112178</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1"/>
+      <c r="B344" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C344">
+        <v>-0.2937176568736266</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C345">
+        <v>-12.42633937822117</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C346">
+        <v>15.98235057749557</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1"/>
+      <c r="B347" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C347">
+        <v>5.164315754736926</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C348">
+        <v>3.650477690543608</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C349">
+        <v>4.004019162842809</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C350">
+        <v>0.8703278708226403</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C351">
+        <v>1.209864873864164</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C352">
+        <v>0.8167441912694029</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C353">
+        <v>1.384226004136901</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C354">
+        <v>2.326619245530992</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C355">
+        <v>2.212099726700933</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C356">
+        <v>-1.623979517243868</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C357">
+        <v>-6.478879384271263</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1"/>
+      <c r="B358" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C358">
+        <v>9.033973689781494</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C359">
+        <v>-0.002868861363414243</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1"/>
+      <c r="B360" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C360">
+        <v>0.4980084103993532</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C361">
+        <v>6.312892054177222</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C362">
+        <v>-2.113100269884305</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1"/>
+      <c r="B363" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C363">
+        <v>0.6458166937057364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C364">
+        <v>-0.4529360807276395</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C365">
+        <v>0.5342449495323587</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1"/>
+      <c r="B366" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C366">
+        <v>1.317801713139266</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C367">
+        <v>1.670306644695652</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1"/>
+      <c r="B368" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C368">
+        <v>-2.075987557596326</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1"/>
+      <c r="B369" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C369">
+        <v>-5.783236666013458</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1"/>
+      <c r="B370" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C370">
+        <v>11.97346873370799</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C371">
+        <v>-1.412430087057204</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1"/>
+      <c r="B372" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C372">
+        <v>2.599524423165911</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C373">
+        <v>1.375572270474756</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B374" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C374">
+        <v>0.4747437155832701</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C375">
+        <v>1.599783873192817</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1"/>
+      <c r="B376" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C376">
+        <v>2.042685143356082</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C377">
+        <v>2.39838633695213</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C378">
+        <v>3.1346932223701</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C379">
+        <v>3.308561249602038</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1"/>
+      <c r="B380" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C380">
+        <v>-1.287079195958019</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1"/>
+      <c r="B381" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C381">
+        <v>-2.855809247631791</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1"/>
+      <c r="B382" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C382">
+        <v>5.190366377649358</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1"/>
+      <c r="B383" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C383">
+        <v>0.1558762876412656</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C384">
+        <v>-0.3022742888633578</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1"/>
+      <c r="B385" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C385">
+        <v>1.798100794913005</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B386" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C386">
+        <v>0.4489858579411754</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1"/>
+      <c r="B387" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C387">
+        <v>1.560528819048068</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1"/>
+      <c r="B388" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C388">
+        <v>0.8039073252871898</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1"/>
+      <c r="B389" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C389">
+        <v>0.787589661720256</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1"/>
+      <c r="B390" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C390">
+        <v>0.3915409473263631</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C391">
+        <v>0.3750506632573369</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1"/>
+      <c r="B392" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C392">
+        <v>-2.058875415494155</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1"/>
+      <c r="B393" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C393">
+        <v>-6.666969599162432</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1"/>
+      <c r="B394" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C394">
+        <v>10.45351859526766</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C395">
+        <v>0.7996746288219336</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1"/>
+      <c r="B396" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C396">
+        <v>2.613734851799454</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1"/>
+      <c r="B397" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C397">
+        <v>4.889418099390674</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B398" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C398">
+        <v>0.87658867932634</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1"/>
+      <c r="B399" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C399">
+        <v>2.643974698212825</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1"/>
+      <c r="B400" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C400">
+        <v>0.9121485015438857</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1"/>
+      <c r="B401" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C401">
+        <v>1.145155425879363</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1"/>
+      <c r="B402" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C402">
+        <v>-0.1171687347803374</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1"/>
+      <c r="B403" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C403">
+        <v>0.6059732873231027</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1"/>
+      <c r="B404" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C404">
+        <v>-5.248015137353679</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1"/>
+      <c r="B405" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C405">
+        <v>-12.28055998633708</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1"/>
+      <c r="B406" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C406">
+        <v>15.97110431268329</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C407">
+        <v>0.3169811450717042</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1"/>
+      <c r="B408" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C408">
+        <v>-1.058130168527971</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1"/>
+      <c r="B409" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C409">
+        <v>5.772838036500905</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B410" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C410">
+        <v>0.3750114025659723</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C411">
+        <v>-0.6062208794487489</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1"/>
+      <c r="B412" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C412">
+        <v>-0.08470516238516801</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1"/>
+      <c r="B413" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C413">
+        <v>0.5941231692292215</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1"/>
+      <c r="B414" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C414">
+        <v>2.228662653117985</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1"/>
+      <c r="B415" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C415">
+        <v>2.309695180934468</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1"/>
+      <c r="B416" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C416">
+        <v>-3.989964728007811</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1"/>
+      <c r="B417" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C417">
+        <v>-12.42435489384848</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1"/>
+      <c r="B418" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C418">
+        <v>7.602830866964072</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1"/>
+      <c r="B419" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C419">
+        <v>4.383667354662446</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1"/>
+      <c r="B420" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C420">
+        <v>1.177425233405849</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C421">
+        <v>1.709734984651634</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B422" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C422">
+        <v>0.02934151009297281</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1"/>
+      <c r="B423" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C423">
+        <v>-0.5030828728725623</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1"/>
+      <c r="B424" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C424">
+        <v>-0.6377124711412607</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C425">
+        <v>0.4016504550889977</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1"/>
+      <c r="B426" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C426">
+        <v>-0.1477931211456673</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1"/>
+      <c r="B427" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C427">
+        <v>-0.3813395508401318</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1"/>
+      <c r="B428" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C428">
+        <v>-0.8306931247229032</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1"/>
+      <c r="B429" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C429">
+        <v>-6.676252568258956</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1"/>
+      <c r="B430" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C430">
+        <v>0.53115718872776</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1"/>
+      <c r="B431" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C431">
+        <v>-0.3921142445139747</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1"/>
+      <c r="B432" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C432">
+        <v>0.9992799999715807</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1"/>
+      <c r="B433" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C433">
+        <v>3.630708512235303</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B434" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C434">
+        <v>1.197481903295672</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1"/>
+      <c r="B435" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C435">
+        <v>0.6569164282101081</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1"/>
+      <c r="B436" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C436">
+        <v>-0.02561085095915683</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C437">
+        <v>1.540012521112355</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1"/>
+      <c r="B438" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C438">
+        <v>0.8408152395978918</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1"/>
+      <c r="B439" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C439">
+        <v>-0.05010228249673343</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C440">
+        <v>-2.826434825673418</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C441">
+        <v>-5.70283378253672</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1"/>
+      <c r="B442" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C442">
+        <v>9.991567190691054</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1"/>
+      <c r="B443" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C443">
+        <v>2.419855557093187</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1"/>
+      <c r="B444" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C444">
+        <v>-4.211115954770062</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1"/>
+      <c r="B445" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C445">
+        <v>3.471411486114739</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B446" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C446">
+        <v>0.4235354425519589</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1"/>
+      <c r="B447" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C447">
+        <v>1.249448491101046</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1"/>
+      <c r="B448" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C448">
+        <v>0.4020431506793987</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1"/>
+      <c r="B449" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C449">
+        <v>1.503976619473879</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1"/>
+      <c r="B450" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C450">
+        <v>2.138844402651219</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1"/>
+      <c r="B451" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C451">
+        <v>3.46391762447058</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1"/>
+      <c r="B452" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C452">
+        <v>-2.310574211536498</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C453">
+        <v>-2.102464435395568</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1"/>
+      <c r="B454" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C454">
+        <v>16.22932320966301</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1"/>
+      <c r="B455" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C455">
+        <v>1.666899666059618</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1"/>
+      <c r="B456" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C456">
+        <v>2.088397431428013</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C457">
+        <v>3.418392044536867</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B458" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C458">
+        <v>3.354824779568144</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1"/>
+      <c r="B459" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C459">
+        <v>2.865748849543848</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1"/>
+      <c r="B460" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C460">
+        <v>2.059016260474733</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1"/>
+      <c r="B461" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C461">
+        <v>2.516799294145988</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1"/>
+      <c r="B462" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C462">
+        <v>1.535140783004718</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1"/>
+      <c r="B463" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C463">
+        <v>3.176873716865702</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1"/>
+      <c r="B464" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C464">
+        <v>0.6475484733333481</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1"/>
+      <c r="B465" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C465">
+        <v>-13.29087636649627</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1"/>
+      <c r="B466" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C466">
+        <v>16.20845710999903</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1"/>
+      <c r="B467" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C467">
+        <v>6.514535136251665</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1"/>
+      <c r="B468" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C468">
+        <v>2.276322385217489</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C469">
+        <v>4.269102873494002</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B470" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C470">
+        <v>1.162725802404863</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1"/>
+      <c r="B471" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C471">
+        <v>0.9984237437250298</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1"/>
+      <c r="B472" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C472">
+        <v>0.5202916960425075</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1"/>
+      <c r="B473" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C473">
+        <v>0.9595553708200644</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1"/>
+      <c r="B474" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C474">
+        <v>0.8819734399468704</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1"/>
+      <c r="B475" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C475">
+        <v>1.164795616536285</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1"/>
+      <c r="B476" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C476">
+        <v>-5.71548720348175</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1"/>
+      <c r="B477" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C477">
+        <v>-15.88136349750789</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1"/>
+      <c r="B478" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C478">
+        <v>17.98623665530328</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1"/>
+      <c r="B479" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C479">
+        <v>1.283826035339897</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1"/>
+      <c r="B480" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C480">
+        <v>2.440605435225351</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1"/>
+      <c r="B481" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C481">
+        <v>6.759468707717331</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B482" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C482">
+        <v>0.9242942827242473</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1"/>
+      <c r="B483" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C483">
+        <v>2.220626185114116</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1"/>
+      <c r="B484" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C484">
+        <v>0.8078405317335724</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1"/>
+      <c r="B485" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C485">
+        <v>1.831722032664462</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C486">
+        <v>2.483650854817232</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1"/>
+      <c r="B487" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C487">
+        <v>2.041092456765026</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1"/>
+      <c r="B488" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C488">
+        <v>-0.3197223981742048</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1"/>
+      <c r="B489" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C489">
+        <v>-6.54679629638254</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1"/>
+      <c r="B490" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C490">
+        <v>7.552549971742839</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1"/>
+      <c r="B491" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C491">
+        <v>1.646871995865307</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1"/>
+      <c r="B492" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C492">
+        <v>2.622574353494578</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1"/>
+      <c r="B493" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C493">
+        <v>2.470120852940894</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B494" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C494">
+        <v>1.114085783068486</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1"/>
+      <c r="B495" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C495">
+        <v>0.5467695273568829</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1"/>
+      <c r="B496" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C496">
+        <v>0.8740180137958964</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1"/>
+      <c r="B497" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C497">
+        <v>1.34070910552424</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C498">
+        <v>0.7895809677112675</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1"/>
+      <c r="B499" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C499">
+        <v>1.375428698504666</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1"/>
+      <c r="B500" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C500">
+        <v>-3.052732507568601</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C501">
+        <v>-5.718342530124987</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C502">
+        <v>7.703080035128651</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1"/>
+      <c r="B503" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C503">
+        <v>0.3364537692763792</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C504">
+        <v>0.2727307175494076</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C505">
+        <v>3.260815496525971</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B506" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C506">
+        <v>-5.055322560730612</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1"/>
+      <c r="B507" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C507">
+        <v>-1.943575099699035</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1"/>
+      <c r="B508" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C508">
+        <v>2.018918683523707</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1"/>
+      <c r="B509" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C509">
+        <v>2.304866240488557</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1"/>
+      <c r="B510" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C510">
+        <v>2.072417062154863</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1"/>
+      <c r="B511" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C511">
+        <v>3.747794051783959</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C512">
+        <v>0.8172729971276382</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1"/>
+      <c r="B513" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C513">
+        <v>-6.722884516416483</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1"/>
+      <c r="B514" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C514">
+        <v>15.15631469827343</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C515">
+        <v>-2.366297561718467</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C516">
+        <v>-2.645833213203508</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1"/>
+      <c r="B517" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C517">
+        <v>-5.047811263836143</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B518" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C518">
+        <v>0.9345646168590127</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1"/>
+      <c r="B519" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C519">
+        <v>0.8324601263257847</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1"/>
+      <c r="B520" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C520">
+        <v>0.7746553873108741</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C521">
+        <v>0.8247438604430002</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="1"/>
+      <c r="B522" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C522">
+        <v>0.3314740931201321</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="1"/>
+      <c r="B523" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C523">
+        <v>-0.2753092495780818</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1"/>
+      <c r="B524" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C524">
+        <v>-4.271568315840235</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="1"/>
+      <c r="B525" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C525">
+        <v>-15.27746264494413</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="1"/>
+      <c r="B526" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C526">
+        <v>19.70104809533828</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1"/>
+      <c r="B527" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C527">
+        <v>2.360275273558732</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C528">
+        <v>1.203771334816861</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1"/>
+      <c r="B529" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C529">
+        <v>7.750478028966867</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B530" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C530">
+        <v>0.007343941019000155</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C531">
+        <v>0.1126243018146234</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C532">
+        <v>0.4115822804423352</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1"/>
+      <c r="B533" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C533">
+        <v>0.2686797550232711</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1"/>
+      <c r="B534" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C534">
+        <v>0.6872608024985238</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1"/>
+      <c r="B535" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C535">
+        <v>0.2938352033852842</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1"/>
+      <c r="B536" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C536">
+        <v>-1.38651539631115</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="1"/>
+      <c r="B537" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C537">
+        <v>-8.396479288109459</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1"/>
+      <c r="B538" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C538">
+        <v>6.805748732951478</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1"/>
+      <c r="B539" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C539">
+        <v>1.808558607613819</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1"/>
+      <c r="B540" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C540">
+        <v>2.163135457528309</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1"/>
+      <c r="B541" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C541">
+        <v>2.316577441031797</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A140:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A194:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A211"/>
-    <mergeCell ref="A212:A217"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="A224:A229"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="A236:A241"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A248:A253"/>
-    <mergeCell ref="A254:A259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="A266:A271"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A266:A277"/>
+    <mergeCell ref="A278:A289"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A302:A313"/>
+    <mergeCell ref="A314:A325"/>
+    <mergeCell ref="A326:A337"/>
+    <mergeCell ref="A338:A349"/>
+    <mergeCell ref="A350:A361"/>
+    <mergeCell ref="A362:A373"/>
+    <mergeCell ref="A374:A385"/>
+    <mergeCell ref="A386:A397"/>
+    <mergeCell ref="A398:A409"/>
+    <mergeCell ref="A410:A421"/>
+    <mergeCell ref="A422:A433"/>
+    <mergeCell ref="A434:A445"/>
+    <mergeCell ref="A446:A457"/>
+    <mergeCell ref="A458:A469"/>
+    <mergeCell ref="A470:A481"/>
+    <mergeCell ref="A482:A493"/>
+    <mergeCell ref="A494:A505"/>
+    <mergeCell ref="A506:A517"/>
+    <mergeCell ref="A518:A529"/>
+    <mergeCell ref="A530:A541"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
